--- a/config/excel/SkillEffect.xlsx
+++ b/config/excel/SkillEffect.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EastEden\plan\策划案\战斗\配置表\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EastEden\excel\trunk\global\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1181F593-2518-443C-94D2-26F20EE1DD4F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{220E2AA1-1AF0-4F93-8B1D-6942ACE37227}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="88">
   <si>
     <t>行列头两行不会被读取</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -343,14 +343,6 @@
   </si>
   <si>
     <t>0-默认
-1-选定空间
-2-选定自身
-3-友军单体
-4-敌军单体</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0-默认
 目标点到目标范围边界的距离(米)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -363,12 +355,117 @@
 5-所有敌军</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>技能
+发起类型</t>
+  </si>
+  <si>
+    <t>skillLaunch</t>
+  </si>
+  <si>
+    <t>发起类型</t>
+  </si>
+  <si>
+    <t>int32</t>
+  </si>
+  <si>
+    <t>0-默认
+1-以自身
+2-以目标</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>'-1'-默认
+0-自身周围
+1-选定空间
+2-友军单体
+3-敌军单体</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>命中消息点</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>被击动作编号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>命中消息
+时间点数组</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>与命中数量相同，timeline上受击目标被击动作编号
+播放X次受击</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hitTimePoints</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>beHitPoints</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>命中点</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[]number</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[]string</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.767,1.333</t>
+  </si>
+  <si>
+    <t>受击特效</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>beAtkShow</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fx_PLMXS_atk_hit1,Fx_PLMXS_atk_hit2</t>
+  </si>
+  <si>
+    <t>Fx_PLMXS_atk_hit1,Fx_PLMXS_atk_hit2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>施法特效</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>atkShow</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fx_PLMXS_atk_slash1,Fx_PLMXS_atk_slash2</t>
+  </si>
+  <si>
+    <t>Fx_PLMXS_atk_slash1,Fx_PLMXS_atk_slash2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bak1,bak1</t>
+  </si>
+  <si>
+    <t>bak1,bak1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -424,8 +521,17 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -444,8 +550,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.499984740745262"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -564,11 +676,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -644,12 +765,21 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="29">
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -657,6 +787,101 @@
           <color theme="0"/>
         </left>
         <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
         <top style="thin">
           <color theme="0"/>
         </top>
@@ -1067,23 +1292,28 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7D756641-FA44-4C98-8415-A8A9AF7B3072}" name="表1" displayName="表1" ref="C1:U17" totalsRowShown="0" headerRowDxfId="23" dataDxfId="21" headerRowBorderDxfId="22" tableBorderDxfId="20" totalsRowBorderDxfId="19">
-  <autoFilter ref="C1:U17" xr:uid="{8CC84E60-2DCE-4F71-9796-17451FB14116}"/>
-  <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{B117A20D-488D-4BBE-9938-B9ED8BC64C7F}" name="效果ID" dataDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{8933844E-7543-4BAF-96BB-CDE9FFDA1FF4}" name="效果表演" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{9E34CFDB-9FDC-4344-99F0-5F3D0E7E5723}" name="触发概率" dataDxfId="16"/>
-    <tableColumn id="4" xr3:uid="{74D1A4E2-93B1-4E13-8C07-A6CD771CBAD7}" name="效果类型" dataDxfId="15"/>
-    <tableColumn id="5" xr3:uid="{E5C762F0-7690-49F1-83D9-D7133665E63B}" name="参数1" dataDxfId="14"/>
-    <tableColumn id="6" xr3:uid="{1C2FBB75-F754-40DD-AC47-C4E07D15EE88}" name="参数2" dataDxfId="13"/>
-    <tableColumn id="7" xr3:uid="{97A86C1D-0720-4DA9-A230-2B854C94703B}" name="参数3" dataDxfId="12"/>
-    <tableColumn id="8" xr3:uid="{74F52534-73B3-4964-B3F1-04920040D1CE}" name="参数4" dataDxfId="11"/>
-    <tableColumn id="9" xr3:uid="{FE519A61-3D62-437A-A54A-1541FAC9F66D}" name="参数5" dataDxfId="10"/>
-    <tableColumn id="10" xr3:uid="{E2EF7CB2-27DA-4534-B887-8CED13DDEDEB}" name="数组1" dataDxfId="9"/>
-    <tableColumn id="11" xr3:uid="{215AB503-B38D-422C-898E-0CCCFEC93B4E}" name="数组2" dataDxfId="8"/>
-    <tableColumn id="12" xr3:uid="{C4594820-6CDF-44FB-8D1A-6EECF3A59EE3}" name="数组3" dataDxfId="7"/>
-    <tableColumn id="13" xr3:uid="{51863B83-9A04-4C6C-9571-2A85C7B2D4B9}" name="主目标_x000a_范围类型修正" dataDxfId="6"/>
-    <tableColumn id="14" xr3:uid="{0A7DF7DC-2A81-4FED-848D-5830CE482B70}" name="主目标_x000a_修正" dataDxfId="5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7D756641-FA44-4C98-8415-A8A9AF7B3072}" name="表1" displayName="表1" ref="C1:Z17" totalsRowShown="0" headerRowDxfId="28" dataDxfId="26" headerRowBorderDxfId="27" tableBorderDxfId="25" totalsRowBorderDxfId="24">
+  <autoFilter ref="C1:Z17" xr:uid="{8CC84E60-2DCE-4F71-9796-17451FB14116}"/>
+  <tableColumns count="24">
+    <tableColumn id="1" xr3:uid="{B117A20D-488D-4BBE-9938-B9ED8BC64C7F}" name="效果ID" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{8933844E-7543-4BAF-96BB-CDE9FFDA1FF4}" name="效果表演" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{9E34CFDB-9FDC-4344-99F0-5F3D0E7E5723}" name="触发概率" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{74D1A4E2-93B1-4E13-8C07-A6CD771CBAD7}" name="效果类型" dataDxfId="20"/>
+    <tableColumn id="5" xr3:uid="{E5C762F0-7690-49F1-83D9-D7133665E63B}" name="参数1" dataDxfId="19"/>
+    <tableColumn id="6" xr3:uid="{1C2FBB75-F754-40DD-AC47-C4E07D15EE88}" name="参数2" dataDxfId="18"/>
+    <tableColumn id="7" xr3:uid="{97A86C1D-0720-4DA9-A230-2B854C94703B}" name="参数3" dataDxfId="17"/>
+    <tableColumn id="8" xr3:uid="{74F52534-73B3-4964-B3F1-04920040D1CE}" name="参数4" dataDxfId="16"/>
+    <tableColumn id="9" xr3:uid="{FE519A61-3D62-437A-A54A-1541FAC9F66D}" name="参数5" dataDxfId="15"/>
+    <tableColumn id="10" xr3:uid="{E2EF7CB2-27DA-4534-B887-8CED13DDEDEB}" name="数组1" dataDxfId="14"/>
+    <tableColumn id="11" xr3:uid="{215AB503-B38D-422C-898E-0CCCFEC93B4E}" name="数组2" dataDxfId="13"/>
+    <tableColumn id="12" xr3:uid="{C4594820-6CDF-44FB-8D1A-6EECF3A59EE3}" name="数组3" dataDxfId="12"/>
+    <tableColumn id="20" xr3:uid="{1B49411F-B5DD-4256-804A-7848C0CCBD8C}" name="命中消息点" dataDxfId="11"/>
+    <tableColumn id="22" xr3:uid="{89CE97E8-C443-414B-AE60-94C30AA66FAE}" name="被击动作编号" dataDxfId="10"/>
+    <tableColumn id="23" xr3:uid="{A055F26F-35C9-4BEE-8E03-07F885601F58}" name="受击特效" dataDxfId="9"/>
+    <tableColumn id="24" xr3:uid="{6A6CD270-7CF6-4C84-841C-BCE7E3BCE9A8}" name="施法特效" dataDxfId="8"/>
+    <tableColumn id="13" xr3:uid="{51863B83-9A04-4C6C-9571-2A85C7B2D4B9}" name="主目标_x000a_范围类型修正" dataDxfId="7"/>
+    <tableColumn id="14" xr3:uid="{0A7DF7DC-2A81-4FED-848D-5830CE482B70}" name="主目标_x000a_修正" dataDxfId="6"/>
+    <tableColumn id="21" xr3:uid="{D185F1A5-6935-4E48-8FB7-B4F1AF76ECCB}" name="技能_x000a_发起类型" dataDxfId="5"/>
     <tableColumn id="15" xr3:uid="{C74C0B95-5EB8-4479-A7E2-68D10B94811D}" name="目标范围长_x000a_修正" dataDxfId="4"/>
     <tableColumn id="16" xr3:uid="{E31385C7-BC45-441B-9178-9CC7166A03D1}" name="目标范围宽_x000a_修正" dataDxfId="3"/>
     <tableColumn id="17" xr3:uid="{3E38260C-64DD-4667-802F-14F78FD59DE2}" name="作用对象_x000a_修正" dataDxfId="2"/>
@@ -1357,10 +1587,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U17"/>
+  <dimension ref="A1:Z17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="14.25" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -1369,14 +1599,17 @@
     <col min="8" max="11" width="10.625" style="2" customWidth="1" outlineLevel="1"/>
     <col min="12" max="12" width="10.625" style="2"/>
     <col min="13" max="14" width="10.625" style="2" customWidth="1" outlineLevel="1"/>
-    <col min="15" max="15" width="15.625" style="2" customWidth="1"/>
-    <col min="16" max="17" width="10.625" style="2"/>
-    <col min="18" max="18" width="15" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="10.625" style="2"/>
+    <col min="15" max="16" width="15.625" style="2" customWidth="1"/>
+    <col min="17" max="17" width="13" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13" style="2" customWidth="1"/>
+    <col min="19" max="19" width="15.625" style="2" customWidth="1"/>
+    <col min="20" max="23" width="10.625" style="2"/>
+    <col min="24" max="24" width="15" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="10.625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1419,29 +1652,44 @@
       <c r="N1" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="O1" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="P1" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q1" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="R1" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="S1" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="T1" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="U1" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="V1" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="R1" s="9" t="s">
+      <c r="W1" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="S1" s="9" t="s">
+      <c r="X1" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="T1" s="16" t="s">
+      <c r="Y1" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="23" t="s">
+      <c r="Z1" s="23" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1457,25 +1705,36 @@
       <c r="L2" s="21"/>
       <c r="M2" s="21"/>
       <c r="N2" s="21"/>
-      <c r="O2" s="3" t="s">
+      <c r="O2" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="P2" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q2" s="28"/>
+      <c r="R2" s="28"/>
+      <c r="S2" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="T2" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="V2" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="W2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="X2" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="R2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="T2" s="18"/>
-      <c r="U2" s="24"/>
+      <c r="Y2" s="18"/>
+      <c r="Z2" s="24"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
@@ -1516,28 +1775,43 @@
         <v>39</v>
       </c>
       <c r="O3" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="P3" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q3" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="R3" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="S3" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="P3" s="15" t="s">
+      <c r="T3" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="Q3" s="15" t="s">
+      <c r="U3" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="V3" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="R3" s="15" t="s">
+      <c r="W3" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="S3" s="15" t="s">
+      <c r="X3" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="T3" s="19" t="s">
+      <c r="Y3" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="U3" s="25" t="s">
+      <c r="Z3" s="25" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
@@ -1568,24 +1842,35 @@
       <c r="M4" s="22"/>
       <c r="N4" s="22"/>
       <c r="O4" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="P4" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="15"/>
+      <c r="S4" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="P4" s="15" t="s">
+      <c r="T4" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="Q4" s="15" t="s">
+      <c r="U4" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="V4" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="R4" s="15" t="s">
+      <c r="W4" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="S4" s="15" t="s">
+      <c r="X4" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="T4" s="19"/>
-      <c r="U4" s="25"/>
+      <c r="Y4" s="19"/>
+      <c r="Z4" s="25"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>53</v>
       </c>
@@ -1606,10 +1891,15 @@
       <c r="Q5" s="15"/>
       <c r="R5" s="15"/>
       <c r="S5" s="15"/>
-      <c r="T5" s="19"/>
-      <c r="U5" s="25"/>
+      <c r="T5" s="15"/>
+      <c r="U5" s="15"/>
+      <c r="V5" s="15"/>
+      <c r="W5" s="15"/>
+      <c r="X5" s="15"/>
+      <c r="Y5" s="19"/>
+      <c r="Z5" s="25"/>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
@@ -1640,24 +1930,39 @@
       <c r="M6" s="22"/>
       <c r="N6" s="22"/>
       <c r="O6" s="15" t="s">
-        <v>17</v>
+        <v>75</v>
       </c>
       <c r="P6" s="15" t="s">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="Q6" s="15" t="s">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="R6" s="15" t="s">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="S6" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="T6" s="19"/>
-      <c r="U6" s="25"/>
+      <c r="T6" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="U6" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="V6" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="W6" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="X6" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y6" s="19"/>
+      <c r="Z6" s="25"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="4">
         <v>1010011</v>
       </c>
@@ -1682,60 +1987,234 @@
       <c r="K7" s="2">
         <v>0</v>
       </c>
-      <c r="O7" s="2">
-        <v>0</v>
-      </c>
-      <c r="P7" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="2">
-        <v>0</v>
-      </c>
-      <c r="R7" s="2">
-        <v>0</v>
+      <c r="O7" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="S7" s="2">
         <v>0</v>
       </c>
-      <c r="U7" s="5"/>
+      <c r="T7" s="2">
+        <v>-1</v>
+      </c>
+      <c r="U7" s="2">
+        <v>0</v>
+      </c>
+      <c r="V7" s="2">
+        <v>0</v>
+      </c>
+      <c r="W7" s="2">
+        <v>0</v>
+      </c>
+      <c r="X7" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="5"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="C8" s="4"/>
-      <c r="U8" s="5"/>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="C8" s="4">
+        <v>1010012</v>
+      </c>
+      <c r="E8" s="2">
+        <v>10000</v>
+      </c>
+      <c r="F8" s="2">
+        <v>101</v>
+      </c>
+      <c r="G8" s="2">
+        <v>3</v>
+      </c>
+      <c r="H8" s="2">
+        <v>200</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="S8" s="2">
+        <v>0</v>
+      </c>
+      <c r="T8" s="2">
+        <v>-1</v>
+      </c>
+      <c r="U8" s="2">
+        <v>0</v>
+      </c>
+      <c r="V8" s="2">
+        <v>0</v>
+      </c>
+      <c r="W8" s="2">
+        <v>0</v>
+      </c>
+      <c r="X8" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="5"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="C9" s="4"/>
-      <c r="U9" s="5"/>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="C9" s="4">
+        <v>1010013</v>
+      </c>
+      <c r="E9" s="2">
+        <v>10000</v>
+      </c>
+      <c r="F9" s="2">
+        <v>101</v>
+      </c>
+      <c r="G9" s="2">
+        <v>6</v>
+      </c>
+      <c r="H9" s="2">
+        <v>200</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0</v>
+      </c>
+      <c r="K9" s="2">
+        <v>0</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="S9" s="2">
+        <v>0</v>
+      </c>
+      <c r="T9" s="2">
+        <v>-1</v>
+      </c>
+      <c r="U9" s="2">
+        <v>0</v>
+      </c>
+      <c r="V9" s="2">
+        <v>0</v>
+      </c>
+      <c r="W9" s="2">
+        <v>0</v>
+      </c>
+      <c r="X9" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="5"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="C10" s="4"/>
-      <c r="U10" s="5"/>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="C10" s="4">
+        <v>1010014</v>
+      </c>
+      <c r="E10" s="2">
+        <v>10000</v>
+      </c>
+      <c r="F10" s="2">
+        <v>101</v>
+      </c>
+      <c r="G10" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="H10" s="2">
+        <v>200</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2">
+        <v>0</v>
+      </c>
+      <c r="K10" s="2">
+        <v>0</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="S10" s="2">
+        <v>0</v>
+      </c>
+      <c r="T10" s="2">
+        <v>-1</v>
+      </c>
+      <c r="U10" s="2">
+        <v>0</v>
+      </c>
+      <c r="V10" s="2">
+        <v>0</v>
+      </c>
+      <c r="W10" s="2">
+        <v>0</v>
+      </c>
+      <c r="X10" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="5"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="4"/>
-      <c r="U11" s="5"/>
+      <c r="Z11" s="5"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="4"/>
-      <c r="U12" s="5"/>
+      <c r="Z12" s="5"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="4"/>
-      <c r="U13" s="5"/>
+      <c r="Z13" s="5"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="4"/>
-      <c r="U14" s="5"/>
+      <c r="Z14" s="5"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="4"/>
-      <c r="U15" s="5"/>
+      <c r="Z15" s="5"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C16" s="4"/>
-      <c r="U16" s="5"/>
+      <c r="Z16" s="5"/>
     </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="10"/>
       <c r="D17" s="11"/>
       <c r="E17" s="11"/>
@@ -1754,7 +2233,12 @@
       <c r="R17" s="11"/>
       <c r="S17" s="11"/>
       <c r="T17" s="11"/>
-      <c r="U17" s="12"/>
+      <c r="U17" s="11"/>
+      <c r="V17" s="11"/>
+      <c r="W17" s="11"/>
+      <c r="X17" s="11"/>
+      <c r="Y17" s="11"/>
+      <c r="Z17" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/config/excel/SkillEffect.xlsx
+++ b/config/excel/SkillEffect.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EastEden\excel\trunk\global\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{220E2AA1-1AF0-4F93-8B1D-6942ACE37227}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C370B736-733C-4B55-A95A-606BB6A974C2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillEffect" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="75">
   <si>
     <t>行列头两行不会被读取</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -383,81 +383,31 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>命中消息点</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>被击动作编号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>命中消息
-时间点数组</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>与命中数量相同，timeline上受击目标被击动作编号
-播放X次受击</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>hitTimePoints</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>beHitPoints</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>命中点</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[]number</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[]string</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.767,1.333</t>
-  </si>
-  <si>
-    <t>受击特效</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>beAtkShow</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fx_PLMXS_atk_hit1,Fx_PLMXS_atk_hit2</t>
-  </si>
-  <si>
-    <t>Fx_PLMXS_atk_hit1,Fx_PLMXS_atk_hit2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>施法特效</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>atkShow</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fx_PLMXS_atk_slash1,Fx_PLMXS_atk_slash2</t>
-  </si>
-  <si>
-    <t>Fx_PLMXS_atk_slash1,Fx_PLMXS_atk_slash2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>bak1,bak1</t>
-  </si>
-  <si>
-    <t>bak1,bak1</t>
+    <t>僵直时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>击退距离</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标受击后僵直时间，期间目标com条静止，保持受击动作，其他单位继续行动</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标受击后被击退的距离</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rigidityTime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>retreatDistance</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -465,7 +415,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -530,8 +480,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -556,6 +514,12 @@
         <bgColor theme="4"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79995117038483843"/>
+        <bgColor theme="4" tint="0.79995117038483843"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="11">
     <border>
@@ -766,27 +730,29 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="29">
+  <dxfs count="27">
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color theme="0"/>
         </left>
-        <right/>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
         <top style="thin">
           <color theme="0"/>
         </top>
@@ -803,47 +769,7 @@
         <left style="thin">
           <color theme="0"/>
         </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
+        <right/>
         <top style="thin">
           <color theme="0"/>
         </top>
@@ -1292,33 +1218,31 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7D756641-FA44-4C98-8415-A8A9AF7B3072}" name="表1" displayName="表1" ref="C1:Z17" totalsRowShown="0" headerRowDxfId="28" dataDxfId="26" headerRowBorderDxfId="27" tableBorderDxfId="25" totalsRowBorderDxfId="24">
-  <autoFilter ref="C1:Z17" xr:uid="{8CC84E60-2DCE-4F71-9796-17451FB14116}"/>
-  <tableColumns count="24">
-    <tableColumn id="1" xr3:uid="{B117A20D-488D-4BBE-9938-B9ED8BC64C7F}" name="效果ID" dataDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{8933844E-7543-4BAF-96BB-CDE9FFDA1FF4}" name="效果表演" dataDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{9E34CFDB-9FDC-4344-99F0-5F3D0E7E5723}" name="触发概率" dataDxfId="21"/>
-    <tableColumn id="4" xr3:uid="{74D1A4E2-93B1-4E13-8C07-A6CD771CBAD7}" name="效果类型" dataDxfId="20"/>
-    <tableColumn id="5" xr3:uid="{E5C762F0-7690-49F1-83D9-D7133665E63B}" name="参数1" dataDxfId="19"/>
-    <tableColumn id="6" xr3:uid="{1C2FBB75-F754-40DD-AC47-C4E07D15EE88}" name="参数2" dataDxfId="18"/>
-    <tableColumn id="7" xr3:uid="{97A86C1D-0720-4DA9-A230-2B854C94703B}" name="参数3" dataDxfId="17"/>
-    <tableColumn id="8" xr3:uid="{74F52534-73B3-4964-B3F1-04920040D1CE}" name="参数4" dataDxfId="16"/>
-    <tableColumn id="9" xr3:uid="{FE519A61-3D62-437A-A54A-1541FAC9F66D}" name="参数5" dataDxfId="15"/>
-    <tableColumn id="10" xr3:uid="{E2EF7CB2-27DA-4534-B887-8CED13DDEDEB}" name="数组1" dataDxfId="14"/>
-    <tableColumn id="11" xr3:uid="{215AB503-B38D-422C-898E-0CCCFEC93B4E}" name="数组2" dataDxfId="13"/>
-    <tableColumn id="12" xr3:uid="{C4594820-6CDF-44FB-8D1A-6EECF3A59EE3}" name="数组3" dataDxfId="12"/>
-    <tableColumn id="20" xr3:uid="{1B49411F-B5DD-4256-804A-7848C0CCBD8C}" name="命中消息点" dataDxfId="11"/>
-    <tableColumn id="22" xr3:uid="{89CE97E8-C443-414B-AE60-94C30AA66FAE}" name="被击动作编号" dataDxfId="10"/>
-    <tableColumn id="23" xr3:uid="{A055F26F-35C9-4BEE-8E03-07F885601F58}" name="受击特效" dataDxfId="9"/>
-    <tableColumn id="24" xr3:uid="{6A6CD270-7CF6-4C84-841C-BCE7E3BCE9A8}" name="施法特效" dataDxfId="8"/>
-    <tableColumn id="13" xr3:uid="{51863B83-9A04-4C6C-9571-2A85C7B2D4B9}" name="主目标_x000a_范围类型修正" dataDxfId="7"/>
-    <tableColumn id="14" xr3:uid="{0A7DF7DC-2A81-4FED-848D-5830CE482B70}" name="主目标_x000a_修正" dataDxfId="6"/>
-    <tableColumn id="21" xr3:uid="{D185F1A5-6935-4E48-8FB7-B4F1AF76ECCB}" name="技能_x000a_发起类型" dataDxfId="5"/>
-    <tableColumn id="15" xr3:uid="{C74C0B95-5EB8-4479-A7E2-68D10B94811D}" name="目标范围长_x000a_修正" dataDxfId="4"/>
-    <tableColumn id="16" xr3:uid="{E31385C7-BC45-441B-9178-9CC7166A03D1}" name="目标范围宽_x000a_修正" dataDxfId="3"/>
-    <tableColumn id="17" xr3:uid="{3E38260C-64DD-4667-802F-14F78FD59DE2}" name="作用对象_x000a_修正" dataDxfId="2"/>
-    <tableColumn id="18" xr3:uid="{E338C7D2-80D7-45C8-AA21-14A3A2EE0424}" name="触发时机" dataDxfId="1"/>
-    <tableColumn id="19" xr3:uid="{E4169552-9707-4822-A6FC-78CFA23DEE16}" name="触发条件" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7D756641-FA44-4C98-8415-A8A9AF7B3072}" name="表1" displayName="表1" ref="C1:X17" totalsRowShown="0" headerRowDxfId="26" dataDxfId="24" headerRowBorderDxfId="25" tableBorderDxfId="23" totalsRowBorderDxfId="22">
+  <autoFilter ref="C1:X17" xr:uid="{8CC84E60-2DCE-4F71-9796-17451FB14116}"/>
+  <tableColumns count="22">
+    <tableColumn id="1" xr3:uid="{B117A20D-488D-4BBE-9938-B9ED8BC64C7F}" name="效果ID" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{8933844E-7543-4BAF-96BB-CDE9FFDA1FF4}" name="效果表演" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{9E34CFDB-9FDC-4344-99F0-5F3D0E7E5723}" name="触发概率" dataDxfId="20"/>
+    <tableColumn id="4" xr3:uid="{74D1A4E2-93B1-4E13-8C07-A6CD771CBAD7}" name="效果类型" dataDxfId="19"/>
+    <tableColumn id="5" xr3:uid="{E5C762F0-7690-49F1-83D9-D7133665E63B}" name="参数1" dataDxfId="18"/>
+    <tableColumn id="6" xr3:uid="{1C2FBB75-F754-40DD-AC47-C4E07D15EE88}" name="参数2" dataDxfId="17"/>
+    <tableColumn id="7" xr3:uid="{97A86C1D-0720-4DA9-A230-2B854C94703B}" name="参数3" dataDxfId="16"/>
+    <tableColumn id="8" xr3:uid="{74F52534-73B3-4964-B3F1-04920040D1CE}" name="参数4" dataDxfId="15"/>
+    <tableColumn id="9" xr3:uid="{FE519A61-3D62-437A-A54A-1541FAC9F66D}" name="参数5" dataDxfId="14"/>
+    <tableColumn id="10" xr3:uid="{E2EF7CB2-27DA-4534-B887-8CED13DDEDEB}" name="数组1" dataDxfId="13"/>
+    <tableColumn id="11" xr3:uid="{215AB503-B38D-422C-898E-0CCCFEC93B4E}" name="数组2" dataDxfId="12"/>
+    <tableColumn id="12" xr3:uid="{C4594820-6CDF-44FB-8D1A-6EECF3A59EE3}" name="数组3" dataDxfId="11"/>
+    <tableColumn id="22" xr3:uid="{4BB4B014-7D85-45C2-BDA5-C3BC6A0D24EF}" name="僵直时间" dataDxfId="10"/>
+    <tableColumn id="23" xr3:uid="{32ECB7E7-868A-4E37-9C99-B8DBD7367CC5}" name="击退距离" dataDxfId="9"/>
+    <tableColumn id="13" xr3:uid="{51863B83-9A04-4C6C-9571-2A85C7B2D4B9}" name="主目标_x000a_范围类型修正" dataDxfId="8"/>
+    <tableColumn id="14" xr3:uid="{0A7DF7DC-2A81-4FED-848D-5830CE482B70}" name="主目标_x000a_修正" dataDxfId="7"/>
+    <tableColumn id="21" xr3:uid="{D185F1A5-6935-4E48-8FB7-B4F1AF76ECCB}" name="技能_x000a_发起类型" dataDxfId="6"/>
+    <tableColumn id="15" xr3:uid="{C74C0B95-5EB8-4479-A7E2-68D10B94811D}" name="目标范围长_x000a_修正" dataDxfId="5"/>
+    <tableColumn id="16" xr3:uid="{E31385C7-BC45-441B-9178-9CC7166A03D1}" name="目标范围宽_x000a_修正" dataDxfId="4"/>
+    <tableColumn id="17" xr3:uid="{3E38260C-64DD-4667-802F-14F78FD59DE2}" name="作用对象_x000a_修正" dataDxfId="3"/>
+    <tableColumn id="18" xr3:uid="{E338C7D2-80D7-45C8-AA21-14A3A2EE0424}" name="触发时机" dataDxfId="2"/>
+    <tableColumn id="19" xr3:uid="{E4169552-9707-4822-A6FC-78CFA23DEE16}" name="触发条件" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1587,10 +1511,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z17"/>
+  <dimension ref="A1:X17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="14.25" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -1599,17 +1523,15 @@
     <col min="8" max="11" width="10.625" style="2" customWidth="1" outlineLevel="1"/>
     <col min="12" max="12" width="10.625" style="2"/>
     <col min="13" max="14" width="10.625" style="2" customWidth="1" outlineLevel="1"/>
-    <col min="15" max="16" width="15.625" style="2" customWidth="1"/>
-    <col min="17" max="17" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13" style="2" customWidth="1"/>
-    <col min="19" max="19" width="15.625" style="2" customWidth="1"/>
-    <col min="20" max="23" width="10.625" style="2"/>
-    <col min="24" max="24" width="15" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="10.625" style="2"/>
+    <col min="15" max="16" width="13" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.625" style="2" customWidth="1"/>
+    <col min="18" max="22" width="10.625" style="2"/>
+    <col min="23" max="23" width="15" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="10.625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1619,7 +1541,7 @@
       <c r="C1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="20" t="s">
         <v>7</v>
       </c>
       <c r="E1" s="8" t="s">
@@ -1652,48 +1574,43 @@
       <c r="N1" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="27" t="s">
+      <c r="O1" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="P1" s="27" t="s">
+      <c r="P1" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="Q1" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="R1" s="27" t="s">
-        <v>82</v>
+      <c r="Q1" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="R1" s="9" t="s">
+        <v>20</v>
       </c>
       <c r="S1" s="9" t="s">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="T1" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="U1" s="9" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="V1" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="X1" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="Y1" s="16" t="s">
+      <c r="W1" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="Z1" s="23" t="s">
+      <c r="X1" s="23" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="4"/>
+      <c r="D2" s="21"/>
       <c r="E2" s="1" t="s">
         <v>30</v>
       </c>
@@ -1705,43 +1622,41 @@
       <c r="L2" s="21"/>
       <c r="M2" s="21"/>
       <c r="N2" s="21"/>
-      <c r="O2" s="28" t="s">
+      <c r="O2" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="P2" s="28" t="s">
+      <c r="P2" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="Q2" s="28"/>
-      <c r="R2" s="28"/>
+      <c r="Q2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>67</v>
+      </c>
       <c r="S2" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="T2" s="26" t="s">
-        <v>67</v>
+        <v>66</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="W2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="X2" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="Y2" s="18"/>
-      <c r="Z2" s="24"/>
+      <c r="W2" s="18"/>
+      <c r="X2" s="24"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="22" t="s">
         <v>27</v>
       </c>
       <c r="E3" s="14" t="s">
@@ -1774,51 +1689,45 @@
       <c r="N3" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="O3" s="15" t="s">
+      <c r="O3" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="P3" s="15" t="s">
+      <c r="P3" s="28" t="s">
         <v>73</v>
       </c>
       <c r="Q3" s="15" t="s">
-        <v>79</v>
+        <v>41</v>
       </c>
       <c r="R3" s="15" t="s">
-        <v>83</v>
+        <v>42</v>
       </c>
       <c r="S3" s="15" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="T3" s="15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="U3" s="15" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="V3" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="W3" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="X3" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="Y3" s="19" t="s">
+      <c r="W3" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="Z3" s="25" t="s">
+      <c r="X3" s="25" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="22" t="s">
         <v>7</v>
       </c>
       <c r="E4" s="14" t="s">
@@ -1841,41 +1750,39 @@
       <c r="L4" s="22"/>
       <c r="M4" s="22"/>
       <c r="N4" s="22"/>
-      <c r="O4" s="15" t="s">
+      <c r="O4" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="P4" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="15"/>
+      <c r="P4" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q4" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="R4" s="15" t="s">
+        <v>47</v>
+      </c>
       <c r="S4" s="15" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="T4" s="15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U4" s="15" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="V4" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="W4" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="X4" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="Y4" s="19"/>
-      <c r="Z4" s="25"/>
+      <c r="W4" s="19"/>
+      <c r="X4" s="25"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C5" s="13"/>
-      <c r="D5" s="14"/>
+      <c r="D5" s="22"/>
       <c r="E5" s="14"/>
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
@@ -1894,19 +1801,17 @@
       <c r="T5" s="15"/>
       <c r="U5" s="15"/>
       <c r="V5" s="15"/>
-      <c r="W5" s="15"/>
-      <c r="X5" s="15"/>
-      <c r="Y5" s="19"/>
-      <c r="Z5" s="25"/>
+      <c r="W5" s="19"/>
+      <c r="X5" s="25"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="22" t="s">
         <v>29</v>
       </c>
       <c r="E6" s="14" t="s">
@@ -1929,40 +1834,34 @@
       <c r="L6" s="22"/>
       <c r="M6" s="22"/>
       <c r="N6" s="22"/>
-      <c r="O6" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="P6" s="15" t="s">
-        <v>76</v>
+      <c r="O6" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="P6" s="28" t="s">
+        <v>74</v>
       </c>
       <c r="Q6" s="15" t="s">
-        <v>76</v>
+        <v>17</v>
       </c>
       <c r="R6" s="15" t="s">
-        <v>76</v>
+        <v>17</v>
       </c>
       <c r="S6" s="15" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="T6" s="15" t="s">
         <v>17</v>
       </c>
       <c r="U6" s="15" t="s">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="V6" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="W6" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="X6" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y6" s="19"/>
-      <c r="Z6" s="25"/>
+      <c r="W6" s="19"/>
+      <c r="X6" s="25"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="4">
         <v>1010011</v>
       </c>
@@ -1987,23 +1886,23 @@
       <c r="K7" s="2">
         <v>0</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q7" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="R7" s="2" t="s">
-        <v>85</v>
+      <c r="O7" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="P7" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>0</v>
+      </c>
+      <c r="R7" s="2">
+        <v>-1</v>
       </c>
       <c r="S7" s="2">
         <v>0</v>
       </c>
       <c r="T7" s="2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U7" s="2">
         <v>0</v>
@@ -2011,15 +1910,9 @@
       <c r="V7" s="2">
         <v>0</v>
       </c>
-      <c r="W7" s="2">
-        <v>0</v>
-      </c>
-      <c r="X7" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="5"/>
+      <c r="X7" s="5"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="4">
         <v>1010012</v>
       </c>
@@ -2044,23 +1937,23 @@
       <c r="K8" s="2">
         <v>0</v>
       </c>
-      <c r="O8" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="P8" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q8" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="R8" s="2" t="s">
-        <v>84</v>
+      <c r="O8" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="P8" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>0</v>
+      </c>
+      <c r="R8" s="2">
+        <v>-1</v>
       </c>
       <c r="S8" s="2">
         <v>0</v>
       </c>
       <c r="T8" s="2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U8" s="2">
         <v>0</v>
@@ -2068,15 +1961,9 @@
       <c r="V8" s="2">
         <v>0</v>
       </c>
-      <c r="W8" s="2">
-        <v>0</v>
-      </c>
-      <c r="X8" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="5"/>
+      <c r="X8" s="5"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="4">
         <v>1010013</v>
       </c>
@@ -2101,23 +1988,23 @@
       <c r="K9" s="2">
         <v>0</v>
       </c>
-      <c r="O9" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="P9" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q9" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="R9" s="2" t="s">
-        <v>84</v>
+      <c r="O9" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="P9" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>0</v>
+      </c>
+      <c r="R9" s="2">
+        <v>-1</v>
       </c>
       <c r="S9" s="2">
         <v>0</v>
       </c>
       <c r="T9" s="2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U9" s="2">
         <v>0</v>
@@ -2125,15 +2012,9 @@
       <c r="V9" s="2">
         <v>0</v>
       </c>
-      <c r="W9" s="2">
-        <v>0</v>
-      </c>
-      <c r="X9" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="5"/>
+      <c r="X9" s="5"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="4">
         <v>1010014</v>
       </c>
@@ -2158,23 +2039,23 @@
       <c r="K10" s="2">
         <v>0</v>
       </c>
-      <c r="O10" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="P10" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q10" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="R10" s="2" t="s">
-        <v>84</v>
+      <c r="O10" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="P10" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>0</v>
+      </c>
+      <c r="R10" s="2">
+        <v>-1</v>
       </c>
       <c r="S10" s="2">
         <v>0</v>
       </c>
       <c r="T10" s="2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U10" s="2">
         <v>0</v>
@@ -2182,39 +2063,33 @@
       <c r="V10" s="2">
         <v>0</v>
       </c>
-      <c r="W10" s="2">
-        <v>0</v>
-      </c>
-      <c r="X10" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="5"/>
+      <c r="X10" s="5"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="4"/>
-      <c r="Z11" s="5"/>
+      <c r="X11" s="5"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="4"/>
-      <c r="Z12" s="5"/>
+      <c r="X12" s="5"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="4"/>
-      <c r="Z13" s="5"/>
+      <c r="X13" s="5"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="4"/>
-      <c r="Z14" s="5"/>
+      <c r="X14" s="5"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="4"/>
-      <c r="Z15" s="5"/>
+      <c r="X15" s="5"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C16" s="4"/>
-      <c r="Z16" s="5"/>
+      <c r="X16" s="5"/>
     </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="10"/>
       <c r="D17" s="11"/>
       <c r="E17" s="11"/>
@@ -2236,9 +2111,7 @@
       <c r="U17" s="11"/>
       <c r="V17" s="11"/>
       <c r="W17" s="11"/>
-      <c r="X17" s="11"/>
-      <c r="Y17" s="11"/>
-      <c r="Z17" s="12"/>
+      <c r="X17" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/config/excel/SkillEffect.xlsx
+++ b/config/excel/SkillEffect.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EastEden\excel\trunk\global\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C370B736-733C-4B55-A95A-606BB6A974C2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F826D3A7-7DE8-4429-B5F1-7E8270C9B90B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillEffect" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
     <author>dd</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{05B794EC-C9E0-47DA-BA1D-6D81E89388D8}">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{05B794EC-C9E0-47DA-BA1D-6D81E89388D8}">
       <text>
         <r>
           <rPr>
@@ -45,12 +45,27 @@
         </r>
       </text>
     </comment>
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{1423CB30-3DF0-4D12-A85D-376D802CDC1A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>用于判定该eff的概率类型是否走效果命中和效果抵抗的判定</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="79">
   <si>
     <t>行列头两行不会被读取</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -408,6 +423,24 @@
   </si>
   <si>
     <t>number</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否判定
+效果命中</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>isEffectHit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>判定类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-不走效果命中判定
+1-走效果命中判定</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -653,7 +686,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -738,21 +771,22 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="27">
+  <dxfs count="28">
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color theme="0"/>
         </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
+        <right/>
         <top style="thin">
           <color theme="0"/>
         </top>
@@ -769,7 +803,28 @@
         <left style="thin">
           <color theme="0"/>
         </left>
-        <right/>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
         <top style="thin">
           <color theme="0"/>
         </top>
@@ -1218,31 +1273,32 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7D756641-FA44-4C98-8415-A8A9AF7B3072}" name="表1" displayName="表1" ref="C1:X17" totalsRowShown="0" headerRowDxfId="26" dataDxfId="24" headerRowBorderDxfId="25" tableBorderDxfId="23" totalsRowBorderDxfId="22">
-  <autoFilter ref="C1:X17" xr:uid="{8CC84E60-2DCE-4F71-9796-17451FB14116}"/>
-  <tableColumns count="22">
-    <tableColumn id="1" xr3:uid="{B117A20D-488D-4BBE-9938-B9ED8BC64C7F}" name="效果ID" dataDxfId="21"/>
-    <tableColumn id="2" xr3:uid="{8933844E-7543-4BAF-96BB-CDE9FFDA1FF4}" name="效果表演" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{9E34CFDB-9FDC-4344-99F0-5F3D0E7E5723}" name="触发概率" dataDxfId="20"/>
-    <tableColumn id="4" xr3:uid="{74D1A4E2-93B1-4E13-8C07-A6CD771CBAD7}" name="效果类型" dataDxfId="19"/>
-    <tableColumn id="5" xr3:uid="{E5C762F0-7690-49F1-83D9-D7133665E63B}" name="参数1" dataDxfId="18"/>
-    <tableColumn id="6" xr3:uid="{1C2FBB75-F754-40DD-AC47-C4E07D15EE88}" name="参数2" dataDxfId="17"/>
-    <tableColumn id="7" xr3:uid="{97A86C1D-0720-4DA9-A230-2B854C94703B}" name="参数3" dataDxfId="16"/>
-    <tableColumn id="8" xr3:uid="{74F52534-73B3-4964-B3F1-04920040D1CE}" name="参数4" dataDxfId="15"/>
-    <tableColumn id="9" xr3:uid="{FE519A61-3D62-437A-A54A-1541FAC9F66D}" name="参数5" dataDxfId="14"/>
-    <tableColumn id="10" xr3:uid="{E2EF7CB2-27DA-4534-B887-8CED13DDEDEB}" name="数组1" dataDxfId="13"/>
-    <tableColumn id="11" xr3:uid="{215AB503-B38D-422C-898E-0CCCFEC93B4E}" name="数组2" dataDxfId="12"/>
-    <tableColumn id="12" xr3:uid="{C4594820-6CDF-44FB-8D1A-6EECF3A59EE3}" name="数组3" dataDxfId="11"/>
-    <tableColumn id="22" xr3:uid="{4BB4B014-7D85-45C2-BDA5-C3BC6A0D24EF}" name="僵直时间" dataDxfId="10"/>
-    <tableColumn id="23" xr3:uid="{32ECB7E7-868A-4E37-9C99-B8DBD7367CC5}" name="击退距离" dataDxfId="9"/>
-    <tableColumn id="13" xr3:uid="{51863B83-9A04-4C6C-9571-2A85C7B2D4B9}" name="主目标_x000a_范围类型修正" dataDxfId="8"/>
-    <tableColumn id="14" xr3:uid="{0A7DF7DC-2A81-4FED-848D-5830CE482B70}" name="主目标_x000a_修正" dataDxfId="7"/>
-    <tableColumn id="21" xr3:uid="{D185F1A5-6935-4E48-8FB7-B4F1AF76ECCB}" name="技能_x000a_发起类型" dataDxfId="6"/>
-    <tableColumn id="15" xr3:uid="{C74C0B95-5EB8-4479-A7E2-68D10B94811D}" name="目标范围长_x000a_修正" dataDxfId="5"/>
-    <tableColumn id="16" xr3:uid="{E31385C7-BC45-441B-9178-9CC7166A03D1}" name="目标范围宽_x000a_修正" dataDxfId="4"/>
-    <tableColumn id="17" xr3:uid="{3E38260C-64DD-4667-802F-14F78FD59DE2}" name="作用对象_x000a_修正" dataDxfId="3"/>
-    <tableColumn id="18" xr3:uid="{E338C7D2-80D7-45C8-AA21-14A3A2EE0424}" name="触发时机" dataDxfId="2"/>
-    <tableColumn id="19" xr3:uid="{E4169552-9707-4822-A6FC-78CFA23DEE16}" name="触发条件" dataDxfId="1"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7D756641-FA44-4C98-8415-A8A9AF7B3072}" name="表1" displayName="表1" ref="C1:Y17" totalsRowShown="0" headerRowDxfId="27" dataDxfId="25" headerRowBorderDxfId="26" tableBorderDxfId="24" totalsRowBorderDxfId="23">
+  <autoFilter ref="C1:Y17" xr:uid="{8CC84E60-2DCE-4F71-9796-17451FB14116}"/>
+  <tableColumns count="23">
+    <tableColumn id="1" xr3:uid="{B117A20D-488D-4BBE-9938-B9ED8BC64C7F}" name="效果ID" dataDxfId="22"/>
+    <tableColumn id="2" xr3:uid="{8933844E-7543-4BAF-96BB-CDE9FFDA1FF4}" name="效果表演" dataDxfId="21"/>
+    <tableColumn id="20" xr3:uid="{0D040897-96A3-4655-AF1A-867F46D315D6}" name="是否判定_x000a_效果命中" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{9E34CFDB-9FDC-4344-99F0-5F3D0E7E5723}" name="触发概率" dataDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{74D1A4E2-93B1-4E13-8C07-A6CD771CBAD7}" name="效果类型" dataDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{E5C762F0-7690-49F1-83D9-D7133665E63B}" name="参数1" dataDxfId="17"/>
+    <tableColumn id="6" xr3:uid="{1C2FBB75-F754-40DD-AC47-C4E07D15EE88}" name="参数2" dataDxfId="16"/>
+    <tableColumn id="7" xr3:uid="{97A86C1D-0720-4DA9-A230-2B854C94703B}" name="参数3" dataDxfId="15"/>
+    <tableColumn id="8" xr3:uid="{74F52534-73B3-4964-B3F1-04920040D1CE}" name="参数4" dataDxfId="14"/>
+    <tableColumn id="9" xr3:uid="{FE519A61-3D62-437A-A54A-1541FAC9F66D}" name="参数5" dataDxfId="13"/>
+    <tableColumn id="10" xr3:uid="{E2EF7CB2-27DA-4534-B887-8CED13DDEDEB}" name="数组1" dataDxfId="12"/>
+    <tableColumn id="11" xr3:uid="{215AB503-B38D-422C-898E-0CCCFEC93B4E}" name="数组2" dataDxfId="11"/>
+    <tableColumn id="12" xr3:uid="{C4594820-6CDF-44FB-8D1A-6EECF3A59EE3}" name="数组3" dataDxfId="10"/>
+    <tableColumn id="22" xr3:uid="{4BB4B014-7D85-45C2-BDA5-C3BC6A0D24EF}" name="僵直时间" dataDxfId="9"/>
+    <tableColumn id="23" xr3:uid="{32ECB7E7-868A-4E37-9C99-B8DBD7367CC5}" name="击退距离" dataDxfId="8"/>
+    <tableColumn id="13" xr3:uid="{51863B83-9A04-4C6C-9571-2A85C7B2D4B9}" name="主目标_x000a_范围类型修正" dataDxfId="7"/>
+    <tableColumn id="14" xr3:uid="{0A7DF7DC-2A81-4FED-848D-5830CE482B70}" name="主目标_x000a_修正" dataDxfId="6"/>
+    <tableColumn id="21" xr3:uid="{D185F1A5-6935-4E48-8FB7-B4F1AF76ECCB}" name="技能_x000a_发起类型" dataDxfId="5"/>
+    <tableColumn id="15" xr3:uid="{C74C0B95-5EB8-4479-A7E2-68D10B94811D}" name="目标范围长_x000a_修正" dataDxfId="4"/>
+    <tableColumn id="16" xr3:uid="{E31385C7-BC45-441B-9178-9CC7166A03D1}" name="目标范围宽_x000a_修正" dataDxfId="3"/>
+    <tableColumn id="17" xr3:uid="{3E38260C-64DD-4667-802F-14F78FD59DE2}" name="作用对象_x000a_修正" dataDxfId="2"/>
+    <tableColumn id="18" xr3:uid="{E338C7D2-80D7-45C8-AA21-14A3A2EE0424}" name="触发时机" dataDxfId="1"/>
+    <tableColumn id="19" xr3:uid="{E4169552-9707-4822-A6FC-78CFA23DEE16}" name="触发条件" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1511,27 +1567,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X17"/>
+  <dimension ref="A1:Y17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="14.25" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="7" width="10.625" style="2"/>
-    <col min="8" max="11" width="10.625" style="2" customWidth="1" outlineLevel="1"/>
-    <col min="12" max="12" width="10.625" style="2"/>
-    <col min="13" max="14" width="10.625" style="2" customWidth="1" outlineLevel="1"/>
-    <col min="15" max="16" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.625" style="2" customWidth="1"/>
-    <col min="18" max="22" width="10.625" style="2"/>
-    <col min="23" max="23" width="15" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="10.625" style="2"/>
+    <col min="1" max="8" width="10.625" style="2"/>
+    <col min="9" max="12" width="10.625" style="2" customWidth="1" outlineLevel="1"/>
+    <col min="13" max="13" width="10.625" style="2"/>
+    <col min="14" max="15" width="10.625" style="2" customWidth="1" outlineLevel="1"/>
+    <col min="16" max="17" width="13" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.625" style="2" customWidth="1"/>
+    <col min="19" max="23" width="10.625" style="2"/>
+    <col min="24" max="24" width="15" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="10.625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1544,112 +1600,118 @@
       <c r="D1" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="J1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="K1" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="L1" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="L1" s="20" t="s">
+      <c r="M1" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="20" t="s">
+      <c r="N1" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="20" t="s">
+      <c r="O1" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="26" t="s">
+      <c r="P1" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="P1" s="26" t="s">
+      <c r="Q1" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="R1" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="R1" s="9" t="s">
+      <c r="S1" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="S1" s="9" t="s">
+      <c r="T1" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="T1" s="9" t="s">
+      <c r="U1" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="U1" s="9" t="s">
+      <c r="V1" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="V1" s="9" t="s">
+      <c r="W1" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="W1" s="16" t="s">
+      <c r="X1" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="X1" s="23" t="s">
+      <c r="Y1" s="23" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="21"/>
       <c r="E2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="J2" s="18"/>
       <c r="K2" s="18"/>
-      <c r="L2" s="21"/>
+      <c r="L2" s="18"/>
       <c r="M2" s="21"/>
       <c r="N2" s="21"/>
-      <c r="O2" s="27" t="s">
+      <c r="O2" s="21"/>
+      <c r="P2" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="P2" s="27" t="s">
+      <c r="Q2" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="R2" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="S2" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="T2" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="U2" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="V2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="V2" s="3" t="s">
+      <c r="W2" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="W2" s="18"/>
-      <c r="X2" s="24"/>
+      <c r="X2" s="18"/>
+      <c r="Y2" s="24"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
@@ -1660,67 +1722,70 @@
         <v>27</v>
       </c>
       <c r="E3" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="F3" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="G3" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="H3" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="I3" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="J3" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="J3" s="19" t="s">
+      <c r="K3" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="K3" s="19" t="s">
+      <c r="L3" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="L3" s="22" t="s">
+      <c r="M3" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="M3" s="22" t="s">
+      <c r="N3" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="N3" s="22" t="s">
+      <c r="O3" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="O3" s="28" t="s">
+      <c r="P3" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="P3" s="28" t="s">
+      <c r="Q3" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="Q3" s="15" t="s">
+      <c r="R3" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="R3" s="15" t="s">
+      <c r="S3" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="S3" s="15" t="s">
+      <c r="T3" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="T3" s="15" t="s">
+      <c r="U3" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="U3" s="15" t="s">
+      <c r="V3" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="V3" s="15" t="s">
+      <c r="W3" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="W3" s="19" t="s">
+      <c r="X3" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="X3" s="25" t="s">
+      <c r="Y3" s="25" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
@@ -1731,53 +1796,56 @@
         <v>7</v>
       </c>
       <c r="E4" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="F4" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="G4" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="H4" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="I4" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="I4" s="14" t="s">
+      <c r="J4" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="J4" s="19"/>
       <c r="K4" s="19"/>
-      <c r="L4" s="22"/>
+      <c r="L4" s="19"/>
       <c r="M4" s="22"/>
       <c r="N4" s="22"/>
-      <c r="O4" s="28" t="s">
+      <c r="O4" s="22"/>
+      <c r="P4" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="P4" s="28" t="s">
+      <c r="Q4" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="Q4" s="15" t="s">
+      <c r="R4" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="R4" s="15" t="s">
+      <c r="S4" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="S4" s="15" t="s">
+      <c r="T4" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="T4" s="15" t="s">
+      <c r="U4" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="U4" s="15" t="s">
+      <c r="V4" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="V4" s="15" t="s">
+      <c r="W4" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="W4" s="19"/>
-      <c r="X4" s="25"/>
+      <c r="X4" s="19"/>
+      <c r="Y4" s="25"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>53</v>
       </c>
@@ -1788,12 +1856,12 @@
       <c r="G5" s="14"/>
       <c r="H5" s="14"/>
       <c r="I5" s="14"/>
-      <c r="J5" s="19"/>
+      <c r="J5" s="14"/>
       <c r="K5" s="19"/>
-      <c r="L5" s="22"/>
+      <c r="L5" s="19"/>
       <c r="M5" s="22"/>
       <c r="N5" s="22"/>
-      <c r="O5" s="15"/>
+      <c r="O5" s="22"/>
       <c r="P5" s="15"/>
       <c r="Q5" s="15"/>
       <c r="R5" s="15"/>
@@ -1801,10 +1869,11 @@
       <c r="T5" s="15"/>
       <c r="U5" s="15"/>
       <c r="V5" s="15"/>
-      <c r="W5" s="19"/>
-      <c r="X5" s="25"/>
+      <c r="W5" s="15"/>
+      <c r="X5" s="19"/>
+      <c r="Y5" s="25"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
@@ -1821,36 +1890,36 @@
         <v>17</v>
       </c>
       <c r="G6" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="14" t="s">
         <v>58</v>
-      </c>
-      <c r="H6" s="14" t="s">
-        <v>17</v>
       </c>
       <c r="I6" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="J6" s="19"/>
+      <c r="J6" s="14" t="s">
+        <v>17</v>
+      </c>
       <c r="K6" s="19"/>
-      <c r="L6" s="22"/>
+      <c r="L6" s="19"/>
       <c r="M6" s="22"/>
       <c r="N6" s="22"/>
-      <c r="O6" s="28" t="s">
-        <v>74</v>
-      </c>
+      <c r="O6" s="22"/>
       <c r="P6" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="Q6" s="15" t="s">
-        <v>17</v>
+      <c r="Q6" s="28" t="s">
+        <v>74</v>
       </c>
       <c r="R6" s="15" t="s">
         <v>17</v>
       </c>
       <c r="S6" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="T6" s="15" t="s">
         <v>65</v>
-      </c>
-      <c r="T6" s="15" t="s">
-        <v>17</v>
       </c>
       <c r="U6" s="15" t="s">
         <v>17</v>
@@ -1858,49 +1927,52 @@
       <c r="V6" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="W6" s="19"/>
-      <c r="X6" s="25"/>
+      <c r="W6" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="X6" s="19"/>
+      <c r="Y6" s="25"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="4">
         <v>1010011</v>
       </c>
       <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
         <v>10000</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>101</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>1</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>200</v>
       </c>
-      <c r="I7" s="2">
-        <v>0</v>
-      </c>
       <c r="J7" s="2">
         <v>0</v>
       </c>
       <c r="K7" s="2">
         <v>0</v>
       </c>
-      <c r="O7" s="2">
-        <v>0.5</v>
+      <c r="L7" s="2">
+        <v>0</v>
       </c>
       <c r="P7" s="2">
         <v>0.5</v>
       </c>
       <c r="Q7" s="2">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R7" s="2">
+        <v>0</v>
+      </c>
+      <c r="S7" s="2">
         <v>-1</v>
       </c>
-      <c r="S7" s="2">
-        <v>0</v>
-      </c>
       <c r="T7" s="2">
         <v>0</v>
       </c>
@@ -1910,48 +1982,51 @@
       <c r="V7" s="2">
         <v>0</v>
       </c>
-      <c r="X7" s="5"/>
+      <c r="W7" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="5"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="4">
         <v>1010012</v>
       </c>
       <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2">
         <v>10000</v>
       </c>
-      <c r="F8" s="2">
+      <c r="G8" s="2">
         <v>101</v>
       </c>
-      <c r="G8" s="2">
+      <c r="H8" s="2">
         <v>3</v>
       </c>
-      <c r="H8" s="2">
+      <c r="I8" s="2">
         <v>200</v>
       </c>
-      <c r="I8" s="2">
-        <v>0</v>
-      </c>
       <c r="J8" s="2">
         <v>0</v>
       </c>
       <c r="K8" s="2">
         <v>0</v>
       </c>
-      <c r="O8" s="2">
-        <v>0.5</v>
+      <c r="L8" s="2">
+        <v>0</v>
       </c>
       <c r="P8" s="2">
         <v>0.5</v>
       </c>
       <c r="Q8" s="2">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R8" s="2">
+        <v>0</v>
+      </c>
+      <c r="S8" s="2">
         <v>-1</v>
       </c>
-      <c r="S8" s="2">
-        <v>0</v>
-      </c>
       <c r="T8" s="2">
         <v>0</v>
       </c>
@@ -1961,48 +2036,51 @@
       <c r="V8" s="2">
         <v>0</v>
       </c>
-      <c r="X8" s="5"/>
+      <c r="W8" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="5"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="4">
         <v>1010013</v>
       </c>
       <c r="E9" s="2">
+        <v>1</v>
+      </c>
+      <c r="F9" s="2">
         <v>10000</v>
       </c>
-      <c r="F9" s="2">
+      <c r="G9" s="2">
         <v>101</v>
       </c>
-      <c r="G9" s="2">
+      <c r="H9" s="2">
         <v>6</v>
       </c>
-      <c r="H9" s="2">
+      <c r="I9" s="2">
         <v>200</v>
       </c>
-      <c r="I9" s="2">
-        <v>0</v>
-      </c>
       <c r="J9" s="2">
         <v>0</v>
       </c>
       <c r="K9" s="2">
         <v>0</v>
       </c>
-      <c r="O9" s="2">
-        <v>0.5</v>
+      <c r="L9" s="2">
+        <v>0</v>
       </c>
       <c r="P9" s="2">
         <v>0.5</v>
       </c>
       <c r="Q9" s="2">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R9" s="2">
+        <v>0</v>
+      </c>
+      <c r="S9" s="2">
         <v>-1</v>
       </c>
-      <c r="S9" s="2">
-        <v>0</v>
-      </c>
       <c r="T9" s="2">
         <v>0</v>
       </c>
@@ -2012,48 +2090,51 @@
       <c r="V9" s="2">
         <v>0</v>
       </c>
-      <c r="X9" s="5"/>
+      <c r="W9" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="5"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="4">
         <v>1010014</v>
       </c>
       <c r="E10" s="2">
+        <v>1</v>
+      </c>
+      <c r="F10" s="2">
         <v>10000</v>
       </c>
-      <c r="F10" s="2">
+      <c r="G10" s="2">
         <v>101</v>
       </c>
-      <c r="G10" s="2">
+      <c r="H10" s="2">
         <v>4.5</v>
       </c>
-      <c r="H10" s="2">
+      <c r="I10" s="2">
         <v>200</v>
       </c>
-      <c r="I10" s="2">
-        <v>0</v>
-      </c>
       <c r="J10" s="2">
         <v>0</v>
       </c>
       <c r="K10" s="2">
         <v>0</v>
       </c>
-      <c r="O10" s="2">
-        <v>0.5</v>
+      <c r="L10" s="2">
+        <v>0</v>
       </c>
       <c r="P10" s="2">
         <v>0.5</v>
       </c>
       <c r="Q10" s="2">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R10" s="2">
+        <v>0</v>
+      </c>
+      <c r="S10" s="2">
         <v>-1</v>
       </c>
-      <c r="S10" s="2">
-        <v>0</v>
-      </c>
       <c r="T10" s="2">
         <v>0</v>
       </c>
@@ -2063,33 +2144,36 @@
       <c r="V10" s="2">
         <v>0</v>
       </c>
-      <c r="X10" s="5"/>
+      <c r="W10" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="5"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="4"/>
-      <c r="X11" s="5"/>
+      <c r="Y11" s="5"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="4"/>
-      <c r="X12" s="5"/>
+      <c r="Y12" s="5"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="4"/>
-      <c r="X13" s="5"/>
+      <c r="Y13" s="5"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="4"/>
-      <c r="X14" s="5"/>
+      <c r="Y14" s="5"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="4"/>
-      <c r="X15" s="5"/>
+      <c r="Y15" s="5"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C16" s="4"/>
-      <c r="X16" s="5"/>
+      <c r="Y16" s="5"/>
     </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="10"/>
       <c r="D17" s="11"/>
       <c r="E17" s="11"/>
@@ -2111,7 +2195,8 @@
       <c r="U17" s="11"/>
       <c r="V17" s="11"/>
       <c r="W17" s="11"/>
-      <c r="X17" s="12"/>
+      <c r="X17" s="11"/>
+      <c r="Y17" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/config/excel/SkillEffect.xlsx
+++ b/config/excel/SkillEffect.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EastEden\excel\trunk\global\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F826D3A7-7DE8-4429-B5F1-7E8270C9B90B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29BEE329-39B2-467A-AAE6-E1190B96D8D0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillEffect" sheetId="1" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="76">
   <si>
     <t>行列头两行不会被读取</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -402,23 +402,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>击退距离</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>目标受击后僵直时间，期间目标com条静止，保持受击动作，其他单位继续行动</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>目标受击后被击退的距离</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>rigidityTime</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>retreatDistance</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -779,7 +767,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="28">
+  <dxfs count="27">
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -787,25 +775,6 @@
           <color theme="0"/>
         </left>
         <right/>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
         <top style="thin">
           <color theme="0"/>
         </top>
@@ -1273,24 +1242,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7D756641-FA44-4C98-8415-A8A9AF7B3072}" name="表1" displayName="表1" ref="C1:Y17" totalsRowShown="0" headerRowDxfId="27" dataDxfId="25" headerRowBorderDxfId="26" tableBorderDxfId="24" totalsRowBorderDxfId="23">
-  <autoFilter ref="C1:Y17" xr:uid="{8CC84E60-2DCE-4F71-9796-17451FB14116}"/>
-  <tableColumns count="23">
-    <tableColumn id="1" xr3:uid="{B117A20D-488D-4BBE-9938-B9ED8BC64C7F}" name="效果ID" dataDxfId="22"/>
-    <tableColumn id="2" xr3:uid="{8933844E-7543-4BAF-96BB-CDE9FFDA1FF4}" name="效果表演" dataDxfId="21"/>
-    <tableColumn id="20" xr3:uid="{0D040897-96A3-4655-AF1A-867F46D315D6}" name="是否判定_x000a_效果命中" dataDxfId="20"/>
-    <tableColumn id="3" xr3:uid="{9E34CFDB-9FDC-4344-99F0-5F3D0E7E5723}" name="触发概率" dataDxfId="19"/>
-    <tableColumn id="4" xr3:uid="{74D1A4E2-93B1-4E13-8C07-A6CD771CBAD7}" name="效果类型" dataDxfId="18"/>
-    <tableColumn id="5" xr3:uid="{E5C762F0-7690-49F1-83D9-D7133665E63B}" name="参数1" dataDxfId="17"/>
-    <tableColumn id="6" xr3:uid="{1C2FBB75-F754-40DD-AC47-C4E07D15EE88}" name="参数2" dataDxfId="16"/>
-    <tableColumn id="7" xr3:uid="{97A86C1D-0720-4DA9-A230-2B854C94703B}" name="参数3" dataDxfId="15"/>
-    <tableColumn id="8" xr3:uid="{74F52534-73B3-4964-B3F1-04920040D1CE}" name="参数4" dataDxfId="14"/>
-    <tableColumn id="9" xr3:uid="{FE519A61-3D62-437A-A54A-1541FAC9F66D}" name="参数5" dataDxfId="13"/>
-    <tableColumn id="10" xr3:uid="{E2EF7CB2-27DA-4534-B887-8CED13DDEDEB}" name="数组1" dataDxfId="12"/>
-    <tableColumn id="11" xr3:uid="{215AB503-B38D-422C-898E-0CCCFEC93B4E}" name="数组2" dataDxfId="11"/>
-    <tableColumn id="12" xr3:uid="{C4594820-6CDF-44FB-8D1A-6EECF3A59EE3}" name="数组3" dataDxfId="10"/>
-    <tableColumn id="22" xr3:uid="{4BB4B014-7D85-45C2-BDA5-C3BC6A0D24EF}" name="僵直时间" dataDxfId="9"/>
-    <tableColumn id="23" xr3:uid="{32ECB7E7-868A-4E37-9C99-B8DBD7367CC5}" name="击退距离" dataDxfId="8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7D756641-FA44-4C98-8415-A8A9AF7B3072}" name="表1" displayName="表1" ref="C1:X17" totalsRowShown="0" headerRowDxfId="26" dataDxfId="24" headerRowBorderDxfId="25" tableBorderDxfId="23" totalsRowBorderDxfId="22">
+  <autoFilter ref="C1:X17" xr:uid="{8CC84E60-2DCE-4F71-9796-17451FB14116}"/>
+  <tableColumns count="22">
+    <tableColumn id="1" xr3:uid="{B117A20D-488D-4BBE-9938-B9ED8BC64C7F}" name="效果ID" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{8933844E-7543-4BAF-96BB-CDE9FFDA1FF4}" name="效果表演" dataDxfId="20"/>
+    <tableColumn id="20" xr3:uid="{0D040897-96A3-4655-AF1A-867F46D315D6}" name="是否判定_x000a_效果命中" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{9E34CFDB-9FDC-4344-99F0-5F3D0E7E5723}" name="触发概率" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{74D1A4E2-93B1-4E13-8C07-A6CD771CBAD7}" name="效果类型" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{E5C762F0-7690-49F1-83D9-D7133665E63B}" name="参数1" dataDxfId="16"/>
+    <tableColumn id="6" xr3:uid="{1C2FBB75-F754-40DD-AC47-C4E07D15EE88}" name="参数2" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{97A86C1D-0720-4DA9-A230-2B854C94703B}" name="参数3" dataDxfId="14"/>
+    <tableColumn id="8" xr3:uid="{74F52534-73B3-4964-B3F1-04920040D1CE}" name="参数4" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{FE519A61-3D62-437A-A54A-1541FAC9F66D}" name="参数5" dataDxfId="12"/>
+    <tableColumn id="10" xr3:uid="{E2EF7CB2-27DA-4534-B887-8CED13DDEDEB}" name="数组1" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{215AB503-B38D-422C-898E-0CCCFEC93B4E}" name="数组2" dataDxfId="10"/>
+    <tableColumn id="12" xr3:uid="{C4594820-6CDF-44FB-8D1A-6EECF3A59EE3}" name="数组3" dataDxfId="9"/>
+    <tableColumn id="22" xr3:uid="{4BB4B014-7D85-45C2-BDA5-C3BC6A0D24EF}" name="僵直时间" dataDxfId="8"/>
     <tableColumn id="13" xr3:uid="{51863B83-9A04-4C6C-9571-2A85C7B2D4B9}" name="主目标_x000a_范围类型修正" dataDxfId="7"/>
     <tableColumn id="14" xr3:uid="{0A7DF7DC-2A81-4FED-848D-5830CE482B70}" name="主目标_x000a_修正" dataDxfId="6"/>
     <tableColumn id="21" xr3:uid="{D185F1A5-6935-4E48-8FB7-B4F1AF76ECCB}" name="技能_x000a_发起类型" dataDxfId="5"/>
@@ -1567,10 +1535,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y17"/>
+  <dimension ref="A1:X17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="14.25" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -1579,15 +1547,15 @@
     <col min="9" max="12" width="10.625" style="2" customWidth="1" outlineLevel="1"/>
     <col min="13" max="13" width="10.625" style="2"/>
     <col min="14" max="15" width="10.625" style="2" customWidth="1" outlineLevel="1"/>
-    <col min="16" max="17" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.625" style="2" customWidth="1"/>
-    <col min="19" max="23" width="10.625" style="2"/>
-    <col min="24" max="24" width="15" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="10.625" style="2"/>
+    <col min="16" max="16" width="13" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.625" style="2" customWidth="1"/>
+    <col min="18" max="22" width="10.625" style="2"/>
+    <col min="23" max="23" width="15" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="10.625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1601,7 +1569,7 @@
         <v>7</v>
       </c>
       <c r="E1" s="29" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>15</v>
@@ -1636,42 +1604,39 @@
       <c r="P1" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="Q1" s="26" t="s">
-        <v>69</v>
+      <c r="Q1" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="R1" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="S1" s="9" t="s">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="T1" s="9" t="s">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="U1" s="9" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="V1" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="W1" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="X1" s="16" t="s">
+      <c r="W1" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="Y1" s="23" t="s">
+      <c r="X1" s="23" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="21"/>
       <c r="E2" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>30</v>
@@ -1685,33 +1650,30 @@
       <c r="N2" s="21"/>
       <c r="O2" s="21"/>
       <c r="P2" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q2" s="27" t="s">
-        <v>71</v>
+        <v>69</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="W2" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="X2" s="18"/>
-      <c r="Y2" s="24"/>
+      <c r="W2" s="18"/>
+      <c r="X2" s="24"/>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
@@ -1722,7 +1684,7 @@
         <v>27</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F3" s="14" t="s">
         <v>28</v>
@@ -1755,37 +1717,34 @@
         <v>39</v>
       </c>
       <c r="P3" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q3" s="28" t="s">
-        <v>73</v>
+        <v>70</v>
+      </c>
+      <c r="Q3" s="15" t="s">
+        <v>41</v>
       </c>
       <c r="R3" s="15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="S3" s="15" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="T3" s="15" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="U3" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="V3" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="W3" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="X3" s="19" t="s">
+      <c r="W3" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="Y3" s="25" t="s">
+      <c r="X3" s="25" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
@@ -1796,7 +1755,7 @@
         <v>7</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F4" s="14" t="s">
         <v>15</v>
@@ -1821,31 +1780,28 @@
       <c r="P4" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="Q4" s="28" t="s">
-        <v>69</v>
+      <c r="Q4" s="15" t="s">
+        <v>46</v>
       </c>
       <c r="R4" s="15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="S4" s="15" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="T4" s="15" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="U4" s="15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="V4" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="W4" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="X4" s="19"/>
-      <c r="Y4" s="25"/>
+      <c r="W4" s="19"/>
+      <c r="X4" s="25"/>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>53</v>
       </c>
@@ -1869,11 +1825,10 @@
       <c r="T5" s="15"/>
       <c r="U5" s="15"/>
       <c r="V5" s="15"/>
-      <c r="W5" s="15"/>
-      <c r="X5" s="19"/>
-      <c r="Y5" s="25"/>
+      <c r="W5" s="19"/>
+      <c r="X5" s="25"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
@@ -1907,19 +1862,19 @@
       <c r="N6" s="22"/>
       <c r="O6" s="22"/>
       <c r="P6" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q6" s="28" t="s">
-        <v>74</v>
+        <v>71</v>
+      </c>
+      <c r="Q6" s="15" t="s">
+        <v>17</v>
       </c>
       <c r="R6" s="15" t="s">
         <v>17</v>
       </c>
       <c r="S6" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="T6" s="15" t="s">
         <v>17</v>
-      </c>
-      <c r="T6" s="15" t="s">
-        <v>65</v>
       </c>
       <c r="U6" s="15" t="s">
         <v>17</v>
@@ -1927,13 +1882,10 @@
       <c r="V6" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="W6" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="X6" s="19"/>
-      <c r="Y6" s="25"/>
+      <c r="W6" s="19"/>
+      <c r="X6" s="25"/>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="4">
         <v>1010011</v>
       </c>
@@ -1965,13 +1917,13 @@
         <v>0.5</v>
       </c>
       <c r="Q7" s="2">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R7" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S7" s="2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="T7" s="2">
         <v>0</v>
@@ -1982,12 +1934,9 @@
       <c r="V7" s="2">
         <v>0</v>
       </c>
-      <c r="W7" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="5"/>
+      <c r="X7" s="5"/>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="4">
         <v>1010012</v>
       </c>
@@ -2019,13 +1968,13 @@
         <v>0.5</v>
       </c>
       <c r="Q8" s="2">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R8" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S8" s="2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="T8" s="2">
         <v>0</v>
@@ -2036,12 +1985,9 @@
       <c r="V8" s="2">
         <v>0</v>
       </c>
-      <c r="W8" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="5"/>
+      <c r="X8" s="5"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="4">
         <v>1010013</v>
       </c>
@@ -2073,13 +2019,13 @@
         <v>0.5</v>
       </c>
       <c r="Q9" s="2">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R9" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S9" s="2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="T9" s="2">
         <v>0</v>
@@ -2090,12 +2036,9 @@
       <c r="V9" s="2">
         <v>0</v>
       </c>
-      <c r="W9" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="5"/>
+      <c r="X9" s="5"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="4">
         <v>1010014</v>
       </c>
@@ -2127,13 +2070,13 @@
         <v>0.5</v>
       </c>
       <c r="Q10" s="2">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R10" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S10" s="2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="T10" s="2">
         <v>0</v>
@@ -2144,36 +2087,33 @@
       <c r="V10" s="2">
         <v>0</v>
       </c>
-      <c r="W10" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="5"/>
+      <c r="X10" s="5"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="4"/>
-      <c r="Y11" s="5"/>
+      <c r="X11" s="5"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="4"/>
-      <c r="Y12" s="5"/>
+      <c r="X12" s="5"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="4"/>
-      <c r="Y13" s="5"/>
+      <c r="X13" s="5"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="4"/>
-      <c r="Y14" s="5"/>
+      <c r="X14" s="5"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="4"/>
-      <c r="Y15" s="5"/>
+      <c r="X15" s="5"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C16" s="4"/>
-      <c r="Y16" s="5"/>
+      <c r="X16" s="5"/>
     </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="10"/>
       <c r="D17" s="11"/>
       <c r="E17" s="11"/>
@@ -2195,8 +2135,7 @@
       <c r="U17" s="11"/>
       <c r="V17" s="11"/>
       <c r="W17" s="11"/>
-      <c r="X17" s="11"/>
-      <c r="Y17" s="12"/>
+      <c r="X17" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/config/excel/SkillEffect.xlsx
+++ b/config/excel/SkillEffect.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EastEden\excel\trunk\global\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29BEE329-39B2-467A-AAE6-E1190B96D8D0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36E81061-F0B3-462A-9290-B2162B33FDE4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1538,7 +1538,7 @@
   <dimension ref="A1:X17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="14.25" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -1914,7 +1914,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="2">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="Q7" s="2">
         <v>0</v>
@@ -1965,7 +1965,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="2">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="Q8" s="2">
         <v>0</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="2">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="Q9" s="2">
         <v>0</v>
@@ -2067,7 +2067,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="2">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="Q10" s="2">
         <v>0</v>

--- a/config/excel/SkillEffect.xlsx
+++ b/config/excel/SkillEffect.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EastEden\excel\trunk\global\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36E81061-F0B3-462A-9290-B2162B33FDE4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91DD979D-C662-4B46-BDA2-8FD2D74C4DB3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="79">
   <si>
     <t>行列头两行不会被读取</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -430,6 +430,15 @@
     <t>0-不走效果命中判定
 1-走效果命中判定</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>击退距离</t>
+  </si>
+  <si>
+    <t>hitBackDistance</t>
+  </si>
+  <si>
+    <t>number</t>
   </si>
 </sst>
 </file>
@@ -767,7 +776,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="27">
+  <dxfs count="28">
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -775,6 +784,25 @@
           <color theme="0"/>
         </left>
         <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
         <top style="thin">
           <color theme="0"/>
         </top>
@@ -1242,23 +1270,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7D756641-FA44-4C98-8415-A8A9AF7B3072}" name="表1" displayName="表1" ref="C1:X17" totalsRowShown="0" headerRowDxfId="26" dataDxfId="24" headerRowBorderDxfId="25" tableBorderDxfId="23" totalsRowBorderDxfId="22">
-  <autoFilter ref="C1:X17" xr:uid="{8CC84E60-2DCE-4F71-9796-17451FB14116}"/>
-  <tableColumns count="22">
-    <tableColumn id="1" xr3:uid="{B117A20D-488D-4BBE-9938-B9ED8BC64C7F}" name="效果ID" dataDxfId="21"/>
-    <tableColumn id="2" xr3:uid="{8933844E-7543-4BAF-96BB-CDE9FFDA1FF4}" name="效果表演" dataDxfId="20"/>
-    <tableColumn id="20" xr3:uid="{0D040897-96A3-4655-AF1A-867F46D315D6}" name="是否判定_x000a_效果命中" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{9E34CFDB-9FDC-4344-99F0-5F3D0E7E5723}" name="触发概率" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{74D1A4E2-93B1-4E13-8C07-A6CD771CBAD7}" name="效果类型" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{E5C762F0-7690-49F1-83D9-D7133665E63B}" name="参数1" dataDxfId="16"/>
-    <tableColumn id="6" xr3:uid="{1C2FBB75-F754-40DD-AC47-C4E07D15EE88}" name="参数2" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{97A86C1D-0720-4DA9-A230-2B854C94703B}" name="参数3" dataDxfId="14"/>
-    <tableColumn id="8" xr3:uid="{74F52534-73B3-4964-B3F1-04920040D1CE}" name="参数4" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{FE519A61-3D62-437A-A54A-1541FAC9F66D}" name="参数5" dataDxfId="12"/>
-    <tableColumn id="10" xr3:uid="{E2EF7CB2-27DA-4534-B887-8CED13DDEDEB}" name="数组1" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{215AB503-B38D-422C-898E-0CCCFEC93B4E}" name="数组2" dataDxfId="10"/>
-    <tableColumn id="12" xr3:uid="{C4594820-6CDF-44FB-8D1A-6EECF3A59EE3}" name="数组3" dataDxfId="9"/>
-    <tableColumn id="22" xr3:uid="{4BB4B014-7D85-45C2-BDA5-C3BC6A0D24EF}" name="僵直时间" dataDxfId="8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7D756641-FA44-4C98-8415-A8A9AF7B3072}" name="表1" displayName="表1" ref="C1:Y17" totalsRowShown="0" headerRowDxfId="27" dataDxfId="25" headerRowBorderDxfId="26" tableBorderDxfId="24" totalsRowBorderDxfId="23">
+  <autoFilter ref="C1:Y17" xr:uid="{8CC84E60-2DCE-4F71-9796-17451FB14116}"/>
+  <tableColumns count="23">
+    <tableColumn id="1" xr3:uid="{B117A20D-488D-4BBE-9938-B9ED8BC64C7F}" name="效果ID" dataDxfId="22"/>
+    <tableColumn id="2" xr3:uid="{8933844E-7543-4BAF-96BB-CDE9FFDA1FF4}" name="效果表演" dataDxfId="21"/>
+    <tableColumn id="20" xr3:uid="{0D040897-96A3-4655-AF1A-867F46D315D6}" name="是否判定_x000a_效果命中" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{9E34CFDB-9FDC-4344-99F0-5F3D0E7E5723}" name="触发概率" dataDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{74D1A4E2-93B1-4E13-8C07-A6CD771CBAD7}" name="效果类型" dataDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{E5C762F0-7690-49F1-83D9-D7133665E63B}" name="参数1" dataDxfId="17"/>
+    <tableColumn id="6" xr3:uid="{1C2FBB75-F754-40DD-AC47-C4E07D15EE88}" name="参数2" dataDxfId="16"/>
+    <tableColumn id="7" xr3:uid="{97A86C1D-0720-4DA9-A230-2B854C94703B}" name="参数3" dataDxfId="15"/>
+    <tableColumn id="8" xr3:uid="{74F52534-73B3-4964-B3F1-04920040D1CE}" name="参数4" dataDxfId="14"/>
+    <tableColumn id="9" xr3:uid="{FE519A61-3D62-437A-A54A-1541FAC9F66D}" name="参数5" dataDxfId="13"/>
+    <tableColumn id="10" xr3:uid="{E2EF7CB2-27DA-4534-B887-8CED13DDEDEB}" name="数组1" dataDxfId="12"/>
+    <tableColumn id="11" xr3:uid="{215AB503-B38D-422C-898E-0CCCFEC93B4E}" name="数组2" dataDxfId="11"/>
+    <tableColumn id="12" xr3:uid="{C4594820-6CDF-44FB-8D1A-6EECF3A59EE3}" name="数组3" dataDxfId="10"/>
+    <tableColumn id="22" xr3:uid="{4BB4B014-7D85-45C2-BDA5-C3BC6A0D24EF}" name="僵直时间" dataDxfId="9"/>
+    <tableColumn id="23" xr3:uid="{F0D9645B-8B8F-4A22-B1FE-98243CE5BFC9}" name="击退距离" dataDxfId="8"/>
     <tableColumn id="13" xr3:uid="{51863B83-9A04-4C6C-9571-2A85C7B2D4B9}" name="主目标_x000a_范围类型修正" dataDxfId="7"/>
     <tableColumn id="14" xr3:uid="{0A7DF7DC-2A81-4FED-848D-5830CE482B70}" name="主目标_x000a_修正" dataDxfId="6"/>
     <tableColumn id="21" xr3:uid="{D185F1A5-6935-4E48-8FB7-B4F1AF76ECCB}" name="技能_x000a_发起类型" dataDxfId="5"/>
@@ -1535,10 +1564,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X17"/>
+  <dimension ref="A1:Y17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="14.25" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -1548,14 +1577,15 @@
     <col min="13" max="13" width="10.625" style="2"/>
     <col min="14" max="15" width="10.625" style="2" customWidth="1" outlineLevel="1"/>
     <col min="16" max="16" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.625" style="2" customWidth="1"/>
-    <col min="18" max="22" width="10.625" style="2"/>
-    <col min="23" max="23" width="15" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="10.625" style="2"/>
+    <col min="17" max="17" width="13" style="2" customWidth="1"/>
+    <col min="18" max="18" width="15.625" style="2" customWidth="1"/>
+    <col min="19" max="23" width="10.625" style="2"/>
+    <col min="24" max="24" width="15" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="10.625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1604,32 +1634,35 @@
       <c r="P1" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="Q1" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="R1" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="R1" s="9" t="s">
+      <c r="S1" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="S1" s="9" t="s">
+      <c r="T1" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="T1" s="9" t="s">
+      <c r="U1" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="U1" s="9" t="s">
+      <c r="V1" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="V1" s="9" t="s">
+      <c r="W1" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="W1" s="16" t="s">
+      <c r="X1" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="X1" s="23" t="s">
+      <c r="Y1" s="23" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1652,28 +1685,31 @@
       <c r="P2" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="Q2" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="R2" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="S2" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="T2" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="U2" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="V2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="V2" s="3" t="s">
+      <c r="W2" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="W2" s="18"/>
-      <c r="X2" s="24"/>
+      <c r="X2" s="18"/>
+      <c r="Y2" s="24"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
@@ -1719,32 +1755,35 @@
       <c r="P3" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="Q3" s="15" t="s">
+      <c r="Q3" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="R3" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="R3" s="15" t="s">
+      <c r="S3" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="S3" s="15" t="s">
+      <c r="T3" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="T3" s="15" t="s">
+      <c r="U3" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="U3" s="15" t="s">
+      <c r="V3" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="V3" s="15" t="s">
+      <c r="W3" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="W3" s="19" t="s">
+      <c r="X3" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="X3" s="25" t="s">
+      <c r="Y3" s="25" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
@@ -1780,28 +1819,31 @@
       <c r="P4" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="Q4" s="15" t="s">
+      <c r="Q4" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="R4" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="R4" s="15" t="s">
+      <c r="S4" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="S4" s="15" t="s">
+      <c r="T4" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="T4" s="15" t="s">
+      <c r="U4" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="U4" s="15" t="s">
+      <c r="V4" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="V4" s="15" t="s">
+      <c r="W4" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="W4" s="19"/>
-      <c r="X4" s="25"/>
+      <c r="X4" s="19"/>
+      <c r="Y4" s="25"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>53</v>
       </c>
@@ -1825,10 +1867,11 @@
       <c r="T5" s="15"/>
       <c r="U5" s="15"/>
       <c r="V5" s="15"/>
-      <c r="W5" s="19"/>
-      <c r="X5" s="25"/>
+      <c r="W5" s="15"/>
+      <c r="X5" s="19"/>
+      <c r="Y5" s="25"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
@@ -1864,17 +1907,17 @@
       <c r="P6" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="Q6" s="15" t="s">
-        <v>17</v>
+      <c r="Q6" s="28" t="s">
+        <v>78</v>
       </c>
       <c r="R6" s="15" t="s">
         <v>17</v>
       </c>
       <c r="S6" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="T6" s="15" t="s">
         <v>65</v>
-      </c>
-      <c r="T6" s="15" t="s">
-        <v>17</v>
       </c>
       <c r="U6" s="15" t="s">
         <v>17</v>
@@ -1882,10 +1925,13 @@
       <c r="V6" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="W6" s="19"/>
-      <c r="X6" s="25"/>
+      <c r="W6" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="X6" s="19"/>
+      <c r="Y6" s="25"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="4">
         <v>1010011</v>
       </c>
@@ -1920,11 +1966,11 @@
         <v>0</v>
       </c>
       <c r="R7" s="2">
+        <v>0</v>
+      </c>
+      <c r="S7" s="2">
         <v>-1</v>
       </c>
-      <c r="S7" s="2">
-        <v>0</v>
-      </c>
       <c r="T7" s="2">
         <v>0</v>
       </c>
@@ -1934,9 +1980,12 @@
       <c r="V7" s="2">
         <v>0</v>
       </c>
-      <c r="X7" s="5"/>
+      <c r="W7" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="5"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="4">
         <v>1010012</v>
       </c>
@@ -1971,11 +2020,11 @@
         <v>0</v>
       </c>
       <c r="R8" s="2">
+        <v>0</v>
+      </c>
+      <c r="S8" s="2">
         <v>-1</v>
       </c>
-      <c r="S8" s="2">
-        <v>0</v>
-      </c>
       <c r="T8" s="2">
         <v>0</v>
       </c>
@@ -1985,9 +2034,12 @@
       <c r="V8" s="2">
         <v>0</v>
       </c>
-      <c r="X8" s="5"/>
+      <c r="W8" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="5"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="4">
         <v>1010013</v>
       </c>
@@ -2022,11 +2074,11 @@
         <v>0</v>
       </c>
       <c r="R9" s="2">
+        <v>0</v>
+      </c>
+      <c r="S9" s="2">
         <v>-1</v>
       </c>
-      <c r="S9" s="2">
-        <v>0</v>
-      </c>
       <c r="T9" s="2">
         <v>0</v>
       </c>
@@ -2036,9 +2088,12 @@
       <c r="V9" s="2">
         <v>0</v>
       </c>
-      <c r="X9" s="5"/>
+      <c r="W9" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="5"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="4">
         <v>1010014</v>
       </c>
@@ -2070,14 +2125,14 @@
         <v>0.2</v>
       </c>
       <c r="Q10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R10" s="2">
+        <v>0</v>
+      </c>
+      <c r="S10" s="2">
         <v>-1</v>
       </c>
-      <c r="S10" s="2">
-        <v>0</v>
-      </c>
       <c r="T10" s="2">
         <v>0</v>
       </c>
@@ -2087,33 +2142,36 @@
       <c r="V10" s="2">
         <v>0</v>
       </c>
-      <c r="X10" s="5"/>
+      <c r="W10" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="5"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="4"/>
-      <c r="X11" s="5"/>
+      <c r="Y11" s="5"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="4"/>
-      <c r="X12" s="5"/>
+      <c r="Y12" s="5"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="4"/>
-      <c r="X13" s="5"/>
+      <c r="Y13" s="5"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="4"/>
-      <c r="X14" s="5"/>
+      <c r="Y14" s="5"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="4"/>
-      <c r="X15" s="5"/>
+      <c r="Y15" s="5"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C16" s="4"/>
-      <c r="X16" s="5"/>
+      <c r="Y16" s="5"/>
     </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="10"/>
       <c r="D17" s="11"/>
       <c r="E17" s="11"/>
@@ -2135,14 +2193,16 @@
       <c r="U17" s="11"/>
       <c r="V17" s="11"/>
       <c r="W17" s="11"/>
-      <c r="X17" s="12"/>
+      <c r="X17" s="11"/>
+      <c r="Y17" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
--- a/config/excel/SkillEffect.xlsx
+++ b/config/excel/SkillEffect.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EastEden\excel\trunk\global\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91DD979D-C662-4B46-BDA2-8FD2D74C4DB3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12C96866-960C-439E-958E-9DE4866ED995}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="81">
   <si>
     <t>行列头两行不会被读取</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -227,38 +227,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>a</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>b</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>c</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>d</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>e</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>arry&lt;a&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>arry&lt;b&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>arry&lt;c&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>目标范围宽
 修正</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -330,10 +298,6 @@
   </si>
   <si>
     <t>参数3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>float32</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -440,12 +404,56 @@
   <si>
     <t>number</t>
   </si>
+  <si>
+    <t>参数4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>parameterA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>parameterB</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>parameterC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>parameterD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>parameterE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[]number</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>arryA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>arryB</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>arryC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -502,17 +510,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -683,7 +682,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -760,17 +759,23 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1567,7 +1572,7 @@
   <dimension ref="A1:Y17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="14.25" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -1598,8 +1603,8 @@
       <c r="D1" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="29" t="s">
-        <v>72</v>
+      <c r="E1" s="26" t="s">
+        <v>63</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>15</v>
@@ -1631,11 +1636,11 @@
       <c r="O1" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q1" s="26" t="s">
-        <v>76</v>
+      <c r="P1" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q1" s="28" t="s">
+        <v>67</v>
       </c>
       <c r="R1" s="9" t="s">
         <v>23</v>
@@ -1644,13 +1649,13 @@
         <v>20</v>
       </c>
       <c r="T1" s="9" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="U1" s="9" t="s">
         <v>21</v>
       </c>
       <c r="V1" s="9" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="W1" s="9" t="s">
         <v>25</v>
@@ -1669,42 +1674,42 @@
       <c r="C2" s="4"/>
       <c r="D2" s="21"/>
       <c r="E2" s="1" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>30</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="K2" s="18"/>
       <c r="L2" s="18"/>
       <c r="M2" s="21"/>
       <c r="N2" s="21"/>
       <c r="O2" s="21"/>
-      <c r="P2" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q2" s="27" t="s">
-        <v>76</v>
+      <c r="P2" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q2" s="29" t="s">
+        <v>67</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="V2" s="3" t="s">
         <v>24</v>
       </c>
       <c r="W2" s="3" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="X2" s="18"/>
       <c r="Y2" s="24"/>
@@ -1720,7 +1725,7 @@
         <v>27</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="F3" s="14" t="s">
         <v>28</v>
@@ -1729,58 +1734,58 @@
         <v>31</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="I3" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="K3" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="L3" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="M3" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="N3" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="O3" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="P3" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q3" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="R3" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="J3" s="14" t="s">
+      <c r="S3" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="K3" s="19" t="s">
+      <c r="T3" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="U3" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="L3" s="19" t="s">
+      <c r="V3" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="M3" s="22" t="s">
+      <c r="W3" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="N3" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="O3" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="P3" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q3" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="R3" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="S3" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="T3" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="U3" s="15" t="s">
+      <c r="X3" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y3" s="25" t="s">
         <v>43</v>
-      </c>
-      <c r="V3" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="W3" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="X3" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y3" s="25" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.2">
@@ -1794,7 +1799,7 @@
         <v>7</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="F4" s="14" t="s">
         <v>15</v>
@@ -1803,49 +1808,59 @@
         <v>8</v>
       </c>
       <c r="H4" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="J4" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="K4" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="L4" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="M4" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="N4" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="O4" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="P4" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q4" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="R4" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="S4" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="T4" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="I4" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="J4" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q4" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="R4" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="S4" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="T4" s="15" t="s">
-        <v>64</v>
-      </c>
       <c r="U4" s="15" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="V4" s="15" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="W4" s="15" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="X4" s="19"/>
       <c r="Y4" s="25"/>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C5" s="13"/>
       <c r="D5" s="22"/>
@@ -1860,8 +1875,8 @@
       <c r="M5" s="22"/>
       <c r="N5" s="22"/>
       <c r="O5" s="22"/>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="15"/>
+      <c r="P5" s="30"/>
+      <c r="Q5" s="30"/>
       <c r="R5" s="15"/>
       <c r="S5" s="15"/>
       <c r="T5" s="15"/>
@@ -1891,24 +1906,34 @@
         <v>17</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="J6" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="22"/>
-      <c r="O6" s="22"/>
-      <c r="P6" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q6" s="28" t="s">
-        <v>78</v>
+        <v>62</v>
+      </c>
+      <c r="K6" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="L6" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="M6" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="N6" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="O6" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="P6" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q6" s="30" t="s">
+        <v>69</v>
       </c>
       <c r="R6" s="15" t="s">
         <v>17</v>
@@ -1917,7 +1942,7 @@
         <v>17</v>
       </c>
       <c r="T6" s="15" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="U6" s="15" t="s">
         <v>17</v>
@@ -1948,21 +1973,30 @@
         <v>1</v>
       </c>
       <c r="I7" s="2">
+        <v>1</v>
+      </c>
+      <c r="J7" s="2">
         <v>200</v>
       </c>
-      <c r="J7" s="2">
-        <v>0</v>
-      </c>
       <c r="K7" s="2">
         <v>0</v>
       </c>
       <c r="L7" s="2">
         <v>0</v>
       </c>
-      <c r="P7" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="Q7" s="2">
+      <c r="M7" s="2">
+        <v>0</v>
+      </c>
+      <c r="N7" s="2">
+        <v>0</v>
+      </c>
+      <c r="O7" s="2">
+        <v>0</v>
+      </c>
+      <c r="P7" s="31">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="31">
         <v>0</v>
       </c>
       <c r="R7" s="2">
@@ -1999,24 +2033,33 @@
         <v>101</v>
       </c>
       <c r="H8" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I8" s="2">
+        <v>2</v>
+      </c>
+      <c r="J8" s="2">
         <v>200</v>
       </c>
-      <c r="J8" s="2">
-        <v>0</v>
-      </c>
       <c r="K8" s="2">
         <v>0</v>
       </c>
       <c r="L8" s="2">
         <v>0</v>
       </c>
-      <c r="P8" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="Q8" s="2">
+      <c r="M8" s="2">
+        <v>0</v>
+      </c>
+      <c r="N8" s="2">
+        <v>0</v>
+      </c>
+      <c r="O8" s="2">
+        <v>0</v>
+      </c>
+      <c r="P8" s="31">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="31">
         <v>0</v>
       </c>
       <c r="R8" s="2">
@@ -2053,24 +2096,33 @@
         <v>101</v>
       </c>
       <c r="H9" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I9" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="J9" s="2">
         <v>200</v>
       </c>
-      <c r="J9" s="2">
-        <v>0</v>
-      </c>
       <c r="K9" s="2">
         <v>0</v>
       </c>
       <c r="L9" s="2">
         <v>0</v>
       </c>
-      <c r="P9" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="Q9" s="2">
+      <c r="M9" s="2">
+        <v>0</v>
+      </c>
+      <c r="N9" s="2">
+        <v>0</v>
+      </c>
+      <c r="O9" s="2">
+        <v>0</v>
+      </c>
+      <c r="P9" s="31">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="31">
         <v>0</v>
       </c>
       <c r="R9" s="2">
@@ -2107,25 +2159,34 @@
         <v>101</v>
       </c>
       <c r="H10" s="2">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="I10" s="2">
+        <v>3</v>
+      </c>
+      <c r="J10" s="2">
         <v>200</v>
       </c>
-      <c r="J10" s="2">
-        <v>0</v>
-      </c>
       <c r="K10" s="2">
         <v>0</v>
       </c>
       <c r="L10" s="2">
         <v>0</v>
       </c>
-      <c r="P10" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="Q10" s="2">
-        <v>1</v>
+      <c r="M10" s="2">
+        <v>0</v>
+      </c>
+      <c r="N10" s="2">
+        <v>0</v>
+      </c>
+      <c r="O10" s="2">
+        <v>0</v>
+      </c>
+      <c r="P10" s="31">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="31">
+        <v>0</v>
       </c>
       <c r="R10" s="2">
         <v>0</v>

--- a/config/excel/SkillEffect.xlsx
+++ b/config/excel/SkillEffect.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EastEden\excel\trunk\global\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12C96866-960C-439E-958E-9DE4866ED995}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CAE0D5F-83CF-4A05-9D32-E9FC07A8799C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1572,7 +1572,7 @@
   <dimension ref="A1:Y17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="14.25" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -2033,7 +2033,7 @@
         <v>101</v>
       </c>
       <c r="H8" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" s="2">
         <v>2</v>
@@ -2096,10 +2096,10 @@
         <v>101</v>
       </c>
       <c r="H9" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I9" s="2">
-        <v>1.5</v>
+        <v>4.5</v>
       </c>
       <c r="J9" s="2">
         <v>200</v>
@@ -2159,7 +2159,7 @@
         <v>101</v>
       </c>
       <c r="H10" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I10" s="2">
         <v>3</v>
@@ -2209,11 +2209,129 @@
       <c r="Y10" s="5"/>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="C11" s="4"/>
+      <c r="C11" s="4">
+        <v>1010015</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2">
+        <v>10000</v>
+      </c>
+      <c r="G11" s="2">
+        <v>101</v>
+      </c>
+      <c r="H11" s="2">
+        <v>1</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="J11" s="2">
+        <v>100</v>
+      </c>
+      <c r="K11" s="2">
+        <v>0</v>
+      </c>
+      <c r="L11" s="2">
+        <v>0</v>
+      </c>
+      <c r="M11" s="2">
+        <v>0</v>
+      </c>
+      <c r="N11" s="2">
+        <v>0</v>
+      </c>
+      <c r="O11" s="2">
+        <v>0</v>
+      </c>
+      <c r="P11" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>0</v>
+      </c>
+      <c r="R11" s="2">
+        <v>0</v>
+      </c>
+      <c r="S11" s="2">
+        <v>-1</v>
+      </c>
+      <c r="T11" s="2">
+        <v>0</v>
+      </c>
+      <c r="U11" s="2">
+        <v>0</v>
+      </c>
+      <c r="V11" s="2">
+        <v>0</v>
+      </c>
+      <c r="W11" s="2">
+        <v>0</v>
+      </c>
       <c r="Y11" s="5"/>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="C12" s="4"/>
+      <c r="C12" s="4">
+        <v>1010016</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2">
+        <v>10000</v>
+      </c>
+      <c r="G12" s="2">
+        <v>101</v>
+      </c>
+      <c r="H12" s="2">
+        <v>1</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="J12" s="2">
+        <v>100</v>
+      </c>
+      <c r="K12" s="2">
+        <v>0</v>
+      </c>
+      <c r="L12" s="2">
+        <v>0</v>
+      </c>
+      <c r="M12" s="2">
+        <v>0</v>
+      </c>
+      <c r="N12" s="2">
+        <v>0</v>
+      </c>
+      <c r="O12" s="2">
+        <v>0</v>
+      </c>
+      <c r="P12" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>0</v>
+      </c>
+      <c r="R12" s="2">
+        <v>0</v>
+      </c>
+      <c r="S12" s="2">
+        <v>-1</v>
+      </c>
+      <c r="T12" s="2">
+        <v>0</v>
+      </c>
+      <c r="U12" s="2">
+        <v>0</v>
+      </c>
+      <c r="V12" s="2">
+        <v>0</v>
+      </c>
+      <c r="W12" s="2">
+        <v>0</v>
+      </c>
       <c r="Y12" s="5"/>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.2">

--- a/config/excel/SkillEffect.xlsx
+++ b/config/excel/SkillEffect.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EastEden\excel\trunk\global\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CAE0D5F-83CF-4A05-9D32-E9FC07A8799C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54CA46DA-9DE4-4EDE-9F5B-7981110BA17D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
     <author>dd</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{05B794EC-C9E0-47DA-BA1D-6D81E89388D8}">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{05B794EC-C9E0-47DA-BA1D-6D81E89388D8}">
       <text>
         <r>
           <rPr>
@@ -45,7 +45,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{1423CB30-3DF0-4D12-A85D-376D802CDC1A}">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{1423CB30-3DF0-4D12-A85D-376D802CDC1A}">
       <text>
         <r>
           <rPr>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="86">
   <si>
     <t>行列头两行不会被读取</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -284,11 +284,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>101-伤害
-201-治疗</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>参数1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -446,6 +441,34 @@
   </si>
   <si>
     <t>arryC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>101-伤害
+201-治疗
+301-打断
+401-聚集
+501-加buff</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11003,21003</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>加攻buff</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>加防buff</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>降攻，降防buff</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -682,7 +705,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -775,13 +798,33 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="28">
+  <dxfs count="29">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -1275,32 +1318,33 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7D756641-FA44-4C98-8415-A8A9AF7B3072}" name="表1" displayName="表1" ref="C1:Y17" totalsRowShown="0" headerRowDxfId="27" dataDxfId="25" headerRowBorderDxfId="26" tableBorderDxfId="24" totalsRowBorderDxfId="23">
-  <autoFilter ref="C1:Y17" xr:uid="{8CC84E60-2DCE-4F71-9796-17451FB14116}"/>
-  <tableColumns count="23">
-    <tableColumn id="1" xr3:uid="{B117A20D-488D-4BBE-9938-B9ED8BC64C7F}" name="效果ID" dataDxfId="22"/>
-    <tableColumn id="2" xr3:uid="{8933844E-7543-4BAF-96BB-CDE9FFDA1FF4}" name="效果表演" dataDxfId="21"/>
-    <tableColumn id="20" xr3:uid="{0D040897-96A3-4655-AF1A-867F46D315D6}" name="是否判定_x000a_效果命中" dataDxfId="20"/>
-    <tableColumn id="3" xr3:uid="{9E34CFDB-9FDC-4344-99F0-5F3D0E7E5723}" name="触发概率" dataDxfId="19"/>
-    <tableColumn id="4" xr3:uid="{74D1A4E2-93B1-4E13-8C07-A6CD771CBAD7}" name="效果类型" dataDxfId="18"/>
-    <tableColumn id="5" xr3:uid="{E5C762F0-7690-49F1-83D9-D7133665E63B}" name="参数1" dataDxfId="17"/>
-    <tableColumn id="6" xr3:uid="{1C2FBB75-F754-40DD-AC47-C4E07D15EE88}" name="参数2" dataDxfId="16"/>
-    <tableColumn id="7" xr3:uid="{97A86C1D-0720-4DA9-A230-2B854C94703B}" name="参数3" dataDxfId="15"/>
-    <tableColumn id="8" xr3:uid="{74F52534-73B3-4964-B3F1-04920040D1CE}" name="参数4" dataDxfId="14"/>
-    <tableColumn id="9" xr3:uid="{FE519A61-3D62-437A-A54A-1541FAC9F66D}" name="参数5" dataDxfId="13"/>
-    <tableColumn id="10" xr3:uid="{E2EF7CB2-27DA-4534-B887-8CED13DDEDEB}" name="数组1" dataDxfId="12"/>
-    <tableColumn id="11" xr3:uid="{215AB503-B38D-422C-898E-0CCCFEC93B4E}" name="数组2" dataDxfId="11"/>
-    <tableColumn id="12" xr3:uid="{C4594820-6CDF-44FB-8D1A-6EECF3A59EE3}" name="数组3" dataDxfId="10"/>
-    <tableColumn id="22" xr3:uid="{4BB4B014-7D85-45C2-BDA5-C3BC6A0D24EF}" name="僵直时间" dataDxfId="9"/>
-    <tableColumn id="23" xr3:uid="{F0D9645B-8B8F-4A22-B1FE-98243CE5BFC9}" name="击退距离" dataDxfId="8"/>
-    <tableColumn id="13" xr3:uid="{51863B83-9A04-4C6C-9571-2A85C7B2D4B9}" name="主目标_x000a_范围类型修正" dataDxfId="7"/>
-    <tableColumn id="14" xr3:uid="{0A7DF7DC-2A81-4FED-848D-5830CE482B70}" name="主目标_x000a_修正" dataDxfId="6"/>
-    <tableColumn id="21" xr3:uid="{D185F1A5-6935-4E48-8FB7-B4F1AF76ECCB}" name="技能_x000a_发起类型" dataDxfId="5"/>
-    <tableColumn id="15" xr3:uid="{C74C0B95-5EB8-4479-A7E2-68D10B94811D}" name="目标范围长_x000a_修正" dataDxfId="4"/>
-    <tableColumn id="16" xr3:uid="{E31385C7-BC45-441B-9178-9CC7166A03D1}" name="目标范围宽_x000a_修正" dataDxfId="3"/>
-    <tableColumn id="17" xr3:uid="{3E38260C-64DD-4667-802F-14F78FD59DE2}" name="作用对象_x000a_修正" dataDxfId="2"/>
-    <tableColumn id="18" xr3:uid="{E338C7D2-80D7-45C8-AA21-14A3A2EE0424}" name="触发时机" dataDxfId="1"/>
-    <tableColumn id="19" xr3:uid="{E4169552-9707-4822-A6FC-78CFA23DEE16}" name="触发条件" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7D756641-FA44-4C98-8415-A8A9AF7B3072}" name="表1" displayName="表1" ref="C1:Z17" totalsRowShown="0" headerRowDxfId="28" dataDxfId="26" headerRowBorderDxfId="27" tableBorderDxfId="25" totalsRowBorderDxfId="24">
+  <autoFilter ref="C1:Z17" xr:uid="{8CC84E60-2DCE-4F71-9796-17451FB14116}"/>
+  <tableColumns count="24">
+    <tableColumn id="1" xr3:uid="{B117A20D-488D-4BBE-9938-B9ED8BC64C7F}" name="效果ID" dataDxfId="23"/>
+    <tableColumn id="24" xr3:uid="{92A314CE-7C79-4335-AE0F-C9FE3BC3E616}" name="备注" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{8933844E-7543-4BAF-96BB-CDE9FFDA1FF4}" name="效果表演" dataDxfId="22"/>
+    <tableColumn id="20" xr3:uid="{0D040897-96A3-4655-AF1A-867F46D315D6}" name="是否判定_x000a_效果命中" dataDxfId="21"/>
+    <tableColumn id="3" xr3:uid="{9E34CFDB-9FDC-4344-99F0-5F3D0E7E5723}" name="触发概率" dataDxfId="20"/>
+    <tableColumn id="4" xr3:uid="{74D1A4E2-93B1-4E13-8C07-A6CD771CBAD7}" name="效果类型" dataDxfId="19"/>
+    <tableColumn id="5" xr3:uid="{E5C762F0-7690-49F1-83D9-D7133665E63B}" name="参数1" dataDxfId="18"/>
+    <tableColumn id="6" xr3:uid="{1C2FBB75-F754-40DD-AC47-C4E07D15EE88}" name="参数2" dataDxfId="17"/>
+    <tableColumn id="7" xr3:uid="{97A86C1D-0720-4DA9-A230-2B854C94703B}" name="参数3" dataDxfId="16"/>
+    <tableColumn id="8" xr3:uid="{74F52534-73B3-4964-B3F1-04920040D1CE}" name="参数4" dataDxfId="15"/>
+    <tableColumn id="9" xr3:uid="{FE519A61-3D62-437A-A54A-1541FAC9F66D}" name="参数5" dataDxfId="14"/>
+    <tableColumn id="10" xr3:uid="{E2EF7CB2-27DA-4534-B887-8CED13DDEDEB}" name="数组1" dataDxfId="13"/>
+    <tableColumn id="11" xr3:uid="{215AB503-B38D-422C-898E-0CCCFEC93B4E}" name="数组2" dataDxfId="12"/>
+    <tableColumn id="12" xr3:uid="{C4594820-6CDF-44FB-8D1A-6EECF3A59EE3}" name="数组3" dataDxfId="11"/>
+    <tableColumn id="22" xr3:uid="{4BB4B014-7D85-45C2-BDA5-C3BC6A0D24EF}" name="僵直时间" dataDxfId="10"/>
+    <tableColumn id="23" xr3:uid="{F0D9645B-8B8F-4A22-B1FE-98243CE5BFC9}" name="击退距离" dataDxfId="9"/>
+    <tableColumn id="13" xr3:uid="{51863B83-9A04-4C6C-9571-2A85C7B2D4B9}" name="主目标_x000a_范围类型修正" dataDxfId="8"/>
+    <tableColumn id="14" xr3:uid="{0A7DF7DC-2A81-4FED-848D-5830CE482B70}" name="主目标_x000a_修正" dataDxfId="7"/>
+    <tableColumn id="21" xr3:uid="{D185F1A5-6935-4E48-8FB7-B4F1AF76ECCB}" name="技能_x000a_发起类型" dataDxfId="6"/>
+    <tableColumn id="15" xr3:uid="{C74C0B95-5EB8-4479-A7E2-68D10B94811D}" name="目标范围长_x000a_修正" dataDxfId="5"/>
+    <tableColumn id="16" xr3:uid="{E31385C7-BC45-441B-9178-9CC7166A03D1}" name="目标范围宽_x000a_修正" dataDxfId="4"/>
+    <tableColumn id="17" xr3:uid="{3E38260C-64DD-4667-802F-14F78FD59DE2}" name="作用对象_x000a_修正" dataDxfId="3"/>
+    <tableColumn id="18" xr3:uid="{E338C7D2-80D7-45C8-AA21-14A3A2EE0424}" name="触发时机" dataDxfId="2"/>
+    <tableColumn id="19" xr3:uid="{E4169552-9707-4822-A6FC-78CFA23DEE16}" name="触发条件" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1569,28 +1613,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y17"/>
+  <dimension ref="A1:Z17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="14.25" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="8" width="10.625" style="2"/>
-    <col min="9" max="12" width="10.625" style="2" customWidth="1" outlineLevel="1"/>
-    <col min="13" max="13" width="10.625" style="2"/>
-    <col min="14" max="15" width="10.625" style="2" customWidth="1" outlineLevel="1"/>
-    <col min="16" max="16" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13" style="2" customWidth="1"/>
-    <col min="18" max="18" width="15.625" style="2" customWidth="1"/>
-    <col min="19" max="23" width="10.625" style="2"/>
-    <col min="24" max="24" width="15" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="10.625" style="2"/>
+    <col min="1" max="9" width="10.625" style="2"/>
+    <col min="10" max="13" width="10.625" style="2" customWidth="1" outlineLevel="1"/>
+    <col min="14" max="14" width="10.625" style="2"/>
+    <col min="15" max="16" width="10.625" style="2" customWidth="1" outlineLevel="1"/>
+    <col min="17" max="17" width="13" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13" style="2" customWidth="1"/>
+    <col min="19" max="19" width="15.625" style="2" customWidth="1"/>
+    <col min="20" max="24" width="10.625" style="2"/>
+    <col min="25" max="25" width="15" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="10.625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1600,304 +1644,309 @@
       <c r="C1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="J1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="K1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="L1" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="M1" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="M1" s="20" t="s">
+      <c r="N1" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="20" t="s">
+      <c r="O1" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="20" t="s">
+      <c r="P1" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="28" t="s">
-        <v>59</v>
-      </c>
       <c r="Q1" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="R1" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="R1" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="S1" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="S1" s="9" t="s">
+      <c r="T1" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="T1" s="9" t="s">
-        <v>53</v>
-      </c>
       <c r="U1" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="V1" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="V1" s="9" t="s">
+      <c r="W1" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="W1" s="9" t="s">
+      <c r="X1" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="X1" s="16" t="s">
+      <c r="Y1" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="Y1" s="23" t="s">
+      <c r="Z1" s="23" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="4"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="1" t="s">
-        <v>66</v>
-      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="21"/>
       <c r="F2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K2" s="18"/>
+      <c r="H2" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="L2" s="18"/>
-      <c r="M2" s="21"/>
+      <c r="M2" s="18"/>
       <c r="N2" s="21"/>
       <c r="O2" s="21"/>
-      <c r="P2" s="29" t="s">
-        <v>60</v>
-      </c>
+      <c r="P2" s="21"/>
       <c r="Q2" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>50</v>
+        <v>59</v>
+      </c>
+      <c r="R2" s="29" t="s">
+        <v>66</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="T2" s="3" t="s">
         <v>57</v>
       </c>
       <c r="U2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="X2" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="V2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="W2" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="X2" s="18"/>
-      <c r="Y2" s="24"/>
+      <c r="Y2" s="18"/>
+      <c r="Z2" s="24"/>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="13"/>
+      <c r="E3" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="14" t="s">
-        <v>64</v>
-      </c>
       <c r="F3" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="G3" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="H3" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="I3" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="J3" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="K3" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="J3" s="14" t="s">
+      <c r="L3" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="K3" s="14" t="s">
+      <c r="M3" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="L3" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="M3" s="27" t="s">
+      <c r="N3" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="O3" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="N3" s="27" t="s">
+      <c r="P3" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="O3" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="P3" s="30" t="s">
-        <v>61</v>
-      </c>
       <c r="Q3" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="R3" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="R3" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="S3" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="S3" s="15" t="s">
+      <c r="T3" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="T3" s="15" t="s">
-        <v>54</v>
-      </c>
       <c r="U3" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="V3" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="V3" s="15" t="s">
+      <c r="W3" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="W3" s="15" t="s">
+      <c r="X3" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="X3" s="19" t="s">
+      <c r="Y3" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="Y3" s="25" t="s">
+      <c r="Z3" s="25" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="13"/>
+      <c r="E4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="14" t="s">
-        <v>65</v>
-      </c>
       <c r="F4" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="H4" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="I4" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="J4" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="I4" s="14" t="s">
+      <c r="K4" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="J4" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="K4" s="27" t="s">
+      <c r="L4" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="M4" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="L4" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="M4" s="27" t="s">
+      <c r="N4" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="27" t="s">
+      <c r="O4" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="O4" s="27" t="s">
+      <c r="P4" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="P4" s="30" t="s">
-        <v>59</v>
-      </c>
       <c r="Q4" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="R4" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="R4" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="S4" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="S4" s="15" t="s">
+      <c r="T4" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="T4" s="15" t="s">
-        <v>55</v>
-      </c>
       <c r="U4" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="V4" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="V4" s="15" t="s">
+      <c r="W4" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="W4" s="15" t="s">
+      <c r="X4" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="X4" s="19"/>
-      <c r="Y4" s="25"/>
+      <c r="Y4" s="19"/>
+      <c r="Z4" s="25"/>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C5" s="13"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="14"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="22"/>
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
       <c r="H5" s="14"/>
       <c r="I5" s="14"/>
       <c r="J5" s="14"/>
-      <c r="K5" s="19"/>
+      <c r="K5" s="14"/>
       <c r="L5" s="19"/>
-      <c r="M5" s="22"/>
+      <c r="M5" s="19"/>
       <c r="N5" s="22"/>
       <c r="O5" s="22"/>
-      <c r="P5" s="30"/>
+      <c r="P5" s="22"/>
       <c r="Q5" s="30"/>
-      <c r="R5" s="15"/>
+      <c r="R5" s="30"/>
       <c r="S5" s="15"/>
       <c r="T5" s="15"/>
       <c r="U5" s="15"/>
       <c r="V5" s="15"/>
       <c r="W5" s="15"/>
-      <c r="X5" s="19"/>
-      <c r="Y5" s="25"/>
+      <c r="X5" s="15"/>
+      <c r="Y5" s="19"/>
+      <c r="Z5" s="25"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="13"/>
+      <c r="E6" s="22" t="s">
         <v>29</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>17</v>
       </c>
       <c r="F6" s="14" t="s">
         <v>17</v>
@@ -1906,46 +1955,46 @@
         <v>17</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J6" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K6" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L6" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M6" s="14" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="N6" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O6" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="P6" s="30" t="s">
-        <v>62</v>
+        <v>76</v>
+      </c>
+      <c r="P6" s="14" t="s">
+        <v>76</v>
       </c>
       <c r="Q6" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="R6" s="15" t="s">
-        <v>17</v>
+        <v>61</v>
+      </c>
+      <c r="R6" s="30" t="s">
+        <v>68</v>
       </c>
       <c r="S6" s="15" t="s">
         <v>17</v>
       </c>
       <c r="T6" s="15" t="s">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="U6" s="15" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="V6" s="15" t="s">
         <v>17</v>
@@ -1953,34 +2002,35 @@
       <c r="W6" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="X6" s="19"/>
-      <c r="Y6" s="25"/>
+      <c r="X6" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y6" s="19"/>
+      <c r="Z6" s="25"/>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="4">
         <v>1010011</v>
       </c>
-      <c r="E7" s="2">
-        <v>0</v>
-      </c>
+      <c r="D7" s="4"/>
       <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2">
         <v>10000</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>101</v>
-      </c>
-      <c r="H7" s="2">
-        <v>1</v>
       </c>
       <c r="I7" s="2">
         <v>1</v>
       </c>
       <c r="J7" s="2">
+        <v>1</v>
+      </c>
+      <c r="K7" s="2">
         <v>200</v>
       </c>
-      <c r="K7" s="2">
-        <v>0</v>
-      </c>
       <c r="L7" s="2">
         <v>0</v>
       </c>
@@ -1993,21 +2043,21 @@
       <c r="O7" s="2">
         <v>0</v>
       </c>
-      <c r="P7" s="31">
+      <c r="P7" s="2">
         <v>0</v>
       </c>
       <c r="Q7" s="31">
         <v>0</v>
       </c>
-      <c r="R7" s="2">
+      <c r="R7" s="31">
         <v>0</v>
       </c>
       <c r="S7" s="2">
+        <v>0</v>
+      </c>
+      <c r="T7" s="2">
         <v>-1</v>
       </c>
-      <c r="T7" s="2">
-        <v>0</v>
-      </c>
       <c r="U7" s="2">
         <v>0</v>
       </c>
@@ -2017,33 +2067,34 @@
       <c r="W7" s="2">
         <v>0</v>
       </c>
-      <c r="Y7" s="5"/>
+      <c r="X7" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="5"/>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="4">
         <v>1010012</v>
       </c>
-      <c r="E8" s="2">
-        <v>0</v>
-      </c>
+      <c r="D8" s="4"/>
       <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2">
         <v>10000</v>
       </c>
-      <c r="G8" s="2">
+      <c r="H8" s="2">
         <v>101</v>
       </c>
-      <c r="H8" s="2">
+      <c r="I8" s="2">
         <v>1</v>
       </c>
-      <c r="I8" s="2">
+      <c r="J8" s="2">
         <v>2</v>
       </c>
-      <c r="J8" s="2">
+      <c r="K8" s="2">
         <v>200</v>
       </c>
-      <c r="K8" s="2">
-        <v>0</v>
-      </c>
       <c r="L8" s="2">
         <v>0</v>
       </c>
@@ -2056,21 +2107,21 @@
       <c r="O8" s="2">
         <v>0</v>
       </c>
-      <c r="P8" s="31">
+      <c r="P8" s="2">
         <v>0</v>
       </c>
       <c r="Q8" s="31">
         <v>0</v>
       </c>
-      <c r="R8" s="2">
+      <c r="R8" s="31">
         <v>0</v>
       </c>
       <c r="S8" s="2">
+        <v>0</v>
+      </c>
+      <c r="T8" s="2">
         <v>-1</v>
       </c>
-      <c r="T8" s="2">
-        <v>0</v>
-      </c>
       <c r="U8" s="2">
         <v>0</v>
       </c>
@@ -2080,33 +2131,34 @@
       <c r="W8" s="2">
         <v>0</v>
       </c>
-      <c r="Y8" s="5"/>
+      <c r="X8" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="5"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="4">
         <v>1010013</v>
       </c>
-      <c r="E9" s="2">
+      <c r="D9" s="4"/>
+      <c r="F9" s="2">
         <v>1</v>
       </c>
-      <c r="F9" s="2">
+      <c r="G9" s="2">
         <v>10000</v>
       </c>
-      <c r="G9" s="2">
+      <c r="H9" s="2">
         <v>101</v>
       </c>
-      <c r="H9" s="2">
+      <c r="I9" s="2">
         <v>1</v>
       </c>
-      <c r="I9" s="2">
+      <c r="J9" s="2">
         <v>4.5</v>
       </c>
-      <c r="J9" s="2">
+      <c r="K9" s="2">
         <v>200</v>
       </c>
-      <c r="K9" s="2">
-        <v>0</v>
-      </c>
       <c r="L9" s="2">
         <v>0</v>
       </c>
@@ -2119,21 +2171,21 @@
       <c r="O9" s="2">
         <v>0</v>
       </c>
-      <c r="P9" s="31">
+      <c r="P9" s="2">
         <v>0</v>
       </c>
       <c r="Q9" s="31">
         <v>0</v>
       </c>
-      <c r="R9" s="2">
+      <c r="R9" s="31">
         <v>0</v>
       </c>
       <c r="S9" s="2">
+        <v>0</v>
+      </c>
+      <c r="T9" s="2">
         <v>-1</v>
       </c>
-      <c r="T9" s="2">
-        <v>0</v>
-      </c>
       <c r="U9" s="2">
         <v>0</v>
       </c>
@@ -2143,33 +2195,34 @@
       <c r="W9" s="2">
         <v>0</v>
       </c>
-      <c r="Y9" s="5"/>
+      <c r="X9" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="5"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="4">
         <v>1010014</v>
       </c>
-      <c r="E10" s="2">
+      <c r="D10" s="4"/>
+      <c r="F10" s="2">
         <v>1</v>
       </c>
-      <c r="F10" s="2">
+      <c r="G10" s="2">
         <v>10000</v>
       </c>
-      <c r="G10" s="2">
+      <c r="H10" s="2">
         <v>101</v>
       </c>
-      <c r="H10" s="2">
+      <c r="I10" s="2">
         <v>1</v>
       </c>
-      <c r="I10" s="2">
+      <c r="J10" s="2">
         <v>3</v>
       </c>
-      <c r="J10" s="2">
+      <c r="K10" s="2">
         <v>200</v>
       </c>
-      <c r="K10" s="2">
-        <v>0</v>
-      </c>
       <c r="L10" s="2">
         <v>0</v>
       </c>
@@ -2182,21 +2235,21 @@
       <c r="O10" s="2">
         <v>0</v>
       </c>
-      <c r="P10" s="31">
+      <c r="P10" s="2">
         <v>0</v>
       </c>
       <c r="Q10" s="31">
         <v>0</v>
       </c>
-      <c r="R10" s="2">
+      <c r="R10" s="31">
         <v>0</v>
       </c>
       <c r="S10" s="2">
+        <v>0</v>
+      </c>
+      <c r="T10" s="2">
         <v>-1</v>
       </c>
-      <c r="T10" s="2">
-        <v>0</v>
-      </c>
       <c r="U10" s="2">
         <v>0</v>
       </c>
@@ -2206,33 +2259,34 @@
       <c r="W10" s="2">
         <v>0</v>
       </c>
-      <c r="Y10" s="5"/>
+      <c r="X10" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="5"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="4">
         <v>1010015</v>
       </c>
-      <c r="E11" s="2">
-        <v>0</v>
-      </c>
+      <c r="D11" s="4"/>
       <c r="F11" s="2">
+        <v>0</v>
+      </c>
+      <c r="G11" s="2">
         <v>10000</v>
       </c>
-      <c r="G11" s="2">
+      <c r="H11" s="2">
         <v>101</v>
       </c>
-      <c r="H11" s="2">
+      <c r="I11" s="2">
         <v>1</v>
       </c>
-      <c r="I11" s="2">
+      <c r="J11" s="2">
         <v>0.4</v>
       </c>
-      <c r="J11" s="2">
+      <c r="K11" s="2">
         <v>100</v>
       </c>
-      <c r="K11" s="2">
-        <v>0</v>
-      </c>
       <c r="L11" s="2">
         <v>0</v>
       </c>
@@ -2255,11 +2309,11 @@
         <v>0</v>
       </c>
       <c r="S11" s="2">
+        <v>0</v>
+      </c>
+      <c r="T11" s="2">
         <v>-1</v>
       </c>
-      <c r="T11" s="2">
-        <v>0</v>
-      </c>
       <c r="U11" s="2">
         <v>0</v>
       </c>
@@ -2269,33 +2323,34 @@
       <c r="W11" s="2">
         <v>0</v>
       </c>
-      <c r="Y11" s="5"/>
+      <c r="X11" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="5"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="4">
         <v>1010016</v>
       </c>
-      <c r="E12" s="2">
-        <v>0</v>
-      </c>
+      <c r="D12" s="4"/>
       <c r="F12" s="2">
+        <v>0</v>
+      </c>
+      <c r="G12" s="2">
         <v>10000</v>
       </c>
-      <c r="G12" s="2">
+      <c r="H12" s="2">
         <v>101</v>
       </c>
-      <c r="H12" s="2">
+      <c r="I12" s="2">
         <v>1</v>
       </c>
-      <c r="I12" s="2">
+      <c r="J12" s="2">
         <v>0.6</v>
       </c>
-      <c r="J12" s="2">
+      <c r="K12" s="2">
         <v>100</v>
       </c>
-      <c r="K12" s="2">
-        <v>0</v>
-      </c>
       <c r="L12" s="2">
         <v>0</v>
       </c>
@@ -2318,11 +2373,11 @@
         <v>0</v>
       </c>
       <c r="S12" s="2">
+        <v>0</v>
+      </c>
+      <c r="T12" s="2">
         <v>-1</v>
       </c>
-      <c r="T12" s="2">
-        <v>0</v>
-      </c>
       <c r="U12" s="2">
         <v>0</v>
       </c>
@@ -2332,27 +2387,217 @@
       <c r="W12" s="2">
         <v>0</v>
       </c>
-      <c r="Y12" s="5"/>
+      <c r="X12" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="5"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="C13" s="4"/>
-      <c r="Y13" s="5"/>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="C13" s="4">
+        <v>1010017</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0</v>
+      </c>
+      <c r="G13" s="2">
+        <v>10000</v>
+      </c>
+      <c r="H13" s="2">
+        <v>501</v>
+      </c>
+      <c r="I13" s="2">
+        <v>10001</v>
+      </c>
+      <c r="J13" s="2">
+        <v>0</v>
+      </c>
+      <c r="K13" s="2">
+        <v>0</v>
+      </c>
+      <c r="L13" s="2">
+        <v>0</v>
+      </c>
+      <c r="M13" s="2">
+        <v>0</v>
+      </c>
+      <c r="N13" s="2">
+        <v>0</v>
+      </c>
+      <c r="O13" s="2">
+        <v>0</v>
+      </c>
+      <c r="P13" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>0</v>
+      </c>
+      <c r="R13" s="2">
+        <v>0</v>
+      </c>
+      <c r="S13" s="2">
+        <v>1</v>
+      </c>
+      <c r="T13" s="2">
+        <v>0</v>
+      </c>
+      <c r="U13" s="2">
+        <v>1</v>
+      </c>
+      <c r="V13" s="2">
+        <v>5</v>
+      </c>
+      <c r="W13" s="2">
+        <v>0</v>
+      </c>
+      <c r="X13" s="2">
+        <v>2</v>
+      </c>
+      <c r="Z13" s="5"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="C14" s="4"/>
-      <c r="Y14" s="5"/>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="C14" s="4">
+        <v>1010018</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0</v>
+      </c>
+      <c r="G14" s="2">
+        <v>5000</v>
+      </c>
+      <c r="H14" s="2">
+        <v>501</v>
+      </c>
+      <c r="I14" s="2">
+        <v>10002</v>
+      </c>
+      <c r="J14" s="2">
+        <v>0</v>
+      </c>
+      <c r="K14" s="2">
+        <v>0</v>
+      </c>
+      <c r="L14" s="2">
+        <v>0</v>
+      </c>
+      <c r="M14" s="2">
+        <v>0</v>
+      </c>
+      <c r="N14" s="2">
+        <v>0</v>
+      </c>
+      <c r="O14" s="2">
+        <v>0</v>
+      </c>
+      <c r="P14" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>0</v>
+      </c>
+      <c r="R14" s="2">
+        <v>0</v>
+      </c>
+      <c r="S14" s="2">
+        <v>1</v>
+      </c>
+      <c r="T14" s="2">
+        <v>0</v>
+      </c>
+      <c r="U14" s="2">
+        <v>1</v>
+      </c>
+      <c r="V14" s="2">
+        <v>5</v>
+      </c>
+      <c r="W14" s="2">
+        <v>0</v>
+      </c>
+      <c r="X14" s="2">
+        <v>2</v>
+      </c>
+      <c r="Z14" s="5"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="C15" s="4"/>
-      <c r="Y15" s="5"/>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="C15" s="4">
+        <v>1010019</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0</v>
+      </c>
+      <c r="G15" s="2">
+        <v>5000</v>
+      </c>
+      <c r="H15" s="2">
+        <v>502</v>
+      </c>
+      <c r="I15" s="2">
+        <v>0</v>
+      </c>
+      <c r="J15" s="2">
+        <v>0</v>
+      </c>
+      <c r="K15" s="2">
+        <v>0</v>
+      </c>
+      <c r="L15" s="2">
+        <v>0</v>
+      </c>
+      <c r="M15" s="2">
+        <v>0</v>
+      </c>
+      <c r="N15" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="O15" s="2">
+        <v>0</v>
+      </c>
+      <c r="P15" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>0</v>
+      </c>
+      <c r="R15" s="2">
+        <v>0</v>
+      </c>
+      <c r="S15" s="2">
+        <v>1</v>
+      </c>
+      <c r="T15" s="2">
+        <v>-1</v>
+      </c>
+      <c r="U15" s="2">
+        <v>2</v>
+      </c>
+      <c r="V15" s="2">
+        <v>5</v>
+      </c>
+      <c r="W15" s="2">
+        <v>0</v>
+      </c>
+      <c r="X15" s="2">
+        <v>5</v>
+      </c>
+      <c r="Z15" s="5"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C16" s="4"/>
-      <c r="Y16" s="5"/>
+      <c r="D16" s="4"/>
+      <c r="Z16" s="5"/>
     </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="10"/>
-      <c r="D17" s="11"/>
+      <c r="D17" s="10"/>
       <c r="E17" s="11"/>
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
@@ -2373,7 +2618,8 @@
       <c r="V17" s="11"/>
       <c r="W17" s="11"/>
       <c r="X17" s="11"/>
-      <c r="Y17" s="12"/>
+      <c r="Y17" s="11"/>
+      <c r="Z17" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/config/excel/SkillEffect.xlsx
+++ b/config/excel/SkillEffect.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EastEden\excel\trunk\global\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54CA46DA-9DE4-4EDE-9F5B-7981110BA17D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE42A8DB-AED4-40D7-96F4-65EC235BDF66}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -166,37 +166,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">圆形-0
-矩形-宽度
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>扇形-角度
-中心线左右</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-单位米</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>作用对象
 修正</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -316,11 +285,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>0-默认
-目标点到目标范围边界的距离(米)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>0-默认目标
 1-选定目标
 2-友军(除目标)
@@ -349,14 +313,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>'-1'-默认
-0-自身周围
-1-选定空间
-2-友军单体
-3-敌军单体</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>僵直时间</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -471,12 +427,113 @@
     <t>降攻，降防buff</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0-默认
+1-自身周围</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2-友军单体
+3-敌军单体
+4-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>选定空间
+(弃用)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标点到目标范围边界的距离(米)
+圆形-半径</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">0-默认
+圆形-配空
+矩形-宽度
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">扇形-角度
+中心线左右
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>单位米</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -539,6 +596,37 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="6">
@@ -705,7 +793,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -802,6 +890,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -811,10 +908,10 @@
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right/>
         <top style="thin">
           <color theme="0"/>
         </top>
@@ -831,7 +928,9 @@
         <left style="thin">
           <color theme="0"/>
         </left>
-        <right/>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
         <top style="thin">
           <color theme="0"/>
         </top>
@@ -1225,9 +1324,7 @@
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0"/>
-        </left>
+        <left/>
         <right style="thin">
           <color theme="0"/>
         </right>
@@ -1322,29 +1419,29 @@
   <autoFilter ref="C1:Z17" xr:uid="{8CC84E60-2DCE-4F71-9796-17451FB14116}"/>
   <tableColumns count="24">
     <tableColumn id="1" xr3:uid="{B117A20D-488D-4BBE-9938-B9ED8BC64C7F}" name="效果ID" dataDxfId="23"/>
-    <tableColumn id="24" xr3:uid="{92A314CE-7C79-4335-AE0F-C9FE3BC3E616}" name="备注" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{8933844E-7543-4BAF-96BB-CDE9FFDA1FF4}" name="效果表演" dataDxfId="22"/>
-    <tableColumn id="20" xr3:uid="{0D040897-96A3-4655-AF1A-867F46D315D6}" name="是否判定_x000a_效果命中" dataDxfId="21"/>
-    <tableColumn id="3" xr3:uid="{9E34CFDB-9FDC-4344-99F0-5F3D0E7E5723}" name="触发概率" dataDxfId="20"/>
-    <tableColumn id="4" xr3:uid="{74D1A4E2-93B1-4E13-8C07-A6CD771CBAD7}" name="效果类型" dataDxfId="19"/>
-    <tableColumn id="5" xr3:uid="{E5C762F0-7690-49F1-83D9-D7133665E63B}" name="参数1" dataDxfId="18"/>
-    <tableColumn id="6" xr3:uid="{1C2FBB75-F754-40DD-AC47-C4E07D15EE88}" name="参数2" dataDxfId="17"/>
-    <tableColumn id="7" xr3:uid="{97A86C1D-0720-4DA9-A230-2B854C94703B}" name="参数3" dataDxfId="16"/>
-    <tableColumn id="8" xr3:uid="{74F52534-73B3-4964-B3F1-04920040D1CE}" name="参数4" dataDxfId="15"/>
-    <tableColumn id="9" xr3:uid="{FE519A61-3D62-437A-A54A-1541FAC9F66D}" name="参数5" dataDxfId="14"/>
-    <tableColumn id="10" xr3:uid="{E2EF7CB2-27DA-4534-B887-8CED13DDEDEB}" name="数组1" dataDxfId="13"/>
-    <tableColumn id="11" xr3:uid="{215AB503-B38D-422C-898E-0CCCFEC93B4E}" name="数组2" dataDxfId="12"/>
-    <tableColumn id="12" xr3:uid="{C4594820-6CDF-44FB-8D1A-6EECF3A59EE3}" name="数组3" dataDxfId="11"/>
-    <tableColumn id="22" xr3:uid="{4BB4B014-7D85-45C2-BDA5-C3BC6A0D24EF}" name="僵直时间" dataDxfId="10"/>
-    <tableColumn id="23" xr3:uid="{F0D9645B-8B8F-4A22-B1FE-98243CE5BFC9}" name="击退距离" dataDxfId="9"/>
-    <tableColumn id="13" xr3:uid="{51863B83-9A04-4C6C-9571-2A85C7B2D4B9}" name="主目标_x000a_范围类型修正" dataDxfId="8"/>
-    <tableColumn id="14" xr3:uid="{0A7DF7DC-2A81-4FED-848D-5830CE482B70}" name="主目标_x000a_修正" dataDxfId="7"/>
-    <tableColumn id="21" xr3:uid="{D185F1A5-6935-4E48-8FB7-B4F1AF76ECCB}" name="技能_x000a_发起类型" dataDxfId="6"/>
-    <tableColumn id="15" xr3:uid="{C74C0B95-5EB8-4479-A7E2-68D10B94811D}" name="目标范围长_x000a_修正" dataDxfId="5"/>
-    <tableColumn id="16" xr3:uid="{E31385C7-BC45-441B-9178-9CC7166A03D1}" name="目标范围宽_x000a_修正" dataDxfId="4"/>
-    <tableColumn id="17" xr3:uid="{3E38260C-64DD-4667-802F-14F78FD59DE2}" name="作用对象_x000a_修正" dataDxfId="3"/>
-    <tableColumn id="18" xr3:uid="{E338C7D2-80D7-45C8-AA21-14A3A2EE0424}" name="触发时机" dataDxfId="2"/>
-    <tableColumn id="19" xr3:uid="{E4169552-9707-4822-A6FC-78CFA23DEE16}" name="触发条件" dataDxfId="1"/>
+    <tableColumn id="24" xr3:uid="{92A314CE-7C79-4335-AE0F-C9FE3BC3E616}" name="备注" dataDxfId="22"/>
+    <tableColumn id="2" xr3:uid="{8933844E-7543-4BAF-96BB-CDE9FFDA1FF4}" name="效果表演" dataDxfId="21"/>
+    <tableColumn id="20" xr3:uid="{0D040897-96A3-4655-AF1A-867F46D315D6}" name="是否判定_x000a_效果命中" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{9E34CFDB-9FDC-4344-99F0-5F3D0E7E5723}" name="触发概率" dataDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{74D1A4E2-93B1-4E13-8C07-A6CD771CBAD7}" name="效果类型" dataDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{E5C762F0-7690-49F1-83D9-D7133665E63B}" name="参数1" dataDxfId="17"/>
+    <tableColumn id="6" xr3:uid="{1C2FBB75-F754-40DD-AC47-C4E07D15EE88}" name="参数2" dataDxfId="16"/>
+    <tableColumn id="7" xr3:uid="{97A86C1D-0720-4DA9-A230-2B854C94703B}" name="参数3" dataDxfId="15"/>
+    <tableColumn id="8" xr3:uid="{74F52534-73B3-4964-B3F1-04920040D1CE}" name="参数4" dataDxfId="14"/>
+    <tableColumn id="9" xr3:uid="{FE519A61-3D62-437A-A54A-1541FAC9F66D}" name="参数5" dataDxfId="13"/>
+    <tableColumn id="10" xr3:uid="{E2EF7CB2-27DA-4534-B887-8CED13DDEDEB}" name="数组1" dataDxfId="12"/>
+    <tableColumn id="11" xr3:uid="{215AB503-B38D-422C-898E-0CCCFEC93B4E}" name="数组2" dataDxfId="11"/>
+    <tableColumn id="12" xr3:uid="{C4594820-6CDF-44FB-8D1A-6EECF3A59EE3}" name="数组3" dataDxfId="10"/>
+    <tableColumn id="22" xr3:uid="{4BB4B014-7D85-45C2-BDA5-C3BC6A0D24EF}" name="僵直时间" dataDxfId="9"/>
+    <tableColumn id="23" xr3:uid="{F0D9645B-8B8F-4A22-B1FE-98243CE5BFC9}" name="击退距离" dataDxfId="8"/>
+    <tableColumn id="13" xr3:uid="{51863B83-9A04-4C6C-9571-2A85C7B2D4B9}" name="主目标_x000a_范围类型修正" dataDxfId="7"/>
+    <tableColumn id="14" xr3:uid="{0A7DF7DC-2A81-4FED-848D-5830CE482B70}" name="主目标_x000a_修正" dataDxfId="6"/>
+    <tableColumn id="21" xr3:uid="{D185F1A5-6935-4E48-8FB7-B4F1AF76ECCB}" name="技能_x000a_发起类型" dataDxfId="5"/>
+    <tableColumn id="15" xr3:uid="{C74C0B95-5EB8-4479-A7E2-68D10B94811D}" name="目标范围长_x000a_修正" dataDxfId="4"/>
+    <tableColumn id="16" xr3:uid="{E31385C7-BC45-441B-9178-9CC7166A03D1}" name="目标范围宽_x000a_修正" dataDxfId="3"/>
+    <tableColumn id="17" xr3:uid="{3E38260C-64DD-4667-802F-14F78FD59DE2}" name="作用对象_x000a_修正" dataDxfId="2"/>
+    <tableColumn id="18" xr3:uid="{E338C7D2-80D7-45C8-AA21-14A3A2EE0424}" name="触发时机" dataDxfId="1"/>
+    <tableColumn id="19" xr3:uid="{E4169552-9707-4822-A6FC-78CFA23DEE16}" name="触发条件" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1615,8 +1712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="U7" sqref="U7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="14.25" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -1645,13 +1742,13 @@
         <v>6</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E1" s="20" t="s">
         <v>7</v>
       </c>
       <c r="F1" s="26" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G1" s="8" t="s">
         <v>15</v>
@@ -1672,7 +1769,7 @@
         <v>22</v>
       </c>
       <c r="M1" s="17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N1" s="20" t="s">
         <v>12</v>
@@ -1684,10 +1781,10 @@
         <v>14</v>
       </c>
       <c r="Q1" s="28" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="R1" s="28" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="S1" s="9" t="s">
         <v>23</v>
@@ -1696,16 +1793,16 @@
         <v>20</v>
       </c>
       <c r="U1" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="V1" s="9" t="s">
         <v>21</v>
       </c>
       <c r="W1" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="X1" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Y1" s="16" t="s">
         <v>18</v>
@@ -1722,13 +1819,13 @@
       <c r="D2" s="4"/>
       <c r="E2" s="21"/>
       <c r="F2" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="L2" s="18"/>
       <c r="M2" s="18"/>
@@ -1736,28 +1833,28 @@
       <c r="O2" s="21"/>
       <c r="P2" s="21"/>
       <c r="Q2" s="29" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="R2" s="29" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="S2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="T2" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="V2" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="W2" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="X2" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="V2" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="W2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="X2" s="3" t="s">
-        <v>51</v>
       </c>
       <c r="Y2" s="18"/>
       <c r="Z2" s="24"/>
@@ -1771,70 +1868,70 @@
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="G3" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>28</v>
-      </c>
       <c r="H3" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I3" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="K3" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="L3" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="J3" s="14" t="s">
+      <c r="M3" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="K3" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="L3" s="14" t="s">
+      <c r="N3" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="M3" s="14" t="s">
+      <c r="O3" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="N3" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="O3" s="27" t="s">
-        <v>78</v>
-      </c>
       <c r="P3" s="27" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="Q3" s="30" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="R3" s="30" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="S3" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="T3" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="T3" s="15" t="s">
+      <c r="U3" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="V3" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="U3" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="V3" s="15" t="s">
+      <c r="W3" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="W3" s="15" t="s">
+      <c r="X3" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="X3" s="15" t="s">
-        <v>37</v>
-      </c>
       <c r="Y3" s="19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Z3" s="25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.2">
@@ -1849,7 +1946,7 @@
         <v>7</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G4" s="14" t="s">
         <v>15</v>
@@ -1858,19 +1955,19 @@
         <v>8</v>
       </c>
       <c r="I4" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="J4" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="J4" s="14" t="s">
+      <c r="K4" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="K4" s="14" t="s">
-        <v>48</v>
-      </c>
       <c r="L4" s="27" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="M4" s="27" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="N4" s="27" t="s">
         <v>12</v>
@@ -1882,35 +1979,35 @@
         <v>14</v>
       </c>
       <c r="Q4" s="30" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="R4" s="30" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="S4" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="T4" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="T4" s="15" t="s">
+      <c r="U4" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="V4" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="U4" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="V4" s="15" t="s">
+      <c r="W4" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="W4" s="15" t="s">
+      <c r="X4" s="15" t="s">
         <v>41</v>
-      </c>
-      <c r="X4" s="15" t="s">
-        <v>42</v>
       </c>
       <c r="Y4" s="19"/>
       <c r="Z4" s="25"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
@@ -1946,7 +2043,7 @@
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F6" s="14" t="s">
         <v>17</v>
@@ -1958,34 +2055,34 @@
         <v>17</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="J6" s="14" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="K6" s="14" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="L6" s="14" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="M6" s="14" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="N6" s="14" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="O6" s="14" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="P6" s="14" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="Q6" s="30" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="R6" s="30" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="S6" s="15" t="s">
         <v>17</v>
@@ -1994,7 +2091,7 @@
         <v>17</v>
       </c>
       <c r="U6" s="15" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="V6" s="15" t="s">
         <v>17</v>
@@ -2397,7 +2494,7 @@
         <v>1010017</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F13" s="2">
         <v>0</v>
@@ -2454,7 +2551,7 @@
         <v>0</v>
       </c>
       <c r="X13" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z13" s="5"/>
     </row>
@@ -2463,7 +2560,7 @@
         <v>1010018</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F14" s="2">
         <v>0</v>
@@ -2520,7 +2617,7 @@
         <v>0</v>
       </c>
       <c r="X14" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z14" s="5"/>
     </row>
@@ -2529,7 +2626,7 @@
         <v>1010019</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F15" s="2">
         <v>0</v>
@@ -2556,7 +2653,7 @@
         <v>0</v>
       </c>
       <c r="N15" s="32" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="O15" s="2">
         <v>0</v>

--- a/config/excel/SkillEffect.xlsx
+++ b/config/excel/SkillEffect.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EastEden\excel\trunk\global\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE42A8DB-AED4-40D7-96F4-65EC235BDF66}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88706676-F63A-4171-AC12-C7C7C6DA4453}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
     <author>dd</author>
   </authors>
   <commentList>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{05B794EC-C9E0-47DA-BA1D-6D81E89388D8}">
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{05B794EC-C9E0-47DA-BA1D-6D81E89388D8}">
       <text>
         <r>
           <rPr>
@@ -45,7 +45,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{1423CB30-3DF0-4D12-A85D-376D802CDC1A}">
+    <comment ref="K2" authorId="0" shapeId="0" xr:uid="{1423CB30-3DF0-4D12-A85D-376D802CDC1A}">
       <text>
         <r>
           <rPr>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="129">
   <si>
     <t>行列头两行不会被读取</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -92,10 +92,6 @@
   </si>
   <si>
     <t>效果ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>效果表演</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -175,15 +171,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>showid</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>prob</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -313,18 +301,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>僵直时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>目标受击后僵直时间，期间目标com条静止，保持受击动作，其他单位继续行动</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>rigidityTime</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>number</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -347,15 +323,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>击退距离</t>
-  </si>
-  <si>
-    <t>hitBackDistance</t>
-  </si>
-  <si>
-    <t>number</t>
-  </si>
-  <si>
     <t>参数4</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -400,31 +367,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>101-伤害
-201-治疗
-301-打断
-401-聚集
-501-加buff</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>11003,21003</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>备注</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>加攻buff</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>加防buff</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>降攻，降防buff</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -526,6 +469,242 @@
       </rPr>
       <t>单位米</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试-造成200%+200伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试-造成450%+200伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试-造成300%+200伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试-加攻buff</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试-加防buff</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试-回复-根据施法者攻击%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试-回复-根据施法者生命上限%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试-回复-根据目标生命上限%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试-拉条效果-COM提升35%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>101-伤害
+201-治疗根据施法者
+202-治疗根据目标
+301-打断
+311-打退
+321-拉条
+401-聚集
+501-加buff</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试-聚集效果-根据技能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试-降防buff</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>被击特效</t>
+  </si>
+  <si>
+    <t>被击插槽ID</t>
+  </si>
+  <si>
+    <t>被击停帧</t>
+  </si>
+  <si>
+    <t>受伤被击动作</t>
+  </si>
+  <si>
+    <t>受伤状态持续时间</t>
+  </si>
+  <si>
+    <t>受伤击退距离</t>
+  </si>
+  <si>
+    <t>受击特效插槽</t>
+  </si>
+  <si>
+    <t>受击方在受击时，切成受击状态的时间，受击单位的COM会静止</t>
+  </si>
+  <si>
+    <t>攻击方进行攻击的过程中，攻击方和受击方同时暂停的时长，其他的单位不受影响</t>
+  </si>
+  <si>
+    <t>hitFxName</t>
+  </si>
+  <si>
+    <t>hitFxSlot</t>
+  </si>
+  <si>
+    <t>hitStopTime</t>
+  </si>
+  <si>
+    <t>hitAnimName</t>
+  </si>
+  <si>
+    <t>hitHurtTime</t>
+  </si>
+  <si>
+    <t>hitBackDistance</t>
+  </si>
+  <si>
+    <t>受击特效</t>
+  </si>
+  <si>
+    <t>受击停顿时间
+仅普攻</t>
+  </si>
+  <si>
+    <t>受击动作
+单体弹道的受击时间为物理碰撞的时间点</t>
+  </si>
+  <si>
+    <t>受伤状态的持续时间的
+击退距离</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>普通攻击、天赋
+受击特效插槽</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>受伤状态的持续时间
+仅普攻
+切成受伤</t>
+  </si>
+  <si>
+    <t>bak1</t>
+  </si>
+  <si>
+    <t>普通攻击、天赋
+受击特效表现</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>受伤动作</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fx_PLMXS_atk_hit1</t>
+  </si>
+  <si>
+    <t>hit</t>
+  </si>
+  <si>
+    <t>Fx_PLMXS_atk_hit2</t>
+  </si>
+  <si>
+    <t>瓦尔基里-造成100%+200伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>瓦尔基里-打断效果</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fx_daoguang_hit</t>
+  </si>
+  <si>
+    <t>男主-造成40%+100伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>男主-造成60%+100伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>梅林-造成100%+200伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fx_attack_hit</t>
+  </si>
+  <si>
+    <t>扫把-普攻1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>白狼-普攻1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>蝙蝠-普攻1</t>
+  </si>
+  <si>
+    <t>洛基-普攻1</t>
+  </si>
+  <si>
+    <t>洛基-50%概率打退效果-COM减少35%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fx_luoji_atk_hit</t>
+  </si>
+  <si>
+    <t>史莱姆-普攻</t>
+  </si>
+  <si>
+    <r>
+      <t>击退距离
+判定伤害后才可进行击退
+与</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>空间类</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的其他效果冲突</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试-普攻1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -629,7 +808,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -650,18 +829,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="-0.499984740745262"/>
-        <bgColor theme="4"/>
+        <fgColor theme="4" tint="0.79995117038483843"/>
+        <bgColor theme="4" tint="0.79995117038483843"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79995117038483843"/>
-        <bgColor theme="4" tint="0.79995117038483843"/>
+        <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -780,20 +965,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -876,35 +1052,44 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="29">
+  <dxfs count="32">
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -1247,10 +1432,108 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0"/>
-        </left>
+        <left/>
         <right style="thin">
           <color theme="0"/>
         </right>
@@ -1265,11 +1548,9 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0"/>
-        </left>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
         <right style="thin">
           <color theme="0"/>
         </right>
@@ -1279,63 +1560,6 @@
         <bottom style="thin">
           <color theme="0"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1415,25 +1639,28 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7D756641-FA44-4C98-8415-A8A9AF7B3072}" name="表1" displayName="表1" ref="C1:Z17" totalsRowShown="0" headerRowDxfId="28" dataDxfId="26" headerRowBorderDxfId="27" tableBorderDxfId="25" totalsRowBorderDxfId="24">
-  <autoFilter ref="C1:Z17" xr:uid="{8CC84E60-2DCE-4F71-9796-17451FB14116}"/>
-  <tableColumns count="24">
-    <tableColumn id="1" xr3:uid="{B117A20D-488D-4BBE-9938-B9ED8BC64C7F}" name="效果ID" dataDxfId="23"/>
-    <tableColumn id="24" xr3:uid="{92A314CE-7C79-4335-AE0F-C9FE3BC3E616}" name="备注" dataDxfId="22"/>
-    <tableColumn id="2" xr3:uid="{8933844E-7543-4BAF-96BB-CDE9FFDA1FF4}" name="效果表演" dataDxfId="21"/>
-    <tableColumn id="20" xr3:uid="{0D040897-96A3-4655-AF1A-867F46D315D6}" name="是否判定_x000a_效果命中" dataDxfId="20"/>
-    <tableColumn id="3" xr3:uid="{9E34CFDB-9FDC-4344-99F0-5F3D0E7E5723}" name="触发概率" dataDxfId="19"/>
-    <tableColumn id="4" xr3:uid="{74D1A4E2-93B1-4E13-8C07-A6CD771CBAD7}" name="效果类型" dataDxfId="18"/>
-    <tableColumn id="5" xr3:uid="{E5C762F0-7690-49F1-83D9-D7133665E63B}" name="参数1" dataDxfId="17"/>
-    <tableColumn id="6" xr3:uid="{1C2FBB75-F754-40DD-AC47-C4E07D15EE88}" name="参数2" dataDxfId="16"/>
-    <tableColumn id="7" xr3:uid="{97A86C1D-0720-4DA9-A230-2B854C94703B}" name="参数3" dataDxfId="15"/>
-    <tableColumn id="8" xr3:uid="{74F52534-73B3-4964-B3F1-04920040D1CE}" name="参数4" dataDxfId="14"/>
-    <tableColumn id="9" xr3:uid="{FE519A61-3D62-437A-A54A-1541FAC9F66D}" name="参数5" dataDxfId="13"/>
-    <tableColumn id="10" xr3:uid="{E2EF7CB2-27DA-4534-B887-8CED13DDEDEB}" name="数组1" dataDxfId="12"/>
-    <tableColumn id="11" xr3:uid="{215AB503-B38D-422C-898E-0CCCFEC93B4E}" name="数组2" dataDxfId="11"/>
-    <tableColumn id="12" xr3:uid="{C4594820-6CDF-44FB-8D1A-6EECF3A59EE3}" name="数组3" dataDxfId="10"/>
-    <tableColumn id="22" xr3:uid="{4BB4B014-7D85-45C2-BDA5-C3BC6A0D24EF}" name="僵直时间" dataDxfId="9"/>
-    <tableColumn id="23" xr3:uid="{F0D9645B-8B8F-4A22-B1FE-98243CE5BFC9}" name="击退距离" dataDxfId="8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7D756641-FA44-4C98-8415-A8A9AF7B3072}" name="表1" displayName="表1" ref="C1:AC33" totalsRowShown="0" headerRowDxfId="31" dataDxfId="29" headerRowBorderDxfId="30" tableBorderDxfId="28" totalsRowBorderDxfId="27">
+  <autoFilter ref="C1:AC33" xr:uid="{8CC84E60-2DCE-4F71-9796-17451FB14116}"/>
+  <tableColumns count="27">
+    <tableColumn id="1" xr3:uid="{B117A20D-488D-4BBE-9938-B9ED8BC64C7F}" name="效果ID" dataDxfId="26"/>
+    <tableColumn id="24" xr3:uid="{92A314CE-7C79-4335-AE0F-C9FE3BC3E616}" name="备注" dataDxfId="25"/>
+    <tableColumn id="27" xr3:uid="{4E6B823F-ED87-44FA-BC7E-DD0D3DA9A874}" name="被击特效" dataDxfId="24"/>
+    <tableColumn id="28" xr3:uid="{D63A8DD5-C7D8-45FF-9168-E24BB73D8D0A}" name="被击插槽ID" dataDxfId="23"/>
+    <tableColumn id="30" xr3:uid="{1297421F-FF12-438C-935D-1AC9E4808D57}" name="被击停帧" dataDxfId="22"/>
+    <tableColumn id="31" xr3:uid="{E7D77817-54E1-4457-BAF0-110C08D2391F}" name="受伤被击动作" dataDxfId="21"/>
+    <tableColumn id="32" xr3:uid="{D94B756E-3130-40BB-8956-BFC62C751F3A}" name="受伤状态持续时间" dataDxfId="20"/>
+    <tableColumn id="33" xr3:uid="{39EDA7F4-741B-4F88-9EF2-5A0E93E8B1CC}" name="受伤击退距离" dataDxfId="19"/>
+    <tableColumn id="20" xr3:uid="{0D040897-96A3-4655-AF1A-867F46D315D6}" name="是否判定_x000a_效果命中" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{9E34CFDB-9FDC-4344-99F0-5F3D0E7E5723}" name="触发概率" dataDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{74D1A4E2-93B1-4E13-8C07-A6CD771CBAD7}" name="效果类型" dataDxfId="16"/>
+    <tableColumn id="5" xr3:uid="{E5C762F0-7690-49F1-83D9-D7133665E63B}" name="参数1" dataDxfId="15"/>
+    <tableColumn id="6" xr3:uid="{1C2FBB75-F754-40DD-AC47-C4E07D15EE88}" name="参数2" dataDxfId="14"/>
+    <tableColumn id="7" xr3:uid="{97A86C1D-0720-4DA9-A230-2B854C94703B}" name="参数3" dataDxfId="13"/>
+    <tableColumn id="8" xr3:uid="{74F52534-73B3-4964-B3F1-04920040D1CE}" name="参数4" dataDxfId="12"/>
+    <tableColumn id="9" xr3:uid="{FE519A61-3D62-437A-A54A-1541FAC9F66D}" name="参数5" dataDxfId="11"/>
+    <tableColumn id="10" xr3:uid="{E2EF7CB2-27DA-4534-B887-8CED13DDEDEB}" name="数组1" dataDxfId="10"/>
+    <tableColumn id="11" xr3:uid="{215AB503-B38D-422C-898E-0CCCFEC93B4E}" name="数组2" dataDxfId="9"/>
+    <tableColumn id="12" xr3:uid="{C4594820-6CDF-44FB-8D1A-6EECF3A59EE3}" name="数组3" dataDxfId="8"/>
     <tableColumn id="13" xr3:uid="{51863B83-9A04-4C6C-9571-2A85C7B2D4B9}" name="主目标_x000a_范围类型修正" dataDxfId="7"/>
     <tableColumn id="14" xr3:uid="{0A7DF7DC-2A81-4FED-848D-5830CE482B70}" name="主目标_x000a_修正" dataDxfId="6"/>
     <tableColumn id="21" xr3:uid="{D185F1A5-6935-4E48-8FB7-B4F1AF76ECCB}" name="技能_x000a_发起类型" dataDxfId="5"/>
@@ -1710,28 +1937,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z17"/>
+  <dimension ref="A1:AC40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="U7" sqref="U7"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="U8" sqref="U8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="14.25" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="9" width="10.625" style="2"/>
-    <col min="10" max="13" width="10.625" style="2" customWidth="1" outlineLevel="1"/>
+    <col min="1" max="3" width="10.625" style="2"/>
+    <col min="4" max="4" width="21.5" style="34" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.25" style="34" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="15" style="2" customWidth="1"/>
+    <col min="9" max="10" width="15.625" style="2" customWidth="1"/>
+    <col min="11" max="12" width="10.625" style="2"/>
+    <col min="13" max="13" width="13" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.625" style="2"/>
-    <col min="15" max="16" width="10.625" style="2" customWidth="1" outlineLevel="1"/>
-    <col min="17" max="17" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13" style="2" customWidth="1"/>
-    <col min="19" max="19" width="15.625" style="2" customWidth="1"/>
-    <col min="20" max="24" width="10.625" style="2"/>
-    <col min="25" max="25" width="15" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="10.625" style="2"/>
+    <col min="15" max="18" width="10.625" style="2" customWidth="1" outlineLevel="1"/>
+    <col min="19" max="19" width="10.625" style="2"/>
+    <col min="20" max="21" width="10.625" style="2" customWidth="1" outlineLevel="1"/>
+    <col min="22" max="22" width="15.625" style="2" customWidth="1"/>
+    <col min="23" max="27" width="10.625" style="2"/>
+    <col min="28" max="28" width="15" style="2" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="10.625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1742,981 +1975,2210 @@
         <v>6</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="E1" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="F1" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="G1" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="H1" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="I1" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="J1" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="K1" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" s="7" t="s">
+      <c r="N1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="O1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="P1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="Q1" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="R1" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="S1" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="16" t="s">
+      <c r="T1" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="U1" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="V1" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="M1" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="N1" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="R1" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="S1" s="9" t="s">
+      <c r="W1" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="X1" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y1" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z1" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA1" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="T1" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="U1" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="V1" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="X1" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y1" s="16" t="s">
+      <c r="AB1" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC1" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="Z1" s="23" t="s">
-        <v>19</v>
-      </c>
     </row>
-    <row r="2" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:29" ht="99.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="29" t="s">
+      <c r="E2" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="G2" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="H2" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="I2" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="J2" s="35" t="s">
+        <v>127</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="R2" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="T2" s="33" t="s">
-        <v>83</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="V2" s="34" t="s">
-        <v>84</v>
-      </c>
-      <c r="W2" s="35" t="s">
-        <v>85</v>
+      <c r="L2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="21"/>
+      <c r="U2" s="21"/>
+      <c r="V2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="W2" s="29" t="s">
+        <v>69</v>
       </c>
       <c r="X2" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y2" s="18"/>
-      <c r="Z2" s="24"/>
+        <v>51</v>
+      </c>
+      <c r="Y2" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z2" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB2" s="18"/>
+      <c r="AC2" s="24"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D3" s="13"/>
-      <c r="E3" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" s="14" t="s">
+      <c r="E3" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="K3" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="L3" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="N3" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="G3" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" s="14" t="s">
+      <c r="P3" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q3" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="R3" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="S3" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="T3" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="U3" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="V3" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="W3" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="J3" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="K3" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="L3" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="M3" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="N3" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="O3" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="P3" s="27" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q3" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="R3" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="S3" s="15" t="s">
+      <c r="X3" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y3" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z3" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="T3" s="15" t="s">
+      <c r="AA3" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="U3" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="V3" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="W3" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="X3" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y3" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z3" s="25" t="s">
-        <v>42</v>
+      <c r="AB3" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC3" s="25" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:29" ht="57" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4" s="13"/>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="F4" s="36" t="s">
+        <v>90</v>
+      </c>
+      <c r="G4" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="H4" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="I4" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="J4" s="36" t="s">
+        <v>102</v>
+      </c>
+      <c r="K4" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="L4" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="M4" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="I4" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="J4" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="K4" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="L4" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="M4" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="N4" s="27" t="s">
+      <c r="N4" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="O4" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="P4" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q4" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="R4" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="S4" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="T4" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="O4" s="27" t="s">
+      <c r="U4" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="P4" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q4" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="R4" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="S4" s="15" t="s">
+      <c r="V4" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="W4" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="X4" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y4" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z4" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="T4" s="15" t="s">
+      <c r="AA4" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="U4" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="V4" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="W4" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="X4" s="15" t="s">
+      <c r="AB4" s="19"/>
+      <c r="AC4" s="25"/>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="Y4" s="19"/>
-      <c r="Z4" s="25"/>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B5" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
       <c r="K5" s="14"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="22"/>
-      <c r="O5" s="22"/>
-      <c r="P5" s="22"/>
-      <c r="Q5" s="30"/>
-      <c r="R5" s="30"/>
-      <c r="S5" s="15"/>
-      <c r="T5" s="15"/>
-      <c r="U5" s="15"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="22"/>
+      <c r="T5" s="22"/>
+      <c r="U5" s="22"/>
       <c r="V5" s="15"/>
       <c r="W5" s="15"/>
       <c r="X5" s="15"/>
-      <c r="Y5" s="19"/>
-      <c r="Z5" s="25"/>
+      <c r="Y5" s="15"/>
+      <c r="Z5" s="15"/>
+      <c r="AA5" s="15"/>
+      <c r="AB5" s="19"/>
+      <c r="AC5" s="25"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D6" s="13"/>
-      <c r="E6" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="I6" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="J6" s="14" t="s">
-        <v>58</v>
+      <c r="E6" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>104</v>
       </c>
       <c r="K6" s="14" t="s">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="L6" s="14" t="s">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="M6" s="14" t="s">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="N6" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="O6" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="P6" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q6" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="R6" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="S6" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="T6" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="U6" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="V6" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="W6" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="X6" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y6" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z6" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA6" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB6" s="19"/>
+      <c r="AC6" s="25"/>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="C7" s="4">
+        <v>1001</v>
+      </c>
+      <c r="D7" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="E7" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="I7" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="J7" s="4">
+        <v>1</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0</v>
+      </c>
+      <c r="L7" s="2">
+        <v>10000</v>
+      </c>
+      <c r="M7" s="2">
+        <v>101</v>
+      </c>
+      <c r="N7" s="2">
+        <v>1</v>
+      </c>
+      <c r="O7" s="2">
+        <v>1</v>
+      </c>
+      <c r="P7" s="2">
+        <v>200</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>0</v>
+      </c>
+      <c r="R7" s="2">
+        <v>0</v>
+      </c>
+      <c r="S7" s="2">
+        <v>0</v>
+      </c>
+      <c r="T7" s="2">
+        <v>0</v>
+      </c>
+      <c r="U7" s="2">
+        <v>0</v>
+      </c>
+      <c r="V7" s="2">
+        <v>0</v>
+      </c>
+      <c r="W7" s="2">
+        <v>0</v>
+      </c>
+      <c r="X7" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="5"/>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="C8" s="4">
+        <v>1002</v>
+      </c>
+      <c r="D8" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8" s="32"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="2">
+        <v>0</v>
+      </c>
+      <c r="L8" s="2">
+        <v>10000</v>
+      </c>
+      <c r="M8" s="2">
+        <v>101</v>
+      </c>
+      <c r="N8" s="2">
+        <v>1</v>
+      </c>
+      <c r="O8" s="2">
+        <v>2</v>
+      </c>
+      <c r="P8" s="2">
+        <v>200</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>0</v>
+      </c>
+      <c r="R8" s="2">
+        <v>0</v>
+      </c>
+      <c r="S8" s="2">
+        <v>0</v>
+      </c>
+      <c r="T8" s="2">
+        <v>0</v>
+      </c>
+      <c r="U8" s="2">
+        <v>0</v>
+      </c>
+      <c r="V8" s="2">
+        <v>0</v>
+      </c>
+      <c r="W8" s="2">
+        <v>0</v>
+      </c>
+      <c r="X8" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="5"/>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="C9" s="4">
+        <v>1003</v>
+      </c>
+      <c r="D9" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="O6" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="P6" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q6" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="R6" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="S6" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="T6" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="U6" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="V6" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="W6" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="X6" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y6" s="19"/>
-      <c r="Z6" s="25"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="2">
+        <v>0</v>
+      </c>
+      <c r="L9" s="2">
+        <v>10000</v>
+      </c>
+      <c r="M9" s="2">
+        <v>101</v>
+      </c>
+      <c r="N9" s="2">
+        <v>1</v>
+      </c>
+      <c r="O9" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="P9" s="2">
+        <v>200</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>0</v>
+      </c>
+      <c r="R9" s="2">
+        <v>0</v>
+      </c>
+      <c r="S9" s="2">
+        <v>0</v>
+      </c>
+      <c r="T9" s="2">
+        <v>0</v>
+      </c>
+      <c r="U9" s="2">
+        <v>0</v>
+      </c>
+      <c r="V9" s="2">
+        <v>0</v>
+      </c>
+      <c r="W9" s="2">
+        <v>0</v>
+      </c>
+      <c r="X9" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="5"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="C7" s="4">
-        <v>1010011</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="F7" s="2">
-        <v>0</v>
-      </c>
-      <c r="G7" s="2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="C10" s="4">
+        <v>1004</v>
+      </c>
+      <c r="D10" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="E10" s="32"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="2">
+        <v>0</v>
+      </c>
+      <c r="L10" s="2">
         <v>10000</v>
       </c>
-      <c r="H7" s="2">
+      <c r="M10" s="2">
         <v>101</v>
       </c>
-      <c r="I7" s="2">
-        <v>1</v>
-      </c>
-      <c r="J7" s="2">
-        <v>1</v>
-      </c>
-      <c r="K7" s="2">
+      <c r="N10" s="2">
+        <v>1</v>
+      </c>
+      <c r="O10" s="2">
+        <v>3</v>
+      </c>
+      <c r="P10" s="2">
         <v>200</v>
       </c>
-      <c r="L7" s="2">
-        <v>0</v>
-      </c>
-      <c r="M7" s="2">
-        <v>0</v>
-      </c>
-      <c r="N7" s="2">
-        <v>0</v>
-      </c>
-      <c r="O7" s="2">
-        <v>0</v>
-      </c>
-      <c r="P7" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="31">
-        <v>0</v>
-      </c>
-      <c r="R7" s="31">
-        <v>0</v>
-      </c>
-      <c r="S7" s="2">
-        <v>0</v>
-      </c>
-      <c r="T7" s="2">
-        <v>-1</v>
-      </c>
-      <c r="U7" s="2">
-        <v>0</v>
-      </c>
-      <c r="V7" s="2">
-        <v>0</v>
-      </c>
-      <c r="W7" s="2">
-        <v>0</v>
-      </c>
-      <c r="X7" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="5"/>
+      <c r="Q10" s="2">
+        <v>0</v>
+      </c>
+      <c r="R10" s="2">
+        <v>0</v>
+      </c>
+      <c r="S10" s="2">
+        <v>0</v>
+      </c>
+      <c r="T10" s="2">
+        <v>0</v>
+      </c>
+      <c r="U10" s="2">
+        <v>0</v>
+      </c>
+      <c r="V10" s="2">
+        <v>0</v>
+      </c>
+      <c r="W10" s="2">
+        <v>0</v>
+      </c>
+      <c r="X10" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="5"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="C8" s="4">
-        <v>1010012</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="F8" s="2">
-        <v>0</v>
-      </c>
-      <c r="G8" s="2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="C11" s="4">
+        <v>1007</v>
+      </c>
+      <c r="D11" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="E11" s="32"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="2">
+        <v>0</v>
+      </c>
+      <c r="L11" s="2">
         <v>10000</v>
       </c>
-      <c r="H8" s="2">
+      <c r="M11" s="2">
+        <v>501</v>
+      </c>
+      <c r="N11" s="2">
+        <v>10001</v>
+      </c>
+      <c r="O11" s="2">
+        <v>0</v>
+      </c>
+      <c r="P11" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>0</v>
+      </c>
+      <c r="R11" s="2">
+        <v>0</v>
+      </c>
+      <c r="S11" s="2">
+        <v>0</v>
+      </c>
+      <c r="T11" s="2">
+        <v>0</v>
+      </c>
+      <c r="U11" s="2">
+        <v>0</v>
+      </c>
+      <c r="V11" s="2">
+        <v>1</v>
+      </c>
+      <c r="W11" s="2">
+        <v>2</v>
+      </c>
+      <c r="X11" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y11" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="Z11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="2">
+        <v>3</v>
+      </c>
+      <c r="AC11" s="5"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="C12" s="4">
+        <v>1008</v>
+      </c>
+      <c r="D12" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="E12" s="32"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="2">
+        <v>0</v>
+      </c>
+      <c r="L12" s="2">
+        <v>10000</v>
+      </c>
+      <c r="M12" s="2">
+        <v>501</v>
+      </c>
+      <c r="N12" s="2">
+        <v>10002</v>
+      </c>
+      <c r="O12" s="2">
+        <v>0</v>
+      </c>
+      <c r="P12" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>0</v>
+      </c>
+      <c r="R12" s="2">
+        <v>0</v>
+      </c>
+      <c r="S12" s="2">
+        <v>0</v>
+      </c>
+      <c r="T12" s="2">
+        <v>0</v>
+      </c>
+      <c r="U12" s="2">
+        <v>0</v>
+      </c>
+      <c r="V12" s="2">
+        <v>1</v>
+      </c>
+      <c r="W12" s="2">
+        <v>0</v>
+      </c>
+      <c r="X12" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y12" s="2">
+        <v>5</v>
+      </c>
+      <c r="Z12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC12" s="5"/>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="C13" s="4">
+        <v>1009</v>
+      </c>
+      <c r="D13" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="E13" s="32"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="2">
+        <v>0</v>
+      </c>
+      <c r="L13" s="2">
+        <v>10000</v>
+      </c>
+      <c r="M13" s="2">
+        <v>501</v>
+      </c>
+      <c r="N13" s="28">
+        <v>21003</v>
+      </c>
+      <c r="O13" s="2">
+        <v>0</v>
+      </c>
+      <c r="P13" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>0</v>
+      </c>
+      <c r="R13" s="2">
+        <v>0</v>
+      </c>
+      <c r="S13" s="28">
+        <v>0</v>
+      </c>
+      <c r="T13" s="2">
+        <v>0</v>
+      </c>
+      <c r="U13" s="2">
+        <v>0</v>
+      </c>
+      <c r="V13" s="2">
+        <v>1</v>
+      </c>
+      <c r="W13" s="2">
+        <v>0</v>
+      </c>
+      <c r="X13" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y13" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="2">
+        <v>5</v>
+      </c>
+      <c r="AC13" s="5"/>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="C14" s="4">
+        <v>1010</v>
+      </c>
+      <c r="D14" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="E14" s="32"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="2">
+        <v>0</v>
+      </c>
+      <c r="L14" s="2">
+        <v>10000</v>
+      </c>
+      <c r="M14" s="2">
+        <v>201</v>
+      </c>
+      <c r="N14" s="2">
+        <v>1</v>
+      </c>
+      <c r="O14" s="2">
+        <v>0</v>
+      </c>
+      <c r="P14" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>200</v>
+      </c>
+      <c r="R14" s="2">
+        <v>0</v>
+      </c>
+      <c r="S14" s="2">
+        <v>0</v>
+      </c>
+      <c r="T14" s="2">
+        <v>0</v>
+      </c>
+      <c r="U14" s="2">
+        <v>0</v>
+      </c>
+      <c r="V14" s="2">
+        <v>1</v>
+      </c>
+      <c r="W14" s="2">
+        <v>1</v>
+      </c>
+      <c r="X14" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y14" s="2">
+        <v>5</v>
+      </c>
+      <c r="Z14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="2">
+        <v>3</v>
+      </c>
+      <c r="AC14" s="5"/>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="C15" s="10">
+        <v>1011</v>
+      </c>
+      <c r="D15" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="E15" s="33"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="11">
+        <v>0</v>
+      </c>
+      <c r="L15" s="2">
+        <v>10000</v>
+      </c>
+      <c r="M15" s="11">
+        <v>201</v>
+      </c>
+      <c r="N15" s="11">
+        <v>0</v>
+      </c>
+      <c r="O15" s="11">
+        <v>0</v>
+      </c>
+      <c r="P15" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="Q15" s="11">
+        <v>200</v>
+      </c>
+      <c r="R15" s="11">
+        <v>0</v>
+      </c>
+      <c r="S15" s="11">
+        <v>0</v>
+      </c>
+      <c r="T15" s="11">
+        <v>0</v>
+      </c>
+      <c r="U15" s="11">
+        <v>0</v>
+      </c>
+      <c r="V15" s="11">
+        <v>1</v>
+      </c>
+      <c r="W15" s="11">
+        <v>1</v>
+      </c>
+      <c r="X15" s="11">
+        <v>1</v>
+      </c>
+      <c r="Y15" s="11">
+        <v>5</v>
+      </c>
+      <c r="Z15" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="11">
+        <v>3</v>
+      </c>
+      <c r="AB15" s="11"/>
+      <c r="AC15" s="12"/>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="C16" s="4">
+        <v>1012</v>
+      </c>
+      <c r="D16" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="E16" s="32"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="2">
+        <v>0</v>
+      </c>
+      <c r="L16" s="2">
+        <v>10000</v>
+      </c>
+      <c r="M16" s="2">
+        <v>202</v>
+      </c>
+      <c r="N16" s="2">
+        <v>0</v>
+      </c>
+      <c r="O16" s="2">
+        <v>0</v>
+      </c>
+      <c r="P16" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>200</v>
+      </c>
+      <c r="R16" s="2">
+        <v>0</v>
+      </c>
+      <c r="S16" s="2">
+        <v>0</v>
+      </c>
+      <c r="T16" s="2">
+        <v>0</v>
+      </c>
+      <c r="U16" s="2">
+        <v>0</v>
+      </c>
+      <c r="V16" s="11">
+        <v>1</v>
+      </c>
+      <c r="W16" s="11">
+        <v>1</v>
+      </c>
+      <c r="X16" s="11">
+        <v>1</v>
+      </c>
+      <c r="Y16" s="11">
+        <v>5</v>
+      </c>
+      <c r="Z16" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="11">
+        <v>3</v>
+      </c>
+      <c r="AC16" s="5"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C17" s="4">
+        <v>1015</v>
+      </c>
+      <c r="D17" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="E17" s="32"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="2">
+        <v>0</v>
+      </c>
+      <c r="L17" s="2">
+        <v>10000</v>
+      </c>
+      <c r="M17" s="2">
+        <v>321</v>
+      </c>
+      <c r="N17" s="2">
+        <v>0.35</v>
+      </c>
+      <c r="O17" s="2">
+        <v>0</v>
+      </c>
+      <c r="P17" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>0</v>
+      </c>
+      <c r="R17" s="2">
+        <v>0</v>
+      </c>
+      <c r="S17" s="2">
+        <v>0</v>
+      </c>
+      <c r="T17" s="2">
+        <v>0</v>
+      </c>
+      <c r="U17" s="2">
+        <v>0</v>
+      </c>
+      <c r="V17" s="11">
+        <v>0</v>
+      </c>
+      <c r="W17" s="11">
+        <v>0</v>
+      </c>
+      <c r="X17" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="5"/>
+    </row>
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C18" s="4">
+        <v>1016</v>
+      </c>
+      <c r="D18" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="E18" s="32"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="2">
+        <v>0</v>
+      </c>
+      <c r="L18" s="2">
+        <v>10000</v>
+      </c>
+      <c r="M18" s="2">
+        <v>401</v>
+      </c>
+      <c r="N18" s="2">
+        <v>0</v>
+      </c>
+      <c r="O18" s="2">
+        <v>0</v>
+      </c>
+      <c r="P18" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>0</v>
+      </c>
+      <c r="R18" s="2">
+        <v>0</v>
+      </c>
+      <c r="S18" s="2">
+        <v>0</v>
+      </c>
+      <c r="T18" s="2">
+        <v>0</v>
+      </c>
+      <c r="U18" s="2">
+        <v>0</v>
+      </c>
+      <c r="V18" s="2">
+        <v>0</v>
+      </c>
+      <c r="W18" s="2">
+        <v>0</v>
+      </c>
+      <c r="X18" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="5"/>
+    </row>
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C19" s="4">
+        <v>100111</v>
+      </c>
+      <c r="D19" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="E19" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="G19" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="I19" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="J19" s="4">
+        <v>1</v>
+      </c>
+      <c r="K19" s="2">
+        <v>0</v>
+      </c>
+      <c r="L19" s="2">
+        <v>10000</v>
+      </c>
+      <c r="M19" s="2">
         <v>101</v>
       </c>
-      <c r="I8" s="2">
-        <v>1</v>
-      </c>
-      <c r="J8" s="2">
-        <v>2</v>
-      </c>
-      <c r="K8" s="2">
+      <c r="N19" s="2">
+        <v>1</v>
+      </c>
+      <c r="O19" s="2">
+        <v>1</v>
+      </c>
+      <c r="P19" s="2">
         <v>200</v>
       </c>
-      <c r="L8" s="2">
-        <v>0</v>
-      </c>
-      <c r="M8" s="2">
-        <v>0</v>
-      </c>
-      <c r="N8" s="2">
-        <v>0</v>
-      </c>
-      <c r="O8" s="2">
-        <v>0</v>
-      </c>
-      <c r="P8" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="31">
-        <v>0</v>
-      </c>
-      <c r="R8" s="31">
-        <v>0</v>
-      </c>
-      <c r="S8" s="2">
-        <v>0</v>
-      </c>
-      <c r="T8" s="2">
-        <v>-1</v>
-      </c>
-      <c r="U8" s="2">
-        <v>0</v>
-      </c>
-      <c r="V8" s="2">
-        <v>0</v>
-      </c>
-      <c r="W8" s="2">
-        <v>0</v>
-      </c>
-      <c r="X8" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="5"/>
+      <c r="Q19" s="2">
+        <v>0</v>
+      </c>
+      <c r="R19" s="2">
+        <v>0</v>
+      </c>
+      <c r="S19" s="2">
+        <v>0</v>
+      </c>
+      <c r="T19" s="2">
+        <v>0</v>
+      </c>
+      <c r="U19" s="2">
+        <v>0</v>
+      </c>
+      <c r="V19" s="2">
+        <v>0</v>
+      </c>
+      <c r="W19" s="2">
+        <v>0</v>
+      </c>
+      <c r="X19" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="5"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="C9" s="4">
-        <v>1010013</v>
-      </c>
-      <c r="D9" s="4"/>
-      <c r="F9" s="2">
-        <v>1</v>
-      </c>
-      <c r="G9" s="2">
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C20" s="4">
+        <v>100112</v>
+      </c>
+      <c r="D20" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="E20" s="32"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="2">
+        <v>0</v>
+      </c>
+      <c r="L20" s="2">
         <v>10000</v>
       </c>
-      <c r="H9" s="2">
+      <c r="M20" s="2">
+        <v>301</v>
+      </c>
+      <c r="N20" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="O20" s="2">
+        <v>0</v>
+      </c>
+      <c r="P20" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>0</v>
+      </c>
+      <c r="R20" s="2">
+        <v>0</v>
+      </c>
+      <c r="S20" s="2">
+        <v>0</v>
+      </c>
+      <c r="T20" s="2">
+        <v>0</v>
+      </c>
+      <c r="U20" s="2">
+        <v>0</v>
+      </c>
+      <c r="V20" s="2">
+        <v>0</v>
+      </c>
+      <c r="W20" s="2">
+        <v>0</v>
+      </c>
+      <c r="X20" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="5"/>
+    </row>
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C21" s="4">
+        <v>200111</v>
+      </c>
+      <c r="D21" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="E21" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="G21" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="I21" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="J21" s="4"/>
+      <c r="K21" s="2">
+        <v>0</v>
+      </c>
+      <c r="L21" s="2">
+        <v>10000</v>
+      </c>
+      <c r="M21" s="2">
         <v>101</v>
       </c>
-      <c r="I9" s="2">
-        <v>1</v>
-      </c>
-      <c r="J9" s="2">
-        <v>4.5</v>
-      </c>
-      <c r="K9" s="2">
+      <c r="N21" s="2">
+        <v>1</v>
+      </c>
+      <c r="O21" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="P21" s="2">
+        <v>100</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>0</v>
+      </c>
+      <c r="R21" s="2">
+        <v>0</v>
+      </c>
+      <c r="S21" s="2">
+        <v>0</v>
+      </c>
+      <c r="T21" s="2">
+        <v>0</v>
+      </c>
+      <c r="U21" s="2">
+        <v>0</v>
+      </c>
+      <c r="V21" s="2">
+        <v>0</v>
+      </c>
+      <c r="W21" s="2">
+        <v>0</v>
+      </c>
+      <c r="X21" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="5"/>
+    </row>
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C22" s="4">
+        <v>200121</v>
+      </c>
+      <c r="D22" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="E22" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="G22" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="I22" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="J22" s="4">
+        <v>1</v>
+      </c>
+      <c r="K22" s="2">
+        <v>0</v>
+      </c>
+      <c r="L22" s="2">
+        <v>10000</v>
+      </c>
+      <c r="M22" s="2">
+        <v>101</v>
+      </c>
+      <c r="N22" s="2">
+        <v>1</v>
+      </c>
+      <c r="O22" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="P22" s="2">
+        <v>100</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>0</v>
+      </c>
+      <c r="R22" s="2">
+        <v>0</v>
+      </c>
+      <c r="S22" s="2">
+        <v>0</v>
+      </c>
+      <c r="T22" s="2">
+        <v>0</v>
+      </c>
+      <c r="U22" s="2">
+        <v>0</v>
+      </c>
+      <c r="V22" s="2">
+        <v>0</v>
+      </c>
+      <c r="W22" s="2">
+        <v>0</v>
+      </c>
+      <c r="X22" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="5"/>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C23" s="4">
+        <v>300111</v>
+      </c>
+      <c r="D23" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="E23" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="G23" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="I23" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="J23" s="4">
+        <v>1</v>
+      </c>
+      <c r="K23" s="2">
+        <v>0</v>
+      </c>
+      <c r="L23" s="2">
+        <v>10000</v>
+      </c>
+      <c r="M23" s="2">
+        <v>101</v>
+      </c>
+      <c r="N23" s="2">
+        <v>1</v>
+      </c>
+      <c r="O23" s="2">
+        <v>1</v>
+      </c>
+      <c r="P23" s="2">
         <v>200</v>
       </c>
-      <c r="L9" s="2">
-        <v>0</v>
-      </c>
-      <c r="M9" s="2">
-        <v>0</v>
-      </c>
-      <c r="N9" s="2">
-        <v>0</v>
-      </c>
-      <c r="O9" s="2">
-        <v>0</v>
-      </c>
-      <c r="P9" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="31">
-        <v>0</v>
-      </c>
-      <c r="R9" s="31">
-        <v>0</v>
-      </c>
-      <c r="S9" s="2">
-        <v>0</v>
-      </c>
-      <c r="T9" s="2">
-        <v>-1</v>
-      </c>
-      <c r="U9" s="2">
-        <v>0</v>
-      </c>
-      <c r="V9" s="2">
-        <v>0</v>
-      </c>
-      <c r="W9" s="2">
-        <v>0</v>
-      </c>
-      <c r="X9" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="5"/>
+      <c r="Q23" s="2">
+        <v>0</v>
+      </c>
+      <c r="R23" s="2">
+        <v>0</v>
+      </c>
+      <c r="S23" s="2">
+        <v>0</v>
+      </c>
+      <c r="T23" s="2">
+        <v>0</v>
+      </c>
+      <c r="U23" s="2">
+        <v>0</v>
+      </c>
+      <c r="V23" s="2">
+        <v>0</v>
+      </c>
+      <c r="W23" s="2">
+        <v>0</v>
+      </c>
+      <c r="X23" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="5"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="C10" s="4">
-        <v>1010014</v>
-      </c>
-      <c r="D10" s="4"/>
-      <c r="F10" s="2">
-        <v>1</v>
-      </c>
-      <c r="G10" s="2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C24" s="4">
+        <v>400111</v>
+      </c>
+      <c r="D24" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="E24" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="G24" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="I24" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="J24" s="4"/>
+      <c r="K24" s="2">
+        <v>0</v>
+      </c>
+      <c r="L24" s="2">
         <v>10000</v>
       </c>
-      <c r="H10" s="2">
+      <c r="M24" s="2">
         <v>101</v>
       </c>
-      <c r="I10" s="2">
-        <v>1</v>
-      </c>
-      <c r="J10" s="2">
-        <v>3</v>
-      </c>
-      <c r="K10" s="2">
+      <c r="N24" s="2">
+        <v>1</v>
+      </c>
+      <c r="O24" s="2">
+        <v>1</v>
+      </c>
+      <c r="P24" s="2">
         <v>200</v>
       </c>
-      <c r="L10" s="2">
-        <v>0</v>
-      </c>
-      <c r="M10" s="2">
-        <v>0</v>
-      </c>
-      <c r="N10" s="2">
-        <v>0</v>
-      </c>
-      <c r="O10" s="2">
-        <v>0</v>
-      </c>
-      <c r="P10" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="31">
-        <v>0</v>
-      </c>
-      <c r="R10" s="31">
-        <v>0</v>
-      </c>
-      <c r="S10" s="2">
-        <v>0</v>
-      </c>
-      <c r="T10" s="2">
-        <v>-1</v>
-      </c>
-      <c r="U10" s="2">
-        <v>0</v>
-      </c>
-      <c r="V10" s="2">
-        <v>0</v>
-      </c>
-      <c r="W10" s="2">
-        <v>0</v>
-      </c>
-      <c r="X10" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="5"/>
+      <c r="Q24" s="2">
+        <v>0</v>
+      </c>
+      <c r="R24" s="2">
+        <v>0</v>
+      </c>
+      <c r="S24" s="2">
+        <v>0</v>
+      </c>
+      <c r="T24" s="2">
+        <v>0</v>
+      </c>
+      <c r="U24" s="2">
+        <v>0</v>
+      </c>
+      <c r="V24" s="2">
+        <v>0</v>
+      </c>
+      <c r="W24" s="2">
+        <v>0</v>
+      </c>
+      <c r="X24" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="5"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="C11" s="4">
-        <v>1010015</v>
-      </c>
-      <c r="D11" s="4"/>
-      <c r="F11" s="2">
-        <v>0</v>
-      </c>
-      <c r="G11" s="2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C25" s="4">
+        <v>500111</v>
+      </c>
+      <c r="D25" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="E25" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="G25" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="I25" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="J25" s="4">
+        <v>1</v>
+      </c>
+      <c r="K25" s="2">
+        <v>0</v>
+      </c>
+      <c r="L25" s="2">
         <v>10000</v>
       </c>
-      <c r="H11" s="2">
+      <c r="M25" s="2">
         <v>101</v>
       </c>
-      <c r="I11" s="2">
-        <v>1</v>
-      </c>
-      <c r="J11" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="K11" s="2">
-        <v>100</v>
-      </c>
-      <c r="L11" s="2">
-        <v>0</v>
-      </c>
-      <c r="M11" s="2">
-        <v>0</v>
-      </c>
-      <c r="N11" s="2">
-        <v>0</v>
-      </c>
-      <c r="O11" s="2">
-        <v>0</v>
-      </c>
-      <c r="P11" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="2">
-        <v>0</v>
-      </c>
-      <c r="R11" s="2">
-        <v>0</v>
-      </c>
-      <c r="S11" s="2">
-        <v>0</v>
-      </c>
-      <c r="T11" s="2">
-        <v>-1</v>
-      </c>
-      <c r="U11" s="2">
-        <v>0</v>
-      </c>
-      <c r="V11" s="2">
-        <v>0</v>
-      </c>
-      <c r="W11" s="2">
-        <v>0</v>
-      </c>
-      <c r="X11" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="5"/>
+      <c r="N25" s="2">
+        <v>1</v>
+      </c>
+      <c r="O25" s="2">
+        <v>1</v>
+      </c>
+      <c r="P25" s="2">
+        <v>200</v>
+      </c>
+      <c r="Q25" s="2">
+        <v>0</v>
+      </c>
+      <c r="R25" s="2">
+        <v>0</v>
+      </c>
+      <c r="S25" s="2">
+        <v>0</v>
+      </c>
+      <c r="T25" s="2">
+        <v>0</v>
+      </c>
+      <c r="U25" s="2">
+        <v>0</v>
+      </c>
+      <c r="V25" s="2">
+        <v>0</v>
+      </c>
+      <c r="W25" s="2">
+        <v>0</v>
+      </c>
+      <c r="X25" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="5"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="C12" s="4">
-        <v>1010016</v>
-      </c>
-      <c r="D12" s="4"/>
-      <c r="F12" s="2">
-        <v>0</v>
-      </c>
-      <c r="G12" s="2">
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C26" s="4">
+        <v>600111</v>
+      </c>
+      <c r="D26" s="32" t="s">
+        <v>122</v>
+      </c>
+      <c r="E26" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="G26" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="I26" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="J26" s="4">
+        <v>1</v>
+      </c>
+      <c r="K26" s="2">
+        <v>0</v>
+      </c>
+      <c r="L26" s="2">
         <v>10000</v>
       </c>
-      <c r="H12" s="2">
+      <c r="M26" s="2">
         <v>101</v>
       </c>
-      <c r="I12" s="2">
-        <v>1</v>
-      </c>
-      <c r="J12" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="K12" s="2">
-        <v>100</v>
-      </c>
-      <c r="L12" s="2">
-        <v>0</v>
-      </c>
-      <c r="M12" s="2">
-        <v>0</v>
-      </c>
-      <c r="N12" s="2">
-        <v>0</v>
-      </c>
-      <c r="O12" s="2">
-        <v>0</v>
-      </c>
-      <c r="P12" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="2">
-        <v>0</v>
-      </c>
-      <c r="R12" s="2">
-        <v>0</v>
-      </c>
-      <c r="S12" s="2">
-        <v>0</v>
-      </c>
-      <c r="T12" s="2">
-        <v>-1</v>
-      </c>
-      <c r="U12" s="2">
-        <v>0</v>
-      </c>
-      <c r="V12" s="2">
-        <v>0</v>
-      </c>
-      <c r="W12" s="2">
-        <v>0</v>
-      </c>
-      <c r="X12" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="5"/>
+      <c r="N26" s="2">
+        <v>1</v>
+      </c>
+      <c r="O26" s="2">
+        <v>1</v>
+      </c>
+      <c r="P26" s="2">
+        <v>200</v>
+      </c>
+      <c r="Q26" s="2">
+        <v>0</v>
+      </c>
+      <c r="R26" s="2">
+        <v>0</v>
+      </c>
+      <c r="S26" s="2">
+        <v>0</v>
+      </c>
+      <c r="T26" s="2">
+        <v>0</v>
+      </c>
+      <c r="U26" s="2">
+        <v>0</v>
+      </c>
+      <c r="V26" s="2">
+        <v>0</v>
+      </c>
+      <c r="W26" s="2">
+        <v>0</v>
+      </c>
+      <c r="X26" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="5"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="C13" s="4">
-        <v>1010017</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="F13" s="2">
-        <v>0</v>
-      </c>
-      <c r="G13" s="2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C27" s="4">
+        <v>800111</v>
+      </c>
+      <c r="D27" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="E27" s="32" t="s">
+        <v>125</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="G27" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="I27" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="J27" s="4">
+        <v>1</v>
+      </c>
+      <c r="K27" s="2">
+        <v>0</v>
+      </c>
+      <c r="L27" s="2">
         <v>10000</v>
       </c>
-      <c r="H13" s="2">
-        <v>501</v>
-      </c>
-      <c r="I13" s="2">
-        <v>10001</v>
-      </c>
-      <c r="J13" s="2">
-        <v>0</v>
-      </c>
-      <c r="K13" s="2">
-        <v>0</v>
-      </c>
-      <c r="L13" s="2">
-        <v>0</v>
-      </c>
-      <c r="M13" s="2">
-        <v>0</v>
-      </c>
-      <c r="N13" s="2">
-        <v>0</v>
-      </c>
-      <c r="O13" s="2">
-        <v>0</v>
-      </c>
-      <c r="P13" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="2">
-        <v>0</v>
-      </c>
-      <c r="R13" s="2">
-        <v>0</v>
-      </c>
-      <c r="S13" s="2">
-        <v>1</v>
-      </c>
-      <c r="T13" s="2">
-        <v>0</v>
-      </c>
-      <c r="U13" s="2">
-        <v>1</v>
-      </c>
-      <c r="V13" s="2">
-        <v>5</v>
-      </c>
-      <c r="W13" s="2">
-        <v>0</v>
-      </c>
-      <c r="X13" s="2">
-        <v>3</v>
-      </c>
-      <c r="Z13" s="5"/>
+      <c r="M27" s="2">
+        <v>101</v>
+      </c>
+      <c r="N27" s="2">
+        <v>1</v>
+      </c>
+      <c r="O27" s="2">
+        <v>1</v>
+      </c>
+      <c r="P27" s="2">
+        <v>200</v>
+      </c>
+      <c r="Q27" s="2">
+        <v>0</v>
+      </c>
+      <c r="R27" s="2">
+        <v>0</v>
+      </c>
+      <c r="S27" s="2">
+        <v>0</v>
+      </c>
+      <c r="T27" s="2">
+        <v>0</v>
+      </c>
+      <c r="U27" s="2">
+        <v>0</v>
+      </c>
+      <c r="V27" s="2">
+        <v>0</v>
+      </c>
+      <c r="W27" s="2">
+        <v>0</v>
+      </c>
+      <c r="X27" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC27" s="5"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="C14" s="4">
-        <v>1010018</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="F14" s="2">
-        <v>0</v>
-      </c>
-      <c r="G14" s="2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C28" s="4">
+        <v>800112</v>
+      </c>
+      <c r="D28" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="E28" s="32"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="2">
+        <v>0</v>
+      </c>
+      <c r="L28" s="2">
         <v>5000</v>
       </c>
-      <c r="H14" s="2">
-        <v>501</v>
-      </c>
-      <c r="I14" s="2">
-        <v>10002</v>
-      </c>
-      <c r="J14" s="2">
-        <v>0</v>
-      </c>
-      <c r="K14" s="2">
-        <v>0</v>
-      </c>
-      <c r="L14" s="2">
-        <v>0</v>
-      </c>
-      <c r="M14" s="2">
-        <v>0</v>
-      </c>
-      <c r="N14" s="2">
-        <v>0</v>
-      </c>
-      <c r="O14" s="2">
-        <v>0</v>
-      </c>
-      <c r="P14" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="2">
-        <v>0</v>
-      </c>
-      <c r="R14" s="2">
-        <v>0</v>
-      </c>
-      <c r="S14" s="2">
-        <v>1</v>
-      </c>
-      <c r="T14" s="2">
-        <v>0</v>
-      </c>
-      <c r="U14" s="2">
-        <v>1</v>
-      </c>
-      <c r="V14" s="2">
-        <v>5</v>
-      </c>
-      <c r="W14" s="2">
-        <v>0</v>
-      </c>
-      <c r="X14" s="2">
-        <v>3</v>
-      </c>
-      <c r="Z14" s="5"/>
+      <c r="M28" s="2">
+        <v>311</v>
+      </c>
+      <c r="N28" s="2">
+        <v>0.35</v>
+      </c>
+      <c r="O28" s="2">
+        <v>0</v>
+      </c>
+      <c r="P28" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="2">
+        <v>0</v>
+      </c>
+      <c r="R28" s="2">
+        <v>0</v>
+      </c>
+      <c r="S28" s="2">
+        <v>0</v>
+      </c>
+      <c r="T28" s="2">
+        <v>0</v>
+      </c>
+      <c r="U28" s="2">
+        <v>0</v>
+      </c>
+      <c r="V28" s="2">
+        <v>0</v>
+      </c>
+      <c r="W28" s="2">
+        <v>0</v>
+      </c>
+      <c r="X28" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="5"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="C15" s="4">
-        <v>1010019</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="F15" s="2">
-        <v>0</v>
-      </c>
-      <c r="G15" s="2">
-        <v>5000</v>
-      </c>
-      <c r="H15" s="2">
-        <v>502</v>
-      </c>
-      <c r="I15" s="2">
-        <v>0</v>
-      </c>
-      <c r="J15" s="2">
-        <v>0</v>
-      </c>
-      <c r="K15" s="2">
-        <v>0</v>
-      </c>
-      <c r="L15" s="2">
-        <v>0</v>
-      </c>
-      <c r="M15" s="2">
-        <v>0</v>
-      </c>
-      <c r="N15" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="O15" s="2">
-        <v>0</v>
-      </c>
-      <c r="P15" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="2">
-        <v>0</v>
-      </c>
-      <c r="R15" s="2">
-        <v>0</v>
-      </c>
-      <c r="S15" s="2">
-        <v>1</v>
-      </c>
-      <c r="T15" s="2">
-        <v>-1</v>
-      </c>
-      <c r="U15" s="2">
-        <v>2</v>
-      </c>
-      <c r="V15" s="2">
-        <v>5</v>
-      </c>
-      <c r="W15" s="2">
-        <v>0</v>
-      </c>
-      <c r="X15" s="2">
-        <v>5</v>
-      </c>
-      <c r="Z15" s="5"/>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C29" s="4">
+        <v>900111</v>
+      </c>
+      <c r="D29" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="E29" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="G29" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="I29" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="J29" s="4">
+        <v>1</v>
+      </c>
+      <c r="K29" s="2">
+        <v>0</v>
+      </c>
+      <c r="L29" s="2">
+        <v>10000</v>
+      </c>
+      <c r="M29" s="2">
+        <v>101</v>
+      </c>
+      <c r="N29" s="2">
+        <v>1</v>
+      </c>
+      <c r="O29" s="2">
+        <v>1</v>
+      </c>
+      <c r="P29" s="2">
+        <v>200</v>
+      </c>
+      <c r="Q29" s="2">
+        <v>0</v>
+      </c>
+      <c r="R29" s="2">
+        <v>0</v>
+      </c>
+      <c r="S29" s="2">
+        <v>0</v>
+      </c>
+      <c r="T29" s="2">
+        <v>0</v>
+      </c>
+      <c r="U29" s="2">
+        <v>0</v>
+      </c>
+      <c r="V29" s="2">
+        <v>0</v>
+      </c>
+      <c r="W29" s="2">
+        <v>0</v>
+      </c>
+      <c r="X29" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="5"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="Z16" s="5"/>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C30" s="4"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="AC30" s="5"/>
     </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="11"/>
-      <c r="P17" s="11"/>
-      <c r="Q17" s="11"/>
-      <c r="R17" s="11"/>
-      <c r="S17" s="11"/>
-      <c r="T17" s="11"/>
-      <c r="U17" s="11"/>
-      <c r="V17" s="11"/>
-      <c r="W17" s="11"/>
-      <c r="X17" s="11"/>
-      <c r="Y17" s="11"/>
-      <c r="Z17" s="12"/>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C31" s="4"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="AC31" s="5"/>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C32" s="4"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="AC32" s="5"/>
+    </row>
+    <row r="33" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C33" s="10"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="11"/>
+      <c r="N33" s="11"/>
+      <c r="O33" s="11"/>
+      <c r="P33" s="11"/>
+      <c r="Q33" s="11"/>
+      <c r="R33" s="11"/>
+      <c r="S33" s="11"/>
+      <c r="T33" s="11"/>
+      <c r="U33" s="11"/>
+      <c r="V33" s="11"/>
+      <c r="W33" s="11"/>
+      <c r="X33" s="11"/>
+      <c r="Y33" s="11"/>
+      <c r="Z33" s="11"/>
+      <c r="AA33" s="11"/>
+      <c r="AB33" s="11"/>
+      <c r="AC33" s="12"/>
+    </row>
+    <row r="34" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C34" s="4"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="AC34" s="5"/>
+    </row>
+    <row r="35" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C35" s="4"/>
+      <c r="D35" s="32"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="AC35" s="5"/>
+    </row>
+    <row r="36" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C36" s="4"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="AC36" s="5"/>
+    </row>
+    <row r="37" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C37" s="4"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="AC37" s="5"/>
+    </row>
+    <row r="38" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C38" s="4"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="32"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="AC38" s="5"/>
+    </row>
+    <row r="39" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C39" s="4"/>
+      <c r="D39" s="32"/>
+      <c r="E39" s="32"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+      <c r="AC39" s="5"/>
+    </row>
+    <row r="40" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C40" s="10"/>
+      <c r="D40" s="33"/>
+      <c r="E40" s="33"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="11"/>
+      <c r="L40" s="11"/>
+      <c r="M40" s="11"/>
+      <c r="N40" s="11"/>
+      <c r="O40" s="11"/>
+      <c r="P40" s="11"/>
+      <c r="Q40" s="11"/>
+      <c r="R40" s="11"/>
+      <c r="S40" s="11"/>
+      <c r="T40" s="11"/>
+      <c r="U40" s="11"/>
+      <c r="V40" s="11"/>
+      <c r="W40" s="11"/>
+      <c r="X40" s="11"/>
+      <c r="Y40" s="11"/>
+      <c r="Z40" s="11"/>
+      <c r="AA40" s="11"/>
+      <c r="AB40" s="11"/>
+      <c r="AC40" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/config/excel/SkillEffect.xlsx
+++ b/config/excel/SkillEffect.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EastEden\excel\trunk\global\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88706676-F63A-4171-AC12-C7C7C6DA4453}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A16C99A4-9724-47A5-80FC-FE1A494F4430}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="134">
   <si>
     <t>行列头两行不会被读取</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -705,6 +705,26 @@
   </si>
   <si>
     <t>测试-普攻1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>瓦尔基里-临时技能1-造成80%伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>男主-技能1-造成90%伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>男主-技能1-造成120%伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>男主-技能2-造成80%伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>梅林-造成100%伤害</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1639,8 +1659,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7D756641-FA44-4C98-8415-A8A9AF7B3072}" name="表1" displayName="表1" ref="C1:AC33" totalsRowShown="0" headerRowDxfId="31" dataDxfId="29" headerRowBorderDxfId="30" tableBorderDxfId="28" totalsRowBorderDxfId="27">
-  <autoFilter ref="C1:AC33" xr:uid="{8CC84E60-2DCE-4F71-9796-17451FB14116}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7D756641-FA44-4C98-8415-A8A9AF7B3072}" name="表1" displayName="表1" ref="C1:AC39" totalsRowShown="0" headerRowDxfId="31" dataDxfId="29" headerRowBorderDxfId="30" tableBorderDxfId="28" totalsRowBorderDxfId="27">
+  <autoFilter ref="C1:AC39" xr:uid="{8CC84E60-2DCE-4F71-9796-17451FB14116}"/>
   <tableColumns count="27">
     <tableColumn id="1" xr3:uid="{B117A20D-488D-4BBE-9938-B9ED8BC64C7F}" name="效果ID" dataDxfId="26"/>
     <tableColumn id="24" xr3:uid="{92A314CE-7C79-4335-AE0F-C9FE3BC3E616}" name="备注" dataDxfId="25"/>
@@ -1937,10 +1957,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC40"/>
+  <dimension ref="A1:AC46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="U8" sqref="U8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="4" ySplit="6" topLeftCell="E13" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomRight" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="14.25" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -2935,7 +2958,7 @@
       <c r="D15" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="E15" s="33"/>
+      <c r="E15" s="32"/>
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
@@ -3339,27 +3362,13 @@
     </row>
     <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="4">
-        <v>200111</v>
+        <v>100201</v>
       </c>
       <c r="D21" s="32" t="s">
-        <v>116</v>
-      </c>
-      <c r="E21" s="32" t="s">
-        <v>110</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="G21" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="I21" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="J21" s="4"/>
+        <v>129</v>
+      </c>
+      <c r="E21" s="32"/>
+      <c r="F21" s="4"/>
       <c r="K21" s="2">
         <v>0</v>
       </c>
@@ -3373,10 +3382,10 @@
         <v>1</v>
       </c>
       <c r="O21" s="2">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="P21" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q21" s="2">
         <v>0</v>
@@ -3415,13 +3424,13 @@
     </row>
     <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="4">
-        <v>200121</v>
+        <v>200111</v>
       </c>
       <c r="D22" s="32" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E22" s="32" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>111</v>
@@ -3435,9 +3444,7 @@
       <c r="I22" s="4">
         <v>0.2</v>
       </c>
-      <c r="J22" s="4">
-        <v>1</v>
-      </c>
+      <c r="J22" s="4"/>
       <c r="K22" s="2">
         <v>0</v>
       </c>
@@ -3451,7 +3458,7 @@
         <v>1</v>
       </c>
       <c r="O22" s="2">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="P22" s="2">
         <v>100</v>
@@ -3493,13 +3500,13 @@
     </row>
     <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="4">
-        <v>300111</v>
+        <v>200121</v>
       </c>
       <c r="D23" s="32" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E23" s="32" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>111</v>
@@ -3529,10 +3536,10 @@
         <v>1</v>
       </c>
       <c r="O23" s="2">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="P23" s="2">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q23" s="2">
         <v>0</v>
@@ -3571,27 +3578,13 @@
     </row>
     <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="4">
-        <v>400111</v>
+        <v>200201</v>
       </c>
       <c r="D24" s="32" t="s">
-        <v>120</v>
-      </c>
-      <c r="E24" s="32" t="s">
-        <v>119</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="G24" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="I24" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="J24" s="4"/>
+        <v>130</v>
+      </c>
+      <c r="E24" s="32"/>
+      <c r="F24" s="4"/>
       <c r="K24" s="2">
         <v>0</v>
       </c>
@@ -3605,10 +3598,10 @@
         <v>1</v>
       </c>
       <c r="O24" s="2">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="P24" s="2">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="Q24" s="2">
         <v>0</v>
@@ -3647,29 +3640,13 @@
     </row>
     <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="4">
-        <v>500111</v>
+        <v>200202</v>
       </c>
       <c r="D25" s="32" t="s">
-        <v>121</v>
-      </c>
-      <c r="E25" s="32" t="s">
-        <v>115</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="G25" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="H25" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="I25" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="J25" s="4">
-        <v>1</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="E25" s="32"/>
+      <c r="F25" s="4"/>
       <c r="K25" s="2">
         <v>0</v>
       </c>
@@ -3683,10 +3660,10 @@
         <v>1</v>
       </c>
       <c r="O25" s="2">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="P25" s="2">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="Q25" s="2">
         <v>0</v>
@@ -3725,29 +3702,13 @@
     </row>
     <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="4">
-        <v>600111</v>
+        <v>200203</v>
       </c>
       <c r="D26" s="32" t="s">
-        <v>122</v>
-      </c>
-      <c r="E26" s="32" t="s">
-        <v>115</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="G26" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="I26" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="J26" s="4">
-        <v>1</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="E26" s="32"/>
+      <c r="F26" s="4"/>
       <c r="K26" s="2">
         <v>0</v>
       </c>
@@ -3761,10 +3722,10 @@
         <v>1</v>
       </c>
       <c r="O26" s="2">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="P26" s="2">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="Q26" s="2">
         <v>0</v>
@@ -3803,29 +3764,13 @@
     </row>
     <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="4">
-        <v>800111</v>
+        <v>200301</v>
       </c>
       <c r="D27" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="E27" s="32" t="s">
-        <v>125</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="G27" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="H27" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="I27" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="J27" s="4">
-        <v>1</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="E27" s="32"/>
+      <c r="F27" s="4"/>
       <c r="K27" s="2">
         <v>0</v>
       </c>
@@ -3839,10 +3784,10 @@
         <v>1</v>
       </c>
       <c r="O27" s="2">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="P27" s="2">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="Q27" s="2">
         <v>0</v>
@@ -3881,34 +3826,46 @@
     </row>
     <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="4">
-        <v>800112</v>
+        <v>300111</v>
       </c>
       <c r="D28" s="32" t="s">
-        <v>124</v>
-      </c>
-      <c r="E28" s="32"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
+        <v>118</v>
+      </c>
+      <c r="E28" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="G28" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="I28" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="J28" s="4">
+        <v>1</v>
+      </c>
       <c r="K28" s="2">
         <v>0</v>
       </c>
       <c r="L28" s="2">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="M28" s="2">
-        <v>311</v>
+        <v>101</v>
       </c>
       <c r="N28" s="2">
-        <v>0.35</v>
+        <v>1</v>
       </c>
       <c r="O28" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P28" s="2">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="Q28" s="2">
         <v>0</v>
@@ -3947,29 +3904,13 @@
     </row>
     <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="4">
-        <v>900111</v>
+        <v>300201</v>
       </c>
       <c r="D29" s="32" t="s">
-        <v>126</v>
-      </c>
-      <c r="E29" s="32" t="s">
-        <v>119</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="G29" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="H29" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="I29" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="J29" s="4">
-        <v>1</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="E29" s="32"/>
+      <c r="F29" s="4"/>
       <c r="K29" s="2">
         <v>0</v>
       </c>
@@ -3986,7 +3927,7 @@
         <v>1</v>
       </c>
       <c r="P29" s="2">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="Q29" s="2">
         <v>0</v>
@@ -4024,87 +3965,457 @@
       <c r="AC29" s="5"/>
     </row>
     <row r="30" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C30" s="4"/>
-      <c r="D30" s="32"/>
-      <c r="E30" s="32"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
+      <c r="C30" s="4">
+        <v>400111</v>
+      </c>
+      <c r="D30" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="E30" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="G30" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="I30" s="4">
+        <v>0.2</v>
+      </c>
       <c r="J30" s="4"/>
+      <c r="K30" s="2">
+        <v>0</v>
+      </c>
+      <c r="L30" s="2">
+        <v>10000</v>
+      </c>
+      <c r="M30" s="2">
+        <v>101</v>
+      </c>
+      <c r="N30" s="2">
+        <v>1</v>
+      </c>
+      <c r="O30" s="2">
+        <v>1</v>
+      </c>
+      <c r="P30" s="2">
+        <v>200</v>
+      </c>
+      <c r="Q30" s="2">
+        <v>0</v>
+      </c>
+      <c r="R30" s="2">
+        <v>0</v>
+      </c>
+      <c r="S30" s="2">
+        <v>0</v>
+      </c>
+      <c r="T30" s="2">
+        <v>0</v>
+      </c>
+      <c r="U30" s="2">
+        <v>0</v>
+      </c>
+      <c r="V30" s="2">
+        <v>0</v>
+      </c>
+      <c r="W30" s="2">
+        <v>0</v>
+      </c>
+      <c r="X30" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="2">
+        <v>0</v>
+      </c>
       <c r="AC30" s="5"/>
     </row>
     <row r="31" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C31" s="4"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
+      <c r="C31" s="4">
+        <v>500111</v>
+      </c>
+      <c r="D31" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="E31" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="G31" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="I31" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="J31" s="4">
+        <v>1</v>
+      </c>
+      <c r="K31" s="2">
+        <v>0</v>
+      </c>
+      <c r="L31" s="2">
+        <v>10000</v>
+      </c>
+      <c r="M31" s="2">
+        <v>101</v>
+      </c>
+      <c r="N31" s="2">
+        <v>1</v>
+      </c>
+      <c r="O31" s="2">
+        <v>1</v>
+      </c>
+      <c r="P31" s="2">
+        <v>200</v>
+      </c>
+      <c r="Q31" s="2">
+        <v>0</v>
+      </c>
+      <c r="R31" s="2">
+        <v>0</v>
+      </c>
+      <c r="S31" s="2">
+        <v>0</v>
+      </c>
+      <c r="T31" s="2">
+        <v>0</v>
+      </c>
+      <c r="U31" s="2">
+        <v>0</v>
+      </c>
+      <c r="V31" s="2">
+        <v>0</v>
+      </c>
+      <c r="W31" s="2">
+        <v>0</v>
+      </c>
+      <c r="X31" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="2">
+        <v>0</v>
+      </c>
       <c r="AC31" s="5"/>
     </row>
     <row r="32" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C32" s="4"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
+      <c r="C32" s="4">
+        <v>600111</v>
+      </c>
+      <c r="D32" s="32" t="s">
+        <v>122</v>
+      </c>
+      <c r="E32" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="G32" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="I32" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="J32" s="4">
+        <v>1</v>
+      </c>
+      <c r="K32" s="2">
+        <v>0</v>
+      </c>
+      <c r="L32" s="2">
+        <v>10000</v>
+      </c>
+      <c r="M32" s="2">
+        <v>101</v>
+      </c>
+      <c r="N32" s="2">
+        <v>1</v>
+      </c>
+      <c r="O32" s="2">
+        <v>1</v>
+      </c>
+      <c r="P32" s="2">
+        <v>200</v>
+      </c>
+      <c r="Q32" s="2">
+        <v>0</v>
+      </c>
+      <c r="R32" s="2">
+        <v>0</v>
+      </c>
+      <c r="S32" s="2">
+        <v>0</v>
+      </c>
+      <c r="T32" s="2">
+        <v>0</v>
+      </c>
+      <c r="U32" s="2">
+        <v>0</v>
+      </c>
+      <c r="V32" s="2">
+        <v>0</v>
+      </c>
+      <c r="W32" s="2">
+        <v>0</v>
+      </c>
+      <c r="X32" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="2">
+        <v>0</v>
+      </c>
       <c r="AC32" s="5"/>
     </row>
     <row r="33" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C33" s="10"/>
-      <c r="D33" s="33"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="10"/>
-      <c r="K33" s="11"/>
-      <c r="L33" s="11"/>
-      <c r="M33" s="11"/>
-      <c r="N33" s="11"/>
-      <c r="O33" s="11"/>
-      <c r="P33" s="11"/>
-      <c r="Q33" s="11"/>
-      <c r="R33" s="11"/>
-      <c r="S33" s="11"/>
-      <c r="T33" s="11"/>
-      <c r="U33" s="11"/>
-      <c r="V33" s="11"/>
-      <c r="W33" s="11"/>
-      <c r="X33" s="11"/>
-      <c r="Y33" s="11"/>
-      <c r="Z33" s="11"/>
-      <c r="AA33" s="11"/>
-      <c r="AB33" s="11"/>
-      <c r="AC33" s="12"/>
+      <c r="C33" s="4">
+        <v>800111</v>
+      </c>
+      <c r="D33" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="E33" s="32" t="s">
+        <v>125</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="G33" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="I33" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="J33" s="4">
+        <v>1</v>
+      </c>
+      <c r="K33" s="2">
+        <v>0</v>
+      </c>
+      <c r="L33" s="2">
+        <v>10000</v>
+      </c>
+      <c r="M33" s="2">
+        <v>101</v>
+      </c>
+      <c r="N33" s="2">
+        <v>1</v>
+      </c>
+      <c r="O33" s="2">
+        <v>1</v>
+      </c>
+      <c r="P33" s="2">
+        <v>200</v>
+      </c>
+      <c r="Q33" s="2">
+        <v>0</v>
+      </c>
+      <c r="R33" s="2">
+        <v>0</v>
+      </c>
+      <c r="S33" s="2">
+        <v>0</v>
+      </c>
+      <c r="T33" s="2">
+        <v>0</v>
+      </c>
+      <c r="U33" s="2">
+        <v>0</v>
+      </c>
+      <c r="V33" s="2">
+        <v>0</v>
+      </c>
+      <c r="W33" s="2">
+        <v>0</v>
+      </c>
+      <c r="X33" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA33" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC33" s="5"/>
     </row>
     <row r="34" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C34" s="4"/>
-      <c r="D34" s="32"/>
+      <c r="C34" s="4">
+        <v>800112</v>
+      </c>
+      <c r="D34" s="32" t="s">
+        <v>124</v>
+      </c>
       <c r="E34" s="32"/>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
+      <c r="K34" s="2">
+        <v>0</v>
+      </c>
+      <c r="L34" s="2">
+        <v>5000</v>
+      </c>
+      <c r="M34" s="2">
+        <v>311</v>
+      </c>
+      <c r="N34" s="2">
+        <v>0.35</v>
+      </c>
+      <c r="O34" s="2">
+        <v>0</v>
+      </c>
+      <c r="P34" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="2">
+        <v>0</v>
+      </c>
+      <c r="R34" s="2">
+        <v>0</v>
+      </c>
+      <c r="S34" s="2">
+        <v>0</v>
+      </c>
+      <c r="T34" s="2">
+        <v>0</v>
+      </c>
+      <c r="U34" s="2">
+        <v>0</v>
+      </c>
+      <c r="V34" s="2">
+        <v>0</v>
+      </c>
+      <c r="W34" s="2">
+        <v>0</v>
+      </c>
+      <c r="X34" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="2">
+        <v>0</v>
+      </c>
       <c r="AC34" s="5"/>
     </row>
     <row r="35" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C35" s="4"/>
-      <c r="D35" s="32"/>
-      <c r="E35" s="32"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
+      <c r="C35" s="4">
+        <v>900111</v>
+      </c>
+      <c r="D35" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="E35" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="G35" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="I35" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="J35" s="4">
+        <v>1</v>
+      </c>
+      <c r="K35" s="2">
+        <v>0</v>
+      </c>
+      <c r="L35" s="2">
+        <v>10000</v>
+      </c>
+      <c r="M35" s="2">
+        <v>101</v>
+      </c>
+      <c r="N35" s="2">
+        <v>1</v>
+      </c>
+      <c r="O35" s="2">
+        <v>1</v>
+      </c>
+      <c r="P35" s="2">
+        <v>200</v>
+      </c>
+      <c r="Q35" s="2">
+        <v>0</v>
+      </c>
+      <c r="R35" s="2">
+        <v>0</v>
+      </c>
+      <c r="S35" s="2">
+        <v>0</v>
+      </c>
+      <c r="T35" s="2">
+        <v>0</v>
+      </c>
+      <c r="U35" s="2">
+        <v>0</v>
+      </c>
+      <c r="V35" s="2">
+        <v>0</v>
+      </c>
+      <c r="W35" s="2">
+        <v>0</v>
+      </c>
+      <c r="X35" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="2">
+        <v>0</v>
+      </c>
       <c r="AC35" s="5"/>
     </row>
     <row r="36" spans="3:29" x14ac:dyDescent="0.2">
@@ -4141,44 +4452,128 @@
       <c r="AC38" s="5"/>
     </row>
     <row r="39" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C39" s="4"/>
-      <c r="D39" s="32"/>
-      <c r="E39" s="32"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="4"/>
-      <c r="J39" s="4"/>
-      <c r="AC39" s="5"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="33"/>
+      <c r="E39" s="33"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="11"/>
+      <c r="M39" s="11"/>
+      <c r="N39" s="11"/>
+      <c r="O39" s="11"/>
+      <c r="P39" s="11"/>
+      <c r="Q39" s="11"/>
+      <c r="R39" s="11"/>
+      <c r="S39" s="11"/>
+      <c r="T39" s="11"/>
+      <c r="U39" s="11"/>
+      <c r="V39" s="11"/>
+      <c r="W39" s="11"/>
+      <c r="X39" s="11"/>
+      <c r="Y39" s="11"/>
+      <c r="Z39" s="11"/>
+      <c r="AA39" s="11"/>
+      <c r="AB39" s="11"/>
+      <c r="AC39" s="12"/>
     </row>
     <row r="40" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C40" s="10"/>
-      <c r="D40" s="33"/>
-      <c r="E40" s="33"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="10"/>
-      <c r="J40" s="10"/>
-      <c r="K40" s="11"/>
-      <c r="L40" s="11"/>
-      <c r="M40" s="11"/>
-      <c r="N40" s="11"/>
-      <c r="O40" s="11"/>
-      <c r="P40" s="11"/>
-      <c r="Q40" s="11"/>
-      <c r="R40" s="11"/>
-      <c r="S40" s="11"/>
-      <c r="T40" s="11"/>
-      <c r="U40" s="11"/>
-      <c r="V40" s="11"/>
-      <c r="W40" s="11"/>
-      <c r="X40" s="11"/>
-      <c r="Y40" s="11"/>
-      <c r="Z40" s="11"/>
-      <c r="AA40" s="11"/>
-      <c r="AB40" s="11"/>
-      <c r="AC40" s="12"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="32"/>
+      <c r="E40" s="32"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+      <c r="AC40" s="5"/>
+    </row>
+    <row r="41" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C41" s="4"/>
+      <c r="D41" s="32"/>
+      <c r="E41" s="32"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+      <c r="AC41" s="5"/>
+    </row>
+    <row r="42" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C42" s="4"/>
+      <c r="D42" s="32"/>
+      <c r="E42" s="32"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+      <c r="AC42" s="5"/>
+    </row>
+    <row r="43" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C43" s="4"/>
+      <c r="D43" s="32"/>
+      <c r="E43" s="32"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+      <c r="AC43" s="5"/>
+    </row>
+    <row r="44" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C44" s="4"/>
+      <c r="D44" s="32"/>
+      <c r="E44" s="32"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
+      <c r="AC44" s="5"/>
+    </row>
+    <row r="45" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C45" s="4"/>
+      <c r="D45" s="32"/>
+      <c r="E45" s="32"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
+      <c r="AC45" s="5"/>
+    </row>
+    <row r="46" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C46" s="10"/>
+      <c r="D46" s="33"/>
+      <c r="E46" s="33"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
+      <c r="I46" s="10"/>
+      <c r="J46" s="10"/>
+      <c r="K46" s="11"/>
+      <c r="L46" s="11"/>
+      <c r="M46" s="11"/>
+      <c r="N46" s="11"/>
+      <c r="O46" s="11"/>
+      <c r="P46" s="11"/>
+      <c r="Q46" s="11"/>
+      <c r="R46" s="11"/>
+      <c r="S46" s="11"/>
+      <c r="T46" s="11"/>
+      <c r="U46" s="11"/>
+      <c r="V46" s="11"/>
+      <c r="W46" s="11"/>
+      <c r="X46" s="11"/>
+      <c r="Y46" s="11"/>
+      <c r="Z46" s="11"/>
+      <c r="AA46" s="11"/>
+      <c r="AB46" s="11"/>
+      <c r="AC46" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/config/excel/SkillEffect.xlsx
+++ b/config/excel/SkillEffect.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EastEden\excel\trunk\global\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A16C99A4-9724-47A5-80FC-FE1A494F4430}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C459BA3-1916-4C10-B2C9-7EECE97C7266}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="137">
   <si>
     <t>行列头两行不会被读取</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -725,6 +725,18 @@
   </si>
   <si>
     <t>梅林-造成100%伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试-回复-根据施法者防御%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fx_buff_guanghuan_hurt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试-烈焰光环造成200%+200伤害</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1659,8 +1671,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7D756641-FA44-4C98-8415-A8A9AF7B3072}" name="表1" displayName="表1" ref="C1:AC39" totalsRowShown="0" headerRowDxfId="31" dataDxfId="29" headerRowBorderDxfId="30" tableBorderDxfId="28" totalsRowBorderDxfId="27">
-  <autoFilter ref="C1:AC39" xr:uid="{8CC84E60-2DCE-4F71-9796-17451FB14116}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7D756641-FA44-4C98-8415-A8A9AF7B3072}" name="表1" displayName="表1" ref="C1:AC41" totalsRowShown="0" headerRowDxfId="31" dataDxfId="29" headerRowBorderDxfId="30" tableBorderDxfId="28" totalsRowBorderDxfId="27">
+  <autoFilter ref="C1:AC41" xr:uid="{8CC84E60-2DCE-4F71-9796-17451FB14116}"/>
   <tableColumns count="27">
     <tableColumn id="1" xr3:uid="{B117A20D-488D-4BBE-9938-B9ED8BC64C7F}" name="效果ID" dataDxfId="26"/>
     <tableColumn id="24" xr3:uid="{92A314CE-7C79-4335-AE0F-C9FE3BC3E616}" name="备注" dataDxfId="25"/>
@@ -1957,13 +1969,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC46"/>
+  <dimension ref="A1:AC48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="6" topLeftCell="E13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="6" topLeftCell="E7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="G15" sqref="G15"/>
+      <selection pane="bottomRight" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="14.25" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -2689,17 +2701,29 @@
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="4">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="D11" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="E11" s="32"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
+        <v>136</v>
+      </c>
+      <c r="E11" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="J11" s="2">
+        <v>0</v>
+      </c>
       <c r="K11" s="2">
         <v>0</v>
       </c>
@@ -2707,16 +2731,16 @@
         <v>10000</v>
       </c>
       <c r="M11" s="2">
-        <v>501</v>
+        <v>101</v>
       </c>
       <c r="N11" s="2">
-        <v>10001</v>
+        <v>1</v>
       </c>
       <c r="O11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11" s="2">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="Q11" s="2">
         <v>0</v>
@@ -2734,31 +2758,31 @@
         <v>0</v>
       </c>
       <c r="V11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W11" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y11" s="2">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="2">
         <v>0</v>
       </c>
       <c r="AA11" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AC11" s="5"/>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="4">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="D12" s="32" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E12" s="32"/>
       <c r="F12" s="4"/>
@@ -2776,7 +2800,7 @@
         <v>501</v>
       </c>
       <c r="N12" s="2">
-        <v>10002</v>
+        <v>10001</v>
       </c>
       <c r="O12" s="2">
         <v>0</v>
@@ -2803,28 +2827,28 @@
         <v>1</v>
       </c>
       <c r="W12" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X12" s="2">
         <v>1</v>
       </c>
       <c r="Y12" s="2">
-        <v>5</v>
+        <v>0.1</v>
       </c>
       <c r="Z12" s="2">
         <v>0</v>
       </c>
       <c r="AA12" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AC12" s="5"/>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="4">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="D13" s="32" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="E13" s="32"/>
       <c r="F13" s="4"/>
@@ -2841,8 +2865,8 @@
       <c r="M13" s="2">
         <v>501</v>
       </c>
-      <c r="N13" s="28">
-        <v>21003</v>
+      <c r="N13" s="2">
+        <v>10002</v>
       </c>
       <c r="O13" s="2">
         <v>0</v>
@@ -2856,7 +2880,7 @@
       <c r="R13" s="2">
         <v>0</v>
       </c>
-      <c r="S13" s="28">
+      <c r="S13" s="2">
         <v>0</v>
       </c>
       <c r="T13" s="2">
@@ -2872,25 +2896,25 @@
         <v>0</v>
       </c>
       <c r="X13" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y13" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Z13" s="2">
         <v>0</v>
       </c>
       <c r="AA13" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AC13" s="5"/>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="4">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="D14" s="32" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="E14" s="32"/>
       <c r="F14" s="4"/>
@@ -2905,10 +2929,10 @@
         <v>10000</v>
       </c>
       <c r="M14" s="2">
-        <v>201</v>
-      </c>
-      <c r="N14" s="2">
-        <v>1</v>
+        <v>501</v>
+      </c>
+      <c r="N14" s="28">
+        <v>21003</v>
       </c>
       <c r="O14" s="2">
         <v>0</v>
@@ -2917,12 +2941,12 @@
         <v>0</v>
       </c>
       <c r="Q14" s="2">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="R14" s="2">
         <v>0</v>
       </c>
-      <c r="S14" s="2">
+      <c r="S14" s="28">
         <v>0</v>
       </c>
       <c r="T14" s="2">
@@ -2935,133 +2959,132 @@
         <v>1</v>
       </c>
       <c r="W14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X14" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y14" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="2">
         <v>5</v>
-      </c>
-      <c r="Z14" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="2">
-        <v>3</v>
       </c>
       <c r="AC14" s="5"/>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="C15" s="10">
-        <v>1011</v>
+      <c r="C15" s="4">
+        <v>1010</v>
       </c>
       <c r="D15" s="32" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E15" s="32"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="11">
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="2">
         <v>0</v>
       </c>
       <c r="L15" s="2">
         <v>10000</v>
       </c>
-      <c r="M15" s="11">
+      <c r="M15" s="2">
         <v>201</v>
       </c>
-      <c r="N15" s="11">
-        <v>0</v>
-      </c>
-      <c r="O15" s="11">
-        <v>0</v>
-      </c>
-      <c r="P15" s="11">
-        <v>0.2</v>
-      </c>
-      <c r="Q15" s="11">
+      <c r="N15" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="O15" s="2">
         <v>200</v>
       </c>
-      <c r="R15" s="11">
-        <v>0</v>
-      </c>
-      <c r="S15" s="11">
-        <v>0</v>
-      </c>
-      <c r="T15" s="11">
-        <v>0</v>
-      </c>
-      <c r="U15" s="11">
-        <v>0</v>
-      </c>
-      <c r="V15" s="11">
-        <v>1</v>
-      </c>
-      <c r="W15" s="11">
-        <v>1</v>
-      </c>
-      <c r="X15" s="11">
-        <v>1</v>
-      </c>
-      <c r="Y15" s="11">
+      <c r="P15" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>0</v>
+      </c>
+      <c r="R15" s="2">
+        <v>0</v>
+      </c>
+      <c r="S15" s="2">
+        <v>0</v>
+      </c>
+      <c r="T15" s="2">
+        <v>0</v>
+      </c>
+      <c r="U15" s="2">
+        <v>0</v>
+      </c>
+      <c r="V15" s="2">
+        <v>1</v>
+      </c>
+      <c r="W15" s="2">
+        <v>1</v>
+      </c>
+      <c r="X15" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y15" s="2">
         <v>5</v>
       </c>
-      <c r="Z15" s="11">
-        <v>0</v>
-      </c>
-      <c r="AA15" s="11">
+      <c r="Z15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="2">
         <v>3</v>
       </c>
-      <c r="AB15" s="11"/>
-      <c r="AC15" s="12"/>
+      <c r="AC15" s="5"/>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="C16" s="4">
-        <v>1012</v>
+      <c r="C16" s="10">
+        <v>1011</v>
       </c>
       <c r="D16" s="32" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E16" s="32"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="2">
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="11">
         <v>0</v>
       </c>
       <c r="L16" s="2">
         <v>10000</v>
       </c>
-      <c r="M16" s="2">
-        <v>202</v>
-      </c>
-      <c r="N16" s="2">
-        <v>0</v>
-      </c>
-      <c r="O16" s="2">
-        <v>0</v>
-      </c>
-      <c r="P16" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="Q16" s="2">
+      <c r="M16" s="11">
+        <v>203</v>
+      </c>
+      <c r="N16" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="O16" s="11">
         <v>200</v>
       </c>
-      <c r="R16" s="2">
-        <v>0</v>
-      </c>
-      <c r="S16" s="2">
-        <v>0</v>
-      </c>
-      <c r="T16" s="2">
-        <v>0</v>
-      </c>
-      <c r="U16" s="2">
+      <c r="P16" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="11">
+        <v>0</v>
+      </c>
+      <c r="R16" s="11">
+        <v>0</v>
+      </c>
+      <c r="S16" s="11">
+        <v>0</v>
+      </c>
+      <c r="T16" s="11">
+        <v>0</v>
+      </c>
+      <c r="U16" s="11">
         <v>0</v>
       </c>
       <c r="V16" s="11">
@@ -3082,14 +3105,15 @@
       <c r="AA16" s="11">
         <v>3</v>
       </c>
-      <c r="AC16" s="5"/>
+      <c r="AB16" s="11"/>
+      <c r="AC16" s="12"/>
     </row>
     <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="4">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="D17" s="32" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E17" s="32"/>
       <c r="F17" s="4"/>
@@ -3104,13 +3128,13 @@
         <v>10000</v>
       </c>
       <c r="M17" s="2">
-        <v>321</v>
+        <v>204</v>
       </c>
       <c r="N17" s="2">
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
       <c r="O17" s="2">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P17" s="2">
         <v>0</v>
@@ -3131,38 +3155,34 @@
         <v>0</v>
       </c>
       <c r="V17" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W17" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X17" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y17" s="11">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Z17" s="11">
         <v>0</v>
       </c>
       <c r="AA17" s="11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AC17" s="5"/>
     </row>
     <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="4">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="D18" s="32" t="s">
-        <v>82</v>
+        <v>134</v>
       </c>
       <c r="E18" s="32"/>
       <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
       <c r="K18" s="2">
         <v>0</v>
       </c>
@@ -3170,13 +3190,13 @@
         <v>10000</v>
       </c>
       <c r="M18" s="2">
-        <v>401</v>
+        <v>202</v>
       </c>
       <c r="N18" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O18" s="2">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="P18" s="2">
         <v>0</v>
@@ -3197,50 +3217,38 @@
         <v>0</v>
       </c>
       <c r="V18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y18" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Z18" s="2">
         <v>0</v>
       </c>
       <c r="AA18" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AC18" s="5"/>
     </row>
     <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="4">
-        <v>100111</v>
+        <v>1015</v>
       </c>
       <c r="D19" s="32" t="s">
-        <v>113</v>
-      </c>
-      <c r="E19" s="32" t="s">
-        <v>115</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="G19" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="I19" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="J19" s="4">
-        <v>1</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="E19" s="32"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
       <c r="K19" s="2">
         <v>0</v>
       </c>
@@ -3248,16 +3256,16 @@
         <v>10000</v>
       </c>
       <c r="M19" s="2">
-        <v>101</v>
+        <v>321</v>
       </c>
       <c r="N19" s="2">
-        <v>1</v>
+        <v>0.35</v>
       </c>
       <c r="O19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P19" s="2">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="Q19" s="2">
         <v>0</v>
@@ -3274,32 +3282,32 @@
       <c r="U19" s="2">
         <v>0</v>
       </c>
-      <c r="V19" s="2">
-        <v>0</v>
-      </c>
-      <c r="W19" s="2">
-        <v>0</v>
-      </c>
-      <c r="X19" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y19" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z19" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA19" s="2">
+      <c r="V19" s="11">
+        <v>0</v>
+      </c>
+      <c r="W19" s="11">
+        <v>0</v>
+      </c>
+      <c r="X19" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="11">
         <v>0</v>
       </c>
       <c r="AC19" s="5"/>
     </row>
     <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="4">
-        <v>100112</v>
+        <v>1016</v>
       </c>
       <c r="D20" s="32" t="s">
-        <v>114</v>
+        <v>82</v>
       </c>
       <c r="E20" s="32"/>
       <c r="F20" s="4"/>
@@ -3314,10 +3322,10 @@
         <v>10000</v>
       </c>
       <c r="M20" s="2">
-        <v>301</v>
+        <v>401</v>
       </c>
       <c r="N20" s="2">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="O20" s="2">
         <v>0</v>
@@ -3362,13 +3370,29 @@
     </row>
     <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="4">
-        <v>100201</v>
+        <v>100111</v>
       </c>
       <c r="D21" s="32" t="s">
-        <v>129</v>
-      </c>
-      <c r="E21" s="32"/>
-      <c r="F21" s="4"/>
+        <v>113</v>
+      </c>
+      <c r="E21" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="G21" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="I21" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="J21" s="4">
+        <v>1</v>
+      </c>
       <c r="K21" s="2">
         <v>0</v>
       </c>
@@ -3382,10 +3406,10 @@
         <v>1</v>
       </c>
       <c r="O21" s="2">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="P21" s="2">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="Q21" s="2">
         <v>0</v>
@@ -3424,26 +3448,16 @@
     </row>
     <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="4">
-        <v>200111</v>
+        <v>100112</v>
       </c>
       <c r="D22" s="32" t="s">
-        <v>116</v>
-      </c>
-      <c r="E22" s="32" t="s">
-        <v>110</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="G22" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="I22" s="4">
-        <v>0.2</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="E22" s="32"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
       <c r="J22" s="4"/>
       <c r="K22" s="2">
         <v>0</v>
@@ -3452,16 +3466,16 @@
         <v>10000</v>
       </c>
       <c r="M22" s="2">
-        <v>101</v>
+        <v>301</v>
       </c>
       <c r="N22" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="O22" s="2">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="P22" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q22" s="2">
         <v>0</v>
@@ -3500,29 +3514,13 @@
     </row>
     <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="4">
-        <v>200121</v>
+        <v>100201</v>
       </c>
       <c r="D23" s="32" t="s">
-        <v>117</v>
-      </c>
-      <c r="E23" s="32" t="s">
-        <v>112</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="G23" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="I23" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="J23" s="4">
-        <v>1</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="E23" s="32"/>
+      <c r="F23" s="4"/>
       <c r="K23" s="2">
         <v>0</v>
       </c>
@@ -3536,10 +3534,10 @@
         <v>1</v>
       </c>
       <c r="O23" s="2">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="P23" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q23" s="2">
         <v>0</v>
@@ -3578,13 +3576,27 @@
     </row>
     <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="4">
-        <v>200201</v>
+        <v>200111</v>
       </c>
       <c r="D24" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="E24" s="32"/>
-      <c r="F24" s="4"/>
+        <v>116</v>
+      </c>
+      <c r="E24" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="G24" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="I24" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="J24" s="4"/>
       <c r="K24" s="2">
         <v>0</v>
       </c>
@@ -3598,10 +3610,10 @@
         <v>1</v>
       </c>
       <c r="O24" s="2">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="P24" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q24" s="2">
         <v>0</v>
@@ -3640,13 +3652,29 @@
     </row>
     <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="4">
-        <v>200202</v>
+        <v>200121</v>
       </c>
       <c r="D25" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="E25" s="32"/>
-      <c r="F25" s="4"/>
+        <v>117</v>
+      </c>
+      <c r="E25" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="G25" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="I25" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="J25" s="4">
+        <v>1</v>
+      </c>
       <c r="K25" s="2">
         <v>0</v>
       </c>
@@ -3660,10 +3688,10 @@
         <v>1</v>
       </c>
       <c r="O25" s="2">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="P25" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q25" s="2">
         <v>0</v>
@@ -3702,10 +3730,10 @@
     </row>
     <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="4">
-        <v>200203</v>
+        <v>200201</v>
       </c>
       <c r="D26" s="32" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E26" s="32"/>
       <c r="F26" s="4"/>
@@ -3722,7 +3750,7 @@
         <v>1</v>
       </c>
       <c r="O26" s="2">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="P26" s="2">
         <v>0</v>
@@ -3764,10 +3792,10 @@
     </row>
     <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="4">
-        <v>200301</v>
+        <v>200202</v>
       </c>
       <c r="D27" s="32" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E27" s="32"/>
       <c r="F27" s="4"/>
@@ -3784,7 +3812,7 @@
         <v>1</v>
       </c>
       <c r="O27" s="2">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="P27" s="2">
         <v>0</v>
@@ -3826,29 +3854,13 @@
     </row>
     <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="4">
-        <v>300111</v>
+        <v>200203</v>
       </c>
       <c r="D28" s="32" t="s">
-        <v>118</v>
-      </c>
-      <c r="E28" s="32" t="s">
-        <v>119</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="G28" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="H28" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="I28" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="J28" s="4">
-        <v>1</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="E28" s="32"/>
+      <c r="F28" s="4"/>
       <c r="K28" s="2">
         <v>0</v>
       </c>
@@ -3862,10 +3874,10 @@
         <v>1</v>
       </c>
       <c r="O28" s="2">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="P28" s="2">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="Q28" s="2">
         <v>0</v>
@@ -3904,10 +3916,10 @@
     </row>
     <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="4">
-        <v>300201</v>
+        <v>200301</v>
       </c>
       <c r="D29" s="32" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E29" s="32"/>
       <c r="F29" s="4"/>
@@ -3924,7 +3936,7 @@
         <v>1</v>
       </c>
       <c r="O29" s="2">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="P29" s="2">
         <v>0</v>
@@ -3966,10 +3978,10 @@
     </row>
     <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="4">
-        <v>400111</v>
+        <v>300111</v>
       </c>
       <c r="D30" s="32" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E30" s="32" t="s">
         <v>119</v>
@@ -3986,7 +3998,9 @@
       <c r="I30" s="4">
         <v>0.2</v>
       </c>
-      <c r="J30" s="4"/>
+      <c r="J30" s="4">
+        <v>1</v>
+      </c>
       <c r="K30" s="2">
         <v>0</v>
       </c>
@@ -4042,29 +4056,13 @@
     </row>
     <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="4">
-        <v>500111</v>
+        <v>300201</v>
       </c>
       <c r="D31" s="32" t="s">
-        <v>121</v>
-      </c>
-      <c r="E31" s="32" t="s">
-        <v>115</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="G31" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="H31" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="I31" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="J31" s="4">
-        <v>1</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="E31" s="32"/>
+      <c r="F31" s="4"/>
       <c r="K31" s="2">
         <v>0</v>
       </c>
@@ -4081,7 +4079,7 @@
         <v>1</v>
       </c>
       <c r="P31" s="2">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="Q31" s="2">
         <v>0</v>
@@ -4120,13 +4118,13 @@
     </row>
     <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="4">
-        <v>600111</v>
+        <v>400111</v>
       </c>
       <c r="D32" s="32" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E32" s="32" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="F32" s="4" t="s">
         <v>111</v>
@@ -4140,9 +4138,7 @@
       <c r="I32" s="4">
         <v>0.2</v>
       </c>
-      <c r="J32" s="4">
-        <v>1</v>
-      </c>
+      <c r="J32" s="4"/>
       <c r="K32" s="2">
         <v>0</v>
       </c>
@@ -4198,13 +4194,13 @@
     </row>
     <row r="33" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C33" s="4">
-        <v>800111</v>
+        <v>500111</v>
       </c>
       <c r="D33" s="32" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E33" s="32" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="F33" s="4" t="s">
         <v>111</v>
@@ -4276,34 +4272,46 @@
     </row>
     <row r="34" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C34" s="4">
-        <v>800112</v>
+        <v>600111</v>
       </c>
       <c r="D34" s="32" t="s">
-        <v>124</v>
-      </c>
-      <c r="E34" s="32"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
+        <v>122</v>
+      </c>
+      <c r="E34" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="G34" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="I34" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="J34" s="4">
+        <v>1</v>
+      </c>
       <c r="K34" s="2">
         <v>0</v>
       </c>
       <c r="L34" s="2">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="M34" s="2">
-        <v>311</v>
+        <v>101</v>
       </c>
       <c r="N34" s="2">
-        <v>0.35</v>
+        <v>1</v>
       </c>
       <c r="O34" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P34" s="2">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="Q34" s="2">
         <v>0</v>
@@ -4342,13 +4350,13 @@
     </row>
     <row r="35" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C35" s="4">
-        <v>900111</v>
+        <v>800111</v>
       </c>
       <c r="D35" s="32" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E35" s="32" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="F35" s="4" t="s">
         <v>111</v>
@@ -4419,25 +4427,147 @@
       <c r="AC35" s="5"/>
     </row>
     <row r="36" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C36" s="4"/>
-      <c r="D36" s="32"/>
+      <c r="C36" s="4">
+        <v>800112</v>
+      </c>
+      <c r="D36" s="32" t="s">
+        <v>124</v>
+      </c>
       <c r="E36" s="32"/>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
+      <c r="K36" s="2">
+        <v>0</v>
+      </c>
+      <c r="L36" s="2">
+        <v>5000</v>
+      </c>
+      <c r="M36" s="2">
+        <v>311</v>
+      </c>
+      <c r="N36" s="2">
+        <v>0.35</v>
+      </c>
+      <c r="O36" s="2">
+        <v>0</v>
+      </c>
+      <c r="P36" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="2">
+        <v>0</v>
+      </c>
+      <c r="R36" s="2">
+        <v>0</v>
+      </c>
+      <c r="S36" s="2">
+        <v>0</v>
+      </c>
+      <c r="T36" s="2">
+        <v>0</v>
+      </c>
+      <c r="U36" s="2">
+        <v>0</v>
+      </c>
+      <c r="V36" s="2">
+        <v>0</v>
+      </c>
+      <c r="W36" s="2">
+        <v>0</v>
+      </c>
+      <c r="X36" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y36" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z36" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA36" s="2">
+        <v>0</v>
+      </c>
       <c r="AC36" s="5"/>
     </row>
     <row r="37" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C37" s="4"/>
-      <c r="D37" s="32"/>
-      <c r="E37" s="32"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
-      <c r="J37" s="4"/>
+      <c r="C37" s="4">
+        <v>900111</v>
+      </c>
+      <c r="D37" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="E37" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="G37" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="I37" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="J37" s="4">
+        <v>1</v>
+      </c>
+      <c r="K37" s="2">
+        <v>0</v>
+      </c>
+      <c r="L37" s="2">
+        <v>10000</v>
+      </c>
+      <c r="M37" s="2">
+        <v>101</v>
+      </c>
+      <c r="N37" s="2">
+        <v>1</v>
+      </c>
+      <c r="O37" s="2">
+        <v>1</v>
+      </c>
+      <c r="P37" s="2">
+        <v>200</v>
+      </c>
+      <c r="Q37" s="2">
+        <v>0</v>
+      </c>
+      <c r="R37" s="2">
+        <v>0</v>
+      </c>
+      <c r="S37" s="2">
+        <v>0</v>
+      </c>
+      <c r="T37" s="2">
+        <v>0</v>
+      </c>
+      <c r="U37" s="2">
+        <v>0</v>
+      </c>
+      <c r="V37" s="2">
+        <v>0</v>
+      </c>
+      <c r="W37" s="2">
+        <v>0</v>
+      </c>
+      <c r="X37" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y37" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z37" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA37" s="2">
+        <v>0</v>
+      </c>
       <c r="AC37" s="5"/>
     </row>
     <row r="38" spans="3:29" x14ac:dyDescent="0.2">
@@ -4452,33 +4582,15 @@
       <c r="AC38" s="5"/>
     </row>
     <row r="39" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C39" s="10"/>
-      <c r="D39" s="33"/>
-      <c r="E39" s="33"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="10"/>
-      <c r="K39" s="11"/>
-      <c r="L39" s="11"/>
-      <c r="M39" s="11"/>
-      <c r="N39" s="11"/>
-      <c r="O39" s="11"/>
-      <c r="P39" s="11"/>
-      <c r="Q39" s="11"/>
-      <c r="R39" s="11"/>
-      <c r="S39" s="11"/>
-      <c r="T39" s="11"/>
-      <c r="U39" s="11"/>
-      <c r="V39" s="11"/>
-      <c r="W39" s="11"/>
-      <c r="X39" s="11"/>
-      <c r="Y39" s="11"/>
-      <c r="Z39" s="11"/>
-      <c r="AA39" s="11"/>
-      <c r="AB39" s="11"/>
-      <c r="AC39" s="12"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="32"/>
+      <c r="E39" s="32"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+      <c r="AC39" s="5"/>
     </row>
     <row r="40" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C40" s="4"/>
@@ -4492,15 +4604,33 @@
       <c r="AC40" s="5"/>
     </row>
     <row r="41" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C41" s="4"/>
-      <c r="D41" s="32"/>
-      <c r="E41" s="32"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
-      <c r="I41" s="4"/>
-      <c r="J41" s="4"/>
-      <c r="AC41" s="5"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="33"/>
+      <c r="E41" s="33"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="10"/>
+      <c r="K41" s="11"/>
+      <c r="L41" s="11"/>
+      <c r="M41" s="11"/>
+      <c r="N41" s="11"/>
+      <c r="O41" s="11"/>
+      <c r="P41" s="11"/>
+      <c r="Q41" s="11"/>
+      <c r="R41" s="11"/>
+      <c r="S41" s="11"/>
+      <c r="T41" s="11"/>
+      <c r="U41" s="11"/>
+      <c r="V41" s="11"/>
+      <c r="W41" s="11"/>
+      <c r="X41" s="11"/>
+      <c r="Y41" s="11"/>
+      <c r="Z41" s="11"/>
+      <c r="AA41" s="11"/>
+      <c r="AB41" s="11"/>
+      <c r="AC41" s="12"/>
     </row>
     <row r="42" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C42" s="4"/>
@@ -4547,33 +4677,55 @@
       <c r="AC45" s="5"/>
     </row>
     <row r="46" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C46" s="10"/>
-      <c r="D46" s="33"/>
-      <c r="E46" s="33"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="10"/>
-      <c r="H46" s="10"/>
-      <c r="I46" s="10"/>
-      <c r="J46" s="10"/>
-      <c r="K46" s="11"/>
-      <c r="L46" s="11"/>
-      <c r="M46" s="11"/>
-      <c r="N46" s="11"/>
-      <c r="O46" s="11"/>
-      <c r="P46" s="11"/>
-      <c r="Q46" s="11"/>
-      <c r="R46" s="11"/>
-      <c r="S46" s="11"/>
-      <c r="T46" s="11"/>
-      <c r="U46" s="11"/>
-      <c r="V46" s="11"/>
-      <c r="W46" s="11"/>
-      <c r="X46" s="11"/>
-      <c r="Y46" s="11"/>
-      <c r="Z46" s="11"/>
-      <c r="AA46" s="11"/>
-      <c r="AB46" s="11"/>
-      <c r="AC46" s="12"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="32"/>
+      <c r="E46" s="32"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
+      <c r="AC46" s="5"/>
+    </row>
+    <row r="47" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C47" s="4"/>
+      <c r="D47" s="32"/>
+      <c r="E47" s="32"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4"/>
+      <c r="AC47" s="5"/>
+    </row>
+    <row r="48" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="C48" s="10"/>
+      <c r="D48" s="33"/>
+      <c r="E48" s="33"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="10"/>
+      <c r="I48" s="10"/>
+      <c r="J48" s="10"/>
+      <c r="K48" s="11"/>
+      <c r="L48" s="11"/>
+      <c r="M48" s="11"/>
+      <c r="N48" s="11"/>
+      <c r="O48" s="11"/>
+      <c r="P48" s="11"/>
+      <c r="Q48" s="11"/>
+      <c r="R48" s="11"/>
+      <c r="S48" s="11"/>
+      <c r="T48" s="11"/>
+      <c r="U48" s="11"/>
+      <c r="V48" s="11"/>
+      <c r="W48" s="11"/>
+      <c r="X48" s="11"/>
+      <c r="Y48" s="11"/>
+      <c r="Z48" s="11"/>
+      <c r="AA48" s="11"/>
+      <c r="AB48" s="11"/>
+      <c r="AC48" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/config/excel/SkillEffect.xlsx
+++ b/config/excel/SkillEffect.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EastEden\excel\trunk\global\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C459BA3-1916-4C10-B2C9-7EECE97C7266}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBF5916C-3694-40F9-AA1F-F77C0C3731BB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillEffect" sheetId="1" r:id="rId1"/>
@@ -45,6 +45,28 @@
         </r>
       </text>
     </comment>
+    <comment ref="W1" authorId="0" shapeId="0" xr:uid="{F8201646-FABF-4E69-8183-59CBA5E31C57}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>skill触发的effect
+0-默认，表示skill触发effect的目标范围
+1-以自身表示skill的施法者
+2-以目标表示skill的挂载者
+buff触发的effect
+0-默认，表示buff触发effect的目标范围
+1-以自身表示对buff的施法者生效
+2-以目标表示对buff的挂载者生效0</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="K2" authorId="0" shapeId="0" xr:uid="{1423CB30-3DF0-4D12-A85D-376D802CDC1A}">
       <text>
         <r>
@@ -65,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="136">
   <si>
     <t>行列头两行不会被读取</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -157,11 +179,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>主目标
-范围类型修正</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>作用对象
 修正</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -253,128 +270,360 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>技能
+发起类型</t>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否判定
+效果命中</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>isEffectHit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>判定类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-不走效果命中判定
+1-走效果命中判定</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>parameterA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>parameterB</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>parameterC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>parameterD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>parameterE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[]number</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>arryA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>arryB</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>arryC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试-造成200%+200伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试-造成450%+200伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试-造成300%+200伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试-加攻buff</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试-加防buff</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试-回复-根据施法者攻击%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试-回复-根据施法者生命上限%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试-回复-根据目标生命上限%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试-拉条效果-COM提升35%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>101-伤害
+201-治疗根据施法者
+202-治疗根据目标
+301-打断
+311-打退
+321-拉条
+401-聚集
+501-加buff</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试-聚集效果-根据技能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试-降防buff</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>被击特效</t>
+  </si>
+  <si>
+    <t>被击插槽ID</t>
+  </si>
+  <si>
+    <t>被击停帧</t>
+  </si>
+  <si>
+    <t>受伤被击动作</t>
+  </si>
+  <si>
+    <t>受伤状态持续时间</t>
+  </si>
+  <si>
+    <t>受伤击退距离</t>
+  </si>
+  <si>
+    <t>受击特效插槽</t>
+  </si>
+  <si>
+    <t>受击方在受击时，切成受击状态的时间，受击单位的COM会静止</t>
+  </si>
+  <si>
+    <t>攻击方进行攻击的过程中，攻击方和受击方同时暂停的时长，其他的单位不受影响</t>
+  </si>
+  <si>
+    <t>hitFxName</t>
+  </si>
+  <si>
+    <t>hitFxSlot</t>
+  </si>
+  <si>
+    <t>hitStopTime</t>
+  </si>
+  <si>
+    <t>hitAnimName</t>
+  </si>
+  <si>
+    <t>hitHurtTime</t>
+  </si>
+  <si>
+    <t>hitBackDistance</t>
+  </si>
+  <si>
+    <t>受击特效</t>
+  </si>
+  <si>
+    <t>受击停顿时间
+仅普攻</t>
+  </si>
+  <si>
+    <t>受击动作
+单体弹道的受击时间为物理碰撞的时间点</t>
+  </si>
+  <si>
+    <t>受伤状态的持续时间的
+击退距离</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>普通攻击、天赋
+受击特效插槽</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>受伤状态的持续时间
+仅普攻
+切成受伤</t>
+  </si>
+  <si>
+    <t>bak1</t>
+  </si>
+  <si>
+    <t>普通攻击、天赋
+受击特效表现</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>受伤动作</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fx_PLMXS_atk_hit1</t>
+  </si>
+  <si>
+    <t>hit</t>
+  </si>
+  <si>
+    <t>Fx_PLMXS_atk_hit2</t>
+  </si>
+  <si>
+    <t>瓦尔基里-造成100%+200伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>瓦尔基里-打断效果</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fx_daoguang_hit</t>
+  </si>
+  <si>
+    <t>男主-造成40%+100伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>男主-造成60%+100伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>梅林-造成100%+200伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fx_attack_hit</t>
+  </si>
+  <si>
+    <t>扫把-普攻1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>白狼-普攻1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>蝙蝠-普攻1</t>
+  </si>
+  <si>
+    <t>洛基-普攻1</t>
+  </si>
+  <si>
+    <t>洛基-50%概率打退效果-COM减少35%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fx_luoji_atk_hit</t>
+  </si>
+  <si>
+    <t>史莱姆-普攻</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">0-默认
-1-圆形
-2-矩形
-</t>
+      <t>击退距离
+判定伤害后才可进行击退
+与</t>
     </r>
     <r>
       <rPr>
+        <b/>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
+        <color theme="1"/>
         <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>3-扇形</t>
+      <t>空间类</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0-默认目标
-1-选定目标
-2-友军(除目标)
-3-所有友军
-4-敌军(除目标)
-5-所有敌军</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能
-发起类型</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的其他效果冲突</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试-普攻1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>瓦尔基里-临时技能1-造成80%伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>男主-技能1-造成90%伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>男主-技能1-造成120%伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>男主-技能2-造成80%伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>梅林-造成100%伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试-回复-根据施法者防御%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fx_buff_guanghuan_hurt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试-烈焰光环造成200%+200伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主目标
+范围类型修正2</t>
   </si>
   <si>
     <t>skillLaunch</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>发起类型</t>
-  </si>
-  <si>
-    <t>int32</t>
-  </si>
-  <si>
-    <t>0-默认
-1-以自身
-2-以目标</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>number</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否判定
-效果命中</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>isEffectHit</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>判定类型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0-不走效果命中判定
-1-走效果命中判定</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>parameterA</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>parameterB</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>parameterC</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>parameterD</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>parameterE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[]number</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>arryA</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>arryB</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>arryC</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -385,8 +634,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>0-默认
-1-自身周围</t>
+      <t>1-自身</t>
     </r>
     <r>
       <rPr>
@@ -430,20 +678,20 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>1-以自身
+2-以目标</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>目标点到目标范围边界的距离(米)
-圆形-半径</t>
+圆形-半径
+0-不限距离
+参数要&gt;0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">0-默认
-圆形-配空
+      <t xml:space="preserve">圆形-配空
 矩形-宽度
 </t>
     </r>
@@ -467,276 +715,38 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>单位米</t>
+      <t>单位米
+0-无意义
+参数要&gt;0</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>测试-造成200%+200伤害</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试-造成450%+200伤害</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试-造成300%+200伤害</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试-加攻buff</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试-加防buff</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试-回复-根据施法者攻击%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试-回复-根据施法者生命上限%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试-回复-根据目标生命上限%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试-拉条效果-COM提升35%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>101-伤害
-201-治疗根据施法者
-202-治疗根据目标
-301-打断
-311-打退
-321-拉条
-401-聚集
-501-加buff</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试-聚集效果-根据技能</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试-降防buff</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>被击特效</t>
-  </si>
-  <si>
-    <t>被击插槽ID</t>
-  </si>
-  <si>
-    <t>被击停帧</t>
-  </si>
-  <si>
-    <t>受伤被击动作</t>
-  </si>
-  <si>
-    <t>受伤状态持续时间</t>
-  </si>
-  <si>
-    <t>受伤击退距离</t>
-  </si>
-  <si>
-    <t>受击特效插槽</t>
-  </si>
-  <si>
-    <t>受击方在受击时，切成受击状态的时间，受击单位的COM会静止</t>
-  </si>
-  <si>
-    <t>攻击方进行攻击的过程中，攻击方和受击方同时暂停的时长，其他的单位不受影响</t>
-  </si>
-  <si>
-    <t>hitFxName</t>
-  </si>
-  <si>
-    <t>hitFxSlot</t>
-  </si>
-  <si>
-    <t>hitStopTime</t>
-  </si>
-  <si>
-    <t>hitAnimName</t>
-  </si>
-  <si>
-    <t>hitHurtTime</t>
-  </si>
-  <si>
-    <t>hitBackDistance</t>
-  </si>
-  <si>
-    <t>受击特效</t>
-  </si>
-  <si>
-    <t>受击停顿时间
-仅普攻</t>
-  </si>
-  <si>
-    <t>受击动作
-单体弹道的受击时间为物理碰撞的时间点</t>
-  </si>
-  <si>
-    <t>受伤状态的持续时间的
-击退距离</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>number</t>
-  </si>
-  <si>
-    <t>普通攻击、天赋
-受击特效插槽</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>受伤状态的持续时间
-仅普攻
-切成受伤</t>
-  </si>
-  <si>
-    <t>bak1</t>
-  </si>
-  <si>
-    <t>普通攻击、天赋
-受击特效表现</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>受伤动作</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fx_PLMXS_atk_hit1</t>
-  </si>
-  <si>
-    <t>hit</t>
-  </si>
-  <si>
-    <t>Fx_PLMXS_atk_hit2</t>
-  </si>
-  <si>
-    <t>瓦尔基里-造成100%+200伤害</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>瓦尔基里-打断效果</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fx_daoguang_hit</t>
-  </si>
-  <si>
-    <t>男主-造成40%+100伤害</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>男主-造成60%+100伤害</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>梅林-造成100%+200伤害</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fx_attack_hit</t>
-  </si>
-  <si>
-    <t>扫把-普攻1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>白狼-普攻1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>蝙蝠-普攻1</t>
-  </si>
-  <si>
-    <t>洛基-普攻1</t>
-  </si>
-  <si>
-    <t>洛基-50%概率打退效果-COM减少35%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fx_luoji_atk_hit</t>
-  </si>
-  <si>
-    <t>史莱姆-普攻</t>
+    <t>1-选定目标
+2-友军(除目标)
+3-所有友军
+4-敌军(除目标)
+5-所有敌军</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t>击退距离
-判定伤害后才可进行击退
-与</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>空间类</t>
+      <t xml:space="preserve">0-默认
+1-圆形
+（范围长表示半径）
+2-矩形
+</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
         <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
-      <t>的其他效果冲突</t>
+      <t>3-扇形</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试-普攻1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>瓦尔基里-临时技能1-造成80%伤害</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>男主-技能1-造成90%伤害</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>男主-技能1-造成120%伤害</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>男主-技能2-造成80%伤害</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>梅林-造成100%伤害</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试-回复-根据施法者防御%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fx_buff_guanghuan_hurt</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试-烈焰光环造成200%+200伤害</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -840,18 +850,12 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor theme="4" tint="0.79998168889431442"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1001,16 +1005,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1039,13 +1040,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1057,7 +1058,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1066,7 +1067,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1075,25 +1076,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1108,13 +1106,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1128,7 +1126,9 @@
         <left style="thin">
           <color theme="0"/>
         </left>
-        <right/>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
         <top style="thin">
           <color theme="0"/>
         </top>
@@ -1259,9 +1259,7 @@
         <left style="thin">
           <color theme="0"/>
         </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
+        <right/>
         <top style="thin">
           <color theme="0"/>
         </top>
@@ -1693,14 +1691,14 @@
     <tableColumn id="10" xr3:uid="{E2EF7CB2-27DA-4534-B887-8CED13DDEDEB}" name="数组1" dataDxfId="10"/>
     <tableColumn id="11" xr3:uid="{215AB503-B38D-422C-898E-0CCCFEC93B4E}" name="数组2" dataDxfId="9"/>
     <tableColumn id="12" xr3:uid="{C4594820-6CDF-44FB-8D1A-6EECF3A59EE3}" name="数组3" dataDxfId="8"/>
-    <tableColumn id="13" xr3:uid="{51863B83-9A04-4C6C-9571-2A85C7B2D4B9}" name="主目标_x000a_范围类型修正" dataDxfId="7"/>
     <tableColumn id="14" xr3:uid="{0A7DF7DC-2A81-4FED-848D-5830CE482B70}" name="主目标_x000a_修正" dataDxfId="6"/>
     <tableColumn id="21" xr3:uid="{D185F1A5-6935-4E48-8FB7-B4F1AF76ECCB}" name="技能_x000a_发起类型" dataDxfId="5"/>
     <tableColumn id="15" xr3:uid="{C74C0B95-5EB8-4479-A7E2-68D10B94811D}" name="目标范围长_x000a_修正" dataDxfId="4"/>
     <tableColumn id="16" xr3:uid="{E31385C7-BC45-441B-9178-9CC7166A03D1}" name="目标范围宽_x000a_修正" dataDxfId="3"/>
-    <tableColumn id="17" xr3:uid="{3E38260C-64DD-4667-802F-14F78FD59DE2}" name="作用对象_x000a_修正" dataDxfId="2"/>
-    <tableColumn id="18" xr3:uid="{E338C7D2-80D7-45C8-AA21-14A3A2EE0424}" name="触发时机" dataDxfId="1"/>
-    <tableColumn id="19" xr3:uid="{E4169552-9707-4822-A6FC-78CFA23DEE16}" name="触发条件" dataDxfId="0"/>
+    <tableColumn id="13" xr3:uid="{51863B83-9A04-4C6C-9571-2A85C7B2D4B9}" name="主目标_x000a_范围类型修正2" dataDxfId="2"/>
+    <tableColumn id="17" xr3:uid="{3E38260C-64DD-4667-802F-14F78FD59DE2}" name="作用对象_x000a_修正" dataDxfId="1"/>
+    <tableColumn id="18" xr3:uid="{E338C7D2-80D7-45C8-AA21-14A3A2EE0424}" name="触发时机" dataDxfId="0"/>
+    <tableColumn id="19" xr3:uid="{E4169552-9707-4822-A6FC-78CFA23DEE16}" name="触发条件" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1969,20 +1967,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC48"/>
+  <dimension ref="A1:AG48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="6" topLeftCell="E7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="6" topLeftCell="R7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomRight" activeCell="AC4" sqref="AC4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="14.25" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="3" width="10.625" style="2"/>
-    <col min="4" max="4" width="21.5" style="34" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.25" style="34" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5" style="32" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.25" style="32" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="15" style="2" customWidth="1"/>
     <col min="9" max="10" width="15.625" style="2" customWidth="1"/>
@@ -1992,11 +1990,16 @@
     <col min="15" max="18" width="10.625" style="2" customWidth="1" outlineLevel="1"/>
     <col min="19" max="19" width="10.625" style="2"/>
     <col min="20" max="21" width="10.625" style="2" customWidth="1" outlineLevel="1"/>
-    <col min="22" max="22" width="15.625" style="2" customWidth="1"/>
-    <col min="23" max="27" width="10.625" style="2"/>
-    <col min="28" max="28" width="15" style="2" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="10.625" style="2"/>
+    <col min="22" max="22" width="10.625" style="2"/>
+    <col min="23" max="23" width="13" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="17.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="18.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="18.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="29" max="31" width="10.625" style="2"/>
+    <col min="32" max="32" width="15" style="2" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="14.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="34" max="16384" width="10.625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="28.5" x14ac:dyDescent="0.2">
@@ -2006,85 +2009,85 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="E1" s="37" t="s">
-        <v>84</v>
-      </c>
-      <c r="F1" s="37" t="s">
-        <v>85</v>
-      </c>
-      <c r="G1" s="37" t="s">
-        <v>86</v>
-      </c>
-      <c r="H1" s="38" t="s">
-        <v>87</v>
-      </c>
-      <c r="I1" s="38" t="s">
-        <v>88</v>
-      </c>
-      <c r="J1" s="38" t="s">
-        <v>89</v>
-      </c>
-      <c r="K1" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="L1" s="8" t="s">
+      <c r="D1" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="G1" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="H1" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="I1" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="J1" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="K1" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="L1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="N1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="O1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="P1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="Q1" s="16" t="s">
+      <c r="Q1" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="R1" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="S1" s="20" t="s">
+      <c r="R1" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="T1" s="20" t="s">
+      <c r="T1" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="U1" s="20" t="s">
+      <c r="U1" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="V1" s="9" t="s">
+      <c r="V1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="W1" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="X1" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y1" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z1" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="W1" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="X1" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y1" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z1" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA1" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="AB1" s="16" t="s">
+      <c r="AB1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="AC1" s="23" t="s">
+      <c r="AC1" s="22" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2092,360 +2095,360 @@
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="35" t="s">
-        <v>108</v>
-      </c>
-      <c r="F2" s="35" t="s">
-        <v>105</v>
-      </c>
-      <c r="G2" s="35" t="s">
-        <v>91</v>
-      </c>
-      <c r="H2" s="35" t="s">
-        <v>109</v>
-      </c>
-      <c r="I2" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="J2" s="35" t="s">
-        <v>127</v>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="F2" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="G2" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="H2" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="I2" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="J2" s="33" t="s">
+        <v>117</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="21"/>
-      <c r="T2" s="21"/>
-      <c r="U2" s="21"/>
-      <c r="V2" s="3" t="s">
-        <v>45</v>
+        <v>71</v>
+      </c>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="28" t="s">
+        <v>130</v>
       </c>
       <c r="W2" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="X2" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y2" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z2" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="AA2" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="AB2" s="18"/>
-      <c r="AC2" s="24"/>
+        <v>131</v>
+      </c>
+      <c r="X2" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y2" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="Z2" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA2" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB2" s="29"/>
+      <c r="AC2" s="23"/>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="I3" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="J3" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="K3" s="14" t="s">
+      <c r="D3" s="12"/>
+      <c r="E3" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="L3" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="L3" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="M3" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="N3" s="14" t="s">
+      <c r="Q3" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="R3" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="S3" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="T3" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="O3" s="14" t="s">
+      <c r="U3" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="P3" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q3" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="R3" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="S3" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="T3" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="U3" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="V3" s="15" t="s">
+      <c r="V3" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="W3" s="15" t="s">
+      <c r="W3" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="X3" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="X3" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y3" s="15" t="s">
+      <c r="Y3" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="Z3" s="15" t="s">
+      <c r="Z3" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA3" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="AA3" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB3" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC3" s="25" t="s">
+      <c r="AB3" s="14" t="s">
         <v>39</v>
+      </c>
+      <c r="AC3" s="24" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:29" ht="57" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="F4" s="36" t="s">
+      <c r="D4" s="12"/>
+      <c r="E4" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="F4" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="G4" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="G4" s="36" t="s">
-        <v>100</v>
-      </c>
-      <c r="H4" s="36" t="s">
-        <v>101</v>
-      </c>
-      <c r="I4" s="36" t="s">
-        <v>106</v>
-      </c>
-      <c r="J4" s="36" t="s">
-        <v>102</v>
-      </c>
-      <c r="K4" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="L4" s="14" t="s">
+      <c r="H4" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="I4" s="34" t="s">
+        <v>96</v>
+      </c>
+      <c r="J4" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="L4" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="M4" s="14" t="s">
+      <c r="M4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="N4" s="14" t="s">
+      <c r="N4" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="O4" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="O4" s="14" t="s">
+      <c r="P4" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="P4" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q4" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="R4" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="S4" s="27" t="s">
+      <c r="Q4" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="R4" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="S4" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="T4" s="27" t="s">
+      <c r="T4" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="U4" s="27" t="s">
+      <c r="U4" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="V4" s="15" t="s">
+      <c r="V4" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="W4" s="15" t="s">
+      <c r="W4" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="X4" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="X4" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y4" s="15" t="s">
+      <c r="Y4" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="Z4" s="15" t="s">
+      <c r="Z4" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA4" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="AA4" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB4" s="19"/>
-      <c r="AC4" s="25"/>
+      <c r="AB4" s="14"/>
+      <c r="AC4" s="24"/>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="19"/>
-      <c r="S5" s="22"/>
-      <c r="T5" s="22"/>
-      <c r="U5" s="22"/>
-      <c r="V5" s="15"/>
-      <c r="W5" s="15"/>
-      <c r="X5" s="15"/>
-      <c r="Y5" s="15"/>
-      <c r="Z5" s="15"/>
-      <c r="AA5" s="15"/>
-      <c r="AB5" s="19"/>
-      <c r="AC5" s="25"/>
+        <v>40</v>
+      </c>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="18"/>
+      <c r="R5" s="18"/>
+      <c r="S5" s="21"/>
+      <c r="T5" s="21"/>
+      <c r="U5" s="21"/>
+      <c r="V5" s="14"/>
+      <c r="W5" s="14"/>
+      <c r="X5" s="14"/>
+      <c r="Y5" s="14"/>
+      <c r="Z5" s="14"/>
+      <c r="AA5" s="14"/>
+      <c r="AB5" s="14"/>
+      <c r="AC5" s="24"/>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="I6" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="J6" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="K6" s="14" t="s">
+      <c r="D6" s="12"/>
+      <c r="E6" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="K6" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="L6" s="14" t="s">
+      <c r="L6" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="M6" s="14" t="s">
+      <c r="M6" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="N6" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="O6" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="P6" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q6" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="R6" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="S6" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="T6" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="U6" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="V6" s="15" t="s">
+      <c r="N6" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="O6" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="P6" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q6" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="R6" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="S6" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="T6" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="U6" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="V6" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="W6" s="15" t="s">
+      <c r="W6" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="X6" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y6" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="Z6" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="AA6" s="15" t="s">
+      <c r="X6" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y6" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z6" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="AB6" s="19"/>
-      <c r="AC6" s="25"/>
+      <c r="AA6" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB6" s="14"/>
+      <c r="AC6" s="24"/>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>1001</v>
       </c>
-      <c r="D7" s="32" t="s">
-        <v>128</v>
-      </c>
-      <c r="E7" s="32" t="s">
-        <v>115</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="G7" s="4">
+      <c r="D7" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="E7" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="G7" s="3">
         <v>0.2</v>
       </c>
-      <c r="H7" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="I7" s="4">
+      <c r="H7" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="I7" s="3">
         <v>0.2</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="3">
         <v>1</v>
       </c>
       <c r="K7" s="2">
@@ -2499,21 +2502,21 @@
       <c r="AA7" s="2">
         <v>0</v>
       </c>
-      <c r="AC7" s="5"/>
+      <c r="AC7" s="4"/>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>1002</v>
       </c>
-      <c r="D8" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="E8" s="32"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
+      <c r="D8" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="E8" s="30"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
       <c r="K8" s="2">
         <v>0</v>
       </c>
@@ -2565,21 +2568,21 @@
       <c r="AA8" s="2">
         <v>0</v>
       </c>
-      <c r="AC8" s="5"/>
+      <c r="AC8" s="4"/>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>1003</v>
       </c>
-      <c r="D9" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="E9" s="32"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
+      <c r="D9" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="E9" s="30"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
       <c r="K9" s="2">
         <v>0</v>
       </c>
@@ -2631,21 +2634,21 @@
       <c r="AA9" s="2">
         <v>0</v>
       </c>
-      <c r="AC9" s="5"/>
+      <c r="AC9" s="4"/>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <v>1004</v>
       </c>
-      <c r="D10" s="32" t="s">
-        <v>74</v>
-      </c>
-      <c r="E10" s="32"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
+      <c r="D10" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" s="30"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
       <c r="K10" s="2">
         <v>0</v>
       </c>
@@ -2697,26 +2700,26 @@
       <c r="AA10" s="2">
         <v>0</v>
       </c>
-      <c r="AC10" s="5"/>
+      <c r="AC10" s="4"/>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <v>1005</v>
       </c>
-      <c r="D11" s="32" t="s">
-        <v>136</v>
-      </c>
-      <c r="E11" s="32" t="s">
-        <v>135</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>111</v>
+      <c r="D11" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="E11" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>101</v>
       </c>
       <c r="G11" s="2">
         <v>0.2</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="I11" s="2">
         <v>0.2</v>
@@ -2758,38 +2761,38 @@
         <v>0</v>
       </c>
       <c r="V11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W11" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X11" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y11" s="2">
         <v>0</v>
       </c>
       <c r="Z11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA11" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC11" s="5"/>
+        <v>5</v>
+      </c>
+      <c r="AC11" s="4"/>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <v>1007</v>
       </c>
-      <c r="D12" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="E12" s="32"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
+      <c r="D12" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" s="30"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
       <c r="K12" s="2">
         <v>0</v>
       </c>
@@ -2824,38 +2827,38 @@
         <v>0</v>
       </c>
       <c r="V12" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W12" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X12" s="2">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="Y12" s="2">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA12" s="2">
         <v>3</v>
       </c>
-      <c r="AC12" s="5"/>
+      <c r="AC12" s="4"/>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="C13" s="4">
+      <c r="C13" s="3">
         <v>1008</v>
       </c>
-      <c r="D13" s="32" t="s">
-        <v>76</v>
-      </c>
-      <c r="E13" s="32"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
+      <c r="D13" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" s="30"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
       <c r="K13" s="2">
         <v>0</v>
       </c>
@@ -2890,38 +2893,38 @@
         <v>0</v>
       </c>
       <c r="V13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X13" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Y13" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA13" s="2">
         <v>1</v>
       </c>
-      <c r="AC13" s="5"/>
+      <c r="AC13" s="4"/>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="C14" s="4">
+      <c r="C14" s="3">
         <v>1009</v>
       </c>
-      <c r="D14" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="E14" s="32"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
+      <c r="D14" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="E14" s="30"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
       <c r="K14" s="2">
         <v>0</v>
       </c>
@@ -2931,7 +2934,7 @@
       <c r="M14" s="2">
         <v>501</v>
       </c>
-      <c r="N14" s="28">
+      <c r="N14" s="27">
         <v>21003</v>
       </c>
       <c r="O14" s="2">
@@ -2946,7 +2949,7 @@
       <c r="R14" s="2">
         <v>0</v>
       </c>
-      <c r="S14" s="28">
+      <c r="S14" s="27">
         <v>0</v>
       </c>
       <c r="T14" s="2">
@@ -2956,38 +2959,38 @@
         <v>0</v>
       </c>
       <c r="V14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W14" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X14" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA14" s="2">
         <v>5</v>
       </c>
-      <c r="AC14" s="5"/>
+      <c r="AC14" s="4"/>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="C15" s="4">
+      <c r="C15" s="3">
         <v>1010</v>
       </c>
-      <c r="D15" s="32" t="s">
-        <v>77</v>
-      </c>
-      <c r="E15" s="32"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
+      <c r="D15" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="E15" s="30"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
       <c r="K15" s="2">
         <v>0</v>
       </c>
@@ -3028,99 +3031,99 @@
         <v>1</v>
       </c>
       <c r="X15" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Y15" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA15" s="2">
         <v>3</v>
       </c>
-      <c r="AC15" s="5"/>
+      <c r="AC15" s="4"/>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="C16" s="10">
+      <c r="C16" s="9">
         <v>1011</v>
       </c>
-      <c r="D16" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="E16" s="32"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="11">
+      <c r="D16" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="E16" s="30"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="10">
         <v>0</v>
       </c>
       <c r="L16" s="2">
         <v>10000</v>
       </c>
-      <c r="M16" s="11">
+      <c r="M16" s="10">
         <v>203</v>
       </c>
-      <c r="N16" s="11">
+      <c r="N16" s="10">
         <v>0.1</v>
       </c>
-      <c r="O16" s="11">
+      <c r="O16" s="10">
         <v>200</v>
       </c>
-      <c r="P16" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="11">
-        <v>0</v>
-      </c>
-      <c r="R16" s="11">
-        <v>0</v>
-      </c>
-      <c r="S16" s="11">
-        <v>0</v>
-      </c>
-      <c r="T16" s="11">
-        <v>0</v>
-      </c>
-      <c r="U16" s="11">
-        <v>0</v>
-      </c>
-      <c r="V16" s="11">
-        <v>1</v>
-      </c>
-      <c r="W16" s="11">
-        <v>1</v>
-      </c>
-      <c r="X16" s="11">
-        <v>1</v>
-      </c>
-      <c r="Y16" s="11">
+      <c r="P16" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="10">
+        <v>0</v>
+      </c>
+      <c r="R16" s="10">
+        <v>0</v>
+      </c>
+      <c r="S16" s="10">
+        <v>0</v>
+      </c>
+      <c r="T16" s="10">
+        <v>0</v>
+      </c>
+      <c r="U16" s="10">
+        <v>0</v>
+      </c>
+      <c r="V16" s="10">
+        <v>1</v>
+      </c>
+      <c r="W16" s="10">
+        <v>1</v>
+      </c>
+      <c r="X16" s="10">
         <v>5</v>
       </c>
-      <c r="Z16" s="11">
-        <v>0</v>
-      </c>
-      <c r="AA16" s="11">
+      <c r="Y16" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="10">
+        <v>1</v>
+      </c>
+      <c r="AA16" s="10">
         <v>3</v>
       </c>
-      <c r="AB16" s="11"/>
-      <c r="AC16" s="12"/>
+      <c r="AB16" s="10"/>
+      <c r="AC16" s="11"/>
     </row>
     <row r="17" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C17" s="4">
+      <c r="C17" s="3">
         <v>1012</v>
       </c>
-      <c r="D17" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="E17" s="32"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
+      <c r="D17" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" s="30"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
       <c r="K17" s="2">
         <v>0</v>
       </c>
@@ -3154,35 +3157,36 @@
       <c r="U17" s="2">
         <v>0</v>
       </c>
-      <c r="V17" s="11">
-        <v>1</v>
-      </c>
-      <c r="W17" s="11">
-        <v>1</v>
-      </c>
-      <c r="X17" s="11">
-        <v>1</v>
-      </c>
-      <c r="Y17" s="11">
+      <c r="V17" s="10">
+        <v>1</v>
+      </c>
+      <c r="W17" s="10">
+        <v>1</v>
+      </c>
+      <c r="X17" s="10">
         <v>5</v>
       </c>
-      <c r="Z17" s="11">
-        <v>0</v>
-      </c>
-      <c r="AA17" s="11">
+      <c r="Y17" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="10">
+        <v>1</v>
+      </c>
+      <c r="AA17" s="10">
         <v>3</v>
       </c>
-      <c r="AC17" s="5"/>
+      <c r="AB17" s="10"/>
+      <c r="AC17" s="4"/>
     </row>
     <row r="18" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C18" s="4">
+      <c r="C18" s="3">
         <v>1013</v>
       </c>
-      <c r="D18" s="32" t="s">
-        <v>134</v>
-      </c>
-      <c r="E18" s="32"/>
-      <c r="F18" s="4"/>
+      <c r="D18" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="E18" s="30"/>
+      <c r="F18" s="3"/>
       <c r="K18" s="2">
         <v>0</v>
       </c>
@@ -3223,32 +3227,32 @@
         <v>1</v>
       </c>
       <c r="X18" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Y18" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA18" s="2">
         <v>3</v>
       </c>
-      <c r="AC18" s="5"/>
+      <c r="AC18" s="4"/>
     </row>
     <row r="19" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C19" s="4">
+      <c r="C19" s="3">
         <v>1015</v>
       </c>
-      <c r="D19" s="32" t="s">
-        <v>80</v>
-      </c>
-      <c r="E19" s="32"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
+      <c r="D19" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="E19" s="30"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
       <c r="K19" s="2">
         <v>0</v>
       </c>
@@ -3282,39 +3286,40 @@
       <c r="U19" s="2">
         <v>0</v>
       </c>
-      <c r="V19" s="11">
-        <v>0</v>
-      </c>
-      <c r="W19" s="11">
-        <v>0</v>
-      </c>
-      <c r="X19" s="11">
-        <v>0</v>
-      </c>
-      <c r="Y19" s="11">
-        <v>0</v>
-      </c>
-      <c r="Z19" s="11">
-        <v>0</v>
-      </c>
-      <c r="AA19" s="11">
-        <v>0</v>
-      </c>
-      <c r="AC19" s="5"/>
+      <c r="V19" s="10">
+        <v>0</v>
+      </c>
+      <c r="W19" s="10">
+        <v>0</v>
+      </c>
+      <c r="X19" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="10"/>
+      <c r="AC19" s="4"/>
     </row>
     <row r="20" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C20" s="4">
+      <c r="C20" s="3">
         <v>1016</v>
       </c>
-      <c r="D20" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="E20" s="32"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
+      <c r="D20" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="E20" s="30"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
       <c r="K20" s="2">
         <v>0</v>
       </c>
@@ -3366,31 +3371,31 @@
       <c r="AA20" s="2">
         <v>0</v>
       </c>
-      <c r="AC20" s="5"/>
+      <c r="AC20" s="4"/>
     </row>
     <row r="21" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C21" s="4">
+      <c r="C21" s="3">
         <v>100111</v>
       </c>
-      <c r="D21" s="32" t="s">
-        <v>113</v>
-      </c>
-      <c r="E21" s="32" t="s">
-        <v>115</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="G21" s="4">
+      <c r="D21" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="E21" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="G21" s="3">
         <v>0.2</v>
       </c>
-      <c r="H21" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="I21" s="4">
+      <c r="H21" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="I21" s="3">
         <v>0.2</v>
       </c>
-      <c r="J21" s="4">
+      <c r="J21" s="3">
         <v>1</v>
       </c>
       <c r="K21" s="2">
@@ -3444,21 +3449,21 @@
       <c r="AA21" s="2">
         <v>0</v>
       </c>
-      <c r="AC21" s="5"/>
+      <c r="AC21" s="4"/>
     </row>
     <row r="22" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C22" s="4">
+      <c r="C22" s="3">
         <v>100112</v>
       </c>
-      <c r="D22" s="32" t="s">
-        <v>114</v>
-      </c>
-      <c r="E22" s="32"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
+      <c r="D22" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="E22" s="30"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
       <c r="K22" s="2">
         <v>0</v>
       </c>
@@ -3510,17 +3515,17 @@
       <c r="AA22" s="2">
         <v>0</v>
       </c>
-      <c r="AC22" s="5"/>
+      <c r="AC22" s="4"/>
     </row>
     <row r="23" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C23" s="4">
+      <c r="C23" s="3">
         <v>100201</v>
       </c>
-      <c r="D23" s="32" t="s">
-        <v>129</v>
-      </c>
-      <c r="E23" s="32"/>
-      <c r="F23" s="4"/>
+      <c r="D23" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="E23" s="30"/>
+      <c r="F23" s="3"/>
       <c r="K23" s="2">
         <v>0</v>
       </c>
@@ -3572,31 +3577,31 @@
       <c r="AA23" s="2">
         <v>0</v>
       </c>
-      <c r="AC23" s="5"/>
+      <c r="AC23" s="4"/>
     </row>
     <row r="24" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C24" s="4">
+      <c r="C24" s="3">
         <v>200111</v>
       </c>
-      <c r="D24" s="32" t="s">
-        <v>116</v>
-      </c>
-      <c r="E24" s="32" t="s">
-        <v>110</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="G24" s="4">
+      <c r="D24" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="E24" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="G24" s="3">
         <v>0.2</v>
       </c>
-      <c r="H24" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="I24" s="4">
+      <c r="H24" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="I24" s="3">
         <v>0.2</v>
       </c>
-      <c r="J24" s="4"/>
+      <c r="J24" s="3"/>
       <c r="K24" s="2">
         <v>0</v>
       </c>
@@ -3648,31 +3653,31 @@
       <c r="AA24" s="2">
         <v>0</v>
       </c>
-      <c r="AC24" s="5"/>
+      <c r="AC24" s="4"/>
     </row>
     <row r="25" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C25" s="4">
+      <c r="C25" s="3">
         <v>200121</v>
       </c>
-      <c r="D25" s="32" t="s">
-        <v>117</v>
-      </c>
-      <c r="E25" s="32" t="s">
-        <v>112</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="G25" s="4">
+      <c r="D25" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="E25" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="G25" s="3">
         <v>0.2</v>
       </c>
-      <c r="H25" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="I25" s="4">
+      <c r="H25" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="I25" s="3">
         <v>0.2</v>
       </c>
-      <c r="J25" s="4">
+      <c r="J25" s="3">
         <v>1</v>
       </c>
       <c r="K25" s="2">
@@ -3726,17 +3731,17 @@
       <c r="AA25" s="2">
         <v>0</v>
       </c>
-      <c r="AC25" s="5"/>
+      <c r="AC25" s="4"/>
     </row>
     <row r="26" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C26" s="4">
+      <c r="C26" s="3">
         <v>200201</v>
       </c>
-      <c r="D26" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="E26" s="32"/>
-      <c r="F26" s="4"/>
+      <c r="D26" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="E26" s="30"/>
+      <c r="F26" s="3"/>
       <c r="K26" s="2">
         <v>0</v>
       </c>
@@ -3788,17 +3793,17 @@
       <c r="AA26" s="2">
         <v>0</v>
       </c>
-      <c r="AC26" s="5"/>
+      <c r="AC26" s="4"/>
     </row>
     <row r="27" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C27" s="4">
+      <c r="C27" s="3">
         <v>200202</v>
       </c>
-      <c r="D27" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="E27" s="32"/>
-      <c r="F27" s="4"/>
+      <c r="D27" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="E27" s="30"/>
+      <c r="F27" s="3"/>
       <c r="K27" s="2">
         <v>0</v>
       </c>
@@ -3850,17 +3855,17 @@
       <c r="AA27" s="2">
         <v>0</v>
       </c>
-      <c r="AC27" s="5"/>
+      <c r="AC27" s="4"/>
     </row>
     <row r="28" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C28" s="4">
+      <c r="C28" s="3">
         <v>200203</v>
       </c>
-      <c r="D28" s="32" t="s">
-        <v>131</v>
-      </c>
-      <c r="E28" s="32"/>
-      <c r="F28" s="4"/>
+      <c r="D28" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="E28" s="30"/>
+      <c r="F28" s="3"/>
       <c r="K28" s="2">
         <v>0</v>
       </c>
@@ -3912,17 +3917,17 @@
       <c r="AA28" s="2">
         <v>0</v>
       </c>
-      <c r="AC28" s="5"/>
+      <c r="AC28" s="4"/>
     </row>
     <row r="29" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C29" s="4">
+      <c r="C29" s="3">
         <v>200301</v>
       </c>
-      <c r="D29" s="32" t="s">
-        <v>132</v>
-      </c>
-      <c r="E29" s="32"/>
-      <c r="F29" s="4"/>
+      <c r="D29" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="E29" s="30"/>
+      <c r="F29" s="3"/>
       <c r="K29" s="2">
         <v>0</v>
       </c>
@@ -3974,31 +3979,31 @@
       <c r="AA29" s="2">
         <v>0</v>
       </c>
-      <c r="AC29" s="5"/>
+      <c r="AC29" s="4"/>
     </row>
     <row r="30" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C30" s="4">
+      <c r="C30" s="3">
         <v>300111</v>
       </c>
-      <c r="D30" s="32" t="s">
-        <v>118</v>
-      </c>
-      <c r="E30" s="32" t="s">
-        <v>119</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="G30" s="4">
+      <c r="D30" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="E30" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="G30" s="3">
         <v>0.2</v>
       </c>
-      <c r="H30" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="I30" s="4">
+      <c r="H30" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="I30" s="3">
         <v>0.2</v>
       </c>
-      <c r="J30" s="4">
+      <c r="J30" s="3">
         <v>1</v>
       </c>
       <c r="K30" s="2">
@@ -4052,17 +4057,17 @@
       <c r="AA30" s="2">
         <v>0</v>
       </c>
-      <c r="AC30" s="5"/>
+      <c r="AC30" s="4"/>
     </row>
     <row r="31" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C31" s="4">
+      <c r="C31" s="3">
         <v>300201</v>
       </c>
-      <c r="D31" s="32" t="s">
-        <v>133</v>
-      </c>
-      <c r="E31" s="32"/>
-      <c r="F31" s="4"/>
+      <c r="D31" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="E31" s="30"/>
+      <c r="F31" s="3"/>
       <c r="K31" s="2">
         <v>0</v>
       </c>
@@ -4114,31 +4119,31 @@
       <c r="AA31" s="2">
         <v>0</v>
       </c>
-      <c r="AC31" s="5"/>
+      <c r="AC31" s="4"/>
     </row>
     <row r="32" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C32" s="4">
+      <c r="C32" s="3">
         <v>400111</v>
       </c>
-      <c r="D32" s="32" t="s">
-        <v>120</v>
-      </c>
-      <c r="E32" s="32" t="s">
-        <v>119</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="G32" s="4">
+      <c r="D32" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="E32" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="G32" s="3">
         <v>0.2</v>
       </c>
-      <c r="H32" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="I32" s="4">
+      <c r="H32" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="I32" s="3">
         <v>0.2</v>
       </c>
-      <c r="J32" s="4"/>
+      <c r="J32" s="3"/>
       <c r="K32" s="2">
         <v>0</v>
       </c>
@@ -4190,31 +4195,31 @@
       <c r="AA32" s="2">
         <v>0</v>
       </c>
-      <c r="AC32" s="5"/>
+      <c r="AC32" s="4"/>
     </row>
-    <row r="33" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C33" s="4">
+    <row r="33" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="C33" s="3">
         <v>500111</v>
       </c>
-      <c r="D33" s="32" t="s">
-        <v>121</v>
-      </c>
-      <c r="E33" s="32" t="s">
-        <v>115</v>
-      </c>
-      <c r="F33" s="4" t="s">
+      <c r="D33" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="G33" s="4">
+      <c r="E33" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="G33" s="3">
         <v>0.2</v>
       </c>
-      <c r="H33" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="I33" s="4">
+      <c r="H33" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="I33" s="3">
         <v>0.2</v>
       </c>
-      <c r="J33" s="4">
+      <c r="J33" s="3">
         <v>1</v>
       </c>
       <c r="K33" s="2">
@@ -4268,31 +4273,31 @@
       <c r="AA33" s="2">
         <v>0</v>
       </c>
-      <c r="AC33" s="5"/>
+      <c r="AC33" s="4"/>
     </row>
-    <row r="34" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C34" s="4">
+    <row r="34" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="C34" s="3">
         <v>600111</v>
       </c>
-      <c r="D34" s="32" t="s">
-        <v>122</v>
-      </c>
-      <c r="E34" s="32" t="s">
-        <v>115</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="G34" s="4">
+      <c r="D34" s="30" t="s">
+        <v>112</v>
+      </c>
+      <c r="E34" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="G34" s="3">
         <v>0.2</v>
       </c>
-      <c r="H34" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="I34" s="4">
+      <c r="H34" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="I34" s="3">
         <v>0.2</v>
       </c>
-      <c r="J34" s="4">
+      <c r="J34" s="3">
         <v>1</v>
       </c>
       <c r="K34" s="2">
@@ -4346,31 +4351,31 @@
       <c r="AA34" s="2">
         <v>0</v>
       </c>
-      <c r="AC34" s="5"/>
+      <c r="AC34" s="4"/>
     </row>
-    <row r="35" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C35" s="4">
+    <row r="35" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="C35" s="3">
         <v>800111</v>
       </c>
-      <c r="D35" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="E35" s="32" t="s">
-        <v>125</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="G35" s="4">
+      <c r="D35" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="E35" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="G35" s="3">
         <v>0.2</v>
       </c>
-      <c r="H35" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="I35" s="4">
+      <c r="H35" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="I35" s="3">
         <v>0.2</v>
       </c>
-      <c r="J35" s="4">
+      <c r="J35" s="3">
         <v>1</v>
       </c>
       <c r="K35" s="2">
@@ -4424,21 +4429,21 @@
       <c r="AA35" s="2">
         <v>0</v>
       </c>
-      <c r="AC35" s="5"/>
+      <c r="AC35" s="4"/>
     </row>
-    <row r="36" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C36" s="4">
+    <row r="36" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="C36" s="3">
         <v>800112</v>
       </c>
-      <c r="D36" s="32" t="s">
-        <v>124</v>
-      </c>
-      <c r="E36" s="32"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
-      <c r="J36" s="4"/>
+      <c r="D36" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="E36" s="30"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
       <c r="K36" s="2">
         <v>0</v>
       </c>
@@ -4490,31 +4495,31 @@
       <c r="AA36" s="2">
         <v>0</v>
       </c>
-      <c r="AC36" s="5"/>
+      <c r="AC36" s="4"/>
     </row>
-    <row r="37" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C37" s="4">
+    <row r="37" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="C37" s="3">
         <v>900111</v>
       </c>
-      <c r="D37" s="32" t="s">
-        <v>126</v>
-      </c>
-      <c r="E37" s="32" t="s">
-        <v>119</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="G37" s="4">
+      <c r="D37" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="E37" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="G37" s="3">
         <v>0.2</v>
       </c>
-      <c r="H37" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="I37" s="4">
+      <c r="H37" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="I37" s="3">
         <v>0.2</v>
       </c>
-      <c r="J37" s="4">
+      <c r="J37" s="3">
         <v>1</v>
       </c>
       <c r="K37" s="2">
@@ -4568,164 +4573,168 @@
       <c r="AA37" s="2">
         <v>0</v>
       </c>
-      <c r="AC37" s="5"/>
+      <c r="AC37" s="4"/>
     </row>
-    <row r="38" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C38" s="4"/>
-      <c r="D38" s="32"/>
-      <c r="E38" s="32"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
-      <c r="J38" s="4"/>
-      <c r="AC38" s="5"/>
+    <row r="38" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="C38" s="3"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="30"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="AC38" s="4"/>
     </row>
-    <row r="39" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C39" s="4"/>
-      <c r="D39" s="32"/>
-      <c r="E39" s="32"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="4"/>
-      <c r="J39" s="4"/>
-      <c r="AC39" s="5"/>
+    <row r="39" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="C39" s="3"/>
+      <c r="D39" s="30"/>
+      <c r="E39" s="30"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="AC39" s="4"/>
     </row>
-    <row r="40" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C40" s="4"/>
-      <c r="D40" s="32"/>
-      <c r="E40" s="32"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
-      <c r="I40" s="4"/>
-      <c r="J40" s="4"/>
-      <c r="AC40" s="5"/>
+    <row r="40" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="C40" s="3"/>
+      <c r="D40" s="30"/>
+      <c r="E40" s="30"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="AC40" s="4"/>
     </row>
-    <row r="41" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C41" s="10"/>
-      <c r="D41" s="33"/>
-      <c r="E41" s="33"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="10"/>
-      <c r="I41" s="10"/>
-      <c r="J41" s="10"/>
-      <c r="K41" s="11"/>
-      <c r="L41" s="11"/>
-      <c r="M41" s="11"/>
-      <c r="N41" s="11"/>
-      <c r="O41" s="11"/>
-      <c r="P41" s="11"/>
-      <c r="Q41" s="11"/>
-      <c r="R41" s="11"/>
-      <c r="S41" s="11"/>
-      <c r="T41" s="11"/>
-      <c r="U41" s="11"/>
-      <c r="V41" s="11"/>
-      <c r="W41" s="11"/>
-      <c r="X41" s="11"/>
-      <c r="Y41" s="11"/>
-      <c r="Z41" s="11"/>
-      <c r="AA41" s="11"/>
-      <c r="AB41" s="11"/>
-      <c r="AC41" s="12"/>
+    <row r="41" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="C41" s="9"/>
+      <c r="D41" s="31"/>
+      <c r="E41" s="31"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="10"/>
+      <c r="L41" s="10"/>
+      <c r="M41" s="10"/>
+      <c r="N41" s="10"/>
+      <c r="O41" s="10"/>
+      <c r="P41" s="10"/>
+      <c r="Q41" s="10"/>
+      <c r="R41" s="10"/>
+      <c r="S41" s="10"/>
+      <c r="T41" s="10"/>
+      <c r="U41" s="10"/>
+      <c r="V41" s="10"/>
+      <c r="W41" s="10"/>
+      <c r="X41" s="10"/>
+      <c r="Y41" s="10"/>
+      <c r="Z41" s="10"/>
+      <c r="AA41" s="10"/>
+      <c r="AB41" s="10"/>
+      <c r="AC41" s="11"/>
     </row>
-    <row r="42" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C42" s="4"/>
-      <c r="D42" s="32"/>
-      <c r="E42" s="32"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4"/>
-      <c r="I42" s="4"/>
-      <c r="J42" s="4"/>
-      <c r="AC42" s="5"/>
+    <row r="42" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="C42" s="3"/>
+      <c r="D42" s="30"/>
+      <c r="E42" s="30"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
+      <c r="AG42" s="4"/>
     </row>
-    <row r="43" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C43" s="4"/>
-      <c r="D43" s="32"/>
-      <c r="E43" s="32"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="4"/>
-      <c r="I43" s="4"/>
-      <c r="J43" s="4"/>
-      <c r="AC43" s="5"/>
+    <row r="43" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="C43" s="3"/>
+      <c r="D43" s="30"/>
+      <c r="E43" s="30"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
+      <c r="AG43" s="4"/>
     </row>
-    <row r="44" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C44" s="4"/>
-      <c r="D44" s="32"/>
-      <c r="E44" s="32"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="4"/>
-      <c r="I44" s="4"/>
-      <c r="J44" s="4"/>
-      <c r="AC44" s="5"/>
+    <row r="44" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="C44" s="3"/>
+      <c r="D44" s="30"/>
+      <c r="E44" s="30"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
+      <c r="AG44" s="4"/>
     </row>
-    <row r="45" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C45" s="4"/>
-      <c r="D45" s="32"/>
-      <c r="E45" s="32"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="4"/>
-      <c r="H45" s="4"/>
-      <c r="I45" s="4"/>
-      <c r="J45" s="4"/>
-      <c r="AC45" s="5"/>
+    <row r="45" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="C45" s="3"/>
+      <c r="D45" s="30"/>
+      <c r="E45" s="30"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+      <c r="AG45" s="4"/>
     </row>
-    <row r="46" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C46" s="4"/>
-      <c r="D46" s="32"/>
-      <c r="E46" s="32"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
-      <c r="H46" s="4"/>
-      <c r="I46" s="4"/>
-      <c r="J46" s="4"/>
-      <c r="AC46" s="5"/>
+    <row r="46" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="C46" s="3"/>
+      <c r="D46" s="30"/>
+      <c r="E46" s="30"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
+      <c r="AG46" s="4"/>
     </row>
-    <row r="47" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C47" s="4"/>
-      <c r="D47" s="32"/>
-      <c r="E47" s="32"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
-      <c r="H47" s="4"/>
-      <c r="I47" s="4"/>
-      <c r="J47" s="4"/>
-      <c r="AC47" s="5"/>
+    <row r="47" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="C47" s="3"/>
+      <c r="D47" s="30"/>
+      <c r="E47" s="30"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3"/>
+      <c r="AG47" s="4"/>
     </row>
-    <row r="48" spans="3:29" x14ac:dyDescent="0.2">
-      <c r="C48" s="10"/>
-      <c r="D48" s="33"/>
-      <c r="E48" s="33"/>
-      <c r="F48" s="10"/>
-      <c r="G48" s="10"/>
-      <c r="H48" s="10"/>
-      <c r="I48" s="10"/>
-      <c r="J48" s="10"/>
-      <c r="K48" s="11"/>
-      <c r="L48" s="11"/>
-      <c r="M48" s="11"/>
-      <c r="N48" s="11"/>
-      <c r="O48" s="11"/>
-      <c r="P48" s="11"/>
-      <c r="Q48" s="11"/>
-      <c r="R48" s="11"/>
-      <c r="S48" s="11"/>
-      <c r="T48" s="11"/>
-      <c r="U48" s="11"/>
-      <c r="V48" s="11"/>
-      <c r="W48" s="11"/>
-      <c r="X48" s="11"/>
-      <c r="Y48" s="11"/>
-      <c r="Z48" s="11"/>
-      <c r="AA48" s="11"/>
-      <c r="AB48" s="11"/>
-      <c r="AC48" s="12"/>
+    <row r="48" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="C48" s="9"/>
+      <c r="D48" s="31"/>
+      <c r="E48" s="31"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="10"/>
+      <c r="L48" s="10"/>
+      <c r="M48" s="10"/>
+      <c r="N48" s="10"/>
+      <c r="O48" s="10"/>
+      <c r="P48" s="10"/>
+      <c r="Q48" s="10"/>
+      <c r="R48" s="10"/>
+      <c r="S48" s="10"/>
+      <c r="T48" s="10"/>
+      <c r="U48" s="10"/>
+      <c r="V48" s="10"/>
+      <c r="W48" s="10"/>
+      <c r="X48" s="10"/>
+      <c r="Y48" s="10"/>
+      <c r="Z48" s="10"/>
+      <c r="AA48" s="10"/>
+      <c r="AB48" s="10"/>
+      <c r="AC48" s="10"/>
+      <c r="AD48" s="10"/>
+      <c r="AE48" s="10"/>
+      <c r="AF48" s="10"/>
+      <c r="AG48" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/config/excel/SkillEffect.xlsx
+++ b/config/excel/SkillEffect.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EastEden\excel\trunk\global\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBF5916C-3694-40F9-AA1F-F77C0C3731BB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4675C80F-6944-4055-B074-542403856D8A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillEffect" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W1" authorId="0" shapeId="0" xr:uid="{F8201646-FABF-4E69-8183-59CBA5E31C57}">
+    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{F8201646-FABF-4E69-8183-59CBA5E31C57}">
       <text>
         <r>
           <rPr>
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="132">
   <si>
     <t>行列头两行不会被读取</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -121,30 +121,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>参数1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>参数3</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>数组1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>数组2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>数组3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>触发概率</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -162,11 +142,6 @@
   </si>
   <si>
     <t>触发条件</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>主目标
-修正</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -210,10 +185,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>targetType</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>targetLength</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -230,10 +201,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>目标类型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>范围长</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -255,18 +222,6 @@
   </si>
   <si>
     <t>前后端</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数3</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -296,14 +251,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>参数4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>parameterA</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -321,22 +268,6 @@
   </si>
   <si>
     <t>parameterE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[]number</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>arryA</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>arryB</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>arryC</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -621,60 +552,6 @@
   </si>
   <si>
     <t>发起类型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1" tint="4.9989318521683403E-2"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1-自身</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2-友军单体
-3-敌军单体
-4-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>选定空间
-(弃用)</t>
-    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -749,12 +626,61 @@
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>参数6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算参数3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算参数5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算参数4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算参数6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算参数7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符串参数</t>
+  </si>
+  <si>
+    <t>Iint类型参数</t>
+  </si>
+  <si>
+    <t>parameterString</t>
+  </si>
+  <si>
+    <t>parameterInt</t>
+  </si>
+  <si>
+    <t>参数1</t>
+  </si>
+  <si>
+    <t>参数2</t>
+  </si>
+  <si>
+    <t>int32</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -796,22 +722,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1" tint="4.9989318521683403E-2"/>
       <name val="等线"/>
       <family val="3"/>
@@ -821,15 +731,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1" tint="4.9989318521683403E-2"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -1005,7 +906,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1049,25 +950,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1082,16 +968,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1115,20 +998,21 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="32">
+  <dxfs count="30">
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color theme="0"/>
         </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
+        <right/>
         <top style="thin">
           <color theme="0"/>
         </top>
@@ -1224,42 +1108,6 @@
         <right style="thin">
           <color theme="0"/>
         </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right/>
         <top style="thin">
           <color theme="0"/>
         </top>
@@ -1669,36 +1517,34 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7D756641-FA44-4C98-8415-A8A9AF7B3072}" name="表1" displayName="表1" ref="C1:AC41" totalsRowShown="0" headerRowDxfId="31" dataDxfId="29" headerRowBorderDxfId="30" tableBorderDxfId="28" totalsRowBorderDxfId="27">
-  <autoFilter ref="C1:AC41" xr:uid="{8CC84E60-2DCE-4F71-9796-17451FB14116}"/>
-  <tableColumns count="27">
-    <tableColumn id="1" xr3:uid="{B117A20D-488D-4BBE-9938-B9ED8BC64C7F}" name="效果ID" dataDxfId="26"/>
-    <tableColumn id="24" xr3:uid="{92A314CE-7C79-4335-AE0F-C9FE3BC3E616}" name="备注" dataDxfId="25"/>
-    <tableColumn id="27" xr3:uid="{4E6B823F-ED87-44FA-BC7E-DD0D3DA9A874}" name="被击特效" dataDxfId="24"/>
-    <tableColumn id="28" xr3:uid="{D63A8DD5-C7D8-45FF-9168-E24BB73D8D0A}" name="被击插槽ID" dataDxfId="23"/>
-    <tableColumn id="30" xr3:uid="{1297421F-FF12-438C-935D-1AC9E4808D57}" name="被击停帧" dataDxfId="22"/>
-    <tableColumn id="31" xr3:uid="{E7D77817-54E1-4457-BAF0-110C08D2391F}" name="受伤被击动作" dataDxfId="21"/>
-    <tableColumn id="32" xr3:uid="{D94B756E-3130-40BB-8956-BFC62C751F3A}" name="受伤状态持续时间" dataDxfId="20"/>
-    <tableColumn id="33" xr3:uid="{39EDA7F4-741B-4F88-9EF2-5A0E93E8B1CC}" name="受伤击退距离" dataDxfId="19"/>
-    <tableColumn id="20" xr3:uid="{0D040897-96A3-4655-AF1A-867F46D315D6}" name="是否判定_x000a_效果命中" dataDxfId="18"/>
-    <tableColumn id="3" xr3:uid="{9E34CFDB-9FDC-4344-99F0-5F3D0E7E5723}" name="触发概率" dataDxfId="17"/>
-    <tableColumn id="4" xr3:uid="{74D1A4E2-93B1-4E13-8C07-A6CD771CBAD7}" name="效果类型" dataDxfId="16"/>
-    <tableColumn id="5" xr3:uid="{E5C762F0-7690-49F1-83D9-D7133665E63B}" name="参数1" dataDxfId="15"/>
-    <tableColumn id="6" xr3:uid="{1C2FBB75-F754-40DD-AC47-C4E07D15EE88}" name="参数2" dataDxfId="14"/>
-    <tableColumn id="7" xr3:uid="{97A86C1D-0720-4DA9-A230-2B854C94703B}" name="参数3" dataDxfId="13"/>
-    <tableColumn id="8" xr3:uid="{74F52534-73B3-4964-B3F1-04920040D1CE}" name="参数4" dataDxfId="12"/>
-    <tableColumn id="9" xr3:uid="{FE519A61-3D62-437A-A54A-1541FAC9F66D}" name="参数5" dataDxfId="11"/>
-    <tableColumn id="10" xr3:uid="{E2EF7CB2-27DA-4534-B887-8CED13DDEDEB}" name="数组1" dataDxfId="10"/>
-    <tableColumn id="11" xr3:uid="{215AB503-B38D-422C-898E-0CCCFEC93B4E}" name="数组2" dataDxfId="9"/>
-    <tableColumn id="12" xr3:uid="{C4594820-6CDF-44FB-8D1A-6EECF3A59EE3}" name="数组3" dataDxfId="8"/>
-    <tableColumn id="14" xr3:uid="{0A7DF7DC-2A81-4FED-848D-5830CE482B70}" name="主目标_x000a_修正" dataDxfId="6"/>
-    <tableColumn id="21" xr3:uid="{D185F1A5-6935-4E48-8FB7-B4F1AF76ECCB}" name="技能_x000a_发起类型" dataDxfId="5"/>
-    <tableColumn id="15" xr3:uid="{C74C0B95-5EB8-4479-A7E2-68D10B94811D}" name="目标范围长_x000a_修正" dataDxfId="4"/>
-    <tableColumn id="16" xr3:uid="{E31385C7-BC45-441B-9178-9CC7166A03D1}" name="目标范围宽_x000a_修正" dataDxfId="3"/>
-    <tableColumn id="13" xr3:uid="{51863B83-9A04-4C6C-9571-2A85C7B2D4B9}" name="主目标_x000a_范围类型修正2" dataDxfId="2"/>
-    <tableColumn id="17" xr3:uid="{3E38260C-64DD-4667-802F-14F78FD59DE2}" name="作用对象_x000a_修正" dataDxfId="1"/>
-    <tableColumn id="18" xr3:uid="{E338C7D2-80D7-45C8-AA21-14A3A2EE0424}" name="触发时机" dataDxfId="0"/>
-    <tableColumn id="19" xr3:uid="{E4169552-9707-4822-A6FC-78CFA23DEE16}" name="触发条件" dataDxfId="7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7D756641-FA44-4C98-8415-A8A9AF7B3072}" name="表1" displayName="表1" ref="C1:AA41" totalsRowShown="0" headerRowDxfId="29" dataDxfId="27" headerRowBorderDxfId="28" tableBorderDxfId="26" totalsRowBorderDxfId="25">
+  <autoFilter ref="C1:AA41" xr:uid="{8CC84E60-2DCE-4F71-9796-17451FB14116}"/>
+  <tableColumns count="25">
+    <tableColumn id="1" xr3:uid="{B117A20D-488D-4BBE-9938-B9ED8BC64C7F}" name="效果ID" dataDxfId="24"/>
+    <tableColumn id="24" xr3:uid="{92A314CE-7C79-4335-AE0F-C9FE3BC3E616}" name="备注" dataDxfId="23"/>
+    <tableColumn id="27" xr3:uid="{4E6B823F-ED87-44FA-BC7E-DD0D3DA9A874}" name="被击特效" dataDxfId="22"/>
+    <tableColumn id="28" xr3:uid="{D63A8DD5-C7D8-45FF-9168-E24BB73D8D0A}" name="被击插槽ID" dataDxfId="21"/>
+    <tableColumn id="30" xr3:uid="{1297421F-FF12-438C-935D-1AC9E4808D57}" name="被击停帧" dataDxfId="20"/>
+    <tableColumn id="31" xr3:uid="{E7D77817-54E1-4457-BAF0-110C08D2391F}" name="受伤被击动作" dataDxfId="19"/>
+    <tableColumn id="32" xr3:uid="{D94B756E-3130-40BB-8956-BFC62C751F3A}" name="受伤状态持续时间" dataDxfId="18"/>
+    <tableColumn id="33" xr3:uid="{39EDA7F4-741B-4F88-9EF2-5A0E93E8B1CC}" name="受伤击退距离" dataDxfId="17"/>
+    <tableColumn id="20" xr3:uid="{0D040897-96A3-4655-AF1A-867F46D315D6}" name="是否判定_x000a_效果命中" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{9E34CFDB-9FDC-4344-99F0-5F3D0E7E5723}" name="触发概率" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{74D1A4E2-93B1-4E13-8C07-A6CD771CBAD7}" name="效果类型" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{DC8B6D94-8726-43D4-A029-E8E8A9A5C65C}" name="字符串参数" dataDxfId="13"/>
+    <tableColumn id="22" xr3:uid="{29BCF34F-66C2-415F-BAA8-645091FE392A}" name="Iint类型参数" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{E5C762F0-7690-49F1-83D9-D7133665E63B}" name="计算参数3" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{1C2FBB75-F754-40DD-AC47-C4E07D15EE88}" name="计算参数4" dataDxfId="10"/>
+    <tableColumn id="7" xr3:uid="{97A86C1D-0720-4DA9-A230-2B854C94703B}" name="计算参数5" dataDxfId="9"/>
+    <tableColumn id="8" xr3:uid="{74F52534-73B3-4964-B3F1-04920040D1CE}" name="计算参数6" dataDxfId="8"/>
+    <tableColumn id="9" xr3:uid="{FE519A61-3D62-437A-A54A-1541FAC9F66D}" name="计算参数7" dataDxfId="7"/>
+    <tableColumn id="21" xr3:uid="{D185F1A5-6935-4E48-8FB7-B4F1AF76ECCB}" name="技能_x000a_发起类型" dataDxfId="6"/>
+    <tableColumn id="15" xr3:uid="{C74C0B95-5EB8-4479-A7E2-68D10B94811D}" name="目标范围长_x000a_修正" dataDxfId="5"/>
+    <tableColumn id="16" xr3:uid="{E31385C7-BC45-441B-9178-9CC7166A03D1}" name="目标范围宽_x000a_修正" dataDxfId="4"/>
+    <tableColumn id="13" xr3:uid="{51863B83-9A04-4C6C-9571-2A85C7B2D4B9}" name="主目标_x000a_范围类型修正2" dataDxfId="3"/>
+    <tableColumn id="17" xr3:uid="{3E38260C-64DD-4667-802F-14F78FD59DE2}" name="作用对象_x000a_修正" dataDxfId="2"/>
+    <tableColumn id="18" xr3:uid="{E338C7D2-80D7-45C8-AA21-14A3A2EE0424}" name="触发时机" dataDxfId="1"/>
+    <tableColumn id="19" xr3:uid="{E4169552-9707-4822-A6FC-78CFA23DEE16}" name="触发条件" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1967,42 +1813,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG48"/>
+  <dimension ref="A1:AE48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="6" topLeftCell="R7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="6" topLeftCell="E7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="AC4" sqref="AC4"/>
+      <selection pane="bottomRight" activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="14.25" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="3" width="10.625" style="2"/>
-    <col min="4" max="4" width="21.5" style="32" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.25" style="32" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5" style="26" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.25" style="26" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="15" style="2" customWidth="1"/>
     <col min="9" max="10" width="15.625" style="2" customWidth="1"/>
     <col min="11" max="12" width="10.625" style="2"/>
     <col min="13" max="13" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.625" style="2"/>
-    <col min="15" max="18" width="10.625" style="2" customWidth="1" outlineLevel="1"/>
-    <col min="19" max="19" width="10.625" style="2"/>
-    <col min="20" max="21" width="10.625" style="2" customWidth="1" outlineLevel="1"/>
-    <col min="22" max="22" width="10.625" style="2"/>
-    <col min="23" max="23" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="17.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="18.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="18.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="29" max="31" width="10.625" style="2"/>
-    <col min="32" max="32" width="15" style="2" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="14.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="34" max="16384" width="10.625" style="2"/>
+    <col min="14" max="14" width="13" style="2" customWidth="1"/>
+    <col min="15" max="15" width="11.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.625" style="2"/>
+    <col min="17" max="20" width="10.625" style="2" customWidth="1" outlineLevel="1"/>
+    <col min="21" max="21" width="13" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="17.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="18.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="29" width="10.625" style="2"/>
+    <col min="30" max="30" width="15" style="2" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="10.625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2013,310 +1858,292 @@
         <v>6</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="H1" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="F1" s="35" t="s">
-        <v>75</v>
-      </c>
-      <c r="G1" s="35" t="s">
-        <v>76</v>
-      </c>
-      <c r="H1" s="36" t="s">
-        <v>77</v>
-      </c>
-      <c r="I1" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="J1" s="36" t="s">
-        <v>79</v>
-      </c>
-      <c r="K1" s="25" t="s">
-        <v>46</v>
+      <c r="J1" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="K1" s="20" t="s">
+        <v>35</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="M1" s="6" t="s">
         <v>7</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>8</v>
+        <v>125</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>9</v>
+        <v>126</v>
       </c>
       <c r="P1" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q1" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="S1" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="T1" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="U1" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="V1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="W1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="R1" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="S1" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="T1" s="19" t="s">
+      <c r="X1" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y1" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="U1" s="19" t="s">
+      <c r="AA1" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="V1" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="W1" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="X1" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y1" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z1" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="AA1" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB1" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="AC1" s="22" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29" ht="99.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:27" ht="99.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
-      <c r="E2" s="33" t="s">
-        <v>98</v>
-      </c>
-      <c r="F2" s="33" t="s">
-        <v>95</v>
-      </c>
-      <c r="G2" s="33" t="s">
+      <c r="E2" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="H2" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="I2" s="33" t="s">
+      <c r="F2" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="G2" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="H2" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="J2" s="33" t="s">
+      <c r="I2" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="J2" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="S2" s="15"/>
+      <c r="T2" s="15"/>
+      <c r="U2" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="V2" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="W2" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="X2" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="20"/>
-      <c r="T2" s="20"/>
-      <c r="U2" s="20"/>
-      <c r="V2" s="28" t="s">
-        <v>130</v>
-      </c>
-      <c r="W2" s="29" t="s">
-        <v>131</v>
-      </c>
-      <c r="X2" s="29" t="s">
-        <v>132</v>
-      </c>
-      <c r="Y2" s="29" t="s">
-        <v>133</v>
-      </c>
-      <c r="Z2" s="29" t="s">
-        <v>135</v>
-      </c>
-      <c r="AA2" s="29" t="s">
-        <v>134</v>
-      </c>
-      <c r="AB2" s="29"/>
-      <c r="AC2" s="23"/>
-    </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="Y2" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z2" s="23"/>
+      <c r="AA2" s="18"/>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="12" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="K3" s="13" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="L3" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="N3" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="O3" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="P3" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q3" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="R3" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="S3" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="T3" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="U3" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="V3" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="W3" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="M3" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="N3" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="O3" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="P3" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q3" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="R3" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="S3" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="T3" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="U3" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="V3" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="W3" s="14" t="s">
-        <v>128</v>
-      </c>
       <c r="X3" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y3" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z3" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA3" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="Y3" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z3" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA3" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB3" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC3" s="24" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" ht="57" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:27" ht="57" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="F4" s="34" t="s">
-        <v>80</v>
-      </c>
-      <c r="G4" s="34" t="s">
-        <v>90</v>
-      </c>
-      <c r="H4" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="I4" s="34" t="s">
-        <v>96</v>
-      </c>
-      <c r="J4" s="34" t="s">
-        <v>92</v>
+        <v>72</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>75</v>
       </c>
       <c r="K4" s="13" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="L4" s="13" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="M4" s="13" t="s">
         <v>7</v>
       </c>
       <c r="N4" s="13" t="s">
-        <v>41</v>
+        <v>129</v>
       </c>
       <c r="O4" s="13" t="s">
-        <v>42</v>
+        <v>130</v>
       </c>
       <c r="P4" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q4" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="R4" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="S4" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="T4" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="U4" s="26" t="s">
-        <v>13</v>
+        <v>8</v>
+      </c>
+      <c r="Q4" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="R4" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="S4" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="T4" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="U4" s="14" t="s">
+        <v>112</v>
       </c>
       <c r="V4" s="14" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="W4" s="14" t="s">
-        <v>129</v>
+        <v>28</v>
       </c>
       <c r="X4" s="14" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="Y4" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="Z4" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="AA4" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB4" s="14"/>
-      <c r="AC4" s="24"/>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+      <c r="Z4" s="14"/>
+      <c r="AA4" s="19"/>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
@@ -2332,118 +2159,110 @@
       <c r="N5" s="13"/>
       <c r="O5" s="13"/>
       <c r="P5" s="13"/>
-      <c r="Q5" s="18"/>
-      <c r="R5" s="18"/>
-      <c r="S5" s="21"/>
-      <c r="T5" s="21"/>
-      <c r="U5" s="21"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="13"/>
+      <c r="S5" s="16"/>
+      <c r="T5" s="16"/>
+      <c r="U5" s="14"/>
       <c r="V5" s="14"/>
       <c r="W5" s="14"/>
       <c r="X5" s="14"/>
       <c r="Y5" s="14"/>
       <c r="Z5" s="14"/>
-      <c r="AA5" s="14"/>
-      <c r="AB5" s="14"/>
-      <c r="AC5" s="24"/>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AA5" s="19"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="12" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="J6" s="12" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="K6" s="13" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="L6" s="13" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="M6" s="13" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="N6" s="13" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="O6" s="13" t="s">
-        <v>45</v>
+        <v>131</v>
       </c>
       <c r="P6" s="13" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="Q6" s="13" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="R6" s="13" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="S6" s="13" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="T6" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="U6" s="13" t="s">
-        <v>57</v>
+        <v>34</v>
+      </c>
+      <c r="U6" s="14" t="s">
+        <v>11</v>
       </c>
       <c r="V6" s="14" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="W6" s="14" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="X6" s="14" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="Y6" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z6" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="AA6" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="AB6" s="14"/>
-      <c r="AC6" s="24"/>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="Z6" s="14"/>
+      <c r="AA6" s="19"/>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="3">
         <v>1001</v>
       </c>
-      <c r="D7" s="30" t="s">
-        <v>118</v>
-      </c>
-      <c r="E7" s="30" t="s">
-        <v>105</v>
+      <c r="D7" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>88</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="G7" s="3">
         <v>0.2</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="I7" s="3">
         <v>0.2</v>
@@ -2461,17 +2280,17 @@
         <v>101</v>
       </c>
       <c r="N7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O7" s="2">
         <v>1</v>
       </c>
       <c r="P7" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="2">
         <v>200</v>
       </c>
-      <c r="Q7" s="2">
-        <v>0</v>
-      </c>
       <c r="R7" s="2">
         <v>0</v>
       </c>
@@ -2496,22 +2315,16 @@
       <c r="Y7" s="2">
         <v>0</v>
       </c>
-      <c r="Z7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="4"/>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AA7" s="4"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="3">
         <v>1002</v>
       </c>
-      <c r="D8" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="E8" s="30"/>
+      <c r="D8" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="24"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
@@ -2527,17 +2340,17 @@
         <v>101</v>
       </c>
       <c r="N8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O8" s="2">
+        <v>1</v>
+      </c>
+      <c r="P8" s="2">
         <v>2</v>
       </c>
-      <c r="P8" s="2">
+      <c r="Q8" s="2">
         <v>200</v>
       </c>
-      <c r="Q8" s="2">
-        <v>0</v>
-      </c>
       <c r="R8" s="2">
         <v>0</v>
       </c>
@@ -2562,22 +2375,16 @@
       <c r="Y8" s="2">
         <v>0</v>
       </c>
-      <c r="Z8" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC8" s="4"/>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AA8" s="4"/>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="3">
         <v>1003</v>
       </c>
-      <c r="D9" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="E9" s="30"/>
+      <c r="D9" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="24"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
@@ -2593,17 +2400,17 @@
         <v>101</v>
       </c>
       <c r="N9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O9" s="2">
+        <v>1</v>
+      </c>
+      <c r="P9" s="2">
         <v>4.5</v>
       </c>
-      <c r="P9" s="2">
+      <c r="Q9" s="2">
         <v>200</v>
       </c>
-      <c r="Q9" s="2">
-        <v>0</v>
-      </c>
       <c r="R9" s="2">
         <v>0</v>
       </c>
@@ -2628,22 +2435,16 @@
       <c r="Y9" s="2">
         <v>0</v>
       </c>
-      <c r="Z9" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC9" s="4"/>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AA9" s="4"/>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="3">
         <v>1004</v>
       </c>
-      <c r="D10" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="E10" s="30"/>
+      <c r="D10" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="24"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
@@ -2659,17 +2460,17 @@
         <v>101</v>
       </c>
       <c r="N10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O10" s="2">
+        <v>1</v>
+      </c>
+      <c r="P10" s="2">
         <v>3</v>
       </c>
-      <c r="P10" s="2">
+      <c r="Q10" s="2">
         <v>200</v>
       </c>
-      <c r="Q10" s="2">
-        <v>0</v>
-      </c>
       <c r="R10" s="2">
         <v>0</v>
       </c>
@@ -2694,32 +2495,26 @@
       <c r="Y10" s="2">
         <v>0</v>
       </c>
-      <c r="Z10" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC10" s="4"/>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AA10" s="4"/>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="3">
         <v>1005</v>
       </c>
-      <c r="D11" s="30" t="s">
-        <v>126</v>
-      </c>
-      <c r="E11" s="30" t="s">
-        <v>125</v>
+      <c r="D11" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="E11" s="24" t="s">
+        <v>108</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="G11" s="2">
         <v>0.2</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="I11" s="2">
         <v>0.2</v>
@@ -2737,17 +2532,17 @@
         <v>101</v>
       </c>
       <c r="N11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O11" s="2">
         <v>1</v>
       </c>
       <c r="P11" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="2">
         <v>200</v>
       </c>
-      <c r="Q11" s="2">
-        <v>0</v>
-      </c>
       <c r="R11" s="2">
         <v>0</v>
       </c>
@@ -2758,36 +2553,30 @@
         <v>0</v>
       </c>
       <c r="U11" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V11" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W11" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X11" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y11" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="2">
-        <v>1</v>
-      </c>
-      <c r="AA11" s="2">
         <v>5</v>
       </c>
-      <c r="AC11" s="4"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AA11" s="4"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="3">
         <v>1007</v>
       </c>
-      <c r="D12" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="E12" s="30"/>
+      <c r="D12" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="24"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
@@ -2803,11 +2592,11 @@
         <v>501</v>
       </c>
       <c r="N12" s="2">
+        <v>0</v>
+      </c>
+      <c r="O12" s="2">
         <v>10001</v>
       </c>
-      <c r="O12" s="2">
-        <v>0</v>
-      </c>
       <c r="P12" s="2">
         <v>0</v>
       </c>
@@ -2824,36 +2613,30 @@
         <v>0</v>
       </c>
       <c r="U12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V12" s="2">
-        <v>2</v>
+        <v>0.1</v>
       </c>
       <c r="W12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X12" s="2">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="Y12" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="2">
-        <v>1</v>
-      </c>
-      <c r="AA12" s="2">
         <v>3</v>
       </c>
-      <c r="AC12" s="4"/>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AA12" s="4"/>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="3">
         <v>1008</v>
       </c>
-      <c r="D13" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="E13" s="30"/>
+      <c r="D13" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="24"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
@@ -2869,11 +2652,11 @@
         <v>501</v>
       </c>
       <c r="N13" s="2">
+        <v>0</v>
+      </c>
+      <c r="O13" s="2">
         <v>10002</v>
       </c>
-      <c r="O13" s="2">
-        <v>0</v>
-      </c>
       <c r="P13" s="2">
         <v>0</v>
       </c>
@@ -2890,36 +2673,30 @@
         <v>0</v>
       </c>
       <c r="U13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V13" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="W13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X13" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Y13" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="2">
-        <v>1</v>
-      </c>
-      <c r="AA13" s="2">
-        <v>1</v>
-      </c>
-      <c r="AC13" s="4"/>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="AA13" s="4"/>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="3">
         <v>1009</v>
       </c>
-      <c r="D14" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="E14" s="30"/>
+      <c r="D14" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" s="24"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
@@ -2934,12 +2711,12 @@
       <c r="M14" s="2">
         <v>501</v>
       </c>
-      <c r="N14" s="27">
+      <c r="N14" s="2">
+        <v>0</v>
+      </c>
+      <c r="O14" s="22">
         <v>21003</v>
       </c>
-      <c r="O14" s="2">
-        <v>0</v>
-      </c>
       <c r="P14" s="2">
         <v>0</v>
       </c>
@@ -2949,43 +2726,37 @@
       <c r="R14" s="2">
         <v>0</v>
       </c>
-      <c r="S14" s="27">
+      <c r="S14" s="2">
         <v>0</v>
       </c>
       <c r="T14" s="2">
         <v>0</v>
       </c>
       <c r="U14" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W14" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X14" s="2">
         <v>1</v>
       </c>
       <c r="Y14" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="2">
-        <v>1</v>
-      </c>
-      <c r="AA14" s="2">
         <v>5</v>
       </c>
-      <c r="AC14" s="4"/>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AA14" s="4"/>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="3">
         <v>1010</v>
       </c>
-      <c r="D15" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="E15" s="30"/>
+      <c r="D15" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="24"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
@@ -3001,17 +2772,17 @@
         <v>201</v>
       </c>
       <c r="N15" s="2">
+        <v>0</v>
+      </c>
+      <c r="O15" s="2">
+        <v>0</v>
+      </c>
+      <c r="P15" s="2">
         <v>1.5</v>
       </c>
-      <c r="O15" s="2">
+      <c r="Q15" s="2">
         <v>200</v>
       </c>
-      <c r="P15" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="2">
-        <v>0</v>
-      </c>
       <c r="R15" s="2">
         <v>0</v>
       </c>
@@ -3022,36 +2793,30 @@
         <v>0</v>
       </c>
       <c r="U15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V15" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="W15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X15" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Y15" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="2">
-        <v>1</v>
-      </c>
-      <c r="AA15" s="2">
         <v>3</v>
       </c>
-      <c r="AC15" s="4"/>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AA15" s="4"/>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C16" s="9">
         <v>1011</v>
       </c>
-      <c r="D16" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="E16" s="30"/>
+      <c r="D16" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="24"/>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
@@ -3066,18 +2831,18 @@
       <c r="M16" s="10">
         <v>203</v>
       </c>
-      <c r="N16" s="10">
+      <c r="N16" s="2">
+        <v>0</v>
+      </c>
+      <c r="O16" s="10">
+        <v>0</v>
+      </c>
+      <c r="P16" s="10">
         <v>0.1</v>
       </c>
-      <c r="O16" s="10">
+      <c r="Q16" s="10">
         <v>200</v>
       </c>
-      <c r="P16" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="10">
-        <v>0</v>
-      </c>
       <c r="R16" s="10">
         <v>0</v>
       </c>
@@ -3088,37 +2853,31 @@
         <v>0</v>
       </c>
       <c r="U16" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V16" s="10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="W16" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X16" s="10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Y16" s="10">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="10">
-        <v>1</v>
-      </c>
-      <c r="AA16" s="10">
         <v>3</v>
       </c>
-      <c r="AB16" s="10"/>
-      <c r="AC16" s="11"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="Z16" s="10"/>
+      <c r="AA16" s="11"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="3">
         <v>1012</v>
       </c>
-      <c r="D17" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="E17" s="30"/>
+      <c r="D17" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" s="24"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
@@ -3134,17 +2893,17 @@
         <v>204</v>
       </c>
       <c r="N17" s="2">
+        <v>0</v>
+      </c>
+      <c r="O17" s="2">
+        <v>0</v>
+      </c>
+      <c r="P17" s="2">
         <v>0.3</v>
       </c>
-      <c r="O17" s="2">
+      <c r="Q17" s="2">
         <v>200</v>
       </c>
-      <c r="P17" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="2">
-        <v>0</v>
-      </c>
       <c r="R17" s="2">
         <v>0</v>
       </c>
@@ -3154,38 +2913,32 @@
       <c r="T17" s="2">
         <v>0</v>
       </c>
-      <c r="U17" s="2">
-        <v>0</v>
+      <c r="U17" s="10">
+        <v>1</v>
       </c>
       <c r="V17" s="10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="W17" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X17" s="10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Y17" s="10">
-        <v>0</v>
-      </c>
-      <c r="Z17" s="10">
-        <v>1</v>
-      </c>
-      <c r="AA17" s="10">
         <v>3</v>
       </c>
-      <c r="AB17" s="10"/>
-      <c r="AC17" s="4"/>
-    </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="Z17" s="10"/>
+      <c r="AA17" s="4"/>
+    </row>
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="3">
         <v>1013</v>
       </c>
-      <c r="D18" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="E18" s="30"/>
+      <c r="D18" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="E18" s="24"/>
       <c r="F18" s="3"/>
       <c r="K18" s="2">
         <v>0</v>
@@ -3197,17 +2950,17 @@
         <v>202</v>
       </c>
       <c r="N18" s="2">
+        <v>0</v>
+      </c>
+      <c r="O18" s="2">
+        <v>0</v>
+      </c>
+      <c r="P18" s="2">
         <v>3</v>
       </c>
-      <c r="O18" s="2">
+      <c r="Q18" s="2">
         <v>500</v>
       </c>
-      <c r="P18" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="2">
-        <v>0</v>
-      </c>
       <c r="R18" s="2">
         <v>0</v>
       </c>
@@ -3218,36 +2971,30 @@
         <v>0</v>
       </c>
       <c r="U18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V18" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="W18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X18" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Y18" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z18" s="2">
-        <v>1</v>
-      </c>
-      <c r="AA18" s="2">
         <v>3</v>
       </c>
-      <c r="AC18" s="4"/>
-    </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AA18" s="4"/>
+    </row>
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="3">
         <v>1015</v>
       </c>
-      <c r="D19" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="E19" s="30"/>
+      <c r="D19" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19" s="24"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
@@ -3263,14 +3010,14 @@
         <v>321</v>
       </c>
       <c r="N19" s="2">
+        <v>0</v>
+      </c>
+      <c r="O19" s="2">
+        <v>0</v>
+      </c>
+      <c r="P19" s="2">
         <v>0.35</v>
       </c>
-      <c r="O19" s="2">
-        <v>0</v>
-      </c>
-      <c r="P19" s="2">
-        <v>0</v>
-      </c>
       <c r="Q19" s="2">
         <v>0</v>
       </c>
@@ -3283,7 +3030,7 @@
       <c r="T19" s="2">
         <v>0</v>
       </c>
-      <c r="U19" s="2">
+      <c r="U19" s="10">
         <v>0</v>
       </c>
       <c r="V19" s="10">
@@ -3298,23 +3045,17 @@
       <c r="Y19" s="10">
         <v>0</v>
       </c>
-      <c r="Z19" s="10">
-        <v>0</v>
-      </c>
-      <c r="AA19" s="10">
-        <v>0</v>
-      </c>
-      <c r="AB19" s="10"/>
-      <c r="AC19" s="4"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="Z19" s="10"/>
+      <c r="AA19" s="4"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="3">
         <v>1016</v>
       </c>
-      <c r="D20" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="E20" s="30"/>
+      <c r="D20" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" s="24"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
@@ -3365,32 +3106,26 @@
       <c r="Y20" s="2">
         <v>0</v>
       </c>
-      <c r="Z20" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA20" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC20" s="4"/>
-    </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AA20" s="4"/>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="3">
         <v>100111</v>
       </c>
-      <c r="D21" s="30" t="s">
-        <v>103</v>
-      </c>
-      <c r="E21" s="30" t="s">
-        <v>105</v>
+      <c r="D21" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="E21" s="24" t="s">
+        <v>88</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="G21" s="3">
         <v>0.2</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="I21" s="3">
         <v>0.2</v>
@@ -3408,17 +3143,17 @@
         <v>101</v>
       </c>
       <c r="N21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O21" s="2">
         <v>1</v>
       </c>
       <c r="P21" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="2">
         <v>200</v>
       </c>
-      <c r="Q21" s="2">
-        <v>0</v>
-      </c>
       <c r="R21" s="2">
         <v>0</v>
       </c>
@@ -3443,22 +3178,16 @@
       <c r="Y21" s="2">
         <v>0</v>
       </c>
-      <c r="Z21" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA21" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC21" s="4"/>
-    </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AA21" s="4"/>
+    </row>
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="3">
         <v>100112</v>
       </c>
-      <c r="D22" s="30" t="s">
-        <v>104</v>
-      </c>
-      <c r="E22" s="30"/>
+      <c r="D22" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="E22" s="24"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
@@ -3474,14 +3203,14 @@
         <v>301</v>
       </c>
       <c r="N22" s="2">
+        <v>0</v>
+      </c>
+      <c r="O22" s="2">
+        <v>0</v>
+      </c>
+      <c r="P22" s="2">
         <v>0.5</v>
       </c>
-      <c r="O22" s="2">
-        <v>0</v>
-      </c>
-      <c r="P22" s="2">
-        <v>0</v>
-      </c>
       <c r="Q22" s="2">
         <v>0</v>
       </c>
@@ -3509,22 +3238,16 @@
       <c r="Y22" s="2">
         <v>0</v>
       </c>
-      <c r="Z22" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA22" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC22" s="4"/>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AA22" s="4"/>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="3">
         <v>100201</v>
       </c>
-      <c r="D23" s="30" t="s">
-        <v>119</v>
-      </c>
-      <c r="E23" s="30"/>
+      <c r="D23" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="E23" s="24"/>
       <c r="F23" s="3"/>
       <c r="K23" s="2">
         <v>0</v>
@@ -3536,14 +3259,14 @@
         <v>101</v>
       </c>
       <c r="N23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O23" s="2">
+        <v>1</v>
+      </c>
+      <c r="P23" s="2">
         <v>0.8</v>
       </c>
-      <c r="P23" s="2">
-        <v>0</v>
-      </c>
       <c r="Q23" s="2">
         <v>0</v>
       </c>
@@ -3571,32 +3294,26 @@
       <c r="Y23" s="2">
         <v>0</v>
       </c>
-      <c r="Z23" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA23" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC23" s="4"/>
-    </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AA23" s="4"/>
+    </row>
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="3">
         <v>200111</v>
       </c>
-      <c r="D24" s="30" t="s">
-        <v>106</v>
-      </c>
-      <c r="E24" s="30" t="s">
-        <v>100</v>
+      <c r="D24" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="E24" s="24" t="s">
+        <v>83</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="G24" s="3">
         <v>0.2</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="I24" s="3">
         <v>0.2</v>
@@ -3612,17 +3329,17 @@
         <v>101</v>
       </c>
       <c r="N24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O24" s="2">
+        <v>1</v>
+      </c>
+      <c r="P24" s="2">
         <v>0.4</v>
       </c>
-      <c r="P24" s="2">
+      <c r="Q24" s="2">
         <v>100</v>
       </c>
-      <c r="Q24" s="2">
-        <v>0</v>
-      </c>
       <c r="R24" s="2">
         <v>0</v>
       </c>
@@ -3647,32 +3364,26 @@
       <c r="Y24" s="2">
         <v>0</v>
       </c>
-      <c r="Z24" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA24" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC24" s="4"/>
-    </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AA24" s="4"/>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="3">
         <v>200121</v>
       </c>
-      <c r="D25" s="30" t="s">
-        <v>107</v>
-      </c>
-      <c r="E25" s="30" t="s">
-        <v>102</v>
+      <c r="D25" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="E25" s="24" t="s">
+        <v>85</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="G25" s="3">
         <v>0.2</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="I25" s="3">
         <v>0.2</v>
@@ -3690,17 +3401,17 @@
         <v>101</v>
       </c>
       <c r="N25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O25" s="2">
+        <v>1</v>
+      </c>
+      <c r="P25" s="2">
         <v>0.6</v>
       </c>
-      <c r="P25" s="2">
+      <c r="Q25" s="2">
         <v>100</v>
       </c>
-      <c r="Q25" s="2">
-        <v>0</v>
-      </c>
       <c r="R25" s="2">
         <v>0</v>
       </c>
@@ -3725,22 +3436,16 @@
       <c r="Y25" s="2">
         <v>0</v>
       </c>
-      <c r="Z25" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA25" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC25" s="4"/>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AA25" s="4"/>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="3">
         <v>200201</v>
       </c>
-      <c r="D26" s="30" t="s">
-        <v>120</v>
-      </c>
-      <c r="E26" s="30"/>
+      <c r="D26" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="E26" s="24"/>
       <c r="F26" s="3"/>
       <c r="K26" s="2">
         <v>0</v>
@@ -3752,14 +3457,14 @@
         <v>101</v>
       </c>
       <c r="N26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O26" s="2">
+        <v>1</v>
+      </c>
+      <c r="P26" s="2">
         <v>0.9</v>
       </c>
-      <c r="P26" s="2">
-        <v>0</v>
-      </c>
       <c r="Q26" s="2">
         <v>0</v>
       </c>
@@ -3787,22 +3492,16 @@
       <c r="Y26" s="2">
         <v>0</v>
       </c>
-      <c r="Z26" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA26" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC26" s="4"/>
-    </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AA26" s="4"/>
+    </row>
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="3">
         <v>200202</v>
       </c>
-      <c r="D27" s="30" t="s">
-        <v>120</v>
-      </c>
-      <c r="E27" s="30"/>
+      <c r="D27" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="E27" s="24"/>
       <c r="F27" s="3"/>
       <c r="K27" s="2">
         <v>0</v>
@@ -3814,14 +3513,14 @@
         <v>101</v>
       </c>
       <c r="N27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O27" s="2">
+        <v>1</v>
+      </c>
+      <c r="P27" s="2">
         <v>0.9</v>
       </c>
-      <c r="P27" s="2">
-        <v>0</v>
-      </c>
       <c r="Q27" s="2">
         <v>0</v>
       </c>
@@ -3849,22 +3548,16 @@
       <c r="Y27" s="2">
         <v>0</v>
       </c>
-      <c r="Z27" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA27" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC27" s="4"/>
-    </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AA27" s="4"/>
+    </row>
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="3">
         <v>200203</v>
       </c>
-      <c r="D28" s="30" t="s">
-        <v>121</v>
-      </c>
-      <c r="E28" s="30"/>
+      <c r="D28" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="E28" s="24"/>
       <c r="F28" s="3"/>
       <c r="K28" s="2">
         <v>0</v>
@@ -3876,14 +3569,14 @@
         <v>101</v>
       </c>
       <c r="N28" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O28" s="2">
+        <v>1</v>
+      </c>
+      <c r="P28" s="2">
         <v>1.2</v>
       </c>
-      <c r="P28" s="2">
-        <v>0</v>
-      </c>
       <c r="Q28" s="2">
         <v>0</v>
       </c>
@@ -3911,22 +3604,16 @@
       <c r="Y28" s="2">
         <v>0</v>
       </c>
-      <c r="Z28" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA28" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC28" s="4"/>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AA28" s="4"/>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="3">
         <v>200301</v>
       </c>
-      <c r="D29" s="30" t="s">
-        <v>122</v>
-      </c>
-      <c r="E29" s="30"/>
+      <c r="D29" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="E29" s="24"/>
       <c r="F29" s="3"/>
       <c r="K29" s="2">
         <v>0</v>
@@ -3938,14 +3625,14 @@
         <v>101</v>
       </c>
       <c r="N29" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O29" s="2">
+        <v>1</v>
+      </c>
+      <c r="P29" s="2">
         <v>0.8</v>
       </c>
-      <c r="P29" s="2">
-        <v>0</v>
-      </c>
       <c r="Q29" s="2">
         <v>0</v>
       </c>
@@ -3973,32 +3660,26 @@
       <c r="Y29" s="2">
         <v>0</v>
       </c>
-      <c r="Z29" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA29" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC29" s="4"/>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AA29" s="4"/>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="3">
         <v>300111</v>
       </c>
-      <c r="D30" s="30" t="s">
-        <v>108</v>
-      </c>
-      <c r="E30" s="30" t="s">
-        <v>109</v>
+      <c r="D30" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="E30" s="24" t="s">
+        <v>92</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="G30" s="3">
         <v>0.2</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="I30" s="3">
         <v>0.2</v>
@@ -4016,17 +3697,17 @@
         <v>101</v>
       </c>
       <c r="N30" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O30" s="2">
         <v>1</v>
       </c>
       <c r="P30" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q30" s="2">
         <v>200</v>
       </c>
-      <c r="Q30" s="2">
-        <v>0</v>
-      </c>
       <c r="R30" s="2">
         <v>0</v>
       </c>
@@ -4051,22 +3732,16 @@
       <c r="Y30" s="2">
         <v>0</v>
       </c>
-      <c r="Z30" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA30" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC30" s="4"/>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AA30" s="4"/>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="3">
         <v>300201</v>
       </c>
-      <c r="D31" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="E31" s="30"/>
+      <c r="D31" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="E31" s="24"/>
       <c r="F31" s="3"/>
       <c r="K31" s="2">
         <v>0</v>
@@ -4078,13 +3753,13 @@
         <v>101</v>
       </c>
       <c r="N31" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O31" s="2">
         <v>1</v>
       </c>
       <c r="P31" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q31" s="2">
         <v>0</v>
@@ -4113,32 +3788,26 @@
       <c r="Y31" s="2">
         <v>0</v>
       </c>
-      <c r="Z31" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA31" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC31" s="4"/>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AA31" s="4"/>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="3">
         <v>400111</v>
       </c>
-      <c r="D32" s="30" t="s">
-        <v>110</v>
-      </c>
-      <c r="E32" s="30" t="s">
-        <v>109</v>
+      <c r="D32" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="E32" s="24" t="s">
+        <v>92</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="G32" s="3">
         <v>0.2</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="I32" s="3">
         <v>0.2</v>
@@ -4154,17 +3823,17 @@
         <v>101</v>
       </c>
       <c r="N32" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O32" s="2">
         <v>1</v>
       </c>
       <c r="P32" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q32" s="2">
         <v>200</v>
       </c>
-      <c r="Q32" s="2">
-        <v>0</v>
-      </c>
       <c r="R32" s="2">
         <v>0</v>
       </c>
@@ -4189,32 +3858,26 @@
       <c r="Y32" s="2">
         <v>0</v>
       </c>
-      <c r="Z32" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA32" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC32" s="4"/>
-    </row>
-    <row r="33" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AA32" s="4"/>
+    </row>
+    <row r="33" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C33" s="3">
         <v>500111</v>
       </c>
-      <c r="D33" s="30" t="s">
-        <v>111</v>
-      </c>
-      <c r="E33" s="30" t="s">
-        <v>105</v>
+      <c r="D33" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="E33" s="24" t="s">
+        <v>88</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="G33" s="3">
         <v>0.2</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="I33" s="3">
         <v>0.2</v>
@@ -4232,17 +3895,17 @@
         <v>101</v>
       </c>
       <c r="N33" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O33" s="2">
         <v>1</v>
       </c>
       <c r="P33" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q33" s="2">
         <v>200</v>
       </c>
-      <c r="Q33" s="2">
-        <v>0</v>
-      </c>
       <c r="R33" s="2">
         <v>0</v>
       </c>
@@ -4267,32 +3930,26 @@
       <c r="Y33" s="2">
         <v>0</v>
       </c>
-      <c r="Z33" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA33" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC33" s="4"/>
-    </row>
-    <row r="34" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AA33" s="4"/>
+    </row>
+    <row r="34" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C34" s="3">
         <v>600111</v>
       </c>
-      <c r="D34" s="30" t="s">
-        <v>112</v>
-      </c>
-      <c r="E34" s="30" t="s">
-        <v>105</v>
+      <c r="D34" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="E34" s="24" t="s">
+        <v>88</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="G34" s="3">
         <v>0.2</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="I34" s="3">
         <v>0.2</v>
@@ -4310,17 +3967,17 @@
         <v>101</v>
       </c>
       <c r="N34" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O34" s="2">
         <v>1</v>
       </c>
       <c r="P34" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q34" s="2">
         <v>200</v>
       </c>
-      <c r="Q34" s="2">
-        <v>0</v>
-      </c>
       <c r="R34" s="2">
         <v>0</v>
       </c>
@@ -4345,32 +4002,26 @@
       <c r="Y34" s="2">
         <v>0</v>
       </c>
-      <c r="Z34" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA34" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC34" s="4"/>
-    </row>
-    <row r="35" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AA34" s="4"/>
+    </row>
+    <row r="35" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C35" s="3">
         <v>800111</v>
       </c>
-      <c r="D35" s="30" t="s">
-        <v>113</v>
-      </c>
-      <c r="E35" s="30" t="s">
-        <v>115</v>
+      <c r="D35" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="E35" s="24" t="s">
+        <v>98</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="G35" s="3">
         <v>0.2</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="I35" s="3">
         <v>0.2</v>
@@ -4388,17 +4039,17 @@
         <v>101</v>
       </c>
       <c r="N35" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O35" s="2">
         <v>1</v>
       </c>
       <c r="P35" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q35" s="2">
         <v>200</v>
       </c>
-      <c r="Q35" s="2">
-        <v>0</v>
-      </c>
       <c r="R35" s="2">
         <v>0</v>
       </c>
@@ -4423,22 +4074,16 @@
       <c r="Y35" s="2">
         <v>0</v>
       </c>
-      <c r="Z35" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA35" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC35" s="4"/>
-    </row>
-    <row r="36" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AA35" s="4"/>
+    </row>
+    <row r="36" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C36" s="3">
         <v>800112</v>
       </c>
-      <c r="D36" s="30" t="s">
-        <v>114</v>
-      </c>
-      <c r="E36" s="30"/>
+      <c r="D36" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="E36" s="24"/>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
@@ -4454,14 +4099,14 @@
         <v>311</v>
       </c>
       <c r="N36" s="2">
+        <v>0</v>
+      </c>
+      <c r="O36" s="2">
+        <v>0</v>
+      </c>
+      <c r="P36" s="2">
         <v>0.35</v>
       </c>
-      <c r="O36" s="2">
-        <v>0</v>
-      </c>
-      <c r="P36" s="2">
-        <v>0</v>
-      </c>
       <c r="Q36" s="2">
         <v>0</v>
       </c>
@@ -4489,32 +4134,26 @@
       <c r="Y36" s="2">
         <v>0</v>
       </c>
-      <c r="Z36" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA36" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC36" s="4"/>
-    </row>
-    <row r="37" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AA36" s="4"/>
+    </row>
+    <row r="37" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C37" s="3">
         <v>900111</v>
       </c>
-      <c r="D37" s="30" t="s">
-        <v>116</v>
-      </c>
-      <c r="E37" s="30" t="s">
-        <v>109</v>
+      <c r="D37" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="E37" s="24" t="s">
+        <v>92</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="G37" s="3">
         <v>0.2</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="I37" s="3">
         <v>0.2</v>
@@ -4532,17 +4171,17 @@
         <v>101</v>
       </c>
       <c r="N37" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O37" s="2">
         <v>1</v>
       </c>
       <c r="P37" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q37" s="2">
         <v>200</v>
       </c>
-      <c r="Q37" s="2">
-        <v>0</v>
-      </c>
       <c r="R37" s="2">
         <v>0</v>
       </c>
@@ -4567,51 +4206,45 @@
       <c r="Y37" s="2">
         <v>0</v>
       </c>
-      <c r="Z37" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA37" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC37" s="4"/>
-    </row>
-    <row r="38" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AA37" s="4"/>
+    </row>
+    <row r="38" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C38" s="3"/>
-      <c r="D38" s="30"/>
-      <c r="E38" s="30"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="24"/>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
-      <c r="AC38" s="4"/>
-    </row>
-    <row r="39" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AA38" s="4"/>
+    </row>
+    <row r="39" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C39" s="3"/>
-      <c r="D39" s="30"/>
-      <c r="E39" s="30"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="24"/>
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
-      <c r="AC39" s="4"/>
-    </row>
-    <row r="40" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AA39" s="4"/>
+    </row>
+    <row r="40" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C40" s="3"/>
-      <c r="D40" s="30"/>
-      <c r="E40" s="30"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="24"/>
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
-      <c r="AC40" s="4"/>
-    </row>
-    <row r="41" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AA40" s="4"/>
+    </row>
+    <row r="41" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C41" s="9"/>
-      <c r="D41" s="31"/>
-      <c r="E41" s="31"/>
+      <c r="D41" s="25"/>
+      <c r="E41" s="25"/>
       <c r="F41" s="9"/>
       <c r="G41" s="9"/>
       <c r="H41" s="9"/>
@@ -4633,80 +4266,78 @@
       <c r="X41" s="10"/>
       <c r="Y41" s="10"/>
       <c r="Z41" s="10"/>
-      <c r="AA41" s="10"/>
-      <c r="AB41" s="10"/>
-      <c r="AC41" s="11"/>
-    </row>
-    <row r="42" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AA41" s="11"/>
+    </row>
+    <row r="42" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C42" s="3"/>
-      <c r="D42" s="30"/>
-      <c r="E42" s="30"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="24"/>
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
       <c r="J42" s="3"/>
-      <c r="AG42" s="4"/>
-    </row>
-    <row r="43" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AE42" s="4"/>
+    </row>
+    <row r="43" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C43" s="3"/>
-      <c r="D43" s="30"/>
-      <c r="E43" s="30"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="24"/>
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
-      <c r="AG43" s="4"/>
-    </row>
-    <row r="44" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AE43" s="4"/>
+    </row>
+    <row r="44" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C44" s="3"/>
-      <c r="D44" s="30"/>
-      <c r="E44" s="30"/>
+      <c r="D44" s="24"/>
+      <c r="E44" s="24"/>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
       <c r="J44" s="3"/>
-      <c r="AG44" s="4"/>
-    </row>
-    <row r="45" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AE44" s="4"/>
+    </row>
+    <row r="45" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C45" s="3"/>
-      <c r="D45" s="30"/>
-      <c r="E45" s="30"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="24"/>
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
       <c r="J45" s="3"/>
-      <c r="AG45" s="4"/>
-    </row>
-    <row r="46" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AE45" s="4"/>
+    </row>
+    <row r="46" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C46" s="3"/>
-      <c r="D46" s="30"/>
-      <c r="E46" s="30"/>
+      <c r="D46" s="24"/>
+      <c r="E46" s="24"/>
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
       <c r="J46" s="3"/>
-      <c r="AG46" s="4"/>
-    </row>
-    <row r="47" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AE46" s="4"/>
+    </row>
+    <row r="47" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C47" s="3"/>
-      <c r="D47" s="30"/>
-      <c r="E47" s="30"/>
+      <c r="D47" s="24"/>
+      <c r="E47" s="24"/>
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
       <c r="I47" s="3"/>
       <c r="J47" s="3"/>
-      <c r="AG47" s="4"/>
-    </row>
-    <row r="48" spans="3:33" x14ac:dyDescent="0.2">
+      <c r="AE47" s="4"/>
+    </row>
+    <row r="48" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C48" s="9"/>
-      <c r="D48" s="31"/>
-      <c r="E48" s="31"/>
+      <c r="D48" s="25"/>
+      <c r="E48" s="25"/>
       <c r="F48" s="9"/>
       <c r="G48" s="9"/>
       <c r="H48" s="9"/>
@@ -4732,9 +4363,7 @@
       <c r="AB48" s="10"/>
       <c r="AC48" s="10"/>
       <c r="AD48" s="10"/>
-      <c r="AE48" s="10"/>
-      <c r="AF48" s="10"/>
-      <c r="AG48" s="11"/>
+      <c r="AE48" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/config/excel/SkillEffect.xlsx
+++ b/config/excel/SkillEffect.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EastEden\excel\trunk\global\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4675C80F-6944-4055-B074-542403856D8A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61276301-2BAF-4137-9DE7-3A86413E0B27}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{F8201646-FABF-4E69-8183-59CBA5E31C57}">
+    <comment ref="V1" authorId="0" shapeId="0" xr:uid="{F8201646-FABF-4E69-8183-59CBA5E31C57}">
       <text>
         <r>
           <rPr>
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="133">
   <si>
     <t>行列头两行不会被读取</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -118,10 +118,6 @@
   </si>
   <si>
     <t>效果类型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数3</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -150,19 +146,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>参数4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>作用对象
 修正</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>参数5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>prob</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -251,26 +239,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>parameterA</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>parameterB</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>parameterC</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>parameterD</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>parameterE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>备注</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -308,17 +276,6 @@
   </si>
   <si>
     <t>测试-拉条效果-COM提升35%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>101-伤害
-201-治疗根据施法者
-202-治疗根据目标
-301-打断
-311-打退
-321-拉条
-401-聚集
-501-加buff</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -627,53 +584,105 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>计算参数3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算参数5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算参数4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算参数6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算参数7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符串参数</t>
+  </si>
+  <si>
+    <t>Iint类型参数</t>
+  </si>
+  <si>
+    <t>101-伤害
+201-治疗根据施法者
+202-治疗根据目标
+301-打断
+311-打退
+321-拉条
+401-聚集
+501-加buff
+601</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>parameterNumber</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[]number</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[]int32</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Iint类型参数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>parameterInt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>parameterString</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[]string</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>number
+类型参数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Number
+类型参数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数5</t>
+  </si>
+  <si>
     <t>参数6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>参数7</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>计算参数3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>计算参数5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>计算参数4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>计算参数6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>计算参数7</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>字符串参数</t>
-  </si>
-  <si>
-    <t>Iint类型参数</t>
-  </si>
-  <si>
-    <t>parameterString</t>
-  </si>
-  <si>
-    <t>parameterInt</t>
-  </si>
-  <si>
-    <t>参数1</t>
-  </si>
-  <si>
-    <t>参数2</t>
-  </si>
-  <si>
-    <t>int32</t>
   </si>
 </sst>
 </file>
@@ -906,7 +915,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -968,9 +977,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1001,11 +1007,42 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="30">
+  <dxfs count="31">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -1517,34 +1554,35 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7D756641-FA44-4C98-8415-A8A9AF7B3072}" name="表1" displayName="表1" ref="C1:AA41" totalsRowShown="0" headerRowDxfId="29" dataDxfId="27" headerRowBorderDxfId="28" tableBorderDxfId="26" totalsRowBorderDxfId="25">
-  <autoFilter ref="C1:AA41" xr:uid="{8CC84E60-2DCE-4F71-9796-17451FB14116}"/>
-  <tableColumns count="25">
-    <tableColumn id="1" xr3:uid="{B117A20D-488D-4BBE-9938-B9ED8BC64C7F}" name="效果ID" dataDxfId="24"/>
-    <tableColumn id="24" xr3:uid="{92A314CE-7C79-4335-AE0F-C9FE3BC3E616}" name="备注" dataDxfId="23"/>
-    <tableColumn id="27" xr3:uid="{4E6B823F-ED87-44FA-BC7E-DD0D3DA9A874}" name="被击特效" dataDxfId="22"/>
-    <tableColumn id="28" xr3:uid="{D63A8DD5-C7D8-45FF-9168-E24BB73D8D0A}" name="被击插槽ID" dataDxfId="21"/>
-    <tableColumn id="30" xr3:uid="{1297421F-FF12-438C-935D-1AC9E4808D57}" name="被击停帧" dataDxfId="20"/>
-    <tableColumn id="31" xr3:uid="{E7D77817-54E1-4457-BAF0-110C08D2391F}" name="受伤被击动作" dataDxfId="19"/>
-    <tableColumn id="32" xr3:uid="{D94B756E-3130-40BB-8956-BFC62C751F3A}" name="受伤状态持续时间" dataDxfId="18"/>
-    <tableColumn id="33" xr3:uid="{39EDA7F4-741B-4F88-9EF2-5A0E93E8B1CC}" name="受伤击退距离" dataDxfId="17"/>
-    <tableColumn id="20" xr3:uid="{0D040897-96A3-4655-AF1A-867F46D315D6}" name="是否判定_x000a_效果命中" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{9E34CFDB-9FDC-4344-99F0-5F3D0E7E5723}" name="触发概率" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{74D1A4E2-93B1-4E13-8C07-A6CD771CBAD7}" name="效果类型" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{DC8B6D94-8726-43D4-A029-E8E8A9A5C65C}" name="字符串参数" dataDxfId="13"/>
-    <tableColumn id="22" xr3:uid="{29BCF34F-66C2-415F-BAA8-645091FE392A}" name="Iint类型参数" dataDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{E5C762F0-7690-49F1-83D9-D7133665E63B}" name="计算参数3" dataDxfId="11"/>
-    <tableColumn id="6" xr3:uid="{1C2FBB75-F754-40DD-AC47-C4E07D15EE88}" name="计算参数4" dataDxfId="10"/>
-    <tableColumn id="7" xr3:uid="{97A86C1D-0720-4DA9-A230-2B854C94703B}" name="计算参数5" dataDxfId="9"/>
-    <tableColumn id="8" xr3:uid="{74F52534-73B3-4964-B3F1-04920040D1CE}" name="计算参数6" dataDxfId="8"/>
-    <tableColumn id="9" xr3:uid="{FE519A61-3D62-437A-A54A-1541FAC9F66D}" name="计算参数7" dataDxfId="7"/>
-    <tableColumn id="21" xr3:uid="{D185F1A5-6935-4E48-8FB7-B4F1AF76ECCB}" name="技能_x000a_发起类型" dataDxfId="6"/>
-    <tableColumn id="15" xr3:uid="{C74C0B95-5EB8-4479-A7E2-68D10B94811D}" name="目标范围长_x000a_修正" dataDxfId="5"/>
-    <tableColumn id="16" xr3:uid="{E31385C7-BC45-441B-9178-9CC7166A03D1}" name="目标范围宽_x000a_修正" dataDxfId="4"/>
-    <tableColumn id="13" xr3:uid="{51863B83-9A04-4C6C-9571-2A85C7B2D4B9}" name="主目标_x000a_范围类型修正2" dataDxfId="3"/>
-    <tableColumn id="17" xr3:uid="{3E38260C-64DD-4667-802F-14F78FD59DE2}" name="作用对象_x000a_修正" dataDxfId="2"/>
-    <tableColumn id="18" xr3:uid="{E338C7D2-80D7-45C8-AA21-14A3A2EE0424}" name="触发时机" dataDxfId="1"/>
-    <tableColumn id="19" xr3:uid="{E4169552-9707-4822-A6FC-78CFA23DEE16}" name="触发条件" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7D756641-FA44-4C98-8415-A8A9AF7B3072}" name="表1" displayName="表1" ref="C1:AB38" totalsRowShown="0" headerRowDxfId="30" dataDxfId="28" headerRowBorderDxfId="29" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+  <autoFilter ref="C1:AB38" xr:uid="{8CC84E60-2DCE-4F71-9796-17451FB14116}"/>
+  <tableColumns count="26">
+    <tableColumn id="1" xr3:uid="{B117A20D-488D-4BBE-9938-B9ED8BC64C7F}" name="效果ID" dataDxfId="25"/>
+    <tableColumn id="24" xr3:uid="{92A314CE-7C79-4335-AE0F-C9FE3BC3E616}" name="备注" dataDxfId="24"/>
+    <tableColumn id="27" xr3:uid="{4E6B823F-ED87-44FA-BC7E-DD0D3DA9A874}" name="被击特效" dataDxfId="23"/>
+    <tableColumn id="28" xr3:uid="{D63A8DD5-C7D8-45FF-9168-E24BB73D8D0A}" name="被击插槽ID" dataDxfId="22"/>
+    <tableColumn id="30" xr3:uid="{1297421F-FF12-438C-935D-1AC9E4808D57}" name="被击停帧" dataDxfId="21"/>
+    <tableColumn id="31" xr3:uid="{E7D77817-54E1-4457-BAF0-110C08D2391F}" name="受伤被击动作" dataDxfId="20"/>
+    <tableColumn id="32" xr3:uid="{D94B756E-3130-40BB-8956-BFC62C751F3A}" name="受伤状态持续时间" dataDxfId="19"/>
+    <tableColumn id="33" xr3:uid="{39EDA7F4-741B-4F88-9EF2-5A0E93E8B1CC}" name="受伤击退距离" dataDxfId="18"/>
+    <tableColumn id="20" xr3:uid="{0D040897-96A3-4655-AF1A-867F46D315D6}" name="是否判定_x000a_效果命中" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{9E34CFDB-9FDC-4344-99F0-5F3D0E7E5723}" name="触发概率" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{74D1A4E2-93B1-4E13-8C07-A6CD771CBAD7}" name="效果类型" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{DC8B6D94-8726-43D4-A029-E8E8A9A5C65C}" name="字符串参数" dataDxfId="14"/>
+    <tableColumn id="22" xr3:uid="{29BCF34F-66C2-415F-BAA8-645091FE392A}" name="Iint类型参数" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{E5C762F0-7690-49F1-83D9-D7133665E63B}" name="计算参数3" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{1C2FBB75-F754-40DD-AC47-C4E07D15EE88}" name="计算参数4" dataDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{97A86C1D-0720-4DA9-A230-2B854C94703B}" name="计算参数5" dataDxfId="10"/>
+    <tableColumn id="8" xr3:uid="{74F52534-73B3-4964-B3F1-04920040D1CE}" name="计算参数6" dataDxfId="9"/>
+    <tableColumn id="9" xr3:uid="{FE519A61-3D62-437A-A54A-1541FAC9F66D}" name="计算参数7" dataDxfId="8"/>
+    <tableColumn id="11" xr3:uid="{0FFF56E0-BE11-456F-A06F-A3C521BA9873}" name="number_x000a_类型参数" dataDxfId="0"/>
+    <tableColumn id="21" xr3:uid="{D185F1A5-6935-4E48-8FB7-B4F1AF76ECCB}" name="技能_x000a_发起类型" dataDxfId="7"/>
+    <tableColumn id="15" xr3:uid="{C74C0B95-5EB8-4479-A7E2-68D10B94811D}" name="目标范围长_x000a_修正" dataDxfId="6"/>
+    <tableColumn id="16" xr3:uid="{E31385C7-BC45-441B-9178-9CC7166A03D1}" name="目标范围宽_x000a_修正" dataDxfId="5"/>
+    <tableColumn id="13" xr3:uid="{51863B83-9A04-4C6C-9571-2A85C7B2D4B9}" name="主目标_x000a_范围类型修正2" dataDxfId="4"/>
+    <tableColumn id="17" xr3:uid="{3E38260C-64DD-4667-802F-14F78FD59DE2}" name="作用对象_x000a_修正" dataDxfId="3"/>
+    <tableColumn id="18" xr3:uid="{E338C7D2-80D7-45C8-AA21-14A3A2EE0424}" name="触发时机" dataDxfId="2"/>
+    <tableColumn id="19" xr3:uid="{E4169552-9707-4822-A6FC-78CFA23DEE16}" name="触发条件" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1813,41 +1851,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE48"/>
+  <dimension ref="A1:AF44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="6" topLeftCell="E7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="6" topLeftCell="K7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="L21" sqref="L21"/>
+      <selection pane="bottomRight" activeCell="T4" sqref="T4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="14.25" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="3" width="10.625" style="2"/>
-    <col min="4" max="4" width="21.5" style="26" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.25" style="26" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5" style="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.25" style="25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="15" style="2" customWidth="1"/>
     <col min="9" max="10" width="15.625" style="2" customWidth="1"/>
     <col min="11" max="12" width="10.625" style="2"/>
     <col min="13" max="13" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13" style="2" customWidth="1"/>
-    <col min="15" max="15" width="11.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.625" style="2"/>
-    <col min="17" max="20" width="10.625" style="2" customWidth="1" outlineLevel="1"/>
-    <col min="21" max="21" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="17.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="18.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="29" width="10.625" style="2"/>
-    <col min="30" max="30" width="15" style="2" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="14.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="10.625" style="2"/>
+    <col min="14" max="15" width="12.625" style="2" customWidth="1"/>
+    <col min="16" max="20" width="10.625" style="2" customWidth="1" outlineLevel="1"/>
+    <col min="21" max="21" width="17.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="17.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="18.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="30" width="10.625" style="2"/>
+    <col min="31" max="31" width="15" style="2" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="10.625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1858,292 +1895,292 @@
         <v>6</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E1" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="F1" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G1" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="H1" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="I1" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="J1" s="30" t="s">
-        <v>62</v>
+        <v>36</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="J1" s="29" t="s">
+        <v>53</v>
       </c>
       <c r="K1" s="20" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M1" s="6" t="s">
         <v>7</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="P1" s="6" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="R1" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="S1" s="31" t="s">
-        <v>123</v>
-      </c>
-      <c r="T1" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="S1" s="30" t="s">
+        <v>112</v>
+      </c>
+      <c r="T1" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="U1" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="U1" s="8" t="s">
-        <v>33</v>
-      </c>
       <c r="V1" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="W1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="X1" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y1" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="W1" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="X1" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="Y1" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z1" s="8" t="s">
+      <c r="AA1" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB1" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="AA1" s="17" t="s">
-        <v>13</v>
-      </c>
     </row>
-    <row r="2" spans="1:27" ht="99.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28" ht="99.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
-      <c r="E2" s="27" t="s">
-        <v>81</v>
-      </c>
-      <c r="F2" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="G2" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="H2" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="I2" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="J2" s="27" t="s">
-        <v>100</v>
+      <c r="E2" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="G2" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="I2" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="J2" s="26" t="s">
+        <v>91</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>54</v>
+        <v>116</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="S2" s="15"/>
       <c r="T2" s="15"/>
-      <c r="U2" s="23" t="s">
-        <v>113</v>
-      </c>
-      <c r="V2" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="W2" s="23" t="s">
-        <v>115</v>
-      </c>
-      <c r="X2" s="23" t="s">
-        <v>117</v>
-      </c>
-      <c r="Y2" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="Z2" s="23"/>
-      <c r="AA2" s="18"/>
+      <c r="U2" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="V2" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="W2" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="X2" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y2" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z2" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA2" s="22"/>
+      <c r="AB2" s="18"/>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="12" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="K3" s="13" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="L3" s="13" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="M3" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="N3" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="O3" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="13"/>
+      <c r="T3" s="13"/>
+      <c r="U3" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="V3" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="W3" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="N3" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="O3" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="P3" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q3" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="R3" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="S3" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="T3" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="U3" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="V3" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="W3" s="14" t="s">
-        <v>24</v>
-      </c>
       <c r="X3" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y3" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z3" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="Y3" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z3" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA3" s="19" t="s">
-        <v>30</v>
+      <c r="AA3" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB3" s="19" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="57" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:28" ht="57" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="F4" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="G4" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="H4" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="I4" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="J4" s="28" t="s">
-        <v>75</v>
+      <c r="F4" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="H4" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="I4" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="J4" s="27" t="s">
+        <v>66</v>
       </c>
       <c r="K4" s="13" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="L4" s="13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M4" s="13" t="s">
         <v>7</v>
       </c>
       <c r="N4" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="O4" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="P4" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q4" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="O4" s="13" t="s">
+      <c r="R4" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="P4" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q4" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="R4" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="S4" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="T4" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="U4" s="14" t="s">
-        <v>112</v>
-      </c>
+      <c r="S4" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="T4" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="U4" s="31"/>
       <c r="V4" s="14" t="s">
-        <v>27</v>
+        <v>103</v>
       </c>
       <c r="W4" s="14" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="X4" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y4" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z4" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="Y4" s="14" t="s">
+      <c r="AA4" s="14"/>
+      <c r="AB4" s="19"/>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="Z4" s="14"/>
-      <c r="AA4" s="19"/>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B5" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
@@ -2163,106 +2200,100 @@
       <c r="R5" s="13"/>
       <c r="S5" s="16"/>
       <c r="T5" s="16"/>
-      <c r="U5" s="14"/>
+      <c r="U5" s="32"/>
       <c r="V5" s="14"/>
       <c r="W5" s="14"/>
       <c r="X5" s="14"/>
       <c r="Y5" s="14"/>
       <c r="Z5" s="14"/>
-      <c r="AA5" s="19"/>
+      <c r="AA5" s="14"/>
+      <c r="AB5" s="19"/>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="12" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="J6" s="12" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="K6" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L6" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M6" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N6" s="13" t="s">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="O6" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="P6" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q6" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="R6" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="S6" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="T6" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="U6" s="14" t="s">
-        <v>11</v>
+        <v>119</v>
+      </c>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="13"/>
+      <c r="T6" s="13"/>
+      <c r="U6" s="13" t="s">
+        <v>118</v>
       </c>
       <c r="V6" s="14" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="W6" s="14" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="X6" s="14" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="Y6" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z6" s="14"/>
-      <c r="AA6" s="19"/>
+        <v>10</v>
+      </c>
+      <c r="Z6" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA6" s="14"/>
+      <c r="AB6" s="19"/>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="3">
         <v>1001</v>
       </c>
-      <c r="D7" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="E7" s="24" t="s">
-        <v>88</v>
+      <c r="D7" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>79</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G7" s="3">
         <v>0.2</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="I7" s="3">
         <v>0.2</v>
@@ -2300,8 +2331,9 @@
       <c r="T7" s="2">
         <v>0</v>
       </c>
-      <c r="U7" s="2">
-        <v>0</v>
+      <c r="U7" s="2" t="str">
+        <f>P7&amp;","&amp;Q7&amp;","&amp;R7&amp;","&amp;S7&amp;","&amp;T7</f>
+        <v>1,200,0,0,0</v>
       </c>
       <c r="V7" s="2">
         <v>0</v>
@@ -2315,16 +2347,19 @@
       <c r="Y7" s="2">
         <v>0</v>
       </c>
-      <c r="AA7" s="4"/>
+      <c r="Z7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="4"/>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="3">
         <v>1002</v>
       </c>
-      <c r="D8" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="E8" s="24"/>
+      <c r="D8" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="23"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
@@ -2360,8 +2395,9 @@
       <c r="T8" s="2">
         <v>0</v>
       </c>
-      <c r="U8" s="2">
-        <v>0</v>
+      <c r="U8" s="2" t="str">
+        <f t="shared" ref="U8:U38" si="0">P8&amp;","&amp;Q8&amp;","&amp;R8&amp;","&amp;S8&amp;","&amp;T8</f>
+        <v>2,200,0,0,0</v>
       </c>
       <c r="V8" s="2">
         <v>0</v>
@@ -2375,16 +2411,19 @@
       <c r="Y8" s="2">
         <v>0</v>
       </c>
-      <c r="AA8" s="4"/>
+      <c r="Z8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="4"/>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="3">
         <v>1003</v>
       </c>
-      <c r="D9" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="E9" s="24"/>
+      <c r="D9" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="23"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
@@ -2420,8 +2459,9 @@
       <c r="T9" s="2">
         <v>0</v>
       </c>
-      <c r="U9" s="2">
-        <v>0</v>
+      <c r="U9" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>4.5,200,0,0,0</v>
       </c>
       <c r="V9" s="2">
         <v>0</v>
@@ -2435,16 +2475,19 @@
       <c r="Y9" s="2">
         <v>0</v>
       </c>
-      <c r="AA9" s="4"/>
+      <c r="Z9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="4"/>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="3">
         <v>1004</v>
       </c>
-      <c r="D10" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="E10" s="24"/>
+      <c r="D10" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="23"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
@@ -2480,8 +2523,9 @@
       <c r="T10" s="2">
         <v>0</v>
       </c>
-      <c r="U10" s="2">
-        <v>0</v>
+      <c r="U10" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>3,200,0,0,0</v>
       </c>
       <c r="V10" s="2">
         <v>0</v>
@@ -2495,26 +2539,29 @@
       <c r="Y10" s="2">
         <v>0</v>
       </c>
-      <c r="AA10" s="4"/>
+      <c r="Z10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="4"/>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="3">
         <v>1005</v>
       </c>
-      <c r="D11" s="24" t="s">
-        <v>109</v>
-      </c>
-      <c r="E11" s="24" t="s">
-        <v>108</v>
+      <c r="D11" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>99</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G11" s="2">
         <v>0.2</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="I11" s="2">
         <v>0.2</v>
@@ -2552,31 +2599,35 @@
       <c r="T11" s="2">
         <v>0</v>
       </c>
-      <c r="U11" s="2">
-        <v>2</v>
+      <c r="U11" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>1,200,0,0,0</v>
       </c>
       <c r="V11" s="2">
         <v>2</v>
       </c>
       <c r="W11" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y11" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z11" s="2">
         <v>5</v>
       </c>
-      <c r="AA11" s="4"/>
+      <c r="AB11" s="4"/>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="3">
         <v>1007</v>
       </c>
-      <c r="D12" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12" s="24"/>
+      <c r="D12" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="23"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
@@ -2612,31 +2663,35 @@
       <c r="T12" s="2">
         <v>0</v>
       </c>
-      <c r="U12" s="2">
-        <v>1</v>
+      <c r="U12" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0,0,0,0,0</v>
       </c>
       <c r="V12" s="2">
+        <v>1</v>
+      </c>
+      <c r="W12" s="2">
         <v>0.1</v>
       </c>
-      <c r="W12" s="2">
-        <v>0</v>
-      </c>
       <c r="X12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y12" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z12" s="2">
         <v>3</v>
       </c>
-      <c r="AA12" s="4"/>
+      <c r="AB12" s="4"/>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="3">
         <v>1008</v>
       </c>
-      <c r="D13" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="E13" s="24"/>
+      <c r="D13" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="23"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
@@ -2672,31 +2727,35 @@
       <c r="T13" s="2">
         <v>0</v>
       </c>
-      <c r="U13" s="2">
-        <v>1</v>
+      <c r="U13" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0,0,0,0,0</v>
       </c>
       <c r="V13" s="2">
+        <v>1</v>
+      </c>
+      <c r="W13" s="2">
         <v>5</v>
       </c>
-      <c r="W13" s="2">
-        <v>0</v>
-      </c>
       <c r="X13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y13" s="2">
         <v>1</v>
       </c>
-      <c r="AA13" s="4"/>
+      <c r="Z13" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB13" s="4"/>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="3">
         <v>1009</v>
       </c>
-      <c r="D14" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="E14" s="24"/>
+      <c r="D14" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="23"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
@@ -2714,7 +2773,7 @@
       <c r="N14" s="2">
         <v>0</v>
       </c>
-      <c r="O14" s="22">
+      <c r="O14" s="21">
         <v>21003</v>
       </c>
       <c r="P14" s="2">
@@ -2732,31 +2791,35 @@
       <c r="T14" s="2">
         <v>0</v>
       </c>
-      <c r="U14" s="2">
+      <c r="U14" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0,0,0,0,0</v>
+      </c>
+      <c r="V14" s="2">
         <v>2</v>
       </c>
-      <c r="V14" s="2">
-        <v>1</v>
-      </c>
       <c r="W14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y14" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z14" s="2">
         <v>5</v>
       </c>
-      <c r="AA14" s="4"/>
+      <c r="AB14" s="4"/>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="3">
         <v>1010</v>
       </c>
-      <c r="D15" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="E15" s="24"/>
+      <c r="D15" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="23"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
@@ -2792,31 +2855,35 @@
       <c r="T15" s="2">
         <v>0</v>
       </c>
-      <c r="U15" s="2">
-        <v>1</v>
+      <c r="U15" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>1.5,200,0,0,0</v>
       </c>
       <c r="V15" s="2">
+        <v>1</v>
+      </c>
+      <c r="W15" s="2">
         <v>5</v>
       </c>
-      <c r="W15" s="2">
-        <v>0</v>
-      </c>
       <c r="X15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y15" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z15" s="2">
         <v>3</v>
       </c>
-      <c r="AA15" s="4"/>
+      <c r="AB15" s="4"/>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C16" s="9">
         <v>1011</v>
       </c>
-      <c r="D16" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="E16" s="24"/>
+      <c r="D16" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="23"/>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
@@ -2852,32 +2919,36 @@
       <c r="T16" s="10">
         <v>0</v>
       </c>
-      <c r="U16" s="10">
-        <v>1</v>
+      <c r="U16" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0.1,200,0,0,0</v>
       </c>
       <c r="V16" s="10">
+        <v>1</v>
+      </c>
+      <c r="W16" s="10">
         <v>5</v>
       </c>
-      <c r="W16" s="10">
-        <v>0</v>
-      </c>
       <c r="X16" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y16" s="10">
+        <v>1</v>
+      </c>
+      <c r="Z16" s="10">
         <v>3</v>
       </c>
-      <c r="Z16" s="10"/>
-      <c r="AA16" s="11"/>
+      <c r="AA16" s="10"/>
+      <c r="AB16" s="11"/>
     </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="3">
         <v>1012</v>
       </c>
-      <c r="D17" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="E17" s="24"/>
+      <c r="D17" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="23"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
@@ -2913,32 +2984,36 @@
       <c r="T17" s="2">
         <v>0</v>
       </c>
-      <c r="U17" s="10">
-        <v>1</v>
+      <c r="U17" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0.3,200,0,0,0</v>
       </c>
       <c r="V17" s="10">
+        <v>1</v>
+      </c>
+      <c r="W17" s="10">
         <v>5</v>
       </c>
-      <c r="W17" s="10">
-        <v>0</v>
-      </c>
       <c r="X17" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y17" s="10">
+        <v>1</v>
+      </c>
+      <c r="Z17" s="10">
         <v>3</v>
       </c>
-      <c r="Z17" s="10"/>
-      <c r="AA17" s="4"/>
+      <c r="AA17" s="10"/>
+      <c r="AB17" s="4"/>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="3">
         <v>1013</v>
       </c>
-      <c r="D18" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="E18" s="24"/>
+      <c r="D18" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="E18" s="23"/>
       <c r="F18" s="3"/>
       <c r="K18" s="2">
         <v>0</v>
@@ -2970,31 +3045,35 @@
       <c r="T18" s="2">
         <v>0</v>
       </c>
-      <c r="U18" s="2">
-        <v>1</v>
+      <c r="U18" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>3,500,0,0,0</v>
       </c>
       <c r="V18" s="2">
+        <v>1</v>
+      </c>
+      <c r="W18" s="2">
         <v>5</v>
       </c>
-      <c r="W18" s="2">
-        <v>0</v>
-      </c>
       <c r="X18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y18" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z18" s="2">
         <v>3</v>
       </c>
-      <c r="AA18" s="4"/>
+      <c r="AB18" s="4"/>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="3">
         <v>1015</v>
       </c>
-      <c r="D19" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="E19" s="24"/>
+      <c r="D19" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19" s="23"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
@@ -3030,8 +3109,9 @@
       <c r="T19" s="2">
         <v>0</v>
       </c>
-      <c r="U19" s="10">
-        <v>0</v>
+      <c r="U19" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0.35,0,0,0,0</v>
       </c>
       <c r="V19" s="10">
         <v>0</v>
@@ -3045,17 +3125,20 @@
       <c r="Y19" s="10">
         <v>0</v>
       </c>
-      <c r="Z19" s="10"/>
-      <c r="AA19" s="4"/>
+      <c r="Z19" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="10"/>
+      <c r="AB19" s="4"/>
     </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="3">
         <v>1016</v>
       </c>
-      <c r="D20" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="E20" s="24"/>
+      <c r="D20" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" s="23"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
@@ -3091,8 +3174,9 @@
       <c r="T20" s="2">
         <v>0</v>
       </c>
-      <c r="U20" s="2">
-        <v>0</v>
+      <c r="U20" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0,0,0,0,0</v>
       </c>
       <c r="V20" s="2">
         <v>0</v>
@@ -3106,26 +3190,29 @@
       <c r="Y20" s="2">
         <v>0</v>
       </c>
-      <c r="AA20" s="4"/>
+      <c r="Z20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="4"/>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="3">
         <v>100111</v>
       </c>
-      <c r="D21" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="E21" s="24" t="s">
-        <v>88</v>
+      <c r="D21" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="E21" s="23" t="s">
+        <v>79</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G21" s="3">
         <v>0.2</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="I21" s="3">
         <v>0.2</v>
@@ -3163,8 +3250,9 @@
       <c r="T21" s="2">
         <v>0</v>
       </c>
-      <c r="U21" s="2">
-        <v>0</v>
+      <c r="U21" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>1,200,0,0,0</v>
       </c>
       <c r="V21" s="2">
         <v>0</v>
@@ -3178,16 +3266,19 @@
       <c r="Y21" s="2">
         <v>0</v>
       </c>
-      <c r="AA21" s="4"/>
+      <c r="Z21" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="4"/>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="3">
         <v>100112</v>
       </c>
-      <c r="D22" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="E22" s="24"/>
+      <c r="D22" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="E22" s="23"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
@@ -3223,8 +3314,9 @@
       <c r="T22" s="2">
         <v>0</v>
       </c>
-      <c r="U22" s="2">
-        <v>0</v>
+      <c r="U22" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0.5,0,0,0,0</v>
       </c>
       <c r="V22" s="2">
         <v>0</v>
@@ -3238,16 +3330,19 @@
       <c r="Y22" s="2">
         <v>0</v>
       </c>
-      <c r="AA22" s="4"/>
+      <c r="Z22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="4"/>
     </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="3">
         <v>100201</v>
       </c>
-      <c r="D23" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="E23" s="24"/>
+      <c r="D23" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="E23" s="23"/>
       <c r="F23" s="3"/>
       <c r="K23" s="2">
         <v>0</v>
@@ -3279,8 +3374,9 @@
       <c r="T23" s="2">
         <v>0</v>
       </c>
-      <c r="U23" s="2">
-        <v>0</v>
+      <c r="U23" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0.8,0,0,0,0</v>
       </c>
       <c r="V23" s="2">
         <v>0</v>
@@ -3294,26 +3390,29 @@
       <c r="Y23" s="2">
         <v>0</v>
       </c>
-      <c r="AA23" s="4"/>
+      <c r="Z23" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="4"/>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="3">
         <v>200111</v>
       </c>
-      <c r="D24" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="E24" s="24" t="s">
-        <v>83</v>
+      <c r="D24" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="E24" s="23" t="s">
+        <v>74</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G24" s="3">
         <v>0.2</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="I24" s="3">
         <v>0.2</v>
@@ -3349,8 +3448,9 @@
       <c r="T24" s="2">
         <v>0</v>
       </c>
-      <c r="U24" s="2">
-        <v>0</v>
+      <c r="U24" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0.4,100,0,0,0</v>
       </c>
       <c r="V24" s="2">
         <v>0</v>
@@ -3364,26 +3464,29 @@
       <c r="Y24" s="2">
         <v>0</v>
       </c>
-      <c r="AA24" s="4"/>
+      <c r="Z24" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="4"/>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="3">
         <v>200121</v>
       </c>
-      <c r="D25" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="E25" s="24" t="s">
-        <v>85</v>
+      <c r="D25" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="E25" s="23" t="s">
+        <v>76</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G25" s="3">
         <v>0.2</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="I25" s="3">
         <v>0.2</v>
@@ -3421,8 +3524,9 @@
       <c r="T25" s="2">
         <v>0</v>
       </c>
-      <c r="U25" s="2">
-        <v>0</v>
+      <c r="U25" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0.6,100,0,0,0</v>
       </c>
       <c r="V25" s="2">
         <v>0</v>
@@ -3436,16 +3540,19 @@
       <c r="Y25" s="2">
         <v>0</v>
       </c>
-      <c r="AA25" s="4"/>
+      <c r="Z25" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="4"/>
     </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="3">
         <v>200201</v>
       </c>
-      <c r="D26" s="24" t="s">
-        <v>103</v>
-      </c>
-      <c r="E26" s="24"/>
+      <c r="D26" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="E26" s="23"/>
       <c r="F26" s="3"/>
       <c r="K26" s="2">
         <v>0</v>
@@ -3477,8 +3584,9 @@
       <c r="T26" s="2">
         <v>0</v>
       </c>
-      <c r="U26" s="2">
-        <v>0</v>
+      <c r="U26" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0.9,0,0,0,0</v>
       </c>
       <c r="V26" s="2">
         <v>0</v>
@@ -3492,16 +3600,19 @@
       <c r="Y26" s="2">
         <v>0</v>
       </c>
-      <c r="AA26" s="4"/>
+      <c r="Z26" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="4"/>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="3">
         <v>200202</v>
       </c>
-      <c r="D27" s="24" t="s">
-        <v>103</v>
-      </c>
-      <c r="E27" s="24"/>
+      <c r="D27" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="E27" s="23"/>
       <c r="F27" s="3"/>
       <c r="K27" s="2">
         <v>0</v>
@@ -3533,8 +3644,9 @@
       <c r="T27" s="2">
         <v>0</v>
       </c>
-      <c r="U27" s="2">
-        <v>0</v>
+      <c r="U27" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0.9,0,0,0,0</v>
       </c>
       <c r="V27" s="2">
         <v>0</v>
@@ -3548,16 +3660,19 @@
       <c r="Y27" s="2">
         <v>0</v>
       </c>
-      <c r="AA27" s="4"/>
+      <c r="Z27" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="4"/>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="3">
         <v>200203</v>
       </c>
-      <c r="D28" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="E28" s="24"/>
+      <c r="D28" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="E28" s="23"/>
       <c r="F28" s="3"/>
       <c r="K28" s="2">
         <v>0</v>
@@ -3589,8 +3704,9 @@
       <c r="T28" s="2">
         <v>0</v>
       </c>
-      <c r="U28" s="2">
-        <v>0</v>
+      <c r="U28" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>1.2,0,0,0,0</v>
       </c>
       <c r="V28" s="2">
         <v>0</v>
@@ -3604,16 +3720,19 @@
       <c r="Y28" s="2">
         <v>0</v>
       </c>
-      <c r="AA28" s="4"/>
+      <c r="Z28" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="4"/>
     </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="3">
         <v>200301</v>
       </c>
-      <c r="D29" s="24" t="s">
-        <v>105</v>
-      </c>
-      <c r="E29" s="24"/>
+      <c r="D29" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="E29" s="23"/>
       <c r="F29" s="3"/>
       <c r="K29" s="2">
         <v>0</v>
@@ -3645,8 +3764,9 @@
       <c r="T29" s="2">
         <v>0</v>
       </c>
-      <c r="U29" s="2">
-        <v>0</v>
+      <c r="U29" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0.8,0,0,0,0</v>
       </c>
       <c r="V29" s="2">
         <v>0</v>
@@ -3660,26 +3780,29 @@
       <c r="Y29" s="2">
         <v>0</v>
       </c>
-      <c r="AA29" s="4"/>
+      <c r="Z29" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="4"/>
     </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="3">
         <v>300111</v>
       </c>
-      <c r="D30" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="E30" s="24" t="s">
-        <v>92</v>
+      <c r="D30" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="E30" s="23" t="s">
+        <v>83</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G30" s="3">
         <v>0.2</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="I30" s="3">
         <v>0.2</v>
@@ -3717,8 +3840,9 @@
       <c r="T30" s="2">
         <v>0</v>
       </c>
-      <c r="U30" s="2">
-        <v>0</v>
+      <c r="U30" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>1,200,0,0,0</v>
       </c>
       <c r="V30" s="2">
         <v>0</v>
@@ -3732,16 +3856,19 @@
       <c r="Y30" s="2">
         <v>0</v>
       </c>
-      <c r="AA30" s="4"/>
+      <c r="Z30" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB30" s="4"/>
     </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="3">
         <v>300201</v>
       </c>
-      <c r="D31" s="24" t="s">
-        <v>106</v>
-      </c>
-      <c r="E31" s="24"/>
+      <c r="D31" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="E31" s="23"/>
       <c r="F31" s="3"/>
       <c r="K31" s="2">
         <v>0</v>
@@ -3773,8 +3900,9 @@
       <c r="T31" s="2">
         <v>0</v>
       </c>
-      <c r="U31" s="2">
-        <v>0</v>
+      <c r="U31" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>1,0,0,0,0</v>
       </c>
       <c r="V31" s="2">
         <v>0</v>
@@ -3788,26 +3916,29 @@
       <c r="Y31" s="2">
         <v>0</v>
       </c>
-      <c r="AA31" s="4"/>
+      <c r="Z31" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB31" s="4"/>
     </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="3">
         <v>400111</v>
       </c>
-      <c r="D32" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="E32" s="24" t="s">
-        <v>92</v>
+      <c r="D32" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="E32" s="23" t="s">
+        <v>83</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G32" s="3">
         <v>0.2</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="I32" s="3">
         <v>0.2</v>
@@ -3843,8 +3974,9 @@
       <c r="T32" s="2">
         <v>0</v>
       </c>
-      <c r="U32" s="2">
-        <v>0</v>
+      <c r="U32" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>1,200,0,0,0</v>
       </c>
       <c r="V32" s="2">
         <v>0</v>
@@ -3858,26 +3990,29 @@
       <c r="Y32" s="2">
         <v>0</v>
       </c>
-      <c r="AA32" s="4"/>
+      <c r="Z32" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="4"/>
     </row>
-    <row r="33" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C33" s="3">
         <v>500111</v>
       </c>
-      <c r="D33" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="E33" s="24" t="s">
-        <v>88</v>
+      <c r="D33" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="E33" s="23" t="s">
+        <v>79</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G33" s="3">
         <v>0.2</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="I33" s="3">
         <v>0.2</v>
@@ -3915,8 +4050,9 @@
       <c r="T33" s="2">
         <v>0</v>
       </c>
-      <c r="U33" s="2">
-        <v>0</v>
+      <c r="U33" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>1,200,0,0,0</v>
       </c>
       <c r="V33" s="2">
         <v>0</v>
@@ -3930,26 +4066,29 @@
       <c r="Y33" s="2">
         <v>0</v>
       </c>
-      <c r="AA33" s="4"/>
+      <c r="Z33" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB33" s="4"/>
     </row>
-    <row r="34" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C34" s="3">
         <v>600111</v>
       </c>
-      <c r="D34" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="E34" s="24" t="s">
-        <v>88</v>
+      <c r="D34" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="E34" s="23" t="s">
+        <v>79</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G34" s="3">
         <v>0.2</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="I34" s="3">
         <v>0.2</v>
@@ -3987,8 +4126,9 @@
       <c r="T34" s="2">
         <v>0</v>
       </c>
-      <c r="U34" s="2">
-        <v>0</v>
+      <c r="U34" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>1,200,0,0,0</v>
       </c>
       <c r="V34" s="2">
         <v>0</v>
@@ -4002,26 +4142,29 @@
       <c r="Y34" s="2">
         <v>0</v>
       </c>
-      <c r="AA34" s="4"/>
+      <c r="Z34" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB34" s="4"/>
     </row>
-    <row r="35" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C35" s="3">
         <v>800111</v>
       </c>
-      <c r="D35" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="E35" s="24" t="s">
-        <v>98</v>
+      <c r="D35" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="E35" s="23" t="s">
+        <v>89</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G35" s="3">
         <v>0.2</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="I35" s="3">
         <v>0.2</v>
@@ -4059,8 +4202,9 @@
       <c r="T35" s="2">
         <v>0</v>
       </c>
-      <c r="U35" s="2">
-        <v>0</v>
+      <c r="U35" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>1,200,0,0,0</v>
       </c>
       <c r="V35" s="2">
         <v>0</v>
@@ -4074,16 +4218,19 @@
       <c r="Y35" s="2">
         <v>0</v>
       </c>
-      <c r="AA35" s="4"/>
+      <c r="Z35" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB35" s="4"/>
     </row>
-    <row r="36" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C36" s="3">
         <v>800112</v>
       </c>
-      <c r="D36" s="24" t="s">
-        <v>97</v>
-      </c>
-      <c r="E36" s="24"/>
+      <c r="D36" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="E36" s="23"/>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
@@ -4119,8 +4266,9 @@
       <c r="T36" s="2">
         <v>0</v>
       </c>
-      <c r="U36" s="2">
-        <v>0</v>
+      <c r="U36" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0.35,0,0,0,0</v>
       </c>
       <c r="V36" s="2">
         <v>0</v>
@@ -4134,26 +4282,29 @@
       <c r="Y36" s="2">
         <v>0</v>
       </c>
-      <c r="AA36" s="4"/>
+      <c r="Z36" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB36" s="4"/>
     </row>
-    <row r="37" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C37" s="3">
         <v>900111</v>
       </c>
-      <c r="D37" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="E37" s="24" t="s">
-        <v>92</v>
+      <c r="D37" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="E37" s="23" t="s">
+        <v>83</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G37" s="3">
         <v>0.2</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="I37" s="3">
         <v>0.2</v>
@@ -4191,8 +4342,9 @@
       <c r="T37" s="2">
         <v>0</v>
       </c>
-      <c r="U37" s="2">
-        <v>0</v>
+      <c r="U37" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>1,200,0,0,0</v>
       </c>
       <c r="V37" s="2">
         <v>0</v>
@@ -4206,164 +4358,108 @@
       <c r="Y37" s="2">
         <v>0</v>
       </c>
-      <c r="AA37" s="4"/>
+      <c r="Z37" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB37" s="4"/>
     </row>
-    <row r="38" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C38" s="3"/>
-      <c r="D38" s="24"/>
-      <c r="E38" s="24"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="23"/>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
-      <c r="AA38" s="4"/>
+      <c r="AB38" s="4"/>
     </row>
-    <row r="39" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C39" s="3"/>
-      <c r="D39" s="24"/>
-      <c r="E39" s="24"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="23"/>
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
-      <c r="AA39" s="4"/>
+      <c r="AF39" s="4"/>
     </row>
-    <row r="40" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="40" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C40" s="3"/>
-      <c r="D40" s="24"/>
-      <c r="E40" s="24"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="23"/>
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
-      <c r="AA40" s="4"/>
+      <c r="AF40" s="4"/>
     </row>
-    <row r="41" spans="3:31" x14ac:dyDescent="0.2">
-      <c r="C41" s="9"/>
-      <c r="D41" s="25"/>
-      <c r="E41" s="25"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="9"/>
-      <c r="H41" s="9"/>
-      <c r="I41" s="9"/>
-      <c r="J41" s="9"/>
-      <c r="K41" s="10"/>
-      <c r="L41" s="10"/>
-      <c r="M41" s="10"/>
-      <c r="N41" s="10"/>
-      <c r="O41" s="10"/>
-      <c r="P41" s="10"/>
-      <c r="Q41" s="10"/>
-      <c r="R41" s="10"/>
-      <c r="S41" s="10"/>
-      <c r="T41" s="10"/>
-      <c r="U41" s="10"/>
-      <c r="V41" s="10"/>
-      <c r="W41" s="10"/>
-      <c r="X41" s="10"/>
-      <c r="Y41" s="10"/>
-      <c r="Z41" s="10"/>
-      <c r="AA41" s="11"/>
+    <row r="41" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="C41" s="3"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="23"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="AF41" s="4"/>
     </row>
-    <row r="42" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C42" s="3"/>
-      <c r="D42" s="24"/>
-      <c r="E42" s="24"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="23"/>
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
       <c r="J42" s="3"/>
-      <c r="AE42" s="4"/>
+      <c r="AF42" s="4"/>
     </row>
-    <row r="43" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="43" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C43" s="3"/>
-      <c r="D43" s="24"/>
-      <c r="E43" s="24"/>
+      <c r="D43" s="23"/>
+      <c r="E43" s="23"/>
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
-      <c r="AE43" s="4"/>
+      <c r="AF43" s="4"/>
     </row>
-    <row r="44" spans="3:31" x14ac:dyDescent="0.2">
-      <c r="C44" s="3"/>
+    <row r="44" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="C44" s="9"/>
       <c r="D44" s="24"/>
       <c r="E44" s="24"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
-      <c r="I44" s="3"/>
-      <c r="J44" s="3"/>
-      <c r="AE44" s="4"/>
-    </row>
-    <row r="45" spans="3:31" x14ac:dyDescent="0.2">
-      <c r="C45" s="3"/>
-      <c r="D45" s="24"/>
-      <c r="E45" s="24"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
-      <c r="H45" s="3"/>
-      <c r="I45" s="3"/>
-      <c r="J45" s="3"/>
-      <c r="AE45" s="4"/>
-    </row>
-    <row r="46" spans="3:31" x14ac:dyDescent="0.2">
-      <c r="C46" s="3"/>
-      <c r="D46" s="24"/>
-      <c r="E46" s="24"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
-      <c r="H46" s="3"/>
-      <c r="I46" s="3"/>
-      <c r="J46" s="3"/>
-      <c r="AE46" s="4"/>
-    </row>
-    <row r="47" spans="3:31" x14ac:dyDescent="0.2">
-      <c r="C47" s="3"/>
-      <c r="D47" s="24"/>
-      <c r="E47" s="24"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3"/>
-      <c r="I47" s="3"/>
-      <c r="J47" s="3"/>
-      <c r="AE47" s="4"/>
-    </row>
-    <row r="48" spans="3:31" x14ac:dyDescent="0.2">
-      <c r="C48" s="9"/>
-      <c r="D48" s="25"/>
-      <c r="E48" s="25"/>
-      <c r="F48" s="9"/>
-      <c r="G48" s="9"/>
-      <c r="H48" s="9"/>
-      <c r="I48" s="9"/>
-      <c r="J48" s="9"/>
-      <c r="K48" s="10"/>
-      <c r="L48" s="10"/>
-      <c r="M48" s="10"/>
-      <c r="N48" s="10"/>
-      <c r="O48" s="10"/>
-      <c r="P48" s="10"/>
-      <c r="Q48" s="10"/>
-      <c r="R48" s="10"/>
-      <c r="S48" s="10"/>
-      <c r="T48" s="10"/>
-      <c r="U48" s="10"/>
-      <c r="V48" s="10"/>
-      <c r="W48" s="10"/>
-      <c r="X48" s="10"/>
-      <c r="Y48" s="10"/>
-      <c r="Z48" s="10"/>
-      <c r="AA48" s="10"/>
-      <c r="AB48" s="10"/>
-      <c r="AC48" s="10"/>
-      <c r="AD48" s="10"/>
-      <c r="AE48" s="11"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="10"/>
+      <c r="L44" s="10"/>
+      <c r="M44" s="10"/>
+      <c r="N44" s="10"/>
+      <c r="O44" s="10"/>
+      <c r="P44" s="10"/>
+      <c r="Q44" s="10"/>
+      <c r="R44" s="10"/>
+      <c r="S44" s="10"/>
+      <c r="T44" s="10"/>
+      <c r="U44" s="10"/>
+      <c r="V44" s="10"/>
+      <c r="W44" s="10"/>
+      <c r="X44" s="10"/>
+      <c r="Y44" s="10"/>
+      <c r="Z44" s="10"/>
+      <c r="AA44" s="10"/>
+      <c r="AB44" s="10"/>
+      <c r="AC44" s="10"/>
+      <c r="AD44" s="10"/>
+      <c r="AE44" s="10"/>
+      <c r="AF44" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/config/excel/SkillEffect.xlsx
+++ b/config/excel/SkillEffect.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EastEden\excel\trunk\global\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61276301-2BAF-4137-9DE7-3A86413E0B27}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E14E7057-811B-4EA8-94A0-551092BE822A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="143">
   <si>
     <t>行列头两行不会被读取</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -130,14 +130,6 @@
   </si>
   <si>
     <t>int32</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>触发时机</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>触发条件</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -198,14 +190,6 @@
   </si>
   <si>
     <t>作用对象</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>condition</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>timing</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -607,9 +591,6 @@
     <t>字符串参数</t>
   </si>
   <si>
-    <t>Iint类型参数</t>
-  </si>
-  <si>
     <t>101-伤害
 201-治疗根据施法者
 202-治疗根据目标
@@ -683,6 +664,71 @@
   </si>
   <si>
     <t>参数7</t>
+  </si>
+  <si>
+    <t>Iint类型参数
+ID类型
+用整形区分类型的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>parameterA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>parameterB</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>parameterC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>parameterD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发器类型</t>
+  </si>
+  <si>
+    <t>触发器类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[]int32</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>triggerId</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发器
+关系类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发器之间是且关系还是或关系
+0-且
+1-或</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>针对effect的触发条件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>triggerRelation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int32</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发器
+条件关系</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -792,7 +838,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -866,17 +912,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color theme="0"/>
@@ -941,13 +976,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -956,7 +991,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -965,28 +1000,19 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1007,16 +1033,25 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1030,9 +1065,7 @@
         <left style="thin">
           <color theme="0"/>
         </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
+        <right/>
         <top style="thin">
           <color theme="0"/>
         </top>
@@ -1049,7 +1082,9 @@
         <left style="thin">
           <color theme="0"/>
         </left>
-        <right/>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
         <top style="thin">
           <color theme="0"/>
         </top>
@@ -1575,14 +1610,14 @@
     <tableColumn id="7" xr3:uid="{97A86C1D-0720-4DA9-A230-2B854C94703B}" name="计算参数5" dataDxfId="10"/>
     <tableColumn id="8" xr3:uid="{74F52534-73B3-4964-B3F1-04920040D1CE}" name="计算参数6" dataDxfId="9"/>
     <tableColumn id="9" xr3:uid="{FE519A61-3D62-437A-A54A-1541FAC9F66D}" name="计算参数7" dataDxfId="8"/>
-    <tableColumn id="11" xr3:uid="{0FFF56E0-BE11-456F-A06F-A3C521BA9873}" name="number_x000a_类型参数" dataDxfId="0"/>
-    <tableColumn id="21" xr3:uid="{D185F1A5-6935-4E48-8FB7-B4F1AF76ECCB}" name="技能_x000a_发起类型" dataDxfId="7"/>
-    <tableColumn id="15" xr3:uid="{C74C0B95-5EB8-4479-A7E2-68D10B94811D}" name="目标范围长_x000a_修正" dataDxfId="6"/>
-    <tableColumn id="16" xr3:uid="{E31385C7-BC45-441B-9178-9CC7166A03D1}" name="目标范围宽_x000a_修正" dataDxfId="5"/>
-    <tableColumn id="13" xr3:uid="{51863B83-9A04-4C6C-9571-2A85C7B2D4B9}" name="主目标_x000a_范围类型修正2" dataDxfId="4"/>
-    <tableColumn id="17" xr3:uid="{3E38260C-64DD-4667-802F-14F78FD59DE2}" name="作用对象_x000a_修正" dataDxfId="3"/>
-    <tableColumn id="18" xr3:uid="{E338C7D2-80D7-45C8-AA21-14A3A2EE0424}" name="触发时机" dataDxfId="2"/>
-    <tableColumn id="19" xr3:uid="{E4169552-9707-4822-A6FC-78CFA23DEE16}" name="触发条件" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{0FFF56E0-BE11-456F-A06F-A3C521BA9873}" name="number_x000a_类型参数" dataDxfId="7"/>
+    <tableColumn id="21" xr3:uid="{D185F1A5-6935-4E48-8FB7-B4F1AF76ECCB}" name="技能_x000a_发起类型" dataDxfId="6"/>
+    <tableColumn id="15" xr3:uid="{C74C0B95-5EB8-4479-A7E2-68D10B94811D}" name="目标范围长_x000a_修正" dataDxfId="5"/>
+    <tableColumn id="16" xr3:uid="{E31385C7-BC45-441B-9178-9CC7166A03D1}" name="目标范围宽_x000a_修正" dataDxfId="4"/>
+    <tableColumn id="13" xr3:uid="{51863B83-9A04-4C6C-9571-2A85C7B2D4B9}" name="主目标_x000a_范围类型修正2" dataDxfId="3"/>
+    <tableColumn id="17" xr3:uid="{3E38260C-64DD-4667-802F-14F78FD59DE2}" name="作用对象_x000a_修正" dataDxfId="2"/>
+    <tableColumn id="18" xr3:uid="{E338C7D2-80D7-45C8-AA21-14A3A2EE0424}" name="触发器类型" dataDxfId="1"/>
+    <tableColumn id="19" xr3:uid="{E4169552-9707-4822-A6FC-78CFA23DEE16}" name="触发器_x000a_关系类型" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1854,17 +1889,17 @@
   <dimension ref="A1:AF44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="6" topLeftCell="K7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="6" topLeftCell="Q7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="T4" sqref="T4"/>
+      <selection pane="bottomRight" activeCell="Y15" sqref="Y15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="14.25" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="3" width="10.625" style="2"/>
-    <col min="4" max="4" width="21.5" style="25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.25" style="25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5" style="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.25" style="22" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="15" style="2" customWidth="1"/>
     <col min="9" max="10" width="15.625" style="2" customWidth="1"/>
@@ -1895,28 +1930,28 @@
         <v>6</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="J1" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="G1" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="H1" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="I1" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="J1" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="K1" s="20" t="s">
-        <v>32</v>
+      <c r="K1" s="17" t="s">
+        <v>28</v>
       </c>
       <c r="L1" s="7" t="s">
         <v>8</v>
@@ -1925,49 +1960,49 @@
         <v>7</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="P1" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="S1" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="T1" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="Q1" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="R1" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="S1" s="30" t="s">
-        <v>112</v>
-      </c>
-      <c r="T1" s="30" t="s">
-        <v>113</v>
-      </c>
-      <c r="U1" s="33" t="s">
-        <v>124</v>
+      <c r="U1" s="30" t="s">
+        <v>119</v>
       </c>
       <c r="V1" s="8" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="W1" s="8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="X1" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="Y1" s="8" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="Z1" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AA1" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="AB1" s="17" t="s">
-        <v>12</v>
+        <v>134</v>
+      </c>
+      <c r="AB1" s="8" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:28" ht="99.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1976,61 +2011,76 @@
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
-      <c r="E2" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="F2" s="26" t="s">
+      <c r="E2" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="F2" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="G2" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="G2" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="H2" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="I2" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="J2" s="26" t="s">
-        <v>91</v>
+      <c r="I2" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="J2" s="23" t="s">
+        <v>87</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="S2" s="15"/>
+        <v>128</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="S2" s="15" t="s">
+        <v>132</v>
+      </c>
       <c r="T2" s="15"/>
-      <c r="U2" s="34" t="s">
-        <v>125</v>
-      </c>
-      <c r="V2" s="22" t="s">
+      <c r="U2" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="V2" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="W2" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="X2" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y2" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="W2" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="X2" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="Y2" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="Z2" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="AA2" s="22"/>
-      <c r="AB2" s="18"/>
+      <c r="Z2" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA2" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="AB2" s="33" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
@@ -2041,37 +2091,37 @@
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="I3" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="J3" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="G3" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="J3" s="12" t="s">
-        <v>62</v>
-      </c>
       <c r="K3" s="13" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L3" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="M3" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="13" t="s">
-        <v>17</v>
-      </c>
       <c r="N3" s="13" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="O3" s="13" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="P3" s="13"/>
       <c r="Q3" s="13"/>
@@ -2079,28 +2129,28 @@
       <c r="S3" s="13"/>
       <c r="T3" s="13"/>
       <c r="U3" s="14" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="V3" s="14" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="W3" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="X3" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y3" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z3" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="X3" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y3" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z3" s="14" t="s">
-        <v>22</v>
-      </c>
       <c r="AA3" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB3" s="19" t="s">
-        <v>27</v>
+        <v>136</v>
+      </c>
+      <c r="AB3" s="14" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:28" ht="57" x14ac:dyDescent="0.2">
@@ -2112,25 +2162,25 @@
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="F4" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="G4" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="H4" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="I4" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="J4" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="G4" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="H4" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="I4" s="24" t="s">
         <v>66</v>
       </c>
+      <c r="J4" s="24" t="s">
+        <v>62</v>
+      </c>
       <c r="K4" s="13" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="L4" s="13" t="s">
         <v>8</v>
@@ -2139,48 +2189,52 @@
         <v>7</v>
       </c>
       <c r="N4" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="O4" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="P4" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q4" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="R4" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="S4" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="O4" s="13" t="s">
+      <c r="T4" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="P4" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q4" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="R4" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="S4" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="T4" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="U4" s="31"/>
+      <c r="U4" s="28"/>
       <c r="V4" s="14" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="W4" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="X4" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y4" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z4" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="X4" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y4" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z4" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA4" s="14"/>
-      <c r="AB4" s="19"/>
+      <c r="AA4" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="AB4" s="34" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
@@ -2200,14 +2254,14 @@
       <c r="R5" s="13"/>
       <c r="S5" s="16"/>
       <c r="T5" s="16"/>
-      <c r="U5" s="32"/>
+      <c r="U5" s="29"/>
       <c r="V5" s="14"/>
       <c r="W5" s="14"/>
       <c r="X5" s="14"/>
       <c r="Y5" s="14"/>
       <c r="Z5" s="14"/>
       <c r="AA5" s="14"/>
-      <c r="AB5" s="19"/>
+      <c r="AB5" s="14"/>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
@@ -2218,22 +2272,22 @@
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="12" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="J6" s="12" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K6" s="13" t="s">
         <v>10</v>
@@ -2245,10 +2299,10 @@
         <v>10</v>
       </c>
       <c r="N6" s="13" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="O6" s="13" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="P6" s="13"/>
       <c r="Q6" s="13"/>
@@ -2256,16 +2310,16 @@
       <c r="S6" s="13"/>
       <c r="T6" s="13"/>
       <c r="U6" s="13" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="V6" s="14" t="s">
         <v>10</v>
       </c>
       <c r="W6" s="14" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="X6" s="14" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="Y6" s="14" t="s">
         <v>10</v>
@@ -2273,27 +2327,31 @@
       <c r="Z6" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="AA6" s="14"/>
-      <c r="AB6" s="19"/>
+      <c r="AA6" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB6" s="32" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="3">
         <v>1001</v>
       </c>
-      <c r="D7" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="E7" s="23" t="s">
-        <v>79</v>
+      <c r="D7" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>75</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G7" s="3">
         <v>0.2</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="I7" s="3">
         <v>0.2</v>
@@ -2356,10 +2414,10 @@
       <c r="C8" s="3">
         <v>1002</v>
       </c>
-      <c r="D8" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" s="23"/>
+      <c r="D8" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="20"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
@@ -2396,7 +2454,7 @@
         <v>0</v>
       </c>
       <c r="U8" s="2" t="str">
-        <f t="shared" ref="U8:U38" si="0">P8&amp;","&amp;Q8&amp;","&amp;R8&amp;","&amp;S8&amp;","&amp;T8</f>
+        <f t="shared" ref="U8:U37" si="0">P8&amp;","&amp;Q8&amp;","&amp;R8&amp;","&amp;S8&amp;","&amp;T8</f>
         <v>2,200,0,0,0</v>
       </c>
       <c r="V8" s="2">
@@ -2420,10 +2478,10 @@
       <c r="C9" s="3">
         <v>1003</v>
       </c>
-      <c r="D9" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="23"/>
+      <c r="D9" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="20"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
@@ -2484,10 +2542,10 @@
       <c r="C10" s="3">
         <v>1004</v>
       </c>
-      <c r="D10" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" s="23"/>
+      <c r="D10" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="20"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
@@ -2548,20 +2606,20 @@
       <c r="C11" s="3">
         <v>1005</v>
       </c>
-      <c r="D11" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="E11" s="23" t="s">
-        <v>99</v>
+      <c r="D11" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>95</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G11" s="2">
         <v>0.2</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="I11" s="2">
         <v>0.2</v>
@@ -2624,10 +2682,10 @@
       <c r="C12" s="3">
         <v>1007</v>
       </c>
-      <c r="D12" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="E12" s="23"/>
+      <c r="D12" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="20"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
@@ -2688,10 +2746,10 @@
       <c r="C13" s="3">
         <v>1008</v>
       </c>
-      <c r="D13" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13" s="23"/>
+      <c r="D13" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="20"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
@@ -2752,10 +2810,10 @@
       <c r="C14" s="3">
         <v>1009</v>
       </c>
-      <c r="D14" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="E14" s="23"/>
+      <c r="D14" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="20"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
@@ -2773,7 +2831,7 @@
       <c r="N14" s="2">
         <v>0</v>
       </c>
-      <c r="O14" s="21">
+      <c r="O14" s="18">
         <v>21003</v>
       </c>
       <c r="P14" s="2">
@@ -2816,10 +2874,10 @@
       <c r="C15" s="3">
         <v>1010</v>
       </c>
-      <c r="D15" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="E15" s="23"/>
+      <c r="D15" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="20"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
@@ -2880,10 +2938,10 @@
       <c r="C16" s="9">
         <v>1011</v>
       </c>
-      <c r="D16" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="E16" s="23"/>
+      <c r="D16" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="20"/>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
@@ -2945,10 +3003,10 @@
       <c r="C17" s="3">
         <v>1012</v>
       </c>
-      <c r="D17" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="E17" s="23"/>
+      <c r="D17" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="20"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
@@ -3010,10 +3068,10 @@
       <c r="C18" s="3">
         <v>1013</v>
       </c>
-      <c r="D18" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="E18" s="23"/>
+      <c r="D18" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="E18" s="20"/>
       <c r="F18" s="3"/>
       <c r="K18" s="2">
         <v>0</v>
@@ -3070,10 +3128,10 @@
       <c r="C19" s="3">
         <v>1015</v>
       </c>
-      <c r="D19" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="E19" s="23"/>
+      <c r="D19" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" s="20"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
@@ -3135,10 +3193,10 @@
       <c r="C20" s="3">
         <v>1016</v>
       </c>
-      <c r="D20" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E20" s="23"/>
+      <c r="D20" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" s="20"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
@@ -3199,20 +3257,20 @@
       <c r="C21" s="3">
         <v>100111</v>
       </c>
-      <c r="D21" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="E21" s="23" t="s">
-        <v>79</v>
+      <c r="D21" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="E21" s="20" t="s">
+        <v>75</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G21" s="3">
         <v>0.2</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="I21" s="3">
         <v>0.2</v>
@@ -3275,10 +3333,10 @@
       <c r="C22" s="3">
         <v>100112</v>
       </c>
-      <c r="D22" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="E22" s="23"/>
+      <c r="D22" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="E22" s="20"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
@@ -3339,10 +3397,10 @@
       <c r="C23" s="3">
         <v>100201</v>
       </c>
-      <c r="D23" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="E23" s="23"/>
+      <c r="D23" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="E23" s="20"/>
       <c r="F23" s="3"/>
       <c r="K23" s="2">
         <v>0</v>
@@ -3399,20 +3457,20 @@
       <c r="C24" s="3">
         <v>200111</v>
       </c>
-      <c r="D24" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="E24" s="23" t="s">
-        <v>74</v>
+      <c r="D24" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="E24" s="20" t="s">
+        <v>70</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G24" s="3">
         <v>0.2</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="I24" s="3">
         <v>0.2</v>
@@ -3473,20 +3531,20 @@
       <c r="C25" s="3">
         <v>200121</v>
       </c>
-      <c r="D25" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="E25" s="23" t="s">
-        <v>76</v>
+      <c r="D25" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="E25" s="20" t="s">
+        <v>72</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G25" s="3">
         <v>0.2</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="I25" s="3">
         <v>0.2</v>
@@ -3549,10 +3607,10 @@
       <c r="C26" s="3">
         <v>200201</v>
       </c>
-      <c r="D26" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="E26" s="23"/>
+      <c r="D26" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="E26" s="20"/>
       <c r="F26" s="3"/>
       <c r="K26" s="2">
         <v>0</v>
@@ -3609,10 +3667,10 @@
       <c r="C27" s="3">
         <v>200202</v>
       </c>
-      <c r="D27" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="E27" s="23"/>
+      <c r="D27" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="E27" s="20"/>
       <c r="F27" s="3"/>
       <c r="K27" s="2">
         <v>0</v>
@@ -3669,10 +3727,10 @@
       <c r="C28" s="3">
         <v>200203</v>
       </c>
-      <c r="D28" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="E28" s="23"/>
+      <c r="D28" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="E28" s="20"/>
       <c r="F28" s="3"/>
       <c r="K28" s="2">
         <v>0</v>
@@ -3729,10 +3787,10 @@
       <c r="C29" s="3">
         <v>200301</v>
       </c>
-      <c r="D29" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="E29" s="23"/>
+      <c r="D29" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="E29" s="20"/>
       <c r="F29" s="3"/>
       <c r="K29" s="2">
         <v>0</v>
@@ -3789,20 +3847,20 @@
       <c r="C30" s="3">
         <v>300111</v>
       </c>
-      <c r="D30" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="E30" s="23" t="s">
-        <v>83</v>
+      <c r="D30" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="E30" s="20" t="s">
+        <v>79</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G30" s="3">
         <v>0.2</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="I30" s="3">
         <v>0.2</v>
@@ -3865,10 +3923,10 @@
       <c r="C31" s="3">
         <v>300201</v>
       </c>
-      <c r="D31" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="E31" s="23"/>
+      <c r="D31" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="E31" s="20"/>
       <c r="F31" s="3"/>
       <c r="K31" s="2">
         <v>0</v>
@@ -3925,20 +3983,20 @@
       <c r="C32" s="3">
         <v>400111</v>
       </c>
-      <c r="D32" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="E32" s="23" t="s">
-        <v>83</v>
+      <c r="D32" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="E32" s="20" t="s">
+        <v>79</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G32" s="3">
         <v>0.2</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="I32" s="3">
         <v>0.2</v>
@@ -3999,20 +4057,20 @@
       <c r="C33" s="3">
         <v>500111</v>
       </c>
-      <c r="D33" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="E33" s="23" t="s">
-        <v>79</v>
+      <c r="D33" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="E33" s="20" t="s">
+        <v>75</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G33" s="3">
         <v>0.2</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="I33" s="3">
         <v>0.2</v>
@@ -4075,20 +4133,20 @@
       <c r="C34" s="3">
         <v>600111</v>
       </c>
-      <c r="D34" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="E34" s="23" t="s">
-        <v>79</v>
+      <c r="D34" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="E34" s="20" t="s">
+        <v>75</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G34" s="3">
         <v>0.2</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="I34" s="3">
         <v>0.2</v>
@@ -4151,20 +4209,20 @@
       <c r="C35" s="3">
         <v>800111</v>
       </c>
-      <c r="D35" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="E35" s="23" t="s">
-        <v>89</v>
+      <c r="D35" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="E35" s="20" t="s">
+        <v>85</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G35" s="3">
         <v>0.2</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="I35" s="3">
         <v>0.2</v>
@@ -4227,10 +4285,10 @@
       <c r="C36" s="3">
         <v>800112</v>
       </c>
-      <c r="D36" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="E36" s="23"/>
+      <c r="D36" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="E36" s="20"/>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
@@ -4291,20 +4349,20 @@
       <c r="C37" s="3">
         <v>900111</v>
       </c>
-      <c r="D37" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="E37" s="23" t="s">
-        <v>83</v>
+      <c r="D37" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="E37" s="20" t="s">
+        <v>79</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G37" s="3">
         <v>0.2</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="I37" s="3">
         <v>0.2</v>
@@ -4365,8 +4423,8 @@
     </row>
     <row r="38" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C38" s="3"/>
-      <c r="D38" s="23"/>
-      <c r="E38" s="23"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
@@ -4376,8 +4434,8 @@
     </row>
     <row r="39" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C39" s="3"/>
-      <c r="D39" s="23"/>
-      <c r="E39" s="23"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="20"/>
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
@@ -4387,8 +4445,8 @@
     </row>
     <row r="40" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C40" s="3"/>
-      <c r="D40" s="23"/>
-      <c r="E40" s="23"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
@@ -4398,8 +4456,8 @@
     </row>
     <row r="41" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C41" s="3"/>
-      <c r="D41" s="23"/>
-      <c r="E41" s="23"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="20"/>
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
@@ -4409,8 +4467,8 @@
     </row>
     <row r="42" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C42" s="3"/>
-      <c r="D42" s="23"/>
-      <c r="E42" s="23"/>
+      <c r="D42" s="20"/>
+      <c r="E42" s="20"/>
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
@@ -4420,8 +4478,8 @@
     </row>
     <row r="43" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C43" s="3"/>
-      <c r="D43" s="23"/>
-      <c r="E43" s="23"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="20"/>
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
@@ -4431,8 +4489,8 @@
     </row>
     <row r="44" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C44" s="9"/>
-      <c r="D44" s="24"/>
-      <c r="E44" s="24"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="21"/>
       <c r="F44" s="9"/>
       <c r="G44" s="9"/>
       <c r="H44" s="9"/>

--- a/config/excel/SkillEffect.xlsx
+++ b/config/excel/SkillEffect.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EastEden\excel\trunk\global\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E14E7057-811B-4EA8-94A0-551092BE822A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87F1C2C6-5D9A-4A59-B125-78A5CD3CEC2A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -62,8 +62,8 @@
 2-以目标表示skill的挂载者
 buff触发的effect
 0-默认，表示buff触发effect的目标范围
-1-以自身表示对buff的施法者生效
-2-以目标表示对buff的挂载者生效0</t>
+1-挂载buff的施法者
+2-buff的挂载者</t>
         </r>
       </text>
     </comment>
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="160">
   <si>
     <t>行列头两行不会被读取</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -289,9 +289,6 @@
     <t>受伤击退距离</t>
   </si>
   <si>
-    <t>受击特效插槽</t>
-  </si>
-  <si>
     <t>受击方在受击时，切成受击状态的时间，受击单位的COM会静止</t>
   </si>
   <si>
@@ -299,9 +296,6 @@
   </si>
   <si>
     <t>hitFxName</t>
-  </si>
-  <si>
-    <t>hitFxSlot</t>
   </si>
   <si>
     <t>hitStopTime</t>
@@ -372,19 +366,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>瓦尔基里-打断效果</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Fx_daoguang_hit</t>
-  </si>
-  <si>
-    <t>男主-造成40%+100伤害</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>男主-造成60%+100伤害</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>梅林-造成100%+200伤害</t>
@@ -452,10 +434,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>瓦尔基里-临时技能1-造成80%伤害</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>男主-技能1-造成90%伤害</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -465,10 +443,6 @@
   </si>
   <si>
     <t>男主-技能2-造成80%伤害</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>梅林-造成100%伤害</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -591,6 +565,150 @@
     <t>字符串参数</t>
   </si>
   <si>
+    <t>parameterNumber</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[]number</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[]int32</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Iint类型参数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>parameterInt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>parameterString</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[]string</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>number
+类型参数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Number
+类型参数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数5</t>
+  </si>
+  <si>
+    <t>参数6</t>
+  </si>
+  <si>
+    <t>参数7</t>
+  </si>
+  <si>
+    <t>Iint类型参数
+ID类型
+用整形区分类型的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>parameterA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>parameterB</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>parameterC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>parameterD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发器类型</t>
+  </si>
+  <si>
+    <t>触发器类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[]int32</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>triggerId</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发器
+关系类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发器之间是且关系还是或关系
+0-且
+1-或</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>针对effect的触发条件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>triggerRelation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int32</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发器
+条件关系</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>瓦尔基里-【打断】效果</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>瓦尔基里-选定范围内的单体友军，为其生成【护盾】，持续40秒。【护盾】可根据施法者生命上限15%抵消受到的伤害。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>瓦尔基里-召唤石柱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>瓦尔基里-攻击范围内目标，对其造成200%地属性伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>101-伤害
 201-治疗根据施法者
 202-治疗根据目标
@@ -599,135 +717,86 @@
 321-拉条
 401-聚集
 501-加buff
-601</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>parameterNumber</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[]number</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[]int32</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Iint类型参数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>parameterInt</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>parameterString</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[]string</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>number
-类型参数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Number
-类型参数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数5</t>
-  </si>
-  <si>
-    <t>参数6</t>
-  </si>
-  <si>
-    <t>参数7</t>
-  </si>
-  <si>
-    <t>Iint类型参数
-ID类型
-用整形区分类型的</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>parameterA</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>parameterB</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>parameterC</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>parameterD</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>触发器类型</t>
-  </si>
-  <si>
-    <t>触发器类型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[]int32</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>triggerId</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>触发器
-关系类型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>触发器之间是且关系还是或关系
-0-且
-1-或</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>针对effect的触发条件</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>triggerRelation</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>int32</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>触发器
-条件关系</t>
+601-召唤物</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>瓦尔基里-临时奥义-每段造成150%伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>瓦尔基里-奥义-【再生】buff</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hitFxSlot</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>受击特效插槽</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>男主-造成40%+80伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>男主-造成60%+120伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>男主-技能2-烈焰光环</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>男主-烈焰光环伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fx_buff_guanghuan_hurt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>男主-奥义临时-造成150%伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>男主-奥义临时-【破甲】</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,200,0,0,0</t>
+  </si>
+  <si>
+    <t>梅林-普攻造成100%+200伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>梅林-造成80%伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>梅林-造成150%伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>梅林-将目标聚拢</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fx_act_effect_julong_01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bak1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1589,8 +1658,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7D756641-FA44-4C98-8415-A8A9AF7B3072}" name="表1" displayName="表1" ref="C1:AB38" totalsRowShown="0" headerRowDxfId="30" dataDxfId="28" headerRowBorderDxfId="29" tableBorderDxfId="27" totalsRowBorderDxfId="26">
-  <autoFilter ref="C1:AB38" xr:uid="{8CC84E60-2DCE-4F71-9796-17451FB14116}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7D756641-FA44-4C98-8415-A8A9AF7B3072}" name="表1" displayName="表1" ref="C1:AB49" totalsRowShown="0" headerRowDxfId="30" dataDxfId="28" headerRowBorderDxfId="29" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+  <autoFilter ref="C1:AB49" xr:uid="{8CC84E60-2DCE-4F71-9796-17451FB14116}"/>
   <tableColumns count="26">
     <tableColumn id="1" xr3:uid="{B117A20D-488D-4BBE-9938-B9ED8BC64C7F}" name="效果ID" dataDxfId="25"/>
     <tableColumn id="24" xr3:uid="{92A314CE-7C79-4335-AE0F-C9FE3BC3E616}" name="备注" dataDxfId="24"/>
@@ -1886,13 +1955,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF44"/>
+  <dimension ref="A1:AF55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="6" topLeftCell="Q7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="6" topLeftCell="R21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="Y15" sqref="Y15"/>
+      <selection pane="bottomRight" activeCell="V35" sqref="V35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="14.25" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -1960,28 +2029,28 @@
         <v>7</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="P1" s="6" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="R1" s="6" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="S1" s="27" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="T1" s="27" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="U1" s="30" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="V1" s="8" t="s">
         <v>26</v>
@@ -1993,16 +2062,16 @@
         <v>16</v>
       </c>
       <c r="Y1" s="8" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="Z1" s="8" t="s">
         <v>12</v>
       </c>
       <c r="AA1" s="8" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="AB1" s="8" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:28" ht="99.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2012,22 +2081,22 @@
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="23" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F2" s="23" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G2" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="I2" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="H2" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="I2" s="23" t="s">
-        <v>52</v>
-      </c>
       <c r="J2" s="23" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>31</v>
@@ -2036,50 +2105,50 @@
         <v>14</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>111</v>
+        <v>139</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="S2" s="15" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="T2" s="15"/>
       <c r="U2" s="31" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="V2" s="19" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="W2" s="19" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="X2" s="19" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="Y2" s="19" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="Z2" s="19" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="AA2" s="19" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="AB2" s="33" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.2">
@@ -2091,22 +2160,22 @@
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="G3" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="H3" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="I3" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="J3" s="12" t="s">
         <v>56</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="J3" s="12" t="s">
-        <v>58</v>
       </c>
       <c r="K3" s="13" t="s">
         <v>29</v>
@@ -2118,10 +2187,10 @@
         <v>15</v>
       </c>
       <c r="N3" s="13" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="O3" s="13" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="P3" s="13"/>
       <c r="Q3" s="13"/>
@@ -2129,10 +2198,10 @@
       <c r="S3" s="13"/>
       <c r="T3" s="13"/>
       <c r="U3" s="14" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="V3" s="14" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="W3" s="14" t="s">
         <v>18</v>
@@ -2147,10 +2216,10 @@
         <v>20</v>
       </c>
       <c r="AA3" s="14" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="AB3" s="14" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:28" ht="57" x14ac:dyDescent="0.2">
@@ -2162,22 +2231,22 @@
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="G4" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="H4" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="F4" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="G4" s="24" t="s">
+      <c r="I4" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" s="24" t="s">
         <v>60</v>
-      </c>
-      <c r="H4" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="I4" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="J4" s="24" t="s">
-        <v>62</v>
       </c>
       <c r="K4" s="13" t="s">
         <v>30</v>
@@ -2189,29 +2258,29 @@
         <v>7</v>
       </c>
       <c r="N4" s="13" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="O4" s="13" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="P4" s="13" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="Q4" s="13" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="R4" s="13" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="S4" s="13" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="T4" s="13" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="U4" s="28"/>
       <c r="V4" s="14" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="W4" s="14" t="s">
         <v>22</v>
@@ -2226,10 +2295,10 @@
         <v>24</v>
       </c>
       <c r="AA4" s="14" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="AB4" s="34" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.2">
@@ -2272,22 +2341,22 @@
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>63</v>
+        <v>144</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J6" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K6" s="13" t="s">
         <v>10</v>
@@ -2299,10 +2368,10 @@
         <v>10</v>
       </c>
       <c r="N6" s="13" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="O6" s="13" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="P6" s="13"/>
       <c r="Q6" s="13"/>
@@ -2310,7 +2379,7 @@
       <c r="S6" s="13"/>
       <c r="T6" s="13"/>
       <c r="U6" s="13" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="V6" s="14" t="s">
         <v>10</v>
@@ -2328,10 +2397,10 @@
         <v>10</v>
       </c>
       <c r="AA6" s="14" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="AB6" s="32" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.2">
@@ -2339,19 +2408,19 @@
         <v>1001</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G7" s="3">
         <v>0.2</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I7" s="3">
         <v>0.2</v>
@@ -2454,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="U8" s="2" t="str">
-        <f t="shared" ref="U8:U37" si="0">P8&amp;","&amp;Q8&amp;","&amp;R8&amp;","&amp;S8&amp;","&amp;T8</f>
+        <f t="shared" ref="U8:U48" si="0">P8&amp;","&amp;Q8&amp;","&amp;R8&amp;","&amp;S8&amp;","&amp;T8</f>
         <v>2,200,0,0,0</v>
       </c>
       <c r="V8" s="2">
@@ -2607,19 +2676,19 @@
         <v>1005</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G11" s="2">
         <v>0.2</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I11" s="2">
         <v>0.2</v>
@@ -3069,7 +3138,7 @@
         <v>1013</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="E18" s="20"/>
       <c r="F18" s="3"/>
@@ -3254,23 +3323,23 @@
       <c r="AB20" s="4"/>
     </row>
     <row r="21" spans="3:28" x14ac:dyDescent="0.2">
-      <c r="C21" s="3">
+      <c r="C21" s="12">
         <v>100111</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E21" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G21" s="3">
         <v>0.2</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I21" s="3">
         <v>0.2</v>
@@ -3291,7 +3360,7 @@
         <v>0</v>
       </c>
       <c r="O21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P21" s="2">
         <v>1</v>
@@ -3330,14 +3399,16 @@
       <c r="AB21" s="4"/>
     </row>
     <row r="22" spans="3:28" x14ac:dyDescent="0.2">
-      <c r="C22" s="3">
+      <c r="C22" s="12">
         <v>100112</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>74</v>
+        <v>135</v>
       </c>
       <c r="E22" s="20"/>
-      <c r="F22" s="3"/>
+      <c r="F22" s="3" t="s">
+        <v>152</v>
+      </c>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
@@ -3394,11 +3465,11 @@
       <c r="AB22" s="4"/>
     </row>
     <row r="23" spans="3:28" x14ac:dyDescent="0.2">
-      <c r="C23" s="3">
+      <c r="C23" s="12">
         <v>100201</v>
       </c>
       <c r="D23" s="20" t="s">
-        <v>89</v>
+        <v>136</v>
       </c>
       <c r="E23" s="20"/>
       <c r="F23" s="3"/>
@@ -3409,16 +3480,16 @@
         <v>10000</v>
       </c>
       <c r="M23" s="2">
-        <v>101</v>
+        <v>501</v>
       </c>
       <c r="N23" s="2">
         <v>0</v>
       </c>
       <c r="O23" s="2">
-        <v>1</v>
+        <v>100201</v>
       </c>
       <c r="P23" s="2">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="Q23" s="2">
         <v>0</v>
@@ -3434,7 +3505,7 @@
       </c>
       <c r="U23" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>0.8,0,0,0,0</v>
+        <v>0,0,0,0,0</v>
       </c>
       <c r="V23" s="2">
         <v>0</v>
@@ -3454,28 +3525,27 @@
       <c r="AB23" s="4"/>
     </row>
     <row r="24" spans="3:28" x14ac:dyDescent="0.2">
-      <c r="C24" s="3">
-        <v>200111</v>
+      <c r="C24" s="12">
+        <v>100301</v>
       </c>
       <c r="D24" s="20" t="s">
-        <v>76</v>
+        <v>138</v>
       </c>
       <c r="E24" s="20" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="G24" s="3">
+        <v>69</v>
+      </c>
+      <c r="G24" s="2">
         <v>0.2</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="I24" s="3">
+      <c r="H24" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I24" s="2">
         <v>0.2</v>
       </c>
-      <c r="J24" s="3"/>
       <c r="K24" s="2">
         <v>0</v>
       </c>
@@ -3492,10 +3562,10 @@
         <v>1</v>
       </c>
       <c r="P24" s="2">
-        <v>0.4</v>
+        <v>2</v>
       </c>
       <c r="Q24" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R24" s="2">
         <v>0</v>
@@ -3508,7 +3578,7 @@
       </c>
       <c r="U24" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>0.4,100,0,0,0</v>
+        <v>2,0,0,0,0</v>
       </c>
       <c r="V24" s="2">
         <v>0</v>
@@ -3528,30 +3598,14 @@
       <c r="AB24" s="4"/>
     </row>
     <row r="25" spans="3:28" x14ac:dyDescent="0.2">
-      <c r="C25" s="3">
-        <v>200121</v>
+      <c r="C25" s="12">
+        <v>100302</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="E25" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="G25" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="I25" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="J25" s="3">
-        <v>1</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="E25" s="20"/>
+      <c r="F25" s="3"/>
       <c r="K25" s="2">
         <v>0</v>
       </c>
@@ -3559,22 +3613,22 @@
         <v>10000</v>
       </c>
       <c r="M25" s="2">
-        <v>101</v>
+        <v>601</v>
       </c>
       <c r="N25" s="2">
         <v>0</v>
       </c>
       <c r="O25" s="2">
+        <v>100302</v>
+      </c>
+      <c r="P25" s="2">
+        <v>45</v>
+      </c>
+      <c r="Q25" s="2">
         <v>1</v>
       </c>
-      <c r="P25" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="Q25" s="2">
-        <v>100</v>
-      </c>
       <c r="R25" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="S25" s="2">
         <v>0</v>
@@ -3584,7 +3638,7 @@
       </c>
       <c r="U25" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>0.6,100,0,0,0</v>
+        <v>45,1,6,0,0</v>
       </c>
       <c r="V25" s="2">
         <v>0</v>
@@ -3604,11 +3658,11 @@
       <c r="AB25" s="4"/>
     </row>
     <row r="26" spans="3:28" x14ac:dyDescent="0.2">
-      <c r="C26" s="3">
-        <v>200201</v>
+      <c r="C26" s="12">
+        <v>100401</v>
       </c>
       <c r="D26" s="20" t="s">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="E26" s="20"/>
       <c r="F26" s="3"/>
@@ -3628,7 +3682,7 @@
         <v>1</v>
       </c>
       <c r="P26" s="2">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="Q26" s="2">
         <v>0</v>
@@ -3644,7 +3698,7 @@
       </c>
       <c r="U26" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>0.9,0,0,0,0</v>
+        <v>1.5,0,0,0,0</v>
       </c>
       <c r="V26" s="2">
         <v>0</v>
@@ -3664,11 +3718,11 @@
       <c r="AB26" s="4"/>
     </row>
     <row r="27" spans="3:28" x14ac:dyDescent="0.2">
-      <c r="C27" s="3">
-        <v>200202</v>
+      <c r="C27" s="12">
+        <v>100402</v>
       </c>
       <c r="D27" s="20" t="s">
-        <v>90</v>
+        <v>141</v>
       </c>
       <c r="E27" s="20"/>
       <c r="F27" s="3"/>
@@ -3679,16 +3733,13 @@
         <v>10000</v>
       </c>
       <c r="M27" s="2">
-        <v>101</v>
+        <v>501</v>
       </c>
       <c r="N27" s="2">
         <v>0</v>
       </c>
-      <c r="O27" s="2">
-        <v>1</v>
-      </c>
       <c r="P27" s="2">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="Q27" s="2">
         <v>0</v>
@@ -3704,10 +3755,10 @@
       </c>
       <c r="U27" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>0.9,0,0,0,0</v>
+        <v>0,0,0,0,0</v>
       </c>
       <c r="V27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W27" s="2">
         <v>0</v>
@@ -3719,19 +3770,33 @@
         <v>0</v>
       </c>
       <c r="Z27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB27" s="4"/>
     </row>
     <row r="28" spans="3:28" x14ac:dyDescent="0.2">
-      <c r="C28" s="3">
-        <v>200203</v>
+      <c r="C28" s="12">
+        <v>200111</v>
       </c>
       <c r="D28" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="E28" s="20"/>
-      <c r="F28" s="3"/>
+        <v>145</v>
+      </c>
+      <c r="E28" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G28" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I28" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="J28" s="3"/>
       <c r="K28" s="2">
         <v>0</v>
       </c>
@@ -3745,13 +3810,13 @@
         <v>0</v>
       </c>
       <c r="O28" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P28" s="2">
-        <v>1.2</v>
+        <v>0.4</v>
       </c>
       <c r="Q28" s="2">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="R28" s="2">
         <v>0</v>
@@ -3764,7 +3829,7 @@
       </c>
       <c r="U28" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>1.2,0,0,0,0</v>
+        <v>0.4,80,0,0,0</v>
       </c>
       <c r="V28" s="2">
         <v>0</v>
@@ -3784,14 +3849,30 @@
       <c r="AB28" s="4"/>
     </row>
     <row r="29" spans="3:28" x14ac:dyDescent="0.2">
-      <c r="C29" s="3">
-        <v>200301</v>
+      <c r="C29" s="12">
+        <v>200121</v>
       </c>
       <c r="D29" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="E29" s="20"/>
-      <c r="F29" s="3"/>
+        <v>146</v>
+      </c>
+      <c r="E29" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="J29" s="3">
+        <v>1</v>
+      </c>
       <c r="K29" s="2">
         <v>0</v>
       </c>
@@ -3805,13 +3886,13 @@
         <v>0</v>
       </c>
       <c r="O29" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P29" s="2">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="Q29" s="2">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="R29" s="2">
         <v>0</v>
@@ -3824,7 +3905,7 @@
       </c>
       <c r="U29" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>0.8,0,0,0,0</v>
+        <v>0.6,120,0,0,0</v>
       </c>
       <c r="V29" s="2">
         <v>0</v>
@@ -3844,30 +3925,14 @@
       <c r="AB29" s="4"/>
     </row>
     <row r="30" spans="3:28" x14ac:dyDescent="0.2">
-      <c r="C30" s="3">
-        <v>300111</v>
+      <c r="C30" s="12">
+        <v>200201</v>
       </c>
       <c r="D30" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="E30" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="G30" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="I30" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="J30" s="3">
-        <v>1</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="E30" s="20"/>
+      <c r="F30" s="3"/>
       <c r="K30" s="2">
         <v>0</v>
       </c>
@@ -3881,13 +3946,13 @@
         <v>0</v>
       </c>
       <c r="O30" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P30" s="2">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="Q30" s="2">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="R30" s="2">
         <v>0</v>
@@ -3900,7 +3965,7 @@
       </c>
       <c r="U30" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>1,200,0,0,0</v>
+        <v>0.9,0,0,0,0</v>
       </c>
       <c r="V30" s="2">
         <v>0</v>
@@ -3920,11 +3985,11 @@
       <c r="AB30" s="4"/>
     </row>
     <row r="31" spans="3:28" x14ac:dyDescent="0.2">
-      <c r="C31" s="3">
-        <v>300201</v>
+      <c r="C31" s="12">
+        <v>200202</v>
       </c>
       <c r="D31" s="20" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="E31" s="20"/>
       <c r="F31" s="3"/>
@@ -3941,10 +4006,10 @@
         <v>0</v>
       </c>
       <c r="O31" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P31" s="2">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="Q31" s="2">
         <v>0</v>
@@ -3960,7 +4025,7 @@
       </c>
       <c r="U31" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>1,0,0,0,0</v>
+        <v>0.9,0,0,0,0</v>
       </c>
       <c r="V31" s="2">
         <v>0</v>
@@ -3980,28 +4045,14 @@
       <c r="AB31" s="4"/>
     </row>
     <row r="32" spans="3:28" x14ac:dyDescent="0.2">
-      <c r="C32" s="3">
-        <v>400111</v>
+      <c r="C32" s="12">
+        <v>200203</v>
       </c>
       <c r="D32" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="E32" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="G32" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="I32" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="J32" s="3"/>
+        <v>85</v>
+      </c>
+      <c r="E32" s="20"/>
+      <c r="F32" s="3"/>
       <c r="K32" s="2">
         <v>0</v>
       </c>
@@ -4015,13 +4066,13 @@
         <v>0</v>
       </c>
       <c r="O32" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P32" s="2">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="Q32" s="2">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="R32" s="2">
         <v>0</v>
@@ -4034,7 +4085,7 @@
       </c>
       <c r="U32" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>1,200,0,0,0</v>
+        <v>1.2,0,0,0,0</v>
       </c>
       <c r="V32" s="2">
         <v>0</v>
@@ -4053,31 +4104,15 @@
       </c>
       <c r="AB32" s="4"/>
     </row>
-    <row r="33" spans="3:32" x14ac:dyDescent="0.2">
-      <c r="C33" s="3">
-        <v>500111</v>
+    <row r="33" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="C33" s="12">
+        <v>200301</v>
       </c>
       <c r="D33" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="E33" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="G33" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="I33" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="J33" s="3">
-        <v>1</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="E33" s="20"/>
+      <c r="F33" s="3"/>
       <c r="K33" s="2">
         <v>0</v>
       </c>
@@ -4091,13 +4126,13 @@
         <v>0</v>
       </c>
       <c r="O33" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P33" s="2">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="Q33" s="2">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="R33" s="2">
         <v>0</v>
@@ -4110,7 +4145,7 @@
       </c>
       <c r="U33" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>1,200,0,0,0</v>
+        <v>0.8,0,0,0,0</v>
       </c>
       <c r="V33" s="2">
         <v>0</v>
@@ -4129,31 +4164,15 @@
       </c>
       <c r="AB33" s="4"/>
     </row>
-    <row r="34" spans="3:32" x14ac:dyDescent="0.2">
-      <c r="C34" s="3">
-        <v>600111</v>
+    <row r="34" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="C34" s="12">
+        <v>200302</v>
       </c>
       <c r="D34" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="E34" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="G34" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="H34" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="I34" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="J34" s="3">
-        <v>1</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="E34" s="20"/>
+      <c r="F34" s="3"/>
       <c r="K34" s="2">
         <v>0</v>
       </c>
@@ -4161,19 +4180,19 @@
         <v>10000</v>
       </c>
       <c r="M34" s="2">
-        <v>101</v>
+        <v>501</v>
       </c>
       <c r="N34" s="2">
         <v>0</v>
       </c>
       <c r="O34" s="2">
-        <v>1</v>
+        <v>200302</v>
       </c>
       <c r="P34" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q34" s="2">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="R34" s="2">
         <v>0</v>
@@ -4186,10 +4205,10 @@
       </c>
       <c r="U34" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>1,200,0,0,0</v>
+        <v>0,0,0,0,0</v>
       </c>
       <c r="V34" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W34" s="2">
         <v>0</v>
@@ -4201,34 +4220,31 @@
         <v>0</v>
       </c>
       <c r="Z34" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB34" s="4"/>
     </row>
-    <row r="35" spans="3:32" x14ac:dyDescent="0.2">
-      <c r="C35" s="3">
-        <v>800111</v>
+    <row r="35" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="C35" s="12">
+        <v>2003021</v>
       </c>
       <c r="D35" s="20" t="s">
-        <v>83</v>
+        <v>148</v>
       </c>
       <c r="E35" s="20" t="s">
-        <v>85</v>
+        <v>149</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="G35" s="3">
+        <v>69</v>
+      </c>
+      <c r="G35" s="2">
         <v>0.2</v>
       </c>
-      <c r="H35" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="I35" s="3">
+      <c r="H35" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I35" s="2">
         <v>0.2</v>
-      </c>
-      <c r="J35" s="3">
-        <v>1</v>
       </c>
       <c r="K35" s="2">
         <v>0</v>
@@ -4243,10 +4259,10 @@
         <v>0</v>
       </c>
       <c r="O35" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P35" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q35" s="2">
         <v>200</v>
@@ -4262,55 +4278,51 @@
       </c>
       <c r="U35" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>1,200,0,0,0</v>
+        <v>2,200,0,0,0</v>
       </c>
       <c r="V35" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W35" s="2">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="X35" s="2">
         <v>0</v>
       </c>
       <c r="Y35" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z35" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AB35" s="4"/>
     </row>
-    <row r="36" spans="3:32" x14ac:dyDescent="0.2">
-      <c r="C36" s="3">
-        <v>800112</v>
+    <row r="36" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="C36" s="12">
+        <v>200501</v>
       </c>
       <c r="D36" s="20" t="s">
-        <v>84</v>
+        <v>150</v>
       </c>
       <c r="E36" s="20"/>
       <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
       <c r="K36" s="2">
         <v>0</v>
       </c>
       <c r="L36" s="2">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="M36" s="2">
-        <v>311</v>
+        <v>101</v>
       </c>
       <c r="N36" s="2">
         <v>0</v>
       </c>
       <c r="O36" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P36" s="2">
-        <v>0.35</v>
+        <v>1.5</v>
       </c>
       <c r="Q36" s="2">
         <v>0</v>
@@ -4326,7 +4338,7 @@
       </c>
       <c r="U36" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>0.35,0,0,0,0</v>
+        <v>1.5,0,0,0,0</v>
       </c>
       <c r="V36" s="2">
         <v>0</v>
@@ -4345,31 +4357,15 @@
       </c>
       <c r="AB36" s="4"/>
     </row>
-    <row r="37" spans="3:32" x14ac:dyDescent="0.2">
-      <c r="C37" s="3">
-        <v>900111</v>
+    <row r="37" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="C37" s="12">
+        <v>200502</v>
       </c>
       <c r="D37" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="E37" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="G37" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="H37" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="I37" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="J37" s="3">
-        <v>1</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="E37" s="20"/>
+      <c r="F37" s="3"/>
       <c r="K37" s="2">
         <v>0</v>
       </c>
@@ -4377,19 +4373,19 @@
         <v>10000</v>
       </c>
       <c r="M37" s="2">
-        <v>101</v>
+        <v>501</v>
       </c>
       <c r="N37" s="2">
         <v>0</v>
       </c>
       <c r="O37" s="2">
-        <v>1</v>
+        <v>200502</v>
       </c>
       <c r="P37" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q37" s="2">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="R37" s="2">
         <v>0</v>
@@ -4402,122 +4398,908 @@
       </c>
       <c r="U37" s="2" t="str">
         <f t="shared" si="0"/>
+        <v>0,0,0,0,0</v>
+      </c>
+      <c r="V37" s="2">
+        <v>0</v>
+      </c>
+      <c r="W37" s="2">
+        <v>0</v>
+      </c>
+      <c r="X37" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y37" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z37" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB37" s="4"/>
+    </row>
+    <row r="38" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="C38" s="12">
+        <v>300101</v>
+      </c>
+      <c r="D38" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="E38" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G38" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I38" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="J38" s="2">
+        <v>1</v>
+      </c>
+      <c r="K38" s="2">
+        <v>0</v>
+      </c>
+      <c r="L38" s="2">
+        <v>10000</v>
+      </c>
+      <c r="M38" s="2">
+        <v>101</v>
+      </c>
+      <c r="N38" s="2">
+        <v>0</v>
+      </c>
+      <c r="O38" s="2">
+        <v>0</v>
+      </c>
+      <c r="P38" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q38" s="2">
+        <v>200</v>
+      </c>
+      <c r="R38" s="2">
+        <v>0</v>
+      </c>
+      <c r="S38" s="2">
+        <v>0</v>
+      </c>
+      <c r="T38" s="2">
+        <v>0</v>
+      </c>
+      <c r="U38" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="V38" s="2">
+        <v>0</v>
+      </c>
+      <c r="W38" s="2">
+        <v>0</v>
+      </c>
+      <c r="X38" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y38" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z38" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB38" s="4"/>
+    </row>
+    <row r="39" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="C39" s="3">
+        <v>300111</v>
+      </c>
+      <c r="D39" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="E39" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G39" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I39" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="J39" s="3">
+        <v>1</v>
+      </c>
+      <c r="K39" s="2">
+        <v>0</v>
+      </c>
+      <c r="L39" s="2">
+        <v>10000</v>
+      </c>
+      <c r="M39" s="2">
+        <v>101</v>
+      </c>
+      <c r="N39" s="2">
+        <v>0</v>
+      </c>
+      <c r="O39" s="2">
+        <v>0</v>
+      </c>
+      <c r="P39" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q39" s="2">
+        <v>200</v>
+      </c>
+      <c r="R39" s="2">
+        <v>0</v>
+      </c>
+      <c r="S39" s="2">
+        <v>0</v>
+      </c>
+      <c r="T39" s="2">
+        <v>0</v>
+      </c>
+      <c r="U39" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>1,200,0,0,0</v>
       </c>
-      <c r="V37" s="2">
-        <v>0</v>
-      </c>
-      <c r="W37" s="2">
-        <v>0</v>
-      </c>
-      <c r="X37" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y37" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z37" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB37" s="4"/>
-    </row>
-    <row r="38" spans="3:32" x14ac:dyDescent="0.2">
-      <c r="C38" s="3"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
-      <c r="AB38" s="4"/>
-    </row>
-    <row r="39" spans="3:32" x14ac:dyDescent="0.2">
-      <c r="C39" s="3"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="20"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
-      <c r="AF39" s="4"/>
-    </row>
-    <row r="40" spans="3:32" x14ac:dyDescent="0.2">
-      <c r="C40" s="3"/>
-      <c r="D40" s="20"/>
+      <c r="V39" s="2">
+        <v>0</v>
+      </c>
+      <c r="W39" s="2">
+        <v>0</v>
+      </c>
+      <c r="X39" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y39" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z39" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB39" s="4"/>
+    </row>
+    <row r="40" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="C40" s="12">
+        <v>300201</v>
+      </c>
+      <c r="D40" s="20" t="s">
+        <v>155</v>
+      </c>
       <c r="E40" s="20"/>
       <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
-      <c r="J40" s="3"/>
-      <c r="AF40" s="4"/>
-    </row>
-    <row r="41" spans="3:32" x14ac:dyDescent="0.2">
-      <c r="C41" s="3"/>
-      <c r="D41" s="20"/>
+      <c r="K40" s="2">
+        <v>0</v>
+      </c>
+      <c r="L40" s="2">
+        <v>10000</v>
+      </c>
+      <c r="M40" s="2">
+        <v>101</v>
+      </c>
+      <c r="N40" s="2">
+        <v>0</v>
+      </c>
+      <c r="O40" s="2">
+        <v>7</v>
+      </c>
+      <c r="P40" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="Q40" s="2">
+        <v>0</v>
+      </c>
+      <c r="R40" s="2">
+        <v>0</v>
+      </c>
+      <c r="S40" s="2">
+        <v>0</v>
+      </c>
+      <c r="T40" s="2">
+        <v>0</v>
+      </c>
+      <c r="U40" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0.8,0,0,0,0</v>
+      </c>
+      <c r="V40" s="2">
+        <v>0</v>
+      </c>
+      <c r="W40" s="2">
+        <v>0</v>
+      </c>
+      <c r="X40" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y40" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z40" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB40" s="4"/>
+    </row>
+    <row r="41" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="C41" s="12">
+        <v>300301</v>
+      </c>
+      <c r="D41" s="20" t="s">
+        <v>156</v>
+      </c>
       <c r="E41" s="20"/>
       <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
-      <c r="J41" s="3"/>
-      <c r="AF41" s="4"/>
-    </row>
-    <row r="42" spans="3:32" x14ac:dyDescent="0.2">
-      <c r="C42" s="3"/>
-      <c r="D42" s="20"/>
-      <c r="E42" s="20"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
-      <c r="I42" s="3"/>
-      <c r="J42" s="3"/>
-      <c r="AF42" s="4"/>
-    </row>
-    <row r="43" spans="3:32" x14ac:dyDescent="0.2">
-      <c r="C43" s="3"/>
-      <c r="D43" s="20"/>
-      <c r="E43" s="20"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
-      <c r="I43" s="3"/>
+      <c r="K41" s="2">
+        <v>0</v>
+      </c>
+      <c r="L41" s="2">
+        <v>10000</v>
+      </c>
+      <c r="M41" s="2">
+        <v>101</v>
+      </c>
+      <c r="N41" s="2">
+        <v>0</v>
+      </c>
+      <c r="O41" s="2">
+        <v>7</v>
+      </c>
+      <c r="P41" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="Q41" s="2">
+        <v>0</v>
+      </c>
+      <c r="R41" s="2">
+        <v>0</v>
+      </c>
+      <c r="S41" s="2">
+        <v>0</v>
+      </c>
+      <c r="T41" s="2">
+        <v>0</v>
+      </c>
+      <c r="U41" s="2" t="str">
+        <f t="shared" ref="U41:U42" si="1">P41&amp;","&amp;Q41&amp;","&amp;R41&amp;","&amp;S41&amp;","&amp;T41</f>
+        <v>1.5,0,0,0,0</v>
+      </c>
+      <c r="V41" s="2">
+        <v>0</v>
+      </c>
+      <c r="W41" s="2">
+        <v>0</v>
+      </c>
+      <c r="X41" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z41" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB41" s="4"/>
+    </row>
+    <row r="42" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="C42" s="12">
+        <v>300302</v>
+      </c>
+      <c r="D42" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="E42" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="G42" s="3">
+        <v>5</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="I42" s="3">
+        <v>5</v>
+      </c>
+      <c r="K42" s="2">
+        <v>0</v>
+      </c>
+      <c r="L42" s="2">
+        <v>10000</v>
+      </c>
+      <c r="M42" s="2">
+        <v>401</v>
+      </c>
+      <c r="N42" s="2">
+        <v>0</v>
+      </c>
+      <c r="O42" s="2">
+        <v>0</v>
+      </c>
+      <c r="P42" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="2">
+        <v>0</v>
+      </c>
+      <c r="R42" s="2">
+        <v>0</v>
+      </c>
+      <c r="S42" s="2">
+        <v>0</v>
+      </c>
+      <c r="T42" s="2">
+        <v>0</v>
+      </c>
+      <c r="U42" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>0,0,0,0,0</v>
+      </c>
+      <c r="V42" s="2">
+        <v>0</v>
+      </c>
+      <c r="W42" s="2">
+        <v>0</v>
+      </c>
+      <c r="X42" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB42" s="4"/>
+    </row>
+    <row r="43" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="C43" s="3">
+        <v>400111</v>
+      </c>
+      <c r="D43" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="E43" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G43" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I43" s="3">
+        <v>0.2</v>
+      </c>
       <c r="J43" s="3"/>
-      <c r="AF43" s="4"/>
-    </row>
-    <row r="44" spans="3:32" x14ac:dyDescent="0.2">
-      <c r="C44" s="9"/>
-      <c r="D44" s="21"/>
-      <c r="E44" s="21"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="9"/>
-      <c r="H44" s="9"/>
-      <c r="I44" s="9"/>
-      <c r="J44" s="9"/>
-      <c r="K44" s="10"/>
-      <c r="L44" s="10"/>
-      <c r="M44" s="10"/>
-      <c r="N44" s="10"/>
-      <c r="O44" s="10"/>
-      <c r="P44" s="10"/>
-      <c r="Q44" s="10"/>
-      <c r="R44" s="10"/>
-      <c r="S44" s="10"/>
-      <c r="T44" s="10"/>
-      <c r="U44" s="10"/>
-      <c r="V44" s="10"/>
-      <c r="W44" s="10"/>
-      <c r="X44" s="10"/>
-      <c r="Y44" s="10"/>
-      <c r="Z44" s="10"/>
-      <c r="AA44" s="10"/>
-      <c r="AB44" s="10"/>
-      <c r="AC44" s="10"/>
-      <c r="AD44" s="10"/>
-      <c r="AE44" s="10"/>
-      <c r="AF44" s="11"/>
+      <c r="K43" s="2">
+        <v>0</v>
+      </c>
+      <c r="L43" s="2">
+        <v>10000</v>
+      </c>
+      <c r="M43" s="2">
+        <v>101</v>
+      </c>
+      <c r="N43" s="2">
+        <v>0</v>
+      </c>
+      <c r="O43" s="2">
+        <v>0</v>
+      </c>
+      <c r="P43" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q43" s="2">
+        <v>200</v>
+      </c>
+      <c r="R43" s="2">
+        <v>0</v>
+      </c>
+      <c r="S43" s="2">
+        <v>0</v>
+      </c>
+      <c r="T43" s="2">
+        <v>0</v>
+      </c>
+      <c r="U43" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>1,200,0,0,0</v>
+      </c>
+      <c r="V43" s="2">
+        <v>0</v>
+      </c>
+      <c r="W43" s="2">
+        <v>0</v>
+      </c>
+      <c r="X43" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z43" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB43" s="4"/>
+    </row>
+    <row r="44" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="C44" s="3">
+        <v>500111</v>
+      </c>
+      <c r="D44" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="E44" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G44" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I44" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="J44" s="3">
+        <v>1</v>
+      </c>
+      <c r="K44" s="2">
+        <v>0</v>
+      </c>
+      <c r="L44" s="2">
+        <v>10000</v>
+      </c>
+      <c r="M44" s="2">
+        <v>101</v>
+      </c>
+      <c r="N44" s="2">
+        <v>0</v>
+      </c>
+      <c r="O44" s="2">
+        <v>0</v>
+      </c>
+      <c r="P44" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q44" s="2">
+        <v>200</v>
+      </c>
+      <c r="R44" s="2">
+        <v>0</v>
+      </c>
+      <c r="S44" s="2">
+        <v>0</v>
+      </c>
+      <c r="T44" s="2">
+        <v>0</v>
+      </c>
+      <c r="U44" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>1,200,0,0,0</v>
+      </c>
+      <c r="V44" s="2">
+        <v>0</v>
+      </c>
+      <c r="W44" s="2">
+        <v>0</v>
+      </c>
+      <c r="X44" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z44" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB44" s="4"/>
+    </row>
+    <row r="45" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="C45" s="3">
+        <v>600111</v>
+      </c>
+      <c r="D45" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="E45" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G45" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I45" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="J45" s="3">
+        <v>1</v>
+      </c>
+      <c r="K45" s="2">
+        <v>0</v>
+      </c>
+      <c r="L45" s="2">
+        <v>10000</v>
+      </c>
+      <c r="M45" s="2">
+        <v>101</v>
+      </c>
+      <c r="N45" s="2">
+        <v>0</v>
+      </c>
+      <c r="O45" s="2">
+        <v>0</v>
+      </c>
+      <c r="P45" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q45" s="2">
+        <v>200</v>
+      </c>
+      <c r="R45" s="2">
+        <v>0</v>
+      </c>
+      <c r="S45" s="2">
+        <v>0</v>
+      </c>
+      <c r="T45" s="2">
+        <v>0</v>
+      </c>
+      <c r="U45" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>1,200,0,0,0</v>
+      </c>
+      <c r="V45" s="2">
+        <v>0</v>
+      </c>
+      <c r="W45" s="2">
+        <v>0</v>
+      </c>
+      <c r="X45" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y45" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z45" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB45" s="4"/>
+    </row>
+    <row r="46" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="C46" s="3">
+        <v>800111</v>
+      </c>
+      <c r="D46" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="E46" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G46" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I46" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="J46" s="3">
+        <v>1</v>
+      </c>
+      <c r="K46" s="2">
+        <v>0</v>
+      </c>
+      <c r="L46" s="2">
+        <v>10000</v>
+      </c>
+      <c r="M46" s="2">
+        <v>101</v>
+      </c>
+      <c r="N46" s="2">
+        <v>0</v>
+      </c>
+      <c r="O46" s="2">
+        <v>0</v>
+      </c>
+      <c r="P46" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q46" s="2">
+        <v>200</v>
+      </c>
+      <c r="R46" s="2">
+        <v>0</v>
+      </c>
+      <c r="S46" s="2">
+        <v>0</v>
+      </c>
+      <c r="T46" s="2">
+        <v>0</v>
+      </c>
+      <c r="U46" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>1,200,0,0,0</v>
+      </c>
+      <c r="V46" s="2">
+        <v>0</v>
+      </c>
+      <c r="W46" s="2">
+        <v>0</v>
+      </c>
+      <c r="X46" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y46" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z46" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB46" s="4"/>
+    </row>
+    <row r="47" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="C47" s="3">
+        <v>800112</v>
+      </c>
+      <c r="D47" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="E47" s="20"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3"/>
+      <c r="K47" s="2">
+        <v>0</v>
+      </c>
+      <c r="L47" s="2">
+        <v>5000</v>
+      </c>
+      <c r="M47" s="2">
+        <v>311</v>
+      </c>
+      <c r="N47" s="2">
+        <v>0</v>
+      </c>
+      <c r="O47" s="2">
+        <v>0</v>
+      </c>
+      <c r="P47" s="2">
+        <v>0.35</v>
+      </c>
+      <c r="Q47" s="2">
+        <v>0</v>
+      </c>
+      <c r="R47" s="2">
+        <v>0</v>
+      </c>
+      <c r="S47" s="2">
+        <v>0</v>
+      </c>
+      <c r="T47" s="2">
+        <v>0</v>
+      </c>
+      <c r="U47" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0.35,0,0,0,0</v>
+      </c>
+      <c r="V47" s="2">
+        <v>0</v>
+      </c>
+      <c r="W47" s="2">
+        <v>0</v>
+      </c>
+      <c r="X47" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y47" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z47" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB47" s="4"/>
+    </row>
+    <row r="48" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="C48" s="3">
+        <v>900111</v>
+      </c>
+      <c r="D48" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="E48" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G48" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I48" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="J48" s="3">
+        <v>1</v>
+      </c>
+      <c r="K48" s="2">
+        <v>0</v>
+      </c>
+      <c r="L48" s="2">
+        <v>10000</v>
+      </c>
+      <c r="M48" s="2">
+        <v>101</v>
+      </c>
+      <c r="N48" s="2">
+        <v>0</v>
+      </c>
+      <c r="O48" s="2">
+        <v>0</v>
+      </c>
+      <c r="P48" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q48" s="2">
+        <v>200</v>
+      </c>
+      <c r="R48" s="2">
+        <v>0</v>
+      </c>
+      <c r="S48" s="2">
+        <v>0</v>
+      </c>
+      <c r="T48" s="2">
+        <v>0</v>
+      </c>
+      <c r="U48" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>1,200,0,0,0</v>
+      </c>
+      <c r="V48" s="2">
+        <v>0</v>
+      </c>
+      <c r="W48" s="2">
+        <v>0</v>
+      </c>
+      <c r="X48" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y48" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z48" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB48" s="4"/>
+    </row>
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="C49" s="3"/>
+      <c r="D49" s="20"/>
+      <c r="E49" s="20"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
+      <c r="AB49" s="4"/>
+    </row>
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="C50" s="3"/>
+      <c r="D50" s="20"/>
+      <c r="E50" s="20"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3"/>
+      <c r="AF50" s="4"/>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="C51" s="3"/>
+      <c r="D51" s="20"/>
+      <c r="E51" s="20"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3"/>
+      <c r="I51" s="3"/>
+      <c r="J51" s="3"/>
+      <c r="AF51" s="4"/>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="C52" s="3"/>
+      <c r="D52" s="20"/>
+      <c r="E52" s="20"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
+      <c r="I52" s="3"/>
+      <c r="J52" s="3"/>
+      <c r="AF52" s="4"/>
+    </row>
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="C53" s="3"/>
+      <c r="D53" s="20"/>
+      <c r="E53" s="20"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3"/>
+      <c r="I53" s="3"/>
+      <c r="J53" s="3"/>
+      <c r="AF53" s="4"/>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="C54" s="3"/>
+      <c r="D54" s="20"/>
+      <c r="E54" s="20"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3"/>
+      <c r="I54" s="3"/>
+      <c r="J54" s="3"/>
+      <c r="AF54" s="4"/>
+    </row>
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="C55" s="9"/>
+      <c r="D55" s="21"/>
+      <c r="E55" s="21"/>
+      <c r="F55" s="9"/>
+      <c r="G55" s="9"/>
+      <c r="H55" s="9"/>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="10"/>
+      <c r="L55" s="10"/>
+      <c r="M55" s="10"/>
+      <c r="N55" s="10"/>
+      <c r="O55" s="10"/>
+      <c r="P55" s="10"/>
+      <c r="Q55" s="10"/>
+      <c r="R55" s="10"/>
+      <c r="S55" s="10"/>
+      <c r="T55" s="10"/>
+      <c r="U55" s="10"/>
+      <c r="V55" s="10"/>
+      <c r="W55" s="10"/>
+      <c r="X55" s="10"/>
+      <c r="Y55" s="10"/>
+      <c r="Z55" s="10"/>
+      <c r="AA55" s="10"/>
+      <c r="AB55" s="10"/>
+      <c r="AC55" s="10"/>
+      <c r="AD55" s="10"/>
+      <c r="AE55" s="10"/>
+      <c r="AF55" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/config/excel/SkillEffect.xlsx
+++ b/config/excel/SkillEffect.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EastEden\excel\trunk\global\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87F1C2C6-5D9A-4A59-B125-78A5CD3CEC2A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{545A49B0-16D7-455D-AF68-7E301BE58255}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="174">
   <si>
     <t>行列头两行不会被读取</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -275,15 +275,6 @@
   </si>
   <si>
     <t>被击插槽ID</t>
-  </si>
-  <si>
-    <t>被击停帧</t>
-  </si>
-  <si>
-    <t>受伤被击动作</t>
-  </si>
-  <si>
-    <t>受伤状态持续时间</t>
   </si>
   <si>
     <t>受伤击退距离</t>
@@ -395,9 +386,6 @@
   </si>
   <si>
     <t>Fx_luoji_atk_hit</t>
-  </si>
-  <si>
-    <t>史莱姆-普攻</t>
   </si>
   <si>
     <r>
@@ -709,9 +697,157 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>瓦尔基里-奥义-【再生】buff</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hitFxSlot</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>受击特效插槽</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>男主-造成40%+80伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>男主-造成60%+120伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>男主-技能2-烈焰光环</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>男主-烈焰光环伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fx_buff_guanghuan_hurt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>男主-奥义临时-【破甲】</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,200,0,0,0</t>
+  </si>
+  <si>
+    <t>梅林-普攻造成100%+200伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>梅林-造成80%伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>梅林-造成150%伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>男主-奥义临时-造成120%伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>瓦尔基里-临时奥义-每段造成120%伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>梅林-奥义临时-造成360%伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>史莱姆-普攻</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>洛基-造成240%伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>洛基-造成击杀时，提升自身COM条35%进度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>洛基-选定友军单体，COM提升50%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>洛基-临时奥义对直线目标造成360%伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>洛基-临时奥义，自身获得加速buff</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fx_act_effect_latiao</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fx_act_effect_datui</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>被击停帧
+仅普攻</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>受伤被击动作
+仅普攻</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>受伤状态持续时间
+仅普攻</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>瓦尔基里-石柱每3秒产生1次伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bak1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>梅林-将目标聚拢-若需要表演配置到字符串参数上</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>瓦尔基里-每5秒回复一次3%生命上限</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fx_act_effect_huifu</t>
+  </si>
+  <si>
+    <t>hit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>101-伤害
-201-治疗根据施法者
-202-治疗根据目标
+201-治疗
 301-打断
 311-打退
 321-拉条
@@ -721,82 +857,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>瓦尔基里-临时奥义-每段造成150%伤害</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>瓦尔基里-奥义-【再生】buff</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>hitFxSlot</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>受击特效插槽</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>男主-造成40%+80伤害</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>男主-造成60%+120伤害</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>男主-技能2-烈焰光环</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>男主-烈焰光环伤害</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fx_buff_guanghuan_hurt</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>男主-奥义临时-造成150%伤害</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>男主-奥义临时-【破甲】</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>hit</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,200,0,0,0</t>
-  </si>
-  <si>
-    <t>梅林-普攻造成100%+200伤害</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>梅林-造成80%伤害</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>梅林-造成150%伤害</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>梅林-将目标聚拢</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fx_act_effect_julong_01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>bak1</t>
+    <t>1,3</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1019,7 +1080,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1123,6 +1184,15 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1658,16 +1728,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7D756641-FA44-4C98-8415-A8A9AF7B3072}" name="表1" displayName="表1" ref="C1:AB49" totalsRowShown="0" headerRowDxfId="30" dataDxfId="28" headerRowBorderDxfId="29" tableBorderDxfId="27" totalsRowBorderDxfId="26">
-  <autoFilter ref="C1:AB49" xr:uid="{8CC84E60-2DCE-4F71-9796-17451FB14116}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7D756641-FA44-4C98-8415-A8A9AF7B3072}" name="表1" displayName="表1" ref="C1:AB57" totalsRowShown="0" headerRowDxfId="30" dataDxfId="28" headerRowBorderDxfId="29" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+  <autoFilter ref="C1:AB57" xr:uid="{8CC84E60-2DCE-4F71-9796-17451FB14116}"/>
   <tableColumns count="26">
     <tableColumn id="1" xr3:uid="{B117A20D-488D-4BBE-9938-B9ED8BC64C7F}" name="效果ID" dataDxfId="25"/>
     <tableColumn id="24" xr3:uid="{92A314CE-7C79-4335-AE0F-C9FE3BC3E616}" name="备注" dataDxfId="24"/>
     <tableColumn id="27" xr3:uid="{4E6B823F-ED87-44FA-BC7E-DD0D3DA9A874}" name="被击特效" dataDxfId="23"/>
     <tableColumn id="28" xr3:uid="{D63A8DD5-C7D8-45FF-9168-E24BB73D8D0A}" name="被击插槽ID" dataDxfId="22"/>
-    <tableColumn id="30" xr3:uid="{1297421F-FF12-438C-935D-1AC9E4808D57}" name="被击停帧" dataDxfId="21"/>
-    <tableColumn id="31" xr3:uid="{E7D77817-54E1-4457-BAF0-110C08D2391F}" name="受伤被击动作" dataDxfId="20"/>
-    <tableColumn id="32" xr3:uid="{D94B756E-3130-40BB-8956-BFC62C751F3A}" name="受伤状态持续时间" dataDxfId="19"/>
+    <tableColumn id="30" xr3:uid="{1297421F-FF12-438C-935D-1AC9E4808D57}" name="被击停帧_x000a_仅普攻" dataDxfId="21"/>
+    <tableColumn id="31" xr3:uid="{E7D77817-54E1-4457-BAF0-110C08D2391F}" name="受伤被击动作_x000a_仅普攻" dataDxfId="20"/>
+    <tableColumn id="32" xr3:uid="{D94B756E-3130-40BB-8956-BFC62C751F3A}" name="受伤状态持续时间_x000a_仅普攻" dataDxfId="19"/>
     <tableColumn id="33" xr3:uid="{39EDA7F4-741B-4F88-9EF2-5A0E93E8B1CC}" name="受伤击退距离" dataDxfId="18"/>
     <tableColumn id="20" xr3:uid="{0D040897-96A3-4655-AF1A-867F46D315D6}" name="是否判定_x000a_效果命中" dataDxfId="17"/>
     <tableColumn id="3" xr3:uid="{9E34CFDB-9FDC-4344-99F0-5F3D0E7E5723}" name="触发概率" dataDxfId="16"/>
@@ -1955,13 +2025,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF55"/>
+  <dimension ref="A1:AF63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="6" topLeftCell="R21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="6" topLeftCell="E18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="V35" sqref="V35"/>
+      <selection pane="bottomRight" activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="14.25" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -2007,17 +2077,17 @@
       <c r="F1" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="36" t="s">
+        <v>161</v>
+      </c>
+      <c r="H1" s="37" t="s">
+        <v>162</v>
+      </c>
+      <c r="I1" s="37" t="s">
+        <v>163</v>
+      </c>
+      <c r="J1" s="26" t="s">
         <v>46</v>
-      </c>
-      <c r="H1" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="I1" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="J1" s="26" t="s">
-        <v>49</v>
       </c>
       <c r="K1" s="17" t="s">
         <v>28</v>
@@ -2029,28 +2099,28 @@
         <v>7</v>
       </c>
       <c r="N1" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="O1" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="P1" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="S1" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="T1" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="U1" s="30" t="s">
         <v>107</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q1" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="R1" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="S1" s="27" t="s">
-        <v>101</v>
-      </c>
-      <c r="T1" s="27" t="s">
-        <v>102</v>
-      </c>
-      <c r="U1" s="30" t="s">
-        <v>111</v>
       </c>
       <c r="V1" s="8" t="s">
         <v>26</v>
@@ -2062,16 +2132,16 @@
         <v>16</v>
       </c>
       <c r="Y1" s="8" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="Z1" s="8" t="s">
         <v>12</v>
       </c>
       <c r="AA1" s="8" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="AB1" s="8" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:28" ht="99.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2081,22 +2151,22 @@
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="23" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F2" s="23" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G2" s="23" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H2" s="23" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="I2" s="23" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J2" s="23" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>31</v>
@@ -2105,50 +2175,50 @@
         <v>14</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>139</v>
+        <v>172</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="O2" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="S2" s="15" t="s">
         <v>120</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="S2" s="15" t="s">
-        <v>124</v>
       </c>
       <c r="T2" s="15"/>
       <c r="U2" s="31" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="V2" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="W2" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="X2" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y2" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="W2" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="X2" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="Y2" s="19" t="s">
-        <v>97</v>
-      </c>
       <c r="Z2" s="19" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="AA2" s="19" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="AB2" s="33" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.2">
@@ -2160,22 +2230,22 @@
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="I3" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="G3" s="12" t="s">
+      <c r="J3" s="12" t="s">
         <v>53</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="J3" s="12" t="s">
-        <v>56</v>
       </c>
       <c r="K3" s="13" t="s">
         <v>29</v>
@@ -2187,10 +2257,10 @@
         <v>15</v>
       </c>
       <c r="N3" s="13" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="O3" s="13" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="P3" s="13"/>
       <c r="Q3" s="13"/>
@@ -2198,10 +2268,10 @@
       <c r="S3" s="13"/>
       <c r="T3" s="13"/>
       <c r="U3" s="14" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="V3" s="14" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="W3" s="14" t="s">
         <v>18</v>
@@ -2216,10 +2286,10 @@
         <v>20</v>
       </c>
       <c r="AA3" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="AB3" s="14" t="s">
         <v>128</v>
-      </c>
-      <c r="AB3" s="14" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:28" ht="57" x14ac:dyDescent="0.2">
@@ -2231,22 +2301,22 @@
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="G4" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="H4" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="I4" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" s="24" t="s">
         <v>57</v>
-      </c>
-      <c r="F4" s="24" t="s">
-        <v>143</v>
-      </c>
-      <c r="G4" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="H4" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="I4" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="J4" s="24" t="s">
-        <v>60</v>
       </c>
       <c r="K4" s="13" t="s">
         <v>30</v>
@@ -2258,29 +2328,29 @@
         <v>7</v>
       </c>
       <c r="N4" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="O4" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="P4" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q4" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="R4" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="O4" s="13" t="s">
+      <c r="S4" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="P4" s="13" t="s">
+      <c r="T4" s="13" t="s">
         <v>115</v>
-      </c>
-      <c r="Q4" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="R4" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="S4" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="T4" s="13" t="s">
-        <v>119</v>
       </c>
       <c r="U4" s="28"/>
       <c r="V4" s="14" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="W4" s="14" t="s">
         <v>22</v>
@@ -2295,10 +2365,10 @@
         <v>24</v>
       </c>
       <c r="AA4" s="14" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="AB4" s="34" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.2">
@@ -2341,22 +2411,22 @@
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="12" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="J6" s="12" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K6" s="13" t="s">
         <v>10</v>
@@ -2368,10 +2438,10 @@
         <v>10</v>
       </c>
       <c r="N6" s="13" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="O6" s="13" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="P6" s="13"/>
       <c r="Q6" s="13"/>
@@ -2379,7 +2449,7 @@
       <c r="S6" s="13"/>
       <c r="T6" s="13"/>
       <c r="U6" s="13" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="V6" s="14" t="s">
         <v>10</v>
@@ -2397,10 +2467,10 @@
         <v>10</v>
       </c>
       <c r="AA6" s="14" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="AB6" s="32" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.2">
@@ -2408,19 +2478,19 @@
         <v>1001</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G7" s="3">
         <v>0.2</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I7" s="3">
         <v>0.2</v>
@@ -2436,9 +2506,6 @@
       </c>
       <c r="M7" s="2">
         <v>101</v>
-      </c>
-      <c r="N7" s="2">
-        <v>0</v>
       </c>
       <c r="O7" s="2">
         <v>1</v>
@@ -2501,9 +2568,6 @@
       <c r="M8" s="2">
         <v>101</v>
       </c>
-      <c r="N8" s="2">
-        <v>0</v>
-      </c>
       <c r="O8" s="2">
         <v>1</v>
       </c>
@@ -2523,7 +2587,7 @@
         <v>0</v>
       </c>
       <c r="U8" s="2" t="str">
-        <f t="shared" ref="U8:U48" si="0">P8&amp;","&amp;Q8&amp;","&amp;R8&amp;","&amp;S8&amp;","&amp;T8</f>
+        <f t="shared" ref="U8:U56" si="0">P8&amp;","&amp;Q8&amp;","&amp;R8&amp;","&amp;S8&amp;","&amp;T8</f>
         <v>2,200,0,0,0</v>
       </c>
       <c r="V8" s="2">
@@ -2565,9 +2629,6 @@
       <c r="M9" s="2">
         <v>101</v>
       </c>
-      <c r="N9" s="2">
-        <v>0</v>
-      </c>
       <c r="O9" s="2">
         <v>1</v>
       </c>
@@ -2629,9 +2690,6 @@
       <c r="M10" s="2">
         <v>101</v>
       </c>
-      <c r="N10" s="2">
-        <v>0</v>
-      </c>
       <c r="O10" s="2">
         <v>1</v>
       </c>
@@ -2676,19 +2734,19 @@
         <v>1005</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G11" s="2">
         <v>0.2</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I11" s="2">
         <v>0.2</v>
@@ -2704,9 +2762,6 @@
       </c>
       <c r="M11" s="2">
         <v>101</v>
-      </c>
-      <c r="N11" s="2">
-        <v>0</v>
       </c>
       <c r="O11" s="2">
         <v>1</v>
@@ -2769,9 +2824,6 @@
       <c r="M12" s="2">
         <v>501</v>
       </c>
-      <c r="N12" s="2">
-        <v>0</v>
-      </c>
       <c r="O12" s="2">
         <v>10001</v>
       </c>
@@ -2833,9 +2885,6 @@
       <c r="M13" s="2">
         <v>501</v>
       </c>
-      <c r="N13" s="2">
-        <v>0</v>
-      </c>
       <c r="O13" s="2">
         <v>10002</v>
       </c>
@@ -2897,9 +2946,6 @@
       <c r="M14" s="2">
         <v>501</v>
       </c>
-      <c r="N14" s="2">
-        <v>0</v>
-      </c>
       <c r="O14" s="18">
         <v>21003</v>
       </c>
@@ -2961,9 +3007,6 @@
       <c r="M15" s="2">
         <v>201</v>
       </c>
-      <c r="N15" s="2">
-        <v>0</v>
-      </c>
       <c r="O15" s="2">
         <v>0</v>
       </c>
@@ -3025,9 +3068,6 @@
       <c r="M16" s="10">
         <v>203</v>
       </c>
-      <c r="N16" s="2">
-        <v>0</v>
-      </c>
       <c r="O16" s="10">
         <v>0</v>
       </c>
@@ -3090,9 +3130,6 @@
       <c r="M17" s="2">
         <v>204</v>
       </c>
-      <c r="N17" s="2">
-        <v>0</v>
-      </c>
       <c r="O17" s="2">
         <v>0</v>
       </c>
@@ -3138,7 +3175,7 @@
         <v>1013</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E18" s="20"/>
       <c r="F18" s="3"/>
@@ -3150,9 +3187,6 @@
       </c>
       <c r="M18" s="2">
         <v>202</v>
-      </c>
-      <c r="N18" s="2">
-        <v>0</v>
       </c>
       <c r="O18" s="2">
         <v>0</v>
@@ -3215,9 +3249,6 @@
       <c r="M19" s="2">
         <v>321</v>
       </c>
-      <c r="N19" s="2">
-        <v>0</v>
-      </c>
       <c r="O19" s="2">
         <v>0</v>
       </c>
@@ -3280,9 +3311,6 @@
       <c r="M20" s="2">
         <v>401</v>
       </c>
-      <c r="N20" s="2">
-        <v>0</v>
-      </c>
       <c r="O20" s="2">
         <v>0</v>
       </c>
@@ -3327,19 +3355,19 @@
         <v>100111</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E21" s="20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G21" s="3">
         <v>0.2</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I21" s="3">
         <v>0.2</v>
@@ -3355,9 +3383,6 @@
       </c>
       <c r="M21" s="2">
         <v>101</v>
-      </c>
-      <c r="N21" s="2">
-        <v>0</v>
       </c>
       <c r="O21" s="2">
         <v>0</v>
@@ -3403,12 +3428,10 @@
         <v>100112</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E22" s="20"/>
-      <c r="F22" s="3" t="s">
-        <v>152</v>
-      </c>
+      <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
@@ -3422,9 +3445,6 @@
       <c r="M22" s="2">
         <v>301</v>
       </c>
-      <c r="N22" s="2">
-        <v>0</v>
-      </c>
       <c r="O22" s="2">
         <v>0</v>
       </c>
@@ -3469,7 +3489,7 @@
         <v>100201</v>
       </c>
       <c r="D23" s="20" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E23" s="20"/>
       <c r="F23" s="3"/>
@@ -3482,9 +3502,6 @@
       <c r="M23" s="2">
         <v>501</v>
       </c>
-      <c r="N23" s="2">
-        <v>0</v>
-      </c>
       <c r="O23" s="2">
         <v>100201</v>
       </c>
@@ -3529,19 +3546,19 @@
         <v>100301</v>
       </c>
       <c r="D24" s="20" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E24" s="20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G24" s="2">
         <v>0.2</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I24" s="2">
         <v>0.2</v>
@@ -3554,9 +3571,6 @@
       </c>
       <c r="M24" s="2">
         <v>101</v>
-      </c>
-      <c r="N24" s="2">
-        <v>0</v>
       </c>
       <c r="O24" s="2">
         <v>1</v>
@@ -3602,7 +3616,7 @@
         <v>100302</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E25" s="20"/>
       <c r="F25" s="3"/>
@@ -3615,9 +3629,6 @@
       <c r="M25" s="2">
         <v>601</v>
       </c>
-      <c r="N25" s="2">
-        <v>0</v>
-      </c>
       <c r="O25" s="2">
         <v>100302</v>
       </c>
@@ -3628,7 +3639,7 @@
         <v>1</v>
       </c>
       <c r="R25" s="2">
-        <v>6</v>
+        <v>1.5</v>
       </c>
       <c r="S25" s="2">
         <v>0</v>
@@ -3638,7 +3649,7 @@
       </c>
       <c r="U25" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>45,1,6,0,0</v>
+        <v>45,1,1.5,0,0</v>
       </c>
       <c r="V25" s="2">
         <v>0</v>
@@ -3659,13 +3670,26 @@
     </row>
     <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="12">
-        <v>100401</v>
+        <v>1003021</v>
       </c>
       <c r="D26" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="E26" s="20"/>
-      <c r="F26" s="3"/>
+        <v>164</v>
+      </c>
+      <c r="E26" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="G26" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="I26" s="2">
+        <v>0.2</v>
+      </c>
       <c r="K26" s="2">
         <v>0</v>
       </c>
@@ -3673,19 +3697,16 @@
         <v>10000</v>
       </c>
       <c r="M26" s="2">
-        <v>101</v>
-      </c>
-      <c r="N26" s="2">
-        <v>0</v>
-      </c>
-      <c r="O26" s="2">
+        <v>102</v>
+      </c>
+      <c r="O26" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="P26" s="2">
         <v>1</v>
       </c>
-      <c r="P26" s="2">
-        <v>1.5</v>
-      </c>
       <c r="Q26" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R26" s="2">
         <v>0</v>
@@ -3698,31 +3719,31 @@
       </c>
       <c r="U26" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>1.5,0,0,0,0</v>
+        <v>1,100,0,0,0</v>
       </c>
       <c r="V26" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W26" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X26" s="2">
         <v>0</v>
       </c>
       <c r="Y26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z26" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AB26" s="4"/>
     </row>
     <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="12">
-        <v>100402</v>
+        <v>100401</v>
       </c>
       <c r="D27" s="20" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="E27" s="20"/>
       <c r="F27" s="3"/>
@@ -3733,13 +3754,13 @@
         <v>10000</v>
       </c>
       <c r="M27" s="2">
-        <v>501</v>
-      </c>
-      <c r="N27" s="2">
-        <v>0</v>
+        <v>101</v>
+      </c>
+      <c r="O27" s="2">
+        <v>1</v>
       </c>
       <c r="P27" s="2">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="Q27" s="2">
         <v>0</v>
@@ -3755,10 +3776,10 @@
       </c>
       <c r="U27" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>0,0,0,0,0</v>
+        <v>1.2,0,0,0,0</v>
       </c>
       <c r="V27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W27" s="2">
         <v>0</v>
@@ -3770,33 +3791,19 @@
         <v>0</v>
       </c>
       <c r="Z27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB27" s="4"/>
     </row>
     <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="12">
-        <v>200111</v>
+        <v>100402</v>
       </c>
       <c r="D28" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="E28" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="G28" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="I28" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="J28" s="3"/>
+        <v>135</v>
+      </c>
+      <c r="E28" s="20"/>
+      <c r="F28" s="3"/>
       <c r="K28" s="2">
         <v>0</v>
       </c>
@@ -3804,19 +3811,16 @@
         <v>10000</v>
       </c>
       <c r="M28" s="2">
-        <v>101</v>
-      </c>
-      <c r="N28" s="2">
-        <v>0</v>
+        <v>501</v>
       </c>
       <c r="O28" s="2">
-        <v>0</v>
+        <v>100402</v>
       </c>
       <c r="P28" s="2">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="Q28" s="2">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="R28" s="2">
         <v>0</v>
@@ -3829,49 +3833,37 @@
       </c>
       <c r="U28" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>0.4,80,0,0,0</v>
+        <v>0,0,0,0,0</v>
       </c>
       <c r="V28" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W28" s="2">
         <v>0</v>
       </c>
       <c r="X28" s="2">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Y28" s="2">
         <v>0</v>
       </c>
       <c r="Z28" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB28" s="4"/>
     </row>
     <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="12">
-        <v>200121</v>
+        <v>1004021</v>
       </c>
       <c r="D29" s="20" t="s">
-        <v>146</v>
+        <v>169</v>
       </c>
       <c r="E29" s="20" t="s">
-        <v>70</v>
+        <v>170</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="G29" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="I29" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="J29" s="3">
-        <v>1</v>
+        <v>171</v>
       </c>
       <c r="K29" s="2">
         <v>0</v>
@@ -3880,19 +3872,16 @@
         <v>10000</v>
       </c>
       <c r="M29" s="2">
-        <v>101</v>
-      </c>
-      <c r="N29" s="2">
-        <v>0</v>
+        <v>201</v>
       </c>
       <c r="O29" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P29" s="2">
-        <v>0.6</v>
+        <v>0.03</v>
       </c>
       <c r="Q29" s="2">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="R29" s="2">
         <v>0</v>
@@ -3905,34 +3894,48 @@
       </c>
       <c r="U29" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>0.6,120,0,0,0</v>
+        <v>0.03,0,0,0,0</v>
       </c>
       <c r="V29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W29" s="2">
         <v>0</v>
       </c>
       <c r="X29" s="2">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Y29" s="2">
         <v>0</v>
       </c>
       <c r="Z29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB29" s="4"/>
     </row>
     <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="12">
-        <v>200201</v>
+        <v>200111</v>
       </c>
       <c r="D30" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="E30" s="20"/>
-      <c r="F30" s="3"/>
+        <v>139</v>
+      </c>
+      <c r="E30" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G30" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I30" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="J30" s="3"/>
       <c r="K30" s="2">
         <v>0</v>
       </c>
@@ -3942,17 +3945,14 @@
       <c r="M30" s="2">
         <v>101</v>
       </c>
-      <c r="N30" s="2">
-        <v>0</v>
-      </c>
       <c r="O30" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P30" s="2">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="Q30" s="2">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="R30" s="2">
         <v>0</v>
@@ -3965,7 +3965,7 @@
       </c>
       <c r="U30" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>0.9,0,0,0,0</v>
+        <v>0.4,80,0,0,0</v>
       </c>
       <c r="V30" s="2">
         <v>0</v>
@@ -3986,13 +3986,29 @@
     </row>
     <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="12">
-        <v>200202</v>
+        <v>200121</v>
       </c>
       <c r="D31" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="E31" s="20"/>
-      <c r="F31" s="3"/>
+        <v>140</v>
+      </c>
+      <c r="E31" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G31" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I31" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="J31" s="3">
+        <v>1</v>
+      </c>
       <c r="K31" s="2">
         <v>0</v>
       </c>
@@ -4002,17 +4018,14 @@
       <c r="M31" s="2">
         <v>101</v>
       </c>
-      <c r="N31" s="2">
-        <v>0</v>
-      </c>
       <c r="O31" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P31" s="2">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="Q31" s="2">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="R31" s="2">
         <v>0</v>
@@ -4025,7 +4038,7 @@
       </c>
       <c r="U31" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>0.9,0,0,0,0</v>
+        <v>0.6,120,0,0,0</v>
       </c>
       <c r="V31" s="2">
         <v>0</v>
@@ -4046,10 +4059,10 @@
     </row>
     <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="12">
-        <v>200203</v>
+        <v>200201</v>
       </c>
       <c r="D32" s="20" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E32" s="20"/>
       <c r="F32" s="3"/>
@@ -4062,14 +4075,11 @@
       <c r="M32" s="2">
         <v>101</v>
       </c>
-      <c r="N32" s="2">
-        <v>0</v>
-      </c>
       <c r="O32" s="2">
         <v>3</v>
       </c>
       <c r="P32" s="2">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="Q32" s="2">
         <v>0</v>
@@ -4085,7 +4095,7 @@
       </c>
       <c r="U32" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>1.2,0,0,0,0</v>
+        <v>0.9,0,0,0,0</v>
       </c>
       <c r="V32" s="2">
         <v>0</v>
@@ -4106,10 +4116,10 @@
     </row>
     <row r="33" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C33" s="12">
-        <v>200301</v>
+        <v>200202</v>
       </c>
       <c r="D33" s="20" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E33" s="20"/>
       <c r="F33" s="3"/>
@@ -4122,14 +4132,11 @@
       <c r="M33" s="2">
         <v>101</v>
       </c>
-      <c r="N33" s="2">
-        <v>0</v>
-      </c>
       <c r="O33" s="2">
         <v>3</v>
       </c>
       <c r="P33" s="2">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="Q33" s="2">
         <v>0</v>
@@ -4145,7 +4152,7 @@
       </c>
       <c r="U33" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>0.8,0,0,0,0</v>
+        <v>0.9,0,0,0,0</v>
       </c>
       <c r="V33" s="2">
         <v>0</v>
@@ -4166,10 +4173,10 @@
     </row>
     <row r="34" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C34" s="12">
-        <v>200302</v>
+        <v>200203</v>
       </c>
       <c r="D34" s="20" t="s">
-        <v>147</v>
+        <v>81</v>
       </c>
       <c r="E34" s="20"/>
       <c r="F34" s="3"/>
@@ -4180,16 +4187,13 @@
         <v>10000</v>
       </c>
       <c r="M34" s="2">
-        <v>501</v>
-      </c>
-      <c r="N34" s="2">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="O34" s="2">
-        <v>200302</v>
+        <v>3</v>
       </c>
       <c r="P34" s="2">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="Q34" s="2">
         <v>0</v>
@@ -4205,10 +4209,10 @@
       </c>
       <c r="U34" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>0,0,0,0,0</v>
+        <v>1.2,0,0,0,0</v>
       </c>
       <c r="V34" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W34" s="2">
         <v>0</v>
@@ -4220,32 +4224,19 @@
         <v>0</v>
       </c>
       <c r="Z34" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB34" s="4"/>
     </row>
     <row r="35" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C35" s="12">
-        <v>2003021</v>
+        <v>200301</v>
       </c>
       <c r="D35" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="E35" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="G35" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="I35" s="2">
-        <v>0.2</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="E35" s="20"/>
+      <c r="F35" s="3"/>
       <c r="K35" s="2">
         <v>0</v>
       </c>
@@ -4255,17 +4246,14 @@
       <c r="M35" s="2">
         <v>101</v>
       </c>
-      <c r="N35" s="2">
-        <v>0</v>
-      </c>
       <c r="O35" s="2">
         <v>3</v>
       </c>
       <c r="P35" s="2">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="Q35" s="2">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="R35" s="2">
         <v>0</v>
@@ -4278,31 +4266,31 @@
       </c>
       <c r="U35" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2,200,0,0,0</v>
+        <v>0.8,0,0,0,0</v>
       </c>
       <c r="V35" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W35" s="2">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="X35" s="2">
         <v>0</v>
       </c>
       <c r="Y35" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z35" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AB35" s="4"/>
     </row>
     <row r="36" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C36" s="12">
-        <v>200501</v>
+        <v>200302</v>
       </c>
       <c r="D36" s="20" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="E36" s="20"/>
       <c r="F36" s="3"/>
@@ -4313,16 +4301,13 @@
         <v>10000</v>
       </c>
       <c r="M36" s="2">
-        <v>101</v>
-      </c>
-      <c r="N36" s="2">
-        <v>0</v>
+        <v>501</v>
       </c>
       <c r="O36" s="2">
-        <v>3</v>
+        <v>200302</v>
       </c>
       <c r="P36" s="2">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="Q36" s="2">
         <v>0</v>
@@ -4338,34 +4323,47 @@
       </c>
       <c r="U36" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>1.5,0,0,0,0</v>
+        <v>0,0,0,0,0</v>
       </c>
       <c r="V36" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W36" s="2">
         <v>0</v>
       </c>
       <c r="X36" s="2">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Y36" s="2">
         <v>0</v>
       </c>
       <c r="Z36" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB36" s="4"/>
     </row>
     <row r="37" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C37" s="12">
-        <v>200502</v>
+        <v>2003021</v>
       </c>
       <c r="D37" s="20" t="s">
-        <v>151</v>
-      </c>
-      <c r="E37" s="20"/>
-      <c r="F37" s="3"/>
+        <v>142</v>
+      </c>
+      <c r="E37" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G37" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I37" s="2">
+        <v>0.2</v>
+      </c>
       <c r="K37" s="2">
         <v>0</v>
       </c>
@@ -4373,19 +4371,16 @@
         <v>10000</v>
       </c>
       <c r="M37" s="2">
-        <v>501</v>
-      </c>
-      <c r="N37" s="2">
-        <v>0</v>
-      </c>
-      <c r="O37" s="2">
-        <v>200502</v>
+        <v>101</v>
+      </c>
+      <c r="O37" s="2" t="s">
+        <v>173</v>
       </c>
       <c r="P37" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q37" s="2">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="R37" s="2">
         <v>0</v>
@@ -4398,50 +4393,34 @@
       </c>
       <c r="U37" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>0,0,0,0,0</v>
+        <v>2,200,0,0,0</v>
       </c>
       <c r="V37" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W37" s="2">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="X37" s="2">
         <v>0</v>
       </c>
       <c r="Y37" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z37" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AB37" s="4"/>
     </row>
     <row r="38" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C38" s="12">
-        <v>300101</v>
+        <v>200501</v>
       </c>
       <c r="D38" s="20" t="s">
-        <v>154</v>
-      </c>
-      <c r="E38" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="G38" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="I38" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="J38" s="2">
-        <v>1</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="E38" s="20"/>
+      <c r="F38" s="3"/>
       <c r="K38" s="2">
         <v>0</v>
       </c>
@@ -4451,17 +4430,14 @@
       <c r="M38" s="2">
         <v>101</v>
       </c>
-      <c r="N38" s="2">
-        <v>0</v>
-      </c>
       <c r="O38" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P38" s="2">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="Q38" s="2">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="R38" s="2">
         <v>0</v>
@@ -4472,8 +4448,9 @@
       <c r="T38" s="2">
         <v>0</v>
       </c>
-      <c r="U38" s="2" t="s">
-        <v>153</v>
+      <c r="U38" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>1.2,0,0,0,0</v>
       </c>
       <c r="V38" s="2">
         <v>0</v>
@@ -4493,30 +4470,14 @@
       <c r="AB38" s="4"/>
     </row>
     <row r="39" spans="3:28" x14ac:dyDescent="0.2">
-      <c r="C39" s="3">
-        <v>300111</v>
+      <c r="C39" s="12">
+        <v>200502</v>
       </c>
       <c r="D39" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="E39" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="G39" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="H39" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="I39" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="J39" s="3">
-        <v>1</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="E39" s="20"/>
+      <c r="F39" s="3"/>
       <c r="K39" s="2">
         <v>0</v>
       </c>
@@ -4524,19 +4485,16 @@
         <v>10000</v>
       </c>
       <c r="M39" s="2">
-        <v>101</v>
-      </c>
-      <c r="N39" s="2">
-        <v>0</v>
+        <v>501</v>
       </c>
       <c r="O39" s="2">
-        <v>0</v>
+        <v>200502</v>
       </c>
       <c r="P39" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q39" s="2">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="R39" s="2">
         <v>0</v>
@@ -4549,7 +4507,7 @@
       </c>
       <c r="U39" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>1,200,0,0,0</v>
+        <v>0,0,0,0,0</v>
       </c>
       <c r="V39" s="2">
         <v>0</v>
@@ -4570,13 +4528,29 @@
     </row>
     <row r="40" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C40" s="12">
-        <v>300201</v>
+        <v>300101</v>
       </c>
       <c r="D40" s="20" t="s">
-        <v>155</v>
-      </c>
-      <c r="E40" s="20"/>
-      <c r="F40" s="3"/>
+        <v>146</v>
+      </c>
+      <c r="E40" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G40" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I40" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="J40" s="2">
+        <v>1</v>
+      </c>
       <c r="K40" s="2">
         <v>0</v>
       </c>
@@ -4586,314 +4560,274 @@
       <c r="M40" s="2">
         <v>101</v>
       </c>
-      <c r="N40" s="2">
-        <v>0</v>
-      </c>
       <c r="O40" s="2">
+        <v>0</v>
+      </c>
+      <c r="P40" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q40" s="2">
+        <v>200</v>
+      </c>
+      <c r="R40" s="2">
+        <v>0</v>
+      </c>
+      <c r="S40" s="2">
+        <v>0</v>
+      </c>
+      <c r="T40" s="2">
+        <v>0</v>
+      </c>
+      <c r="U40" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="V40" s="2">
+        <v>0</v>
+      </c>
+      <c r="W40" s="2">
+        <v>0</v>
+      </c>
+      <c r="X40" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y40" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z40" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB40" s="4"/>
+    </row>
+    <row r="41" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="C41" s="3">
+        <v>300111</v>
+      </c>
+      <c r="D41" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="E41" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G41" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I41" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="J41" s="3">
+        <v>1</v>
+      </c>
+      <c r="K41" s="2">
+        <v>0</v>
+      </c>
+      <c r="L41" s="2">
+        <v>10000</v>
+      </c>
+      <c r="M41" s="2">
+        <v>101</v>
+      </c>
+      <c r="O41" s="2">
+        <v>0</v>
+      </c>
+      <c r="P41" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q41" s="2">
+        <v>200</v>
+      </c>
+      <c r="R41" s="2">
+        <v>0</v>
+      </c>
+      <c r="S41" s="2">
+        <v>0</v>
+      </c>
+      <c r="T41" s="2">
+        <v>0</v>
+      </c>
+      <c r="U41" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>1,200,0,0,0</v>
+      </c>
+      <c r="V41" s="2">
+        <v>0</v>
+      </c>
+      <c r="W41" s="2">
+        <v>0</v>
+      </c>
+      <c r="X41" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z41" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB41" s="4"/>
+    </row>
+    <row r="42" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="C42" s="12">
+        <v>300201</v>
+      </c>
+      <c r="D42" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="E42" s="20"/>
+      <c r="F42" s="3"/>
+      <c r="K42" s="2">
+        <v>0</v>
+      </c>
+      <c r="L42" s="2">
+        <v>10000</v>
+      </c>
+      <c r="M42" s="2">
+        <v>101</v>
+      </c>
+      <c r="O42" s="2">
         <v>7</v>
       </c>
-      <c r="P40" s="2">
+      <c r="P42" s="2">
         <v>0.8</v>
       </c>
-      <c r="Q40" s="2">
-        <v>0</v>
-      </c>
-      <c r="R40" s="2">
-        <v>0</v>
-      </c>
-      <c r="S40" s="2">
-        <v>0</v>
-      </c>
-      <c r="T40" s="2">
-        <v>0</v>
-      </c>
-      <c r="U40" s="2" t="str">
+      <c r="Q42" s="2">
+        <v>0</v>
+      </c>
+      <c r="R42" s="2">
+        <v>0</v>
+      </c>
+      <c r="S42" s="2">
+        <v>0</v>
+      </c>
+      <c r="T42" s="2">
+        <v>0</v>
+      </c>
+      <c r="U42" s="2" t="str">
         <f t="shared" si="0"/>
         <v>0.8,0,0,0,0</v>
       </c>
-      <c r="V40" s="2">
-        <v>0</v>
-      </c>
-      <c r="W40" s="2">
-        <v>0</v>
-      </c>
-      <c r="X40" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y40" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z40" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB40" s="4"/>
-    </row>
-    <row r="41" spans="3:28" x14ac:dyDescent="0.2">
-      <c r="C41" s="12">
+      <c r="V42" s="2">
+        <v>0</v>
+      </c>
+      <c r="W42" s="2">
+        <v>0</v>
+      </c>
+      <c r="X42" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB42" s="4"/>
+    </row>
+    <row r="43" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="C43" s="12">
         <v>300301</v>
       </c>
-      <c r="D41" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="E41" s="20"/>
-      <c r="F41" s="3"/>
-      <c r="K41" s="2">
-        <v>0</v>
-      </c>
-      <c r="L41" s="2">
+      <c r="D43" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="E43" s="20"/>
+      <c r="F43" s="3"/>
+      <c r="K43" s="2">
+        <v>0</v>
+      </c>
+      <c r="L43" s="2">
         <v>10000</v>
       </c>
-      <c r="M41" s="2">
+      <c r="M43" s="2">
         <v>101</v>
       </c>
-      <c r="N41" s="2">
-        <v>0</v>
-      </c>
-      <c r="O41" s="2">
+      <c r="O43" s="2">
         <v>7</v>
       </c>
-      <c r="P41" s="2">
+      <c r="P43" s="2">
         <v>1.5</v>
       </c>
-      <c r="Q41" s="2">
-        <v>0</v>
-      </c>
-      <c r="R41" s="2">
-        <v>0</v>
-      </c>
-      <c r="S41" s="2">
-        <v>0</v>
-      </c>
-      <c r="T41" s="2">
-        <v>0</v>
-      </c>
-      <c r="U41" s="2" t="str">
-        <f t="shared" ref="U41:U42" si="1">P41&amp;","&amp;Q41&amp;","&amp;R41&amp;","&amp;S41&amp;","&amp;T41</f>
+      <c r="Q43" s="2">
+        <v>0</v>
+      </c>
+      <c r="R43" s="2">
+        <v>0</v>
+      </c>
+      <c r="S43" s="2">
+        <v>0</v>
+      </c>
+      <c r="T43" s="2">
+        <v>0</v>
+      </c>
+      <c r="U43" s="2" t="str">
+        <f t="shared" ref="U43:U44" si="1">P43&amp;","&amp;Q43&amp;","&amp;R43&amp;","&amp;S43&amp;","&amp;T43</f>
         <v>1.5,0,0,0,0</v>
       </c>
-      <c r="V41" s="2">
-        <v>0</v>
-      </c>
-      <c r="W41" s="2">
-        <v>0</v>
-      </c>
-      <c r="X41" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y41" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z41" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB41" s="4"/>
-    </row>
-    <row r="42" spans="3:28" x14ac:dyDescent="0.2">
-      <c r="C42" s="12">
+      <c r="V43" s="2">
+        <v>0</v>
+      </c>
+      <c r="W43" s="2">
+        <v>0</v>
+      </c>
+      <c r="X43" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z43" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB43" s="4"/>
+    </row>
+    <row r="44" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="C44" s="12">
         <v>300302</v>
       </c>
-      <c r="D42" s="20" t="s">
-        <v>157</v>
-      </c>
-      <c r="E42" s="20" t="s">
-        <v>158</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="G42" s="3">
-        <v>5</v>
-      </c>
-      <c r="H42" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="I42" s="3">
-        <v>5</v>
-      </c>
-      <c r="K42" s="2">
-        <v>0</v>
-      </c>
-      <c r="L42" s="2">
+      <c r="D44" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="E44" s="20"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="I44" s="3"/>
+      <c r="K44" s="2">
+        <v>0</v>
+      </c>
+      <c r="L44" s="2">
         <v>10000</v>
       </c>
-      <c r="M42" s="2">
+      <c r="M44" s="2">
         <v>401</v>
       </c>
-      <c r="N42" s="2">
-        <v>0</v>
-      </c>
-      <c r="O42" s="2">
-        <v>0</v>
-      </c>
-      <c r="P42" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q42" s="2">
-        <v>0</v>
-      </c>
-      <c r="R42" s="2">
-        <v>0</v>
-      </c>
-      <c r="S42" s="2">
-        <v>0</v>
-      </c>
-      <c r="T42" s="2">
-        <v>0</v>
-      </c>
-      <c r="U42" s="2" t="str">
+      <c r="N44" s="22"/>
+      <c r="O44" s="2">
+        <v>0</v>
+      </c>
+      <c r="P44" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="2">
+        <v>0</v>
+      </c>
+      <c r="R44" s="2">
+        <v>0</v>
+      </c>
+      <c r="S44" s="2">
+        <v>0</v>
+      </c>
+      <c r="T44" s="2">
+        <v>0</v>
+      </c>
+      <c r="U44" s="2" t="str">
         <f t="shared" si="1"/>
         <v>0,0,0,0,0</v>
       </c>
-      <c r="V42" s="2">
-        <v>0</v>
-      </c>
-      <c r="W42" s="2">
-        <v>0</v>
-      </c>
-      <c r="X42" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y42" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z42" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB42" s="4"/>
-    </row>
-    <row r="43" spans="3:28" x14ac:dyDescent="0.2">
-      <c r="C43" s="3">
-        <v>400111</v>
-      </c>
-      <c r="D43" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="E43" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="G43" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="I43" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="J43" s="3"/>
-      <c r="K43" s="2">
-        <v>0</v>
-      </c>
-      <c r="L43" s="2">
-        <v>10000</v>
-      </c>
-      <c r="M43" s="2">
-        <v>101</v>
-      </c>
-      <c r="N43" s="2">
-        <v>0</v>
-      </c>
-      <c r="O43" s="2">
-        <v>0</v>
-      </c>
-      <c r="P43" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q43" s="2">
-        <v>200</v>
-      </c>
-      <c r="R43" s="2">
-        <v>0</v>
-      </c>
-      <c r="S43" s="2">
-        <v>0</v>
-      </c>
-      <c r="T43" s="2">
-        <v>0</v>
-      </c>
-      <c r="U43" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>1,200,0,0,0</v>
-      </c>
-      <c r="V43" s="2">
-        <v>0</v>
-      </c>
-      <c r="W43" s="2">
-        <v>0</v>
-      </c>
-      <c r="X43" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y43" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z43" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB43" s="4"/>
-    </row>
-    <row r="44" spans="3:28" x14ac:dyDescent="0.2">
-      <c r="C44" s="3">
-        <v>500111</v>
-      </c>
-      <c r="D44" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="E44" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="G44" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="I44" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="J44" s="3">
-        <v>1</v>
-      </c>
-      <c r="K44" s="2">
-        <v>0</v>
-      </c>
-      <c r="L44" s="2">
-        <v>10000</v>
-      </c>
-      <c r="M44" s="2">
-        <v>101</v>
-      </c>
-      <c r="N44" s="2">
-        <v>0</v>
-      </c>
-      <c r="O44" s="2">
-        <v>0</v>
-      </c>
-      <c r="P44" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q44" s="2">
-        <v>200</v>
-      </c>
-      <c r="R44" s="2">
-        <v>0</v>
-      </c>
-      <c r="S44" s="2">
-        <v>0</v>
-      </c>
-      <c r="T44" s="2">
-        <v>0</v>
-      </c>
-      <c r="U44" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>1,200,0,0,0</v>
-      </c>
       <c r="V44" s="2">
         <v>0</v>
       </c>
@@ -4912,30 +4846,14 @@
       <c r="AB44" s="4"/>
     </row>
     <row r="45" spans="3:28" x14ac:dyDescent="0.2">
-      <c r="C45" s="3">
-        <v>600111</v>
+      <c r="C45" s="12">
+        <v>300501</v>
       </c>
       <c r="D45" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="E45" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="G45" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="I45" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="J45" s="3">
-        <v>1</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="E45" s="20"/>
+      <c r="F45" s="3"/>
       <c r="K45" s="2">
         <v>0</v>
       </c>
@@ -4945,17 +4863,14 @@
       <c r="M45" s="2">
         <v>101</v>
       </c>
-      <c r="N45" s="2">
-        <v>0</v>
-      </c>
       <c r="O45" s="2">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="P45" s="2">
-        <v>1</v>
+        <v>3.6</v>
       </c>
       <c r="Q45" s="2">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="R45" s="2">
         <v>0</v>
@@ -4967,8 +4882,8 @@
         <v>0</v>
       </c>
       <c r="U45" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>1,200,0,0,0</v>
+        <f t="shared" ref="U45" si="2">P45&amp;","&amp;Q45&amp;","&amp;R45&amp;","&amp;S45&amp;","&amp;T45</f>
+        <v>3.6,0,0,0,0</v>
       </c>
       <c r="V45" s="2">
         <v>0</v>
@@ -4989,29 +4904,27 @@
     </row>
     <row r="46" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C46" s="3">
-        <v>800111</v>
+        <v>400111</v>
       </c>
       <c r="D46" s="20" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E46" s="20" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G46" s="3">
         <v>0.2</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I46" s="3">
         <v>0.2</v>
       </c>
-      <c r="J46" s="3">
-        <v>1</v>
-      </c>
+      <c r="J46" s="3"/>
       <c r="K46" s="2">
         <v>0</v>
       </c>
@@ -5020,9 +4933,6 @@
       </c>
       <c r="M46" s="2">
         <v>101</v>
-      </c>
-      <c r="N46" s="2">
-        <v>0</v>
       </c>
       <c r="O46" s="2">
         <v>0</v>
@@ -5065,37 +4975,46 @@
     </row>
     <row r="47" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C47" s="3">
-        <v>800112</v>
+        <v>500111</v>
       </c>
       <c r="D47" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="E47" s="20"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3"/>
-      <c r="I47" s="3"/>
-      <c r="J47" s="3"/>
+        <v>73</v>
+      </c>
+      <c r="E47" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G47" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I47" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="J47" s="3">
+        <v>1</v>
+      </c>
       <c r="K47" s="2">
         <v>0</v>
       </c>
       <c r="L47" s="2">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="M47" s="2">
-        <v>311</v>
-      </c>
-      <c r="N47" s="2">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="O47" s="2">
         <v>0</v>
       </c>
       <c r="P47" s="2">
-        <v>0.35</v>
+        <v>1</v>
       </c>
       <c r="Q47" s="2">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="R47" s="2">
         <v>0</v>
@@ -5108,7 +5027,7 @@
       </c>
       <c r="U47" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>0.35,0,0,0,0</v>
+        <v>1,200,0,0,0</v>
       </c>
       <c r="V47" s="2">
         <v>0</v>
@@ -5129,22 +5048,22 @@
     </row>
     <row r="48" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C48" s="3">
-        <v>900111</v>
+        <v>600111</v>
       </c>
       <c r="D48" s="20" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="E48" s="20" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G48" s="3">
         <v>0.2</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I48" s="3">
         <v>0.2</v>
@@ -5160,9 +5079,6 @@
       </c>
       <c r="M48" s="2">
         <v>101</v>
-      </c>
-      <c r="N48" s="2">
-        <v>0</v>
       </c>
       <c r="O48" s="2">
         <v>0</v>
@@ -5204,102 +5120,606 @@
       <c r="AB48" s="4"/>
     </row>
     <row r="49" spans="3:32" x14ac:dyDescent="0.2">
-      <c r="C49" s="3"/>
-      <c r="D49" s="20"/>
-      <c r="E49" s="20"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
-      <c r="H49" s="3"/>
-      <c r="I49" s="3"/>
-      <c r="J49" s="3"/>
+      <c r="C49" s="12">
+        <v>800101</v>
+      </c>
+      <c r="D49" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="E49" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G49" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I49" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="J49" s="3">
+        <v>1</v>
+      </c>
+      <c r="K49" s="2">
+        <v>0</v>
+      </c>
+      <c r="L49" s="2">
+        <v>10000</v>
+      </c>
+      <c r="M49" s="2">
+        <v>101</v>
+      </c>
+      <c r="O49" s="2">
+        <v>0</v>
+      </c>
+      <c r="P49" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q49" s="2">
+        <v>200</v>
+      </c>
+      <c r="R49" s="2">
+        <v>0</v>
+      </c>
+      <c r="S49" s="2">
+        <v>0</v>
+      </c>
+      <c r="T49" s="2">
+        <v>0</v>
+      </c>
+      <c r="U49" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>1,200,0,0,0</v>
+      </c>
+      <c r="V49" s="2">
+        <v>0</v>
+      </c>
+      <c r="W49" s="2">
+        <v>0</v>
+      </c>
+      <c r="X49" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y49" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z49" s="2">
+        <v>0</v>
+      </c>
       <c r="AB49" s="4"/>
     </row>
     <row r="50" spans="3:32" x14ac:dyDescent="0.2">
-      <c r="C50" s="3"/>
-      <c r="D50" s="20"/>
-      <c r="E50" s="20"/>
-      <c r="F50" s="3"/>
+      <c r="C50" s="12">
+        <v>800102</v>
+      </c>
+      <c r="D50" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="E50" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>159</v>
+      </c>
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
       <c r="I50" s="3"/>
       <c r="J50" s="3"/>
-      <c r="AF50" s="4"/>
+      <c r="K50" s="2">
+        <v>0</v>
+      </c>
+      <c r="L50" s="2">
+        <v>5000</v>
+      </c>
+      <c r="M50" s="2">
+        <v>311</v>
+      </c>
+      <c r="O50" s="2">
+        <v>0</v>
+      </c>
+      <c r="P50" s="2">
+        <v>0.35</v>
+      </c>
+      <c r="Q50" s="2">
+        <v>0</v>
+      </c>
+      <c r="R50" s="2">
+        <v>0</v>
+      </c>
+      <c r="S50" s="2">
+        <v>0</v>
+      </c>
+      <c r="T50" s="2">
+        <v>0</v>
+      </c>
+      <c r="U50" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0.35,0,0,0,0</v>
+      </c>
+      <c r="V50" s="2">
+        <v>0</v>
+      </c>
+      <c r="W50" s="2">
+        <v>0</v>
+      </c>
+      <c r="X50" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB50" s="4"/>
     </row>
     <row r="51" spans="3:32" x14ac:dyDescent="0.2">
-      <c r="C51" s="3"/>
-      <c r="D51" s="20"/>
+      <c r="C51" s="12">
+        <v>800201</v>
+      </c>
+      <c r="D51" s="20" t="s">
+        <v>153</v>
+      </c>
       <c r="E51" s="20"/>
       <c r="F51" s="3"/>
-      <c r="G51" s="3"/>
-      <c r="H51" s="3"/>
-      <c r="I51" s="3"/>
-      <c r="J51" s="3"/>
-      <c r="AF51" s="4"/>
+      <c r="K51" s="2">
+        <v>0</v>
+      </c>
+      <c r="L51" s="2">
+        <v>10000</v>
+      </c>
+      <c r="M51" s="2">
+        <v>101</v>
+      </c>
+      <c r="O51" s="2">
+        <v>6</v>
+      </c>
+      <c r="P51" s="2">
+        <v>2.4</v>
+      </c>
+      <c r="Q51" s="2">
+        <v>0</v>
+      </c>
+      <c r="R51" s="2">
+        <v>0</v>
+      </c>
+      <c r="S51" s="2">
+        <v>0</v>
+      </c>
+      <c r="T51" s="2">
+        <v>0</v>
+      </c>
+      <c r="U51" s="2" t="str">
+        <f t="shared" ref="U51:U55" si="3">P51&amp;","&amp;Q51&amp;","&amp;R51&amp;","&amp;S51&amp;","&amp;T51</f>
+        <v>2.4,0,0,0,0</v>
+      </c>
+      <c r="V51" s="2">
+        <v>0</v>
+      </c>
+      <c r="W51" s="2">
+        <v>0</v>
+      </c>
+      <c r="X51" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB51" s="4"/>
     </row>
     <row r="52" spans="3:32" x14ac:dyDescent="0.2">
-      <c r="C52" s="3"/>
-      <c r="D52" s="20"/>
-      <c r="E52" s="20"/>
-      <c r="F52" s="3"/>
-      <c r="G52" s="3"/>
-      <c r="H52" s="3"/>
-      <c r="I52" s="3"/>
-      <c r="J52" s="3"/>
-      <c r="AF52" s="4"/>
+      <c r="C52" s="35">
+        <v>800202</v>
+      </c>
+      <c r="D52" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="E52" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="K52" s="2">
+        <v>0</v>
+      </c>
+      <c r="L52" s="2">
+        <v>10000</v>
+      </c>
+      <c r="M52" s="2">
+        <v>321</v>
+      </c>
+      <c r="O52" s="2">
+        <v>0</v>
+      </c>
+      <c r="P52" s="2">
+        <v>0.35</v>
+      </c>
+      <c r="Q52" s="2">
+        <v>0</v>
+      </c>
+      <c r="R52" s="2">
+        <v>0</v>
+      </c>
+      <c r="S52" s="2">
+        <v>0</v>
+      </c>
+      <c r="T52" s="2">
+        <v>0</v>
+      </c>
+      <c r="U52" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>0.35,0,0,0,0</v>
+      </c>
+      <c r="V52" s="2">
+        <v>1</v>
+      </c>
+      <c r="W52" s="2">
+        <v>0</v>
+      </c>
+      <c r="X52" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Y52" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z52" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB52" s="4"/>
     </row>
     <row r="53" spans="3:32" x14ac:dyDescent="0.2">
-      <c r="C53" s="3"/>
-      <c r="D53" s="20"/>
-      <c r="E53" s="20"/>
-      <c r="F53" s="3"/>
-      <c r="G53" s="3"/>
-      <c r="H53" s="3"/>
-      <c r="I53" s="3"/>
-      <c r="J53" s="3"/>
-      <c r="AF53" s="4"/>
+      <c r="C53" s="12">
+        <v>800301</v>
+      </c>
+      <c r="D53" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="E53" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="K53" s="2">
+        <v>0</v>
+      </c>
+      <c r="L53" s="2">
+        <v>10000</v>
+      </c>
+      <c r="M53" s="2">
+        <v>321</v>
+      </c>
+      <c r="O53" s="2">
+        <v>0</v>
+      </c>
+      <c r="P53" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Q53" s="2">
+        <v>0</v>
+      </c>
+      <c r="R53" s="2">
+        <v>0</v>
+      </c>
+      <c r="S53" s="2">
+        <v>0</v>
+      </c>
+      <c r="T53" s="2">
+        <v>0</v>
+      </c>
+      <c r="U53" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>0.5,0,0,0,0</v>
+      </c>
+      <c r="V53" s="2">
+        <v>0</v>
+      </c>
+      <c r="W53" s="2">
+        <v>0</v>
+      </c>
+      <c r="X53" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB53" s="4"/>
     </row>
     <row r="54" spans="3:32" x14ac:dyDescent="0.2">
-      <c r="C54" s="3"/>
-      <c r="D54" s="20"/>
+      <c r="C54" s="12">
+        <v>800501</v>
+      </c>
+      <c r="D54" s="20" t="s">
+        <v>156</v>
+      </c>
       <c r="E54" s="20"/>
       <c r="F54" s="3"/>
-      <c r="G54" s="3"/>
-      <c r="H54" s="3"/>
-      <c r="I54" s="3"/>
-      <c r="J54" s="3"/>
-      <c r="AF54" s="4"/>
+      <c r="K54" s="2">
+        <v>0</v>
+      </c>
+      <c r="L54" s="2">
+        <v>10000</v>
+      </c>
+      <c r="M54" s="2">
+        <v>101</v>
+      </c>
+      <c r="O54" s="2">
+        <v>1</v>
+      </c>
+      <c r="P54" s="2">
+        <v>3.6</v>
+      </c>
+      <c r="Q54" s="2">
+        <v>0</v>
+      </c>
+      <c r="R54" s="2">
+        <v>0</v>
+      </c>
+      <c r="S54" s="2">
+        <v>0</v>
+      </c>
+      <c r="T54" s="2">
+        <v>0</v>
+      </c>
+      <c r="U54" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>3.6,0,0,0,0</v>
+      </c>
+      <c r="V54" s="2">
+        <v>0</v>
+      </c>
+      <c r="W54" s="2">
+        <v>0</v>
+      </c>
+      <c r="X54" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y54" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z54" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB54" s="4"/>
     </row>
     <row r="55" spans="3:32" x14ac:dyDescent="0.2">
-      <c r="C55" s="9"/>
-      <c r="D55" s="21"/>
-      <c r="E55" s="21"/>
-      <c r="F55" s="9"/>
-      <c r="G55" s="9"/>
-      <c r="H55" s="9"/>
-      <c r="I55" s="9"/>
-      <c r="J55" s="9"/>
-      <c r="K55" s="10"/>
-      <c r="L55" s="10"/>
-      <c r="M55" s="10"/>
-      <c r="N55" s="10"/>
-      <c r="O55" s="10"/>
-      <c r="P55" s="10"/>
-      <c r="Q55" s="10"/>
-      <c r="R55" s="10"/>
-      <c r="S55" s="10"/>
-      <c r="T55" s="10"/>
-      <c r="U55" s="10"/>
-      <c r="V55" s="10"/>
-      <c r="W55" s="10"/>
-      <c r="X55" s="10"/>
-      <c r="Y55" s="10"/>
-      <c r="Z55" s="10"/>
-      <c r="AA55" s="10"/>
-      <c r="AB55" s="10"/>
-      <c r="AC55" s="10"/>
-      <c r="AD55" s="10"/>
-      <c r="AE55" s="10"/>
-      <c r="AF55" s="11"/>
+      <c r="C55" s="12">
+        <v>800502</v>
+      </c>
+      <c r="D55" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="E55" s="20"/>
+      <c r="F55" s="3"/>
+      <c r="K55" s="2">
+        <v>0</v>
+      </c>
+      <c r="L55" s="2">
+        <v>10000</v>
+      </c>
+      <c r="M55" s="2">
+        <v>501</v>
+      </c>
+      <c r="O55" s="2">
+        <v>800502</v>
+      </c>
+      <c r="P55" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q55" s="2">
+        <v>0</v>
+      </c>
+      <c r="R55" s="2">
+        <v>0</v>
+      </c>
+      <c r="S55" s="2">
+        <v>0</v>
+      </c>
+      <c r="T55" s="2">
+        <v>0</v>
+      </c>
+      <c r="U55" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>0,0,0,0,0</v>
+      </c>
+      <c r="V55" s="2">
+        <v>1</v>
+      </c>
+      <c r="W55" s="2">
+        <v>0</v>
+      </c>
+      <c r="X55" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Y55" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z55" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB55" s="4"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="C56" s="3">
+        <v>900111</v>
+      </c>
+      <c r="D56" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="E56" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G56" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I56" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="J56" s="3">
+        <v>1</v>
+      </c>
+      <c r="K56" s="2">
+        <v>0</v>
+      </c>
+      <c r="L56" s="2">
+        <v>10000</v>
+      </c>
+      <c r="M56" s="2">
+        <v>101</v>
+      </c>
+      <c r="O56" s="2">
+        <v>0</v>
+      </c>
+      <c r="P56" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q56" s="2">
+        <v>200</v>
+      </c>
+      <c r="R56" s="2">
+        <v>0</v>
+      </c>
+      <c r="S56" s="2">
+        <v>0</v>
+      </c>
+      <c r="T56" s="2">
+        <v>0</v>
+      </c>
+      <c r="U56" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>1,200,0,0,0</v>
+      </c>
+      <c r="V56" s="2">
+        <v>0</v>
+      </c>
+      <c r="W56" s="2">
+        <v>0</v>
+      </c>
+      <c r="X56" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y56" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z56" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB56" s="4"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="C57" s="3"/>
+      <c r="D57" s="20"/>
+      <c r="E57" s="20"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
+      <c r="H57" s="3"/>
+      <c r="I57" s="3"/>
+      <c r="J57" s="3"/>
+      <c r="AB57" s="4"/>
+    </row>
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="C58" s="3"/>
+      <c r="D58" s="20"/>
+      <c r="E58" s="20"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="3"/>
+      <c r="I58" s="3"/>
+      <c r="J58" s="3"/>
+      <c r="AF58" s="4"/>
+    </row>
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="C59" s="3"/>
+      <c r="D59" s="20"/>
+      <c r="E59" s="20"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="3"/>
+      <c r="I59" s="3"/>
+      <c r="J59" s="3"/>
+      <c r="AF59" s="4"/>
+    </row>
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="C60" s="3"/>
+      <c r="D60" s="20"/>
+      <c r="E60" s="20"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="3"/>
+      <c r="I60" s="3"/>
+      <c r="J60" s="3"/>
+      <c r="AF60" s="4"/>
+    </row>
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="C61" s="3"/>
+      <c r="D61" s="20"/>
+      <c r="E61" s="20"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="3"/>
+      <c r="H61" s="3"/>
+      <c r="I61" s="3"/>
+      <c r="J61" s="3"/>
+      <c r="AF61" s="4"/>
+    </row>
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="C62" s="3"/>
+      <c r="D62" s="20"/>
+      <c r="E62" s="20"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="3"/>
+      <c r="I62" s="3"/>
+      <c r="J62" s="3"/>
+      <c r="AF62" s="4"/>
+    </row>
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="C63" s="9"/>
+      <c r="D63" s="21"/>
+      <c r="E63" s="21"/>
+      <c r="F63" s="9"/>
+      <c r="G63" s="9"/>
+      <c r="H63" s="9"/>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="10"/>
+      <c r="L63" s="10"/>
+      <c r="M63" s="10"/>
+      <c r="N63" s="10"/>
+      <c r="O63" s="10"/>
+      <c r="P63" s="10"/>
+      <c r="Q63" s="10"/>
+      <c r="R63" s="10"/>
+      <c r="S63" s="10"/>
+      <c r="T63" s="10"/>
+      <c r="U63" s="10"/>
+      <c r="V63" s="10"/>
+      <c r="W63" s="10"/>
+      <c r="X63" s="10"/>
+      <c r="Y63" s="10"/>
+      <c r="Z63" s="10"/>
+      <c r="AA63" s="10"/>
+      <c r="AB63" s="10"/>
+      <c r="AC63" s="10"/>
+      <c r="AD63" s="10"/>
+      <c r="AE63" s="10"/>
+      <c r="AF63" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/config/excel/SkillEffect.xlsx
+++ b/config/excel/SkillEffect.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EastEden\excel\trunk\global\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{545A49B0-16D7-455D-AF68-7E301BE58255}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{862C53A8-7076-43D5-9DD5-E9C13057A138}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -463,13 +463,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>目标点到目标范围边界的距离(米)
-圆形-半径
-0-不限距离
-参数要&gt;0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">圆形-配空
 矩形-宽度
@@ -502,14 +495,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1-选定目标
-2-友军(除目标)
-3-所有友军
-4-敌军(除目标)
-5-所有敌军</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">0-默认
 1-圆形
@@ -858,6 +843,22 @@
   </si>
   <si>
     <t>1,3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标点到目标范围边界的距离(米)
+圆形-半径
+0-默认
+参数要&gt;0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-施法选定目标
+2-友军(除目标)
+3-所有友军
+4-敌军(除目标)
+5-所有敌军
+6-仅施法者</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2028,10 +2029,10 @@
   <dimension ref="A1:AF63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="6" topLeftCell="E18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="6" topLeftCell="R7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="A29" sqref="A29"/>
+      <selection pane="bottomRight" activeCell="X11" sqref="X11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="14.25" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -2078,13 +2079,13 @@
         <v>45</v>
       </c>
       <c r="G1" s="36" t="s">
+        <v>159</v>
+      </c>
+      <c r="H1" s="37" t="s">
+        <v>160</v>
+      </c>
+      <c r="I1" s="37" t="s">
         <v>161</v>
-      </c>
-      <c r="H1" s="37" t="s">
-        <v>162</v>
-      </c>
-      <c r="I1" s="37" t="s">
-        <v>163</v>
       </c>
       <c r="J1" s="26" t="s">
         <v>46</v>
@@ -2099,28 +2100,28 @@
         <v>7</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="P1" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q1" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="R1" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="S1" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="T1" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="R1" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="S1" s="27" t="s">
-        <v>97</v>
-      </c>
-      <c r="T1" s="27" t="s">
-        <v>98</v>
-      </c>
       <c r="U1" s="30" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="V1" s="8" t="s">
         <v>26</v>
@@ -2138,10 +2139,10 @@
         <v>12</v>
       </c>
       <c r="AA1" s="8" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AB1" s="8" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:28" ht="99.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2175,50 +2176,50 @@
         <v>14</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="O2" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q2" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="S2" s="15" t="s">
         <v>118</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="S2" s="15" t="s">
-        <v>120</v>
       </c>
       <c r="T2" s="15"/>
       <c r="U2" s="31" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="V2" s="19" t="s">
         <v>89</v>
       </c>
       <c r="W2" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="X2" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="X2" s="19" t="s">
+      <c r="Y2" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="Y2" s="19" t="s">
-        <v>93</v>
-      </c>
       <c r="Z2" s="19" t="s">
-        <v>92</v>
+        <v>173</v>
       </c>
       <c r="AA2" s="19" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="AB2" s="33" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.2">
@@ -2233,7 +2234,7 @@
         <v>49</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G3" s="12" t="s">
         <v>50</v>
@@ -2257,10 +2258,10 @@
         <v>15</v>
       </c>
       <c r="N3" s="13" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="O3" s="13" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="P3" s="13"/>
       <c r="Q3" s="13"/>
@@ -2268,7 +2269,7 @@
       <c r="S3" s="13"/>
       <c r="T3" s="13"/>
       <c r="U3" s="14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="V3" s="14" t="s">
         <v>87</v>
@@ -2286,10 +2287,10 @@
         <v>20</v>
       </c>
       <c r="AA3" s="14" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AB3" s="14" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:28" ht="57" x14ac:dyDescent="0.2">
@@ -2304,7 +2305,7 @@
         <v>54</v>
       </c>
       <c r="F4" s="24" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G4" s="24" t="s">
         <v>55</v>
@@ -2328,25 +2329,25 @@
         <v>7</v>
       </c>
       <c r="N4" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="O4" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="P4" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="O4" s="13" t="s">
+      <c r="Q4" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="P4" s="13" t="s">
+      <c r="R4" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="Q4" s="13" t="s">
+      <c r="S4" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="R4" s="13" t="s">
+      <c r="T4" s="13" t="s">
         <v>113</v>
-      </c>
-      <c r="S4" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="T4" s="13" t="s">
-        <v>115</v>
       </c>
       <c r="U4" s="28"/>
       <c r="V4" s="14" t="s">
@@ -2365,10 +2366,10 @@
         <v>24</v>
       </c>
       <c r="AA4" s="14" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="AB4" s="34" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.2">
@@ -2414,7 +2415,7 @@
         <v>58</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G6" s="12" t="s">
         <v>59</v>
@@ -2438,10 +2439,10 @@
         <v>10</v>
       </c>
       <c r="N6" s="13" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="O6" s="13" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="P6" s="13"/>
       <c r="Q6" s="13"/>
@@ -2449,7 +2450,7 @@
       <c r="S6" s="13"/>
       <c r="T6" s="13"/>
       <c r="U6" s="13" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="V6" s="14" t="s">
         <v>10</v>
@@ -2467,10 +2468,10 @@
         <v>10</v>
       </c>
       <c r="AA6" s="14" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="AB6" s="32" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.2">
@@ -3428,7 +3429,7 @@
         <v>100112</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E22" s="20"/>
       <c r="F22" s="3"/>
@@ -3489,7 +3490,7 @@
         <v>100201</v>
       </c>
       <c r="D23" s="20" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E23" s="20"/>
       <c r="F23" s="3"/>
@@ -3546,7 +3547,7 @@
         <v>100301</v>
       </c>
       <c r="D24" s="20" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E24" s="20" t="s">
         <v>69</v>
@@ -3616,7 +3617,7 @@
         <v>100302</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E25" s="20"/>
       <c r="F25" s="3"/>
@@ -3673,19 +3674,19 @@
         <v>1003021</v>
       </c>
       <c r="D26" s="20" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E26" s="22" t="s">
         <v>69</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G26" s="2">
         <v>0.2</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I26" s="2">
         <v>0.2</v>
@@ -3700,7 +3701,7 @@
         <v>102</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="P26" s="2">
         <v>1</v>
@@ -3743,7 +3744,7 @@
         <v>100401</v>
       </c>
       <c r="D27" s="20" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E27" s="20"/>
       <c r="F27" s="3"/>
@@ -3800,7 +3801,7 @@
         <v>100402</v>
       </c>
       <c r="D28" s="20" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E28" s="20"/>
       <c r="F28" s="3"/>
@@ -3839,16 +3840,16 @@
         <v>1</v>
       </c>
       <c r="W28" s="2">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="X28" s="2">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Y28" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z28" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AB28" s="4"/>
     </row>
@@ -3857,13 +3858,13 @@
         <v>1004021</v>
       </c>
       <c r="D29" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="E29" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="F29" s="3" t="s">
         <v>169</v>
-      </c>
-      <c r="E29" s="20" t="s">
-        <v>170</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>171</v>
       </c>
       <c r="K29" s="2">
         <v>0</v>
@@ -3900,16 +3901,16 @@
         <v>1</v>
       </c>
       <c r="W29" s="2">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="X29" s="2">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Y29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z29" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AB29" s="4"/>
     </row>
@@ -3918,7 +3919,7 @@
         <v>200111</v>
       </c>
       <c r="D30" s="20" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E30" s="20" t="s">
         <v>65</v>
@@ -3989,7 +3990,7 @@
         <v>200121</v>
       </c>
       <c r="D31" s="20" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E31" s="20" t="s">
         <v>67</v>
@@ -4290,7 +4291,7 @@
         <v>200302</v>
       </c>
       <c r="D36" s="20" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E36" s="20"/>
       <c r="F36" s="3"/>
@@ -4329,16 +4330,16 @@
         <v>1</v>
       </c>
       <c r="W36" s="2">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="X36" s="2">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Y36" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z36" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AB36" s="4"/>
     </row>
@@ -4347,10 +4348,10 @@
         <v>2003021</v>
       </c>
       <c r="D37" s="20" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E37" s="20" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F37" s="3" t="s">
         <v>66</v>
@@ -4374,7 +4375,7 @@
         <v>101</v>
       </c>
       <c r="O37" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="P37" s="2">
         <v>2</v>
@@ -4417,7 +4418,7 @@
         <v>200501</v>
       </c>
       <c r="D38" s="20" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E38" s="20"/>
       <c r="F38" s="3"/>
@@ -4474,7 +4475,7 @@
         <v>200502</v>
       </c>
       <c r="D39" s="20" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E39" s="20"/>
       <c r="F39" s="3"/>
@@ -4531,7 +4532,7 @@
         <v>300101</v>
       </c>
       <c r="D40" s="20" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E40" s="20" t="s">
         <v>71</v>
@@ -4579,7 +4580,7 @@
         <v>0</v>
       </c>
       <c r="U40" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="V40" s="2">
         <v>0</v>
@@ -4676,7 +4677,7 @@
         <v>300201</v>
       </c>
       <c r="D42" s="20" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E42" s="20"/>
       <c r="F42" s="3"/>
@@ -4733,7 +4734,7 @@
         <v>300301</v>
       </c>
       <c r="D43" s="20" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E43" s="20"/>
       <c r="F43" s="3"/>
@@ -4790,7 +4791,7 @@
         <v>300302</v>
       </c>
       <c r="D44" s="20" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E44" s="20"/>
       <c r="F44" s="3"/>
@@ -4850,7 +4851,7 @@
         <v>300501</v>
       </c>
       <c r="D45" s="20" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E45" s="20"/>
       <c r="F45" s="3"/>
@@ -5200,10 +5201,10 @@
         <v>76</v>
       </c>
       <c r="E50" s="20" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
@@ -5262,7 +5263,7 @@
         <v>800201</v>
       </c>
       <c r="D51" s="20" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E51" s="20"/>
       <c r="F51" s="3"/>
@@ -5319,13 +5320,13 @@
         <v>800202</v>
       </c>
       <c r="D52" s="20" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E52" s="20" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K52" s="2">
         <v>0</v>
@@ -5362,16 +5363,16 @@
         <v>1</v>
       </c>
       <c r="W52" s="2">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="X52" s="2">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Y52" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z52" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AB52" s="4"/>
     </row>
@@ -5380,13 +5381,13 @@
         <v>800301</v>
       </c>
       <c r="D53" s="20" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E53" s="20" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K53" s="2">
         <v>0</v>
@@ -5441,7 +5442,7 @@
         <v>800501</v>
       </c>
       <c r="D54" s="20" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E54" s="20"/>
       <c r="F54" s="3"/>
@@ -5498,7 +5499,7 @@
         <v>800502</v>
       </c>
       <c r="D55" s="20" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E55" s="20"/>
       <c r="F55" s="3"/>
@@ -5537,16 +5538,16 @@
         <v>1</v>
       </c>
       <c r="W55" s="2">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="X55" s="2">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Y55" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z55" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AB55" s="4"/>
     </row>
@@ -5555,7 +5556,7 @@
         <v>900111</v>
       </c>
       <c r="D56" s="20" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E56" s="20" t="s">
         <v>71</v>

--- a/config/excel/SkillEffect.xlsx
+++ b/config/excel/SkillEffect.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EastEden\excel\trunk\global\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F8A232C-471D-4BDA-8F7E-D136813F1B02}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50B50D52-87C1-43BC-81BB-BC2CA4DBDE6B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="202">
   <si>
     <t>行列头两行不会被读取</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -968,6 +968,10 @@
   </si>
   <si>
     <t>Fx_act_effect_latiao</t>
+  </si>
+  <si>
+    <t>扫把-技能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1873,8 +1877,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7D756641-FA44-4C98-8415-A8A9AF7B3072}" name="表1" displayName="表1" ref="C1:AD68" totalsRowShown="0" headerRowDxfId="32" dataDxfId="30" headerRowBorderDxfId="31" tableBorderDxfId="29" totalsRowBorderDxfId="28">
-  <autoFilter ref="C1:AD68" xr:uid="{8CC84E60-2DCE-4F71-9796-17451FB14116}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7D756641-FA44-4C98-8415-A8A9AF7B3072}" name="表1" displayName="表1" ref="C1:AD69" totalsRowShown="0" headerRowDxfId="32" dataDxfId="30" headerRowBorderDxfId="31" tableBorderDxfId="29" totalsRowBorderDxfId="28">
+  <autoFilter ref="C1:AD69" xr:uid="{8CC84E60-2DCE-4F71-9796-17451FB14116}"/>
   <tableColumns count="28">
     <tableColumn id="1" xr3:uid="{B117A20D-488D-4BBE-9938-B9ED8BC64C7F}" name="效果ID" dataDxfId="27"/>
     <tableColumn id="24" xr3:uid="{92A314CE-7C79-4335-AE0F-C9FE3BC3E616}" name="备注" dataDxfId="26"/>
@@ -2172,13 +2176,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AH68"/>
+  <dimension ref="A1:AH69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="6" topLeftCell="V40" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="6" topLeftCell="E53" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="W52" sqref="W52"/>
+      <selection pane="bottomRight" activeCell="F64" sqref="F64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="14.25" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -2766,7 +2770,7 @@
         <v>0</v>
       </c>
       <c r="V8" s="2" t="str">
-        <f t="shared" ref="V8:V66" si="0">Q8&amp;","&amp;R8&amp;","&amp;S8&amp;","&amp;T8&amp;","&amp;U8</f>
+        <f t="shared" ref="V8:V62" si="0">Q8&amp;","&amp;R8&amp;","&amp;S8&amp;","&amp;T8&amp;","&amp;U8</f>
         <v>2,200,0,0,0</v>
       </c>
       <c r="X8" s="2">
@@ -5048,15 +5052,15 @@
       <c r="AD44" s="4"/>
     </row>
     <row r="45" spans="3:30" x14ac:dyDescent="0.2">
-      <c r="C45" s="3">
-        <v>400111</v>
+      <c r="C45" s="12">
+        <v>800101</v>
       </c>
       <c r="D45" s="20" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E45" s="20"/>
       <c r="F45" s="20" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>64</v>
@@ -5120,46 +5124,42 @@
       <c r="AD45" s="4"/>
     </row>
     <row r="46" spans="3:30" x14ac:dyDescent="0.2">
-      <c r="C46" s="3">
-        <v>500111</v>
+      <c r="C46" s="12">
+        <v>800102</v>
       </c>
       <c r="D46" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="E46" s="20"/>
+        <v>74</v>
+      </c>
+      <c r="E46" s="20" t="s">
+        <v>184</v>
+      </c>
       <c r="F46" s="20" t="s">
-        <v>67</v>
+        <v>152</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="H46" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="J46" s="3">
-        <v>0.2</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
       <c r="K46" s="3"/>
       <c r="L46" s="2">
         <v>0</v>
       </c>
       <c r="M46" s="2">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="N46" s="2">
-        <v>101</v>
+        <v>311</v>
       </c>
       <c r="P46" s="2">
         <v>0</v>
       </c>
       <c r="Q46" s="2">
-        <v>1</v>
+        <v>0.35</v>
       </c>
       <c r="R46" s="2">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="S46" s="2">
         <v>0</v>
@@ -5172,7 +5172,7 @@
       </c>
       <c r="V46" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>1,200,0,0,0</v>
+        <v>0.35,0,0,0,0</v>
       </c>
       <c r="X46" s="2">
         <v>0</v>
@@ -5192,29 +5192,15 @@
       <c r="AD46" s="4"/>
     </row>
     <row r="47" spans="3:30" x14ac:dyDescent="0.2">
-      <c r="C47" s="3">
-        <v>600111</v>
+      <c r="C47" s="12">
+        <v>800201</v>
       </c>
       <c r="D47" s="20" t="s">
-        <v>72</v>
+        <v>145</v>
       </c>
       <c r="E47" s="20"/>
-      <c r="F47" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="J47" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="K47" s="3"/>
+      <c r="F47" s="20"/>
+      <c r="G47" s="3"/>
       <c r="L47" s="2">
         <v>0</v>
       </c>
@@ -5225,13 +5211,13 @@
         <v>101</v>
       </c>
       <c r="P47" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Q47" s="2">
-        <v>1</v>
+        <v>2.4</v>
       </c>
       <c r="R47" s="2">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="S47" s="2">
         <v>0</v>
@@ -5243,8 +5229,8 @@
         <v>0</v>
       </c>
       <c r="V47" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>1,200,0,0,0</v>
+        <f t="shared" ref="V47:V51" si="3">Q47&amp;","&amp;R47&amp;","&amp;S47&amp;","&amp;T47&amp;","&amp;U47</f>
+        <v>2.4,0,0,0,0</v>
       </c>
       <c r="X47" s="2">
         <v>0</v>
@@ -5264,29 +5250,21 @@
       <c r="AD47" s="4"/>
     </row>
     <row r="48" spans="3:30" x14ac:dyDescent="0.2">
-      <c r="C48" s="12">
-        <v>800101</v>
+      <c r="C48" s="35">
+        <v>800202</v>
       </c>
       <c r="D48" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="E48" s="20"/>
+        <v>146</v>
+      </c>
+      <c r="E48" s="20" t="s">
+        <v>185</v>
+      </c>
       <c r="F48" s="20" t="s">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="H48" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="J48" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="K48" s="3"/>
+        <v>151</v>
+      </c>
       <c r="L48" s="2">
         <v>0</v>
       </c>
@@ -5294,81 +5272,80 @@
         <v>10000</v>
       </c>
       <c r="N48" s="2">
-        <v>101</v>
+        <v>321</v>
       </c>
       <c r="P48" s="2">
         <v>0</v>
       </c>
       <c r="Q48" s="2">
+        <v>0.35</v>
+      </c>
+      <c r="R48" s="2">
+        <v>0</v>
+      </c>
+      <c r="S48" s="2">
+        <v>0</v>
+      </c>
+      <c r="T48" s="2">
+        <v>0</v>
+      </c>
+      <c r="U48" s="2">
+        <v>0</v>
+      </c>
+      <c r="V48" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>0.35,0,0,0,0</v>
+      </c>
+      <c r="X48" s="2">
         <v>1</v>
       </c>
-      <c r="R48" s="2">
-        <v>200</v>
-      </c>
-      <c r="S48" s="2">
-        <v>0</v>
-      </c>
-      <c r="T48" s="2">
-        <v>0</v>
-      </c>
-      <c r="U48" s="2">
-        <v>0</v>
-      </c>
-      <c r="V48" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>1,200,0,0,0</v>
-      </c>
-      <c r="X48" s="2">
-        <v>0</v>
-      </c>
       <c r="Y48" s="2">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Z48" s="2">
         <v>0</v>
       </c>
       <c r="AA48" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB48" s="2">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="AC48" s="2">
+        <v>100101</v>
       </c>
       <c r="AD48" s="4"/>
     </row>
     <row r="49" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C49" s="12">
-        <v>800102</v>
+        <v>800301</v>
       </c>
       <c r="D49" s="20" t="s">
-        <v>74</v>
+        <v>147</v>
       </c>
       <c r="E49" s="20" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F49" s="20" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="H49" s="3"/>
-      <c r="I49" s="3"/>
-      <c r="J49" s="3"/>
-      <c r="K49" s="3"/>
       <c r="L49" s="2">
         <v>0</v>
       </c>
       <c r="M49" s="2">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="N49" s="2">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="P49" s="2">
         <v>0</v>
       </c>
       <c r="Q49" s="2">
-        <v>0.35</v>
+        <v>0.5</v>
       </c>
       <c r="R49" s="2">
         <v>0</v>
@@ -5383,8 +5360,8 @@
         <v>0</v>
       </c>
       <c r="V49" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>0.35,0,0,0,0</v>
+        <f t="shared" si="3"/>
+        <v>0.5,0,0,0,0</v>
       </c>
       <c r="X49" s="2">
         <v>0</v>
@@ -5405,10 +5382,10 @@
     </row>
     <row r="50" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C50" s="12">
-        <v>800201</v>
+        <v>800501</v>
       </c>
       <c r="D50" s="20" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="E50" s="20"/>
       <c r="F50" s="20"/>
@@ -5423,10 +5400,10 @@
         <v>101</v>
       </c>
       <c r="P50" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="Q50" s="2">
-        <v>2.4</v>
+        <v>3.6</v>
       </c>
       <c r="R50" s="2">
         <v>0</v>
@@ -5441,8 +5418,8 @@
         <v>0</v>
       </c>
       <c r="V50" s="2" t="str">
-        <f t="shared" ref="V50:V54" si="3">Q50&amp;","&amp;R50&amp;","&amp;S50&amp;","&amp;T50&amp;","&amp;U50</f>
-        <v>2.4,0,0,0,0</v>
+        <f t="shared" si="3"/>
+        <v>3.6,0,0,0,0</v>
       </c>
       <c r="X50" s="2">
         <v>0</v>
@@ -5462,21 +5439,15 @@
       <c r="AD50" s="4"/>
     </row>
     <row r="51" spans="3:34" x14ac:dyDescent="0.2">
-      <c r="C51" s="35">
-        <v>800202</v>
+      <c r="C51" s="12">
+        <v>800502</v>
       </c>
       <c r="D51" s="20" t="s">
-        <v>146</v>
-      </c>
-      <c r="E51" s="20" t="s">
-        <v>185</v>
-      </c>
-      <c r="F51" s="20" t="s">
-        <v>150</v>
-      </c>
-      <c r="G51" s="3" t="s">
-        <v>151</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="E51" s="20"/>
+      <c r="F51" s="20"/>
+      <c r="G51" s="3"/>
       <c r="L51" s="2">
         <v>0</v>
       </c>
@@ -5484,13 +5455,13 @@
         <v>10000</v>
       </c>
       <c r="N51" s="2">
-        <v>321</v>
+        <v>501</v>
       </c>
       <c r="P51" s="2">
-        <v>0</v>
+        <v>800502</v>
       </c>
       <c r="Q51" s="2">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="R51" s="2">
         <v>0</v>
@@ -5506,7 +5477,7 @@
       </c>
       <c r="V51" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>0.35,0,0,0,0</v>
+        <v>0,0,0,0,0</v>
       </c>
       <c r="X51" s="2">
         <v>1</v>
@@ -5523,27 +5494,18 @@
       <c r="AB51" s="2">
         <v>6</v>
       </c>
-      <c r="AC51" s="2">
-        <v>100101</v>
-      </c>
       <c r="AD51" s="4"/>
     </row>
     <row r="52" spans="3:34" x14ac:dyDescent="0.2">
-      <c r="C52" s="12">
-        <v>800301</v>
+      <c r="C52" s="3">
+        <v>2101101</v>
       </c>
       <c r="D52" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="E52" s="20" t="s">
-        <v>185</v>
-      </c>
-      <c r="F52" s="20" t="s">
-        <v>150</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>151</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="E52" s="20"/>
+      <c r="F52" s="20"/>
+      <c r="G52" s="3"/>
       <c r="L52" s="2">
         <v>0</v>
       </c>
@@ -5551,13 +5513,13 @@
         <v>10000</v>
       </c>
       <c r="N52" s="2">
-        <v>321</v>
+        <v>421</v>
       </c>
       <c r="P52" s="2">
         <v>0</v>
       </c>
       <c r="Q52" s="2">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="R52" s="2">
         <v>0</v>
@@ -5572,8 +5534,8 @@
         <v>0</v>
       </c>
       <c r="V52" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>0.5,0,0,0,0</v>
+        <f t="shared" si="0"/>
+        <v>0.2,0,0,0,0</v>
       </c>
       <c r="X52" s="2">
         <v>0</v>
@@ -5591,13 +5553,14 @@
         <v>0</v>
       </c>
       <c r="AD52" s="4"/>
+      <c r="AH52" s="4"/>
     </row>
     <row r="53" spans="3:34" x14ac:dyDescent="0.2">
-      <c r="C53" s="12">
-        <v>800501</v>
+      <c r="C53" s="3">
+        <v>2101102</v>
       </c>
       <c r="D53" s="20" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="E53" s="20"/>
       <c r="F53" s="20"/>
@@ -5609,57 +5572,62 @@
         <v>10000</v>
       </c>
       <c r="N53" s="2">
-        <v>101</v>
+        <v>501</v>
       </c>
       <c r="P53" s="2">
+        <v>100201</v>
+      </c>
+      <c r="Q53" s="2">
+        <v>0</v>
+      </c>
+      <c r="R53" s="2">
+        <v>0</v>
+      </c>
+      <c r="S53" s="2">
+        <v>0</v>
+      </c>
+      <c r="T53" s="2">
+        <v>0</v>
+      </c>
+      <c r="U53" s="2">
+        <v>0</v>
+      </c>
+      <c r="V53" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0,0,0,0,0</v>
+      </c>
+      <c r="X53" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y53" s="2">
+        <v>3</v>
+      </c>
+      <c r="Z53" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="2">
         <v>1</v>
       </c>
-      <c r="Q53" s="2">
-        <v>3.6</v>
-      </c>
-      <c r="R53" s="2">
-        <v>0</v>
-      </c>
-      <c r="S53" s="2">
-        <v>0</v>
-      </c>
-      <c r="T53" s="2">
-        <v>0</v>
-      </c>
-      <c r="U53" s="2">
-        <v>0</v>
-      </c>
-      <c r="V53" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>3.6,0,0,0,0</v>
-      </c>
-      <c r="X53" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y53" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z53" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA53" s="2">
-        <v>0</v>
-      </c>
       <c r="AB53" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD53" s="4"/>
+      <c r="AH53" s="4"/>
     </row>
     <row r="54" spans="3:34" x14ac:dyDescent="0.2">
-      <c r="C54" s="12">
-        <v>800502</v>
+      <c r="C54" s="3">
+        <v>2101201</v>
       </c>
       <c r="D54" s="20" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="E54" s="20"/>
-      <c r="F54" s="20"/>
-      <c r="G54" s="3"/>
+      <c r="F54" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>173</v>
+      </c>
       <c r="L54" s="2">
         <v>0</v>
       </c>
@@ -5667,10 +5635,10 @@
         <v>10000</v>
       </c>
       <c r="N54" s="2">
-        <v>501</v>
+        <v>701</v>
       </c>
       <c r="P54" s="2">
-        <v>800502</v>
+        <v>3</v>
       </c>
       <c r="Q54" s="2">
         <v>0</v>
@@ -5688,7 +5656,7 @@
         <v>0</v>
       </c>
       <c r="V54" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0,0,0,0,0</v>
       </c>
       <c r="X54" s="2">
@@ -5707,31 +5675,18 @@
         <v>6</v>
       </c>
       <c r="AD54" s="4"/>
+      <c r="AH54" s="4"/>
     </row>
     <row r="55" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C55" s="3">
-        <v>900111</v>
+        <v>2201101</v>
       </c>
       <c r="D55" s="20" t="s">
-        <v>144</v>
+        <v>174</v>
       </c>
       <c r="E55" s="20"/>
-      <c r="F55" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="G55" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="H55" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="I55" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="J55" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="K55" s="3"/>
+      <c r="F55" s="20"/>
+      <c r="G55" s="3"/>
       <c r="L55" s="2">
         <v>0</v>
       </c>
@@ -5739,16 +5694,16 @@
         <v>10000</v>
       </c>
       <c r="N55" s="2">
-        <v>101</v>
+        <v>501</v>
       </c>
       <c r="P55" s="2">
-        <v>0</v>
+        <v>200101</v>
       </c>
       <c r="Q55" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R55" s="2">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="S55" s="2">
         <v>0</v>
@@ -5761,90 +5716,98 @@
       </c>
       <c r="V55" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>1,200,0,0,0</v>
+        <v>0,0,0,0,0</v>
       </c>
       <c r="X55" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y55" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Z55" s="2">
         <v>0</v>
       </c>
       <c r="AA55" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB55" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AD55" s="4"/>
+      <c r="AH55" s="4"/>
     </row>
     <row r="56" spans="3:34" x14ac:dyDescent="0.2">
-      <c r="C56" s="3">
-        <v>2101101</v>
-      </c>
-      <c r="D56" s="20" t="s">
-        <v>169</v>
-      </c>
-      <c r="E56" s="20"/>
-      <c r="F56" s="20"/>
-      <c r="G56" s="3"/>
-      <c r="L56" s="2">
-        <v>0</v>
-      </c>
-      <c r="M56" s="2">
+      <c r="C56" s="9">
+        <v>2201102</v>
+      </c>
+      <c r="D56" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="E56" s="21"/>
+      <c r="F56" s="21"/>
+      <c r="G56" s="9"/>
+      <c r="H56" s="10"/>
+      <c r="I56" s="10"/>
+      <c r="J56" s="10"/>
+      <c r="K56" s="10"/>
+      <c r="L56" s="10">
+        <v>0</v>
+      </c>
+      <c r="M56" s="10">
         <v>10000</v>
       </c>
-      <c r="N56" s="2">
-        <v>421</v>
-      </c>
-      <c r="P56" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q56" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="R56" s="2">
-        <v>0</v>
-      </c>
-      <c r="S56" s="2">
-        <v>0</v>
-      </c>
-      <c r="T56" s="2">
-        <v>0</v>
-      </c>
-      <c r="U56" s="2">
+      <c r="N56" s="10">
+        <v>501</v>
+      </c>
+      <c r="O56" s="10"/>
+      <c r="P56" s="10">
+        <v>200102</v>
+      </c>
+      <c r="Q56" s="10">
+        <v>0</v>
+      </c>
+      <c r="R56" s="10">
+        <v>0</v>
+      </c>
+      <c r="S56" s="10">
+        <v>0</v>
+      </c>
+      <c r="T56" s="10">
+        <v>0</v>
+      </c>
+      <c r="U56" s="10">
         <v>0</v>
       </c>
       <c r="V56" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>0.2,0,0,0,0</v>
-      </c>
-      <c r="X56" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y56" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z56" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA56" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB56" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD56" s="4"/>
+        <v>0,0,0,0,0</v>
+      </c>
+      <c r="W56" s="10"/>
+      <c r="X56" s="10">
+        <v>1</v>
+      </c>
+      <c r="Y56" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="Z56" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA56" s="10">
+        <v>1</v>
+      </c>
+      <c r="AB56" s="10">
+        <v>6</v>
+      </c>
+      <c r="AC56" s="10"/>
+      <c r="AD56" s="11"/>
       <c r="AH56" s="4"/>
     </row>
     <row r="57" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C57" s="3">
-        <v>2101102</v>
+        <v>2201201</v>
       </c>
       <c r="D57" s="20" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="E57" s="20"/>
       <c r="F57" s="20"/>
@@ -5859,7 +5822,7 @@
         <v>501</v>
       </c>
       <c r="P57" s="2">
-        <v>100201</v>
+        <v>200201</v>
       </c>
       <c r="Q57" s="2">
         <v>0</v>
@@ -5884,7 +5847,7 @@
         <v>2</v>
       </c>
       <c r="Y57" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Z57" s="2">
         <v>0</v>
@@ -5893,25 +5856,24 @@
         <v>1</v>
       </c>
       <c r="AB57" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AD57" s="4"/>
-      <c r="AH57" s="4"/>
+      <c r="AE57" s="10"/>
+      <c r="AF57" s="10"/>
+      <c r="AG57" s="10"/>
+      <c r="AH57" s="11"/>
     </row>
     <row r="58" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C58" s="3">
-        <v>2101201</v>
+        <v>2201202</v>
       </c>
       <c r="D58" s="20" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="E58" s="20"/>
-      <c r="F58" s="20" t="s">
-        <v>172</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>173</v>
-      </c>
+      <c r="F58" s="20"/>
+      <c r="G58" s="3"/>
       <c r="L58" s="2">
         <v>0</v>
       </c>
@@ -5919,13 +5881,13 @@
         <v>10000</v>
       </c>
       <c r="N58" s="2">
-        <v>701</v>
-      </c>
-      <c r="P58" s="2">
-        <v>3</v>
+        <v>102</v>
+      </c>
+      <c r="P58" s="2" t="s">
+        <v>188</v>
       </c>
       <c r="Q58" s="2">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="R58" s="2">
         <v>0</v>
@@ -5941,10 +5903,10 @@
       </c>
       <c r="V58" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>0,0,0,0,0</v>
+        <v>0.02,0,0,0,0</v>
       </c>
       <c r="X58" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y58" s="2">
         <v>0.5</v>
@@ -5958,206 +5920,221 @@
       <c r="AB58" s="2">
         <v>6</v>
       </c>
+      <c r="AC58" s="2">
+        <v>200101</v>
+      </c>
       <c r="AD58" s="4"/>
-      <c r="AH58" s="4"/>
     </row>
     <row r="59" spans="3:34" x14ac:dyDescent="0.2">
-      <c r="C59" s="3">
-        <v>2201101</v>
-      </c>
-      <c r="D59" s="20" t="s">
-        <v>174</v>
-      </c>
-      <c r="E59" s="20"/>
-      <c r="F59" s="20"/>
-      <c r="G59" s="3"/>
-      <c r="L59" s="2">
-        <v>0</v>
-      </c>
-      <c r="M59" s="2">
+      <c r="C59" s="9">
+        <v>2301101</v>
+      </c>
+      <c r="D59" s="21" t="s">
+        <v>189</v>
+      </c>
+      <c r="E59" s="21"/>
+      <c r="F59" s="21"/>
+      <c r="G59" s="9"/>
+      <c r="H59" s="10"/>
+      <c r="I59" s="10"/>
+      <c r="J59" s="10"/>
+      <c r="K59" s="10"/>
+      <c r="L59" s="10">
+        <v>0</v>
+      </c>
+      <c r="M59" s="10">
         <v>10000</v>
       </c>
-      <c r="N59" s="2">
-        <v>501</v>
-      </c>
-      <c r="P59" s="2">
-        <v>200101</v>
-      </c>
-      <c r="Q59" s="2">
-        <v>0</v>
-      </c>
-      <c r="R59" s="2">
-        <v>0</v>
-      </c>
-      <c r="S59" s="2">
-        <v>0</v>
-      </c>
-      <c r="T59" s="2">
-        <v>0</v>
-      </c>
-      <c r="U59" s="2">
+      <c r="N59" s="10">
+        <v>802</v>
+      </c>
+      <c r="O59" s="10"/>
+      <c r="P59" s="10">
+        <v>4</v>
+      </c>
+      <c r="Q59" s="10">
+        <v>3</v>
+      </c>
+      <c r="R59" s="10">
+        <v>0</v>
+      </c>
+      <c r="S59" s="10">
+        <v>0</v>
+      </c>
+      <c r="T59" s="10">
+        <v>0</v>
+      </c>
+      <c r="U59" s="10">
         <v>0</v>
       </c>
       <c r="V59" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>0,0,0,0,0</v>
-      </c>
-      <c r="X59" s="2">
+        <v>3,0,0,0,0</v>
+      </c>
+      <c r="W59" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="X59" s="10">
         <v>1</v>
       </c>
-      <c r="Y59" s="2">
-        <v>3</v>
-      </c>
-      <c r="Z59" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA59" s="2">
+      <c r="Y59" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="Z59" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA59" s="10">
         <v>1</v>
       </c>
-      <c r="AB59" s="2">
-        <v>5</v>
-      </c>
-      <c r="AD59" s="4"/>
-      <c r="AH59" s="4"/>
+      <c r="AB59" s="10">
+        <v>6</v>
+      </c>
+      <c r="AC59" s="10"/>
+      <c r="AD59" s="11"/>
     </row>
     <row r="60" spans="3:34" x14ac:dyDescent="0.2">
-      <c r="C60" s="9">
-        <v>2201102</v>
-      </c>
-      <c r="D60" s="21" t="s">
-        <v>175</v>
-      </c>
-      <c r="E60" s="21"/>
-      <c r="F60" s="21"/>
-      <c r="G60" s="9"/>
-      <c r="H60" s="10"/>
-      <c r="I60" s="10"/>
-      <c r="J60" s="10"/>
-      <c r="K60" s="10"/>
-      <c r="L60" s="10">
-        <v>0</v>
-      </c>
-      <c r="M60" s="10">
+      <c r="C60" s="3">
+        <v>2301201</v>
+      </c>
+      <c r="D60" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="E60" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="F60" s="20"/>
+      <c r="G60" s="3"/>
+      <c r="L60" s="2">
+        <v>0</v>
+      </c>
+      <c r="M60" s="2">
         <v>10000</v>
       </c>
-      <c r="N60" s="10">
-        <v>501</v>
-      </c>
-      <c r="O60" s="10"/>
-      <c r="P60" s="10">
-        <v>200102</v>
-      </c>
-      <c r="Q60" s="10">
-        <v>0</v>
-      </c>
-      <c r="R60" s="10">
-        <v>0</v>
-      </c>
-      <c r="S60" s="10">
-        <v>0</v>
-      </c>
-      <c r="T60" s="10">
-        <v>0</v>
-      </c>
-      <c r="U60" s="10">
+      <c r="N60" s="2">
+        <v>401</v>
+      </c>
+      <c r="P60" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="R60" s="2">
+        <v>0</v>
+      </c>
+      <c r="S60" s="2">
+        <v>0</v>
+      </c>
+      <c r="T60" s="2">
+        <v>0</v>
+      </c>
+      <c r="U60" s="2">
         <v>0</v>
       </c>
       <c r="V60" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>0,0,0,0,0</v>
-      </c>
-      <c r="W60" s="10"/>
-      <c r="X60" s="10">
+        <v>0.5,0,0,0,0</v>
+      </c>
+      <c r="X60" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y60" s="2">
+        <v>8</v>
+      </c>
+      <c r="Z60" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA60" s="2">
         <v>1</v>
       </c>
-      <c r="Y60" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="Z60" s="10">
-        <v>0</v>
-      </c>
-      <c r="AA60" s="10">
-        <v>1</v>
-      </c>
-      <c r="AB60" s="10">
-        <v>6</v>
-      </c>
-      <c r="AC60" s="10"/>
-      <c r="AD60" s="11"/>
-      <c r="AH60" s="4"/>
+      <c r="AB60" s="2">
+        <v>5</v>
+      </c>
+      <c r="AD60" s="4"/>
     </row>
     <row r="61" spans="3:34" x14ac:dyDescent="0.2">
-      <c r="C61" s="3">
-        <v>2201201</v>
-      </c>
-      <c r="D61" s="20" t="s">
-        <v>186</v>
-      </c>
-      <c r="E61" s="20"/>
-      <c r="F61" s="20"/>
-      <c r="G61" s="3"/>
-      <c r="L61" s="2">
-        <v>0</v>
-      </c>
-      <c r="M61" s="2">
+      <c r="C61" s="9">
+        <v>2801101</v>
+      </c>
+      <c r="D61" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="E61" s="21" t="s">
+        <v>199</v>
+      </c>
+      <c r="F61" s="21"/>
+      <c r="G61" s="9"/>
+      <c r="H61" s="10"/>
+      <c r="I61" s="10"/>
+      <c r="J61" s="10"/>
+      <c r="K61" s="10"/>
+      <c r="L61" s="10">
+        <v>0</v>
+      </c>
+      <c r="M61" s="10">
         <v>10000</v>
       </c>
-      <c r="N61" s="2">
-        <v>501</v>
-      </c>
-      <c r="P61" s="2">
-        <v>200201</v>
-      </c>
-      <c r="Q61" s="2">
-        <v>0</v>
-      </c>
-      <c r="R61" s="2">
-        <v>0</v>
-      </c>
-      <c r="S61" s="2">
-        <v>0</v>
-      </c>
-      <c r="T61" s="2">
-        <v>0</v>
-      </c>
-      <c r="U61" s="2">
+      <c r="N61" s="10">
+        <v>901</v>
+      </c>
+      <c r="O61" s="10"/>
+      <c r="P61" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="10">
+        <v>0</v>
+      </c>
+      <c r="R61" s="10">
+        <v>0</v>
+      </c>
+      <c r="S61" s="10">
+        <v>0</v>
+      </c>
+      <c r="T61" s="10">
+        <v>0</v>
+      </c>
+      <c r="U61" s="10">
         <v>0</v>
       </c>
       <c r="V61" s="2" t="str">
         <f t="shared" si="0"/>
         <v>0,0,0,0,0</v>
       </c>
-      <c r="X61" s="2">
-        <v>2</v>
-      </c>
-      <c r="Y61" s="2">
-        <v>2</v>
-      </c>
-      <c r="Z61" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA61" s="2">
+      <c r="W61" s="10"/>
+      <c r="X61" s="10">
         <v>1</v>
       </c>
-      <c r="AB61" s="2">
-        <v>5</v>
-      </c>
-      <c r="AD61" s="4"/>
-      <c r="AE61" s="10"/>
-      <c r="AF61" s="10"/>
-      <c r="AG61" s="10"/>
-      <c r="AH61" s="11"/>
+      <c r="Y61" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="Z61" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA61" s="10">
+        <v>1</v>
+      </c>
+      <c r="AB61" s="10">
+        <v>6</v>
+      </c>
+      <c r="AC61" s="10"/>
+      <c r="AD61" s="11"/>
     </row>
     <row r="62" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C62" s="3">
-        <v>2201202</v>
+        <v>2801201</v>
       </c>
       <c r="D62" s="20" t="s">
-        <v>187</v>
-      </c>
-      <c r="E62" s="20"/>
-      <c r="F62" s="20"/>
-      <c r="G62" s="3"/>
+        <v>198</v>
+      </c>
+      <c r="E62" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="F62" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>64</v>
+      </c>
       <c r="L62" s="2">
         <v>0</v>
       </c>
@@ -6165,13 +6142,13 @@
         <v>10000</v>
       </c>
       <c r="N62" s="2">
-        <v>102</v>
-      </c>
-      <c r="P62" s="2" t="s">
-        <v>188</v>
+        <v>321</v>
+      </c>
+      <c r="P62" s="2">
+        <v>0</v>
       </c>
       <c r="Q62" s="2">
-        <v>0.02</v>
+        <v>0.35</v>
       </c>
       <c r="R62" s="2">
         <v>0</v>
@@ -6187,10 +6164,10 @@
       </c>
       <c r="V62" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>0.02,0,0,0,0</v>
+        <v>0.35,0,0,0,0</v>
       </c>
       <c r="X62" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y62" s="2">
         <v>0.5</v>
@@ -6204,88 +6181,88 @@
       <c r="AB62" s="2">
         <v>6</v>
       </c>
-      <c r="AC62" s="2">
-        <v>200101</v>
-      </c>
       <c r="AD62" s="4"/>
     </row>
     <row r="63" spans="3:34" x14ac:dyDescent="0.2">
-      <c r="C63" s="9">
-        <v>2301101</v>
-      </c>
-      <c r="D63" s="21" t="s">
-        <v>189</v>
-      </c>
-      <c r="E63" s="21"/>
-      <c r="F63" s="21"/>
-      <c r="G63" s="9"/>
-      <c r="H63" s="10"/>
-      <c r="I63" s="10"/>
-      <c r="J63" s="10"/>
-      <c r="K63" s="10"/>
-      <c r="L63" s="10">
-        <v>0</v>
-      </c>
-      <c r="M63" s="10">
+      <c r="C63" s="3">
+        <v>400111</v>
+      </c>
+      <c r="D63" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="E63" s="20"/>
+      <c r="F63" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H63" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="I63" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="J63" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="K63" s="3"/>
+      <c r="L63" s="2">
+        <v>0</v>
+      </c>
+      <c r="M63" s="2">
         <v>10000</v>
       </c>
-      <c r="N63" s="10">
-        <v>802</v>
-      </c>
-      <c r="O63" s="10"/>
-      <c r="P63" s="10">
-        <v>4</v>
-      </c>
-      <c r="Q63" s="10">
-        <v>3</v>
-      </c>
-      <c r="R63" s="10">
-        <v>0</v>
-      </c>
-      <c r="S63" s="10">
-        <v>0</v>
-      </c>
-      <c r="T63" s="10">
-        <v>0</v>
-      </c>
-      <c r="U63" s="10">
+      <c r="N63" s="2">
+        <v>101</v>
+      </c>
+      <c r="P63" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="2">
+        <v>1</v>
+      </c>
+      <c r="R63" s="2">
+        <v>200</v>
+      </c>
+      <c r="S63" s="2">
+        <v>0</v>
+      </c>
+      <c r="T63" s="2">
+        <v>0</v>
+      </c>
+      <c r="U63" s="2">
         <v>0</v>
       </c>
       <c r="V63" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>3,0,0,0,0</v>
-      </c>
-      <c r="W63" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="X63" s="10">
-        <v>1</v>
-      </c>
-      <c r="Y63" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="Z63" s="10">
-        <v>0</v>
-      </c>
-      <c r="AA63" s="10">
-        <v>1</v>
-      </c>
-      <c r="AB63" s="10">
-        <v>6</v>
-      </c>
-      <c r="AC63" s="10"/>
-      <c r="AD63" s="11"/>
+        <f>Q63&amp;","&amp;R63&amp;","&amp;S63&amp;","&amp;T63&amp;","&amp;U63</f>
+        <v>1,200,0,0,0</v>
+      </c>
+      <c r="X63" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y63" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z63" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB63" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD63" s="4"/>
     </row>
     <row r="64" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C64" s="3">
-        <v>2301201</v>
+        <v>400201</v>
       </c>
       <c r="D64" s="20" t="s">
-        <v>190</v>
-      </c>
-      <c r="E64" s="20" t="s">
-        <v>182</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="E64" s="20"/>
       <c r="F64" s="20"/>
       <c r="G64" s="3"/>
       <c r="L64" s="2">
@@ -6295,13 +6272,13 @@
         <v>10000</v>
       </c>
       <c r="N64" s="2">
-        <v>401</v>
+        <v>101</v>
       </c>
       <c r="P64" s="2">
         <v>0</v>
       </c>
       <c r="Q64" s="2">
-        <v>0.5</v>
+        <v>8</v>
       </c>
       <c r="R64" s="2">
         <v>0</v>
@@ -6316,109 +6293,122 @@
         <v>0</v>
       </c>
       <c r="V64" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>0.5,0,0,0,0</v>
+        <f>Q64&amp;","&amp;R64&amp;","&amp;S64&amp;","&amp;T64&amp;","&amp;U64</f>
+        <v>8,0,0,0,0</v>
       </c>
       <c r="X64" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y64" s="2">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="Z64" s="2">
         <v>0</v>
       </c>
       <c r="AA64" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB64" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD64" s="4"/>
+    </row>
+    <row r="65" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="C65" s="3">
+        <v>500111</v>
+      </c>
+      <c r="D65" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="E65" s="20"/>
+      <c r="F65" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H65" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="I65" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="J65" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="K65" s="3"/>
+      <c r="L65" s="2">
+        <v>0</v>
+      </c>
+      <c r="M65" s="2">
+        <v>10000</v>
+      </c>
+      <c r="N65" s="2">
+        <v>101</v>
+      </c>
+      <c r="P65" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="2">
         <v>1</v>
       </c>
-      <c r="AB64" s="2">
-        <v>5</v>
-      </c>
-      <c r="AD64" s="4"/>
-    </row>
-    <row r="65" spans="3:30" x14ac:dyDescent="0.2">
-      <c r="C65" s="9">
-        <v>2801101</v>
-      </c>
-      <c r="D65" s="21" t="s">
-        <v>197</v>
-      </c>
-      <c r="E65" s="21" t="s">
-        <v>199</v>
-      </c>
-      <c r="F65" s="21"/>
-      <c r="G65" s="9"/>
-      <c r="H65" s="10"/>
-      <c r="I65" s="10"/>
-      <c r="J65" s="10"/>
-      <c r="K65" s="10"/>
-      <c r="L65" s="10">
-        <v>0</v>
-      </c>
-      <c r="M65" s="10">
-        <v>10000</v>
-      </c>
-      <c r="N65" s="10">
-        <v>901</v>
-      </c>
-      <c r="O65" s="10"/>
-      <c r="P65" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q65" s="10">
-        <v>0</v>
-      </c>
-      <c r="R65" s="10">
-        <v>0</v>
-      </c>
-      <c r="S65" s="10">
-        <v>0</v>
-      </c>
-      <c r="T65" s="10">
-        <v>0</v>
-      </c>
-      <c r="U65" s="10">
+      <c r="R65" s="2">
+        <v>200</v>
+      </c>
+      <c r="S65" s="2">
+        <v>0</v>
+      </c>
+      <c r="T65" s="2">
+        <v>0</v>
+      </c>
+      <c r="U65" s="2">
         <v>0</v>
       </c>
       <c r="V65" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>0,0,0,0,0</v>
-      </c>
-      <c r="W65" s="10"/>
-      <c r="X65" s="10">
-        <v>1</v>
-      </c>
-      <c r="Y65" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="Z65" s="10">
-        <v>0</v>
-      </c>
-      <c r="AA65" s="10">
-        <v>1</v>
-      </c>
-      <c r="AB65" s="10">
-        <v>6</v>
-      </c>
-      <c r="AC65" s="10"/>
-      <c r="AD65" s="11"/>
+        <f>Q65&amp;","&amp;R65&amp;","&amp;S65&amp;","&amp;T65&amp;","&amp;U65</f>
+        <v>1,200,0,0,0</v>
+      </c>
+      <c r="X65" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y65" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z65" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB65" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD65" s="4"/>
     </row>
     <row r="66" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C66" s="3">
-        <v>2801201</v>
+        <v>600111</v>
       </c>
       <c r="D66" s="20" t="s">
-        <v>198</v>
-      </c>
-      <c r="E66" s="20" t="s">
-        <v>185</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="E66" s="20"/>
       <c r="F66" s="20" t="s">
-        <v>200</v>
+        <v>67</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>64</v>
       </c>
+      <c r="H66" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="J66" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="K66" s="3"/>
       <c r="L66" s="2">
         <v>0</v>
       </c>
@@ -6426,16 +6416,16 @@
         <v>10000</v>
       </c>
       <c r="N66" s="2">
-        <v>321</v>
+        <v>101</v>
       </c>
       <c r="P66" s="2">
         <v>0</v>
       </c>
       <c r="Q66" s="2">
-        <v>0.35</v>
+        <v>1</v>
       </c>
       <c r="R66" s="2">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="S66" s="2">
         <v>0</v>
@@ -6447,63 +6437,135 @@
         <v>0</v>
       </c>
       <c r="V66" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>0.35,0,0,0,0</v>
+        <f>Q66&amp;","&amp;R66&amp;","&amp;S66&amp;","&amp;T66&amp;","&amp;U66</f>
+        <v>1,200,0,0,0</v>
       </c>
       <c r="X66" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y66" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z66" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA66" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB66" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD66" s="4"/>
+    </row>
+    <row r="67" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="C67" s="3">
+        <v>900111</v>
+      </c>
+      <c r="D67" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="E67" s="20"/>
+      <c r="F67" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H67" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="I67" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="J67" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="K67" s="3"/>
+      <c r="L67" s="2">
+        <v>0</v>
+      </c>
+      <c r="M67" s="2">
+        <v>10000</v>
+      </c>
+      <c r="N67" s="2">
+        <v>101</v>
+      </c>
+      <c r="P67" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q67" s="2">
         <v>1</v>
       </c>
-      <c r="Y66" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="Z66" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA66" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB66" s="2">
-        <v>6</v>
-      </c>
-      <c r="AD66" s="4"/>
-    </row>
-    <row r="67" spans="3:30" x14ac:dyDescent="0.2">
-      <c r="C67" s="3"/>
-      <c r="D67" s="20"/>
-      <c r="E67" s="20"/>
-      <c r="F67" s="20"/>
-      <c r="G67" s="3"/>
+      <c r="R67" s="2">
+        <v>200</v>
+      </c>
+      <c r="S67" s="2">
+        <v>0</v>
+      </c>
+      <c r="T67" s="2">
+        <v>0</v>
+      </c>
+      <c r="U67" s="2">
+        <v>0</v>
+      </c>
+      <c r="V67" s="2" t="str">
+        <f>Q67&amp;","&amp;R67&amp;","&amp;S67&amp;","&amp;T67&amp;","&amp;U67</f>
+        <v>1,200,0,0,0</v>
+      </c>
+      <c r="X67" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y67" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z67" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA67" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB67" s="2">
+        <v>0</v>
+      </c>
       <c r="AD67" s="4"/>
     </row>
     <row r="68" spans="3:30" x14ac:dyDescent="0.2">
-      <c r="C68" s="9"/>
-      <c r="D68" s="21"/>
-      <c r="E68" s="21"/>
-      <c r="F68" s="21"/>
-      <c r="G68" s="9"/>
-      <c r="H68" s="10"/>
-      <c r="I68" s="10"/>
-      <c r="J68" s="10"/>
-      <c r="K68" s="10"/>
-      <c r="L68" s="10"/>
-      <c r="M68" s="10"/>
-      <c r="N68" s="10"/>
-      <c r="O68" s="10"/>
-      <c r="P68" s="10"/>
-      <c r="Q68" s="10"/>
-      <c r="R68" s="10"/>
-      <c r="S68" s="10"/>
-      <c r="T68" s="10"/>
-      <c r="U68" s="10"/>
-      <c r="V68" s="10"/>
-      <c r="W68" s="10"/>
-      <c r="X68" s="10"/>
-      <c r="Y68" s="10"/>
-      <c r="Z68" s="10"/>
-      <c r="AA68" s="10"/>
-      <c r="AB68" s="10"/>
-      <c r="AC68" s="10"/>
-      <c r="AD68" s="11"/>
+      <c r="C68" s="3"/>
+      <c r="D68" s="20"/>
+      <c r="E68" s="20"/>
+      <c r="F68" s="20"/>
+      <c r="G68" s="3"/>
+      <c r="AD68" s="4"/>
+    </row>
+    <row r="69" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="C69" s="9"/>
+      <c r="D69" s="21"/>
+      <c r="E69" s="21"/>
+      <c r="F69" s="21"/>
+      <c r="G69" s="9"/>
+      <c r="H69" s="10"/>
+      <c r="I69" s="10"/>
+      <c r="J69" s="10"/>
+      <c r="K69" s="10"/>
+      <c r="L69" s="10"/>
+      <c r="M69" s="10"/>
+      <c r="N69" s="10"/>
+      <c r="O69" s="10"/>
+      <c r="P69" s="10"/>
+      <c r="Q69" s="10"/>
+      <c r="R69" s="10"/>
+      <c r="S69" s="10"/>
+      <c r="T69" s="10"/>
+      <c r="U69" s="10"/>
+      <c r="V69" s="10"/>
+      <c r="W69" s="10"/>
+      <c r="X69" s="10"/>
+      <c r="Y69" s="10"/>
+      <c r="Z69" s="10"/>
+      <c r="AA69" s="10"/>
+      <c r="AB69" s="10"/>
+      <c r="AC69" s="10"/>
+      <c r="AD69" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/config/excel/SkillEffect.xlsx
+++ b/config/excel/SkillEffect.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EastEden\excel\trunk\global\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50B50D52-87C1-43BC-81BB-BC2CA4DBDE6B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ECD7B61-C699-4BC5-A868-0CEBECB45258}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillEffect" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
     <author>dd</author>
   </authors>
   <commentList>
-    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{05B794EC-C9E0-47DA-BA1D-6D81E89388D8}">
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{05B794EC-C9E0-47DA-BA1D-6D81E89388D8}">
       <text>
         <r>
           <rPr>
@@ -45,7 +45,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X1" authorId="0" shapeId="0" xr:uid="{F8201646-FABF-4E69-8183-59CBA5E31C57}">
+    <comment ref="Z1" authorId="0" shapeId="0" xr:uid="{F8201646-FABF-4E69-8183-59CBA5E31C57}">
       <text>
         <r>
           <rPr>
@@ -67,7 +67,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L2" authorId="0" shapeId="0" xr:uid="{1423CB30-3DF0-4D12-A85D-376D802CDC1A}">
+    <comment ref="N2" authorId="0" shapeId="0" xr:uid="{1423CB30-3DF0-4D12-A85D-376D802CDC1A}">
       <text>
         <r>
           <rPr>
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="216">
   <si>
     <t>行列头两行不会被读取</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -713,10 +713,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>男主-奥义临时-造成120%伤害</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>瓦尔基里-临时奥义-每段造成120%伤害</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -971,6 +967,67 @@
   </si>
   <si>
     <t>扫把-技能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>增减益类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-增益
+1-减益</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>isDebuff</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>史莱姆-技能1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>史莱姆-被动召唤一组怪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>史莱姆-消失</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fx_summon_shockwave</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>效果特效</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>effectFx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>施法者的特效</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>男主-奥义临时-造成100%伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>男主-奥义临时-造成120%伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>男主-奥义临时-造成160%伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>男主-奥义临时-造成220%伤害</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1193,7 +1250,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1306,11 +1363,32 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="33">
+  <dxfs count="35">
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -1753,6 +1831,23 @@
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right style="thin">
@@ -1761,11 +1856,24 @@
         <top style="thin">
           <color theme="0"/>
         </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
+        <bottom/>
         <vertical/>
         <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -1877,12 +1985,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7D756641-FA44-4C98-8415-A8A9AF7B3072}" name="表1" displayName="表1" ref="C1:AD69" totalsRowShown="0" headerRowDxfId="32" dataDxfId="30" headerRowBorderDxfId="31" tableBorderDxfId="29" totalsRowBorderDxfId="28">
-  <autoFilter ref="C1:AD69" xr:uid="{8CC84E60-2DCE-4F71-9796-17451FB14116}"/>
-  <tableColumns count="28">
-    <tableColumn id="1" xr3:uid="{B117A20D-488D-4BBE-9938-B9ED8BC64C7F}" name="效果ID" dataDxfId="27"/>
-    <tableColumn id="24" xr3:uid="{92A314CE-7C79-4335-AE0F-C9FE3BC3E616}" name="备注" dataDxfId="26"/>
-    <tableColumn id="10" xr3:uid="{F72E9219-C04E-4D74-AE14-621A011975FD}" name="特效飘字" dataDxfId="25"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7D756641-FA44-4C98-8415-A8A9AF7B3072}" name="表1" displayName="表1" ref="C1:AF75" totalsRowShown="0" headerRowDxfId="34" dataDxfId="32" headerRowBorderDxfId="33" tableBorderDxfId="31" totalsRowBorderDxfId="30">
+  <autoFilter ref="C1:AF75" xr:uid="{8CC84E60-2DCE-4F71-9796-17451FB14116}"/>
+  <tableColumns count="30">
+    <tableColumn id="1" xr3:uid="{B117A20D-488D-4BBE-9938-B9ED8BC64C7F}" name="效果ID" dataDxfId="29"/>
+    <tableColumn id="24" xr3:uid="{92A314CE-7C79-4335-AE0F-C9FE3BC3E616}" name="备注" dataDxfId="28"/>
+    <tableColumn id="10" xr3:uid="{F72E9219-C04E-4D74-AE14-621A011975FD}" name="特效飘字" dataDxfId="27"/>
+    <tableColumn id="14" xr3:uid="{1819B2AD-0CAC-46F2-A80D-9F19464EB667}" name="增减益类型" dataDxfId="26"/>
+    <tableColumn id="23" xr3:uid="{C20E5857-33E3-478C-B638-C78DCA78339D}" name="效果特效" dataDxfId="25"/>
     <tableColumn id="27" xr3:uid="{4E6B823F-ED87-44FA-BC7E-DD0D3DA9A874}" name="被击特效2" dataDxfId="24"/>
     <tableColumn id="28" xr3:uid="{D63A8DD5-C7D8-45FF-9168-E24BB73D8D0A}" name="被击插槽ID" dataDxfId="23"/>
     <tableColumn id="30" xr3:uid="{1297421F-FF12-438C-935D-1AC9E4808D57}" name="被击停帧_x000a_仅普攻" dataDxfId="22"/>
@@ -2176,13 +2286,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AH69"/>
+  <dimension ref="A1:AJ75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="6" topLeftCell="E53" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="6" topLeftCell="T25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="F64" sqref="F64"/>
+      <selection pane="bottomRight" activeCell="AA36" sqref="AA36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="14.25" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -2190,28 +2300,29 @@
     <col min="1" max="3" width="10.625" style="2"/>
     <col min="4" max="4" width="21.5" style="22" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" style="22" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.25" style="22" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="15" style="2" customWidth="1"/>
-    <col min="10" max="11" width="15.625" style="2" customWidth="1"/>
-    <col min="12" max="13" width="10.625" style="2"/>
-    <col min="14" max="14" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="12.625" style="2" customWidth="1"/>
-    <col min="17" max="21" width="10.625" style="2" customWidth="1" outlineLevel="1"/>
-    <col min="22" max="22" width="17.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="17.625" style="2" customWidth="1"/>
-    <col min="24" max="24" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="17.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="18.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="30" max="32" width="10.625" style="2"/>
-    <col min="33" max="33" width="15" style="2" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="14.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="35" max="16384" width="10.625" style="2"/>
+    <col min="6" max="7" width="13" style="2" customWidth="1"/>
+    <col min="8" max="8" width="14.25" style="22" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="15" style="2" customWidth="1"/>
+    <col min="12" max="13" width="15.625" style="2" customWidth="1"/>
+    <col min="14" max="15" width="10.625" style="2"/>
+    <col min="16" max="16" width="13" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="12.625" style="2" customWidth="1"/>
+    <col min="19" max="23" width="10.625" style="2" customWidth="1" outlineLevel="1"/>
+    <col min="24" max="24" width="17.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="17.625" style="2" customWidth="1"/>
+    <col min="26" max="26" width="13" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="17.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="18.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="13" style="2" bestFit="1" customWidth="1"/>
+    <col min="32" max="34" width="10.625" style="2"/>
+    <col min="35" max="35" width="15" style="2" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="14.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="37" max="16384" width="10.625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2225,166 +2336,178 @@
         <v>32</v>
       </c>
       <c r="E1" s="25" t="s">
-        <v>178</v>
-      </c>
-      <c r="F1" s="25" t="s">
-        <v>176</v>
-      </c>
-      <c r="G1" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="F1" s="38" t="s">
+        <v>201</v>
+      </c>
+      <c r="G1" s="43" t="s">
+        <v>208</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="I1" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="H1" s="36" t="s">
+      <c r="J1" s="36" t="s">
+        <v>152</v>
+      </c>
+      <c r="K1" s="37" t="s">
         <v>153</v>
       </c>
-      <c r="I1" s="37" t="s">
+      <c r="L1" s="37" t="s">
         <v>154</v>
       </c>
-      <c r="J1" s="37" t="s">
-        <v>155</v>
-      </c>
-      <c r="K1" s="26" t="s">
+      <c r="M1" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="N1" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="O1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="P1" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q1" s="6" t="s">
+      <c r="R1" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="S1" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="T1" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="U1" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="T1" s="27" t="s">
+      <c r="V1" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="U1" s="27" t="s">
+      <c r="W1" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="V1" s="30" t="s">
+      <c r="X1" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="W1" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="X1" s="8" t="s">
+      <c r="Y1" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="Z1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="Y1" s="8" t="s">
+      <c r="AA1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="Z1" s="8" t="s">
+      <c r="AB1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="AA1" s="8" t="s">
+      <c r="AC1" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="AB1" s="8" t="s">
+      <c r="AD1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="AC1" s="8" t="s">
+      <c r="AE1" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="AD1" s="8" t="s">
+      <c r="AF1" s="8" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="2" spans="1:30" ht="99.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:32" ht="99.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
-      <c r="F2" s="23" t="s">
+      <c r="F2" s="39" t="s">
+        <v>202</v>
+      </c>
+      <c r="G2" s="44" t="s">
+        <v>211</v>
+      </c>
+      <c r="H2" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="G2" s="23" t="s">
+      <c r="I2" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="H2" s="23" t="s">
+      <c r="J2" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="I2" s="23" t="s">
+      <c r="K2" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="J2" s="23" t="s">
+      <c r="L2" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="K2" s="23" t="s">
+      <c r="M2" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q2" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="P2" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q2" s="2" t="s">
+      <c r="R2" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="S2" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="U2" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="T2" s="15" t="s">
+      <c r="V2" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="U2" s="15"/>
-      <c r="V2" s="31" t="s">
+      <c r="W2" s="15"/>
+      <c r="X2" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="W2" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="X2" s="19" t="s">
+      <c r="Y2" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="Z2" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="Y2" s="19" t="s">
+      <c r="AA2" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="AB2" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC2" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD2" s="19" t="s">
         <v>165</v>
       </c>
-      <c r="Z2" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="AA2" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="AB2" s="19" t="s">
-        <v>166</v>
-      </c>
-      <c r="AC2" s="19" t="s">
+      <c r="AE2" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="AD2" s="33" t="s">
+      <c r="AF2" s="33" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
@@ -2393,75 +2516,81 @@
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="F3" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="F3" s="40" t="s">
+        <v>203</v>
+      </c>
+      <c r="G3" s="41" t="s">
+        <v>209</v>
+      </c>
+      <c r="H3" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="I3" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="J3" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="I3" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="J3" s="12" t="s">
+      <c r="K3" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="L3" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="M3" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="L3" s="13" t="s">
+      <c r="N3" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="M3" s="13" t="s">
+      <c r="O3" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="N3" s="13" t="s">
+      <c r="P3" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="13" t="s">
+      <c r="Q3" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="P3" s="13" t="s">
+      <c r="R3" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="Q3" s="13"/>
-      <c r="R3" s="13"/>
       <c r="S3" s="13"/>
       <c r="T3" s="13"/>
       <c r="U3" s="13"/>
-      <c r="V3" s="14" t="s">
+      <c r="V3" s="13"/>
+      <c r="W3" s="13"/>
+      <c r="X3" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="W3" s="14" t="s">
-        <v>193</v>
-      </c>
-      <c r="X3" s="14" t="s">
+      <c r="Y3" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="Z3" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="Y3" s="14" t="s">
+      <c r="AA3" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="Z3" s="14" t="s">
+      <c r="AB3" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="AA3" s="14" t="s">
+      <c r="AC3" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="AB3" s="14" t="s">
+      <c r="AD3" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="AC3" s="14" t="s">
+      <c r="AE3" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="AD3" s="14" t="s">
+      <c r="AF3" s="14" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="1:30" ht="57" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:32" ht="57" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
@@ -2470,116 +2599,120 @@
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="F4" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="F4" s="40"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="G4" s="24" t="s">
+      <c r="I4" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="H4" s="24" t="s">
+      <c r="J4" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="I4" s="24" t="s">
+      <c r="K4" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="J4" s="24" t="s">
+      <c r="L4" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="K4" s="24" t="s">
+      <c r="M4" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="L4" s="13" t="s">
+      <c r="N4" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="M4" s="13" t="s">
+      <c r="O4" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="N4" s="13" t="s">
+      <c r="P4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="O4" s="13" t="s">
+      <c r="Q4" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="P4" s="13" t="s">
+      <c r="R4" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="Q4" s="13" t="s">
+      <c r="S4" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="R4" s="13" t="s">
+      <c r="T4" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="S4" s="13" t="s">
+      <c r="U4" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="T4" s="13" t="s">
+      <c r="V4" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="U4" s="13" t="s">
+      <c r="W4" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="V4" s="28"/>
-      <c r="W4" s="14" t="s">
-        <v>191</v>
-      </c>
-      <c r="X4" s="14" t="s">
+      <c r="X4" s="28"/>
+      <c r="Y4" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="Z4" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="Y4" s="14" t="s">
+      <c r="AA4" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="Z4" s="14" t="s">
+      <c r="AB4" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="AA4" s="14" t="s">
+      <c r="AC4" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="AB4" s="14" t="s">
+      <c r="AD4" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="AC4" s="14" t="s">
+      <c r="AE4" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="AD4" s="34" t="s">
+      <c r="AF4" s="34" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="41"/>
       <c r="H5" s="12"/>
       <c r="I5" s="12"/>
       <c r="J5" s="12"/>
       <c r="K5" s="12"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
       <c r="N5" s="13"/>
       <c r="O5" s="13"/>
       <c r="P5" s="13"/>
       <c r="Q5" s="13"/>
       <c r="R5" s="13"/>
       <c r="S5" s="13"/>
-      <c r="T5" s="16"/>
-      <c r="U5" s="16"/>
-      <c r="V5" s="29"/>
-      <c r="W5" s="14"/>
-      <c r="X5" s="14"/>
+      <c r="T5" s="13"/>
+      <c r="U5" s="13"/>
+      <c r="V5" s="16"/>
+      <c r="W5" s="16"/>
+      <c r="X5" s="29"/>
       <c r="Y5" s="14"/>
       <c r="Z5" s="14"/>
       <c r="AA5" s="14"/>
       <c r="AB5" s="14"/>
       <c r="AC5" s="14"/>
       <c r="AD5" s="14"/>
-    </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE5" s="14"/>
+      <c r="AF5" s="14"/>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
@@ -2588,75 +2721,81 @@
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="F6" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="F6" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="41" t="s">
+        <v>210</v>
+      </c>
+      <c r="H6" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="I6" s="12" t="s">
         <v>130</v>
-      </c>
-      <c r="H6" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="I6" s="12" t="s">
-        <v>56</v>
       </c>
       <c r="J6" s="12" t="s">
         <v>57</v>
       </c>
       <c r="K6" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="L6" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="L6" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="M6" s="13" t="s">
-        <v>10</v>
+      <c r="M6" s="12" t="s">
+        <v>57</v>
       </c>
       <c r="N6" s="13" t="s">
         <v>10</v>
       </c>
       <c r="O6" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="P6" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q6" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="P6" s="13" t="s">
+      <c r="R6" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="13"/>
       <c r="S6" s="13"/>
       <c r="T6" s="13"/>
       <c r="U6" s="13"/>
-      <c r="V6" s="13" t="s">
+      <c r="V6" s="13"/>
+      <c r="W6" s="13"/>
+      <c r="X6" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="W6" s="14" t="s">
-        <v>194</v>
-      </c>
-      <c r="X6" s="14" t="s">
+      <c r="Y6" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="Z6" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="Y6" s="14" t="s">
+      <c r="AA6" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Z6" s="14" t="s">
+      <c r="AB6" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="AA6" s="14" t="s">
+      <c r="AC6" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="AB6" s="14" t="s">
+      <c r="AD6" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="AC6" s="14" t="s">
+      <c r="AE6" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="AD6" s="32" t="s">
+      <c r="AF6" s="32" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="3">
         <v>1001</v>
       </c>
@@ -2664,59 +2803,55 @@
         <v>77</v>
       </c>
       <c r="E7" s="20"/>
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="I7" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="H7" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>60</v>
       </c>
       <c r="J7" s="3">
         <v>0.2</v>
       </c>
-      <c r="K7" s="3"/>
-      <c r="L7" s="2">
-        <v>0</v>
-      </c>
-      <c r="M7" s="2">
+      <c r="K7" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L7" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="M7" s="3"/>
+      <c r="N7" s="2">
+        <v>0</v>
+      </c>
+      <c r="O7" s="2">
         <v>10000</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>101</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>1</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>1</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>200</v>
       </c>
-      <c r="S7" s="2">
-        <v>0</v>
-      </c>
-      <c r="T7" s="2">
-        <v>0</v>
-      </c>
       <c r="U7" s="2">
         <v>0</v>
       </c>
-      <c r="V7" s="2" t="str">
-        <f>Q7&amp;","&amp;R7&amp;","&amp;S7&amp;","&amp;T7&amp;","&amp;U7</f>
+      <c r="V7" s="2">
+        <v>0</v>
+      </c>
+      <c r="W7" s="2">
+        <v>0</v>
+      </c>
+      <c r="X7" s="2" t="str">
+        <f>S7&amp;","&amp;T7&amp;","&amp;U7&amp;","&amp;V7&amp;","&amp;W7</f>
         <v>1,200,0,0,0</v>
       </c>
-      <c r="X7" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="2">
-        <v>0</v>
-      </c>
       <c r="Z7" s="2">
         <v>0</v>
       </c>
@@ -2726,9 +2861,15 @@
       <c r="AB7" s="2">
         <v>0</v>
       </c>
-      <c r="AD7" s="4"/>
-    </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AC7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="4"/>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="3">
         <v>1002</v>
       </c>
@@ -2736,49 +2877,45 @@
         <v>33</v>
       </c>
       <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
+      <c r="F8" s="3"/>
       <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
+      <c r="H8" s="20"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
-      <c r="L8" s="2">
-        <v>0</v>
-      </c>
-      <c r="M8" s="2">
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="2">
+        <v>0</v>
+      </c>
+      <c r="O8" s="2">
         <v>10000</v>
       </c>
-      <c r="N8" s="2">
+      <c r="P8" s="2">
         <v>101</v>
       </c>
-      <c r="P8" s="2">
+      <c r="R8" s="2">
         <v>1</v>
       </c>
-      <c r="Q8" s="2">
+      <c r="S8" s="2">
         <v>2</v>
       </c>
-      <c r="R8" s="2">
+      <c r="T8" s="2">
         <v>200</v>
       </c>
-      <c r="S8" s="2">
-        <v>0</v>
-      </c>
-      <c r="T8" s="2">
-        <v>0</v>
-      </c>
       <c r="U8" s="2">
         <v>0</v>
       </c>
-      <c r="V8" s="2" t="str">
-        <f t="shared" ref="V8:V62" si="0">Q8&amp;","&amp;R8&amp;","&amp;S8&amp;","&amp;T8&amp;","&amp;U8</f>
+      <c r="V8" s="2">
+        <v>0</v>
+      </c>
+      <c r="W8" s="2">
+        <v>0</v>
+      </c>
+      <c r="X8" s="2" t="str">
+        <f t="shared" ref="X8:X65" si="0">S8&amp;","&amp;T8&amp;","&amp;U8&amp;","&amp;V8&amp;","&amp;W8</f>
         <v>2,200,0,0,0</v>
       </c>
-      <c r="X8" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="2">
-        <v>0</v>
-      </c>
       <c r="Z8" s="2">
         <v>0</v>
       </c>
@@ -2788,9 +2925,15 @@
       <c r="AB8" s="2">
         <v>0</v>
       </c>
-      <c r="AD8" s="4"/>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AC8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="4"/>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="3">
         <v>1003</v>
       </c>
@@ -2798,49 +2941,45 @@
         <v>34</v>
       </c>
       <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
+      <c r="F9" s="3"/>
       <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
+      <c r="H9" s="20"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
-      <c r="L9" s="2">
-        <v>0</v>
-      </c>
-      <c r="M9" s="2">
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="2">
+        <v>0</v>
+      </c>
+      <c r="O9" s="2">
         <v>10000</v>
       </c>
-      <c r="N9" s="2">
+      <c r="P9" s="2">
         <v>101</v>
       </c>
-      <c r="P9" s="2">
+      <c r="R9" s="2">
         <v>1</v>
       </c>
-      <c r="Q9" s="2">
+      <c r="S9" s="2">
         <v>4.5</v>
       </c>
-      <c r="R9" s="2">
+      <c r="T9" s="2">
         <v>200</v>
       </c>
-      <c r="S9" s="2">
-        <v>0</v>
-      </c>
-      <c r="T9" s="2">
-        <v>0</v>
-      </c>
       <c r="U9" s="2">
         <v>0</v>
       </c>
-      <c r="V9" s="2" t="str">
+      <c r="V9" s="2">
+        <v>0</v>
+      </c>
+      <c r="W9" s="2">
+        <v>0</v>
+      </c>
+      <c r="X9" s="2" t="str">
         <f t="shared" si="0"/>
         <v>4.5,200,0,0,0</v>
       </c>
-      <c r="X9" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="2">
-        <v>0</v>
-      </c>
       <c r="Z9" s="2">
         <v>0</v>
       </c>
@@ -2850,9 +2989,15 @@
       <c r="AB9" s="2">
         <v>0</v>
       </c>
-      <c r="AD9" s="4"/>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AC9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="4"/>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="3">
         <v>1004</v>
       </c>
@@ -2860,49 +3005,45 @@
         <v>35</v>
       </c>
       <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
+      <c r="F10" s="3"/>
       <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
+      <c r="H10" s="20"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
-      <c r="L10" s="2">
-        <v>0</v>
-      </c>
-      <c r="M10" s="2">
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="2">
+        <v>0</v>
+      </c>
+      <c r="O10" s="2">
         <v>10000</v>
       </c>
-      <c r="N10" s="2">
+      <c r="P10" s="2">
         <v>101</v>
       </c>
-      <c r="P10" s="2">
+      <c r="R10" s="2">
         <v>1</v>
       </c>
-      <c r="Q10" s="2">
+      <c r="S10" s="2">
         <v>3</v>
       </c>
-      <c r="R10" s="2">
+      <c r="T10" s="2">
         <v>200</v>
       </c>
-      <c r="S10" s="2">
-        <v>0</v>
-      </c>
-      <c r="T10" s="2">
-        <v>0</v>
-      </c>
       <c r="U10" s="2">
         <v>0</v>
       </c>
-      <c r="V10" s="2" t="str">
+      <c r="V10" s="2">
+        <v>0</v>
+      </c>
+      <c r="W10" s="2">
+        <v>0</v>
+      </c>
+      <c r="X10" s="2" t="str">
         <f t="shared" si="0"/>
         <v>3,200,0,0,0</v>
       </c>
-      <c r="X10" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="2">
-        <v>0</v>
-      </c>
       <c r="Z10" s="2">
         <v>0</v>
       </c>
@@ -2912,9 +3053,15 @@
       <c r="AB10" s="2">
         <v>0</v>
       </c>
-      <c r="AD10" s="4"/>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AC10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="4"/>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="3">
         <v>1007</v>
       </c>
@@ -2922,30 +3069,26 @@
         <v>36</v>
       </c>
       <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
+      <c r="F11" s="3"/>
       <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
+      <c r="H11" s="20"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-      <c r="L11" s="2">
-        <v>0</v>
-      </c>
-      <c r="M11" s="2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="2">
+        <v>0</v>
+      </c>
+      <c r="O11" s="2">
         <v>10000</v>
       </c>
-      <c r="N11" s="2">
+      <c r="P11" s="2">
         <v>501</v>
       </c>
-      <c r="P11" s="2">
+      <c r="R11" s="2">
         <v>10001</v>
       </c>
-      <c r="Q11" s="2">
-        <v>0</v>
-      </c>
-      <c r="R11" s="2">
-        <v>0</v>
-      </c>
       <c r="S11" s="2">
         <v>0</v>
       </c>
@@ -2955,28 +3098,34 @@
       <c r="U11" s="2">
         <v>0</v>
       </c>
-      <c r="V11" s="2" t="str">
+      <c r="V11" s="2">
+        <v>0</v>
+      </c>
+      <c r="W11" s="2">
+        <v>0</v>
+      </c>
+      <c r="X11" s="2" t="str">
         <f t="shared" si="0"/>
         <v>0,0,0,0,0</v>
       </c>
-      <c r="X11" s="2">
+      <c r="Z11" s="2">
         <v>1</v>
       </c>
-      <c r="Y11" s="2">
+      <c r="AA11" s="2">
         <v>0.1</v>
       </c>
-      <c r="Z11" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="2">
+      <c r="AB11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="2">
         <v>1</v>
       </c>
-      <c r="AB11" s="2">
+      <c r="AD11" s="2">
         <v>3</v>
       </c>
-      <c r="AD11" s="4"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AF11" s="4"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="3">
         <v>1008</v>
       </c>
@@ -2984,30 +3133,26 @@
         <v>37</v>
       </c>
       <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
+      <c r="F12" s="3"/>
       <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
+      <c r="H12" s="20"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
-      <c r="L12" s="2">
-        <v>0</v>
-      </c>
-      <c r="M12" s="2">
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="2">
+        <v>0</v>
+      </c>
+      <c r="O12" s="2">
         <v>10000</v>
       </c>
-      <c r="N12" s="2">
+      <c r="P12" s="2">
         <v>501</v>
       </c>
-      <c r="P12" s="2">
+      <c r="R12" s="2">
         <v>10002</v>
       </c>
-      <c r="Q12" s="2">
-        <v>0</v>
-      </c>
-      <c r="R12" s="2">
-        <v>0</v>
-      </c>
       <c r="S12" s="2">
         <v>0</v>
       </c>
@@ -3017,28 +3162,34 @@
       <c r="U12" s="2">
         <v>0</v>
       </c>
-      <c r="V12" s="2" t="str">
+      <c r="V12" s="2">
+        <v>0</v>
+      </c>
+      <c r="W12" s="2">
+        <v>0</v>
+      </c>
+      <c r="X12" s="2" t="str">
         <f t="shared" si="0"/>
         <v>0,0,0,0,0</v>
       </c>
-      <c r="X12" s="2">
+      <c r="Z12" s="2">
         <v>1</v>
       </c>
-      <c r="Y12" s="2">
+      <c r="AA12" s="2">
         <v>5</v>
       </c>
-      <c r="Z12" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="2">
+      <c r="AB12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="2">
         <v>1</v>
       </c>
-      <c r="AB12" s="2">
+      <c r="AD12" s="2">
         <v>1</v>
       </c>
-      <c r="AD12" s="4"/>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AF12" s="4"/>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="3">
         <v>1009</v>
       </c>
@@ -3046,30 +3197,26 @@
         <v>43</v>
       </c>
       <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
+      <c r="F13" s="3"/>
       <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
+      <c r="H13" s="20"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
-      <c r="L13" s="2">
-        <v>0</v>
-      </c>
-      <c r="M13" s="2">
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="2">
+        <v>0</v>
+      </c>
+      <c r="O13" s="2">
         <v>10000</v>
       </c>
-      <c r="N13" s="2">
+      <c r="P13" s="2">
         <v>501</v>
       </c>
-      <c r="P13" s="18">
+      <c r="R13" s="18">
         <v>21003</v>
       </c>
-      <c r="Q13" s="2">
-        <v>0</v>
-      </c>
-      <c r="R13" s="2">
-        <v>0</v>
-      </c>
       <c r="S13" s="2">
         <v>0</v>
       </c>
@@ -3079,28 +3226,34 @@
       <c r="U13" s="2">
         <v>0</v>
       </c>
-      <c r="V13" s="2" t="str">
+      <c r="V13" s="2">
+        <v>0</v>
+      </c>
+      <c r="W13" s="2">
+        <v>0</v>
+      </c>
+      <c r="X13" s="2" t="str">
         <f t="shared" si="0"/>
         <v>0,0,0,0,0</v>
       </c>
-      <c r="X13" s="2">
+      <c r="Z13" s="2">
         <v>2</v>
-      </c>
-      <c r="Y13" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z13" s="2">
-        <v>0</v>
       </c>
       <c r="AA13" s="2">
         <v>1</v>
       </c>
       <c r="AB13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD13" s="2">
         <v>5</v>
       </c>
-      <c r="AD13" s="4"/>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AF13" s="4"/>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="3">
         <v>1010</v>
       </c>
@@ -3108,61 +3261,63 @@
         <v>38</v>
       </c>
       <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
+      <c r="F14" s="3"/>
       <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
+      <c r="H14" s="20"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
-      <c r="L14" s="2">
-        <v>0</v>
-      </c>
-      <c r="M14" s="2">
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="2">
+        <v>0</v>
+      </c>
+      <c r="O14" s="2">
         <v>10000</v>
       </c>
-      <c r="N14" s="2">
+      <c r="P14" s="2">
         <v>201</v>
       </c>
-      <c r="P14" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="2">
+      <c r="R14" s="2">
+        <v>0</v>
+      </c>
+      <c r="S14" s="2">
         <v>1.5</v>
       </c>
-      <c r="R14" s="2">
+      <c r="T14" s="2">
         <v>200</v>
       </c>
-      <c r="S14" s="2">
-        <v>0</v>
-      </c>
-      <c r="T14" s="2">
-        <v>0</v>
-      </c>
       <c r="U14" s="2">
         <v>0</v>
       </c>
-      <c r="V14" s="2" t="str">
+      <c r="V14" s="2">
+        <v>0</v>
+      </c>
+      <c r="W14" s="2">
+        <v>0</v>
+      </c>
+      <c r="X14" s="2" t="str">
         <f t="shared" si="0"/>
         <v>1.5,200,0,0,0</v>
       </c>
-      <c r="X14" s="2">
+      <c r="Z14" s="2">
         <v>1</v>
       </c>
-      <c r="Y14" s="2">
+      <c r="AA14" s="2">
         <v>5</v>
       </c>
-      <c r="Z14" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="2">
+      <c r="AB14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="2">
         <v>1</v>
       </c>
-      <c r="AB14" s="2">
+      <c r="AD14" s="2">
         <v>3</v>
       </c>
-      <c r="AD14" s="4"/>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AF14" s="4"/>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="9">
         <v>1011</v>
       </c>
@@ -3170,63 +3325,65 @@
         <v>39</v>
       </c>
       <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="20"/>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
-      <c r="L15" s="10">
-        <v>0</v>
-      </c>
-      <c r="M15" s="2">
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="10">
+        <v>0</v>
+      </c>
+      <c r="O15" s="2">
         <v>10000</v>
       </c>
-      <c r="N15" s="10">
+      <c r="P15" s="10">
         <v>203</v>
       </c>
-      <c r="P15" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="10">
+      <c r="R15" s="10">
+        <v>0</v>
+      </c>
+      <c r="S15" s="10">
         <v>0.1</v>
       </c>
-      <c r="R15" s="10">
+      <c r="T15" s="10">
         <v>200</v>
       </c>
-      <c r="S15" s="10">
-        <v>0</v>
-      </c>
-      <c r="T15" s="10">
-        <v>0</v>
-      </c>
       <c r="U15" s="10">
         <v>0</v>
       </c>
-      <c r="V15" s="2" t="str">
+      <c r="V15" s="10">
+        <v>0</v>
+      </c>
+      <c r="W15" s="10">
+        <v>0</v>
+      </c>
+      <c r="X15" s="2" t="str">
         <f t="shared" si="0"/>
         <v>0.1,200,0,0,0</v>
       </c>
-      <c r="W15" s="10"/>
-      <c r="X15" s="10">
+      <c r="Y15" s="10"/>
+      <c r="Z15" s="10">
         <v>1</v>
       </c>
-      <c r="Y15" s="10">
+      <c r="AA15" s="10">
         <v>5</v>
       </c>
-      <c r="Z15" s="10">
-        <v>0</v>
-      </c>
-      <c r="AA15" s="10">
+      <c r="AB15" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="10">
         <v>1</v>
       </c>
-      <c r="AB15" s="10">
+      <c r="AD15" s="10">
         <v>3</v>
       </c>
-      <c r="AC15" s="10"/>
-      <c r="AD15" s="11"/>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="10"/>
+      <c r="AF15" s="11"/>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C16" s="3">
         <v>1012</v>
       </c>
@@ -3234,63 +3391,65 @@
         <v>40</v>
       </c>
       <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
+      <c r="F16" s="3"/>
       <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
+      <c r="H16" s="20"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-      <c r="L16" s="2">
-        <v>0</v>
-      </c>
-      <c r="M16" s="2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="2">
+        <v>0</v>
+      </c>
+      <c r="O16" s="2">
         <v>10000</v>
       </c>
-      <c r="N16" s="2">
+      <c r="P16" s="2">
         <v>204</v>
       </c>
-      <c r="P16" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="2">
+      <c r="R16" s="2">
+        <v>0</v>
+      </c>
+      <c r="S16" s="2">
         <v>0.3</v>
       </c>
-      <c r="R16" s="2">
+      <c r="T16" s="2">
         <v>200</v>
       </c>
-      <c r="S16" s="2">
-        <v>0</v>
-      </c>
-      <c r="T16" s="2">
-        <v>0</v>
-      </c>
       <c r="U16" s="2">
         <v>0</v>
       </c>
-      <c r="V16" s="2" t="str">
+      <c r="V16" s="2">
+        <v>0</v>
+      </c>
+      <c r="W16" s="2">
+        <v>0</v>
+      </c>
+      <c r="X16" s="2" t="str">
         <f t="shared" si="0"/>
         <v>0.3,200,0,0,0</v>
       </c>
-      <c r="W16" s="10"/>
-      <c r="X16" s="10">
+      <c r="Y16" s="10"/>
+      <c r="Z16" s="10">
         <v>1</v>
       </c>
-      <c r="Y16" s="10">
+      <c r="AA16" s="10">
         <v>5</v>
       </c>
-      <c r="Z16" s="10">
-        <v>0</v>
-      </c>
-      <c r="AA16" s="10">
+      <c r="AB16" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="10">
         <v>1</v>
       </c>
-      <c r="AB16" s="10">
+      <c r="AD16" s="10">
         <v>3</v>
       </c>
-      <c r="AC16" s="10"/>
-      <c r="AD16" s="4"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="10"/>
+      <c r="AF16" s="4"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="3">
         <v>1013</v>
       </c>
@@ -3298,57 +3457,59 @@
         <v>81</v>
       </c>
       <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
+      <c r="F17" s="3"/>
       <c r="G17" s="3"/>
-      <c r="L17" s="2">
-        <v>0</v>
-      </c>
-      <c r="M17" s="2">
+      <c r="H17" s="20"/>
+      <c r="I17" s="3"/>
+      <c r="N17" s="2">
+        <v>0</v>
+      </c>
+      <c r="O17" s="2">
         <v>10000</v>
       </c>
-      <c r="N17" s="2">
+      <c r="P17" s="2">
         <v>202</v>
       </c>
-      <c r="P17" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="2">
+      <c r="R17" s="2">
+        <v>0</v>
+      </c>
+      <c r="S17" s="2">
         <v>3</v>
       </c>
-      <c r="R17" s="2">
+      <c r="T17" s="2">
         <v>500</v>
       </c>
-      <c r="S17" s="2">
-        <v>0</v>
-      </c>
-      <c r="T17" s="2">
-        <v>0</v>
-      </c>
       <c r="U17" s="2">
         <v>0</v>
       </c>
-      <c r="V17" s="2" t="str">
+      <c r="V17" s="2">
+        <v>0</v>
+      </c>
+      <c r="W17" s="2">
+        <v>0</v>
+      </c>
+      <c r="X17" s="2" t="str">
         <f t="shared" si="0"/>
         <v>3,500,0,0,0</v>
       </c>
-      <c r="X17" s="2">
+      <c r="Z17" s="2">
         <v>1</v>
       </c>
-      <c r="Y17" s="2">
+      <c r="AA17" s="2">
         <v>5</v>
       </c>
-      <c r="Z17" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA17" s="2">
+      <c r="AB17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="2">
         <v>1</v>
       </c>
-      <c r="AB17" s="2">
+      <c r="AD17" s="2">
         <v>3</v>
       </c>
-      <c r="AD17" s="4"/>
-    </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AF17" s="4"/>
+    </row>
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="3">
         <v>1015</v>
       </c>
@@ -3356,50 +3517,46 @@
         <v>41</v>
       </c>
       <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
+      <c r="F18" s="3"/>
       <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
+      <c r="H18" s="20"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
-      <c r="L18" s="2">
-        <v>0</v>
-      </c>
-      <c r="M18" s="2">
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="2">
+        <v>0</v>
+      </c>
+      <c r="O18" s="2">
         <v>10000</v>
       </c>
-      <c r="N18" s="2">
+      <c r="P18" s="2">
         <v>321</v>
       </c>
-      <c r="P18" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="2">
+      <c r="R18" s="2">
+        <v>0</v>
+      </c>
+      <c r="S18" s="2">
         <v>0.35</v>
       </c>
-      <c r="R18" s="2">
-        <v>0</v>
-      </c>
-      <c r="S18" s="2">
-        <v>0</v>
-      </c>
       <c r="T18" s="2">
         <v>0</v>
       </c>
       <c r="U18" s="2">
         <v>0</v>
       </c>
-      <c r="V18" s="2" t="str">
+      <c r="V18" s="2">
+        <v>0</v>
+      </c>
+      <c r="W18" s="2">
+        <v>0</v>
+      </c>
+      <c r="X18" s="2" t="str">
         <f t="shared" si="0"/>
         <v>0.35,0,0,0,0</v>
       </c>
-      <c r="W18" s="10"/>
-      <c r="X18" s="10">
-        <v>0</v>
-      </c>
-      <c r="Y18" s="10">
-        <v>0</v>
-      </c>
+      <c r="Y18" s="10"/>
       <c r="Z18" s="10">
         <v>0</v>
       </c>
@@ -3409,10 +3566,16 @@
       <c r="AB18" s="10">
         <v>0</v>
       </c>
-      <c r="AC18" s="10"/>
-      <c r="AD18" s="4"/>
-    </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AC18" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="10"/>
+      <c r="AF18" s="4"/>
+    </row>
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="3">
         <v>1016</v>
       </c>
@@ -3420,27 +3583,23 @@
         <v>42</v>
       </c>
       <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
+      <c r="F19" s="3"/>
       <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
+      <c r="H19" s="20"/>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-      <c r="L19" s="2">
-        <v>0</v>
-      </c>
-      <c r="M19" s="2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="2">
+        <v>0</v>
+      </c>
+      <c r="O19" s="2">
         <v>10000</v>
       </c>
-      <c r="N19" s="2">
+      <c r="P19" s="2">
         <v>401</v>
       </c>
-      <c r="P19" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="2">
-        <v>0</v>
-      </c>
       <c r="R19" s="2">
         <v>0</v>
       </c>
@@ -3453,16 +3612,16 @@
       <c r="U19" s="2">
         <v>0</v>
       </c>
-      <c r="V19" s="2" t="str">
+      <c r="V19" s="2">
+        <v>0</v>
+      </c>
+      <c r="W19" s="2">
+        <v>0</v>
+      </c>
+      <c r="X19" s="2" t="str">
         <f t="shared" si="0"/>
         <v>0,0,0,0,0</v>
       </c>
-      <c r="X19" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y19" s="2">
-        <v>0</v>
-      </c>
       <c r="Z19" s="2">
         <v>0</v>
       </c>
@@ -3472,9 +3631,15 @@
       <c r="AB19" s="2">
         <v>0</v>
       </c>
-      <c r="AD19" s="4"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AC19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF19" s="4"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="12">
         <v>100111</v>
       </c>
@@ -3482,59 +3647,55 @@
         <v>66</v>
       </c>
       <c r="E20" s="20"/>
-      <c r="F20" s="20" t="s">
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="I20" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="H20" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>60</v>
       </c>
       <c r="J20" s="3">
         <v>0.2</v>
       </c>
-      <c r="K20" s="3"/>
-      <c r="L20" s="2">
-        <v>0</v>
-      </c>
-      <c r="M20" s="2">
+      <c r="K20" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L20" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="M20" s="3"/>
+      <c r="N20" s="2">
+        <v>0</v>
+      </c>
+      <c r="O20" s="2">
         <v>10000</v>
       </c>
-      <c r="N20" s="2">
+      <c r="P20" s="2">
         <v>101</v>
       </c>
-      <c r="P20" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="2">
+      <c r="R20" s="2">
+        <v>0</v>
+      </c>
+      <c r="S20" s="2">
         <v>1</v>
       </c>
-      <c r="R20" s="2">
+      <c r="T20" s="2">
         <v>200</v>
       </c>
-      <c r="S20" s="2">
-        <v>0</v>
-      </c>
-      <c r="T20" s="2">
-        <v>0</v>
-      </c>
       <c r="U20" s="2">
         <v>0</v>
       </c>
-      <c r="V20" s="2" t="str">
+      <c r="V20" s="2">
+        <v>0</v>
+      </c>
+      <c r="W20" s="2">
+        <v>0</v>
+      </c>
+      <c r="X20" s="2" t="str">
         <f t="shared" si="0"/>
         <v>1,200,0,0,0</v>
       </c>
-      <c r="X20" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y20" s="2">
-        <v>0</v>
-      </c>
       <c r="Z20" s="2">
         <v>0</v>
       </c>
@@ -3544,9 +3705,15 @@
       <c r="AB20" s="2">
         <v>0</v>
       </c>
-      <c r="AD20" s="4"/>
-    </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AC20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF20" s="4"/>
+    </row>
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="12">
         <v>100112</v>
       </c>
@@ -3554,51 +3721,49 @@
         <v>123</v>
       </c>
       <c r="E21" s="20" t="s">
-        <v>181</v>
-      </c>
-      <c r="F21" s="20"/>
+        <v>180</v>
+      </c>
+      <c r="F21" s="3">
+        <v>1</v>
+      </c>
       <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
+      <c r="H21" s="20"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
-      <c r="L21" s="2">
-        <v>0</v>
-      </c>
-      <c r="M21" s="2">
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="2">
+        <v>0</v>
+      </c>
+      <c r="O21" s="2">
         <v>10000</v>
       </c>
-      <c r="N21" s="2">
+      <c r="P21" s="2">
         <v>301</v>
       </c>
-      <c r="P21" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="2">
+      <c r="R21" s="2">
+        <v>0</v>
+      </c>
+      <c r="S21" s="2">
         <v>0.5</v>
       </c>
-      <c r="R21" s="2">
-        <v>0</v>
-      </c>
-      <c r="S21" s="2">
-        <v>0</v>
-      </c>
       <c r="T21" s="2">
         <v>0</v>
       </c>
       <c r="U21" s="2">
         <v>0</v>
       </c>
-      <c r="V21" s="2" t="str">
+      <c r="V21" s="2">
+        <v>0</v>
+      </c>
+      <c r="W21" s="2">
+        <v>0</v>
+      </c>
+      <c r="X21" s="2" t="str">
         <f t="shared" si="0"/>
         <v>0.5,0,0,0,0</v>
       </c>
-      <c r="X21" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y21" s="2">
-        <v>0</v>
-      </c>
       <c r="Z21" s="2">
         <v>0</v>
       </c>
@@ -3608,9 +3773,15 @@
       <c r="AB21" s="2">
         <v>0</v>
       </c>
-      <c r="AD21" s="4"/>
-    </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AC21" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD21" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF21" s="4"/>
+    </row>
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="12">
         <v>100201</v>
       </c>
@@ -3618,26 +3789,22 @@
         <v>124</v>
       </c>
       <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
+      <c r="F22" s="3"/>
       <c r="G22" s="3"/>
-      <c r="L22" s="2">
-        <v>0</v>
-      </c>
-      <c r="M22" s="2">
+      <c r="H22" s="20"/>
+      <c r="I22" s="3"/>
+      <c r="N22" s="2">
+        <v>0</v>
+      </c>
+      <c r="O22" s="2">
         <v>10000</v>
       </c>
-      <c r="N22" s="2">
+      <c r="P22" s="2">
         <v>501</v>
       </c>
-      <c r="P22" s="2">
+      <c r="R22" s="2">
         <v>100201</v>
       </c>
-      <c r="Q22" s="2">
-        <v>0</v>
-      </c>
-      <c r="R22" s="2">
-        <v>0</v>
-      </c>
       <c r="S22" s="2">
         <v>0</v>
       </c>
@@ -3647,16 +3814,16 @@
       <c r="U22" s="2">
         <v>0</v>
       </c>
-      <c r="V22" s="2" t="str">
+      <c r="V22" s="2">
+        <v>0</v>
+      </c>
+      <c r="W22" s="2">
+        <v>0</v>
+      </c>
+      <c r="X22" s="2" t="str">
         <f t="shared" si="0"/>
         <v>0,0,0,0,0</v>
       </c>
-      <c r="X22" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y22" s="2">
-        <v>0</v>
-      </c>
       <c r="Z22" s="2">
         <v>0</v>
       </c>
@@ -3666,9 +3833,15 @@
       <c r="AB22" s="2">
         <v>0</v>
       </c>
-      <c r="AD22" s="4"/>
-    </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AC22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF22" s="4"/>
+    </row>
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="12">
         <v>100301</v>
       </c>
@@ -3676,58 +3849,54 @@
         <v>126</v>
       </c>
       <c r="E23" s="20"/>
-      <c r="F23" s="20" t="s">
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="G23" s="3" t="s">
+      <c r="I23" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="H23" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="J23" s="2">
         <v>0.2</v>
       </c>
+      <c r="K23" s="2" t="s">
+        <v>60</v>
+      </c>
       <c r="L23" s="2">
-        <v>0</v>
-      </c>
-      <c r="M23" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="N23" s="2">
+        <v>0</v>
+      </c>
+      <c r="O23" s="2">
         <v>10000</v>
       </c>
-      <c r="N23" s="2">
+      <c r="P23" s="2">
         <v>101</v>
       </c>
-      <c r="P23" s="2">
+      <c r="R23" s="2">
         <v>1</v>
       </c>
-      <c r="Q23" s="2">
+      <c r="S23" s="2">
         <v>2</v>
       </c>
-      <c r="R23" s="2">
-        <v>0</v>
-      </c>
-      <c r="S23" s="2">
-        <v>0</v>
-      </c>
       <c r="T23" s="2">
         <v>0</v>
       </c>
       <c r="U23" s="2">
         <v>0</v>
       </c>
-      <c r="V23" s="2" t="str">
+      <c r="V23" s="2">
+        <v>0</v>
+      </c>
+      <c r="W23" s="2">
+        <v>0</v>
+      </c>
+      <c r="X23" s="2" t="str">
         <f t="shared" si="0"/>
         <v>2,0,0,0,0</v>
       </c>
-      <c r="X23" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y23" s="2">
-        <v>0</v>
-      </c>
       <c r="Z23" s="2">
         <v>0</v>
       </c>
@@ -3737,9 +3906,15 @@
       <c r="AB23" s="2">
         <v>0</v>
       </c>
-      <c r="AD23" s="4"/>
-    </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AC23" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD23" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF23" s="4"/>
+    </row>
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="12">
         <v>100302</v>
       </c>
@@ -3747,45 +3922,41 @@
         <v>125</v>
       </c>
       <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
+      <c r="F24" s="3"/>
       <c r="G24" s="3"/>
-      <c r="L24" s="2">
-        <v>0</v>
-      </c>
-      <c r="M24" s="2">
+      <c r="H24" s="20"/>
+      <c r="I24" s="3"/>
+      <c r="N24" s="2">
+        <v>0</v>
+      </c>
+      <c r="O24" s="2">
         <v>10000</v>
       </c>
-      <c r="N24" s="2">
+      <c r="P24" s="2">
         <v>601</v>
       </c>
-      <c r="P24" s="2">
+      <c r="R24" s="2">
         <v>100302</v>
       </c>
-      <c r="Q24" s="2">
+      <c r="S24" s="2">
         <v>45</v>
       </c>
-      <c r="R24" s="2">
+      <c r="T24" s="2">
         <v>1</v>
       </c>
-      <c r="S24" s="2">
+      <c r="U24" s="2">
         <v>1.5</v>
       </c>
-      <c r="T24" s="2">
-        <v>0</v>
-      </c>
-      <c r="U24" s="2">
-        <v>0</v>
-      </c>
-      <c r="V24" s="2" t="str">
+      <c r="V24" s="2">
+        <v>0</v>
+      </c>
+      <c r="W24" s="2">
+        <v>0</v>
+      </c>
+      <c r="X24" s="2" t="str">
         <f t="shared" si="0"/>
         <v>45,1,1.5,0,0</v>
       </c>
-      <c r="X24" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y24" s="2">
-        <v>0</v>
-      </c>
       <c r="Z24" s="2">
         <v>0</v>
       </c>
@@ -3795,126 +3966,130 @@
       <c r="AB24" s="2">
         <v>0</v>
       </c>
-      <c r="AD24" s="4"/>
-    </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AC24" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF24" s="4"/>
+    </row>
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="12">
         <v>1003021</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E25" s="20"/>
-      <c r="F25" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="H25" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>159</v>
+      <c r="F25" s="3"/>
+      <c r="G25" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>157</v>
       </c>
       <c r="J25" s="2">
         <v>0.2</v>
       </c>
+      <c r="K25" s="2" t="s">
+        <v>158</v>
+      </c>
       <c r="L25" s="2">
-        <v>0</v>
-      </c>
-      <c r="M25" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="N25" s="2">
+        <v>0</v>
+      </c>
+      <c r="O25" s="2">
         <v>10000</v>
       </c>
-      <c r="N25" s="2">
+      <c r="P25" s="2">
         <v>102</v>
       </c>
-      <c r="P25" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q25" s="2">
+      <c r="Q25" s="22"/>
+      <c r="R25" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="S25" s="2">
         <v>1</v>
       </c>
-      <c r="R25" s="2">
+      <c r="T25" s="2">
         <v>100</v>
       </c>
-      <c r="S25" s="2">
-        <v>0</v>
-      </c>
-      <c r="T25" s="2">
-        <v>0</v>
-      </c>
       <c r="U25" s="2">
         <v>0</v>
       </c>
-      <c r="V25" s="2" t="str">
+      <c r="V25" s="2">
+        <v>0</v>
+      </c>
+      <c r="W25" s="2">
+        <v>0</v>
+      </c>
+      <c r="X25" s="2" t="str">
         <f t="shared" si="0"/>
         <v>1,100,0,0,0</v>
       </c>
-      <c r="X25" s="2">
+      <c r="Z25" s="2">
         <v>2</v>
       </c>
-      <c r="Y25" s="2">
-        <v>3</v>
-      </c>
-      <c r="Z25" s="2">
-        <v>0</v>
-      </c>
       <c r="AA25" s="2">
+        <v>6</v>
+      </c>
+      <c r="AB25" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="2">
         <v>1</v>
       </c>
-      <c r="AB25" s="2">
+      <c r="AD25" s="2">
         <v>5</v>
       </c>
-      <c r="AD25" s="4"/>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AF25" s="4"/>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="12">
         <v>100401</v>
       </c>
       <c r="D26" s="20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
+      <c r="F26" s="3"/>
       <c r="G26" s="3"/>
-      <c r="L26" s="2">
-        <v>0</v>
-      </c>
-      <c r="M26" s="2">
+      <c r="H26" s="20"/>
+      <c r="I26" s="3"/>
+      <c r="N26" s="2">
+        <v>0</v>
+      </c>
+      <c r="O26" s="2">
         <v>10000</v>
       </c>
-      <c r="N26" s="2">
+      <c r="P26" s="2">
         <v>101</v>
       </c>
-      <c r="P26" s="2">
+      <c r="R26" s="2">
         <v>1</v>
       </c>
-      <c r="Q26" s="2">
+      <c r="S26" s="2">
         <v>1.2</v>
       </c>
-      <c r="R26" s="2">
-        <v>0</v>
-      </c>
-      <c r="S26" s="2">
-        <v>0</v>
-      </c>
       <c r="T26" s="2">
         <v>0</v>
       </c>
       <c r="U26" s="2">
         <v>0</v>
       </c>
-      <c r="V26" s="2" t="str">
+      <c r="V26" s="2">
+        <v>0</v>
+      </c>
+      <c r="W26" s="2">
+        <v>0</v>
+      </c>
+      <c r="X26" s="2" t="str">
         <f t="shared" si="0"/>
         <v>1.2,0,0,0,0</v>
       </c>
-      <c r="X26" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y26" s="2">
-        <v>0</v>
-      </c>
       <c r="Z26" s="2">
         <v>0</v>
       </c>
@@ -3924,9 +4099,15 @@
       <c r="AB26" s="2">
         <v>0</v>
       </c>
-      <c r="AD26" s="4"/>
-    </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AC26" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD26" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF26" s="4"/>
+    </row>
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="12">
         <v>100402</v>
       </c>
@@ -3934,26 +4115,22 @@
         <v>127</v>
       </c>
       <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
+      <c r="F27" s="3"/>
       <c r="G27" s="3"/>
-      <c r="L27" s="2">
-        <v>0</v>
-      </c>
-      <c r="M27" s="2">
+      <c r="H27" s="20"/>
+      <c r="I27" s="3"/>
+      <c r="N27" s="2">
+        <v>0</v>
+      </c>
+      <c r="O27" s="2">
         <v>10000</v>
       </c>
-      <c r="N27" s="2">
+      <c r="P27" s="2">
         <v>501</v>
       </c>
-      <c r="P27" s="2">
+      <c r="R27" s="2">
         <v>100402</v>
       </c>
-      <c r="Q27" s="2">
-        <v>0</v>
-      </c>
-      <c r="R27" s="2">
-        <v>0</v>
-      </c>
       <c r="S27" s="2">
         <v>0</v>
       </c>
@@ -3963,90 +4140,98 @@
       <c r="U27" s="2">
         <v>0</v>
       </c>
-      <c r="V27" s="2" t="str">
+      <c r="V27" s="2">
+        <v>0</v>
+      </c>
+      <c r="W27" s="2">
+        <v>0</v>
+      </c>
+      <c r="X27" s="2" t="str">
         <f t="shared" si="0"/>
         <v>0,0,0,0,0</v>
       </c>
-      <c r="X27" s="2">
+      <c r="Z27" s="2">
         <v>1</v>
       </c>
-      <c r="Y27" s="2">
+      <c r="AA27" s="2">
         <v>0.2</v>
       </c>
-      <c r="Z27" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA27" s="2">
+      <c r="AB27" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC27" s="2">
         <v>1</v>
       </c>
-      <c r="AB27" s="2">
+      <c r="AD27" s="2">
         <v>6</v>
       </c>
-      <c r="AD27" s="4"/>
-    </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AF27" s="4"/>
+    </row>
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="12">
         <v>1004021</v>
       </c>
       <c r="D28" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="E28" s="20"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="20" t="s">
         <v>161</v>
       </c>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20" t="s">
+      <c r="I28" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="G28" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="L28" s="2">
-        <v>0</v>
-      </c>
-      <c r="M28" s="2">
+      <c r="N28" s="2">
+        <v>0</v>
+      </c>
+      <c r="O28" s="2">
         <v>10000</v>
       </c>
-      <c r="N28" s="2">
+      <c r="P28" s="2">
         <v>201</v>
       </c>
-      <c r="P28" s="2">
+      <c r="R28" s="2">
         <v>3</v>
       </c>
-      <c r="Q28" s="2">
+      <c r="S28" s="2">
         <v>0.03</v>
       </c>
-      <c r="R28" s="2">
-        <v>0</v>
-      </c>
-      <c r="S28" s="2">
-        <v>0</v>
-      </c>
       <c r="T28" s="2">
         <v>0</v>
       </c>
       <c r="U28" s="2">
         <v>0</v>
       </c>
-      <c r="V28" s="2" t="str">
+      <c r="V28" s="2">
+        <v>0</v>
+      </c>
+      <c r="W28" s="2">
+        <v>0</v>
+      </c>
+      <c r="X28" s="2" t="str">
         <f t="shared" si="0"/>
         <v>0.03,0,0,0,0</v>
       </c>
-      <c r="X28" s="2">
+      <c r="Z28" s="2">
         <v>1</v>
       </c>
-      <c r="Y28" s="2">
+      <c r="AA28" s="2">
         <v>0.2</v>
       </c>
-      <c r="Z28" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA28" s="2">
+      <c r="AB28" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="2">
         <v>1</v>
       </c>
-      <c r="AB28" s="2">
+      <c r="AD28" s="2">
         <v>6</v>
       </c>
-      <c r="AD28" s="4"/>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AF28" s="4"/>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="12">
         <v>200111</v>
       </c>
@@ -4054,59 +4239,55 @@
         <v>131</v>
       </c>
       <c r="E29" s="20"/>
-      <c r="F29" s="20" t="s">
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="G29" s="3" t="s">
+      <c r="I29" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="H29" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>60</v>
       </c>
       <c r="J29" s="3">
         <v>0.2</v>
       </c>
-      <c r="K29" s="3"/>
-      <c r="L29" s="2">
-        <v>0</v>
-      </c>
-      <c r="M29" s="2">
+      <c r="K29" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L29" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="M29" s="3"/>
+      <c r="N29" s="2">
+        <v>0</v>
+      </c>
+      <c r="O29" s="2">
         <v>10000</v>
       </c>
-      <c r="N29" s="2">
+      <c r="P29" s="2">
         <v>101</v>
       </c>
-      <c r="P29" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="2">
+      <c r="R29" s="2">
+        <v>0</v>
+      </c>
+      <c r="S29" s="2">
         <v>0.4</v>
       </c>
-      <c r="R29" s="2">
+      <c r="T29" s="2">
         <v>80</v>
       </c>
-      <c r="S29" s="2">
-        <v>0</v>
-      </c>
-      <c r="T29" s="2">
-        <v>0</v>
-      </c>
       <c r="U29" s="2">
         <v>0</v>
       </c>
-      <c r="V29" s="2" t="str">
+      <c r="V29" s="2">
+        <v>0</v>
+      </c>
+      <c r="W29" s="2">
+        <v>0</v>
+      </c>
+      <c r="X29" s="2" t="str">
         <f t="shared" si="0"/>
         <v>0.4,80,0,0,0</v>
       </c>
-      <c r="X29" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y29" s="2">
-        <v>0</v>
-      </c>
       <c r="Z29" s="2">
         <v>0</v>
       </c>
@@ -4116,9 +4297,15 @@
       <c r="AB29" s="2">
         <v>0</v>
       </c>
-      <c r="AD29" s="4"/>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AC29" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF29" s="4"/>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="12">
         <v>200121</v>
       </c>
@@ -4126,59 +4313,55 @@
         <v>132</v>
       </c>
       <c r="E30" s="20"/>
-      <c r="F30" s="20" t="s">
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="G30" s="3" t="s">
+      <c r="I30" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="H30" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="I30" s="3" t="s">
-        <v>60</v>
       </c>
       <c r="J30" s="3">
         <v>0.2</v>
       </c>
-      <c r="K30" s="3"/>
-      <c r="L30" s="2">
-        <v>0</v>
-      </c>
-      <c r="M30" s="2">
+      <c r="K30" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L30" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="M30" s="3"/>
+      <c r="N30" s="2">
+        <v>0</v>
+      </c>
+      <c r="O30" s="2">
         <v>10000</v>
       </c>
-      <c r="N30" s="2">
+      <c r="P30" s="2">
         <v>101</v>
       </c>
-      <c r="P30" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="2">
+      <c r="R30" s="2">
+        <v>0</v>
+      </c>
+      <c r="S30" s="2">
         <v>0.6</v>
       </c>
-      <c r="R30" s="2">
+      <c r="T30" s="2">
         <v>120</v>
       </c>
-      <c r="S30" s="2">
-        <v>0</v>
-      </c>
-      <c r="T30" s="2">
-        <v>0</v>
-      </c>
       <c r="U30" s="2">
         <v>0</v>
       </c>
-      <c r="V30" s="2" t="str">
+      <c r="V30" s="2">
+        <v>0</v>
+      </c>
+      <c r="W30" s="2">
+        <v>0</v>
+      </c>
+      <c r="X30" s="2" t="str">
         <f t="shared" si="0"/>
         <v>0.6,120,0,0,0</v>
       </c>
-      <c r="X30" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y30" s="2">
-        <v>0</v>
-      </c>
       <c r="Z30" s="2">
         <v>0</v>
       </c>
@@ -4188,9 +4371,15 @@
       <c r="AB30" s="2">
         <v>0</v>
       </c>
-      <c r="AD30" s="4"/>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AC30" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF30" s="4"/>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="12">
         <v>200201</v>
       </c>
@@ -4198,45 +4387,41 @@
         <v>78</v>
       </c>
       <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
+      <c r="F31" s="3"/>
       <c r="G31" s="3"/>
-      <c r="L31" s="2">
-        <v>0</v>
-      </c>
-      <c r="M31" s="2">
+      <c r="H31" s="20"/>
+      <c r="I31" s="3"/>
+      <c r="N31" s="2">
+        <v>0</v>
+      </c>
+      <c r="O31" s="2">
         <v>10000</v>
       </c>
-      <c r="N31" s="2">
+      <c r="P31" s="2">
         <v>101</v>
       </c>
-      <c r="P31" s="2">
+      <c r="R31" s="2">
         <v>3</v>
       </c>
-      <c r="Q31" s="2">
+      <c r="S31" s="2">
         <v>0.9</v>
       </c>
-      <c r="R31" s="2">
-        <v>0</v>
-      </c>
-      <c r="S31" s="2">
-        <v>0</v>
-      </c>
       <c r="T31" s="2">
         <v>0</v>
       </c>
       <c r="U31" s="2">
         <v>0</v>
       </c>
-      <c r="V31" s="2" t="str">
+      <c r="V31" s="2">
+        <v>0</v>
+      </c>
+      <c r="W31" s="2">
+        <v>0</v>
+      </c>
+      <c r="X31" s="2" t="str">
         <f t="shared" si="0"/>
         <v>0.9,0,0,0,0</v>
       </c>
-      <c r="X31" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y31" s="2">
-        <v>0</v>
-      </c>
       <c r="Z31" s="2">
         <v>0</v>
       </c>
@@ -4246,9 +4431,15 @@
       <c r="AB31" s="2">
         <v>0</v>
       </c>
-      <c r="AD31" s="4"/>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AC31" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF31" s="4"/>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="12">
         <v>200202</v>
       </c>
@@ -4256,45 +4447,41 @@
         <v>78</v>
       </c>
       <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
+      <c r="F32" s="3"/>
       <c r="G32" s="3"/>
-      <c r="L32" s="2">
-        <v>0</v>
-      </c>
-      <c r="M32" s="2">
+      <c r="H32" s="20"/>
+      <c r="I32" s="3"/>
+      <c r="N32" s="2">
+        <v>0</v>
+      </c>
+      <c r="O32" s="2">
         <v>10000</v>
       </c>
-      <c r="N32" s="2">
+      <c r="P32" s="2">
         <v>101</v>
       </c>
-      <c r="P32" s="2">
+      <c r="R32" s="2">
         <v>3</v>
       </c>
-      <c r="Q32" s="2">
+      <c r="S32" s="2">
         <v>0.9</v>
       </c>
-      <c r="R32" s="2">
-        <v>0</v>
-      </c>
-      <c r="S32" s="2">
-        <v>0</v>
-      </c>
       <c r="T32" s="2">
         <v>0</v>
       </c>
       <c r="U32" s="2">
         <v>0</v>
       </c>
-      <c r="V32" s="2" t="str">
+      <c r="V32" s="2">
+        <v>0</v>
+      </c>
+      <c r="W32" s="2">
+        <v>0</v>
+      </c>
+      <c r="X32" s="2" t="str">
         <f t="shared" si="0"/>
         <v>0.9,0,0,0,0</v>
       </c>
-      <c r="X32" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y32" s="2">
-        <v>0</v>
-      </c>
       <c r="Z32" s="2">
         <v>0</v>
       </c>
@@ -4304,9 +4491,15 @@
       <c r="AB32" s="2">
         <v>0</v>
       </c>
-      <c r="AD32" s="4"/>
-    </row>
-    <row r="33" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AC32" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF32" s="4"/>
+    </row>
+    <row r="33" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C33" s="12">
         <v>200203</v>
       </c>
@@ -4314,45 +4507,41 @@
         <v>79</v>
       </c>
       <c r="E33" s="20"/>
-      <c r="F33" s="20"/>
+      <c r="F33" s="3"/>
       <c r="G33" s="3"/>
-      <c r="L33" s="2">
-        <v>0</v>
-      </c>
-      <c r="M33" s="2">
+      <c r="H33" s="20"/>
+      <c r="I33" s="3"/>
+      <c r="N33" s="2">
+        <v>0</v>
+      </c>
+      <c r="O33" s="2">
         <v>10000</v>
       </c>
-      <c r="N33" s="2">
+      <c r="P33" s="2">
         <v>101</v>
       </c>
-      <c r="P33" s="2">
+      <c r="R33" s="2">
         <v>3</v>
       </c>
-      <c r="Q33" s="2">
+      <c r="S33" s="2">
         <v>1.2</v>
       </c>
-      <c r="R33" s="2">
-        <v>0</v>
-      </c>
-      <c r="S33" s="2">
-        <v>0</v>
-      </c>
       <c r="T33" s="2">
         <v>0</v>
       </c>
       <c r="U33" s="2">
         <v>0</v>
       </c>
-      <c r="V33" s="2" t="str">
+      <c r="V33" s="2">
+        <v>0</v>
+      </c>
+      <c r="W33" s="2">
+        <v>0</v>
+      </c>
+      <c r="X33" s="2" t="str">
         <f t="shared" si="0"/>
         <v>1.2,0,0,0,0</v>
       </c>
-      <c r="X33" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y33" s="2">
-        <v>0</v>
-      </c>
       <c r="Z33" s="2">
         <v>0</v>
       </c>
@@ -4362,9 +4551,15 @@
       <c r="AB33" s="2">
         <v>0</v>
       </c>
-      <c r="AD33" s="4"/>
-    </row>
-    <row r="34" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AC33" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD33" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF33" s="4"/>
+    </row>
+    <row r="34" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C34" s="12">
         <v>200301</v>
       </c>
@@ -4372,45 +4567,41 @@
         <v>80</v>
       </c>
       <c r="E34" s="20"/>
-      <c r="F34" s="20"/>
+      <c r="F34" s="3"/>
       <c r="G34" s="3"/>
-      <c r="L34" s="2">
-        <v>0</v>
-      </c>
-      <c r="M34" s="2">
+      <c r="H34" s="20"/>
+      <c r="I34" s="3"/>
+      <c r="N34" s="2">
+        <v>0</v>
+      </c>
+      <c r="O34" s="2">
         <v>10000</v>
       </c>
-      <c r="N34" s="2">
+      <c r="P34" s="2">
         <v>101</v>
       </c>
-      <c r="P34" s="2">
+      <c r="R34" s="2">
         <v>3</v>
       </c>
-      <c r="Q34" s="2">
+      <c r="S34" s="2">
         <v>0.8</v>
       </c>
-      <c r="R34" s="2">
-        <v>0</v>
-      </c>
-      <c r="S34" s="2">
-        <v>0</v>
-      </c>
       <c r="T34" s="2">
         <v>0</v>
       </c>
       <c r="U34" s="2">
         <v>0</v>
       </c>
-      <c r="V34" s="2" t="str">
+      <c r="V34" s="2">
+        <v>0</v>
+      </c>
+      <c r="W34" s="2">
+        <v>0</v>
+      </c>
+      <c r="X34" s="2" t="str">
         <f t="shared" si="0"/>
         <v>0.8,0,0,0,0</v>
       </c>
-      <c r="X34" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y34" s="2">
-        <v>0</v>
-      </c>
       <c r="Z34" s="2">
         <v>0</v>
       </c>
@@ -4420,9 +4611,15 @@
       <c r="AB34" s="2">
         <v>0</v>
       </c>
-      <c r="AD34" s="4"/>
-    </row>
-    <row r="35" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AC34" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF34" s="4"/>
+    </row>
+    <row r="35" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C35" s="12">
         <v>200302</v>
       </c>
@@ -4430,26 +4627,22 @@
         <v>133</v>
       </c>
       <c r="E35" s="20"/>
-      <c r="F35" s="20"/>
+      <c r="F35" s="3"/>
       <c r="G35" s="3"/>
-      <c r="L35" s="2">
-        <v>0</v>
-      </c>
-      <c r="M35" s="2">
+      <c r="H35" s="20"/>
+      <c r="I35" s="3"/>
+      <c r="N35" s="2">
+        <v>0</v>
+      </c>
+      <c r="O35" s="2">
         <v>10000</v>
       </c>
-      <c r="N35" s="2">
+      <c r="P35" s="2">
         <v>501</v>
       </c>
-      <c r="P35" s="2">
+      <c r="R35" s="2">
         <v>200302</v>
       </c>
-      <c r="Q35" s="2">
-        <v>0</v>
-      </c>
-      <c r="R35" s="2">
-        <v>0</v>
-      </c>
       <c r="S35" s="2">
         <v>0</v>
       </c>
@@ -4459,28 +4652,34 @@
       <c r="U35" s="2">
         <v>0</v>
       </c>
-      <c r="V35" s="2" t="str">
+      <c r="V35" s="2">
+        <v>0</v>
+      </c>
+      <c r="W35" s="2">
+        <v>0</v>
+      </c>
+      <c r="X35" s="2" t="str">
         <f t="shared" si="0"/>
         <v>0,0,0,0,0</v>
       </c>
-      <c r="X35" s="2">
+      <c r="Z35" s="2">
         <v>1</v>
       </c>
-      <c r="Y35" s="2">
+      <c r="AA35" s="2">
         <v>0.2</v>
       </c>
-      <c r="Z35" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA35" s="2">
+      <c r="AB35" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC35" s="2">
         <v>1</v>
       </c>
-      <c r="AB35" s="2">
+      <c r="AD35" s="2">
         <v>6</v>
       </c>
-      <c r="AD35" s="4"/>
-    </row>
-    <row r="36" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AF35" s="4"/>
+    </row>
+    <row r="36" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C36" s="12">
         <v>2003021</v>
       </c>
@@ -4488,1964 +4687,2001 @@
         <v>134</v>
       </c>
       <c r="E36" s="20"/>
-      <c r="F36" s="20" t="s">
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="G36" s="3" t="s">
+      <c r="I36" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="H36" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="I36" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="J36" s="2">
         <v>0.2</v>
       </c>
+      <c r="K36" s="2" t="s">
+        <v>60</v>
+      </c>
       <c r="L36" s="2">
-        <v>0</v>
-      </c>
-      <c r="M36" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="N36" s="2">
+        <v>0</v>
+      </c>
+      <c r="O36" s="2">
         <v>10000</v>
       </c>
-      <c r="N36" s="2">
+      <c r="P36" s="2">
         <v>101</v>
       </c>
-      <c r="P36" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q36" s="2">
+      <c r="R36" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="S36" s="2">
+        <v>1</v>
+      </c>
+      <c r="T36" s="2">
+        <v>200</v>
+      </c>
+      <c r="U36" s="2">
+        <v>0</v>
+      </c>
+      <c r="V36" s="2">
+        <v>0</v>
+      </c>
+      <c r="W36" s="2">
+        <v>0</v>
+      </c>
+      <c r="X36" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>1,200,0,0,0</v>
+      </c>
+      <c r="Z36" s="2">
         <v>2</v>
       </c>
-      <c r="R36" s="2">
-        <v>200</v>
-      </c>
-      <c r="S36" s="2">
-        <v>0</v>
-      </c>
-      <c r="T36" s="2">
-        <v>0</v>
-      </c>
-      <c r="U36" s="2">
-        <v>0</v>
-      </c>
-      <c r="V36" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2,200,0,0,0</v>
-      </c>
-      <c r="X36" s="2">
-        <v>2</v>
-      </c>
-      <c r="Y36" s="2">
+      <c r="AA36" s="2">
         <v>5</v>
       </c>
-      <c r="Z36" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA36" s="2">
+      <c r="AB36" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC36" s="2">
         <v>1</v>
       </c>
-      <c r="AB36" s="2">
+      <c r="AD36" s="2">
         <v>5</v>
       </c>
-      <c r="AD36" s="4"/>
-    </row>
-    <row r="37" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AF36" s="4"/>
+    </row>
+    <row r="37" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C37" s="12">
         <v>200501</v>
       </c>
       <c r="D37" s="20" t="s">
-        <v>141</v>
+        <v>212</v>
       </c>
       <c r="E37" s="20"/>
-      <c r="F37" s="20"/>
+      <c r="F37" s="3"/>
       <c r="G37" s="3"/>
-      <c r="L37" s="2">
-        <v>0</v>
-      </c>
-      <c r="M37" s="2">
+      <c r="H37" s="20"/>
+      <c r="I37" s="3"/>
+      <c r="N37" s="2">
+        <v>0</v>
+      </c>
+      <c r="O37" s="2">
         <v>10000</v>
       </c>
-      <c r="N37" s="2">
+      <c r="P37" s="2">
         <v>101</v>
       </c>
-      <c r="P37" s="2">
+      <c r="R37" s="2">
         <v>3</v>
       </c>
-      <c r="Q37" s="2">
+      <c r="S37" s="2">
+        <v>1</v>
+      </c>
+      <c r="T37" s="2">
+        <v>0</v>
+      </c>
+      <c r="U37" s="2">
+        <v>0</v>
+      </c>
+      <c r="V37" s="2">
+        <v>0</v>
+      </c>
+      <c r="W37" s="2">
+        <v>0</v>
+      </c>
+      <c r="X37" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>1,0,0,0,0</v>
+      </c>
+      <c r="Z37" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA37" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB37" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC37" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD37" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF37" s="4"/>
+    </row>
+    <row r="38" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="C38" s="12">
+        <v>200502</v>
+      </c>
+      <c r="D38" s="20" t="s">
+        <v>213</v>
+      </c>
+      <c r="E38" s="20"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="N38" s="2">
+        <v>0</v>
+      </c>
+      <c r="O38" s="2">
+        <v>10000</v>
+      </c>
+      <c r="P38" s="2">
+        <v>101</v>
+      </c>
+      <c r="R38" s="2">
+        <v>3</v>
+      </c>
+      <c r="S38" s="2">
         <v>1.2</v>
       </c>
-      <c r="R37" s="2">
-        <v>0</v>
-      </c>
-      <c r="S37" s="2">
-        <v>0</v>
-      </c>
-      <c r="T37" s="2">
-        <v>0</v>
-      </c>
-      <c r="U37" s="2">
-        <v>0</v>
-      </c>
-      <c r="V37" s="2" t="str">
+      <c r="T38" s="2">
+        <v>0</v>
+      </c>
+      <c r="U38" s="2">
+        <v>0</v>
+      </c>
+      <c r="V38" s="2">
+        <v>0</v>
+      </c>
+      <c r="W38" s="2">
+        <v>0</v>
+      </c>
+      <c r="X38" s="2" t="str">
         <f t="shared" si="0"/>
         <v>1.2,0,0,0,0</v>
       </c>
-      <c r="X37" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y37" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z37" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA37" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB37" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD37" s="4"/>
-    </row>
-    <row r="38" spans="3:30" x14ac:dyDescent="0.2">
-      <c r="C38" s="12">
+      <c r="Z38" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA38" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB38" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC38" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD38" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF38" s="4"/>
+    </row>
+    <row r="39" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="C39" s="12">
+        <v>200503</v>
+      </c>
+      <c r="D39" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="E39" s="20"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="N39" s="2">
+        <v>0</v>
+      </c>
+      <c r="O39" s="2">
+        <v>10000</v>
+      </c>
+      <c r="P39" s="2">
+        <v>101</v>
+      </c>
+      <c r="R39" s="2">
+        <v>3</v>
+      </c>
+      <c r="S39" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="T39" s="2">
+        <v>0</v>
+      </c>
+      <c r="U39" s="2">
+        <v>0</v>
+      </c>
+      <c r="V39" s="2">
+        <v>0</v>
+      </c>
+      <c r="W39" s="2">
+        <v>0</v>
+      </c>
+      <c r="X39" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>1.6,0,0,0,0</v>
+      </c>
+      <c r="Z39" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA39" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB39" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC39" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD39" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF39" s="4"/>
+    </row>
+    <row r="40" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="C40" s="12">
+        <v>200504</v>
+      </c>
+      <c r="D40" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="E40" s="20"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="N40" s="2">
+        <v>0</v>
+      </c>
+      <c r="O40" s="2">
+        <v>10000</v>
+      </c>
+      <c r="P40" s="2">
+        <v>101</v>
+      </c>
+      <c r="R40" s="2">
+        <v>3</v>
+      </c>
+      <c r="S40" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="T40" s="2">
+        <v>0</v>
+      </c>
+      <c r="U40" s="2">
+        <v>0</v>
+      </c>
+      <c r="V40" s="2">
+        <v>0</v>
+      </c>
+      <c r="W40" s="2">
+        <v>0</v>
+      </c>
+      <c r="X40" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>2.2,0,0,0,0</v>
+      </c>
+      <c r="Z40" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA40" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB40" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC40" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD40" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF40" s="4"/>
+    </row>
+    <row r="41" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="C41" s="12">
+        <v>200505</v>
+      </c>
+      <c r="D41" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="E41" s="20"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="20"/>
+      <c r="I41" s="3"/>
+      <c r="N41" s="2">
+        <v>0</v>
+      </c>
+      <c r="O41" s="2">
+        <v>10000</v>
+      </c>
+      <c r="P41" s="2">
+        <v>501</v>
+      </c>
+      <c r="R41" s="2">
         <v>200502</v>
       </c>
-      <c r="D38" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="E38" s="20"/>
-      <c r="F38" s="20"/>
-      <c r="G38" s="3"/>
-      <c r="L38" s="2">
-        <v>0</v>
-      </c>
-      <c r="M38" s="2">
-        <v>10000</v>
-      </c>
-      <c r="N38" s="2">
-        <v>501</v>
-      </c>
-      <c r="P38" s="2">
-        <v>200502</v>
-      </c>
-      <c r="Q38" s="2">
-        <v>0</v>
-      </c>
-      <c r="R38" s="2">
-        <v>0</v>
-      </c>
-      <c r="S38" s="2">
-        <v>0</v>
-      </c>
-      <c r="T38" s="2">
-        <v>0</v>
-      </c>
-      <c r="U38" s="2">
-        <v>0</v>
-      </c>
-      <c r="V38" s="2" t="str">
+      <c r="S41" s="2">
+        <v>0</v>
+      </c>
+      <c r="T41" s="2">
+        <v>0</v>
+      </c>
+      <c r="U41" s="2">
+        <v>0</v>
+      </c>
+      <c r="V41" s="2">
+        <v>0</v>
+      </c>
+      <c r="W41" s="2">
+        <v>0</v>
+      </c>
+      <c r="X41" s="2" t="str">
         <f t="shared" si="0"/>
         <v>0,0,0,0,0</v>
       </c>
-      <c r="X38" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y38" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z38" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA38" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB38" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD38" s="4"/>
-    </row>
-    <row r="39" spans="3:30" x14ac:dyDescent="0.2">
-      <c r="C39" s="12">
+      <c r="Z41" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA41" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB41" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC41" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD41" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF41" s="4"/>
+    </row>
+    <row r="42" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="C42" s="12">
         <v>300101</v>
       </c>
-      <c r="D39" s="20" t="s">
+      <c r="D42" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="E39" s="20"/>
-      <c r="F39" s="20" t="s">
+      <c r="E42" s="20"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="G39" s="3" t="s">
+      <c r="I42" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="H39" s="2">
+      <c r="J42" s="2">
         <v>0.2</v>
       </c>
-      <c r="I39" s="2" t="s">
+      <c r="K42" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="J39" s="2">
+      <c r="L42" s="2">
         <v>0.2</v>
       </c>
-      <c r="K39" s="2">
+      <c r="M42" s="2">
         <v>1</v>
       </c>
-      <c r="L39" s="2">
-        <v>0</v>
-      </c>
-      <c r="M39" s="2">
+      <c r="N42" s="2">
+        <v>0</v>
+      </c>
+      <c r="O42" s="2">
         <v>10000</v>
       </c>
-      <c r="N39" s="2">
+      <c r="P42" s="2">
         <v>101</v>
       </c>
-      <c r="P39" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q39" s="2">
+      <c r="R42" s="2">
+        <v>0</v>
+      </c>
+      <c r="S42" s="2">
         <v>1</v>
       </c>
-      <c r="R39" s="2">
+      <c r="T42" s="2">
         <v>200</v>
       </c>
-      <c r="S39" s="2">
-        <v>0</v>
-      </c>
-      <c r="T39" s="2">
-        <v>0</v>
-      </c>
-      <c r="U39" s="2">
-        <v>0</v>
-      </c>
-      <c r="V39" s="2" t="s">
+      <c r="U42" s="2">
+        <v>0</v>
+      </c>
+      <c r="V42" s="2">
+        <v>0</v>
+      </c>
+      <c r="W42" s="2">
+        <v>0</v>
+      </c>
+      <c r="X42" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="X39" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y39" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z39" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA39" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB39" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD39" s="4"/>
-    </row>
-    <row r="40" spans="3:30" x14ac:dyDescent="0.2">
-      <c r="C40" s="3">
+      <c r="Z42" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB42" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC42" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD42" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF42" s="4"/>
+    </row>
+    <row r="43" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="C43" s="3">
         <v>300111</v>
       </c>
-      <c r="D40" s="20" t="s">
+      <c r="D43" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="E40" s="20"/>
-      <c r="F40" s="20" t="s">
+      <c r="E43" s="20"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="G40" s="3" t="s">
+      <c r="I43" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="H40" s="3">
+      <c r="J43" s="3">
         <v>0.2</v>
       </c>
-      <c r="I40" s="3" t="s">
+      <c r="K43" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="J40" s="3">
+      <c r="L43" s="3">
         <v>0.2</v>
       </c>
-      <c r="K40" s="3">
+      <c r="M43" s="3">
         <v>1</v>
       </c>
-      <c r="L40" s="2">
-        <v>0</v>
-      </c>
-      <c r="M40" s="2">
+      <c r="N43" s="2">
+        <v>0</v>
+      </c>
+      <c r="O43" s="2">
         <v>10000</v>
       </c>
-      <c r="N40" s="2">
+      <c r="P43" s="2">
         <v>101</v>
       </c>
-      <c r="P40" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q40" s="2">
+      <c r="R43" s="2">
+        <v>0</v>
+      </c>
+      <c r="S43" s="2">
         <v>1</v>
       </c>
-      <c r="R40" s="2">
+      <c r="T43" s="2">
         <v>200</v>
       </c>
-      <c r="S40" s="2">
-        <v>0</v>
-      </c>
-      <c r="T40" s="2">
-        <v>0</v>
-      </c>
-      <c r="U40" s="2">
-        <v>0</v>
-      </c>
-      <c r="V40" s="2" t="str">
+      <c r="U43" s="2">
+        <v>0</v>
+      </c>
+      <c r="V43" s="2">
+        <v>0</v>
+      </c>
+      <c r="W43" s="2">
+        <v>0</v>
+      </c>
+      <c r="X43" s="2" t="str">
         <f t="shared" si="0"/>
         <v>1,200,0,0,0</v>
       </c>
-      <c r="X40" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y40" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z40" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA40" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB40" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD40" s="4"/>
-    </row>
-    <row r="41" spans="3:30" x14ac:dyDescent="0.2">
-      <c r="C41" s="12">
+      <c r="Z43" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA43" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB43" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC43" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD43" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF43" s="4"/>
+    </row>
+    <row r="44" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="C44" s="12">
         <v>300201</v>
       </c>
-      <c r="D41" s="20" t="s">
+      <c r="D44" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="E41" s="20"/>
-      <c r="F41" s="20"/>
-      <c r="G41" s="3"/>
-      <c r="L41" s="2">
-        <v>0</v>
-      </c>
-      <c r="M41" s="2">
+      <c r="E44" s="20"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="20"/>
+      <c r="I44" s="3"/>
+      <c r="N44" s="2">
+        <v>0</v>
+      </c>
+      <c r="O44" s="2">
         <v>10000</v>
       </c>
-      <c r="N41" s="2">
+      <c r="P44" s="2">
         <v>101</v>
       </c>
-      <c r="P41" s="2">
+      <c r="R44" s="2">
         <v>7</v>
       </c>
-      <c r="Q41" s="2">
+      <c r="S44" s="2">
         <v>0.8</v>
       </c>
-      <c r="R41" s="2">
-        <v>0</v>
-      </c>
-      <c r="S41" s="2">
-        <v>0</v>
-      </c>
-      <c r="T41" s="2">
-        <v>0</v>
-      </c>
-      <c r="U41" s="2">
-        <v>0</v>
-      </c>
-      <c r="V41" s="2" t="str">
+      <c r="T44" s="2">
+        <v>0</v>
+      </c>
+      <c r="U44" s="2">
+        <v>0</v>
+      </c>
+      <c r="V44" s="2">
+        <v>0</v>
+      </c>
+      <c r="W44" s="2">
+        <v>0</v>
+      </c>
+      <c r="X44" s="2" t="str">
         <f t="shared" si="0"/>
         <v>0.8,0,0,0,0</v>
       </c>
-      <c r="X41" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y41" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z41" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA41" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB41" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD41" s="4"/>
-    </row>
-    <row r="42" spans="3:30" x14ac:dyDescent="0.2">
-      <c r="C42" s="12">
+      <c r="Z44" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB44" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC44" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD44" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF44" s="4"/>
+    </row>
+    <row r="45" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="C45" s="12">
         <v>300301</v>
       </c>
-      <c r="D42" s="20" t="s">
+      <c r="D45" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="E42" s="20"/>
-      <c r="F42" s="20"/>
-      <c r="G42" s="3"/>
-      <c r="L42" s="2">
-        <v>0</v>
-      </c>
-      <c r="M42" s="2">
+      <c r="E45" s="20"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="20"/>
+      <c r="I45" s="3"/>
+      <c r="N45" s="2">
+        <v>0</v>
+      </c>
+      <c r="O45" s="2">
         <v>10000</v>
       </c>
-      <c r="N42" s="2">
+      <c r="P45" s="2">
         <v>101</v>
       </c>
-      <c r="P42" s="2">
+      <c r="R45" s="2">
         <v>7</v>
       </c>
-      <c r="Q42" s="2">
+      <c r="S45" s="2">
         <v>1.5</v>
       </c>
-      <c r="R42" s="2">
-        <v>0</v>
-      </c>
-      <c r="S42" s="2">
-        <v>0</v>
-      </c>
-      <c r="T42" s="2">
-        <v>0</v>
-      </c>
-      <c r="U42" s="2">
-        <v>0</v>
-      </c>
-      <c r="V42" s="2" t="str">
-        <f t="shared" ref="V42:V43" si="1">Q42&amp;","&amp;R42&amp;","&amp;S42&amp;","&amp;T42&amp;","&amp;U42</f>
+      <c r="T45" s="2">
+        <v>0</v>
+      </c>
+      <c r="U45" s="2">
+        <v>0</v>
+      </c>
+      <c r="V45" s="2">
+        <v>0</v>
+      </c>
+      <c r="W45" s="2">
+        <v>0</v>
+      </c>
+      <c r="X45" s="2" t="str">
+        <f t="shared" ref="X45:X46" si="1">S45&amp;","&amp;T45&amp;","&amp;U45&amp;","&amp;V45&amp;","&amp;W45</f>
         <v>1.5,0,0,0,0</v>
       </c>
-      <c r="X42" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y42" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z42" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA42" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB42" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD42" s="4"/>
-    </row>
-    <row r="43" spans="3:30" x14ac:dyDescent="0.2">
-      <c r="C43" s="12">
+      <c r="Z45" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA45" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB45" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC45" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD45" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF45" s="4"/>
+    </row>
+    <row r="46" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="C46" s="12">
         <v>300302</v>
       </c>
-      <c r="D43" s="20" t="s">
-        <v>160</v>
-      </c>
-      <c r="E43" s="20" t="s">
-        <v>183</v>
-      </c>
-      <c r="F43" s="20"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
-      <c r="J43" s="3"/>
-      <c r="L43" s="2">
-        <v>0</v>
-      </c>
-      <c r="M43" s="2">
+      <c r="D46" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="E46" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="F46" s="3">
+        <v>1</v>
+      </c>
+      <c r="G46" s="3"/>
+      <c r="H46" s="20"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
+      <c r="L46" s="3"/>
+      <c r="N46" s="2">
+        <v>0</v>
+      </c>
+      <c r="O46" s="2">
         <v>10000</v>
       </c>
-      <c r="N43" s="2">
+      <c r="P46" s="2">
         <v>401</v>
       </c>
-      <c r="O43" s="22"/>
-      <c r="P43" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="2">
+      <c r="Q46" s="22"/>
+      <c r="R46" s="2">
+        <v>0</v>
+      </c>
+      <c r="S46" s="2">
         <v>0.5</v>
       </c>
-      <c r="R43" s="2">
-        <v>0</v>
-      </c>
-      <c r="S43" s="2">
-        <v>0</v>
-      </c>
-      <c r="T43" s="2">
-        <v>0</v>
-      </c>
-      <c r="U43" s="2">
-        <v>0</v>
-      </c>
-      <c r="V43" s="2" t="str">
+      <c r="T46" s="2">
+        <v>0</v>
+      </c>
+      <c r="U46" s="2">
+        <v>0</v>
+      </c>
+      <c r="V46" s="2">
+        <v>0</v>
+      </c>
+      <c r="W46" s="2">
+        <v>0</v>
+      </c>
+      <c r="X46" s="2" t="str">
         <f t="shared" si="1"/>
         <v>0.5,0,0,0,0</v>
       </c>
-      <c r="X43" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y43" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z43" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA43" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB43" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD43" s="4"/>
-    </row>
-    <row r="44" spans="3:30" x14ac:dyDescent="0.2">
-      <c r="C44" s="12">
+      <c r="Z46" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA46" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB46" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC46" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD46" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF46" s="4"/>
+    </row>
+    <row r="47" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="C47" s="12">
         <v>300501</v>
       </c>
-      <c r="D44" s="20" t="s">
-        <v>143</v>
-      </c>
-      <c r="E44" s="20"/>
-      <c r="F44" s="20"/>
-      <c r="G44" s="3"/>
-      <c r="L44" s="2">
-        <v>0</v>
-      </c>
-      <c r="M44" s="2">
+      <c r="D47" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="E47" s="20"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="20"/>
+      <c r="I47" s="3"/>
+      <c r="N47" s="2">
+        <v>0</v>
+      </c>
+      <c r="O47" s="2">
         <v>10000</v>
       </c>
-      <c r="N44" s="2">
+      <c r="P47" s="2">
         <v>101</v>
       </c>
-      <c r="P44" s="2">
+      <c r="R47" s="2">
         <v>7</v>
       </c>
-      <c r="Q44" s="2">
+      <c r="S47" s="2">
         <v>3.6</v>
       </c>
-      <c r="R44" s="2">
-        <v>0</v>
-      </c>
-      <c r="S44" s="2">
-        <v>0</v>
-      </c>
-      <c r="T44" s="2">
-        <v>0</v>
-      </c>
-      <c r="U44" s="2">
-        <v>0</v>
-      </c>
-      <c r="V44" s="2" t="str">
-        <f t="shared" ref="V44" si="2">Q44&amp;","&amp;R44&amp;","&amp;S44&amp;","&amp;T44&amp;","&amp;U44</f>
+      <c r="T47" s="2">
+        <v>0</v>
+      </c>
+      <c r="U47" s="2">
+        <v>0</v>
+      </c>
+      <c r="V47" s="2">
+        <v>0</v>
+      </c>
+      <c r="W47" s="2">
+        <v>0</v>
+      </c>
+      <c r="X47" s="2" t="str">
+        <f t="shared" ref="X47" si="2">S47&amp;","&amp;T47&amp;","&amp;U47&amp;","&amp;V47&amp;","&amp;W47</f>
         <v>3.6,0,0,0,0</v>
       </c>
-      <c r="X44" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y44" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z44" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA44" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB44" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD44" s="4"/>
-    </row>
-    <row r="45" spans="3:30" x14ac:dyDescent="0.2">
-      <c r="C45" s="12">
+      <c r="Z47" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB47" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC47" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD47" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF47" s="4"/>
+    </row>
+    <row r="48" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="C48" s="12">
         <v>800101</v>
       </c>
-      <c r="D45" s="20" t="s">
+      <c r="D48" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="E45" s="20"/>
-      <c r="F45" s="20" t="s">
+      <c r="E48" s="20"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="G45" s="3" t="s">
+      <c r="I48" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J48" s="3">
         <v>0.2</v>
       </c>
-      <c r="I45" s="3" t="s">
+      <c r="K48" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L48" s="3">
         <v>0.2</v>
       </c>
-      <c r="K45" s="3"/>
-      <c r="L45" s="2">
-        <v>0</v>
-      </c>
-      <c r="M45" s="2">
+      <c r="M48" s="3"/>
+      <c r="N48" s="2">
+        <v>0</v>
+      </c>
+      <c r="O48" s="2">
         <v>10000</v>
       </c>
-      <c r="N45" s="2">
+      <c r="P48" s="2">
         <v>101</v>
       </c>
-      <c r="P45" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q45" s="2">
+      <c r="R48" s="2">
+        <v>0</v>
+      </c>
+      <c r="S48" s="2">
         <v>1</v>
       </c>
-      <c r="R45" s="2">
+      <c r="T48" s="2">
         <v>200</v>
       </c>
-      <c r="S45" s="2">
-        <v>0</v>
-      </c>
-      <c r="T45" s="2">
-        <v>0</v>
-      </c>
-      <c r="U45" s="2">
-        <v>0</v>
-      </c>
-      <c r="V45" s="2" t="str">
+      <c r="U48" s="2">
+        <v>0</v>
+      </c>
+      <c r="V48" s="2">
+        <v>0</v>
+      </c>
+      <c r="W48" s="2">
+        <v>0</v>
+      </c>
+      <c r="X48" s="2" t="str">
         <f t="shared" si="0"/>
         <v>1,200,0,0,0</v>
       </c>
-      <c r="X45" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y45" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z45" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA45" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB45" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD45" s="4"/>
-    </row>
-    <row r="46" spans="3:30" x14ac:dyDescent="0.2">
-      <c r="C46" s="12">
+      <c r="Z48" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA48" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB48" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC48" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD48" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF48" s="4"/>
+    </row>
+    <row r="49" spans="3:36" x14ac:dyDescent="0.2">
+      <c r="C49" s="12">
         <v>800102</v>
       </c>
-      <c r="D46" s="20" t="s">
+      <c r="D49" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="E46" s="20" t="s">
-        <v>184</v>
-      </c>
-      <c r="F46" s="20" t="s">
-        <v>152</v>
-      </c>
-      <c r="G46" s="3" t="s">
+      <c r="E49" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="F49" s="3">
+        <v>1</v>
+      </c>
+      <c r="G49" s="3"/>
+      <c r="H49" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="H46" s="3"/>
-      <c r="I46" s="3"/>
-      <c r="J46" s="3"/>
-      <c r="K46" s="3"/>
-      <c r="L46" s="2">
-        <v>0</v>
-      </c>
-      <c r="M46" s="2">
+      <c r="I49" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="J49" s="3"/>
+      <c r="K49" s="3"/>
+      <c r="L49" s="3"/>
+      <c r="M49" s="3"/>
+      <c r="N49" s="2">
+        <v>0</v>
+      </c>
+      <c r="O49" s="2">
         <v>5000</v>
       </c>
-      <c r="N46" s="2">
+      <c r="P49" s="2">
         <v>311</v>
       </c>
-      <c r="P46" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q46" s="2">
+      <c r="R49" s="2">
+        <v>0</v>
+      </c>
+      <c r="S49" s="2">
         <v>0.35</v>
       </c>
-      <c r="R46" s="2">
-        <v>0</v>
-      </c>
-      <c r="S46" s="2">
-        <v>0</v>
-      </c>
-      <c r="T46" s="2">
-        <v>0</v>
-      </c>
-      <c r="U46" s="2">
-        <v>0</v>
-      </c>
-      <c r="V46" s="2" t="str">
+      <c r="T49" s="2">
+        <v>0</v>
+      </c>
+      <c r="U49" s="2">
+        <v>0</v>
+      </c>
+      <c r="V49" s="2">
+        <v>0</v>
+      </c>
+      <c r="W49" s="2">
+        <v>0</v>
+      </c>
+      <c r="X49" s="2" t="str">
         <f t="shared" si="0"/>
         <v>0.35,0,0,0,0</v>
       </c>
-      <c r="X46" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y46" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z46" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA46" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB46" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD46" s="4"/>
-    </row>
-    <row r="47" spans="3:30" x14ac:dyDescent="0.2">
-      <c r="C47" s="12">
+      <c r="Z49" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA49" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB49" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC49" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD49" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF49" s="4"/>
+    </row>
+    <row r="50" spans="3:36" x14ac:dyDescent="0.2">
+      <c r="C50" s="12">
         <v>800201</v>
       </c>
-      <c r="D47" s="20" t="s">
+      <c r="D50" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="E50" s="20"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="20"/>
+      <c r="I50" s="3"/>
+      <c r="N50" s="2">
+        <v>0</v>
+      </c>
+      <c r="O50" s="2">
+        <v>10000</v>
+      </c>
+      <c r="P50" s="2">
+        <v>101</v>
+      </c>
+      <c r="R50" s="2">
+        <v>6</v>
+      </c>
+      <c r="S50" s="2">
+        <v>2.4</v>
+      </c>
+      <c r="T50" s="2">
+        <v>0</v>
+      </c>
+      <c r="U50" s="2">
+        <v>0</v>
+      </c>
+      <c r="V50" s="2">
+        <v>0</v>
+      </c>
+      <c r="W50" s="2">
+        <v>0</v>
+      </c>
+      <c r="X50" s="2" t="str">
+        <f t="shared" ref="X50:X54" si="3">S50&amp;","&amp;T50&amp;","&amp;U50&amp;","&amp;V50&amp;","&amp;W50</f>
+        <v>2.4,0,0,0,0</v>
+      </c>
+      <c r="Z50" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB50" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC50" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD50" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF50" s="4"/>
+    </row>
+    <row r="51" spans="3:36" x14ac:dyDescent="0.2">
+      <c r="C51" s="35">
+        <v>800202</v>
+      </c>
+      <c r="D51" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="E47" s="20"/>
-      <c r="F47" s="20"/>
-      <c r="G47" s="3"/>
-      <c r="L47" s="2">
-        <v>0</v>
-      </c>
-      <c r="M47" s="2">
+      <c r="E51" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="F51" s="3">
+        <v>0</v>
+      </c>
+      <c r="G51" s="3"/>
+      <c r="H51" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="I51" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="N51" s="2">
+        <v>0</v>
+      </c>
+      <c r="O51" s="2">
         <v>10000</v>
       </c>
-      <c r="N47" s="2">
-        <v>101</v>
-      </c>
-      <c r="P47" s="2">
-        <v>6</v>
-      </c>
-      <c r="Q47" s="2">
-        <v>2.4</v>
-      </c>
-      <c r="R47" s="2">
-        <v>0</v>
-      </c>
-      <c r="S47" s="2">
-        <v>0</v>
-      </c>
-      <c r="T47" s="2">
-        <v>0</v>
-      </c>
-      <c r="U47" s="2">
-        <v>0</v>
-      </c>
-      <c r="V47" s="2" t="str">
-        <f t="shared" ref="V47:V51" si="3">Q47&amp;","&amp;R47&amp;","&amp;S47&amp;","&amp;T47&amp;","&amp;U47</f>
-        <v>2.4,0,0,0,0</v>
-      </c>
-      <c r="X47" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y47" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z47" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA47" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB47" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD47" s="4"/>
-    </row>
-    <row r="48" spans="3:30" x14ac:dyDescent="0.2">
-      <c r="C48" s="35">
-        <v>800202</v>
-      </c>
-      <c r="D48" s="20" t="s">
-        <v>146</v>
-      </c>
-      <c r="E48" s="20" t="s">
-        <v>185</v>
-      </c>
-      <c r="F48" s="20" t="s">
-        <v>150</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="L48" s="2">
-        <v>0</v>
-      </c>
-      <c r="M48" s="2">
-        <v>10000</v>
-      </c>
-      <c r="N48" s="2">
+      <c r="P51" s="2">
         <v>321</v>
       </c>
-      <c r="P48" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q48" s="2">
+      <c r="R51" s="2">
+        <v>0</v>
+      </c>
+      <c r="S51" s="2">
         <v>0.35</v>
       </c>
-      <c r="R48" s="2">
-        <v>0</v>
-      </c>
-      <c r="S48" s="2">
-        <v>0</v>
-      </c>
-      <c r="T48" s="2">
-        <v>0</v>
-      </c>
-      <c r="U48" s="2">
-        <v>0</v>
-      </c>
-      <c r="V48" s="2" t="str">
+      <c r="T51" s="2">
+        <v>0</v>
+      </c>
+      <c r="U51" s="2">
+        <v>0</v>
+      </c>
+      <c r="V51" s="2">
+        <v>0</v>
+      </c>
+      <c r="W51" s="2">
+        <v>0</v>
+      </c>
+      <c r="X51" s="2" t="str">
         <f t="shared" si="3"/>
         <v>0.35,0,0,0,0</v>
       </c>
-      <c r="X48" s="2">
+      <c r="Z51" s="2">
         <v>1</v>
       </c>
-      <c r="Y48" s="2">
+      <c r="AA51" s="2">
         <v>0.5</v>
       </c>
-      <c r="Z48" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA48" s="2">
+      <c r="AB51" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC51" s="2">
         <v>1</v>
       </c>
-      <c r="AB48" s="2">
+      <c r="AD51" s="2">
         <v>6</v>
       </c>
-      <c r="AC48" s="2">
+      <c r="AE51" s="2">
         <v>100101</v>
       </c>
-      <c r="AD48" s="4"/>
-    </row>
-    <row r="49" spans="3:34" x14ac:dyDescent="0.2">
-      <c r="C49" s="12">
+      <c r="AF51" s="4"/>
+    </row>
+    <row r="52" spans="3:36" x14ac:dyDescent="0.2">
+      <c r="C52" s="12">
         <v>800301</v>
       </c>
-      <c r="D49" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="E49" s="20" t="s">
-        <v>185</v>
-      </c>
-      <c r="F49" s="20" t="s">
+      <c r="D52" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="E52" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3"/>
+      <c r="H52" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="I52" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="L49" s="2">
-        <v>0</v>
-      </c>
-      <c r="M49" s="2">
+      <c r="N52" s="2">
+        <v>0</v>
+      </c>
+      <c r="O52" s="2">
         <v>10000</v>
       </c>
-      <c r="N49" s="2">
+      <c r="P52" s="2">
         <v>321</v>
       </c>
-      <c r="P49" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q49" s="2">
+      <c r="R52" s="2">
+        <v>0</v>
+      </c>
+      <c r="S52" s="2">
         <v>0.5</v>
       </c>
-      <c r="R49" s="2">
-        <v>0</v>
-      </c>
-      <c r="S49" s="2">
-        <v>0</v>
-      </c>
-      <c r="T49" s="2">
-        <v>0</v>
-      </c>
-      <c r="U49" s="2">
-        <v>0</v>
-      </c>
-      <c r="V49" s="2" t="str">
+      <c r="T52" s="2">
+        <v>0</v>
+      </c>
+      <c r="U52" s="2">
+        <v>0</v>
+      </c>
+      <c r="V52" s="2">
+        <v>0</v>
+      </c>
+      <c r="W52" s="2">
+        <v>0</v>
+      </c>
+      <c r="X52" s="2" t="str">
         <f t="shared" si="3"/>
         <v>0.5,0,0,0,0</v>
       </c>
-      <c r="X49" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y49" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z49" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA49" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB49" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD49" s="4"/>
-    </row>
-    <row r="50" spans="3:34" x14ac:dyDescent="0.2">
-      <c r="C50" s="12">
+      <c r="Z52" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA52" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB52" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC52" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD52" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF52" s="4"/>
+    </row>
+    <row r="53" spans="3:36" x14ac:dyDescent="0.2">
+      <c r="C53" s="12">
         <v>800501</v>
       </c>
-      <c r="D50" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="E50" s="20"/>
-      <c r="F50" s="20"/>
-      <c r="G50" s="3"/>
-      <c r="L50" s="2">
-        <v>0</v>
-      </c>
-      <c r="M50" s="2">
+      <c r="D53" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="E53" s="20"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="20"/>
+      <c r="I53" s="3"/>
+      <c r="N53" s="2">
+        <v>0</v>
+      </c>
+      <c r="O53" s="2">
         <v>10000</v>
       </c>
-      <c r="N50" s="2">
+      <c r="P53" s="2">
         <v>101</v>
       </c>
-      <c r="P50" s="2">
+      <c r="R53" s="2">
         <v>1</v>
       </c>
-      <c r="Q50" s="2">
+      <c r="S53" s="2">
         <v>3.6</v>
       </c>
-      <c r="R50" s="2">
-        <v>0</v>
-      </c>
-      <c r="S50" s="2">
-        <v>0</v>
-      </c>
-      <c r="T50" s="2">
-        <v>0</v>
-      </c>
-      <c r="U50" s="2">
-        <v>0</v>
-      </c>
-      <c r="V50" s="2" t="str">
+      <c r="T53" s="2">
+        <v>0</v>
+      </c>
+      <c r="U53" s="2">
+        <v>0</v>
+      </c>
+      <c r="V53" s="2">
+        <v>0</v>
+      </c>
+      <c r="W53" s="2">
+        <v>0</v>
+      </c>
+      <c r="X53" s="2" t="str">
         <f t="shared" si="3"/>
         <v>3.6,0,0,0,0</v>
       </c>
-      <c r="X50" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y50" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z50" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA50" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB50" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD50" s="4"/>
-    </row>
-    <row r="51" spans="3:34" x14ac:dyDescent="0.2">
-      <c r="C51" s="12">
+      <c r="Z53" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB53" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC53" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD53" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF53" s="4"/>
+    </row>
+    <row r="54" spans="3:36" x14ac:dyDescent="0.2">
+      <c r="C54" s="12">
         <v>800502</v>
       </c>
-      <c r="D51" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="E51" s="20"/>
-      <c r="F51" s="20"/>
-      <c r="G51" s="3"/>
-      <c r="L51" s="2">
-        <v>0</v>
-      </c>
-      <c r="M51" s="2">
+      <c r="D54" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="E54" s="20"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="20"/>
+      <c r="I54" s="3"/>
+      <c r="N54" s="2">
+        <v>0</v>
+      </c>
+      <c r="O54" s="2">
         <v>10000</v>
       </c>
-      <c r="N51" s="2">
+      <c r="P54" s="2">
         <v>501</v>
       </c>
-      <c r="P51" s="2">
+      <c r="R54" s="2">
         <v>800502</v>
       </c>
-      <c r="Q51" s="2">
-        <v>0</v>
-      </c>
-      <c r="R51" s="2">
-        <v>0</v>
-      </c>
-      <c r="S51" s="2">
-        <v>0</v>
-      </c>
-      <c r="T51" s="2">
-        <v>0</v>
-      </c>
-      <c r="U51" s="2">
-        <v>0</v>
-      </c>
-      <c r="V51" s="2" t="str">
+      <c r="S54" s="2">
+        <v>0</v>
+      </c>
+      <c r="T54" s="2">
+        <v>0</v>
+      </c>
+      <c r="U54" s="2">
+        <v>0</v>
+      </c>
+      <c r="V54" s="2">
+        <v>0</v>
+      </c>
+      <c r="W54" s="2">
+        <v>0</v>
+      </c>
+      <c r="X54" s="2" t="str">
         <f t="shared" si="3"/>
         <v>0,0,0,0,0</v>
       </c>
-      <c r="X51" s="2">
+      <c r="Z54" s="2">
         <v>1</v>
       </c>
-      <c r="Y51" s="2">
+      <c r="AA54" s="2">
         <v>0.5</v>
       </c>
-      <c r="Z51" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA51" s="2">
+      <c r="AB54" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC54" s="2">
         <v>1</v>
       </c>
-      <c r="AB51" s="2">
+      <c r="AD54" s="2">
         <v>6</v>
       </c>
-      <c r="AD51" s="4"/>
-    </row>
-    <row r="52" spans="3:34" x14ac:dyDescent="0.2">
-      <c r="C52" s="3">
+      <c r="AF54" s="4"/>
+    </row>
+    <row r="55" spans="3:36" x14ac:dyDescent="0.2">
+      <c r="C55" s="3">
         <v>2101101</v>
       </c>
-      <c r="D52" s="20" t="s">
-        <v>169</v>
-      </c>
-      <c r="E52" s="20"/>
-      <c r="F52" s="20"/>
-      <c r="G52" s="3"/>
-      <c r="L52" s="2">
-        <v>0</v>
-      </c>
-      <c r="M52" s="2">
+      <c r="D55" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="E55" s="20"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="20"/>
+      <c r="I55" s="3"/>
+      <c r="N55" s="2">
+        <v>0</v>
+      </c>
+      <c r="O55" s="2">
         <v>10000</v>
       </c>
-      <c r="N52" s="2">
+      <c r="P55" s="2">
         <v>421</v>
       </c>
-      <c r="P52" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q52" s="2">
+      <c r="R55" s="2">
+        <v>0</v>
+      </c>
+      <c r="S55" s="2">
         <v>0.2</v>
       </c>
-      <c r="R52" s="2">
-        <v>0</v>
-      </c>
-      <c r="S52" s="2">
-        <v>0</v>
-      </c>
-      <c r="T52" s="2">
-        <v>0</v>
-      </c>
-      <c r="U52" s="2">
-        <v>0</v>
-      </c>
-      <c r="V52" s="2" t="str">
+      <c r="T55" s="2">
+        <v>0</v>
+      </c>
+      <c r="U55" s="2">
+        <v>0</v>
+      </c>
+      <c r="V55" s="2">
+        <v>0</v>
+      </c>
+      <c r="W55" s="2">
+        <v>0</v>
+      </c>
+      <c r="X55" s="2" t="str">
         <f t="shared" si="0"/>
         <v>0.2,0,0,0,0</v>
       </c>
-      <c r="X52" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y52" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z52" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA52" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB52" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD52" s="4"/>
-      <c r="AH52" s="4"/>
-    </row>
-    <row r="53" spans="3:34" x14ac:dyDescent="0.2">
-      <c r="C53" s="3">
+      <c r="Z55" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA55" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB55" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC55" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD55" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF55" s="4"/>
+      <c r="AJ55" s="4"/>
+    </row>
+    <row r="56" spans="3:36" x14ac:dyDescent="0.2">
+      <c r="C56" s="3">
         <v>2101102</v>
       </c>
-      <c r="D53" s="20" t="s">
-        <v>167</v>
-      </c>
-      <c r="E53" s="20"/>
-      <c r="F53" s="20"/>
-      <c r="G53" s="3"/>
-      <c r="L53" s="2">
-        <v>0</v>
-      </c>
-      <c r="M53" s="2">
+      <c r="D56" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="E56" s="20"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="20"/>
+      <c r="I56" s="3"/>
+      <c r="N56" s="2">
+        <v>0</v>
+      </c>
+      <c r="O56" s="2">
         <v>10000</v>
       </c>
-      <c r="N53" s="2">
+      <c r="P56" s="2">
         <v>501</v>
       </c>
-      <c r="P53" s="2">
+      <c r="R56" s="2">
         <v>100201</v>
       </c>
-      <c r="Q53" s="2">
-        <v>0</v>
-      </c>
-      <c r="R53" s="2">
-        <v>0</v>
-      </c>
-      <c r="S53" s="2">
-        <v>0</v>
-      </c>
-      <c r="T53" s="2">
-        <v>0</v>
-      </c>
-      <c r="U53" s="2">
-        <v>0</v>
-      </c>
-      <c r="V53" s="2" t="str">
+      <c r="S56" s="2">
+        <v>0</v>
+      </c>
+      <c r="T56" s="2">
+        <v>0</v>
+      </c>
+      <c r="U56" s="2">
+        <v>0</v>
+      </c>
+      <c r="V56" s="2">
+        <v>0</v>
+      </c>
+      <c r="W56" s="2">
+        <v>0</v>
+      </c>
+      <c r="X56" s="2" t="str">
         <f t="shared" si="0"/>
         <v>0,0,0,0,0</v>
       </c>
-      <c r="X53" s="2">
+      <c r="Z56" s="2">
         <v>2</v>
       </c>
-      <c r="Y53" s="2">
+      <c r="AA56" s="2">
         <v>3</v>
       </c>
-      <c r="Z53" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA53" s="2">
+      <c r="AB56" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC56" s="2">
         <v>1</v>
       </c>
-      <c r="AB53" s="2">
+      <c r="AD56" s="2">
         <v>2</v>
       </c>
-      <c r="AD53" s="4"/>
-      <c r="AH53" s="4"/>
-    </row>
-    <row r="54" spans="3:34" x14ac:dyDescent="0.2">
-      <c r="C54" s="3">
+      <c r="AF56" s="4"/>
+      <c r="AJ56" s="4"/>
+    </row>
+    <row r="57" spans="3:36" x14ac:dyDescent="0.2">
+      <c r="C57" s="3">
         <v>2101201</v>
       </c>
-      <c r="D54" s="20" t="s">
-        <v>168</v>
-      </c>
-      <c r="E54" s="20"/>
-      <c r="F54" s="20" t="s">
+      <c r="D57" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="E57" s="20"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
+      <c r="H57" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="I57" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="G54" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="L54" s="2">
-        <v>0</v>
-      </c>
-      <c r="M54" s="2">
+      <c r="N57" s="2">
+        <v>0</v>
+      </c>
+      <c r="O57" s="2">
         <v>10000</v>
       </c>
-      <c r="N54" s="2">
+      <c r="P57" s="2">
         <v>701</v>
       </c>
-      <c r="P54" s="2">
+      <c r="R57" s="2">
         <v>3</v>
       </c>
-      <c r="Q54" s="2">
-        <v>0</v>
-      </c>
-      <c r="R54" s="2">
-        <v>0</v>
-      </c>
-      <c r="S54" s="2">
-        <v>0</v>
-      </c>
-      <c r="T54" s="2">
-        <v>0</v>
-      </c>
-      <c r="U54" s="2">
-        <v>0</v>
-      </c>
-      <c r="V54" s="2" t="str">
+      <c r="S57" s="2">
+        <v>0</v>
+      </c>
+      <c r="T57" s="2">
+        <v>0</v>
+      </c>
+      <c r="U57" s="2">
+        <v>0</v>
+      </c>
+      <c r="V57" s="2">
+        <v>0</v>
+      </c>
+      <c r="W57" s="2">
+        <v>0</v>
+      </c>
+      <c r="X57" s="2" t="str">
         <f t="shared" si="0"/>
         <v>0,0,0,0,0</v>
       </c>
-      <c r="X54" s="2">
+      <c r="Z57" s="2">
         <v>1</v>
       </c>
-      <c r="Y54" s="2">
+      <c r="AA57" s="2">
         <v>0.5</v>
       </c>
-      <c r="Z54" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA54" s="2">
+      <c r="AB57" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC57" s="2">
         <v>1</v>
       </c>
-      <c r="AB54" s="2">
+      <c r="AD57" s="2">
         <v>6</v>
       </c>
-      <c r="AD54" s="4"/>
-      <c r="AH54" s="4"/>
-    </row>
-    <row r="55" spans="3:34" x14ac:dyDescent="0.2">
-      <c r="C55" s="3">
+      <c r="AF57" s="4"/>
+      <c r="AJ57" s="4"/>
+    </row>
+    <row r="58" spans="3:36" x14ac:dyDescent="0.2">
+      <c r="C58" s="3">
         <v>2201101</v>
       </c>
-      <c r="D55" s="20" t="s">
-        <v>174</v>
-      </c>
-      <c r="E55" s="20"/>
-      <c r="F55" s="20"/>
-      <c r="G55" s="3"/>
-      <c r="L55" s="2">
-        <v>0</v>
-      </c>
-      <c r="M55" s="2">
+      <c r="D58" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="E58" s="20"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="20"/>
+      <c r="I58" s="3"/>
+      <c r="N58" s="2">
+        <v>0</v>
+      </c>
+      <c r="O58" s="2">
         <v>10000</v>
       </c>
-      <c r="N55" s="2">
+      <c r="P58" s="2">
         <v>501</v>
       </c>
-      <c r="P55" s="2">
+      <c r="R58" s="2">
         <v>200101</v>
       </c>
-      <c r="Q55" s="2">
-        <v>0</v>
-      </c>
-      <c r="R55" s="2">
-        <v>0</v>
-      </c>
-      <c r="S55" s="2">
-        <v>0</v>
-      </c>
-      <c r="T55" s="2">
-        <v>0</v>
-      </c>
-      <c r="U55" s="2">
-        <v>0</v>
-      </c>
-      <c r="V55" s="2" t="str">
+      <c r="S58" s="2">
+        <v>0</v>
+      </c>
+      <c r="T58" s="2">
+        <v>0</v>
+      </c>
+      <c r="U58" s="2">
+        <v>0</v>
+      </c>
+      <c r="V58" s="2">
+        <v>0</v>
+      </c>
+      <c r="W58" s="2">
+        <v>0</v>
+      </c>
+      <c r="X58" s="2" t="str">
         <f t="shared" si="0"/>
         <v>0,0,0,0,0</v>
       </c>
-      <c r="X55" s="2">
+      <c r="Z58" s="2">
         <v>1</v>
       </c>
-      <c r="Y55" s="2">
+      <c r="AA58" s="2">
         <v>3</v>
       </c>
-      <c r="Z55" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA55" s="2">
+      <c r="AB58" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC58" s="2">
         <v>1</v>
       </c>
-      <c r="AB55" s="2">
+      <c r="AD58" s="2">
         <v>5</v>
       </c>
-      <c r="AD55" s="4"/>
-      <c r="AH55" s="4"/>
-    </row>
-    <row r="56" spans="3:34" x14ac:dyDescent="0.2">
-      <c r="C56" s="9">
+      <c r="AF58" s="4"/>
+      <c r="AJ58" s="4"/>
+    </row>
+    <row r="59" spans="3:36" x14ac:dyDescent="0.2">
+      <c r="C59" s="9">
         <v>2201102</v>
       </c>
-      <c r="D56" s="21" t="s">
-        <v>175</v>
-      </c>
-      <c r="E56" s="21"/>
-      <c r="F56" s="21"/>
-      <c r="G56" s="9"/>
-      <c r="H56" s="10"/>
-      <c r="I56" s="10"/>
-      <c r="J56" s="10"/>
-      <c r="K56" s="10"/>
-      <c r="L56" s="10">
-        <v>0</v>
-      </c>
-      <c r="M56" s="10">
+      <c r="D59" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="E59" s="21"/>
+      <c r="F59" s="9"/>
+      <c r="G59" s="9"/>
+      <c r="H59" s="21"/>
+      <c r="I59" s="9"/>
+      <c r="J59" s="10"/>
+      <c r="K59" s="10"/>
+      <c r="L59" s="10"/>
+      <c r="M59" s="10"/>
+      <c r="N59" s="10">
+        <v>0</v>
+      </c>
+      <c r="O59" s="10">
         <v>10000</v>
       </c>
-      <c r="N56" s="10">
+      <c r="P59" s="10">
         <v>501</v>
       </c>
-      <c r="O56" s="10"/>
-      <c r="P56" s="10">
+      <c r="Q59" s="10"/>
+      <c r="R59" s="10">
         <v>200102</v>
       </c>
-      <c r="Q56" s="10">
-        <v>0</v>
-      </c>
-      <c r="R56" s="10">
-        <v>0</v>
-      </c>
-      <c r="S56" s="10">
-        <v>0</v>
-      </c>
-      <c r="T56" s="10">
-        <v>0</v>
-      </c>
-      <c r="U56" s="10">
-        <v>0</v>
-      </c>
-      <c r="V56" s="2" t="str">
+      <c r="S59" s="10">
+        <v>0</v>
+      </c>
+      <c r="T59" s="10">
+        <v>0</v>
+      </c>
+      <c r="U59" s="10">
+        <v>0</v>
+      </c>
+      <c r="V59" s="10">
+        <v>0</v>
+      </c>
+      <c r="W59" s="10">
+        <v>0</v>
+      </c>
+      <c r="X59" s="2" t="str">
         <f t="shared" si="0"/>
         <v>0,0,0,0,0</v>
       </c>
-      <c r="W56" s="10"/>
-      <c r="X56" s="10">
+      <c r="Y59" s="10"/>
+      <c r="Z59" s="10">
         <v>1</v>
       </c>
-      <c r="Y56" s="10">
+      <c r="AA59" s="10">
         <v>0.5</v>
       </c>
-      <c r="Z56" s="10">
-        <v>0</v>
-      </c>
-      <c r="AA56" s="10">
+      <c r="AB59" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC59" s="10">
         <v>1</v>
       </c>
-      <c r="AB56" s="10">
+      <c r="AD59" s="10">
         <v>6</v>
       </c>
-      <c r="AC56" s="10"/>
-      <c r="AD56" s="11"/>
-      <c r="AH56" s="4"/>
-    </row>
-    <row r="57" spans="3:34" x14ac:dyDescent="0.2">
-      <c r="C57" s="3">
+      <c r="AE59" s="10"/>
+      <c r="AF59" s="11"/>
+      <c r="AJ59" s="4"/>
+    </row>
+    <row r="60" spans="3:36" x14ac:dyDescent="0.2">
+      <c r="C60" s="3">
         <v>2201201</v>
       </c>
-      <c r="D57" s="20" t="s">
-        <v>186</v>
-      </c>
-      <c r="E57" s="20"/>
-      <c r="F57" s="20"/>
-      <c r="G57" s="3"/>
-      <c r="L57" s="2">
-        <v>0</v>
-      </c>
-      <c r="M57" s="2">
+      <c r="D60" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="E60" s="20"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="20"/>
+      <c r="I60" s="3"/>
+      <c r="N60" s="2">
+        <v>0</v>
+      </c>
+      <c r="O60" s="2">
         <v>10000</v>
       </c>
-      <c r="N57" s="2">
+      <c r="P60" s="2">
         <v>501</v>
       </c>
-      <c r="P57" s="2">
+      <c r="R60" s="2">
         <v>200201</v>
       </c>
-      <c r="Q57" s="2">
-        <v>0</v>
-      </c>
-      <c r="R57" s="2">
-        <v>0</v>
-      </c>
-      <c r="S57" s="2">
-        <v>0</v>
-      </c>
-      <c r="T57" s="2">
-        <v>0</v>
-      </c>
-      <c r="U57" s="2">
-        <v>0</v>
-      </c>
-      <c r="V57" s="2" t="str">
+      <c r="S60" s="2">
+        <v>0</v>
+      </c>
+      <c r="T60" s="2">
+        <v>0</v>
+      </c>
+      <c r="U60" s="2">
+        <v>0</v>
+      </c>
+      <c r="V60" s="2">
+        <v>0</v>
+      </c>
+      <c r="W60" s="2">
+        <v>0</v>
+      </c>
+      <c r="X60" s="2" t="str">
         <f t="shared" si="0"/>
         <v>0,0,0,0,0</v>
       </c>
-      <c r="X57" s="2">
+      <c r="Z60" s="2">
         <v>2</v>
       </c>
-      <c r="Y57" s="2">
+      <c r="AA60" s="2">
         <v>2</v>
       </c>
-      <c r="Z57" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA57" s="2">
+      <c r="AB60" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC60" s="2">
         <v>1</v>
       </c>
-      <c r="AB57" s="2">
+      <c r="AD60" s="2">
         <v>5</v>
       </c>
-      <c r="AD57" s="4"/>
-      <c r="AE57" s="10"/>
-      <c r="AF57" s="10"/>
-      <c r="AG57" s="10"/>
-      <c r="AH57" s="11"/>
-    </row>
-    <row r="58" spans="3:34" x14ac:dyDescent="0.2">
-      <c r="C58" s="3">
+      <c r="AF60" s="4"/>
+      <c r="AG60" s="10"/>
+      <c r="AH60" s="10"/>
+      <c r="AI60" s="10"/>
+      <c r="AJ60" s="11"/>
+    </row>
+    <row r="61" spans="3:36" x14ac:dyDescent="0.2">
+      <c r="C61" s="3">
         <v>2201202</v>
       </c>
-      <c r="D58" s="20" t="s">
+      <c r="D61" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="E61" s="20"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="3"/>
+      <c r="H61" s="20"/>
+      <c r="I61" s="3"/>
+      <c r="N61" s="2">
+        <v>0</v>
+      </c>
+      <c r="O61" s="2">
+        <v>10000</v>
+      </c>
+      <c r="P61" s="2">
+        <v>102</v>
+      </c>
+      <c r="R61" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="E58" s="20"/>
-      <c r="F58" s="20"/>
-      <c r="G58" s="3"/>
-      <c r="L58" s="2">
-        <v>0</v>
-      </c>
-      <c r="M58" s="2">
-        <v>10000</v>
-      </c>
-      <c r="N58" s="2">
-        <v>102</v>
-      </c>
-      <c r="P58" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q58" s="2">
+      <c r="S61" s="2">
         <v>0.02</v>
       </c>
-      <c r="R58" s="2">
-        <v>0</v>
-      </c>
-      <c r="S58" s="2">
-        <v>0</v>
-      </c>
-      <c r="T58" s="2">
-        <v>0</v>
-      </c>
-      <c r="U58" s="2">
-        <v>0</v>
-      </c>
-      <c r="V58" s="2" t="str">
+      <c r="T61" s="2">
+        <v>0</v>
+      </c>
+      <c r="U61" s="2">
+        <v>0</v>
+      </c>
+      <c r="V61" s="2">
+        <v>0</v>
+      </c>
+      <c r="W61" s="2">
+        <v>0</v>
+      </c>
+      <c r="X61" s="2" t="str">
         <f t="shared" si="0"/>
         <v>0.02,0,0,0,0</v>
       </c>
-      <c r="X58" s="2">
+      <c r="Z61" s="2">
         <v>2</v>
       </c>
-      <c r="Y58" s="2">
+      <c r="AA61" s="2">
         <v>0.5</v>
       </c>
-      <c r="Z58" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA58" s="2">
+      <c r="AB61" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC61" s="2">
         <v>1</v>
       </c>
-      <c r="AB58" s="2">
+      <c r="AD61" s="2">
         <v>6</v>
       </c>
-      <c r="AC58" s="2">
+      <c r="AE61" s="2">
         <v>200101</v>
       </c>
-      <c r="AD58" s="4"/>
-    </row>
-    <row r="59" spans="3:34" x14ac:dyDescent="0.2">
-      <c r="C59" s="9">
+      <c r="AF61" s="4"/>
+    </row>
+    <row r="62" spans="3:36" x14ac:dyDescent="0.2">
+      <c r="C62" s="9">
         <v>2301101</v>
       </c>
-      <c r="D59" s="21" t="s">
-        <v>189</v>
-      </c>
-      <c r="E59" s="21"/>
-      <c r="F59" s="21"/>
-      <c r="G59" s="9"/>
-      <c r="H59" s="10"/>
-      <c r="I59" s="10"/>
-      <c r="J59" s="10"/>
-      <c r="K59" s="10"/>
-      <c r="L59" s="10">
-        <v>0</v>
-      </c>
-      <c r="M59" s="10">
+      <c r="D62" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="E62" s="21"/>
+      <c r="F62" s="9"/>
+      <c r="G62" s="9"/>
+      <c r="H62" s="21"/>
+      <c r="I62" s="9"/>
+      <c r="J62" s="10"/>
+      <c r="K62" s="10"/>
+      <c r="L62" s="10"/>
+      <c r="M62" s="10"/>
+      <c r="N62" s="10">
+        <v>0</v>
+      </c>
+      <c r="O62" s="10">
         <v>10000</v>
       </c>
-      <c r="N59" s="10">
+      <c r="P62" s="10">
         <v>802</v>
       </c>
-      <c r="O59" s="10"/>
-      <c r="P59" s="10">
+      <c r="Q62" s="10"/>
+      <c r="R62" s="10">
         <v>4</v>
       </c>
-      <c r="Q59" s="10">
+      <c r="S62" s="10">
         <v>3</v>
       </c>
-      <c r="R59" s="10">
-        <v>0</v>
-      </c>
-      <c r="S59" s="10">
-        <v>0</v>
-      </c>
-      <c r="T59" s="10">
-        <v>0</v>
-      </c>
-      <c r="U59" s="10">
-        <v>0</v>
-      </c>
-      <c r="V59" s="2" t="str">
+      <c r="T62" s="10">
+        <v>0</v>
+      </c>
+      <c r="U62" s="10">
+        <v>0</v>
+      </c>
+      <c r="V62" s="10">
+        <v>0</v>
+      </c>
+      <c r="W62" s="10">
+        <v>0</v>
+      </c>
+      <c r="X62" s="2" t="str">
         <f t="shared" si="0"/>
         <v>3,0,0,0,0</v>
       </c>
-      <c r="W59" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="X59" s="10">
+      <c r="Y62" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="Z62" s="10">
         <v>1</v>
       </c>
-      <c r="Y59" s="10">
+      <c r="AA62" s="10">
         <v>0.5</v>
       </c>
-      <c r="Z59" s="10">
-        <v>0</v>
-      </c>
-      <c r="AA59" s="10">
+      <c r="AB62" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC62" s="10">
         <v>1</v>
       </c>
-      <c r="AB59" s="10">
+      <c r="AD62" s="10">
         <v>6</v>
       </c>
-      <c r="AC59" s="10"/>
-      <c r="AD59" s="11"/>
-    </row>
-    <row r="60" spans="3:34" x14ac:dyDescent="0.2">
-      <c r="C60" s="3">
+      <c r="AE62" s="10"/>
+      <c r="AF62" s="11"/>
+    </row>
+    <row r="63" spans="3:36" x14ac:dyDescent="0.2">
+      <c r="C63" s="3">
         <v>2301201</v>
       </c>
-      <c r="D60" s="20" t="s">
-        <v>190</v>
-      </c>
-      <c r="E60" s="20" t="s">
-        <v>182</v>
-      </c>
-      <c r="F60" s="20"/>
-      <c r="G60" s="3"/>
-      <c r="L60" s="2">
-        <v>0</v>
-      </c>
-      <c r="M60" s="2">
+      <c r="D63" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="E63" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="F63" s="3">
+        <v>1</v>
+      </c>
+      <c r="G63" s="3"/>
+      <c r="H63" s="20"/>
+      <c r="I63" s="3"/>
+      <c r="N63" s="2">
+        <v>0</v>
+      </c>
+      <c r="O63" s="2">
         <v>10000</v>
       </c>
-      <c r="N60" s="2">
+      <c r="P63" s="2">
         <v>401</v>
       </c>
-      <c r="P60" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q60" s="2">
+      <c r="R63" s="2">
+        <v>0</v>
+      </c>
+      <c r="S63" s="2">
         <v>0.5</v>
       </c>
-      <c r="R60" s="2">
-        <v>0</v>
-      </c>
-      <c r="S60" s="2">
-        <v>0</v>
-      </c>
-      <c r="T60" s="2">
-        <v>0</v>
-      </c>
-      <c r="U60" s="2">
-        <v>0</v>
-      </c>
-      <c r="V60" s="2" t="str">
+      <c r="T63" s="2">
+        <v>0</v>
+      </c>
+      <c r="U63" s="2">
+        <v>0</v>
+      </c>
+      <c r="V63" s="2">
+        <v>0</v>
+      </c>
+      <c r="W63" s="2">
+        <v>0</v>
+      </c>
+      <c r="X63" s="2" t="str">
         <f t="shared" si="0"/>
         <v>0.5,0,0,0,0</v>
       </c>
-      <c r="X60" s="2">
+      <c r="Z63" s="2">
         <v>2</v>
       </c>
-      <c r="Y60" s="2">
+      <c r="AA63" s="2">
         <v>8</v>
       </c>
-      <c r="Z60" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA60" s="2">
+      <c r="AB63" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC63" s="2">
         <v>1</v>
       </c>
-      <c r="AB60" s="2">
+      <c r="AD63" s="2">
         <v>5</v>
       </c>
-      <c r="AD60" s="4"/>
-    </row>
-    <row r="61" spans="3:34" x14ac:dyDescent="0.2">
-      <c r="C61" s="9">
+      <c r="AF63" s="4"/>
+    </row>
+    <row r="64" spans="3:36" x14ac:dyDescent="0.2">
+      <c r="C64" s="9">
         <v>2801101</v>
       </c>
-      <c r="D61" s="21" t="s">
-        <v>197</v>
-      </c>
-      <c r="E61" s="21" t="s">
-        <v>199</v>
-      </c>
-      <c r="F61" s="21"/>
-      <c r="G61" s="9"/>
-      <c r="H61" s="10"/>
-      <c r="I61" s="10"/>
-      <c r="J61" s="10"/>
-      <c r="K61" s="10"/>
-      <c r="L61" s="10">
-        <v>0</v>
-      </c>
-      <c r="M61" s="10">
+      <c r="D64" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="E64" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="F64" s="9"/>
+      <c r="G64" s="9"/>
+      <c r="H64" s="21"/>
+      <c r="I64" s="9"/>
+      <c r="J64" s="10"/>
+      <c r="K64" s="10"/>
+      <c r="L64" s="10"/>
+      <c r="M64" s="10"/>
+      <c r="N64" s="10">
+        <v>0</v>
+      </c>
+      <c r="O64" s="10">
         <v>10000</v>
       </c>
-      <c r="N61" s="10">
+      <c r="P64" s="10">
         <v>901</v>
       </c>
-      <c r="O61" s="10"/>
-      <c r="P61" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q61" s="10">
-        <v>0</v>
-      </c>
-      <c r="R61" s="10">
-        <v>0</v>
-      </c>
-      <c r="S61" s="10">
-        <v>0</v>
-      </c>
-      <c r="T61" s="10">
-        <v>0</v>
-      </c>
-      <c r="U61" s="10">
-        <v>0</v>
-      </c>
-      <c r="V61" s="2" t="str">
+      <c r="Q64" s="10"/>
+      <c r="R64" s="10">
+        <v>0</v>
+      </c>
+      <c r="S64" s="10">
+        <v>0</v>
+      </c>
+      <c r="T64" s="10">
+        <v>0</v>
+      </c>
+      <c r="U64" s="10">
+        <v>0</v>
+      </c>
+      <c r="V64" s="10">
+        <v>0</v>
+      </c>
+      <c r="W64" s="10">
+        <v>0</v>
+      </c>
+      <c r="X64" s="2" t="str">
         <f t="shared" si="0"/>
         <v>0,0,0,0,0</v>
       </c>
-      <c r="W61" s="10"/>
-      <c r="X61" s="10">
+      <c r="Y64" s="10"/>
+      <c r="Z64" s="10">
         <v>1</v>
       </c>
-      <c r="Y61" s="10">
+      <c r="AA64" s="10">
         <v>0.5</v>
       </c>
-      <c r="Z61" s="10">
-        <v>0</v>
-      </c>
-      <c r="AA61" s="10">
+      <c r="AB64" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC64" s="10">
         <v>1</v>
       </c>
-      <c r="AB61" s="10">
+      <c r="AD64" s="10">
         <v>6</v>
       </c>
-      <c r="AC61" s="10"/>
-      <c r="AD61" s="11"/>
-    </row>
-    <row r="62" spans="3:34" x14ac:dyDescent="0.2">
-      <c r="C62" s="3">
+      <c r="AE64" s="10"/>
+      <c r="AF64" s="11"/>
+    </row>
+    <row r="65" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="C65" s="3">
         <v>2801201</v>
       </c>
-      <c r="D62" s="20" t="s">
-        <v>198</v>
-      </c>
-      <c r="E62" s="20" t="s">
-        <v>185</v>
-      </c>
-      <c r="F62" s="20" t="s">
-        <v>200</v>
-      </c>
-      <c r="G62" s="3" t="s">
+      <c r="D65" s="20" t="s">
+        <v>197</v>
+      </c>
+      <c r="E65" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="F65" s="3">
+        <v>0</v>
+      </c>
+      <c r="G65" s="3"/>
+      <c r="H65" s="20" t="s">
+        <v>199</v>
+      </c>
+      <c r="I65" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="L62" s="2">
-        <v>0</v>
-      </c>
-      <c r="M62" s="2">
+      <c r="N65" s="2">
+        <v>0</v>
+      </c>
+      <c r="O65" s="2">
         <v>10000</v>
       </c>
-      <c r="N62" s="2">
+      <c r="P65" s="2">
         <v>321</v>
       </c>
-      <c r="P62" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q62" s="2">
+      <c r="R65" s="2">
+        <v>0</v>
+      </c>
+      <c r="S65" s="2">
         <v>0.35</v>
       </c>
-      <c r="R62" s="2">
-        <v>0</v>
-      </c>
-      <c r="S62" s="2">
-        <v>0</v>
-      </c>
-      <c r="T62" s="2">
-        <v>0</v>
-      </c>
-      <c r="U62" s="2">
-        <v>0</v>
-      </c>
-      <c r="V62" s="2" t="str">
+      <c r="T65" s="2">
+        <v>0</v>
+      </c>
+      <c r="U65" s="2">
+        <v>0</v>
+      </c>
+      <c r="V65" s="2">
+        <v>0</v>
+      </c>
+      <c r="W65" s="2">
+        <v>0</v>
+      </c>
+      <c r="X65" s="2" t="str">
         <f t="shared" si="0"/>
         <v>0.35,0,0,0,0</v>
       </c>
-      <c r="X62" s="2">
+      <c r="Z65" s="2">
         <v>1</v>
       </c>
-      <c r="Y62" s="2">
+      <c r="AA65" s="2">
         <v>0.5</v>
       </c>
-      <c r="Z62" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA62" s="2">
+      <c r="AB65" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC65" s="2">
         <v>1</v>
       </c>
-      <c r="AB62" s="2">
+      <c r="AD65" s="2">
         <v>6</v>
       </c>
-      <c r="AD62" s="4"/>
-    </row>
-    <row r="63" spans="3:34" x14ac:dyDescent="0.2">
-      <c r="C63" s="3">
+      <c r="AF65" s="4"/>
+    </row>
+    <row r="66" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="C66" s="3">
         <v>400111</v>
       </c>
-      <c r="D63" s="20" t="s">
+      <c r="D66" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="E63" s="20"/>
-      <c r="F63" s="20" t="s">
+      <c r="E66" s="20"/>
+      <c r="F66" s="3"/>
+      <c r="G66" s="3"/>
+      <c r="H66" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="G63" s="3" t="s">
+      <c r="I66" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="H63" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="I63" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="J63" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="K63" s="3"/>
-      <c r="L63" s="2">
-        <v>0</v>
-      </c>
-      <c r="M63" s="2">
-        <v>10000</v>
-      </c>
-      <c r="N63" s="2">
-        <v>101</v>
-      </c>
-      <c r="P63" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q63" s="2">
-        <v>1</v>
-      </c>
-      <c r="R63" s="2">
-        <v>200</v>
-      </c>
-      <c r="S63" s="2">
-        <v>0</v>
-      </c>
-      <c r="T63" s="2">
-        <v>0</v>
-      </c>
-      <c r="U63" s="2">
-        <v>0</v>
-      </c>
-      <c r="V63" s="2" t="str">
-        <f>Q63&amp;","&amp;R63&amp;","&amp;S63&amp;","&amp;T63&amp;","&amp;U63</f>
-        <v>1,200,0,0,0</v>
-      </c>
-      <c r="X63" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y63" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z63" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA63" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB63" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD63" s="4"/>
-    </row>
-    <row r="64" spans="3:34" x14ac:dyDescent="0.2">
-      <c r="C64" s="3">
-        <v>400201</v>
-      </c>
-      <c r="D64" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="E64" s="20"/>
-      <c r="F64" s="20"/>
-      <c r="G64" s="3"/>
-      <c r="L64" s="2">
-        <v>0</v>
-      </c>
-      <c r="M64" s="2">
-        <v>10000</v>
-      </c>
-      <c r="N64" s="2">
-        <v>101</v>
-      </c>
-      <c r="P64" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q64" s="2">
-        <v>8</v>
-      </c>
-      <c r="R64" s="2">
-        <v>0</v>
-      </c>
-      <c r="S64" s="2">
-        <v>0</v>
-      </c>
-      <c r="T64" s="2">
-        <v>0</v>
-      </c>
-      <c r="U64" s="2">
-        <v>0</v>
-      </c>
-      <c r="V64" s="2" t="str">
-        <f>Q64&amp;","&amp;R64&amp;","&amp;S64&amp;","&amp;T64&amp;","&amp;U64</f>
-        <v>8,0,0,0,0</v>
-      </c>
-      <c r="X64" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y64" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z64" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA64" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB64" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD64" s="4"/>
-    </row>
-    <row r="65" spans="3:30" x14ac:dyDescent="0.2">
-      <c r="C65" s="3">
-        <v>500111</v>
-      </c>
-      <c r="D65" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="E65" s="20"/>
-      <c r="F65" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="G65" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="H65" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="I65" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="J65" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="K65" s="3"/>
-      <c r="L65" s="2">
-        <v>0</v>
-      </c>
-      <c r="M65" s="2">
-        <v>10000</v>
-      </c>
-      <c r="N65" s="2">
-        <v>101</v>
-      </c>
-      <c r="P65" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q65" s="2">
-        <v>1</v>
-      </c>
-      <c r="R65" s="2">
-        <v>200</v>
-      </c>
-      <c r="S65" s="2">
-        <v>0</v>
-      </c>
-      <c r="T65" s="2">
-        <v>0</v>
-      </c>
-      <c r="U65" s="2">
-        <v>0</v>
-      </c>
-      <c r="V65" s="2" t="str">
-        <f>Q65&amp;","&amp;R65&amp;","&amp;S65&amp;","&amp;T65&amp;","&amp;U65</f>
-        <v>1,200,0,0,0</v>
-      </c>
-      <c r="X65" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y65" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z65" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA65" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB65" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD65" s="4"/>
-    </row>
-    <row r="66" spans="3:30" x14ac:dyDescent="0.2">
-      <c r="C66" s="3">
-        <v>600111</v>
-      </c>
-      <c r="D66" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="E66" s="20"/>
-      <c r="F66" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="H66" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>60</v>
       </c>
       <c r="J66" s="3">
         <v>0.2</v>
       </c>
-      <c r="K66" s="3"/>
-      <c r="L66" s="2">
-        <v>0</v>
-      </c>
-      <c r="M66" s="2">
+      <c r="K66" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L66" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="M66" s="3"/>
+      <c r="N66" s="2">
+        <v>0</v>
+      </c>
+      <c r="O66" s="2">
         <v>10000</v>
       </c>
-      <c r="N66" s="2">
+      <c r="P66" s="2">
         <v>101</v>
       </c>
-      <c r="P66" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q66" s="2">
+      <c r="R66" s="2">
+        <v>0</v>
+      </c>
+      <c r="S66" s="2">
         <v>1</v>
       </c>
-      <c r="R66" s="2">
+      <c r="T66" s="2">
         <v>200</v>
       </c>
-      <c r="S66" s="2">
-        <v>0</v>
-      </c>
-      <c r="T66" s="2">
-        <v>0</v>
-      </c>
       <c r="U66" s="2">
         <v>0</v>
       </c>
-      <c r="V66" s="2" t="str">
-        <f>Q66&amp;","&amp;R66&amp;","&amp;S66&amp;","&amp;T66&amp;","&amp;U66</f>
+      <c r="V66" s="2">
+        <v>0</v>
+      </c>
+      <c r="W66" s="2">
+        <v>0</v>
+      </c>
+      <c r="X66" s="2" t="str">
+        <f t="shared" ref="X66:X73" si="4">S66&amp;","&amp;T66&amp;","&amp;U66&amp;","&amp;V66&amp;","&amp;W66</f>
         <v>1,200,0,0,0</v>
       </c>
-      <c r="X66" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y66" s="2">
-        <v>0</v>
-      </c>
       <c r="Z66" s="2">
         <v>0</v>
       </c>
@@ -6455,117 +6691,567 @@
       <c r="AB66" s="2">
         <v>0</v>
       </c>
-      <c r="AD66" s="4"/>
-    </row>
-    <row r="67" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AC66" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD66" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF66" s="4"/>
+    </row>
+    <row r="67" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C67" s="3">
+        <v>400201</v>
+      </c>
+      <c r="D67" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="E67" s="20"/>
+      <c r="F67" s="3"/>
+      <c r="G67" s="3"/>
+      <c r="H67" s="20"/>
+      <c r="I67" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="J67" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="K67" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L67" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="N67" s="2">
+        <v>0</v>
+      </c>
+      <c r="O67" s="2">
+        <v>10000</v>
+      </c>
+      <c r="P67" s="2">
+        <v>101</v>
+      </c>
+      <c r="R67" s="2">
+        <v>0</v>
+      </c>
+      <c r="S67" s="2">
+        <v>8</v>
+      </c>
+      <c r="T67" s="2">
+        <v>0</v>
+      </c>
+      <c r="U67" s="2">
+        <v>0</v>
+      </c>
+      <c r="V67" s="2">
+        <v>0</v>
+      </c>
+      <c r="W67" s="2">
+        <v>0</v>
+      </c>
+      <c r="X67" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>8,0,0,0,0</v>
+      </c>
+      <c r="Z67" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA67" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB67" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC67" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD67" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF67" s="4"/>
+    </row>
+    <row r="68" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="C68" s="3">
+        <v>500111</v>
+      </c>
+      <c r="D68" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="E68" s="20"/>
+      <c r="F68" s="3"/>
+      <c r="G68" s="3"/>
+      <c r="H68" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="I68" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="J68" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="K68" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L68" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="M68" s="3"/>
+      <c r="N68" s="2">
+        <v>0</v>
+      </c>
+      <c r="O68" s="2">
+        <v>10000</v>
+      </c>
+      <c r="P68" s="2">
+        <v>101</v>
+      </c>
+      <c r="R68" s="2">
+        <v>0</v>
+      </c>
+      <c r="S68" s="2">
+        <v>1</v>
+      </c>
+      <c r="T68" s="2">
+        <v>200</v>
+      </c>
+      <c r="U68" s="2">
+        <v>0</v>
+      </c>
+      <c r="V68" s="2">
+        <v>0</v>
+      </c>
+      <c r="W68" s="2">
+        <v>0</v>
+      </c>
+      <c r="X68" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>1,200,0,0,0</v>
+      </c>
+      <c r="Z68" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB68" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC68" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD68" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF68" s="4"/>
+    </row>
+    <row r="69" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="C69" s="3">
+        <v>600111</v>
+      </c>
+      <c r="D69" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="E69" s="20"/>
+      <c r="F69" s="3"/>
+      <c r="G69" s="3"/>
+      <c r="H69" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="I69" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="J69" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="K69" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L69" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="M69" s="3"/>
+      <c r="N69" s="2">
+        <v>0</v>
+      </c>
+      <c r="O69" s="2">
+        <v>10000</v>
+      </c>
+      <c r="P69" s="2">
+        <v>101</v>
+      </c>
+      <c r="R69" s="2">
+        <v>0</v>
+      </c>
+      <c r="S69" s="2">
+        <v>1</v>
+      </c>
+      <c r="T69" s="2">
+        <v>200</v>
+      </c>
+      <c r="U69" s="2">
+        <v>0</v>
+      </c>
+      <c r="V69" s="2">
+        <v>0</v>
+      </c>
+      <c r="W69" s="2">
+        <v>0</v>
+      </c>
+      <c r="X69" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>1,200,0,0,0</v>
+      </c>
+      <c r="Z69" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB69" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC69" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD69" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF69" s="4"/>
+    </row>
+    <row r="70" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="C70" s="3">
         <v>900111</v>
       </c>
-      <c r="D67" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="E67" s="20"/>
-      <c r="F67" s="20" t="s">
+      <c r="D70" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="E70" s="20"/>
+      <c r="F70" s="3"/>
+      <c r="G70" s="3"/>
+      <c r="H70" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="G67" s="3" t="s">
+      <c r="I70" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="H67" s="3">
+      <c r="J70" s="3">
         <v>0.2</v>
       </c>
-      <c r="I67" s="3" t="s">
+      <c r="K70" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="J67" s="3">
+      <c r="L70" s="3">
         <v>0.2</v>
       </c>
-      <c r="K67" s="3"/>
-      <c r="L67" s="2">
-        <v>0</v>
-      </c>
-      <c r="M67" s="2">
+      <c r="M70" s="3"/>
+      <c r="N70" s="2">
+        <v>0</v>
+      </c>
+      <c r="O70" s="2">
         <v>10000</v>
       </c>
-      <c r="N67" s="2">
+      <c r="P70" s="2">
         <v>101</v>
       </c>
-      <c r="P67" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q67" s="2">
+      <c r="R70" s="2">
+        <v>0</v>
+      </c>
+      <c r="S70" s="2">
         <v>1</v>
       </c>
-      <c r="R67" s="2">
+      <c r="T70" s="2">
         <v>200</v>
       </c>
-      <c r="S67" s="2">
-        <v>0</v>
-      </c>
-      <c r="T67" s="2">
-        <v>0</v>
-      </c>
-      <c r="U67" s="2">
-        <v>0</v>
-      </c>
-      <c r="V67" s="2" t="str">
-        <f>Q67&amp;","&amp;R67&amp;","&amp;S67&amp;","&amp;T67&amp;","&amp;U67</f>
+      <c r="U70" s="2">
+        <v>0</v>
+      </c>
+      <c r="V70" s="2">
+        <v>0</v>
+      </c>
+      <c r="W70" s="2">
+        <v>0</v>
+      </c>
+      <c r="X70" s="2" t="str">
+        <f t="shared" si="4"/>
         <v>1,200,0,0,0</v>
       </c>
-      <c r="X67" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y67" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z67" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA67" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB67" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD67" s="4"/>
-    </row>
-    <row r="68" spans="3:30" x14ac:dyDescent="0.2">
-      <c r="C68" s="3"/>
-      <c r="D68" s="20"/>
-      <c r="E68" s="20"/>
-      <c r="F68" s="20"/>
-      <c r="G68" s="3"/>
-      <c r="AD68" s="4"/>
-    </row>
-    <row r="69" spans="3:30" x14ac:dyDescent="0.2">
-      <c r="C69" s="9"/>
-      <c r="D69" s="21"/>
-      <c r="E69" s="21"/>
-      <c r="F69" s="21"/>
-      <c r="G69" s="9"/>
-      <c r="H69" s="10"/>
-      <c r="I69" s="10"/>
-      <c r="J69" s="10"/>
-      <c r="K69" s="10"/>
-      <c r="L69" s="10"/>
-      <c r="M69" s="10"/>
-      <c r="N69" s="10"/>
-      <c r="O69" s="10"/>
-      <c r="P69" s="10"/>
-      <c r="Q69" s="10"/>
-      <c r="R69" s="10"/>
-      <c r="S69" s="10"/>
-      <c r="T69" s="10"/>
-      <c r="U69" s="10"/>
-      <c r="V69" s="10"/>
-      <c r="W69" s="10"/>
-      <c r="X69" s="10"/>
-      <c r="Y69" s="10"/>
-      <c r="Z69" s="10"/>
-      <c r="AA69" s="10"/>
-      <c r="AB69" s="10"/>
-      <c r="AC69" s="10"/>
-      <c r="AD69" s="11"/>
+      <c r="Z70" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB70" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC70" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD70" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF70" s="4"/>
+    </row>
+    <row r="71" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="C71" s="3">
+        <v>900211</v>
+      </c>
+      <c r="D71" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="E71" s="20"/>
+      <c r="F71" s="3"/>
+      <c r="G71" s="3"/>
+      <c r="H71" s="20"/>
+      <c r="I71" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="J71" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="K71" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L71" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="N71" s="2">
+        <v>0</v>
+      </c>
+      <c r="O71" s="2">
+        <v>10000</v>
+      </c>
+      <c r="P71" s="2">
+        <v>101</v>
+      </c>
+      <c r="R71" s="2">
+        <v>0</v>
+      </c>
+      <c r="S71" s="2">
+        <v>10</v>
+      </c>
+      <c r="T71" s="2">
+        <v>0</v>
+      </c>
+      <c r="U71" s="2">
+        <v>0</v>
+      </c>
+      <c r="V71" s="2">
+        <v>0</v>
+      </c>
+      <c r="W71" s="2">
+        <v>0</v>
+      </c>
+      <c r="X71" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>10,0,0,0,0</v>
+      </c>
+      <c r="Z71" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA71" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB71" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC71" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD71" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF71" s="4"/>
+    </row>
+    <row r="72" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="C72" s="9">
+        <v>900311</v>
+      </c>
+      <c r="D72" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="E72" s="21"/>
+      <c r="F72" s="9"/>
+      <c r="G72" s="9"/>
+      <c r="H72" s="21"/>
+      <c r="I72" s="9"/>
+      <c r="J72" s="10"/>
+      <c r="K72" s="10"/>
+      <c r="L72" s="10"/>
+      <c r="M72" s="10"/>
+      <c r="N72" s="10">
+        <v>0</v>
+      </c>
+      <c r="O72" s="10">
+        <v>10000</v>
+      </c>
+      <c r="P72" s="10">
+        <v>902</v>
+      </c>
+      <c r="Q72" s="10"/>
+      <c r="R72" s="10">
+        <v>100402</v>
+      </c>
+      <c r="S72" s="10">
+        <v>0</v>
+      </c>
+      <c r="T72" s="10">
+        <v>0</v>
+      </c>
+      <c r="U72" s="10">
+        <v>0</v>
+      </c>
+      <c r="V72" s="10">
+        <v>0</v>
+      </c>
+      <c r="W72" s="10">
+        <v>0</v>
+      </c>
+      <c r="X72" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>0,0,0,0,0</v>
+      </c>
+      <c r="Y72" s="10"/>
+      <c r="Z72" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA72" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB72" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC72" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD72" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE72" s="10"/>
+      <c r="AF72" s="11"/>
+    </row>
+    <row r="73" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="C73" s="9">
+        <v>900312</v>
+      </c>
+      <c r="D73" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="E73" s="20"/>
+      <c r="F73" s="3"/>
+      <c r="G73" s="3"/>
+      <c r="I73" s="3"/>
+      <c r="N73" s="2">
+        <v>0</v>
+      </c>
+      <c r="O73" s="2">
+        <v>10000</v>
+      </c>
+      <c r="P73" s="2">
+        <v>903</v>
+      </c>
+      <c r="R73" s="2">
+        <v>0</v>
+      </c>
+      <c r="S73" s="2">
+        <v>0</v>
+      </c>
+      <c r="T73" s="2">
+        <v>0</v>
+      </c>
+      <c r="U73" s="2">
+        <v>0</v>
+      </c>
+      <c r="V73" s="2">
+        <v>0</v>
+      </c>
+      <c r="W73" s="2">
+        <v>0</v>
+      </c>
+      <c r="X73" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>0,0,0,0,0</v>
+      </c>
+      <c r="Z73" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB73" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC73" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD73" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF73" s="4"/>
+    </row>
+    <row r="74" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="C74" s="9"/>
+      <c r="D74" s="21"/>
+      <c r="E74" s="21"/>
+      <c r="F74" s="9"/>
+      <c r="G74" s="9"/>
+      <c r="H74" s="42"/>
+      <c r="I74" s="9"/>
+      <c r="J74" s="10"/>
+      <c r="K74" s="10"/>
+      <c r="L74" s="10"/>
+      <c r="M74" s="10"/>
+      <c r="N74" s="10"/>
+      <c r="O74" s="10"/>
+      <c r="P74" s="10"/>
+      <c r="Q74" s="10"/>
+      <c r="R74" s="10"/>
+      <c r="S74" s="10"/>
+      <c r="T74" s="10"/>
+      <c r="U74" s="10"/>
+      <c r="V74" s="10"/>
+      <c r="W74" s="10"/>
+      <c r="X74" s="10"/>
+      <c r="Y74" s="10"/>
+      <c r="Z74" s="10"/>
+      <c r="AA74" s="10"/>
+      <c r="AB74" s="10"/>
+      <c r="AC74" s="10"/>
+      <c r="AD74" s="10"/>
+      <c r="AE74" s="10"/>
+      <c r="AF74" s="11"/>
+    </row>
+    <row r="75" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="C75" s="9"/>
+      <c r="D75" s="21"/>
+      <c r="E75" s="21"/>
+      <c r="F75" s="9"/>
+      <c r="G75" s="9"/>
+      <c r="H75" s="42"/>
+      <c r="I75" s="9"/>
+      <c r="J75" s="10"/>
+      <c r="K75" s="10"/>
+      <c r="L75" s="10"/>
+      <c r="M75" s="10"/>
+      <c r="N75" s="10"/>
+      <c r="O75" s="10"/>
+      <c r="P75" s="10"/>
+      <c r="Q75" s="10"/>
+      <c r="R75" s="10"/>
+      <c r="S75" s="10"/>
+      <c r="T75" s="10"/>
+      <c r="U75" s="10"/>
+      <c r="V75" s="10"/>
+      <c r="W75" s="10"/>
+      <c r="X75" s="10"/>
+      <c r="Y75" s="10"/>
+      <c r="Z75" s="10"/>
+      <c r="AA75" s="10"/>
+      <c r="AB75" s="10"/>
+      <c r="AC75" s="10"/>
+      <c r="AD75" s="10"/>
+      <c r="AE75" s="10"/>
+      <c r="AF75" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/config/excel/SkillEffect.xlsx
+++ b/config/excel/SkillEffect.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EastEden\excel\trunk\global\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ECD7B61-C699-4BC5-A868-0CEBECB45258}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{998B76FA-865D-4DFE-99F2-845148C4AA99}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillEffect" sheetId="1" r:id="rId1"/>
@@ -2289,10 +2289,10 @@
   <dimension ref="A1:AJ75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="6" topLeftCell="T25" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="6" topLeftCell="K49" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="AA36" sqref="AA36"/>
+      <selection pane="bottomRight" activeCell="S64" sqref="S64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="14.25" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -5352,7 +5352,7 @@
         <v>0</v>
       </c>
       <c r="S46" s="2">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="T46" s="2">
         <v>0</v>
@@ -5368,7 +5368,7 @@
       </c>
       <c r="X46" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>0.5,0,0,0,0</v>
+        <v>0.2,0,0,0,0</v>
       </c>
       <c r="Z46" s="2">
         <v>0</v>
@@ -6453,7 +6453,7 @@
         <v>0</v>
       </c>
       <c r="S63" s="2">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="T63" s="2">
         <v>0</v>
@@ -6469,7 +6469,7 @@
       </c>
       <c r="X63" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>0.5,0,0,0,0</v>
+        <v>0.2,0,0,0,0</v>
       </c>
       <c r="Z63" s="2">
         <v>2</v>

--- a/config/excel/SkillEffect.xlsx
+++ b/config/excel/SkillEffect.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EastEden\excel\trunk\global\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{998B76FA-865D-4DFE-99F2-845148C4AA99}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3577A7F5-0305-4CC1-B37A-2699DAE3091D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
     <author>dd</author>
   </authors>
   <commentList>
-    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{05B794EC-C9E0-47DA-BA1D-6D81E89388D8}">
+    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{05B794EC-C9E0-47DA-BA1D-6D81E89388D8}">
       <text>
         <r>
           <rPr>
@@ -45,7 +45,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z1" authorId="0" shapeId="0" xr:uid="{F8201646-FABF-4E69-8183-59CBA5E31C57}">
+    <comment ref="AA1" authorId="0" shapeId="0" xr:uid="{F8201646-FABF-4E69-8183-59CBA5E31C57}">
       <text>
         <r>
           <rPr>
@@ -67,7 +67,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N2" authorId="0" shapeId="0" xr:uid="{1423CB30-3DF0-4D12-A85D-376D802CDC1A}">
+    <comment ref="O2" authorId="0" shapeId="0" xr:uid="{1423CB30-3DF0-4D12-A85D-376D802CDC1A}">
       <text>
         <r>
           <rPr>
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="221">
   <si>
     <t>行列头两行不会被读取</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1028,6 +1028,28 @@
   </si>
   <si>
     <t>男主-奥义临时-造成220%伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fx_daoguang_hit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>命中回怒</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>addRage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int32</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>回怒条件
+1-效果命中
+2-命中目标数量≥1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1388,7 +1410,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="35">
+  <dxfs count="36">
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -1844,6 +1866,21 @@
         <bottom style="thin">
           <color theme="0"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1985,14 +2022,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7D756641-FA44-4C98-8415-A8A9AF7B3072}" name="表1" displayName="表1" ref="C1:AF75" totalsRowShown="0" headerRowDxfId="34" dataDxfId="32" headerRowBorderDxfId="33" tableBorderDxfId="31" totalsRowBorderDxfId="30">
-  <autoFilter ref="C1:AF75" xr:uid="{8CC84E60-2DCE-4F71-9796-17451FB14116}"/>
-  <tableColumns count="30">
-    <tableColumn id="1" xr3:uid="{B117A20D-488D-4BBE-9938-B9ED8BC64C7F}" name="效果ID" dataDxfId="29"/>
-    <tableColumn id="24" xr3:uid="{92A314CE-7C79-4335-AE0F-C9FE3BC3E616}" name="备注" dataDxfId="28"/>
-    <tableColumn id="10" xr3:uid="{F72E9219-C04E-4D74-AE14-621A011975FD}" name="特效飘字" dataDxfId="27"/>
-    <tableColumn id="14" xr3:uid="{1819B2AD-0CAC-46F2-A80D-9F19464EB667}" name="增减益类型" dataDxfId="26"/>
-    <tableColumn id="23" xr3:uid="{C20E5857-33E3-478C-B638-C78DCA78339D}" name="效果特效" dataDxfId="25"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7D756641-FA44-4C98-8415-A8A9AF7B3072}" name="表1" displayName="表1" ref="C1:AG75" totalsRowShown="0" headerRowDxfId="35" dataDxfId="33" headerRowBorderDxfId="34" tableBorderDxfId="32" totalsRowBorderDxfId="31">
+  <autoFilter ref="C1:AG75" xr:uid="{8CC84E60-2DCE-4F71-9796-17451FB14116}"/>
+  <tableColumns count="31">
+    <tableColumn id="1" xr3:uid="{B117A20D-488D-4BBE-9938-B9ED8BC64C7F}" name="效果ID" dataDxfId="30"/>
+    <tableColumn id="24" xr3:uid="{92A314CE-7C79-4335-AE0F-C9FE3BC3E616}" name="备注" dataDxfId="29"/>
+    <tableColumn id="10" xr3:uid="{F72E9219-C04E-4D74-AE14-621A011975FD}" name="特效飘字" dataDxfId="28"/>
+    <tableColumn id="14" xr3:uid="{1819B2AD-0CAC-46F2-A80D-9F19464EB667}" name="增减益类型" dataDxfId="27"/>
+    <tableColumn id="23" xr3:uid="{C20E5857-33E3-478C-B638-C78DCA78339D}" name="效果特效" dataDxfId="26"/>
+    <tableColumn id="25" xr3:uid="{FEAE4C9D-D252-4F8D-90AD-C80150AB0CAD}" name="命中回怒" dataDxfId="25"/>
     <tableColumn id="27" xr3:uid="{4E6B823F-ED87-44FA-BC7E-DD0D3DA9A874}" name="被击特效2" dataDxfId="24"/>
     <tableColumn id="28" xr3:uid="{D63A8DD5-C7D8-45FF-9168-E24BB73D8D0A}" name="被击插槽ID" dataDxfId="23"/>
     <tableColumn id="30" xr3:uid="{1297421F-FF12-438C-935D-1AC9E4808D57}" name="被击停帧_x000a_仅普攻" dataDxfId="22"/>
@@ -2286,43 +2324,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AJ75"/>
+  <dimension ref="A1:AK75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="6" topLeftCell="K49" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="6" topLeftCell="E7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="S64" sqref="S64"/>
+      <selection pane="bottomRight" activeCell="H51" sqref="H51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="14.25" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="3" width="10.625" style="2"/>
-    <col min="4" max="4" width="21.5" style="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.75" style="22" customWidth="1"/>
     <col min="5" max="5" width="13" style="22" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13" style="2" customWidth="1"/>
-    <col min="8" max="8" width="14.25" style="22" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="15" style="2" customWidth="1"/>
-    <col min="12" max="13" width="15.625" style="2" customWidth="1"/>
-    <col min="14" max="15" width="10.625" style="2"/>
-    <col min="16" max="16" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="12.625" style="2" customWidth="1"/>
-    <col min="19" max="23" width="10.625" style="2" customWidth="1" outlineLevel="1"/>
-    <col min="24" max="24" width="17.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="17.625" style="2" customWidth="1"/>
-    <col min="26" max="26" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="17.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="18.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="32" max="34" width="10.625" style="2"/>
-    <col min="35" max="35" width="15" style="2" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="14.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="37" max="16384" width="10.625" style="2"/>
+    <col min="6" max="8" width="13" style="2" customWidth="1"/>
+    <col min="9" max="9" width="14.25" style="22" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="15" style="2" customWidth="1"/>
+    <col min="13" max="14" width="15.625" style="2" customWidth="1"/>
+    <col min="15" max="16" width="10.625" style="2"/>
+    <col min="17" max="17" width="13" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="12.625" style="2" customWidth="1"/>
+    <col min="20" max="24" width="10.625" style="2" customWidth="1" outlineLevel="1"/>
+    <col min="25" max="25" width="17.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="17.625" style="2" customWidth="1"/>
+    <col min="27" max="27" width="13" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="17.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="18.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="13" style="2" bestFit="1" customWidth="1"/>
+    <col min="33" max="35" width="10.625" style="2"/>
+    <col min="36" max="36" width="15" style="2" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="14.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="38" max="16384" width="10.625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2344,83 +2382,86 @@
       <c r="G1" s="43" t="s">
         <v>208</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="H1" s="43" t="s">
+        <v>217</v>
+      </c>
+      <c r="I1" s="25" t="s">
         <v>175</v>
       </c>
-      <c r="I1" s="25" t="s">
+      <c r="J1" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="J1" s="36" t="s">
+      <c r="K1" s="36" t="s">
         <v>152</v>
       </c>
-      <c r="K1" s="37" t="s">
+      <c r="L1" s="37" t="s">
         <v>153</v>
       </c>
-      <c r="L1" s="37" t="s">
+      <c r="M1" s="37" t="s">
         <v>154</v>
       </c>
-      <c r="M1" s="26" t="s">
+      <c r="N1" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="N1" s="17" t="s">
+      <c r="O1" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="P1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="R1" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="S1" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="T1" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="U1" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="V1" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="V1" s="27" t="s">
+      <c r="W1" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="W1" s="27" t="s">
+      <c r="X1" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="X1" s="30" t="s">
+      <c r="Y1" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="Y1" s="6" t="s">
+      <c r="Z1" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="Z1" s="8" t="s">
+      <c r="AA1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="AA1" s="8" t="s">
+      <c r="AB1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="AB1" s="8" t="s">
+      <c r="AC1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="AC1" s="8" t="s">
+      <c r="AD1" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="AD1" s="8" t="s">
+      <c r="AE1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="AE1" s="8" t="s">
+      <c r="AF1" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="AF1" s="8" t="s">
+      <c r="AG1" s="8" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="2" spans="1:32" ht="99.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:33" ht="99.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
@@ -2433,81 +2474,84 @@
       <c r="G2" s="44" t="s">
         <v>211</v>
       </c>
-      <c r="H2" s="23" t="s">
+      <c r="H2" s="44" t="s">
+        <v>220</v>
+      </c>
+      <c r="I2" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="I2" s="23" t="s">
+      <c r="J2" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="J2" s="23" t="s">
+      <c r="K2" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="K2" s="23" t="s">
+      <c r="L2" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="L2" s="23" t="s">
+      <c r="M2" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="M2" s="23" t="s">
+      <c r="N2" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="U2" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="V2" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="V2" s="15" t="s">
+      <c r="W2" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="W2" s="15"/>
-      <c r="X2" s="31" t="s">
+      <c r="X2" s="15"/>
+      <c r="Y2" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="Y2" s="2" t="s">
+      <c r="Z2" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="Z2" s="19" t="s">
+      <c r="AA2" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="AA2" s="19" t="s">
+      <c r="AB2" s="19" t="s">
         <v>164</v>
       </c>
-      <c r="AB2" s="19" t="s">
+      <c r="AC2" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="AC2" s="19" t="s">
+      <c r="AD2" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="AD2" s="19" t="s">
+      <c r="AE2" s="19" t="s">
         <v>165</v>
       </c>
-      <c r="AE2" s="19" t="s">
+      <c r="AF2" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="AF2" s="33" t="s">
+      <c r="AG2" s="33" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
@@ -2524,73 +2568,76 @@
       <c r="G3" s="41" t="s">
         <v>209</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="41" t="s">
+        <v>218</v>
+      </c>
+      <c r="I3" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="J3" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="K3" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="L3" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="L3" s="12" t="s">
+      <c r="M3" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="M3" s="12" t="s">
+      <c r="N3" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="N3" s="13" t="s">
+      <c r="O3" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="O3" s="13" t="s">
+      <c r="P3" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="P3" s="13" t="s">
+      <c r="Q3" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="Q3" s="13" t="s">
+      <c r="R3" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="R3" s="13" t="s">
+      <c r="S3" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="S3" s="13"/>
       <c r="T3" s="13"/>
       <c r="U3" s="13"/>
       <c r="V3" s="13"/>
       <c r="W3" s="13"/>
-      <c r="X3" s="14" t="s">
+      <c r="X3" s="13"/>
+      <c r="Y3" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="Y3" s="14" t="s">
+      <c r="Z3" s="14" t="s">
         <v>192</v>
       </c>
-      <c r="Z3" s="14" t="s">
+      <c r="AA3" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="AA3" s="14" t="s">
+      <c r="AB3" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="AB3" s="14" t="s">
+      <c r="AC3" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="AC3" s="14" t="s">
+      <c r="AD3" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="AD3" s="14" t="s">
+      <c r="AE3" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="AE3" s="14" t="s">
+      <c r="AF3" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="AF3" s="14" t="s">
+      <c r="AG3" s="14" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="1:32" ht="57" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:33" ht="57" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
@@ -2603,81 +2650,82 @@
       </c>
       <c r="F4" s="40"/>
       <c r="G4" s="41"/>
-      <c r="H4" s="12" t="s">
+      <c r="H4" s="41"/>
+      <c r="I4" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="I4" s="24" t="s">
+      <c r="J4" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="J4" s="24" t="s">
+      <c r="K4" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="K4" s="24" t="s">
+      <c r="L4" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="L4" s="24" t="s">
+      <c r="M4" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="M4" s="24" t="s">
+      <c r="N4" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="N4" s="13" t="s">
+      <c r="O4" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="O4" s="13" t="s">
+      <c r="P4" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="13" t="s">
+      <c r="Q4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="13" t="s">
+      <c r="R4" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="R4" s="13" t="s">
+      <c r="S4" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="S4" s="13" t="s">
+      <c r="T4" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="T4" s="13" t="s">
+      <c r="U4" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="U4" s="13" t="s">
+      <c r="V4" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="V4" s="13" t="s">
+      <c r="W4" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="W4" s="13" t="s">
+      <c r="X4" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="X4" s="28"/>
-      <c r="Y4" s="14" t="s">
+      <c r="Y4" s="28"/>
+      <c r="Z4" s="14" t="s">
         <v>190</v>
       </c>
-      <c r="Z4" s="14" t="s">
+      <c r="AA4" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="AA4" s="14" t="s">
+      <c r="AB4" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="AB4" s="14" t="s">
+      <c r="AC4" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="AC4" s="14" t="s">
+      <c r="AD4" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="AD4" s="14" t="s">
+      <c r="AE4" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="AE4" s="14" t="s">
+      <c r="AF4" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="AF4" s="34" t="s">
+      <c r="AG4" s="34" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>25</v>
       </c>
@@ -2686,13 +2734,13 @@
       <c r="E5" s="12"/>
       <c r="F5" s="40"/>
       <c r="G5" s="41"/>
-      <c r="H5" s="12"/>
+      <c r="H5" s="41"/>
       <c r="I5" s="12"/>
       <c r="J5" s="12"/>
       <c r="K5" s="12"/>
       <c r="L5" s="12"/>
       <c r="M5" s="12"/>
-      <c r="N5" s="13"/>
+      <c r="N5" s="12"/>
       <c r="O5" s="13"/>
       <c r="P5" s="13"/>
       <c r="Q5" s="13"/>
@@ -2700,10 +2748,10 @@
       <c r="S5" s="13"/>
       <c r="T5" s="13"/>
       <c r="U5" s="13"/>
-      <c r="V5" s="16"/>
+      <c r="V5" s="13"/>
       <c r="W5" s="16"/>
-      <c r="X5" s="29"/>
-      <c r="Y5" s="14"/>
+      <c r="X5" s="16"/>
+      <c r="Y5" s="29"/>
       <c r="Z5" s="14"/>
       <c r="AA5" s="14"/>
       <c r="AB5" s="14"/>
@@ -2711,8 +2759,9 @@
       <c r="AD5" s="14"/>
       <c r="AE5" s="14"/>
       <c r="AF5" s="14"/>
+      <c r="AG5" s="14"/>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
@@ -2729,26 +2778,26 @@
       <c r="G6" s="41" t="s">
         <v>210</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="H6" s="41" t="s">
+        <v>219</v>
+      </c>
+      <c r="I6" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="I6" s="12" t="s">
+      <c r="J6" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="J6" s="12" t="s">
+      <c r="K6" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="K6" s="12" t="s">
+      <c r="L6" s="12" t="s">
         <v>56</v>
-      </c>
-      <c r="L6" s="12" t="s">
-        <v>57</v>
       </c>
       <c r="M6" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="N6" s="13" t="s">
-        <v>10</v>
+      <c r="N6" s="12" t="s">
+        <v>57</v>
       </c>
       <c r="O6" s="13" t="s">
         <v>10</v>
@@ -2757,45 +2806,48 @@
         <v>10</v>
       </c>
       <c r="Q6" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="R6" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="R6" s="13" t="s">
+      <c r="S6" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="S6" s="13"/>
       <c r="T6" s="13"/>
       <c r="U6" s="13"/>
       <c r="V6" s="13"/>
       <c r="W6" s="13"/>
-      <c r="X6" s="13" t="s">
+      <c r="X6" s="13"/>
+      <c r="Y6" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="Y6" s="14" t="s">
+      <c r="Z6" s="14" t="s">
         <v>193</v>
       </c>
-      <c r="Z6" s="14" t="s">
+      <c r="AA6" s="14" t="s">
         <v>10</v>
-      </c>
-      <c r="AA6" s="14" t="s">
-        <v>27</v>
       </c>
       <c r="AB6" s="14" t="s">
         <v>27</v>
       </c>
       <c r="AC6" s="14" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="AD6" s="14" t="s">
         <v>10</v>
       </c>
       <c r="AE6" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF6" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="AF6" s="32" t="s">
+      <c r="AG6" s="32" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C7" s="3">
         <v>1001</v>
       </c>
@@ -2805,56 +2857,54 @@
       <c r="E7" s="20"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="20" t="s">
+      <c r="H7" s="3"/>
+      <c r="I7" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="J7" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="J7" s="3">
+      <c r="K7" s="3">
         <v>0.2</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="L7" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="L7" s="3">
+      <c r="M7" s="3">
         <v>0.2</v>
       </c>
-      <c r="M7" s="3"/>
-      <c r="N7" s="2">
-        <v>0</v>
-      </c>
+      <c r="N7" s="3"/>
       <c r="O7" s="2">
+        <v>0</v>
+      </c>
+      <c r="P7" s="2">
         <v>10000</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>101</v>
-      </c>
-      <c r="R7" s="2">
-        <v>1</v>
       </c>
       <c r="S7" s="2">
         <v>1</v>
       </c>
       <c r="T7" s="2">
+        <v>1</v>
+      </c>
+      <c r="U7" s="2">
         <v>200</v>
       </c>
-      <c r="U7" s="2">
-        <v>0</v>
-      </c>
       <c r="V7" s="2">
         <v>0</v>
       </c>
       <c r="W7" s="2">
         <v>0</v>
       </c>
-      <c r="X7" s="2" t="str">
-        <f>S7&amp;","&amp;T7&amp;","&amp;U7&amp;","&amp;V7&amp;","&amp;W7</f>
+      <c r="X7" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="2" t="str">
+        <f>T7&amp;","&amp;U7&amp;","&amp;V7&amp;","&amp;W7&amp;","&amp;X7</f>
         <v>1,200,0,0,0</v>
       </c>
-      <c r="Z7" s="2">
-        <v>0</v>
-      </c>
       <c r="AA7" s="2">
         <v>0</v>
       </c>
@@ -2867,9 +2917,12 @@
       <c r="AD7" s="2">
         <v>0</v>
       </c>
-      <c r="AF7" s="4"/>
+      <c r="AE7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="4"/>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C8" s="3">
         <v>1002</v>
       </c>
@@ -2879,46 +2932,44 @@
       <c r="E8" s="20"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="20"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
-      <c r="N8" s="2">
-        <v>0</v>
-      </c>
+      <c r="N8" s="3"/>
       <c r="O8" s="2">
+        <v>0</v>
+      </c>
+      <c r="P8" s="2">
         <v>10000</v>
       </c>
-      <c r="P8" s="2">
+      <c r="Q8" s="2">
         <v>101</v>
       </c>
-      <c r="R8" s="2">
+      <c r="S8" s="2">
         <v>1</v>
       </c>
-      <c r="S8" s="2">
+      <c r="T8" s="2">
         <v>2</v>
       </c>
-      <c r="T8" s="2">
+      <c r="U8" s="2">
         <v>200</v>
       </c>
-      <c r="U8" s="2">
-        <v>0</v>
-      </c>
       <c r="V8" s="2">
         <v>0</v>
       </c>
       <c r="W8" s="2">
         <v>0</v>
       </c>
-      <c r="X8" s="2" t="str">
-        <f t="shared" ref="X8:X65" si="0">S8&amp;","&amp;T8&amp;","&amp;U8&amp;","&amp;V8&amp;","&amp;W8</f>
+      <c r="X8" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="2" t="str">
+        <f t="shared" ref="Y8:Y65" si="0">T8&amp;","&amp;U8&amp;","&amp;V8&amp;","&amp;W8&amp;","&amp;X8</f>
         <v>2,200,0,0,0</v>
       </c>
-      <c r="Z8" s="2">
-        <v>0</v>
-      </c>
       <c r="AA8" s="2">
         <v>0</v>
       </c>
@@ -2931,9 +2982,12 @@
       <c r="AD8" s="2">
         <v>0</v>
       </c>
-      <c r="AF8" s="4"/>
+      <c r="AE8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="4"/>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C9" s="3">
         <v>1003</v>
       </c>
@@ -2943,46 +2997,44 @@
       <c r="E9" s="20"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="20"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
-      <c r="N9" s="2">
-        <v>0</v>
-      </c>
+      <c r="N9" s="3"/>
       <c r="O9" s="2">
+        <v>0</v>
+      </c>
+      <c r="P9" s="2">
         <v>10000</v>
       </c>
-      <c r="P9" s="2">
+      <c r="Q9" s="2">
         <v>101</v>
       </c>
-      <c r="R9" s="2">
+      <c r="S9" s="2">
         <v>1</v>
       </c>
-      <c r="S9" s="2">
+      <c r="T9" s="2">
         <v>4.5</v>
       </c>
-      <c r="T9" s="2">
+      <c r="U9" s="2">
         <v>200</v>
       </c>
-      <c r="U9" s="2">
-        <v>0</v>
-      </c>
       <c r="V9" s="2">
         <v>0</v>
       </c>
       <c r="W9" s="2">
         <v>0</v>
       </c>
-      <c r="X9" s="2" t="str">
+      <c r="X9" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="2" t="str">
         <f t="shared" si="0"/>
         <v>4.5,200,0,0,0</v>
       </c>
-      <c r="Z9" s="2">
-        <v>0</v>
-      </c>
       <c r="AA9" s="2">
         <v>0</v>
       </c>
@@ -2995,9 +3047,12 @@
       <c r="AD9" s="2">
         <v>0</v>
       </c>
-      <c r="AF9" s="4"/>
+      <c r="AE9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="4"/>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C10" s="3">
         <v>1004</v>
       </c>
@@ -3007,46 +3062,44 @@
       <c r="E10" s="20"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="20"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
-      <c r="N10" s="2">
-        <v>0</v>
-      </c>
+      <c r="N10" s="3"/>
       <c r="O10" s="2">
+        <v>0</v>
+      </c>
+      <c r="P10" s="2">
         <v>10000</v>
       </c>
-      <c r="P10" s="2">
+      <c r="Q10" s="2">
         <v>101</v>
       </c>
-      <c r="R10" s="2">
+      <c r="S10" s="2">
         <v>1</v>
       </c>
-      <c r="S10" s="2">
+      <c r="T10" s="2">
         <v>3</v>
       </c>
-      <c r="T10" s="2">
+      <c r="U10" s="2">
         <v>200</v>
       </c>
-      <c r="U10" s="2">
-        <v>0</v>
-      </c>
       <c r="V10" s="2">
         <v>0</v>
       </c>
       <c r="W10" s="2">
         <v>0</v>
       </c>
-      <c r="X10" s="2" t="str">
+      <c r="X10" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="2" t="str">
         <f t="shared" si="0"/>
         <v>3,200,0,0,0</v>
       </c>
-      <c r="Z10" s="2">
-        <v>0</v>
-      </c>
       <c r="AA10" s="2">
         <v>0</v>
       </c>
@@ -3059,9 +3112,12 @@
       <c r="AD10" s="2">
         <v>0</v>
       </c>
-      <c r="AF10" s="4"/>
+      <c r="AE10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="4"/>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C11" s="3">
         <v>1007</v>
       </c>
@@ -3071,27 +3127,25 @@
       <c r="E11" s="20"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="20"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-      <c r="N11" s="2">
-        <v>0</v>
-      </c>
+      <c r="N11" s="3"/>
       <c r="O11" s="2">
+        <v>0</v>
+      </c>
+      <c r="P11" s="2">
         <v>10000</v>
       </c>
-      <c r="P11" s="2">
+      <c r="Q11" s="2">
         <v>501</v>
       </c>
-      <c r="R11" s="2">
+      <c r="S11" s="2">
         <v>10001</v>
       </c>
-      <c r="S11" s="2">
-        <v>0</v>
-      </c>
       <c r="T11" s="2">
         <v>0</v>
       </c>
@@ -3104,28 +3158,31 @@
       <c r="W11" s="2">
         <v>0</v>
       </c>
-      <c r="X11" s="2" t="str">
+      <c r="X11" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="2" t="str">
         <f t="shared" si="0"/>
         <v>0,0,0,0,0</v>
       </c>
-      <c r="Z11" s="2">
+      <c r="AA11" s="2">
         <v>1</v>
       </c>
-      <c r="AA11" s="2">
+      <c r="AB11" s="2">
         <v>0.1</v>
       </c>
-      <c r="AB11" s="2">
-        <v>0</v>
-      </c>
       <c r="AC11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="2">
         <v>1</v>
       </c>
-      <c r="AD11" s="2">
+      <c r="AE11" s="2">
         <v>3</v>
       </c>
-      <c r="AF11" s="4"/>
+      <c r="AG11" s="4"/>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C12" s="3">
         <v>1008</v>
       </c>
@@ -3135,27 +3192,25 @@
       <c r="E12" s="20"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="20"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
-      <c r="N12" s="2">
-        <v>0</v>
-      </c>
+      <c r="N12" s="3"/>
       <c r="O12" s="2">
+        <v>0</v>
+      </c>
+      <c r="P12" s="2">
         <v>10000</v>
       </c>
-      <c r="P12" s="2">
+      <c r="Q12" s="2">
         <v>501</v>
       </c>
-      <c r="R12" s="2">
+      <c r="S12" s="2">
         <v>10002</v>
       </c>
-      <c r="S12" s="2">
-        <v>0</v>
-      </c>
       <c r="T12" s="2">
         <v>0</v>
       </c>
@@ -3168,28 +3223,31 @@
       <c r="W12" s="2">
         <v>0</v>
       </c>
-      <c r="X12" s="2" t="str">
+      <c r="X12" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="2" t="str">
         <f t="shared" si="0"/>
         <v>0,0,0,0,0</v>
       </c>
-      <c r="Z12" s="2">
+      <c r="AA12" s="2">
         <v>1</v>
       </c>
-      <c r="AA12" s="2">
+      <c r="AB12" s="2">
         <v>5</v>
       </c>
-      <c r="AB12" s="2">
-        <v>0</v>
-      </c>
       <c r="AC12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD12" s="2">
         <v>1</v>
       </c>
-      <c r="AF12" s="4"/>
+      <c r="AE12" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG12" s="4"/>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C13" s="3">
         <v>1009</v>
       </c>
@@ -3199,27 +3257,25 @@
       <c r="E13" s="20"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="20"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
-      <c r="N13" s="2">
-        <v>0</v>
-      </c>
+      <c r="N13" s="3"/>
       <c r="O13" s="2">
+        <v>0</v>
+      </c>
+      <c r="P13" s="2">
         <v>10000</v>
       </c>
-      <c r="P13" s="2">
+      <c r="Q13" s="2">
         <v>501</v>
       </c>
-      <c r="R13" s="18">
+      <c r="S13" s="18">
         <v>21003</v>
       </c>
-      <c r="S13" s="2">
-        <v>0</v>
-      </c>
       <c r="T13" s="2">
         <v>0</v>
       </c>
@@ -3232,28 +3288,31 @@
       <c r="W13" s="2">
         <v>0</v>
       </c>
-      <c r="X13" s="2" t="str">
+      <c r="X13" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="2" t="str">
         <f t="shared" si="0"/>
         <v>0,0,0,0,0</v>
       </c>
-      <c r="Z13" s="2">
+      <c r="AA13" s="2">
         <v>2</v>
       </c>
-      <c r="AA13" s="2">
+      <c r="AB13" s="2">
         <v>1</v>
       </c>
-      <c r="AB13" s="2">
-        <v>0</v>
-      </c>
       <c r="AC13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="2">
         <v>1</v>
       </c>
-      <c r="AD13" s="2">
+      <c r="AE13" s="2">
         <v>5</v>
       </c>
-      <c r="AF13" s="4"/>
+      <c r="AG13" s="4"/>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C14" s="3">
         <v>1010</v>
       </c>
@@ -3263,61 +3322,62 @@
       <c r="E14" s="20"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="20"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
-      <c r="N14" s="2">
-        <v>0</v>
-      </c>
+      <c r="N14" s="3"/>
       <c r="O14" s="2">
+        <v>0</v>
+      </c>
+      <c r="P14" s="2">
         <v>10000</v>
       </c>
-      <c r="P14" s="2">
+      <c r="Q14" s="2">
         <v>201</v>
       </c>
-      <c r="R14" s="2">
-        <v>0</v>
-      </c>
       <c r="S14" s="2">
+        <v>0</v>
+      </c>
+      <c r="T14" s="2">
         <v>1.5</v>
       </c>
-      <c r="T14" s="2">
+      <c r="U14" s="2">
         <v>200</v>
       </c>
-      <c r="U14" s="2">
-        <v>0</v>
-      </c>
       <c r="V14" s="2">
         <v>0</v>
       </c>
       <c r="W14" s="2">
         <v>0</v>
       </c>
-      <c r="X14" s="2" t="str">
+      <c r="X14" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="2" t="str">
         <f t="shared" si="0"/>
         <v>1.5,200,0,0,0</v>
       </c>
-      <c r="Z14" s="2">
+      <c r="AA14" s="2">
         <v>1</v>
       </c>
-      <c r="AA14" s="2">
+      <c r="AB14" s="2">
         <v>5</v>
       </c>
-      <c r="AB14" s="2">
-        <v>0</v>
-      </c>
       <c r="AC14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="2">
         <v>1</v>
       </c>
-      <c r="AD14" s="2">
+      <c r="AE14" s="2">
         <v>3</v>
       </c>
-      <c r="AF14" s="4"/>
+      <c r="AG14" s="4"/>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C15" s="9">
         <v>1011</v>
       </c>
@@ -3327,63 +3387,64 @@
       <c r="E15" s="20"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="9"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="20"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
-      <c r="N15" s="10">
-        <v>0</v>
-      </c>
-      <c r="O15" s="2">
+      <c r="N15" s="9"/>
+      <c r="O15" s="10">
+        <v>0</v>
+      </c>
+      <c r="P15" s="2">
         <v>10000</v>
       </c>
-      <c r="P15" s="10">
+      <c r="Q15" s="10">
         <v>203</v>
       </c>
-      <c r="R15" s="10">
-        <v>0</v>
-      </c>
       <c r="S15" s="10">
+        <v>0</v>
+      </c>
+      <c r="T15" s="10">
         <v>0.1</v>
       </c>
-      <c r="T15" s="10">
+      <c r="U15" s="10">
         <v>200</v>
       </c>
-      <c r="U15" s="10">
-        <v>0</v>
-      </c>
       <c r="V15" s="10">
         <v>0</v>
       </c>
       <c r="W15" s="10">
         <v>0</v>
       </c>
-      <c r="X15" s="2" t="str">
+      <c r="X15" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="2" t="str">
         <f t="shared" si="0"/>
         <v>0.1,200,0,0,0</v>
       </c>
-      <c r="Y15" s="10"/>
-      <c r="Z15" s="10">
+      <c r="Z15" s="10"/>
+      <c r="AA15" s="10">
         <v>1</v>
       </c>
-      <c r="AA15" s="10">
+      <c r="AB15" s="10">
         <v>5</v>
       </c>
-      <c r="AB15" s="10">
-        <v>0</v>
-      </c>
       <c r="AC15" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="10">
         <v>1</v>
       </c>
-      <c r="AD15" s="10">
+      <c r="AE15" s="10">
         <v>3</v>
       </c>
-      <c r="AE15" s="10"/>
-      <c r="AF15" s="11"/>
+      <c r="AF15" s="10"/>
+      <c r="AG15" s="11"/>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C16" s="3">
         <v>1012</v>
       </c>
@@ -3393,63 +3454,64 @@
       <c r="E16" s="20"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="20"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-      <c r="N16" s="2">
-        <v>0</v>
-      </c>
+      <c r="N16" s="3"/>
       <c r="O16" s="2">
+        <v>0</v>
+      </c>
+      <c r="P16" s="2">
         <v>10000</v>
       </c>
-      <c r="P16" s="2">
+      <c r="Q16" s="2">
         <v>204</v>
       </c>
-      <c r="R16" s="2">
-        <v>0</v>
-      </c>
       <c r="S16" s="2">
+        <v>0</v>
+      </c>
+      <c r="T16" s="2">
         <v>0.3</v>
       </c>
-      <c r="T16" s="2">
+      <c r="U16" s="2">
         <v>200</v>
       </c>
-      <c r="U16" s="2">
-        <v>0</v>
-      </c>
       <c r="V16" s="2">
         <v>0</v>
       </c>
       <c r="W16" s="2">
         <v>0</v>
       </c>
-      <c r="X16" s="2" t="str">
+      <c r="X16" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="2" t="str">
         <f t="shared" si="0"/>
         <v>0.3,200,0,0,0</v>
       </c>
-      <c r="Y16" s="10"/>
-      <c r="Z16" s="10">
+      <c r="Z16" s="10"/>
+      <c r="AA16" s="10">
         <v>1</v>
       </c>
-      <c r="AA16" s="10">
+      <c r="AB16" s="10">
         <v>5</v>
       </c>
-      <c r="AB16" s="10">
-        <v>0</v>
-      </c>
       <c r="AC16" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="10">
         <v>1</v>
       </c>
-      <c r="AD16" s="10">
+      <c r="AE16" s="10">
         <v>3</v>
       </c>
-      <c r="AE16" s="10"/>
-      <c r="AF16" s="4"/>
+      <c r="AF16" s="10"/>
+      <c r="AG16" s="4"/>
     </row>
-    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C17" s="3">
         <v>1013</v>
       </c>
@@ -3459,57 +3521,58 @@
       <c r="E17" s="20"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="3"/>
-      <c r="N17" s="2">
-        <v>0</v>
-      </c>
+      <c r="H17" s="3"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="3"/>
       <c r="O17" s="2">
+        <v>0</v>
+      </c>
+      <c r="P17" s="2">
         <v>10000</v>
       </c>
-      <c r="P17" s="2">
+      <c r="Q17" s="2">
         <v>202</v>
       </c>
-      <c r="R17" s="2">
-        <v>0</v>
-      </c>
       <c r="S17" s="2">
+        <v>0</v>
+      </c>
+      <c r="T17" s="2">
         <v>3</v>
       </c>
-      <c r="T17" s="2">
+      <c r="U17" s="2">
         <v>500</v>
       </c>
-      <c r="U17" s="2">
-        <v>0</v>
-      </c>
       <c r="V17" s="2">
         <v>0</v>
       </c>
       <c r="W17" s="2">
         <v>0</v>
       </c>
-      <c r="X17" s="2" t="str">
+      <c r="X17" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="2" t="str">
         <f t="shared" si="0"/>
         <v>3,500,0,0,0</v>
       </c>
-      <c r="Z17" s="2">
+      <c r="AA17" s="2">
         <v>1</v>
       </c>
-      <c r="AA17" s="2">
+      <c r="AB17" s="2">
         <v>5</v>
       </c>
-      <c r="AB17" s="2">
-        <v>0</v>
-      </c>
       <c r="AC17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="2">
         <v>1</v>
       </c>
-      <c r="AD17" s="2">
+      <c r="AE17" s="2">
         <v>3</v>
       </c>
-      <c r="AF17" s="4"/>
+      <c r="AG17" s="4"/>
     </row>
-    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C18" s="3">
         <v>1015</v>
       </c>
@@ -3519,30 +3582,28 @@
       <c r="E18" s="20"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="20"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
-      <c r="N18" s="2">
-        <v>0</v>
-      </c>
+      <c r="N18" s="3"/>
       <c r="O18" s="2">
+        <v>0</v>
+      </c>
+      <c r="P18" s="2">
         <v>10000</v>
       </c>
-      <c r="P18" s="2">
+      <c r="Q18" s="2">
         <v>321</v>
       </c>
-      <c r="R18" s="2">
-        <v>0</v>
-      </c>
       <c r="S18" s="2">
+        <v>0</v>
+      </c>
+      <c r="T18" s="2">
         <v>0.35</v>
       </c>
-      <c r="T18" s="2">
-        <v>0</v>
-      </c>
       <c r="U18" s="2">
         <v>0</v>
       </c>
@@ -3552,14 +3613,14 @@
       <c r="W18" s="2">
         <v>0</v>
       </c>
-      <c r="X18" s="2" t="str">
+      <c r="X18" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="2" t="str">
         <f t="shared" si="0"/>
         <v>0.35,0,0,0,0</v>
       </c>
-      <c r="Y18" s="10"/>
-      <c r="Z18" s="10">
-        <v>0</v>
-      </c>
+      <c r="Z18" s="10"/>
       <c r="AA18" s="10">
         <v>0</v>
       </c>
@@ -3572,10 +3633,13 @@
       <c r="AD18" s="10">
         <v>0</v>
       </c>
-      <c r="AE18" s="10"/>
-      <c r="AF18" s="4"/>
+      <c r="AE18" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF18" s="10"/>
+      <c r="AG18" s="4"/>
     </row>
-    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C19" s="3">
         <v>1016</v>
       </c>
@@ -3585,24 +3649,22 @@
       <c r="E19" s="20"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="20"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-      <c r="N19" s="2">
-        <v>0</v>
-      </c>
+      <c r="N19" s="3"/>
       <c r="O19" s="2">
+        <v>0</v>
+      </c>
+      <c r="P19" s="2">
         <v>10000</v>
       </c>
-      <c r="P19" s="2">
+      <c r="Q19" s="2">
         <v>401</v>
       </c>
-      <c r="R19" s="2">
-        <v>0</v>
-      </c>
       <c r="S19" s="2">
         <v>0</v>
       </c>
@@ -3618,13 +3680,13 @@
       <c r="W19" s="2">
         <v>0</v>
       </c>
-      <c r="X19" s="2" t="str">
+      <c r="X19" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="2" t="str">
         <f t="shared" si="0"/>
         <v>0,0,0,0,0</v>
       </c>
-      <c r="Z19" s="2">
-        <v>0</v>
-      </c>
       <c r="AA19" s="2">
         <v>0</v>
       </c>
@@ -3637,9 +3699,12 @@
       <c r="AD19" s="2">
         <v>0</v>
       </c>
-      <c r="AF19" s="4"/>
+      <c r="AE19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG19" s="4"/>
     </row>
-    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C20" s="12">
         <v>100111</v>
       </c>
@@ -3649,56 +3714,56 @@
       <c r="E20" s="20"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
-      <c r="H20" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="I20" s="3" t="s">
+      <c r="H20" s="3">
+        <v>10</v>
+      </c>
+      <c r="I20" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="J20" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>0.2</v>
       </c>
-      <c r="K20" s="3" t="s">
+      <c r="L20" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>0.2</v>
       </c>
-      <c r="M20" s="3"/>
-      <c r="N20" s="2">
-        <v>0</v>
-      </c>
+      <c r="N20" s="3"/>
       <c r="O20" s="2">
+        <v>0</v>
+      </c>
+      <c r="P20" s="2">
         <v>10000</v>
       </c>
-      <c r="P20" s="2">
+      <c r="Q20" s="2">
         <v>101</v>
       </c>
-      <c r="R20" s="2">
-        <v>0</v>
-      </c>
       <c r="S20" s="2">
+        <v>0</v>
+      </c>
+      <c r="T20" s="2">
         <v>1</v>
       </c>
-      <c r="T20" s="2">
+      <c r="U20" s="2">
         <v>200</v>
       </c>
-      <c r="U20" s="2">
-        <v>0</v>
-      </c>
       <c r="V20" s="2">
         <v>0</v>
       </c>
       <c r="W20" s="2">
         <v>0</v>
       </c>
-      <c r="X20" s="2" t="str">
+      <c r="X20" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="2" t="str">
         <f t="shared" si="0"/>
         <v>1,200,0,0,0</v>
       </c>
-      <c r="Z20" s="2">
-        <v>0</v>
-      </c>
       <c r="AA20" s="2">
         <v>0</v>
       </c>
@@ -3711,9 +3776,12 @@
       <c r="AD20" s="2">
         <v>0</v>
       </c>
-      <c r="AF20" s="4"/>
+      <c r="AE20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG20" s="4"/>
     </row>
-    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C21" s="12">
         <v>100112</v>
       </c>
@@ -3727,30 +3795,28 @@
         <v>1</v>
       </c>
       <c r="G21" s="3"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="20"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
-      <c r="N21" s="2">
-        <v>0</v>
-      </c>
+      <c r="N21" s="3"/>
       <c r="O21" s="2">
+        <v>0</v>
+      </c>
+      <c r="P21" s="2">
         <v>10000</v>
       </c>
-      <c r="P21" s="2">
+      <c r="Q21" s="2">
         <v>301</v>
       </c>
-      <c r="R21" s="2">
-        <v>0</v>
-      </c>
       <c r="S21" s="2">
+        <v>0</v>
+      </c>
+      <c r="T21" s="2">
         <v>0.5</v>
       </c>
-      <c r="T21" s="2">
-        <v>0</v>
-      </c>
       <c r="U21" s="2">
         <v>0</v>
       </c>
@@ -3760,13 +3826,13 @@
       <c r="W21" s="2">
         <v>0</v>
       </c>
-      <c r="X21" s="2" t="str">
+      <c r="X21" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="2" t="str">
         <f t="shared" si="0"/>
         <v>0.5,0,0,0,0</v>
       </c>
-      <c r="Z21" s="2">
-        <v>0</v>
-      </c>
       <c r="AA21" s="2">
         <v>0</v>
       </c>
@@ -3779,9 +3845,12 @@
       <c r="AD21" s="2">
         <v>0</v>
       </c>
-      <c r="AF21" s="4"/>
+      <c r="AE21" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG21" s="4"/>
     </row>
-    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C22" s="12">
         <v>100201</v>
       </c>
@@ -3791,23 +3860,23 @@
       <c r="E22" s="20"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="3"/>
-      <c r="N22" s="2">
-        <v>0</v>
-      </c>
+      <c r="H22" s="3">
+        <v>30</v>
+      </c>
+      <c r="I22" s="20"/>
+      <c r="J22" s="3"/>
       <c r="O22" s="2">
+        <v>0</v>
+      </c>
+      <c r="P22" s="2">
         <v>10000</v>
       </c>
-      <c r="P22" s="2">
+      <c r="Q22" s="2">
         <v>501</v>
       </c>
-      <c r="R22" s="2">
+      <c r="S22" s="2">
         <v>100201</v>
       </c>
-      <c r="S22" s="2">
-        <v>0</v>
-      </c>
       <c r="T22" s="2">
         <v>0</v>
       </c>
@@ -3820,13 +3889,13 @@
       <c r="W22" s="2">
         <v>0</v>
       </c>
-      <c r="X22" s="2" t="str">
+      <c r="X22" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="2" t="str">
         <f t="shared" si="0"/>
         <v>0,0,0,0,0</v>
       </c>
-      <c r="Z22" s="2">
-        <v>0</v>
-      </c>
       <c r="AA22" s="2">
         <v>0</v>
       </c>
@@ -3839,9 +3908,12 @@
       <c r="AD22" s="2">
         <v>0</v>
       </c>
-      <c r="AF22" s="4"/>
+      <c r="AE22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG22" s="4"/>
     </row>
-    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C23" s="12">
         <v>100301</v>
       </c>
@@ -3851,39 +3923,39 @@
       <c r="E23" s="20"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
-      <c r="H23" s="20" t="s">
+      <c r="H23" s="3">
+        <v>30</v>
+      </c>
+      <c r="I23" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="I23" s="3" t="s">
+      <c r="J23" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="J23" s="2">
+      <c r="K23" s="2">
         <v>0.2</v>
       </c>
-      <c r="K23" s="2" t="s">
+      <c r="L23" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="L23" s="2">
+      <c r="M23" s="2">
         <v>0.2</v>
       </c>
-      <c r="N23" s="2">
-        <v>0</v>
-      </c>
       <c r="O23" s="2">
+        <v>0</v>
+      </c>
+      <c r="P23" s="2">
         <v>10000</v>
       </c>
-      <c r="P23" s="2">
+      <c r="Q23" s="2">
         <v>101</v>
       </c>
-      <c r="R23" s="2">
+      <c r="S23" s="2">
         <v>1</v>
       </c>
-      <c r="S23" s="2">
+      <c r="T23" s="2">
         <v>2</v>
       </c>
-      <c r="T23" s="2">
-        <v>0</v>
-      </c>
       <c r="U23" s="2">
         <v>0</v>
       </c>
@@ -3893,13 +3965,13 @@
       <c r="W23" s="2">
         <v>0</v>
       </c>
-      <c r="X23" s="2" t="str">
+      <c r="X23" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="2" t="str">
         <f t="shared" si="0"/>
         <v>2,0,0,0,0</v>
       </c>
-      <c r="Z23" s="2">
-        <v>0</v>
-      </c>
       <c r="AA23" s="2">
         <v>0</v>
       </c>
@@ -3912,9 +3984,12 @@
       <c r="AD23" s="2">
         <v>0</v>
       </c>
-      <c r="AF23" s="4"/>
+      <c r="AE23" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG23" s="4"/>
     </row>
-    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C24" s="12">
         <v>100302</v>
       </c>
@@ -3924,42 +3999,40 @@
       <c r="E24" s="20"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="3"/>
-      <c r="N24" s="2">
-        <v>0</v>
-      </c>
+      <c r="H24" s="3"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="3"/>
       <c r="O24" s="2">
+        <v>0</v>
+      </c>
+      <c r="P24" s="2">
         <v>10000</v>
       </c>
-      <c r="P24" s="2">
+      <c r="Q24" s="2">
         <v>601</v>
       </c>
-      <c r="R24" s="2">
+      <c r="S24" s="2">
         <v>100302</v>
       </c>
-      <c r="S24" s="2">
+      <c r="T24" s="2">
         <v>45</v>
       </c>
-      <c r="T24" s="2">
+      <c r="U24" s="2">
         <v>1</v>
       </c>
-      <c r="U24" s="2">
+      <c r="V24" s="2">
         <v>1.5</v>
       </c>
-      <c r="V24" s="2">
-        <v>0</v>
-      </c>
       <c r="W24" s="2">
         <v>0</v>
       </c>
-      <c r="X24" s="2" t="str">
+      <c r="X24" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="2" t="str">
         <f t="shared" si="0"/>
         <v>45,1,1.5,0,0</v>
       </c>
-      <c r="Z24" s="2">
-        <v>0</v>
-      </c>
       <c r="AA24" s="2">
         <v>0</v>
       </c>
@@ -3972,9 +4045,12 @@
       <c r="AD24" s="2">
         <v>0</v>
       </c>
-      <c r="AF24" s="4"/>
+      <c r="AE24" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG24" s="4"/>
     </row>
-    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C25" s="12">
         <v>1003021</v>
       </c>
@@ -3986,68 +4062,69 @@
       <c r="G25" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="I25" s="3" t="s">
+      <c r="H25" s="20"/>
+      <c r="J25" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="J25" s="2">
+      <c r="K25" s="2">
         <v>0.2</v>
       </c>
-      <c r="K25" s="2" t="s">
+      <c r="L25" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="L25" s="2">
+      <c r="M25" s="2">
         <v>0.2</v>
       </c>
-      <c r="N25" s="2">
-        <v>0</v>
-      </c>
       <c r="O25" s="2">
+        <v>0</v>
+      </c>
+      <c r="P25" s="2">
         <v>10000</v>
       </c>
-      <c r="P25" s="2">
+      <c r="Q25" s="2">
         <v>102</v>
       </c>
-      <c r="Q25" s="22"/>
-      <c r="R25" s="2" t="s">
+      <c r="R25" s="22"/>
+      <c r="S25" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="S25" s="2">
+      <c r="T25" s="2">
         <v>1</v>
       </c>
-      <c r="T25" s="2">
+      <c r="U25" s="2">
         <v>100</v>
       </c>
-      <c r="U25" s="2">
-        <v>0</v>
-      </c>
       <c r="V25" s="2">
         <v>0</v>
       </c>
       <c r="W25" s="2">
         <v>0</v>
       </c>
-      <c r="X25" s="2" t="str">
+      <c r="X25" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="2" t="str">
         <f t="shared" si="0"/>
         <v>1,100,0,0,0</v>
       </c>
-      <c r="Z25" s="2">
+      <c r="AA25" s="2">
         <v>2</v>
       </c>
-      <c r="AA25" s="2">
+      <c r="AB25" s="2">
         <v>6</v>
       </c>
-      <c r="AB25" s="2">
-        <v>0</v>
-      </c>
       <c r="AC25" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="2">
         <v>1</v>
       </c>
-      <c r="AD25" s="2">
+      <c r="AE25" s="2">
         <v>5</v>
       </c>
-      <c r="AF25" s="4"/>
+      <c r="AG25" s="4"/>
     </row>
-    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C26" s="12">
         <v>100401</v>
       </c>
@@ -4057,26 +4134,24 @@
       <c r="E26" s="20"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="3"/>
-      <c r="N26" s="2">
-        <v>0</v>
-      </c>
+      <c r="H26" s="3"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="3"/>
       <c r="O26" s="2">
+        <v>0</v>
+      </c>
+      <c r="P26" s="2">
         <v>10000</v>
       </c>
-      <c r="P26" s="2">
+      <c r="Q26" s="2">
         <v>101</v>
       </c>
-      <c r="R26" s="2">
+      <c r="S26" s="2">
         <v>1</v>
       </c>
-      <c r="S26" s="2">
+      <c r="T26" s="2">
         <v>1.2</v>
       </c>
-      <c r="T26" s="2">
-        <v>0</v>
-      </c>
       <c r="U26" s="2">
         <v>0</v>
       </c>
@@ -4086,13 +4161,13 @@
       <c r="W26" s="2">
         <v>0</v>
       </c>
-      <c r="X26" s="2" t="str">
+      <c r="X26" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="2" t="str">
         <f t="shared" si="0"/>
         <v>1.2,0,0,0,0</v>
       </c>
-      <c r="Z26" s="2">
-        <v>0</v>
-      </c>
       <c r="AA26" s="2">
         <v>0</v>
       </c>
@@ -4105,9 +4180,12 @@
       <c r="AD26" s="2">
         <v>0</v>
       </c>
-      <c r="AF26" s="4"/>
+      <c r="AE26" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG26" s="4"/>
     </row>
-    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C27" s="12">
         <v>100402</v>
       </c>
@@ -4117,23 +4195,21 @@
       <c r="E27" s="20"/>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
-      <c r="H27" s="20"/>
-      <c r="I27" s="3"/>
-      <c r="N27" s="2">
-        <v>0</v>
-      </c>
+      <c r="H27" s="3"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="3"/>
       <c r="O27" s="2">
+        <v>0</v>
+      </c>
+      <c r="P27" s="2">
         <v>10000</v>
       </c>
-      <c r="P27" s="2">
+      <c r="Q27" s="2">
         <v>501</v>
       </c>
-      <c r="R27" s="2">
+      <c r="S27" s="2">
         <v>100402</v>
       </c>
-      <c r="S27" s="2">
-        <v>0</v>
-      </c>
       <c r="T27" s="2">
         <v>0</v>
       </c>
@@ -4146,28 +4222,31 @@
       <c r="W27" s="2">
         <v>0</v>
       </c>
-      <c r="X27" s="2" t="str">
+      <c r="X27" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="2" t="str">
         <f t="shared" si="0"/>
         <v>0,0,0,0,0</v>
       </c>
-      <c r="Z27" s="2">
+      <c r="AA27" s="2">
         <v>1</v>
       </c>
-      <c r="AA27" s="2">
+      <c r="AB27" s="2">
         <v>0.2</v>
       </c>
-      <c r="AB27" s="2">
-        <v>0</v>
-      </c>
       <c r="AC27" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD27" s="2">
         <v>1</v>
       </c>
-      <c r="AD27" s="2">
+      <c r="AE27" s="2">
         <v>6</v>
       </c>
-      <c r="AF27" s="4"/>
+      <c r="AG27" s="4"/>
     </row>
-    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C28" s="12">
         <v>1004021</v>
       </c>
@@ -4177,30 +4256,28 @@
       <c r="E28" s="20"/>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
-      <c r="H28" s="20" t="s">
+      <c r="H28" s="3"/>
+      <c r="I28" s="20" t="s">
         <v>161</v>
       </c>
-      <c r="I28" s="3" t="s">
+      <c r="J28" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="N28" s="2">
-        <v>0</v>
-      </c>
       <c r="O28" s="2">
+        <v>0</v>
+      </c>
+      <c r="P28" s="2">
         <v>10000</v>
       </c>
-      <c r="P28" s="2">
+      <c r="Q28" s="2">
         <v>201</v>
       </c>
-      <c r="R28" s="2">
+      <c r="S28" s="2">
         <v>3</v>
       </c>
-      <c r="S28" s="2">
+      <c r="T28" s="2">
         <v>0.03</v>
       </c>
-      <c r="T28" s="2">
-        <v>0</v>
-      </c>
       <c r="U28" s="2">
         <v>0</v>
       </c>
@@ -4210,28 +4287,31 @@
       <c r="W28" s="2">
         <v>0</v>
       </c>
-      <c r="X28" s="2" t="str">
+      <c r="X28" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="2" t="str">
         <f t="shared" si="0"/>
         <v>0.03,0,0,0,0</v>
       </c>
-      <c r="Z28" s="2">
+      <c r="AA28" s="2">
         <v>1</v>
       </c>
-      <c r="AA28" s="2">
+      <c r="AB28" s="2">
         <v>0.2</v>
       </c>
-      <c r="AB28" s="2">
-        <v>0</v>
-      </c>
       <c r="AC28" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="2">
         <v>1</v>
       </c>
-      <c r="AD28" s="2">
+      <c r="AE28" s="2">
         <v>6</v>
       </c>
-      <c r="AF28" s="4"/>
+      <c r="AG28" s="4"/>
     </row>
-    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C29" s="12">
         <v>200111</v>
       </c>
@@ -4241,56 +4321,56 @@
       <c r="E29" s="20"/>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
-      <c r="H29" s="20" t="s">
+      <c r="H29" s="3">
+        <v>6</v>
+      </c>
+      <c r="I29" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="I29" s="3" t="s">
+      <c r="J29" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>0.2</v>
       </c>
-      <c r="K29" s="3" t="s">
+      <c r="L29" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>0.2</v>
       </c>
-      <c r="M29" s="3"/>
-      <c r="N29" s="2">
-        <v>0</v>
-      </c>
+      <c r="N29" s="3"/>
       <c r="O29" s="2">
+        <v>0</v>
+      </c>
+      <c r="P29" s="2">
         <v>10000</v>
       </c>
-      <c r="P29" s="2">
+      <c r="Q29" s="2">
         <v>101</v>
       </c>
-      <c r="R29" s="2">
-        <v>0</v>
-      </c>
       <c r="S29" s="2">
+        <v>0</v>
+      </c>
+      <c r="T29" s="2">
         <v>0.4</v>
       </c>
-      <c r="T29" s="2">
+      <c r="U29" s="2">
         <v>80</v>
       </c>
-      <c r="U29" s="2">
-        <v>0</v>
-      </c>
       <c r="V29" s="2">
         <v>0</v>
       </c>
       <c r="W29" s="2">
         <v>0</v>
       </c>
-      <c r="X29" s="2" t="str">
+      <c r="X29" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="2" t="str">
         <f t="shared" si="0"/>
         <v>0.4,80,0,0,0</v>
       </c>
-      <c r="Z29" s="2">
-        <v>0</v>
-      </c>
       <c r="AA29" s="2">
         <v>0</v>
       </c>
@@ -4303,9 +4383,12 @@
       <c r="AD29" s="2">
         <v>0</v>
       </c>
-      <c r="AF29" s="4"/>
+      <c r="AE29" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG29" s="4"/>
     </row>
-    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C30" s="12">
         <v>200121</v>
       </c>
@@ -4315,56 +4398,56 @@
       <c r="E30" s="20"/>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
-      <c r="H30" s="20" t="s">
+      <c r="H30" s="3">
+        <v>9</v>
+      </c>
+      <c r="I30" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="I30" s="3" t="s">
+      <c r="J30" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="J30" s="3">
+      <c r="K30" s="3">
         <v>0.2</v>
       </c>
-      <c r="K30" s="3" t="s">
+      <c r="L30" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="L30" s="3">
+      <c r="M30" s="3">
         <v>0.2</v>
       </c>
-      <c r="M30" s="3"/>
-      <c r="N30" s="2">
-        <v>0</v>
-      </c>
+      <c r="N30" s="3"/>
       <c r="O30" s="2">
+        <v>0</v>
+      </c>
+      <c r="P30" s="2">
         <v>10000</v>
       </c>
-      <c r="P30" s="2">
+      <c r="Q30" s="2">
         <v>101</v>
       </c>
-      <c r="R30" s="2">
-        <v>0</v>
-      </c>
       <c r="S30" s="2">
+        <v>0</v>
+      </c>
+      <c r="T30" s="2">
         <v>0.6</v>
       </c>
-      <c r="T30" s="2">
+      <c r="U30" s="2">
         <v>120</v>
       </c>
-      <c r="U30" s="2">
-        <v>0</v>
-      </c>
       <c r="V30" s="2">
         <v>0</v>
       </c>
       <c r="W30" s="2">
         <v>0</v>
       </c>
-      <c r="X30" s="2" t="str">
+      <c r="X30" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="2" t="str">
         <f t="shared" si="0"/>
         <v>0.6,120,0,0,0</v>
       </c>
-      <c r="Z30" s="2">
-        <v>0</v>
-      </c>
       <c r="AA30" s="2">
         <v>0</v>
       </c>
@@ -4377,9 +4460,12 @@
       <c r="AD30" s="2">
         <v>0</v>
       </c>
-      <c r="AF30" s="4"/>
+      <c r="AE30" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG30" s="4"/>
     </row>
-    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C31" s="12">
         <v>200201</v>
       </c>
@@ -4389,26 +4475,26 @@
       <c r="E31" s="20"/>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="3"/>
-      <c r="N31" s="2">
-        <v>0</v>
-      </c>
+      <c r="H31" s="3">
+        <v>30</v>
+      </c>
+      <c r="I31" s="20"/>
+      <c r="J31" s="3"/>
       <c r="O31" s="2">
+        <v>0</v>
+      </c>
+      <c r="P31" s="2">
         <v>10000</v>
       </c>
-      <c r="P31" s="2">
+      <c r="Q31" s="2">
         <v>101</v>
       </c>
-      <c r="R31" s="2">
+      <c r="S31" s="2">
         <v>3</v>
       </c>
-      <c r="S31" s="2">
+      <c r="T31" s="2">
         <v>0.9</v>
       </c>
-      <c r="T31" s="2">
-        <v>0</v>
-      </c>
       <c r="U31" s="2">
         <v>0</v>
       </c>
@@ -4418,13 +4504,13 @@
       <c r="W31" s="2">
         <v>0</v>
       </c>
-      <c r="X31" s="2" t="str">
+      <c r="X31" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="2" t="str">
         <f t="shared" si="0"/>
         <v>0.9,0,0,0,0</v>
       </c>
-      <c r="Z31" s="2">
-        <v>0</v>
-      </c>
       <c r="AA31" s="2">
         <v>0</v>
       </c>
@@ -4437,9 +4523,12 @@
       <c r="AD31" s="2">
         <v>0</v>
       </c>
-      <c r="AF31" s="4"/>
+      <c r="AE31" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG31" s="4"/>
     </row>
-    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C32" s="12">
         <v>200202</v>
       </c>
@@ -4449,26 +4538,24 @@
       <c r="E32" s="20"/>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
-      <c r="H32" s="20"/>
-      <c r="I32" s="3"/>
-      <c r="N32" s="2">
-        <v>0</v>
-      </c>
+      <c r="H32" s="3"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="3"/>
       <c r="O32" s="2">
+        <v>0</v>
+      </c>
+      <c r="P32" s="2">
         <v>10000</v>
       </c>
-      <c r="P32" s="2">
+      <c r="Q32" s="2">
         <v>101</v>
       </c>
-      <c r="R32" s="2">
+      <c r="S32" s="2">
         <v>3</v>
       </c>
-      <c r="S32" s="2">
+      <c r="T32" s="2">
         <v>0.9</v>
       </c>
-      <c r="T32" s="2">
-        <v>0</v>
-      </c>
       <c r="U32" s="2">
         <v>0</v>
       </c>
@@ -4478,13 +4565,13 @@
       <c r="W32" s="2">
         <v>0</v>
       </c>
-      <c r="X32" s="2" t="str">
+      <c r="X32" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="2" t="str">
         <f t="shared" si="0"/>
         <v>0.9,0,0,0,0</v>
       </c>
-      <c r="Z32" s="2">
-        <v>0</v>
-      </c>
       <c r="AA32" s="2">
         <v>0</v>
       </c>
@@ -4497,9 +4584,12 @@
       <c r="AD32" s="2">
         <v>0</v>
       </c>
-      <c r="AF32" s="4"/>
+      <c r="AE32" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG32" s="4"/>
     </row>
-    <row r="33" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C33" s="12">
         <v>200203</v>
       </c>
@@ -4509,26 +4599,24 @@
       <c r="E33" s="20"/>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
-      <c r="H33" s="20"/>
-      <c r="I33" s="3"/>
-      <c r="N33" s="2">
-        <v>0</v>
-      </c>
+      <c r="H33" s="3"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="3"/>
       <c r="O33" s="2">
+        <v>0</v>
+      </c>
+      <c r="P33" s="2">
         <v>10000</v>
       </c>
-      <c r="P33" s="2">
+      <c r="Q33" s="2">
         <v>101</v>
       </c>
-      <c r="R33" s="2">
+      <c r="S33" s="2">
         <v>3</v>
       </c>
-      <c r="S33" s="2">
+      <c r="T33" s="2">
         <v>1.2</v>
       </c>
-      <c r="T33" s="2">
-        <v>0</v>
-      </c>
       <c r="U33" s="2">
         <v>0</v>
       </c>
@@ -4538,13 +4626,13 @@
       <c r="W33" s="2">
         <v>0</v>
       </c>
-      <c r="X33" s="2" t="str">
+      <c r="X33" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="2" t="str">
         <f t="shared" si="0"/>
         <v>1.2,0,0,0,0</v>
       </c>
-      <c r="Z33" s="2">
-        <v>0</v>
-      </c>
       <c r="AA33" s="2">
         <v>0</v>
       </c>
@@ -4557,9 +4645,12 @@
       <c r="AD33" s="2">
         <v>0</v>
       </c>
-      <c r="AF33" s="4"/>
+      <c r="AE33" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG33" s="4"/>
     </row>
-    <row r="34" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C34" s="12">
         <v>200301</v>
       </c>
@@ -4569,26 +4660,26 @@
       <c r="E34" s="20"/>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
-      <c r="H34" s="20"/>
-      <c r="I34" s="3"/>
-      <c r="N34" s="2">
-        <v>0</v>
-      </c>
+      <c r="H34" s="3">
+        <v>30</v>
+      </c>
+      <c r="I34" s="20"/>
+      <c r="J34" s="3"/>
       <c r="O34" s="2">
+        <v>0</v>
+      </c>
+      <c r="P34" s="2">
         <v>10000</v>
       </c>
-      <c r="P34" s="2">
+      <c r="Q34" s="2">
         <v>101</v>
       </c>
-      <c r="R34" s="2">
+      <c r="S34" s="2">
         <v>3</v>
       </c>
-      <c r="S34" s="2">
+      <c r="T34" s="2">
         <v>0.8</v>
       </c>
-      <c r="T34" s="2">
-        <v>0</v>
-      </c>
       <c r="U34" s="2">
         <v>0</v>
       </c>
@@ -4598,13 +4689,13 @@
       <c r="W34" s="2">
         <v>0</v>
       </c>
-      <c r="X34" s="2" t="str">
+      <c r="X34" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="2" t="str">
         <f t="shared" si="0"/>
         <v>0.8,0,0,0,0</v>
       </c>
-      <c r="Z34" s="2">
-        <v>0</v>
-      </c>
       <c r="AA34" s="2">
         <v>0</v>
       </c>
@@ -4617,9 +4708,12 @@
       <c r="AD34" s="2">
         <v>0</v>
       </c>
-      <c r="AF34" s="4"/>
+      <c r="AE34" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG34" s="4"/>
     </row>
-    <row r="35" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C35" s="12">
         <v>200302</v>
       </c>
@@ -4629,23 +4723,21 @@
       <c r="E35" s="20"/>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
-      <c r="H35" s="20"/>
-      <c r="I35" s="3"/>
-      <c r="N35" s="2">
-        <v>0</v>
-      </c>
+      <c r="H35" s="3"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="3"/>
       <c r="O35" s="2">
+        <v>0</v>
+      </c>
+      <c r="P35" s="2">
         <v>10000</v>
       </c>
-      <c r="P35" s="2">
+      <c r="Q35" s="2">
         <v>501</v>
       </c>
-      <c r="R35" s="2">
+      <c r="S35" s="2">
         <v>200302</v>
       </c>
-      <c r="S35" s="2">
-        <v>0</v>
-      </c>
       <c r="T35" s="2">
         <v>0</v>
       </c>
@@ -4658,28 +4750,31 @@
       <c r="W35" s="2">
         <v>0</v>
       </c>
-      <c r="X35" s="2" t="str">
+      <c r="X35" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="2" t="str">
         <f t="shared" si="0"/>
         <v>0,0,0,0,0</v>
       </c>
-      <c r="Z35" s="2">
+      <c r="AA35" s="2">
         <v>1</v>
       </c>
-      <c r="AA35" s="2">
+      <c r="AB35" s="2">
         <v>0.2</v>
       </c>
-      <c r="AB35" s="2">
-        <v>0</v>
-      </c>
       <c r="AC35" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD35" s="2">
         <v>1</v>
       </c>
-      <c r="AD35" s="2">
+      <c r="AE35" s="2">
         <v>6</v>
       </c>
-      <c r="AF35" s="4"/>
+      <c r="AG35" s="4"/>
     </row>
-    <row r="36" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C36" s="12">
         <v>2003021</v>
       </c>
@@ -4689,70 +4784,71 @@
       <c r="E36" s="20"/>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
-      <c r="H36" s="20" t="s">
+      <c r="H36" s="3"/>
+      <c r="I36" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="I36" s="3" t="s">
+      <c r="J36" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="J36" s="2">
+      <c r="K36" s="2">
         <v>0.2</v>
       </c>
-      <c r="K36" s="2" t="s">
+      <c r="L36" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="L36" s="2">
+      <c r="M36" s="2">
         <v>0.2</v>
       </c>
-      <c r="N36" s="2">
-        <v>0</v>
-      </c>
       <c r="O36" s="2">
+        <v>0</v>
+      </c>
+      <c r="P36" s="2">
         <v>10000</v>
       </c>
-      <c r="P36" s="2">
+      <c r="Q36" s="2">
         <v>101</v>
       </c>
-      <c r="R36" s="2" t="s">
+      <c r="S36" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="S36" s="2">
+      <c r="T36" s="2">
         <v>1</v>
       </c>
-      <c r="T36" s="2">
+      <c r="U36" s="2">
         <v>200</v>
       </c>
-      <c r="U36" s="2">
-        <v>0</v>
-      </c>
       <c r="V36" s="2">
         <v>0</v>
       </c>
       <c r="W36" s="2">
         <v>0</v>
       </c>
-      <c r="X36" s="2" t="str">
+      <c r="X36" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y36" s="2" t="str">
         <f t="shared" si="0"/>
         <v>1,200,0,0,0</v>
       </c>
-      <c r="Z36" s="2">
+      <c r="AA36" s="2">
         <v>2</v>
       </c>
-      <c r="AA36" s="2">
+      <c r="AB36" s="2">
         <v>5</v>
       </c>
-      <c r="AB36" s="2">
-        <v>0</v>
-      </c>
       <c r="AC36" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD36" s="2">
         <v>1</v>
       </c>
-      <c r="AD36" s="2">
+      <c r="AE36" s="2">
         <v>5</v>
       </c>
-      <c r="AF36" s="4"/>
+      <c r="AG36" s="4"/>
     </row>
-    <row r="37" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="37" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C37" s="12">
         <v>200501</v>
       </c>
@@ -4762,26 +4858,24 @@
       <c r="E37" s="20"/>
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
-      <c r="H37" s="20"/>
-      <c r="I37" s="3"/>
-      <c r="N37" s="2">
-        <v>0</v>
-      </c>
+      <c r="H37" s="3"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="3"/>
       <c r="O37" s="2">
+        <v>0</v>
+      </c>
+      <c r="P37" s="2">
         <v>10000</v>
       </c>
-      <c r="P37" s="2">
+      <c r="Q37" s="2">
         <v>101</v>
       </c>
-      <c r="R37" s="2">
+      <c r="S37" s="2">
         <v>3</v>
       </c>
-      <c r="S37" s="2">
+      <c r="T37" s="2">
         <v>1</v>
       </c>
-      <c r="T37" s="2">
-        <v>0</v>
-      </c>
       <c r="U37" s="2">
         <v>0</v>
       </c>
@@ -4791,13 +4885,13 @@
       <c r="W37" s="2">
         <v>0</v>
       </c>
-      <c r="X37" s="2" t="str">
+      <c r="X37" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y37" s="2" t="str">
         <f t="shared" si="0"/>
         <v>1,0,0,0,0</v>
       </c>
-      <c r="Z37" s="2">
-        <v>0</v>
-      </c>
       <c r="AA37" s="2">
         <v>0</v>
       </c>
@@ -4810,9 +4904,12 @@
       <c r="AD37" s="2">
         <v>0</v>
       </c>
-      <c r="AF37" s="4"/>
+      <c r="AE37" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG37" s="4"/>
     </row>
-    <row r="38" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="38" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C38" s="12">
         <v>200502</v>
       </c>
@@ -4822,25 +4919,23 @@
       <c r="E38" s="20"/>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
-      <c r="I38" s="3"/>
-      <c r="N38" s="2">
-        <v>0</v>
-      </c>
+      <c r="H38" s="3"/>
+      <c r="J38" s="3"/>
       <c r="O38" s="2">
+        <v>0</v>
+      </c>
+      <c r="P38" s="2">
         <v>10000</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>101</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>3</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>1.2</v>
       </c>
-      <c r="T38" s="2">
-        <v>0</v>
-      </c>
       <c r="U38" s="2">
         <v>0</v>
       </c>
@@ -4850,13 +4945,13 @@
       <c r="W38" s="2">
         <v>0</v>
       </c>
-      <c r="X38" s="2" t="str">
+      <c r="X38" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y38" s="2" t="str">
         <f t="shared" si="0"/>
         <v>1.2,0,0,0,0</v>
       </c>
-      <c r="Z38" s="2">
-        <v>0</v>
-      </c>
       <c r="AA38" s="2">
         <v>0</v>
       </c>
@@ -4869,9 +4964,12 @@
       <c r="AD38" s="2">
         <v>0</v>
       </c>
-      <c r="AF38" s="4"/>
+      <c r="AE38" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG38" s="4"/>
     </row>
-    <row r="39" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="39" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C39" s="12">
         <v>200503</v>
       </c>
@@ -4881,25 +4979,23 @@
       <c r="E39" s="20"/>
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
-      <c r="I39" s="3"/>
-      <c r="N39" s="2">
-        <v>0</v>
-      </c>
+      <c r="H39" s="3"/>
+      <c r="J39" s="3"/>
       <c r="O39" s="2">
+        <v>0</v>
+      </c>
+      <c r="P39" s="2">
         <v>10000</v>
       </c>
-      <c r="P39" s="2">
+      <c r="Q39" s="2">
         <v>101</v>
       </c>
-      <c r="R39" s="2">
+      <c r="S39" s="2">
         <v>3</v>
       </c>
-      <c r="S39" s="2">
+      <c r="T39" s="2">
         <v>1.6</v>
       </c>
-      <c r="T39" s="2">
-        <v>0</v>
-      </c>
       <c r="U39" s="2">
         <v>0</v>
       </c>
@@ -4909,13 +5005,13 @@
       <c r="W39" s="2">
         <v>0</v>
       </c>
-      <c r="X39" s="2" t="str">
+      <c r="X39" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y39" s="2" t="str">
         <f t="shared" si="0"/>
         <v>1.6,0,0,0,0</v>
       </c>
-      <c r="Z39" s="2">
-        <v>0</v>
-      </c>
       <c r="AA39" s="2">
         <v>0</v>
       </c>
@@ -4928,9 +5024,12 @@
       <c r="AD39" s="2">
         <v>0</v>
       </c>
-      <c r="AF39" s="4"/>
+      <c r="AE39" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG39" s="4"/>
     </row>
-    <row r="40" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="40" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C40" s="12">
         <v>200504</v>
       </c>
@@ -4940,25 +5039,23 @@
       <c r="E40" s="20"/>
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
-      <c r="I40" s="3"/>
-      <c r="N40" s="2">
-        <v>0</v>
-      </c>
+      <c r="H40" s="3"/>
+      <c r="J40" s="3"/>
       <c r="O40" s="2">
+        <v>0</v>
+      </c>
+      <c r="P40" s="2">
         <v>10000</v>
       </c>
-      <c r="P40" s="2">
+      <c r="Q40" s="2">
         <v>101</v>
       </c>
-      <c r="R40" s="2">
+      <c r="S40" s="2">
         <v>3</v>
       </c>
-      <c r="S40" s="2">
+      <c r="T40" s="2">
         <v>2.2000000000000002</v>
       </c>
-      <c r="T40" s="2">
-        <v>0</v>
-      </c>
       <c r="U40" s="2">
         <v>0</v>
       </c>
@@ -4968,13 +5065,13 @@
       <c r="W40" s="2">
         <v>0</v>
       </c>
-      <c r="X40" s="2" t="str">
+      <c r="X40" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y40" s="2" t="str">
         <f t="shared" si="0"/>
         <v>2.2,0,0,0,0</v>
       </c>
-      <c r="Z40" s="2">
-        <v>0</v>
-      </c>
       <c r="AA40" s="2">
         <v>0</v>
       </c>
@@ -4987,9 +5084,12 @@
       <c r="AD40" s="2">
         <v>0</v>
       </c>
-      <c r="AF40" s="4"/>
+      <c r="AE40" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG40" s="4"/>
     </row>
-    <row r="41" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="41" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C41" s="12">
         <v>200505</v>
       </c>
@@ -4999,23 +5099,21 @@
       <c r="E41" s="20"/>
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
-      <c r="H41" s="20"/>
-      <c r="I41" s="3"/>
-      <c r="N41" s="2">
-        <v>0</v>
-      </c>
+      <c r="H41" s="3"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="3"/>
       <c r="O41" s="2">
+        <v>0</v>
+      </c>
+      <c r="P41" s="2">
         <v>10000</v>
       </c>
-      <c r="P41" s="2">
+      <c r="Q41" s="2">
         <v>501</v>
       </c>
-      <c r="R41" s="2">
+      <c r="S41" s="2">
         <v>200502</v>
       </c>
-      <c r="S41" s="2">
-        <v>0</v>
-      </c>
       <c r="T41" s="2">
         <v>0</v>
       </c>
@@ -5028,13 +5126,13 @@
       <c r="W41" s="2">
         <v>0</v>
       </c>
-      <c r="X41" s="2" t="str">
+      <c r="X41" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="2" t="str">
         <f t="shared" si="0"/>
         <v>0,0,0,0,0</v>
       </c>
-      <c r="Z41" s="2">
-        <v>0</v>
-      </c>
       <c r="AA41" s="2">
         <v>0</v>
       </c>
@@ -5047,9 +5145,12 @@
       <c r="AD41" s="2">
         <v>0</v>
       </c>
-      <c r="AF41" s="4"/>
+      <c r="AE41" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG41" s="4"/>
     </row>
-    <row r="42" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="42" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C42" s="12">
         <v>300101</v>
       </c>
@@ -5059,57 +5160,57 @@
       <c r="E42" s="20"/>
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
-      <c r="H42" s="20" t="s">
+      <c r="H42" s="3">
+        <v>10</v>
+      </c>
+      <c r="I42" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="I42" s="3" t="s">
+      <c r="J42" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="J42" s="2">
+      <c r="K42" s="2">
         <v>0.2</v>
       </c>
-      <c r="K42" s="2" t="s">
+      <c r="L42" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="L42" s="2">
+      <c r="M42" s="2">
         <v>0.2</v>
       </c>
-      <c r="M42" s="2">
+      <c r="N42" s="2">
         <v>1</v>
       </c>
-      <c r="N42" s="2">
-        <v>0</v>
-      </c>
       <c r="O42" s="2">
+        <v>0</v>
+      </c>
+      <c r="P42" s="2">
         <v>10000</v>
       </c>
-      <c r="P42" s="2">
+      <c r="Q42" s="2">
         <v>101</v>
       </c>
-      <c r="R42" s="2">
-        <v>0</v>
-      </c>
       <c r="S42" s="2">
+        <v>0</v>
+      </c>
+      <c r="T42" s="2">
         <v>1</v>
       </c>
-      <c r="T42" s="2">
+      <c r="U42" s="2">
         <v>200</v>
       </c>
-      <c r="U42" s="2">
-        <v>0</v>
-      </c>
       <c r="V42" s="2">
         <v>0</v>
       </c>
       <c r="W42" s="2">
         <v>0</v>
       </c>
-      <c r="X42" s="2" t="s">
+      <c r="X42" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="Z42" s="2">
-        <v>0</v>
-      </c>
       <c r="AA42" s="2">
         <v>0</v>
       </c>
@@ -5122,9 +5223,12 @@
       <c r="AD42" s="2">
         <v>0</v>
       </c>
-      <c r="AF42" s="4"/>
+      <c r="AE42" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG42" s="4"/>
     </row>
-    <row r="43" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="43" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C43" s="3">
         <v>300111</v>
       </c>
@@ -5134,58 +5238,56 @@
       <c r="E43" s="20"/>
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
-      <c r="H43" s="20" t="s">
+      <c r="H43" s="3"/>
+      <c r="I43" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="I43" s="3" t="s">
+      <c r="J43" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>0.2</v>
       </c>
-      <c r="K43" s="3" t="s">
+      <c r="L43" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>0.2</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1</v>
       </c>
-      <c r="N43" s="2">
-        <v>0</v>
-      </c>
       <c r="O43" s="2">
+        <v>0</v>
+      </c>
+      <c r="P43" s="2">
         <v>10000</v>
       </c>
-      <c r="P43" s="2">
+      <c r="Q43" s="2">
         <v>101</v>
       </c>
-      <c r="R43" s="2">
-        <v>0</v>
-      </c>
       <c r="S43" s="2">
+        <v>0</v>
+      </c>
+      <c r="T43" s="2">
         <v>1</v>
       </c>
-      <c r="T43" s="2">
+      <c r="U43" s="2">
         <v>200</v>
       </c>
-      <c r="U43" s="2">
-        <v>0</v>
-      </c>
       <c r="V43" s="2">
         <v>0</v>
       </c>
       <c r="W43" s="2">
         <v>0</v>
       </c>
-      <c r="X43" s="2" t="str">
+      <c r="X43" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="2" t="str">
         <f t="shared" si="0"/>
         <v>1,200,0,0,0</v>
       </c>
-      <c r="Z43" s="2">
-        <v>0</v>
-      </c>
       <c r="AA43" s="2">
         <v>0</v>
       </c>
@@ -5198,9 +5300,12 @@
       <c r="AD43" s="2">
         <v>0</v>
       </c>
-      <c r="AF43" s="4"/>
+      <c r="AE43" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG43" s="4"/>
     </row>
-    <row r="44" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="44" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C44" s="12">
         <v>300201</v>
       </c>
@@ -5210,26 +5315,26 @@
       <c r="E44" s="20"/>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
-      <c r="H44" s="20"/>
-      <c r="I44" s="3"/>
-      <c r="N44" s="2">
-        <v>0</v>
-      </c>
+      <c r="H44" s="3">
+        <v>30</v>
+      </c>
+      <c r="I44" s="20"/>
+      <c r="J44" s="3"/>
       <c r="O44" s="2">
+        <v>0</v>
+      </c>
+      <c r="P44" s="2">
         <v>10000</v>
       </c>
-      <c r="P44" s="2">
+      <c r="Q44" s="2">
         <v>101</v>
       </c>
-      <c r="R44" s="2">
+      <c r="S44" s="2">
         <v>7</v>
       </c>
-      <c r="S44" s="2">
+      <c r="T44" s="2">
         <v>0.8</v>
       </c>
-      <c r="T44" s="2">
-        <v>0</v>
-      </c>
       <c r="U44" s="2">
         <v>0</v>
       </c>
@@ -5239,13 +5344,13 @@
       <c r="W44" s="2">
         <v>0</v>
       </c>
-      <c r="X44" s="2" t="str">
+      <c r="X44" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="2" t="str">
         <f t="shared" si="0"/>
         <v>0.8,0,0,0,0</v>
       </c>
-      <c r="Z44" s="2">
-        <v>0</v>
-      </c>
       <c r="AA44" s="2">
         <v>0</v>
       </c>
@@ -5258,9 +5363,12 @@
       <c r="AD44" s="2">
         <v>0</v>
       </c>
-      <c r="AF44" s="4"/>
+      <c r="AE44" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG44" s="4"/>
     </row>
-    <row r="45" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="45" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C45" s="12">
         <v>300301</v>
       </c>
@@ -5270,26 +5378,26 @@
       <c r="E45" s="20"/>
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
-      <c r="H45" s="20"/>
-      <c r="I45" s="3"/>
-      <c r="N45" s="2">
-        <v>0</v>
-      </c>
+      <c r="H45" s="3">
+        <v>30</v>
+      </c>
+      <c r="I45" s="20"/>
+      <c r="J45" s="3"/>
       <c r="O45" s="2">
+        <v>0</v>
+      </c>
+      <c r="P45" s="2">
         <v>10000</v>
       </c>
-      <c r="P45" s="2">
+      <c r="Q45" s="2">
         <v>101</v>
       </c>
-      <c r="R45" s="2">
+      <c r="S45" s="2">
         <v>7</v>
       </c>
-      <c r="S45" s="2">
+      <c r="T45" s="2">
         <v>1.5</v>
       </c>
-      <c r="T45" s="2">
-        <v>0</v>
-      </c>
       <c r="U45" s="2">
         <v>0</v>
       </c>
@@ -5299,13 +5407,13 @@
       <c r="W45" s="2">
         <v>0</v>
       </c>
-      <c r="X45" s="2" t="str">
-        <f t="shared" ref="X45:X46" si="1">S45&amp;","&amp;T45&amp;","&amp;U45&amp;","&amp;V45&amp;","&amp;W45</f>
+      <c r="X45" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y45" s="2" t="str">
+        <f t="shared" ref="Y45:Y46" si="1">T45&amp;","&amp;U45&amp;","&amp;V45&amp;","&amp;W45&amp;","&amp;X45</f>
         <v>1.5,0,0,0,0</v>
       </c>
-      <c r="Z45" s="2">
-        <v>0</v>
-      </c>
       <c r="AA45" s="2">
         <v>0</v>
       </c>
@@ -5318,9 +5426,12 @@
       <c r="AD45" s="2">
         <v>0</v>
       </c>
-      <c r="AF45" s="4"/>
+      <c r="AE45" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG45" s="4"/>
     </row>
-    <row r="46" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="46" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C46" s="12">
         <v>300302</v>
       </c>
@@ -5334,29 +5445,27 @@
         <v>1</v>
       </c>
       <c r="G46" s="3"/>
-      <c r="H46" s="20"/>
-      <c r="I46" s="3"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="20"/>
       <c r="J46" s="3"/>
-      <c r="L46" s="3"/>
-      <c r="N46" s="2">
-        <v>0</v>
-      </c>
+      <c r="K46" s="3"/>
+      <c r="M46" s="3"/>
       <c r="O46" s="2">
+        <v>0</v>
+      </c>
+      <c r="P46" s="2">
         <v>10000</v>
       </c>
-      <c r="P46" s="2">
+      <c r="Q46" s="2">
         <v>401</v>
       </c>
-      <c r="Q46" s="22"/>
-      <c r="R46" s="2">
-        <v>0</v>
-      </c>
+      <c r="R46" s="22"/>
       <c r="S46" s="2">
+        <v>0</v>
+      </c>
+      <c r="T46" s="2">
         <v>0.2</v>
       </c>
-      <c r="T46" s="2">
-        <v>0</v>
-      </c>
       <c r="U46" s="2">
         <v>0</v>
       </c>
@@ -5366,13 +5475,13 @@
       <c r="W46" s="2">
         <v>0</v>
       </c>
-      <c r="X46" s="2" t="str">
+      <c r="X46" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y46" s="2" t="str">
         <f t="shared" si="1"/>
         <v>0.2,0,0,0,0</v>
       </c>
-      <c r="Z46" s="2">
-        <v>0</v>
-      </c>
       <c r="AA46" s="2">
         <v>0</v>
       </c>
@@ -5385,9 +5494,12 @@
       <c r="AD46" s="2">
         <v>0</v>
       </c>
-      <c r="AF46" s="4"/>
+      <c r="AE46" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG46" s="4"/>
     </row>
-    <row r="47" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="47" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C47" s="12">
         <v>300501</v>
       </c>
@@ -5397,26 +5509,24 @@
       <c r="E47" s="20"/>
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
-      <c r="H47" s="20"/>
-      <c r="I47" s="3"/>
-      <c r="N47" s="2">
-        <v>0</v>
-      </c>
+      <c r="H47" s="3"/>
+      <c r="I47" s="20"/>
+      <c r="J47" s="3"/>
       <c r="O47" s="2">
+        <v>0</v>
+      </c>
+      <c r="P47" s="2">
         <v>10000</v>
       </c>
-      <c r="P47" s="2">
+      <c r="Q47" s="2">
         <v>101</v>
       </c>
-      <c r="R47" s="2">
+      <c r="S47" s="2">
         <v>7</v>
       </c>
-      <c r="S47" s="2">
+      <c r="T47" s="2">
         <v>3.6</v>
       </c>
-      <c r="T47" s="2">
-        <v>0</v>
-      </c>
       <c r="U47" s="2">
         <v>0</v>
       </c>
@@ -5426,13 +5536,13 @@
       <c r="W47" s="2">
         <v>0</v>
       </c>
-      <c r="X47" s="2" t="str">
-        <f t="shared" ref="X47" si="2">S47&amp;","&amp;T47&amp;","&amp;U47&amp;","&amp;V47&amp;","&amp;W47</f>
+      <c r="X47" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y47" s="2" t="str">
+        <f t="shared" ref="Y47" si="2">T47&amp;","&amp;U47&amp;","&amp;V47&amp;","&amp;W47&amp;","&amp;X47</f>
         <v>3.6,0,0,0,0</v>
       </c>
-      <c r="Z47" s="2">
-        <v>0</v>
-      </c>
       <c r="AA47" s="2">
         <v>0</v>
       </c>
@@ -5445,9 +5555,12 @@
       <c r="AD47" s="2">
         <v>0</v>
       </c>
-      <c r="AF47" s="4"/>
+      <c r="AE47" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG47" s="4"/>
     </row>
-    <row r="48" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="48" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C48" s="12">
         <v>800101</v>
       </c>
@@ -5457,56 +5570,56 @@
       <c r="E48" s="20"/>
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
-      <c r="H48" s="20" t="s">
+      <c r="H48" s="3">
+        <v>10</v>
+      </c>
+      <c r="I48" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="I48" s="3" t="s">
+      <c r="J48" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>0.2</v>
       </c>
-      <c r="K48" s="3" t="s">
+      <c r="L48" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>0.2</v>
       </c>
-      <c r="M48" s="3"/>
-      <c r="N48" s="2">
-        <v>0</v>
-      </c>
+      <c r="N48" s="3"/>
       <c r="O48" s="2">
+        <v>0</v>
+      </c>
+      <c r="P48" s="2">
         <v>10000</v>
       </c>
-      <c r="P48" s="2">
+      <c r="Q48" s="2">
         <v>101</v>
       </c>
-      <c r="R48" s="2">
-        <v>0</v>
-      </c>
       <c r="S48" s="2">
+        <v>0</v>
+      </c>
+      <c r="T48" s="2">
         <v>1</v>
       </c>
-      <c r="T48" s="2">
+      <c r="U48" s="2">
         <v>200</v>
       </c>
-      <c r="U48" s="2">
-        <v>0</v>
-      </c>
       <c r="V48" s="2">
         <v>0</v>
       </c>
       <c r="W48" s="2">
         <v>0</v>
       </c>
-      <c r="X48" s="2" t="str">
+      <c r="X48" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y48" s="2" t="str">
         <f t="shared" si="0"/>
         <v>1,200,0,0,0</v>
       </c>
-      <c r="Z48" s="2">
-        <v>0</v>
-      </c>
       <c r="AA48" s="2">
         <v>0</v>
       </c>
@@ -5519,9 +5632,12 @@
       <c r="AD48" s="2">
         <v>0</v>
       </c>
-      <c r="AF48" s="4"/>
+      <c r="AE48" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG48" s="4"/>
     </row>
-    <row r="49" spans="3:36" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:37" x14ac:dyDescent="0.2">
       <c r="C49" s="12">
         <v>800102</v>
       </c>
@@ -5535,34 +5651,32 @@
         <v>1</v>
       </c>
       <c r="G49" s="3"/>
-      <c r="H49" s="20" t="s">
+      <c r="H49" s="3"/>
+      <c r="I49" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="I49" s="3" t="s">
+      <c r="J49" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="J49" s="3"/>
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
       <c r="M49" s="3"/>
-      <c r="N49" s="2">
-        <v>0</v>
-      </c>
+      <c r="N49" s="3"/>
       <c r="O49" s="2">
+        <v>0</v>
+      </c>
+      <c r="P49" s="2">
         <v>5000</v>
       </c>
-      <c r="P49" s="2">
+      <c r="Q49" s="2">
         <v>311</v>
       </c>
-      <c r="R49" s="2">
-        <v>0</v>
-      </c>
       <c r="S49" s="2">
+        <v>0</v>
+      </c>
+      <c r="T49" s="2">
         <v>0.35</v>
       </c>
-      <c r="T49" s="2">
-        <v>0</v>
-      </c>
       <c r="U49" s="2">
         <v>0</v>
       </c>
@@ -5572,13 +5686,13 @@
       <c r="W49" s="2">
         <v>0</v>
       </c>
-      <c r="X49" s="2" t="str">
+      <c r="X49" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y49" s="2" t="str">
         <f t="shared" si="0"/>
         <v>0.35,0,0,0,0</v>
       </c>
-      <c r="Z49" s="2">
-        <v>0</v>
-      </c>
       <c r="AA49" s="2">
         <v>0</v>
       </c>
@@ -5591,9 +5705,12 @@
       <c r="AD49" s="2">
         <v>0</v>
       </c>
-      <c r="AF49" s="4"/>
+      <c r="AE49" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG49" s="4"/>
     </row>
-    <row r="50" spans="3:36" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:37" x14ac:dyDescent="0.2">
       <c r="C50" s="12">
         <v>800201</v>
       </c>
@@ -5603,26 +5720,26 @@
       <c r="E50" s="20"/>
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
-      <c r="H50" s="20"/>
-      <c r="I50" s="3"/>
-      <c r="N50" s="2">
-        <v>0</v>
-      </c>
+      <c r="H50" s="3">
+        <v>30</v>
+      </c>
+      <c r="I50" s="20"/>
+      <c r="J50" s="3"/>
       <c r="O50" s="2">
+        <v>0</v>
+      </c>
+      <c r="P50" s="2">
         <v>10000</v>
       </c>
-      <c r="P50" s="2">
+      <c r="Q50" s="2">
         <v>101</v>
       </c>
-      <c r="R50" s="2">
+      <c r="S50" s="2">
         <v>6</v>
       </c>
-      <c r="S50" s="2">
+      <c r="T50" s="2">
         <v>2.4</v>
       </c>
-      <c r="T50" s="2">
-        <v>0</v>
-      </c>
       <c r="U50" s="2">
         <v>0</v>
       </c>
@@ -5632,13 +5749,13 @@
       <c r="W50" s="2">
         <v>0</v>
       </c>
-      <c r="X50" s="2" t="str">
-        <f t="shared" ref="X50:X54" si="3">S50&amp;","&amp;T50&amp;","&amp;U50&amp;","&amp;V50&amp;","&amp;W50</f>
+      <c r="X50" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="2" t="str">
+        <f t="shared" ref="Y50:Y54" si="3">T50&amp;","&amp;U50&amp;","&amp;V50&amp;","&amp;W50&amp;","&amp;X50</f>
         <v>2.4,0,0,0,0</v>
       </c>
-      <c r="Z50" s="2">
-        <v>0</v>
-      </c>
       <c r="AA50" s="2">
         <v>0</v>
       </c>
@@ -5651,9 +5768,12 @@
       <c r="AD50" s="2">
         <v>0</v>
       </c>
-      <c r="AF50" s="4"/>
+      <c r="AE50" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG50" s="4"/>
     </row>
-    <row r="51" spans="3:36" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:37" x14ac:dyDescent="0.2">
       <c r="C51" s="35">
         <v>800202</v>
       </c>
@@ -5667,30 +5787,28 @@
         <v>0</v>
       </c>
       <c r="G51" s="3"/>
-      <c r="H51" s="20" t="s">
+      <c r="H51" s="3"/>
+      <c r="I51" s="20" t="s">
         <v>149</v>
       </c>
-      <c r="I51" s="3" t="s">
+      <c r="J51" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="N51" s="2">
-        <v>0</v>
-      </c>
       <c r="O51" s="2">
+        <v>0</v>
+      </c>
+      <c r="P51" s="2">
         <v>10000</v>
       </c>
-      <c r="P51" s="2">
+      <c r="Q51" s="2">
         <v>321</v>
       </c>
-      <c r="R51" s="2">
-        <v>0</v>
-      </c>
       <c r="S51" s="2">
+        <v>0</v>
+      </c>
+      <c r="T51" s="2">
         <v>0.35</v>
       </c>
-      <c r="T51" s="2">
-        <v>0</v>
-      </c>
       <c r="U51" s="2">
         <v>0</v>
       </c>
@@ -5700,31 +5818,34 @@
       <c r="W51" s="2">
         <v>0</v>
       </c>
-      <c r="X51" s="2" t="str">
+      <c r="X51" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="2" t="str">
         <f t="shared" si="3"/>
         <v>0.35,0,0,0,0</v>
       </c>
-      <c r="Z51" s="2">
+      <c r="AA51" s="2">
         <v>1</v>
       </c>
-      <c r="AA51" s="2">
+      <c r="AB51" s="2">
         <v>0.5</v>
       </c>
-      <c r="AB51" s="2">
-        <v>0</v>
-      </c>
       <c r="AC51" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD51" s="2">
         <v>1</v>
       </c>
-      <c r="AD51" s="2">
+      <c r="AE51" s="2">
         <v>6</v>
       </c>
-      <c r="AE51" s="2">
+      <c r="AF51" s="2">
         <v>100101</v>
       </c>
-      <c r="AF51" s="4"/>
+      <c r="AG51" s="4"/>
     </row>
-    <row r="52" spans="3:36" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:37" x14ac:dyDescent="0.2">
       <c r="C52" s="12">
         <v>800301</v>
       </c>
@@ -5738,30 +5859,30 @@
         <v>0</v>
       </c>
       <c r="G52" s="3"/>
-      <c r="H52" s="20" t="s">
+      <c r="H52" s="3">
+        <v>30</v>
+      </c>
+      <c r="I52" s="20" t="s">
         <v>149</v>
       </c>
-      <c r="I52" s="3" t="s">
+      <c r="J52" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="N52" s="2">
-        <v>0</v>
-      </c>
       <c r="O52" s="2">
+        <v>0</v>
+      </c>
+      <c r="P52" s="2">
         <v>10000</v>
       </c>
-      <c r="P52" s="2">
+      <c r="Q52" s="2">
         <v>321</v>
       </c>
-      <c r="R52" s="2">
-        <v>0</v>
-      </c>
       <c r="S52" s="2">
+        <v>0</v>
+      </c>
+      <c r="T52" s="2">
         <v>0.5</v>
       </c>
-      <c r="T52" s="2">
-        <v>0</v>
-      </c>
       <c r="U52" s="2">
         <v>0</v>
       </c>
@@ -5771,13 +5892,13 @@
       <c r="W52" s="2">
         <v>0</v>
       </c>
-      <c r="X52" s="2" t="str">
+      <c r="X52" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y52" s="2" t="str">
         <f t="shared" si="3"/>
         <v>0.5,0,0,0,0</v>
       </c>
-      <c r="Z52" s="2">
-        <v>0</v>
-      </c>
       <c r="AA52" s="2">
         <v>0</v>
       </c>
@@ -5790,9 +5911,12 @@
       <c r="AD52" s="2">
         <v>0</v>
       </c>
-      <c r="AF52" s="4"/>
+      <c r="AE52" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG52" s="4"/>
     </row>
-    <row r="53" spans="3:36" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:37" x14ac:dyDescent="0.2">
       <c r="C53" s="12">
         <v>800501</v>
       </c>
@@ -5802,26 +5926,24 @@
       <c r="E53" s="20"/>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
-      <c r="H53" s="20"/>
-      <c r="I53" s="3"/>
-      <c r="N53" s="2">
-        <v>0</v>
-      </c>
+      <c r="H53" s="3"/>
+      <c r="I53" s="20"/>
+      <c r="J53" s="3"/>
       <c r="O53" s="2">
+        <v>0</v>
+      </c>
+      <c r="P53" s="2">
         <v>10000</v>
       </c>
-      <c r="P53" s="2">
+      <c r="Q53" s="2">
         <v>101</v>
       </c>
-      <c r="R53" s="2">
+      <c r="S53" s="2">
         <v>1</v>
       </c>
-      <c r="S53" s="2">
+      <c r="T53" s="2">
         <v>3.6</v>
       </c>
-      <c r="T53" s="2">
-        <v>0</v>
-      </c>
       <c r="U53" s="2">
         <v>0</v>
       </c>
@@ -5831,13 +5953,13 @@
       <c r="W53" s="2">
         <v>0</v>
       </c>
-      <c r="X53" s="2" t="str">
+      <c r="X53" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="2" t="str">
         <f t="shared" si="3"/>
         <v>3.6,0,0,0,0</v>
       </c>
-      <c r="Z53" s="2">
-        <v>0</v>
-      </c>
       <c r="AA53" s="2">
         <v>0</v>
       </c>
@@ -5850,9 +5972,12 @@
       <c r="AD53" s="2">
         <v>0</v>
       </c>
-      <c r="AF53" s="4"/>
+      <c r="AE53" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG53" s="4"/>
     </row>
-    <row r="54" spans="3:36" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:37" x14ac:dyDescent="0.2">
       <c r="C54" s="12">
         <v>800502</v>
       </c>
@@ -5862,23 +5987,21 @@
       <c r="E54" s="20"/>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
-      <c r="H54" s="20"/>
-      <c r="I54" s="3"/>
-      <c r="N54" s="2">
-        <v>0</v>
-      </c>
+      <c r="H54" s="3"/>
+      <c r="I54" s="20"/>
+      <c r="J54" s="3"/>
       <c r="O54" s="2">
+        <v>0</v>
+      </c>
+      <c r="P54" s="2">
         <v>10000</v>
       </c>
-      <c r="P54" s="2">
+      <c r="Q54" s="2">
         <v>501</v>
       </c>
-      <c r="R54" s="2">
+      <c r="S54" s="2">
         <v>800502</v>
       </c>
-      <c r="S54" s="2">
-        <v>0</v>
-      </c>
       <c r="T54" s="2">
         <v>0</v>
       </c>
@@ -5891,28 +6014,31 @@
       <c r="W54" s="2">
         <v>0</v>
       </c>
-      <c r="X54" s="2" t="str">
+      <c r="X54" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y54" s="2" t="str">
         <f t="shared" si="3"/>
         <v>0,0,0,0,0</v>
       </c>
-      <c r="Z54" s="2">
+      <c r="AA54" s="2">
         <v>1</v>
       </c>
-      <c r="AA54" s="2">
+      <c r="AB54" s="2">
         <v>0.5</v>
       </c>
-      <c r="AB54" s="2">
-        <v>0</v>
-      </c>
       <c r="AC54" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD54" s="2">
         <v>1</v>
       </c>
-      <c r="AD54" s="2">
+      <c r="AE54" s="2">
         <v>6</v>
       </c>
-      <c r="AF54" s="4"/>
+      <c r="AG54" s="4"/>
     </row>
-    <row r="55" spans="3:36" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:37" x14ac:dyDescent="0.2">
       <c r="C55" s="3">
         <v>2101101</v>
       </c>
@@ -5922,26 +6048,24 @@
       <c r="E55" s="20"/>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
-      <c r="H55" s="20"/>
-      <c r="I55" s="3"/>
-      <c r="N55" s="2">
-        <v>0</v>
-      </c>
+      <c r="H55" s="3"/>
+      <c r="I55" s="20"/>
+      <c r="J55" s="3"/>
       <c r="O55" s="2">
+        <v>0</v>
+      </c>
+      <c r="P55" s="2">
         <v>10000</v>
       </c>
-      <c r="P55" s="2">
+      <c r="Q55" s="2">
         <v>421</v>
       </c>
-      <c r="R55" s="2">
-        <v>0</v>
-      </c>
       <c r="S55" s="2">
+        <v>0</v>
+      </c>
+      <c r="T55" s="2">
         <v>0.2</v>
       </c>
-      <c r="T55" s="2">
-        <v>0</v>
-      </c>
       <c r="U55" s="2">
         <v>0</v>
       </c>
@@ -5951,13 +6075,13 @@
       <c r="W55" s="2">
         <v>0</v>
       </c>
-      <c r="X55" s="2" t="str">
+      <c r="X55" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y55" s="2" t="str">
         <f t="shared" si="0"/>
         <v>0.2,0,0,0,0</v>
       </c>
-      <c r="Z55" s="2">
-        <v>0</v>
-      </c>
       <c r="AA55" s="2">
         <v>0</v>
       </c>
@@ -5970,10 +6094,13 @@
       <c r="AD55" s="2">
         <v>0</v>
       </c>
-      <c r="AF55" s="4"/>
-      <c r="AJ55" s="4"/>
+      <c r="AE55" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG55" s="4"/>
+      <c r="AK55" s="4"/>
     </row>
-    <row r="56" spans="3:36" x14ac:dyDescent="0.2">
+    <row r="56" spans="3:37" x14ac:dyDescent="0.2">
       <c r="C56" s="3">
         <v>2101102</v>
       </c>
@@ -5983,23 +6110,21 @@
       <c r="E56" s="20"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
-      <c r="H56" s="20"/>
-      <c r="I56" s="3"/>
-      <c r="N56" s="2">
-        <v>0</v>
-      </c>
+      <c r="H56" s="3"/>
+      <c r="I56" s="20"/>
+      <c r="J56" s="3"/>
       <c r="O56" s="2">
+        <v>0</v>
+      </c>
+      <c r="P56" s="2">
         <v>10000</v>
       </c>
-      <c r="P56" s="2">
+      <c r="Q56" s="2">
         <v>501</v>
       </c>
-      <c r="R56" s="2">
+      <c r="S56" s="2">
         <v>100201</v>
       </c>
-      <c r="S56" s="2">
-        <v>0</v>
-      </c>
       <c r="T56" s="2">
         <v>0</v>
       </c>
@@ -6012,29 +6137,32 @@
       <c r="W56" s="2">
         <v>0</v>
       </c>
-      <c r="X56" s="2" t="str">
+      <c r="X56" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y56" s="2" t="str">
         <f t="shared" si="0"/>
         <v>0,0,0,0,0</v>
       </c>
-      <c r="Z56" s="2">
+      <c r="AA56" s="2">
         <v>2</v>
       </c>
-      <c r="AA56" s="2">
+      <c r="AB56" s="2">
         <v>3</v>
       </c>
-      <c r="AB56" s="2">
-        <v>0</v>
-      </c>
       <c r="AC56" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD56" s="2">
         <v>1</v>
       </c>
-      <c r="AD56" s="2">
+      <c r="AE56" s="2">
         <v>2</v>
       </c>
-      <c r="AF56" s="4"/>
-      <c r="AJ56" s="4"/>
+      <c r="AG56" s="4"/>
+      <c r="AK56" s="4"/>
     </row>
-    <row r="57" spans="3:36" x14ac:dyDescent="0.2">
+    <row r="57" spans="3:37" x14ac:dyDescent="0.2">
       <c r="C57" s="3">
         <v>2101201</v>
       </c>
@@ -6044,27 +6172,25 @@
       <c r="E57" s="20"/>
       <c r="F57" s="3"/>
       <c r="G57" s="3"/>
-      <c r="H57" s="20" t="s">
+      <c r="H57" s="3"/>
+      <c r="I57" s="20" t="s">
         <v>171</v>
       </c>
-      <c r="I57" s="3" t="s">
+      <c r="J57" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="N57" s="2">
-        <v>0</v>
-      </c>
       <c r="O57" s="2">
+        <v>0</v>
+      </c>
+      <c r="P57" s="2">
         <v>10000</v>
       </c>
-      <c r="P57" s="2">
+      <c r="Q57" s="2">
         <v>701</v>
       </c>
-      <c r="R57" s="2">
+      <c r="S57" s="2">
         <v>3</v>
       </c>
-      <c r="S57" s="2">
-        <v>0</v>
-      </c>
       <c r="T57" s="2">
         <v>0</v>
       </c>
@@ -6077,29 +6203,32 @@
       <c r="W57" s="2">
         <v>0</v>
       </c>
-      <c r="X57" s="2" t="str">
+      <c r="X57" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y57" s="2" t="str">
         <f t="shared" si="0"/>
         <v>0,0,0,0,0</v>
       </c>
-      <c r="Z57" s="2">
+      <c r="AA57" s="2">
         <v>1</v>
       </c>
-      <c r="AA57" s="2">
+      <c r="AB57" s="2">
         <v>0.5</v>
       </c>
-      <c r="AB57" s="2">
-        <v>0</v>
-      </c>
       <c r="AC57" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD57" s="2">
         <v>1</v>
       </c>
-      <c r="AD57" s="2">
+      <c r="AE57" s="2">
         <v>6</v>
       </c>
-      <c r="AF57" s="4"/>
-      <c r="AJ57" s="4"/>
+      <c r="AG57" s="4"/>
+      <c r="AK57" s="4"/>
     </row>
-    <row r="58" spans="3:36" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:37" x14ac:dyDescent="0.2">
       <c r="C58" s="3">
         <v>2201101</v>
       </c>
@@ -6109,23 +6238,21 @@
       <c r="E58" s="20"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
-      <c r="H58" s="20"/>
-      <c r="I58" s="3"/>
-      <c r="N58" s="2">
-        <v>0</v>
-      </c>
+      <c r="H58" s="3"/>
+      <c r="I58" s="20"/>
+      <c r="J58" s="3"/>
       <c r="O58" s="2">
+        <v>0</v>
+      </c>
+      <c r="P58" s="2">
         <v>10000</v>
       </c>
-      <c r="P58" s="2">
+      <c r="Q58" s="2">
         <v>501</v>
       </c>
-      <c r="R58" s="2">
+      <c r="S58" s="2">
         <v>200101</v>
       </c>
-      <c r="S58" s="2">
-        <v>0</v>
-      </c>
       <c r="T58" s="2">
         <v>0</v>
       </c>
@@ -6138,29 +6265,32 @@
       <c r="W58" s="2">
         <v>0</v>
       </c>
-      <c r="X58" s="2" t="str">
+      <c r="X58" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y58" s="2" t="str">
         <f t="shared" si="0"/>
         <v>0,0,0,0,0</v>
       </c>
-      <c r="Z58" s="2">
+      <c r="AA58" s="2">
         <v>1</v>
       </c>
-      <c r="AA58" s="2">
+      <c r="AB58" s="2">
         <v>3</v>
       </c>
-      <c r="AB58" s="2">
-        <v>0</v>
-      </c>
       <c r="AC58" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD58" s="2">
         <v>1</v>
       </c>
-      <c r="AD58" s="2">
+      <c r="AE58" s="2">
         <v>5</v>
       </c>
-      <c r="AF58" s="4"/>
-      <c r="AJ58" s="4"/>
+      <c r="AG58" s="4"/>
+      <c r="AK58" s="4"/>
     </row>
-    <row r="59" spans="3:36" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:37" x14ac:dyDescent="0.2">
       <c r="C59" s="9">
         <v>2201102</v>
       </c>
@@ -6170,28 +6300,26 @@
       <c r="E59" s="21"/>
       <c r="F59" s="9"/>
       <c r="G59" s="9"/>
-      <c r="H59" s="21"/>
-      <c r="I59" s="9"/>
-      <c r="J59" s="10"/>
+      <c r="H59" s="9"/>
+      <c r="I59" s="21"/>
+      <c r="J59" s="9"/>
       <c r="K59" s="10"/>
       <c r="L59" s="10"/>
       <c r="M59" s="10"/>
-      <c r="N59" s="10">
-        <v>0</v>
-      </c>
+      <c r="N59" s="10"/>
       <c r="O59" s="10">
+        <v>0</v>
+      </c>
+      <c r="P59" s="10">
         <v>10000</v>
       </c>
-      <c r="P59" s="10">
+      <c r="Q59" s="10">
         <v>501</v>
       </c>
-      <c r="Q59" s="10"/>
-      <c r="R59" s="10">
+      <c r="R59" s="10"/>
+      <c r="S59" s="10">
         <v>200102</v>
       </c>
-      <c r="S59" s="10">
-        <v>0</v>
-      </c>
       <c r="T59" s="10">
         <v>0</v>
       </c>
@@ -6204,31 +6332,34 @@
       <c r="W59" s="10">
         <v>0</v>
       </c>
-      <c r="X59" s="2" t="str">
+      <c r="X59" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y59" s="2" t="str">
         <f t="shared" si="0"/>
         <v>0,0,0,0,0</v>
       </c>
-      <c r="Y59" s="10"/>
-      <c r="Z59" s="10">
+      <c r="Z59" s="10"/>
+      <c r="AA59" s="10">
         <v>1</v>
       </c>
-      <c r="AA59" s="10">
+      <c r="AB59" s="10">
         <v>0.5</v>
       </c>
-      <c r="AB59" s="10">
-        <v>0</v>
-      </c>
       <c r="AC59" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD59" s="10">
         <v>1</v>
       </c>
-      <c r="AD59" s="10">
+      <c r="AE59" s="10">
         <v>6</v>
       </c>
-      <c r="AE59" s="10"/>
-      <c r="AF59" s="11"/>
-      <c r="AJ59" s="4"/>
+      <c r="AF59" s="10"/>
+      <c r="AG59" s="11"/>
+      <c r="AK59" s="4"/>
     </row>
-    <row r="60" spans="3:36" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:37" x14ac:dyDescent="0.2">
       <c r="C60" s="3">
         <v>2201201</v>
       </c>
@@ -6238,23 +6369,21 @@
       <c r="E60" s="20"/>
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
-      <c r="H60" s="20"/>
-      <c r="I60" s="3"/>
-      <c r="N60" s="2">
-        <v>0</v>
-      </c>
+      <c r="H60" s="3"/>
+      <c r="I60" s="20"/>
+      <c r="J60" s="3"/>
       <c r="O60" s="2">
+        <v>0</v>
+      </c>
+      <c r="P60" s="2">
         <v>10000</v>
       </c>
-      <c r="P60" s="2">
+      <c r="Q60" s="2">
         <v>501</v>
       </c>
-      <c r="R60" s="2">
+      <c r="S60" s="2">
         <v>200201</v>
       </c>
-      <c r="S60" s="2">
-        <v>0</v>
-      </c>
       <c r="T60" s="2">
         <v>0</v>
       </c>
@@ -6267,32 +6396,35 @@
       <c r="W60" s="2">
         <v>0</v>
       </c>
-      <c r="X60" s="2" t="str">
+      <c r="X60" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y60" s="2" t="str">
         <f t="shared" si="0"/>
         <v>0,0,0,0,0</v>
       </c>
-      <c r="Z60" s="2">
-        <v>2</v>
-      </c>
       <c r="AA60" s="2">
         <v>2</v>
       </c>
       <c r="AB60" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC60" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD60" s="2">
         <v>1</v>
       </c>
-      <c r="AD60" s="2">
+      <c r="AE60" s="2">
         <v>5</v>
       </c>
-      <c r="AF60" s="4"/>
-      <c r="AG60" s="10"/>
+      <c r="AG60" s="4"/>
       <c r="AH60" s="10"/>
       <c r="AI60" s="10"/>
-      <c r="AJ60" s="11"/>
+      <c r="AJ60" s="10"/>
+      <c r="AK60" s="11"/>
     </row>
-    <row r="61" spans="3:36" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:37" x14ac:dyDescent="0.2">
       <c r="C61" s="3">
         <v>2201202</v>
       </c>
@@ -6302,26 +6434,24 @@
       <c r="E61" s="20"/>
       <c r="F61" s="3"/>
       <c r="G61" s="3"/>
-      <c r="H61" s="20"/>
-      <c r="I61" s="3"/>
-      <c r="N61" s="2">
-        <v>0</v>
-      </c>
+      <c r="H61" s="3"/>
+      <c r="I61" s="20"/>
+      <c r="J61" s="3"/>
       <c r="O61" s="2">
+        <v>0</v>
+      </c>
+      <c r="P61" s="2">
         <v>10000</v>
       </c>
-      <c r="P61" s="2">
+      <c r="Q61" s="2">
         <v>102</v>
       </c>
-      <c r="R61" s="2" t="s">
+      <c r="S61" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="S61" s="2">
+      <c r="T61" s="2">
         <v>0.02</v>
       </c>
-      <c r="T61" s="2">
-        <v>0</v>
-      </c>
       <c r="U61" s="2">
         <v>0</v>
       </c>
@@ -6331,31 +6461,34 @@
       <c r="W61" s="2">
         <v>0</v>
       </c>
-      <c r="X61" s="2" t="str">
+      <c r="X61" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="2" t="str">
         <f t="shared" si="0"/>
         <v>0.02,0,0,0,0</v>
       </c>
-      <c r="Z61" s="2">
+      <c r="AA61" s="2">
         <v>2</v>
       </c>
-      <c r="AA61" s="2">
+      <c r="AB61" s="2">
         <v>0.5</v>
       </c>
-      <c r="AB61" s="2">
-        <v>0</v>
-      </c>
       <c r="AC61" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD61" s="2">
         <v>1</v>
       </c>
-      <c r="AD61" s="2">
+      <c r="AE61" s="2">
         <v>6</v>
       </c>
-      <c r="AE61" s="2">
+      <c r="AF61" s="2">
         <v>200101</v>
       </c>
-      <c r="AF61" s="4"/>
+      <c r="AG61" s="4"/>
     </row>
-    <row r="62" spans="3:36" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:37" x14ac:dyDescent="0.2">
       <c r="C62" s="9">
         <v>2301101</v>
       </c>
@@ -6365,31 +6498,29 @@
       <c r="E62" s="21"/>
       <c r="F62" s="9"/>
       <c r="G62" s="9"/>
-      <c r="H62" s="21"/>
-      <c r="I62" s="9"/>
-      <c r="J62" s="10"/>
+      <c r="H62" s="9"/>
+      <c r="I62" s="21"/>
+      <c r="J62" s="9"/>
       <c r="K62" s="10"/>
       <c r="L62" s="10"/>
       <c r="M62" s="10"/>
-      <c r="N62" s="10">
-        <v>0</v>
-      </c>
+      <c r="N62" s="10"/>
       <c r="O62" s="10">
+        <v>0</v>
+      </c>
+      <c r="P62" s="10">
         <v>10000</v>
       </c>
-      <c r="P62" s="10">
+      <c r="Q62" s="10">
         <v>802</v>
       </c>
-      <c r="Q62" s="10"/>
-      <c r="R62" s="10">
+      <c r="R62" s="10"/>
+      <c r="S62" s="10">
         <v>4</v>
       </c>
-      <c r="S62" s="10">
+      <c r="T62" s="10">
         <v>3</v>
       </c>
-      <c r="T62" s="10">
-        <v>0</v>
-      </c>
       <c r="U62" s="10">
         <v>0</v>
       </c>
@@ -6399,32 +6530,35 @@
       <c r="W62" s="10">
         <v>0</v>
       </c>
-      <c r="X62" s="2" t="str">
+      <c r="X62" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y62" s="2" t="str">
         <f t="shared" si="0"/>
         <v>3,0,0,0,0</v>
       </c>
-      <c r="Y62" s="10" t="s">
+      <c r="Z62" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="Z62" s="10">
+      <c r="AA62" s="10">
         <v>1</v>
       </c>
-      <c r="AA62" s="10">
+      <c r="AB62" s="10">
         <v>0.5</v>
       </c>
-      <c r="AB62" s="10">
-        <v>0</v>
-      </c>
       <c r="AC62" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD62" s="10">
         <v>1</v>
       </c>
-      <c r="AD62" s="10">
+      <c r="AE62" s="10">
         <v>6</v>
       </c>
-      <c r="AE62" s="10"/>
-      <c r="AF62" s="11"/>
+      <c r="AF62" s="10"/>
+      <c r="AG62" s="11"/>
     </row>
-    <row r="63" spans="3:36" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:37" x14ac:dyDescent="0.2">
       <c r="C63" s="3">
         <v>2301201</v>
       </c>
@@ -6438,26 +6572,24 @@
         <v>1</v>
       </c>
       <c r="G63" s="3"/>
-      <c r="H63" s="20"/>
-      <c r="I63" s="3"/>
-      <c r="N63" s="2">
-        <v>0</v>
-      </c>
+      <c r="H63" s="3"/>
+      <c r="I63" s="20"/>
+      <c r="J63" s="3"/>
       <c r="O63" s="2">
+        <v>0</v>
+      </c>
+      <c r="P63" s="2">
         <v>10000</v>
       </c>
-      <c r="P63" s="2">
+      <c r="Q63" s="2">
         <v>401</v>
       </c>
-      <c r="R63" s="2">
-        <v>0</v>
-      </c>
       <c r="S63" s="2">
+        <v>0</v>
+      </c>
+      <c r="T63" s="2">
         <v>0.2</v>
       </c>
-      <c r="T63" s="2">
-        <v>0</v>
-      </c>
       <c r="U63" s="2">
         <v>0</v>
       </c>
@@ -6467,28 +6599,31 @@
       <c r="W63" s="2">
         <v>0</v>
       </c>
-      <c r="X63" s="2" t="str">
+      <c r="X63" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y63" s="2" t="str">
         <f t="shared" si="0"/>
         <v>0.2,0,0,0,0</v>
       </c>
-      <c r="Z63" s="2">
+      <c r="AA63" s="2">
         <v>2</v>
       </c>
-      <c r="AA63" s="2">
+      <c r="AB63" s="2">
         <v>8</v>
       </c>
-      <c r="AB63" s="2">
-        <v>0</v>
-      </c>
       <c r="AC63" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD63" s="2">
         <v>1</v>
       </c>
-      <c r="AD63" s="2">
+      <c r="AE63" s="2">
         <v>5</v>
       </c>
-      <c r="AF63" s="4"/>
+      <c r="AG63" s="4"/>
     </row>
-    <row r="64" spans="3:36" x14ac:dyDescent="0.2">
+    <row r="64" spans="3:37" x14ac:dyDescent="0.2">
       <c r="C64" s="9">
         <v>2801101</v>
       </c>
@@ -6500,25 +6635,23 @@
       </c>
       <c r="F64" s="9"/>
       <c r="G64" s="9"/>
-      <c r="H64" s="21"/>
-      <c r="I64" s="9"/>
-      <c r="J64" s="10"/>
+      <c r="H64" s="9"/>
+      <c r="I64" s="21"/>
+      <c r="J64" s="9"/>
       <c r="K64" s="10"/>
       <c r="L64" s="10"/>
       <c r="M64" s="10"/>
-      <c r="N64" s="10">
-        <v>0</v>
-      </c>
+      <c r="N64" s="10"/>
       <c r="O64" s="10">
+        <v>0</v>
+      </c>
+      <c r="P64" s="10">
         <v>10000</v>
       </c>
-      <c r="P64" s="10">
+      <c r="Q64" s="10">
         <v>901</v>
       </c>
-      <c r="Q64" s="10"/>
-      <c r="R64" s="10">
-        <v>0</v>
-      </c>
+      <c r="R64" s="10"/>
       <c r="S64" s="10">
         <v>0</v>
       </c>
@@ -6534,30 +6667,33 @@
       <c r="W64" s="10">
         <v>0</v>
       </c>
-      <c r="X64" s="2" t="str">
+      <c r="X64" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y64" s="2" t="str">
         <f t="shared" si="0"/>
         <v>0,0,0,0,0</v>
       </c>
-      <c r="Y64" s="10"/>
-      <c r="Z64" s="10">
+      <c r="Z64" s="10"/>
+      <c r="AA64" s="10">
         <v>1</v>
       </c>
-      <c r="AA64" s="10">
+      <c r="AB64" s="10">
         <v>0.5</v>
       </c>
-      <c r="AB64" s="10">
-        <v>0</v>
-      </c>
       <c r="AC64" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD64" s="10">
         <v>1</v>
       </c>
-      <c r="AD64" s="10">
+      <c r="AE64" s="10">
         <v>6</v>
       </c>
-      <c r="AE64" s="10"/>
-      <c r="AF64" s="11"/>
+      <c r="AF64" s="10"/>
+      <c r="AG64" s="11"/>
     </row>
-    <row r="65" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="65" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C65" s="3">
         <v>2801201</v>
       </c>
@@ -6571,30 +6707,28 @@
         <v>0</v>
       </c>
       <c r="G65" s="3"/>
-      <c r="H65" s="20" t="s">
+      <c r="H65" s="3"/>
+      <c r="I65" s="20" t="s">
         <v>199</v>
       </c>
-      <c r="I65" s="3" t="s">
+      <c r="J65" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="N65" s="2">
-        <v>0</v>
-      </c>
       <c r="O65" s="2">
+        <v>0</v>
+      </c>
+      <c r="P65" s="2">
         <v>10000</v>
       </c>
-      <c r="P65" s="2">
+      <c r="Q65" s="2">
         <v>321</v>
       </c>
-      <c r="R65" s="2">
-        <v>0</v>
-      </c>
       <c r="S65" s="2">
+        <v>0</v>
+      </c>
+      <c r="T65" s="2">
         <v>0.35</v>
       </c>
-      <c r="T65" s="2">
-        <v>0</v>
-      </c>
       <c r="U65" s="2">
         <v>0</v>
       </c>
@@ -6604,28 +6738,31 @@
       <c r="W65" s="2">
         <v>0</v>
       </c>
-      <c r="X65" s="2" t="str">
+      <c r="X65" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y65" s="2" t="str">
         <f t="shared" si="0"/>
         <v>0.35,0,0,0,0</v>
       </c>
-      <c r="Z65" s="2">
+      <c r="AA65" s="2">
         <v>1</v>
       </c>
-      <c r="AA65" s="2">
+      <c r="AB65" s="2">
         <v>0.5</v>
       </c>
-      <c r="AB65" s="2">
-        <v>0</v>
-      </c>
       <c r="AC65" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD65" s="2">
         <v>1</v>
       </c>
-      <c r="AD65" s="2">
+      <c r="AE65" s="2">
         <v>6</v>
       </c>
-      <c r="AF65" s="4"/>
+      <c r="AG65" s="4"/>
     </row>
-    <row r="66" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="66" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C66" s="3">
         <v>400111</v>
       </c>
@@ -6635,56 +6772,54 @@
       <c r="E66" s="20"/>
       <c r="F66" s="3"/>
       <c r="G66" s="3"/>
-      <c r="H66" s="20" t="s">
+      <c r="H66" s="3"/>
+      <c r="I66" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="I66" s="3" t="s">
+      <c r="J66" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>0.2</v>
       </c>
-      <c r="K66" s="3" t="s">
+      <c r="L66" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>0.2</v>
       </c>
-      <c r="M66" s="3"/>
-      <c r="N66" s="2">
-        <v>0</v>
-      </c>
+      <c r="N66" s="3"/>
       <c r="O66" s="2">
+        <v>0</v>
+      </c>
+      <c r="P66" s="2">
         <v>10000</v>
       </c>
-      <c r="P66" s="2">
+      <c r="Q66" s="2">
         <v>101</v>
       </c>
-      <c r="R66" s="2">
-        <v>0</v>
-      </c>
       <c r="S66" s="2">
+        <v>0</v>
+      </c>
+      <c r="T66" s="2">
         <v>1</v>
       </c>
-      <c r="T66" s="2">
+      <c r="U66" s="2">
         <v>200</v>
       </c>
-      <c r="U66" s="2">
-        <v>0</v>
-      </c>
       <c r="V66" s="2">
         <v>0</v>
       </c>
       <c r="W66" s="2">
         <v>0</v>
       </c>
-      <c r="X66" s="2" t="str">
-        <f t="shared" ref="X66:X73" si="4">S66&amp;","&amp;T66&amp;","&amp;U66&amp;","&amp;V66&amp;","&amp;W66</f>
+      <c r="X66" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y66" s="2" t="str">
+        <f t="shared" ref="Y66:Y73" si="4">T66&amp;","&amp;U66&amp;","&amp;V66&amp;","&amp;W66&amp;","&amp;X66</f>
         <v>1,200,0,0,0</v>
       </c>
-      <c r="Z66" s="2">
-        <v>0</v>
-      </c>
       <c r="AA66" s="2">
         <v>0</v>
       </c>
@@ -6697,9 +6832,12 @@
       <c r="AD66" s="2">
         <v>0</v>
       </c>
-      <c r="AF66" s="4"/>
+      <c r="AE66" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG66" s="4"/>
     </row>
-    <row r="67" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="67" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C67" s="3">
         <v>400201</v>
       </c>
@@ -6709,37 +6847,35 @@
       <c r="E67" s="20"/>
       <c r="F67" s="3"/>
       <c r="G67" s="3"/>
-      <c r="H67" s="20"/>
-      <c r="I67" s="3" t="s">
+      <c r="H67" s="3"/>
+      <c r="I67" s="20"/>
+      <c r="J67" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="J67" s="2">
+      <c r="K67" s="2">
         <v>0.2</v>
       </c>
-      <c r="K67" s="2" t="s">
+      <c r="L67" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="L67" s="2">
+      <c r="M67" s="2">
         <v>0.2</v>
       </c>
-      <c r="N67" s="2">
-        <v>0</v>
-      </c>
       <c r="O67" s="2">
+        <v>0</v>
+      </c>
+      <c r="P67" s="2">
         <v>10000</v>
       </c>
-      <c r="P67" s="2">
+      <c r="Q67" s="2">
         <v>101</v>
       </c>
-      <c r="R67" s="2">
-        <v>0</v>
-      </c>
       <c r="S67" s="2">
+        <v>0</v>
+      </c>
+      <c r="T67" s="2">
         <v>8</v>
       </c>
-      <c r="T67" s="2">
-        <v>0</v>
-      </c>
       <c r="U67" s="2">
         <v>0</v>
       </c>
@@ -6749,13 +6885,13 @@
       <c r="W67" s="2">
         <v>0</v>
       </c>
-      <c r="X67" s="2" t="str">
+      <c r="X67" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y67" s="2" t="str">
         <f t="shared" si="4"/>
         <v>8,0,0,0,0</v>
       </c>
-      <c r="Z67" s="2">
-        <v>0</v>
-      </c>
       <c r="AA67" s="2">
         <v>0</v>
       </c>
@@ -6768,9 +6904,12 @@
       <c r="AD67" s="2">
         <v>0</v>
       </c>
-      <c r="AF67" s="4"/>
+      <c r="AE67" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG67" s="4"/>
     </row>
-    <row r="68" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="68" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C68" s="3">
         <v>500111</v>
       </c>
@@ -6780,56 +6919,54 @@
       <c r="E68" s="20"/>
       <c r="F68" s="3"/>
       <c r="G68" s="3"/>
-      <c r="H68" s="20" t="s">
+      <c r="H68" s="3"/>
+      <c r="I68" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="I68" s="3" t="s">
+      <c r="J68" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="J68" s="3">
+      <c r="K68" s="3">
         <v>0.2</v>
       </c>
-      <c r="K68" s="3" t="s">
+      <c r="L68" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="L68" s="3">
+      <c r="M68" s="3">
         <v>0.2</v>
       </c>
-      <c r="M68" s="3"/>
-      <c r="N68" s="2">
-        <v>0</v>
-      </c>
+      <c r="N68" s="3"/>
       <c r="O68" s="2">
+        <v>0</v>
+      </c>
+      <c r="P68" s="2">
         <v>10000</v>
       </c>
-      <c r="P68" s="2">
+      <c r="Q68" s="2">
         <v>101</v>
       </c>
-      <c r="R68" s="2">
-        <v>0</v>
-      </c>
       <c r="S68" s="2">
+        <v>0</v>
+      </c>
+      <c r="T68" s="2">
         <v>1</v>
       </c>
-      <c r="T68" s="2">
+      <c r="U68" s="2">
         <v>200</v>
       </c>
-      <c r="U68" s="2">
-        <v>0</v>
-      </c>
       <c r="V68" s="2">
         <v>0</v>
       </c>
       <c r="W68" s="2">
         <v>0</v>
       </c>
-      <c r="X68" s="2" t="str">
+      <c r="X68" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y68" s="2" t="str">
         <f t="shared" si="4"/>
         <v>1,200,0,0,0</v>
       </c>
-      <c r="Z68" s="2">
-        <v>0</v>
-      </c>
       <c r="AA68" s="2">
         <v>0</v>
       </c>
@@ -6842,9 +6979,12 @@
       <c r="AD68" s="2">
         <v>0</v>
       </c>
-      <c r="AF68" s="4"/>
+      <c r="AE68" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG68" s="4"/>
     </row>
-    <row r="69" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="69" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C69" s="3">
         <v>600111</v>
       </c>
@@ -6854,56 +6994,54 @@
       <c r="E69" s="20"/>
       <c r="F69" s="3"/>
       <c r="G69" s="3"/>
-      <c r="H69" s="20" t="s">
+      <c r="H69" s="3"/>
+      <c r="I69" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="I69" s="3" t="s">
+      <c r="J69" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="J69" s="3">
+      <c r="K69" s="3">
         <v>0.2</v>
       </c>
-      <c r="K69" s="3" t="s">
+      <c r="L69" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="L69" s="3">
+      <c r="M69" s="3">
         <v>0.2</v>
       </c>
-      <c r="M69" s="3"/>
-      <c r="N69" s="2">
-        <v>0</v>
-      </c>
+      <c r="N69" s="3"/>
       <c r="O69" s="2">
+        <v>0</v>
+      </c>
+      <c r="P69" s="2">
         <v>10000</v>
       </c>
-      <c r="P69" s="2">
+      <c r="Q69" s="2">
         <v>101</v>
       </c>
-      <c r="R69" s="2">
-        <v>0</v>
-      </c>
       <c r="S69" s="2">
+        <v>0</v>
+      </c>
+      <c r="T69" s="2">
         <v>1</v>
       </c>
-      <c r="T69" s="2">
+      <c r="U69" s="2">
         <v>200</v>
       </c>
-      <c r="U69" s="2">
-        <v>0</v>
-      </c>
       <c r="V69" s="2">
         <v>0</v>
       </c>
       <c r="W69" s="2">
         <v>0</v>
       </c>
-      <c r="X69" s="2" t="str">
+      <c r="X69" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y69" s="2" t="str">
         <f t="shared" si="4"/>
         <v>1,200,0,0,0</v>
       </c>
-      <c r="Z69" s="2">
-        <v>0</v>
-      </c>
       <c r="AA69" s="2">
         <v>0</v>
       </c>
@@ -6916,9 +7054,12 @@
       <c r="AD69" s="2">
         <v>0</v>
       </c>
-      <c r="AF69" s="4"/>
+      <c r="AE69" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG69" s="4"/>
     </row>
-    <row r="70" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="70" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C70" s="3">
         <v>900111</v>
       </c>
@@ -6928,56 +7069,54 @@
       <c r="E70" s="20"/>
       <c r="F70" s="3"/>
       <c r="G70" s="3"/>
-      <c r="H70" s="20" t="s">
+      <c r="H70" s="3"/>
+      <c r="I70" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="I70" s="3" t="s">
+      <c r="J70" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="J70" s="3">
+      <c r="K70" s="3">
         <v>0.2</v>
       </c>
-      <c r="K70" s="3" t="s">
+      <c r="L70" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>0.2</v>
       </c>
-      <c r="M70" s="3"/>
-      <c r="N70" s="2">
-        <v>0</v>
-      </c>
+      <c r="N70" s="3"/>
       <c r="O70" s="2">
+        <v>0</v>
+      </c>
+      <c r="P70" s="2">
         <v>10000</v>
       </c>
-      <c r="P70" s="2">
+      <c r="Q70" s="2">
         <v>101</v>
       </c>
-      <c r="R70" s="2">
-        <v>0</v>
-      </c>
       <c r="S70" s="2">
+        <v>0</v>
+      </c>
+      <c r="T70" s="2">
         <v>1</v>
       </c>
-      <c r="T70" s="2">
+      <c r="U70" s="2">
         <v>200</v>
       </c>
-      <c r="U70" s="2">
-        <v>0</v>
-      </c>
       <c r="V70" s="2">
         <v>0</v>
       </c>
       <c r="W70" s="2">
         <v>0</v>
       </c>
-      <c r="X70" s="2" t="str">
+      <c r="X70" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y70" s="2" t="str">
         <f t="shared" si="4"/>
         <v>1,200,0,0,0</v>
       </c>
-      <c r="Z70" s="2">
-        <v>0</v>
-      </c>
       <c r="AA70" s="2">
         <v>0</v>
       </c>
@@ -6990,9 +7129,12 @@
       <c r="AD70" s="2">
         <v>0</v>
       </c>
-      <c r="AF70" s="4"/>
+      <c r="AE70" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG70" s="4"/>
     </row>
-    <row r="71" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="71" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C71" s="3">
         <v>900211</v>
       </c>
@@ -7002,37 +7144,35 @@
       <c r="E71" s="20"/>
       <c r="F71" s="3"/>
       <c r="G71" s="3"/>
-      <c r="H71" s="20"/>
-      <c r="I71" s="3" t="s">
+      <c r="H71" s="3"/>
+      <c r="I71" s="20"/>
+      <c r="J71" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="J71" s="2">
+      <c r="K71" s="2">
         <v>0.2</v>
       </c>
-      <c r="K71" s="2" t="s">
+      <c r="L71" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="L71" s="2">
+      <c r="M71" s="2">
         <v>0.2</v>
       </c>
-      <c r="N71" s="2">
-        <v>0</v>
-      </c>
       <c r="O71" s="2">
+        <v>0</v>
+      </c>
+      <c r="P71" s="2">
         <v>10000</v>
       </c>
-      <c r="P71" s="2">
+      <c r="Q71" s="2">
         <v>101</v>
       </c>
-      <c r="R71" s="2">
-        <v>0</v>
-      </c>
       <c r="S71" s="2">
+        <v>0</v>
+      </c>
+      <c r="T71" s="2">
         <v>10</v>
       </c>
-      <c r="T71" s="2">
-        <v>0</v>
-      </c>
       <c r="U71" s="2">
         <v>0</v>
       </c>
@@ -7042,13 +7182,13 @@
       <c r="W71" s="2">
         <v>0</v>
       </c>
-      <c r="X71" s="2" t="str">
+      <c r="X71" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y71" s="2" t="str">
         <f t="shared" si="4"/>
         <v>10,0,0,0,0</v>
       </c>
-      <c r="Z71" s="2">
-        <v>0</v>
-      </c>
       <c r="AA71" s="2">
         <v>0</v>
       </c>
@@ -7061,9 +7201,12 @@
       <c r="AD71" s="2">
         <v>0</v>
       </c>
-      <c r="AF71" s="4"/>
+      <c r="AE71" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG71" s="4"/>
     </row>
-    <row r="72" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="72" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C72" s="9">
         <v>900311</v>
       </c>
@@ -7073,28 +7216,26 @@
       <c r="E72" s="21"/>
       <c r="F72" s="9"/>
       <c r="G72" s="9"/>
-      <c r="H72" s="21"/>
-      <c r="I72" s="9"/>
-      <c r="J72" s="10"/>
+      <c r="H72" s="9"/>
+      <c r="I72" s="21"/>
+      <c r="J72" s="9"/>
       <c r="K72" s="10"/>
       <c r="L72" s="10"/>
       <c r="M72" s="10"/>
-      <c r="N72" s="10">
-        <v>0</v>
-      </c>
+      <c r="N72" s="10"/>
       <c r="O72" s="10">
+        <v>0</v>
+      </c>
+      <c r="P72" s="10">
         <v>10000</v>
       </c>
-      <c r="P72" s="10">
+      <c r="Q72" s="10">
         <v>902</v>
       </c>
-      <c r="Q72" s="10"/>
-      <c r="R72" s="10">
+      <c r="R72" s="10"/>
+      <c r="S72" s="10">
         <v>100402</v>
       </c>
-      <c r="S72" s="10">
-        <v>0</v>
-      </c>
       <c r="T72" s="10">
         <v>0</v>
       </c>
@@ -7107,14 +7248,14 @@
       <c r="W72" s="10">
         <v>0</v>
       </c>
-      <c r="X72" s="2" t="str">
+      <c r="X72" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y72" s="2" t="str">
         <f t="shared" si="4"/>
         <v>0,0,0,0,0</v>
       </c>
-      <c r="Y72" s="10"/>
-      <c r="Z72" s="10">
-        <v>0</v>
-      </c>
+      <c r="Z72" s="10"/>
       <c r="AA72" s="10">
         <v>0</v>
       </c>
@@ -7127,10 +7268,13 @@
       <c r="AD72" s="10">
         <v>0</v>
       </c>
-      <c r="AE72" s="10"/>
-      <c r="AF72" s="11"/>
+      <c r="AE72" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF72" s="10"/>
+      <c r="AG72" s="11"/>
     </row>
-    <row r="73" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="73" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C73" s="9">
         <v>900312</v>
       </c>
@@ -7140,19 +7284,17 @@
       <c r="E73" s="20"/>
       <c r="F73" s="3"/>
       <c r="G73" s="3"/>
-      <c r="I73" s="3"/>
-      <c r="N73" s="2">
-        <v>0</v>
-      </c>
+      <c r="H73" s="3"/>
+      <c r="J73" s="3"/>
       <c r="O73" s="2">
+        <v>0</v>
+      </c>
+      <c r="P73" s="2">
         <v>10000</v>
       </c>
-      <c r="P73" s="2">
+      <c r="Q73" s="2">
         <v>903</v>
       </c>
-      <c r="R73" s="2">
-        <v>0</v>
-      </c>
       <c r="S73" s="2">
         <v>0</v>
       </c>
@@ -7168,13 +7310,13 @@
       <c r="W73" s="2">
         <v>0</v>
       </c>
-      <c r="X73" s="2" t="str">
+      <c r="X73" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y73" s="2" t="str">
         <f t="shared" si="4"/>
         <v>0,0,0,0,0</v>
       </c>
-      <c r="Z73" s="2">
-        <v>0</v>
-      </c>
       <c r="AA73" s="2">
         <v>0</v>
       </c>
@@ -7187,17 +7329,20 @@
       <c r="AD73" s="2">
         <v>0</v>
       </c>
-      <c r="AF73" s="4"/>
+      <c r="AE73" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG73" s="4"/>
     </row>
-    <row r="74" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="74" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C74" s="9"/>
       <c r="D74" s="21"/>
       <c r="E74" s="21"/>
       <c r="F74" s="9"/>
       <c r="G74" s="9"/>
-      <c r="H74" s="42"/>
-      <c r="I74" s="9"/>
-      <c r="J74" s="10"/>
+      <c r="H74" s="9"/>
+      <c r="I74" s="42"/>
+      <c r="J74" s="9"/>
       <c r="K74" s="10"/>
       <c r="L74" s="10"/>
       <c r="M74" s="10"/>
@@ -7219,17 +7364,18 @@
       <c r="AC74" s="10"/>
       <c r="AD74" s="10"/>
       <c r="AE74" s="10"/>
-      <c r="AF74" s="11"/>
+      <c r="AF74" s="10"/>
+      <c r="AG74" s="11"/>
     </row>
-    <row r="75" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="75" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C75" s="9"/>
       <c r="D75" s="21"/>
       <c r="E75" s="21"/>
       <c r="F75" s="9"/>
       <c r="G75" s="9"/>
-      <c r="H75" s="42"/>
-      <c r="I75" s="9"/>
-      <c r="J75" s="10"/>
+      <c r="H75" s="9"/>
+      <c r="I75" s="42"/>
+      <c r="J75" s="9"/>
       <c r="K75" s="10"/>
       <c r="L75" s="10"/>
       <c r="M75" s="10"/>
@@ -7251,7 +7397,8 @@
       <c r="AC75" s="10"/>
       <c r="AD75" s="10"/>
       <c r="AE75" s="10"/>
-      <c r="AF75" s="11"/>
+      <c r="AF75" s="10"/>
+      <c r="AG75" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
